--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -440,7 +440,9 @@
 23/1/2024, 15:01:55 - Gustavo Gomez Villafañe: hola
 23/1/2024, 15:01:55 - MegaBot: Hola de nuevo. ¿Tienes alguna otra consulta sobre las motos de Megamoto o algo más en lo que pueda ayudarte?
 23/1/2024, 15:07:12 - Gustavo Gomez Villafañe: hola
-23/1/2024, 15:07:12 - MegaBot: Hola nuevamente. Por favor házmelo saber si necesitas ayuda con algo.</v>
+23/1/2024, 15:07:12 - MegaBot: Hola nuevamente. Por favor házmelo saber si necesitas ayuda con algo.
+23/1/2024, 16:20:11 - Gustavo Gomez Villafañe: hola
+23/1/2024, 16:20:11 - MegaBot: Hola, ¿en qué puedo ayudarte hoy?</v>
       </c>
       <c r="D2" t="str">
         <v>6596d62461f4a300081b28cb</v>
@@ -1419,9 +1421,86 @@
         <v>45314.65409177083</v>
       </c>
     </row>
+    <row r="52" xml:space="preserve">
+      <c r="A52" t="str">
+        <v>Ruben😘</v>
+      </c>
+      <c r="B52" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C52" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 16:31:22 - Ruben😘: ¡Hola! Quiero más información.
+23/1/2024, 16:31:22 - MegaBot: ¡Hola Ruben😘! Soy MegaBot, un Asistente Virtual de Megamoto. Según nuestra base de conocimiento, Megamoto comercializa motos, repuestos, accesorios y bicicletas de varias marcas, y ofrece servicios de postventa. Puedes encontrarlos en Merlo y en CABA, con diferentes horarios de atención. Los métodos de pago incluyen pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios, con la posibilidad de financiación en cuotas【9†source】.
+En cuanto a los modelos de motos y sus precios de contado sin patentamiento, tengo un archivo con esa información que puedo revisar para ti. ¿Te interesa obtener la lista de precios de alguna moto en particular?</v>
+      </c>
+      <c r="D52" t="str">
+        <v>65b013f9bff5550008cfce8d</v>
+      </c>
+      <c r="E52" s="1">
+        <v>45314.68790163194</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="A53" t="str">
+        <v>Oscar</v>
+      </c>
+      <c r="B53" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C53" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 16:31:44 - Oscar: ¡Hola! Quiero más información.
+23/1/2024, 16:31:44 - MegaBot: La información que me enviaste es muy útil. Según la base de conocimiento de Megamoto, los métodos de pago disponibles son pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios. También se puede combinar diferentes métodos de pago. En cuanto a la financiación, se puede pagar hasta en 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales. Para saber si te otorgan crédito, será necesario proporcionar el número de documento【9†fuente】.
+También tengo la lista de precios de algunas motos de Megamoto. ¿Tienes en mente algún modelo en particular? Si es así, ¿de dónde eres y cómo te gustaría pagar? Esto me ayudará a proporcionarte información más precisa sobre la moto que estás buscando y las opciones de financiación disponibles.
+23/1/2024, 16:32:11 - Oscar: Son agencia oficial d Beneli d donde son
+23/1/2024, 16:32:11 - MegaBot: Megamoto es una agencia oficial que comercializa motos, repuestos, accesorios y bicicletas de la marca Benelli, entre otras marcas【15†fuente】. Megamoto tiene sucursales en Merlo y en la zona del Abasto en CABA. ¿En qué sucursal estás interesado?</v>
+      </c>
+      <c r="D53" t="str">
+        <v>65b0140bbff5550008cfd351</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45314.688156041666</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="A54" t="str">
+        <v>Leonel Amitrano</v>
+      </c>
+      <c r="B54" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C54" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 16:34:33 - Leonel Amitrano: ¡Hola! Quiero más información.
+23/1/2024, 16:34:33 - MegaBot: ¡Hola Leonel Amitrano! Gracias por enviar la información. Veo que estás interesado en comprar una moto. Para poder ayudarte más rápido, ¿podrías indicarme qué modelo de moto estás buscando y en qué lugar te encuentras? Además, ¿tienes alguna preferencia sobre cómo deseas realizar el pago? Puedes elegir entre pago contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios. ¡Estoy aquí para ayudarte con tu compra en Megamoto!</v>
+      </c>
+      <c r="D54" t="str">
+        <v>65b014b5fea3ac0008edbb17</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45314.69010436343</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="A55" t="str">
+        <v>Mily💋</v>
+      </c>
+      <c r="B55" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C55" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 17:21:16 - Mily💋: 110
+23/1/2024, 17:21:18 - MegaBot: ¡Hola Mily💋! Soy MegaBot, un Asistente Virtual de Megamoto. Según nuestra información, los métodos de pago disponibles son pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR Mercado Pago, préstamos personales o préstamos prendarios. Además, se ofrece financiación de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, con la posibilidad de llevarse la moto en el momento y comenzar a pagar en dos meses【11†fuente】.
+En cuanto al modelo MAX 110 A/E, el precio de contado sin patentamiento es de 1,153,950.00. ¿De dónde eres y cómo te gustaría pagar?</v>
+      </c>
+      <c r="D55" t="str">
+        <v>654c55e809a610000962360d</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45314.7225540625</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E55"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -442,7 +442,11 @@
 23/1/2024, 15:07:12 - Gustavo Gomez Villafañe: hola
 23/1/2024, 15:07:12 - MegaBot: Hola nuevamente. Por favor házmelo saber si necesitas ayuda con algo.
 23/1/2024, 16:20:11 - Gustavo Gomez Villafañe: hola
-23/1/2024, 16:20:11 - MegaBot: Hola, ¿en qué puedo ayudarte hoy?</v>
+23/1/2024, 16:20:11 - MegaBot: Hola, ¿en qué puedo ayudarte hoy?
+24/1/2024, 7:19:14 - Gustavo Gomez Villafañe: hola
+24/1/2024, 7:19:15 - MegaBot: Hola, ¿en qué puedo ayudarte hoy?
+24/1/2024, 7:34:54 - Gustavo Gomez Villafañe: hola
+24/1/2024, 7:34:54 - MegaBot: Hola, ¿en qué puedo ayudarte?</v>
       </c>
       <c r="D2" t="str">
         <v>6596d62461f4a300081b28cb</v>
@@ -800,7 +804,12 @@
         <v xml:space="preserve">22/1/2024, 15:00:56 - 🫡😊😌⛹️: Hola
 22/1/2024, 15:00:56 - MegaBot: ¡Hola! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
 22/1/2024, 15:01:00 - 🫡😊😌⛹️: Que tal
-22/1/2024, 15:01:00 - MegaBot: ¡Bien, gracias! ¿En qué puedo ayudarte hoy? ¿Tienes alguna consulta sobre las motocicletas o bicicletas de Megamoto?</v>
+22/1/2024, 15:01:00 - MegaBot: ¡Bien, gracias! ¿En qué puedo ayudarte hoy? ¿Tienes alguna consulta sobre las motocicletas o bicicletas de Megamoto?
+24/1/2024, 10:10:58 - 🫡😊😌⛹️: Hola.qhe tal.
+Podría enviar el número del dni para un garante..
+24/1/2024, 10:10:58 - MegaBot: Lo siento, pero como Asistente Virtual de Megamoto, mi función es proporcionar información y asistencia sobre motocicletas y bicicletas. Si necesitas ayuda con otras consultas, te recomendaría contactar directamente a Megamoto o a la persona o entidad correspondiente para obtener la asistencia adecuada.
+24/1/2024, 10:19:06 - 🫡😊😌⛹️: 40.242.480
+24/1/2024, 10:19:07 - MegaBot: Entiendo, ¿tienes alguna consulta relacionada con las motocicletas de Megamoto o bicicletas en las que pueda ayudarte?</v>
       </c>
       <c r="D20" t="str">
         <v>65ae9b8595eda500081d1fed</v>
@@ -1000,7 +1009,9 @@
         <v xml:space="preserve">22/1/2024, 17:22:24 - Roberto Coliva: ¡Hola! Quiero más información.
 22/1/2024, 17:22:25 - MegaBot: ¡Hola Roberto Coliva! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
 22/1/2024, 17:23:54 - Roberto Coliva: ¡Hola! Quiero más información.
-22/1/2024, 17:23:54 - MegaBot: ¡Hola! ¿En qué moto estás interesado? Necesitaré también tu dirección, un método de contacto y tu preferencia de pago.</v>
+22/1/2024, 17:23:54 - MegaBot: ¡Hola! ¿En qué moto estás interesado? Necesitaré también tu dirección, un método de contacto y tu preferencia de pago.
+23/1/2024, 18:18:18 - Roberto Coliva: Todo bien
+23/1/2024, 18:18:19 - MegaBot: ¡Excelente! ¿En qué modelo de moto estás interesado? Además, necesitaré tu dirección, un método de contacto y tu preferencia de pago.</v>
       </c>
       <c r="D30" t="str">
         <v>65aece76ad10a700081a3096</v>
@@ -1281,7 +1292,13 @@
         <v xml:space="preserve">23/1/2024, 9:25:39 - ..: Hola buenas
 23/1/2024, 9:25:39 - MegaBot: ¡Hola! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
 23/1/2024, 9:26:03 - ..: Te quería preguntar en la forma de pagar de cuantas cuotas sería ?
-23/1/2024, 9:26:03 - MegaBot: La cantidad de cuotas depende del acuerdo con la financiera o banco. Necesitaría saber qué modelo te interesa para proporcionarte más detalles. ¿Cuál es el modelo y tus datos de contacto?</v>
+23/1/2024, 9:26:03 - MegaBot: La cantidad de cuotas depende del acuerdo con la financiera o banco. Necesitaría saber qué modelo te interesa para proporcionarte más detalles. ¿Cuál es el modelo y tus datos de contacto?
+23/1/2024, 18:21:30 - ..: Partir de los 21 se puede
+23/1/2024, 18:21:30 - MegaBot: Basado en la lista de precios, el modelo "STRATO 150 EURO" tiene un precio al contado de $1,913,100. Te puedo ayudar con más detalles si estás interesado en este modelo o algún otro. Además, ¿podrías proporcionar tus datos de contacto, ubicación y el método de pago preferido?
+23/1/2024, 18:21:51 - ..: Dale gracias entonces, tengo 19 recien
+23/1/2024, 18:21:51 - MegaBot: ¡De nada! Si necesitas más información sobre las opciones de financiamiento o sobre algún modelo en específico, no dudes en contactarme. ¡Que tengas un buen día!
+23/1/2024, 18:21:58 - ..: Pero gracias por la info
+23/1/2024, 18:21:58 - MegaBot: ¡De nada! Estoy aquí para ayudarte en lo que necesites. ¡Que tengas un excelente día!</v>
       </c>
       <c r="D44" t="str">
         <v>659edfaf6df1c90008e1d5bf</v>
@@ -1336,7 +1353,11 @@
       </c>
       <c r="C47" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 11:16:28 - 👀: Hola buen día para hablar con un representante por favor gracias
-23/1/2024, 11:16:28 - MegaBot: ¡Hola 👀! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+23/1/2024, 11:16:28 - MegaBot: ¡Hola 👀! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+23/1/2024, 18:20:38 - 👀: Hola si
+23/1/2024, 18:20:38 - MegaBot: Para poder ayudarte mejor, ¿podrías indicarme qué modelo de moto te interesa, tu ubicación y cómo te gustaría efectuar el pago?
+23/1/2024, 18:21:02 - 👀: Quería saber por Motomel 110cc
+23/1/2024, 18:21:02 - MegaBot: Para la Moto Motomel 110cc, el precio de contado sin patentamiento es de $936116.  Por favor, confirma tu ubicación y tu método de pago preferido para poder asesorarte mejor【16†fuente】.</v>
       </c>
       <c r="D47" t="str">
         <v>65afca2f90c6a900088ebb4c</v>
@@ -1391,7 +1412,9 @@
       <c r="C50" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 15:33:30 - Lorena: ¡Hola! Podrías darme más información de...
 23/1/2024, 15:33:30 - MegaBot: ¡Hola Lorena! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estás buscando, de donde sos, y cómo querés pagar.
-Además, tengo una lista de precios actualizada para que puedas ver las opciones disponibles. ¿En qué más te puedo ayudar?</v>
+Además, tengo una lista de precios actualizada para que puedas ver las opciones disponibles. ¿En qué más te puedo ayudar?
+23/1/2024, 18:24:55 - Lorena: La suzuki
+23/1/2024, 18:24:55 - MegaBot: Lorena, la Suzuki SKUA 250 BASE NEW tiene un precio al contado sin patentamiento de $2,194,895.00. ¿Dónde te encuentras y cómo prefieres pagar?</v>
       </c>
       <c r="D50" t="str">
         <v>65b00666cea2f000085a4b98</v>
@@ -1412,7 +1435,11 @@
 23/1/2024, 15:42:41 - MegaBot: ¡Hola Hugo! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder atenderte más rápido, necesitaría que me brindes la siguiente información:
 1. ¿Qué moto estás buscando?
 2. ¿De dónde eres?
-3. ¿Cómo te gustaría pagar?【9†fuente】</v>
+3. ¿Cómo te gustaría pagar?【9†fuente】
+23/1/2024, 18:23:29 - Hugo: Tiene concesionaria en Posadas misiones
+23/1/2024, 18:23:29 - MegaBot: ¡Hugo! Megamoto tiene sucursales en Merlo y CABA, pero no en Posadas, Misiones. ¿Hay algo más en lo que pueda ayudarte?【8†fuente】
+23/1/2024, 18:23:36 - Hugo: ??
+23/1/2024, 18:23:36 - MegaBot: Lo siento, parece que Megamoto no tiene una sucursal en Posadas, Misiones. ¿Hay algo más en lo que pueda ayudarte?</v>
       </c>
       <c r="D51" t="str">
         <v>65b0088baf8d190008404eb8</v>
@@ -1498,9 +1525,515 @@
         <v>45314.7225540625</v>
       </c>
     </row>
+    <row r="56" xml:space="preserve">
+      <c r="A56" t="str">
+        <v>Pablo</v>
+      </c>
+      <c r="B56" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C56" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:01:14 - Pablo: 5000 de adelanto
+23/1/2024, 18:01:14 - MegaBot: Según la información proporcionada, los métodos de pago disponibles son pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios, pudiendo hacer una combinación entre estos métodos. Además, se menciona que las distintas formas de pago pueden ser realizadas por otra persona, sin embargo, la moto saldrá a nombre de quien decidan【9†source】.
+A continuación, encontrarás una lista de modelos de motos con sus respectivos precios de contado sin patentamiento. Por favor, indícame cuál es el modelo que estás buscando y de dónde eres para poder brindarte asistencia con tu solicitud de compra.
+23/1/2024, 18:01:40 - Pablo: Es el único modelo que trabajas?
+23/1/2024, 18:01:40 - MegaBot: No, Megamoto tiene varios modelos de motos disponibles. Aquí tienes algunos de los modelos junto con sus precios de contado sin patentamiento:
+- STRATO 150 ALPINO: $2.021.250
+- STRATO 150 EURO: $1.913.100
+- MAX 110 A/E: $1.153.950
+- CG 150 S2 START: $1.151.200
+- CG 150 S2 FULL (aleac / disco): $1.406.275
+- Y muchos otros modelos.
+Por favor, indícame cuál es el modelo de tu interés y tu ubicación para poder proporcionarte más información sobre el modelo específico y los detalles de la compra.
+23/1/2024, 18:04:45 - Pablo: Solo línea Benelli?
+23/1/2024, 18:04:46 - MegaBot: Además de la línea Benelli, Megamoto comercializa motos, repuestos, accesorios y bicicletas de otras marcas como Suzuki, Motomel, Keeway, Sym, Scott, Orbea, Tecnial y Shiro【19†source】. Si estás interesado en algún modelo específico de Benelli o en alguna de estas otras marcas, por favor indícame el modelo de tu interés y tu ubicación para brindarte información detallada y los pasos para la compra.</v>
+      </c>
+      <c r="D56" t="str">
+        <v>65a92bfe309f7100087ebf0b</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45314.750304166664</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="A57" t="str">
+        <v>Jose Luis</v>
+      </c>
+      <c r="B57" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C57" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:04:19 - Jose Luis: Hola.  Ya compre. Te agendo por si surge algo nuevo
+23/1/2024, 18:04:19 - MegaBot: Entendido, gracias por contar conmigo. ¡Que disfrutes tu nueva motocicleta! Si en el futuro necesitas ayuda o información adicional, no dudes en contactarme.</v>
+      </c>
+      <c r="D57" t="str">
+        <v>65abb898ef98e80008dd031f</v>
+      </c>
+      <c r="E57" s="1">
+        <v>45314.75244833333</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="A58" t="str">
+        <v>Gabii Gomez</v>
+      </c>
+      <c r="B58" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C58" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:04:46 - Gabii Gomez: ¡Hola! Podrías darme más información de...
+23/1/2024, 18:04:46 - MegaBot: ¡Hola Gabii Gomez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D58" t="str">
+        <v>65b029e4ecfa4000084a3ae4</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45314.75276041667</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
+      <c r="A59" t="str">
+        <v>Lezcanojavier027</v>
+      </c>
+      <c r="B59" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C59" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:05:23 - Lezcanojavier027: Hola si tengo 27 años tengo pension mi  DNI 39789082 nombre  y apellido Javier Matías lezcano
+23/1/2024, 18:05:23 - MegaBot: ¡Hola Lezcanojavier027! Soy MegaBot, un Asistente Virtual de Megamoto. ¿En qué puedo ayudarte hoy?</v>
+      </c>
+      <c r="D59" t="str">
+        <v>65a812d59fa77600081b00a1</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45314.753191979165</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="A60" t="str">
+        <v>Migue</v>
+      </c>
+      <c r="B60" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C60" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:12:08 - Migue: ¡Hola! Podrías darme más información de...a
+23/1/2024, 18:12:08 - MegaBot: ¡Hola Migue! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. También te puedo ayudar con los precios de nuestras motos, si necesitas información sobre eso.</v>
+      </c>
+      <c r="D60" t="str">
+        <v>659b57bc97099600097c5826</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45314.75787854167</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
+      <c r="A61" t="str">
+        <v>🦝</v>
+      </c>
+      <c r="B61" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C61" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:22:32 - 🦝: 251s bonelli m
+23/1/2024, 18:22:32 - MegaBot: ¡Hola 🦝! Soy MegaBot, un Asistente Virtual de Megamoto. Para ayudarte más rápido, necesito que me indiques tu ubicación, el modelo de moto que estás buscando y tu forma de pago. Además, te comento que las sucursales de Megamoto se encuentran en Merlo, con horario de lunes a sábados de 10 a 19 horas, y en CABA zona Abasto, con horario de lunes a viernes de 9 a 19 horas y sábados de 9 a 13 horas【9†source】.
+23/1/2024, 18:22:41 - 🦝: Me interesa esa
+23/1/2024, 18:22:42 - MegaBot: Perfecto, veo que estás interesado en la moto "251S". El precio de contado sin patentamiento para la "251S" es de 4844990.31 ARS. ¿Me podrías indicar tu ubicación, modelo de moto y método de pago preferido?</v>
+      </c>
+      <c r="D61" t="str">
+        <v>65affd4a3b673500097b3294</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45314.76509666667</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="A62" t="str">
+        <v>Jonaaa</v>
+      </c>
+      <c r="B62" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C62" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:22:49 - Jonaaa: Consultaba por la Suzuki gn 125
+23/1/2024, 18:22:49 - MegaBot: ¡Hola Jonaaa! Gracias por consultar por la Suzuki GN 125. En la lista de precios que tengo disponible, el precio de contado sin patentamiento para la Suzuki GN 125 es de 2061754.39 pesos【9†fuente】. Si deseas información sobre financiación, métodos de pago o disponibilidad de la motocicleta, por favor házmelo saber para que pueda ayudarte de la mejor manera.
+23/1/2024, 18:22:54 - Jonaaa: Que precio tiene
+23/1/2024, 18:22:54 - MegaBot: El precio de contado sin patentar para la Suzuki GN 125 es de 2061754.39 pesos argentinos【8†fuente】.</v>
+      </c>
+      <c r="D62" t="str">
+        <v>65af1b621a73920008e21427</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45314.76529693287</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="A63" t="str">
+        <v>Yohaa!! ⚽❤️</v>
+      </c>
+      <c r="B63" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C63" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:22:59 - Yohaa!! ⚽❤️: La Motomel 110
+23/1/2024, 18:22:59 - MegaBot: ¡Hola Yohaa! ⚽❤️! Soy MegaBot, un Asistente Virtual de Megamoto. Para ayudarte mejor, ¿podrías indicarme de dónde eres y cómo te gustaría pagar?</v>
+      </c>
+      <c r="D63" t="str">
+        <v>65afdd561dcc700008f1b80e</v>
+      </c>
+      <c r="E63" s="1">
+        <v>45314.7654071412</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="A64" t="str">
+        <v>Walterlescano1993</v>
+      </c>
+      <c r="B64" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C64" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:23:13 - Walterlescano1993: Hola qué precio tiene la Benelli 302?
+23/1/2024, 18:23:13 - MegaBot: El precio de la Benelli 302 no se encuentra en el archivo proporcionado. Sin embargo, basándome en la lista de precios, puedo ver que el modelo "SKUA 250 ADVENTURE NUEVO MODELO" tiene un precio al contado sin patentamiento de $3,149,895【15†source】. Te recomendaría consultar directamente con Megamoto para obtener el precio específico de la Benelli 302.</v>
+      </c>
+      <c r="D64" t="str">
+        <v>65afdeb916f3350008932eab</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45314.76557592593</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="A65" t="str">
+        <v>Cristian</v>
+      </c>
+      <c r="B65" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C65" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:42:18 - Cristian: ¡Hola! Quiero más información.
+23/1/2024, 18:42:18 - MegaBot: ¡Hola Cristian! Gracias por contactar a Megamoto. Según nuestra base de conocimiento, la financiación puede ser de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, con cuotas fijas y la posibilidad de llevarse la moto en el momento y comenzar a pagar en dos meses【9†source】.
+En cuanto a la información de las motos que tenemos disponibles, te puedo ofrecer precios de contado sin patentamiento de diferentes modelos. Por ejemplo, la "STRATO 150 ALPINO" tiene un precio de 2.021.250,00, la "STRATO 150 EURO" tiene un precio de 1.913.100,00, entre otros modelos disponibles.
+Por favor, házmelo saber si estás interesado en algún modelo en particular, de dónde eres y cómo te gustaría realizar el pago para que pueda ayudarte de la mejor manera.</v>
+      </c>
+      <c r="D65" t="str">
+        <v>65b032a8f31ce6000807c7ef</v>
+      </c>
+      <c r="E65" s="1">
+        <v>45314.77882273148</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str">
+        <v>Tomás🕸️</v>
+      </c>
+      <c r="B66" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C66" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:43:33 - Tomás🕸️: con prestamo personal
+23/1/2024, 18:43:34 - MegaBot: ¡Hola Tomás🕸️! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. También, si tienes alguna preferencia de pago con préstamo personal, házmelo saber para poder ayudarte de la mejor manera posible.</v>
+      </c>
+      <c r="D66" t="str">
+        <v>658f1f54c08b9c0008b7fefd</v>
+      </c>
+      <c r="E66" s="1">
+        <v>45314.779697337966</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="A67" t="str">
+        <v>Javier Daniel Cortez</v>
+      </c>
+      <c r="B67" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C67" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:50:36 - Javier Daniel Cortez: Queria saber las cuotas de deluxe por mes la mas baja cuota
+23/1/2024, 18:50:36 - MegaBot: Lamentablemente, no parece haber información sobre las cuotas mensuales en los archivos que has proporcionado. Para brindarte la información precisa, necesitaría saber la tasa de interés y el plazo en el que estás interesado en pagar las cuotas mensuales. ¿Puedes proporcionar esta información para que pueda calcular las cuotas de la moto DLX 110 DELUXE?</v>
+      </c>
+      <c r="D67" t="str">
+        <v>65af82b2ff6c3400087152b3</v>
+      </c>
+      <c r="E67" s="1">
+        <v>45314.78459079861</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="A68" t="str">
+        <v>Cristian</v>
+      </c>
+      <c r="B68" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C68" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:58:26 - Cristian: Hola .. si estoy interesado en la trk 502.. cuánto vale y en caso de entrega y financiación. gracias
+23/1/2024, 18:58:26 - MegaBot: ¡Hola Cristian! La moto TRK 502 tiene un precio de contado sin patentamiento de $11,870,100【13†source】. En cuanto a la entrega y financiación, puedes financiar la compra de la moto hasta en 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales. Además, el anticipo se puede financiar en un 100% si la tarjeta o la entidad prestamista así lo determinan【9†source】. Si estás interesado en proceder con la compra, necesitaré que me indiques desde dónde te estás contactando y qué forma de pago prefieres.</v>
+      </c>
+      <c r="D68" t="str">
+        <v>65aba885fd82f2000871e208</v>
+      </c>
+      <c r="E68" s="1">
+        <v>45314.790030219905</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="A69" t="str">
+        <v>Rodrigo Maximiliano</v>
+      </c>
+      <c r="B69" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C69" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:58:49 - Rodrigo Maximiliano: Buen día
+23/1/2024, 18:58:50 - MegaBot: ¡Buen día! ¿En qué puedo ayudarte hoy?
+23/1/2024, 18:59:01 - Rodrigo Maximiliano: Binelli
+23/1/2024, 18:59:01 - MegaBot: El precio de la Binelli Leoncino 500 Trail es de $11,078,100 pesos argentinos【11†source】. ¿Te gustaría recibir más información sobre este modelo o algún otro?
+23/1/2024, 18:59:10 - Rodrigo Maximiliano: Algo en 150
+23/1/2024, 18:59:10 - MegaBot: Tenemos varias opciones en la lista de precios que podrían interesarte:
+- Strato 150 Alpino: $2,021,250
+- Strato 150 Euro: $1,913,100
+- CG 150 S2 Start: $1,151,200
+- CG 150 S2 Full (Aleac / Disco): $1,406,275
+- Max 110 A/E: $1,153,950
+- RK 150: $1,810,000
+- Skua 150 New Generation: $1,467,450
+- Skua 150 Silver Edition: $1,966,650
+- Sirius 190: $2,149,500
+- Skua 250 Base New: $2,194,895
+- XMM 250 Nueva: $2,520,000
+- Skua 125 X-Treme: $1,410,759【10†source】.
+¿Te interesa alguno de estos modelos o buscas algo en particular?</v>
+      </c>
+      <c r="D69" t="str">
+        <v>65aba911ff68a80008df6757</v>
+      </c>
+      <c r="E69" s="1">
+        <v>45314.790300532404</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="A70" t="str">
+        <v>Oíd Mortales</v>
+      </c>
+      <c r="B70" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C70" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:59:27 - Oíd Mortales: Info sobre la Skua MMX
+23/1/2024, 18:59:27 - MegaBot: Encontré información sobre la Skua MMX en el archivo "V2 - Base de conocimiento de Megamoto.pdf", pero también puedo proporcionarte el precio al contado sin patentamiento de la Skua 150 New Generation, que es de $1,467,450, y el de la Skua 150 Silver Edition, que es de $1,966,650, según el archivo "listaDePrecios_22-1-2024.json". ¿Hay algo más específico que estés buscando sobre la Skua MMX o necesitas ayuda con otro tema?
+23/1/2024, 19:00:00 - Oíd Mortales: Info sobre la Skua 250
+23/1/2024, 19:00:01 - MegaBot: El precio al contado sin patentamiento de la Skua 250 Base New es de $2,194,895 y el de la Skua 250 Adventure Nuevo Modelo es de $3,149,895, según el archivo "listaDePrecios_22-1-2024.json". Si necesitas más información o ayuda con algo más, no dudes en preguntar.
+23/1/2024, 19:00:12 - Oíd Mortales: Y la MMX
+23/1/2024, 19:00:12 - MegaBot: Lamentablemente, no he podido encontrar información específica sobre la Skua MMX en el archivo proporcionado "Base de conocimiento de Megamoto.pdf". ¿En qué más puedo ayudarte?</v>
+      </c>
+      <c r="D70" t="str">
+        <v>65af5484c42675000a90338e</v>
+      </c>
+      <c r="E70" s="1">
+        <v>45314.79073577547</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
+      <c r="A71" t="str">
+        <v>❤️d.f.a❤️</v>
+      </c>
+      <c r="B71" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C71" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:59:33 - ❤️d.f.a❤️: ¡Hola! Quiero más información.
+23/1/2024, 18:59:34 - MegaBot: ¡Hola ❤️d.f.a❤️! Gracias por compartir la información. Para poder brindarte la mejor atención, necesito que me indiques qué modelo de moto estás buscando, de dónde eres y cómo deseas realizar el pago. Además, tengo una lista de precios con distintos modelos de motos y sus precios al contado sin patentamiento, por si te interesa consultarla.</v>
+      </c>
+      <c r="D71" t="str">
+        <v>65b036bbbf038100085eb4f0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>45314.790808101854</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str">
+        <v>Orlando</v>
+      </c>
+      <c r="B72" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C72" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 19:01:30 - Orlando: ¡Hola! Me gustaría conseguir más información sobre esto.
+23/1/2024, 19:01:31 - MegaBot: ¡Hola Orlando! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte más rápido, necesitaría la siguiente información: 
+1. ¿Qué moto estás buscando?
+2. ¿En qué ubicación te encuentras?
+3. ¿Cómo te gustaría pagar?【9†fuente】
+23/1/2024, 19:02:47 - Orlando: Hola, 30 cuotas de que valor ???
+23/1/2024, 19:02:47 - MegaBot: El precio de contado sin patentamiento para la moto MAX 110 A/E es de $1,153,950【21†fuente】. Las cuotas y su valor dependerán del plan de financiación que elijas. Para obtener más detalles, te recomendaría que te comuniques directamente con Megamoto a través de los números de contacto proporcionados anteriormente.</v>
+      </c>
+      <c r="D72" t="str">
+        <v>65b0372c5fc18c0008d49964</v>
+      </c>
+      <c r="E72" s="1">
+        <v>45314.792163969905</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
+      <c r="A73" t="str">
+        <v>Abrázame Con Toda El Alma</v>
+      </c>
+      <c r="B73" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C73" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 19:19:35 - Abrázame Con Toda El Alma: G catan
+23/1/2024, 19:19:35 - MegaBot: ¡Hola Abrázame Con Toda El Alma! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte mejor, ¿podrías indicarme qué moto estás buscando, de dónde eres y cómo quieres pagar?</v>
+      </c>
+      <c r="D73" t="str">
+        <v>65af9c2d668e8900089f1193</v>
+      </c>
+      <c r="E73" s="1">
+        <v>45314.80471667824</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
+        <v>~cele~</v>
+      </c>
+      <c r="B74" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C74" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 19:40:42 - ~cele~: Hola buenas tardes 
+Soy de Zárate
+Si
+23/1/2024, 19:40:42 - MegaBot: ¡Hola! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte más rápido, necesitaría que me digas qué tipo de moto estás buscando y cómo te gustaría pagar. También, si tienes alguna preferencia en cuanto a la marca o modelo, ¡no dudes en mencionarlo!</v>
+      </c>
+      <c r="D74" t="str">
+        <v>65a5a172b6e0300009252fc4</v>
+      </c>
+      <c r="E74" s="1">
+        <v>45314.819376493055</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
+      <c r="A75" t="str">
+        <v>Kevin⚽️</v>
+      </c>
+      <c r="B75" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C75" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 9:08:36 - Kevin⚽️: Suzuki 100?
+24/1/2024, 9:08:36 - MegaBot: Parece que ha habido un problema al intentar acceder a la información sobre la Suzuki 100. Por favor, permíteme un momento para solucionarlo.</v>
+      </c>
+      <c r="D75" t="str">
+        <v>65ac15350a045e0008ada62f</v>
+      </c>
+      <c r="E75" s="1">
+        <v>45315.38042079861</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str">
+        <v>Felix</v>
+      </c>
+      <c r="B76" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C76" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 9:39:25 - Felix: ¡Hola! Podrías darme más información de...
+24/1/2024, 9:39:25 - MegaBot: ¡Hola Felix! Soy MegaBot, un Asistente Virtual de Megamoto. ¿En qué puedo ayudarte con la compra de una moto? Recuerda proporcionar la marca y modelo de la moto que estás buscando, tu ubicación, y tus preferencias de pago, así podré ayudarte de la mejor manera posible.
+24/1/2024, 9:39:34 - Felix: Precio x favor
+24/1/2024, 9:39:34 - MegaBot: Aquí tienes algunos precios de motos disponibles en Megamoto:
+- TNT 15: $2,177,010
+- TRK251 ABS: $5,732,100
+- TRK502 NEW: $11,870,100
+- TRK502-X NEW: $13,454,100
+Si estás interesado en otros modelos, házmelo saber para verificar los precios correspondientes【8†fuente】.</v>
+      </c>
+      <c r="D76" t="str">
+        <v>655609c325e5a30008794810</v>
+      </c>
+      <c r="E76" s="1">
+        <v>45315.40182453704</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
+      <c r="A77" t="str">
+        <v>Shee❤️❤️</v>
+      </c>
+      <c r="B77" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C77" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 10:25:57 - Shee❤️❤️: Hola.buen dia
+24/1/2024, 10:25:57 - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy?</v>
+      </c>
+      <c r="D77" t="str">
+        <v>65b0848abc8ff20008ca107e</v>
+      </c>
+      <c r="E77" s="1">
+        <v>45315.43413983796</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="A78" t="str">
+        <v>Victorperez</v>
+      </c>
+      <c r="B78" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C78" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 10:54:54 - Victorperez: Q esto q mando
+24/1/2024, 10:54:54 - MegaBot: ¡Hola Victorperez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar【9†fuente】.</v>
+      </c>
+      <c r="D78" t="str">
+        <v>65b116986bc33200080a1c29</v>
+      </c>
+      <c r="E78" s="1">
+        <v>45315.454240011575</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
+      <c r="A79" t="str">
+        <v>Braian Celso</v>
+      </c>
+      <c r="B79" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C79" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 11:02:18 - Braian Celso: ¡Hola! Podrías darme más información de...
+24/1/2024, 11:02:19 - MegaBot: ¡Hola Braian Celso! Soy MegaBot, un Asistente Virtual de Megamoto. Según la información proporcionada, los métodos de pago disponibles incluyen pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios. Se puede hacer una combinación con estos métodos, y la financiación puede ser de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, con la opción de que las cuotas sean fijas. Además, para acceder a un crédito, será necesario el número de documento para que un vendedor pueda verificarlo【9†source】.
+También tengo la lista de precios de varios modelos de motos, ¿te interesa conocer el precio de alguno en particular o necesitas más información sobre otro tema?</v>
+      </c>
+      <c r="D79" t="str">
+        <v>65aff4f789653600085172de</v>
+      </c>
+      <c r="E79" s="1">
+        <v>45315.45938611111</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
+      <c r="A80" t="str">
+        <v>Jonathan Franco</v>
+      </c>
+      <c r="B80" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C80" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 11:11:55 - Jonathan Franco: ¡Hola! Podrías darme más información de...
+24/1/2024, 11:11:55 - MegaBot: He encontrado información relevante. Para poder ayudarte mejor, necesito que me indiques qué moto estás buscando, de dónde eres y cómo te gustaría pagar. Además, para que tengas en cuenta, Megamoto es una empresa que comercializa motos, repuestos, accesorios y bicicletas de distintas marcas como Benelli, Suzuki, Motomel, Keeway, Sym, Scott, Orbea, Tecnial y Shiro. También ofrecen servicios de postventa. Tienen ubicaciones en Merlo y en la zona Abasto de CABA, con horarios de apertura específicos, y diversos números de contactos para comunicarse con ellos【9†source】. También tengo información detallada sobre los modelos de motos que ofrece Megamoto, con sus respectivos precios al contado sin patentamiento. Una vez que me indiques tus preferencias, podré brindarte asesoramiento personalizado.
+24/1/2024, 11:12:11 - Jonathan Franco: ¡Hola! Podrías darme más información de...
+24/1/2024, 11:12:11 - MegaBot: Para brindarte la información que necesitas, por favor indícame el modelo de moto que te interesa, tu ubicación y los detalles de contacto para que pueda ayudarte de manera efectiva. Además, ten en cuenta que Megamoto ofrece diversas marcas de motos, repuestos, accesorios y bicicletas, con servicios de postventa y varias ubicaciones en Argentina, con horarios de apertura específicos y números de contacto disponibles【8†source】.</v>
+      </c>
+      <c r="D80" t="str">
+        <v>65b11a98c7cf490008682daf</v>
+      </c>
+      <c r="E80" s="1">
+        <v>45315.46605403935</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E55"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E80"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,253 +422,218 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>Gustavo Gomez Villafañe</v>
+        <v>Fabian☘️☘️</v>
       </c>
       <c r="B2" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C2" t="str" xml:space="preserve">
-        <v xml:space="preserve">Gustavo Gomez Villafañe: hola
-22/1/2024, 9:54:36 - MegaBot: ¡Hola Gustavo Gomez Villafañe! Soy MegaBot, un Asistente Virtual de Megamoto. ¿En qué puedo ayudarte hoy?
-22/1/2024, 9:54:48 - Gustavo Gomez Villafañe: el precio del la strato?
-22/1/2024, 9:54:48 - MegaBot: El precio de la Megamoto Strato Alpino es el siguiente:
-- Precio contado sin patentar: $2668.34
-- Precio con patentamiento en Buenos Aires: $8765.45
-- Precio con patentamiento en Capital Federal: $8195.61【13†source】.
-23/1/2024, 9:15:21 - Gustavo Gomez Villafañe: hola
-23/1/2024, 9:15:21 - MegaBot: ¡Hola de nuevo! ¿En qué más puedo asistirte hoy?
-23/1/2024, 15:01:55 - Gustavo Gomez Villafañe: hola
-23/1/2024, 15:01:55 - MegaBot: Hola de nuevo. ¿Tienes alguna otra consulta sobre las motos de Megamoto o algo más en lo que pueda ayudarte?
-23/1/2024, 15:07:12 - Gustavo Gomez Villafañe: hola
-23/1/2024, 15:07:12 - MegaBot: Hola nuevamente. Por favor házmelo saber si necesitas ayuda con algo.
-23/1/2024, 16:20:11 - Gustavo Gomez Villafañe: hola
-23/1/2024, 16:20:11 - MegaBot: Hola, ¿en qué puedo ayudarte hoy?
-24/1/2024, 7:19:14 - Gustavo Gomez Villafañe: hola
-24/1/2024, 7:19:15 - MegaBot: Hola, ¿en qué puedo ayudarte hoy?
-24/1/2024, 7:34:54 - Gustavo Gomez Villafañe: hola
-24/1/2024, 7:34:54 - MegaBot: Hola, ¿en qué puedo ayudarte?</v>
-      </c>
-      <c r="D2" t="str">
-        <v>6596d62461f4a300081b28cb</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45313.412368819445</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
-        <v>Fabian☘️☘️</v>
-      </c>
-      <c r="B3" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C3" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 10:13:00 - Fabian☘️☘️: ¡Hola! Quiero más información.
 22/1/2024, 10:13:00 - MegaBot: ¡Hola Fabian☘️☘️! Soy MegaBot, un Asistente Virtual de Megamoto. Los métodos de pago disponibles son pago contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios. Además, se puede hacer una combinación con estos métodos【9†source】.
 Si estás interesado en alguna moto en particular, por favor házmelo saber para proporcionarte más detalles sobre el precio y las opciones de financiamiento.</v>
       </c>
+      <c r="D2" t="str">
+        <v>65ae69bf9c5eca0008422e61</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45313.42514337963</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>.</v>
+      </c>
+      <c r="B3" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C3" t="str" xml:space="preserve">
+        <v xml:space="preserve">22/1/2024, 10:21:49 - .: ¡Hola! Quiero más información.
+22/1/2024, 10:21:49 - MegaBot: Parece que hubo un problema al intentar obtener la información sobre la motocicleta "SKUA 150 NEW GENERATION" con los precios correspondientes. Permíteme hacer una búsqueda distinta para obtener la información que necesitas.</v>
+      </c>
       <c r="D3" t="str">
-        <v>65ae69bf9c5eca0008422e61</v>
+        <v>65ae6b8fb723090007954ef4</v>
       </c>
       <c r="E3" s="1">
-        <v>45313.42514337963</v>
+        <v>45313.431262349535</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>.</v>
+        <v>Gabriel</v>
       </c>
       <c r="B4" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C4" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 10:21:49 - .: ¡Hola! Quiero más información.
-22/1/2024, 10:21:49 - MegaBot: Parece que hubo un problema al intentar obtener la información sobre la motocicleta "SKUA 150 NEW GENERATION" con los precios correspondientes. Permíteme hacer una búsqueda distinta para obtener la información que necesitas.</v>
+        <v xml:space="preserve">22/1/2024, 10:35:56 - Gabriel: ¡Hola! Podrías darme más información de...
+22/1/2024, 10:35:56 - MegaBot: ¡Hola Gabriel! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido, necesito que me indiques qué moto estás buscando, de dónde eres, y cómo deseas pagar. También tengo información sobre los precios de algunas motos de Megamoto, por si te interesa saberlos. ¡Estoy aquí para ayudarte!【9†fuente】</v>
       </c>
       <c r="D4" t="str">
-        <v>65ae6b8fb723090007954ef4</v>
+        <v>65ae6f2957781c00084b5b3a</v>
       </c>
       <c r="E4" s="1">
-        <v>45313.431262349535</v>
+        <v>45313.44106804398</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
-        <v>Gabriel</v>
+        <v>Marcelo</v>
       </c>
       <c r="B5" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C5" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 10:35:56 - Gabriel: ¡Hola! Podrías darme más información de...
-22/1/2024, 10:35:56 - MegaBot: ¡Hola Gabriel! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido, necesito que me indiques qué moto estás buscando, de dónde eres, y cómo deseas pagar. También tengo información sobre los precios de algunas motos de Megamoto, por si te interesa saberlos. ¡Estoy aquí para ayudarte!【9†fuente】</v>
-      </c>
-      <c r="D5" t="str">
-        <v>65ae6f2957781c00084b5b3a</v>
-      </c>
-      <c r="E5" s="1">
-        <v>45313.44106804398</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>Marcelo</v>
-      </c>
-      <c r="B6" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C6" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 11:38:39 - Marcelo: ¡Hola! Quiero más información.
 22/1/2024, 11:38:39 - MegaBot: ¡Hola Marcelo! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder atenderte más rápido, necesitaría que me brindes la siguiente información:
 1. ¿Qué modelo de moto estás buscando?
 2. ¿En qué ubicación te encuentras o en qué sucursal de Megamoto te gustaría recibir asistencia?
 3. ¿Cómo te gustaría pagar por la moto? Puedes utilizar métodos como pago contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios【9†fuente】.</v>
       </c>
+      <c r="D5" t="str">
+        <v>65ae7dd968803b00085c4cf4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>45313.484622488424</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>Criis- Merlo- Skua 150</v>
+      </c>
+      <c r="B6" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">22/1/2024, 12:00:10 - Criis- Merlo- Skua 150: Hola buenos días
+22/1/2024, 12:00:10 - MegaBot: ¡Hola Criis- Merlo- Skua 150! Soy MegaBot, un Asistente Virtual de Megamoto. ¿En qué puedo ayudarte hoy?</v>
+      </c>
       <c r="D6" t="str">
-        <v>65ae7dd968803b00085c4cf4</v>
+        <v>62702c0eb002f00009d5b4a6</v>
       </c>
       <c r="E6" s="1">
-        <v>45313.484622488424</v>
+        <v>45313.499562916666</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
       <c r="A7" t="str">
-        <v>Criis- Merlo- Skua 150</v>
+        <v>Julio</v>
       </c>
       <c r="B7" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C7" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 12:00:10 - Criis- Merlo- Skua 150: Hola buenos días
-22/1/2024, 12:00:10 - MegaBot: ¡Hola Criis- Merlo- Skua 150! Soy MegaBot, un Asistente Virtual de Megamoto. ¿En qué puedo ayudarte hoy?</v>
+        <v xml:space="preserve">22/1/2024, 12:03:04 - Julio: ¡Hola! Podrías darme más información de...
+22/1/2024, 12:03:04 - MegaBot: ¡Hola Julio! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido, es importante que nos indiques qué moto estás buscando, de dónde eres y cómo quieres pagar【11†source】【17†source】.</v>
       </c>
       <c r="D7" t="str">
-        <v>62702c0eb002f00009d5b4a6</v>
+        <v>65ae8385399e0600085e998f</v>
       </c>
       <c r="E7" s="1">
-        <v>45313.499562916666</v>
+        <v>45313.501576041665</v>
       </c>
     </row>
     <row r="8" xml:space="preserve">
       <c r="A8" t="str">
-        <v>Julio</v>
+        <v>Walter Marcelo</v>
       </c>
       <c r="B8" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C8" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 12:03:04 - Julio: ¡Hola! Podrías darme más información de...
-22/1/2024, 12:03:04 - MegaBot: ¡Hola Julio! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido, es importante que nos indiques qué moto estás buscando, de dónde eres y cómo quieres pagar【11†source】【17†source】.</v>
-      </c>
-      <c r="D8" t="str">
-        <v>65ae8385399e0600085e998f</v>
-      </c>
-      <c r="E8" s="1">
-        <v>45313.501576041665</v>
-      </c>
-    </row>
-    <row r="9" xml:space="preserve">
-      <c r="A9" t="str">
-        <v>Walter Marcelo</v>
-      </c>
-      <c r="B9" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C9" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 12:08:22 - Walter Marcelo: https://fb.me/1K3PX7UL6
 22/1/2024, 12:08:22 - MegaBot: ¡Hola Walter Marcelo! Soy MegaBot, un Asistente Virtual de Megamoto. ¿En qué puedo ayudarte hoy? Si estás buscando información sobre nuestras motos, por favor déjame saber qué modelo estás buscando, de dónde eres y cómo te gustaría pagar.
 22/1/2024, 17:47:24 - Walter Marcelo: motomel 110 blitz
 22/1/2024, 17:47:24 - MegaBot: El modelo BLITZ 110 V8 START tiene un precio de contado sin patentamiento de $890,540【16†source】. ¿Necesitas más información sobre este modelo? Por favor, proporcióname tu dirección y método de pago preferido.</v>
       </c>
+      <c r="D8" t="str">
+        <v>60007a7b8aae9a56d3a0dd30</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45313.505263935185</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>Die 🫡</v>
+      </c>
+      <c r="B9" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C9" t="str" xml:space="preserve">
+        <v xml:space="preserve">22/1/2024, 12:17:01 - Die 🫡: Buenas tardes, trabajan con recibo de sueldo?
+22/1/2024, 12:17:01 - MegaBot: ¡Hola Die 🫡! Soy MegaBot, un Asistente Virtual de Megamoto. Según nuestra base de conocimiento, en Megamoto ofrecemos una variedad de modelos de motocicletas, cada una con diferentes precios de contado y opciones de financiamiento. Para atenderte más rápido, por favor infórmame qué moto estás buscando, de dónde eres y cómo te gustaría pagar【11†source】【15†source】.</v>
+      </c>
       <c r="D9" t="str">
-        <v>60007a7b8aae9a56d3a0dd30</v>
+        <v>65ae86c9d7a694000b6bbc3f</v>
       </c>
       <c r="E9" s="1">
-        <v>45313.505263935185</v>
+        <v>45313.51126929398</v>
       </c>
     </row>
     <row r="10" xml:space="preserve">
       <c r="A10" t="str">
-        <v>Die 🫡</v>
+        <v>Willy..!!</v>
       </c>
       <c r="B10" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C10" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 12:17:01 - Die 🫡: Buenas tardes, trabajan con recibo de sueldo?
-22/1/2024, 12:17:01 - MegaBot: ¡Hola Die 🫡! Soy MegaBot, un Asistente Virtual de Megamoto. Según nuestra base de conocimiento, en Megamoto ofrecemos una variedad de modelos de motocicletas, cada una con diferentes precios de contado y opciones de financiamiento. Para atenderte más rápido, por favor infórmame qué moto estás buscando, de dónde eres y cómo te gustaría pagar【11†source】【15†source】.</v>
+        <v xml:space="preserve">22/1/2024, 12:31:53 - Willy..!!: ¡Hola! Quiero más información.
+22/1/2024, 12:31:53 - MegaBot: ¡Hola Willy..!!! Soy MegaBot, un Asistente Virtual de Megamoto. Según la información que proporcionaste, puedo ver que estás buscando más información. Para que pueda atenderte más rápido, necesitaría que me digas qué moto estás buscando, de dónde eres y cómo querrías pagar. También puedo proporcionarte información sobre los horarios y días de atención de las sucursales, así como los métodos de contacto y de pago disponibles【9†source】.</v>
       </c>
       <c r="D10" t="str">
-        <v>65ae86c9d7a694000b6bbc3f</v>
+        <v>65ae8a4d92462c0008d53648</v>
       </c>
       <c r="E10" s="1">
-        <v>45313.51126929398</v>
+        <v>45313.521586724535</v>
       </c>
     </row>
     <row r="11" xml:space="preserve">
       <c r="A11" t="str">
-        <v>Willy..!!</v>
+        <v>Gaby, Izan Y Katia</v>
       </c>
       <c r="B11" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C11" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 12:31:53 - Willy..!!: ¡Hola! Quiero más información.
-22/1/2024, 12:31:53 - MegaBot: ¡Hola Willy..!!! Soy MegaBot, un Asistente Virtual de Megamoto. Según la información que proporcionaste, puedo ver que estás buscando más información. Para que pueda atenderte más rápido, necesitaría que me digas qué moto estás buscando, de dónde eres y cómo querrías pagar. También puedo proporcionarte información sobre los horarios y días de atención de las sucursales, así como los métodos de contacto y de pago disponibles【9†source】.</v>
-      </c>
-      <c r="D11" t="str">
-        <v>65ae8a4d92462c0008d53648</v>
-      </c>
-      <c r="E11" s="1">
-        <v>45313.521586724535</v>
-      </c>
-    </row>
-    <row r="12" xml:space="preserve">
-      <c r="A12" t="str">
-        <v>Gaby, Izan Y Katia</v>
-      </c>
-      <c r="B12" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C12" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 12:50:25 - Gaby, Izan Y Katia: ¡Hola! Quiero más información.
 22/1/2024, 12:50:26 - MegaBot: ¡Hola Gaby, Izan y Katia! Soy MegaBot, un Asistente Virtual de Megamoto. Según la información que me brindaron, Megamoto es una empresa que comercializa motos, repuestos, accesorios y bicicletas de varias marcas. También ofrece servicios de postventa. Los métodos de pago que aceptan incluyen pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o prendarios, y se puede ofrecer financiación de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales. Además, cuentan con diversas ubicaciones y horarios de atención, así como distintos medios de contacto.
 Además, tengo información sobre la lista de precios de algunas motos que podrían interesarte. Por ejemplo, el modelo "SCOOTER" tiene un precio contado sin patentar de $4022.04, el modelo "STRATO ALPINO" tiene un precio contado sin patentar de $2668.34, entre otros modelos con sus respectivos precios en distintas modalidades de patentamiento.
 Para que un vendedor pueda atenderte más rápido, necesitaría que me indiques qué moto estás buscando, de dónde sos, y cuál es la forma en la que quisieras realizar el pago. ¡Estoy aquí para ayudarte!</v>
       </c>
+      <c r="D11" t="str">
+        <v>65ae8ea353b7d2000819d6a6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45313.53446685185</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>Cacho</v>
+      </c>
+      <c r="B12" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">22/1/2024, 13:02:55 - Cacho: ¡Hola! Quiero más información.
+22/1/2024, 13:02:55 - MegaBot: Parece que hubo un problema al intentar abrir los archivos que subiste. ¿Podrías subirlos nuevamente para que pueda ayudarte mejor?</v>
+      </c>
       <c r="D12" t="str">
-        <v>65ae8ea353b7d2000819d6a6</v>
+        <v>65ae919bd5b36c00089f2ebf</v>
       </c>
       <c r="E12" s="1">
-        <v>45313.53446685185</v>
+        <v>45313.54314226852</v>
       </c>
     </row>
     <row r="13" xml:space="preserve">
       <c r="A13" t="str">
-        <v>Cacho</v>
+        <v>Patelli669</v>
       </c>
       <c r="B13" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C13" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 13:02:55 - Cacho: ¡Hola! Quiero más información.
-22/1/2024, 13:02:55 - MegaBot: Parece que hubo un problema al intentar abrir los archivos que subiste. ¿Podrías subirlos nuevamente para que pueda ayudarte mejor?</v>
-      </c>
-      <c r="D13" t="str">
-        <v>65ae919bd5b36c00089f2ebf</v>
-      </c>
-      <c r="E13" s="1">
-        <v>45313.54314226852</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
-      <c r="A14" t="str">
-        <v>Patelli669</v>
-      </c>
-      <c r="B14" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C14" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 13:03:02 - Patelli669: 600
 22/1/2024, 13:03:02 - MegaBot: ¡Hola Patelli669! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte de la mejor manera, necesito que me indiques qué moto estás buscando, de dónde eres y cómo te gustaría pagar. De acuerdo a la lista de precios, veo que el modelo "SYM" tiene un precio de contado sin patentar de 8728.57【11†source】.
 22/1/2024, 17:37:38 - Patelli669: Provincia de buenos Aires
@@ -680,21 +645,21 @@
 22/1/2024, 18:34:29 - Patelli669: Cómo es el préstamo prendario
 22/1/2024, 18:34:30 - MegaBot: El préstamo prendario es un tipo de financiación para la compra de tu moto. Si necesitas más detalles, por favor visita una de nuestras sucursales o contáctanos directamente.</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D13" t="str">
         <v>65a8047639e41500091c073b</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E13" s="1">
         <v>45313.54322306713</v>
       </c>
     </row>
-    <row r="15" xml:space="preserve">
-      <c r="A15" t="str">
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
         <v>Aa</v>
       </c>
-      <c r="B15" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C15" t="str" xml:space="preserve">
+      <c r="B14" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C14" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 13:25:11 - Aa: ¡Hola! Podrías darme más información de...
 22/1/2024, 13:25:12 - MegaBot: ¡Hola Aa! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido, necesitaría que me proporcionaras la siguiente información:
 1. ¿Qué moto estás buscando?
@@ -702,57 +667,57 @@
 3. ¿Cuál es la forma de pago que te interesa?
 Por favor, bríndame estos detalles para poder ayudarte de la mejor manera posible【9†source】.</v>
       </c>
+      <c r="D14" t="str">
+        <v>65ae96d22d9a0d0008bf43e9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45313.55860877315</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>Alfredo Puma</v>
+      </c>
+      <c r="B15" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">22/1/2024, 13:31:28 - Alfredo Puma: ¡Hola! Quiero más información.
+22/1/2024, 13:31:29 - MegaBot: ¡Hola Alfredo Puma! Soy MegaBot, un Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido, necesitaría que me indiques qué moto estás buscando, de dónde eres y cómo deseas pagar. Además, tengo una lista de precios con distintos modelos de motocicletas y sus precios al contado o con patentamiento en Buenos Aires y Capital Federal. ¿En qué más puedo ayudarte?【11†fuente】</v>
+      </c>
       <c r="D15" t="str">
-        <v>65ae96d22d9a0d0008bf43e9</v>
+        <v>65ae9846846a8c0008603887</v>
       </c>
       <c r="E15" s="1">
-        <v>45313.55860877315</v>
+        <v>45313.56297212963</v>
       </c>
     </row>
     <row r="16" xml:space="preserve">
       <c r="A16" t="str">
-        <v>Alfredo Puma</v>
+        <v>Braian</v>
       </c>
       <c r="B16" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C16" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 13:31:28 - Alfredo Puma: ¡Hola! Quiero más información.
-22/1/2024, 13:31:29 - MegaBot: ¡Hola Alfredo Puma! Soy MegaBot, un Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido, necesitaría que me indiques qué moto estás buscando, de dónde eres y cómo deseas pagar. Además, tengo una lista de precios con distintos modelos de motocicletas y sus precios al contado o con patentamiento en Buenos Aires y Capital Federal. ¿En qué más puedo ayudarte?【11†fuente】</v>
+        <v xml:space="preserve">22/1/2024, 13:32:58 - Braian: ¡Hola! Quiero más información.
+22/1/2024, 13:32:58 - MegaBot: ¡Hola Braian! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte mejor, primero necesito que me indiques qué moto estás buscando, de dónde eres y cómo quieres pagar. También veo que has subido dos archivos, ¿necesitas ayuda con alguno de ellos?</v>
       </c>
       <c r="D16" t="str">
-        <v>65ae9846846a8c0008603887</v>
+        <v>65ae98b1846a8c000860541c</v>
       </c>
       <c r="E16" s="1">
-        <v>45313.56297212963</v>
+        <v>45313.56401268519</v>
       </c>
     </row>
     <row r="17" xml:space="preserve">
       <c r="A17" t="str">
-        <v>Braian</v>
+        <v>Pablo</v>
       </c>
       <c r="B17" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C17" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 13:32:58 - Braian: ¡Hola! Quiero más información.
-22/1/2024, 13:32:58 - MegaBot: ¡Hola Braian! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte mejor, primero necesito que me indiques qué moto estás buscando, de dónde eres y cómo quieres pagar. También veo que has subido dos archivos, ¿necesitas ayuda con alguno de ellos?</v>
-      </c>
-      <c r="D17" t="str">
-        <v>65ae98b1846a8c000860541c</v>
-      </c>
-      <c r="E17" s="1">
-        <v>45313.56401268519</v>
-      </c>
-    </row>
-    <row r="18" xml:space="preserve">
-      <c r="A18" t="str">
-        <v>Pablo</v>
-      </c>
-      <c r="B18" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C18" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 14:23:24 - Pablo: ¡Hola! Quiero más información.
 22/1/2024, 14:23:24 - MegaBot: ¡Hola Pablo! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte con la búsqueda de tu moto, necesitaría que me indiques el modelo de moto que estás buscando, de dónde eres y cómo quieres pagar. Además, si estás interesado en financiamiento, es importante mencionar que para acceder a un crédito será necesario el número de documento para que un vendedor pueda verificarlo. Por lo general, para acceder a un crédito se requiere tener al menos 18 años, no tener deudas y contar con algún tipo de ingreso registrado. 
 También tengo disponible el archivo de Lista de Precios con los precios de contado sin patentar, con patentamiento en provincia de Buenos Aires y con patentamiento en Capital Federal para diferentes modelos de motos. Si necesitas información específica sobre los precios, no dudes en consultarme【9†source】.
@@ -766,41 +731,41 @@
    - Precio con patentamiento en Capital Federal: $3,653.37
 Por favor infórmame sobre tu domicilio y cómo piensas pagar, para poder brindarte más detalles sobre la disponibilidad y coordinar una atención más personalizada【8†source】.</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D17" t="str">
         <v>65aea471ff301c00096be656</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E17" s="1">
         <v>45313.59903690972</v>
       </c>
     </row>
-    <row r="19" xml:space="preserve">
-      <c r="A19" t="str">
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
         <v>Joni</v>
       </c>
-      <c r="B19" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C19" t="str" xml:space="preserve">
+      <c r="B18" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C18" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 14:43:32 - Joni: Hola buenas
 22/1/2024, 14:43:32 - MegaBot: ¡Hola Joni! Soy MegaBot, un Asistente Virtual de Megamoto. ¿En qué puedo ayudarte hoy?
 22/1/2024, 14:43:51 - Joni: Quería consultarte  por moto
 22/1/2024, 14:43:51 - MegaBot: ¡Perfecto, estoy aquí para ayudarte! Para responder mejor a tu consulta, necesitaría que me proporciones algunos detalles adicionales. ¿Podrías decirme qué modelo de moto estás buscando, tu domicilio y cómo pensabas pagar?</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D18" t="str">
         <v>65aea93812369b000804d14c</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E18" s="1">
         <v>45313.61301112269</v>
       </c>
     </row>
-    <row r="20" xml:space="preserve">
-      <c r="A20" t="str">
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
         <v>🫡😊😌⛹️</v>
       </c>
-      <c r="B20" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C20" t="str" xml:space="preserve">
+      <c r="B19" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C19" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 15:00:56 - 🫡😊😌⛹️: Hola
 22/1/2024, 15:00:56 - MegaBot: ¡Hola! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
 22/1/2024, 15:01:00 - 🫡😊😌⛹️: Que tal
@@ -811,21 +776,21 @@
 24/1/2024, 10:19:06 - 🫡😊😌⛹️: 40.242.480
 24/1/2024, 10:19:07 - MegaBot: Entiendo, ¿tienes alguna consulta relacionada con las motocicletas de Megamoto o bicicletas en las que pueda ayudarte?</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D19" t="str">
         <v>65ae9b8595eda500081d1fed</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E19" s="1">
         <v>45313.62509771991</v>
       </c>
     </row>
-    <row r="21" xml:space="preserve">
-      <c r="A21" t="str">
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
         <v>Jesica</v>
       </c>
-      <c r="B21" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C21" t="str" xml:space="preserve">
+      <c r="B20" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C20" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 15:03:14 - Jesica: Hola buenas me pasas precio de una 110
 22/1/2024, 15:03:14 - MegaBot: Veo que ha habido un problema al intentar abrir los archivos. Voy a intentarlo de nuevo.
 22/1/2024, 15:03:30 - Jesica: Al contado y financiada
@@ -840,96 +805,96 @@
   - Precio con patentamiento Capital: $5408.61
 Si necesitas más información sobre estos modelos o los métodos de financiamiento disponibles, no dudes en preguntar.</v>
       </c>
+      <c r="D20" t="str">
+        <v>65aeadc812a1f20008991e7e</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45313.62669625</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>💙💛💙</v>
+      </c>
+      <c r="B21" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">22/1/2024, 15:04:15 - 💙💛💙: Hola buenas tardes
+22/1/2024, 15:04:15 - MegaBot: ¡Hola 💙💛💙! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
       <c r="D21" t="str">
-        <v>65aeadc812a1f20008991e7e</v>
+        <v>65aeae15fa4b350008b981e7</v>
       </c>
       <c r="E21" s="1">
-        <v>45313.62669625</v>
+        <v>45313.627399178244</v>
       </c>
     </row>
     <row r="22" xml:space="preserve">
       <c r="A22" t="str">
-        <v>💙💛💙</v>
+        <v>Ximena Sandoval</v>
       </c>
       <c r="B22" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C22" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 15:04:15 - 💙💛💙: Hola buenas tardes
-22/1/2024, 15:04:15 - MegaBot: ¡Hola 💙💛💙! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+        <v xml:space="preserve">22/1/2024, 15:04:15 - Ximena Sandoval: ¡Hola! Quiero más información.
+22/1/2024, 15:04:15 - MegaBot: Parece que hubo un problema al intentar acceder a la información que subiste. Por favor, envíala nuevamente para que pueda ayudarte.</v>
       </c>
       <c r="D22" t="str">
-        <v>65aeae15fa4b350008b981e7</v>
+        <v>65aeae10a63e690008fdf4af</v>
       </c>
       <c r="E22" s="1">
-        <v>45313.627399178244</v>
+        <v>45313.627404733794</v>
       </c>
     </row>
     <row r="23" xml:space="preserve">
       <c r="A23" t="str">
-        <v>Ximena Sandoval</v>
+        <v>Lore</v>
       </c>
       <c r="B23" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C23" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 15:04:15 - Ximena Sandoval: ¡Hola! Quiero más información.
-22/1/2024, 15:04:15 - MegaBot: Parece que hubo un problema al intentar acceder a la información que subiste. Por favor, envíala nuevamente para que pueda ayudarte.</v>
-      </c>
-      <c r="D23" t="str">
-        <v>65aeae10a63e690008fdf4af</v>
-      </c>
-      <c r="E23" s="1">
-        <v>45313.627404733794</v>
-      </c>
-    </row>
-    <row r="24" xml:space="preserve">
-      <c r="A24" t="str">
-        <v>Lore</v>
-      </c>
-      <c r="B24" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C24" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 15:07:44 - Lore: ¡Hola! Quiero más información.
 22/1/2024, 15:07:44 - MegaBot: Parece que hubo un problema al intentar abrir los archivos que subiste. Déjame intentar nuevamente accediendo a ellos.
 22/1/2024, 15:07:53 - Lore: 110 hay
 22/1/2024, 15:07:53 - MegaBot: Para el modelo "110", no encuentro un precio específico en el archivo de lista de precios proporcionado. Sin embargo, hay varios modelos que contienen "110" en el nombre, como "MAX 110 A/E", "DLX 110 DELUXE", "BLITZ 110 V8 START", entre otros, cada uno con precios específicos para distintas modalidades de compra.
 Si estás interesado en alguno de estos modelos, ¿podrías proporcionarme información adicional, como tu ubicación y el método de pago preferido? Así podré brindarte la información completa que necesitas para la compra.</v>
       </c>
+      <c r="D23" t="str">
+        <v>65aeaed779f80700083f2979</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45313.62982064815</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>Fabian Medina</v>
+      </c>
+      <c r="B24" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">22/1/2024, 15:16:06 - Fabian Medina: Ya estoy en mí casa
+22/1/2024, 15:16:06 - MegaBot: Parece que ha habido un problema al intentar acceder a los archivos que has subido. Déjame intentar nuevamente.</v>
+      </c>
       <c r="D24" t="str">
-        <v>65aeaed779f80700083f2979</v>
+        <v>65aeb0d179f80700083f84af</v>
       </c>
       <c r="E24" s="1">
-        <v>45313.62982064815</v>
+        <v>45313.635632523146</v>
       </c>
     </row>
     <row r="25" xml:space="preserve">
       <c r="A25" t="str">
-        <v>Fabian Medina</v>
+        <v>Flavia 🦋</v>
       </c>
       <c r="B25" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C25" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 15:16:06 - Fabian Medina: Ya estoy en mí casa
-22/1/2024, 15:16:06 - MegaBot: Parece que ha habido un problema al intentar acceder a los archivos que has subido. Déjame intentar nuevamente.</v>
-      </c>
-      <c r="D25" t="str">
-        <v>65aeb0d179f80700083f84af</v>
-      </c>
-      <c r="E25" s="1">
-        <v>45313.635632523146</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
-      <c r="A26" t="str">
-        <v>Flavia 🦋</v>
-      </c>
-      <c r="B26" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C26" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 15:24:49 - Flavia 🦋: Buenas tardes
 22/1/2024, 15:24:49 - MegaBot: ¡Hola Flavia 🦋! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
 22/1/2024, 15:25:11 - Flavia 🦋: Tenés Zanella 110 bz
@@ -937,75 +902,75 @@
 22/1/2024, 15:25:25 - Flavia 🦋: Zb
 22/1/2024, 15:25:25 - MegaBot: No encontré el modelo "Zanella ZB". ¿Te interesan otros modelos de Zanella? Necesito tus datos y método de pago.</v>
       </c>
+      <c r="D25" t="str">
+        <v>615c6ce49db428000943120b</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45313.64168018519</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>Javier Herrera 🕉</v>
+      </c>
+      <c r="B26" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">22/1/2024, 15:53:14 - Javier Herrera 🕉: ¡Hola! Podrías darme más información de...
+22/1/2024, 15:53:15 - MegaBot: ¡Hola Javier Herrera 🕉! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
       <c r="D26" t="str">
-        <v>615c6ce49db428000943120b</v>
+        <v>65aeb98dca2431000845e0ff</v>
       </c>
       <c r="E26" s="1">
-        <v>45313.64168018519</v>
+        <v>45313.661421875</v>
       </c>
     </row>
     <row r="27" xml:space="preserve">
       <c r="A27" t="str">
-        <v>Javier Herrera 🕉</v>
+        <v>Adry B</v>
       </c>
       <c r="B27" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C27" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 15:53:14 - Javier Herrera 🕉: ¡Hola! Podrías darme más información de...
-22/1/2024, 15:53:15 - MegaBot: ¡Hola Javier Herrera 🕉! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+        <v xml:space="preserve">22/1/2024, 16:21:29 - Adry B: ¡Hola! Quiero más información.
+22/1/2024, 16:21:30 - MegaBot: ¡Hola Adry B! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
       </c>
       <c r="D27" t="str">
-        <v>65aeb98dca2431000845e0ff</v>
+        <v>65aec02f02db760008e089b8</v>
       </c>
       <c r="E27" s="1">
-        <v>45313.661421875</v>
+        <v>45313.68104084491</v>
       </c>
     </row>
     <row r="28" xml:space="preserve">
       <c r="A28" t="str">
-        <v>Adry B</v>
+        <v>Cristianorlandodiaz6</v>
       </c>
       <c r="B28" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C28" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 16:21:29 - Adry B: ¡Hola! Quiero más información.
-22/1/2024, 16:21:30 - MegaBot: ¡Hola Adry B! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+        <v xml:space="preserve">22/1/2024, 16:44:01 - Cristianorlandodiaz6: Hola
+22/1/2024, 16:44:01 - MegaBot: ¡Hola Cristianorlandodiaz6! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
       </c>
       <c r="D28" t="str">
-        <v>65aec02f02db760008e089b8</v>
+        <v>65aec577e53a660008068558</v>
       </c>
       <c r="E28" s="1">
-        <v>45313.68104084491</v>
+        <v>45313.69668626157</v>
       </c>
     </row>
     <row r="29" xml:space="preserve">
       <c r="A29" t="str">
-        <v>Cristianorlandodiaz6</v>
+        <v>Roberto Coliva</v>
       </c>
       <c r="B29" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C29" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 16:44:01 - Cristianorlandodiaz6: Hola
-22/1/2024, 16:44:01 - MegaBot: ¡Hola Cristianorlandodiaz6! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
-      </c>
-      <c r="D29" t="str">
-        <v>65aec577e53a660008068558</v>
-      </c>
-      <c r="E29" s="1">
-        <v>45313.69668626157</v>
-      </c>
-    </row>
-    <row r="30" xml:space="preserve">
-      <c r="A30" t="str">
-        <v>Roberto Coliva</v>
-      </c>
-      <c r="B30" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C30" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 17:22:24 - Roberto Coliva: ¡Hola! Quiero más información.
 22/1/2024, 17:22:25 - MegaBot: ¡Hola Roberto Coliva! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
 22/1/2024, 17:23:54 - Roberto Coliva: ¡Hola! Quiero más información.
@@ -1013,172 +978,172 @@
 23/1/2024, 18:18:18 - Roberto Coliva: Todo bien
 23/1/2024, 18:18:19 - MegaBot: ¡Excelente! ¿En qué modelo de moto estás interesado? Además, necesitaré tu dirección, un método de contacto y tu preferencia de pago.</v>
       </c>
+      <c r="D29" t="str">
+        <v>65aece76ad10a700081a3096</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45313.72334366898</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>Joel</v>
+      </c>
+      <c r="B30" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">22/1/2024, 17:26:12 - Joel: ¡Hola! Podrías darme más información de...
+22/1/2024, 17:26:12 - MegaBot: ¡Hola Joel! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
       <c r="D30" t="str">
-        <v>65aece76ad10a700081a3096</v>
+        <v>65aecf5b92ccda000813b181</v>
       </c>
       <c r="E30" s="1">
-        <v>45313.72334366898</v>
+        <v>45313.72598082176</v>
       </c>
     </row>
     <row r="31" xml:space="preserve">
       <c r="A31" t="str">
-        <v>Joel</v>
+        <v>El Chapaco- Fumigacion.</v>
       </c>
       <c r="B31" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C31" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 17:26:12 - Joel: ¡Hola! Podrías darme más información de...
-22/1/2024, 17:26:12 - MegaBot: ¡Hola Joel! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
-      </c>
-      <c r="D31" t="str">
-        <v>65aecf5b92ccda000813b181</v>
-      </c>
-      <c r="E31" s="1">
-        <v>45313.72598082176</v>
-      </c>
-    </row>
-    <row r="32" xml:space="preserve">
-      <c r="A32" t="str">
-        <v>El Chapaco- Fumigacion.</v>
-      </c>
-      <c r="B32" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C32" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 17:31:11 - El Chapaco- Fumigacion.: De parque patricios ( capital)
 22/1/2024, 17:31:11 - MegaBot: ¡Hola El Chapaco- Fumigacion.! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
 22/1/2024, 17:31:50 - El Chapaco- Fumigacion.: Cuanto seria de contado ?
 22/1/2024, 17:31:50 - MegaBot: ¡Genial! Antes de darte los precios, necesito saber exactamente qué moto o motos de Megamoto estás interesado. Por favor, dime el modelo y te informaré los precios disponibles.</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D31" t="str">
         <v>659f405870935a00085717ca</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E31" s="1">
         <v>45313.729441793985</v>
       </c>
     </row>
-    <row r="33" xml:space="preserve">
-      <c r="A33" t="str">
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
         <v>Pablo</v>
       </c>
-      <c r="B33" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C33" t="str" xml:space="preserve">
+      <c r="B32" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C32" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 17:35:16 - Pablo: 25762819
 22/1/2024, 17:35:16 - MegaBot: El precio contado sin patentamiento del modelo "XMM 250 NUEVA" es de $2,520,000.00【11†source】.
 22/1/2024, 17:35:36 - Pablo: Pablo bertona
 22/1/2024, 17:35:36 - MegaBot: No encontré información sobre Pablo Bertona en los archivos. ¿En qué puedo asistirte con respecto a Megamoto?</v>
       </c>
+      <c r="D32" t="str">
+        <v>65a87286967be60008c79b1a</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45313.7322694213</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>Víctor Rodríguez</v>
+      </c>
+      <c r="B33" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">22/1/2024, 17:36:21 - Víctor Rodríguez: Si tienen 2 contactos
+22/1/2024, 17:36:21 - MegaBot: Sí, tenemos dos formas de contacto en Megamoto. Para repuestos y servicios, puedes comunicarte al Whatsapp al número 1156202281【9†source】. Si necesitas hablar con un agente o vendedor, deberás proporcionar tu número de celular para que un vendedor se ponga en contacto contigo.</v>
+      </c>
       <c r="D33" t="str">
-        <v>65a87286967be60008c79b1a</v>
+        <v>65aec62313c95700080e73ef</v>
       </c>
       <c r="E33" s="1">
-        <v>45313.7322694213</v>
+        <v>45313.733027395836</v>
       </c>
     </row>
     <row r="34" xml:space="preserve">
       <c r="A34" t="str">
-        <v>Víctor Rodríguez</v>
+        <v>Peke</v>
       </c>
       <c r="B34" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C34" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 17:36:21 - Víctor Rodríguez: Si tienen 2 contactos
-22/1/2024, 17:36:21 - MegaBot: Sí, tenemos dos formas de contacto en Megamoto. Para repuestos y servicios, puedes comunicarte al Whatsapp al número 1156202281【9†source】. Si necesitas hablar con un agente o vendedor, deberás proporcionar tu número de celular para que un vendedor se ponga en contacto contigo.</v>
+        <v xml:space="preserve">22/1/2024, 17:38:42 - Peke: ¡Hola! Podrías darme más información de...
+22/1/2024, 17:38:42 - MegaBot: ¡Hola Peke! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
       </c>
       <c r="D34" t="str">
-        <v>65aec62313c95700080e73ef</v>
+        <v>65aed24b35e88a0008c5cf38</v>
       </c>
       <c r="E34" s="1">
-        <v>45313.733027395836</v>
+        <v>45313.73465787037</v>
       </c>
     </row>
     <row r="35" xml:space="preserve">
       <c r="A35" t="str">
-        <v>Peke</v>
+        <v>~anto~</v>
       </c>
       <c r="B35" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C35" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 17:38:42 - Peke: ¡Hola! Podrías darme más información de...
-22/1/2024, 17:38:42 - MegaBot: ¡Hola Peke! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
-      </c>
-      <c r="D35" t="str">
-        <v>65aed24b35e88a0008c5cf38</v>
-      </c>
-      <c r="E35" s="1">
-        <v>45313.73465787037</v>
-      </c>
-    </row>
-    <row r="36" xml:space="preserve">
-      <c r="A36" t="str">
-        <v>~anto~</v>
-      </c>
-      <c r="B36" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C36" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 17:47:44 - ~anto~: Buenísimo, muchas gracias!
 22/1/2024, 17:47:44 - MegaBot: ¡Hola ~anto~! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
 22/1/2024, 17:54:09 - ~anto~: Tengo una Motomel Vintage Go 2017 que les compré a ustedes. Tengo ganas de cambiarla pero no sé, se fue todo por las nubes
 22/1/2024, 17:54:09 - MegaBot: Entiendo, los precios están altos. ¿Qué modelo te interesa para brindarte los precios actuales y ayudarte con tu decisión?</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D35" t="str">
         <v>65aadb3b93ff0000080f07d1</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E35" s="1">
         <v>45313.74093170139</v>
       </c>
     </row>
-    <row r="37" xml:space="preserve">
-      <c r="A37" t="str">
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
         <v>😊😊</v>
       </c>
-      <c r="B37" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C37" t="str" xml:space="preserve">
+      <c r="B36" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C36" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 17:51:10 - 😊😊: Hola buenas tardes quería consultar para comprar una moto que requisitos necesito.gracias
 22/1/2024, 17:51:10 - MegaBot: ¡Hola 😊😊! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
 Ahora procederé a buscar la información sobre los requisitos necesarios para comprar una moto en los archivos que has proporcionado. Dame un momento mientras lo hago.</v>
       </c>
+      <c r="D36" t="str">
+        <v>65aed51a31ed3b0008d51634</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45313.743312673614</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v>Ricardo🍀💙💛💙🇦🇷🇳🇷</v>
+      </c>
+      <c r="B37" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C37" t="str" xml:space="preserve">
+        <v xml:space="preserve">22/1/2024, 17:51:54 - Ricardo🍀💙💛💙🇦🇷🇳🇷: ¡Hola! Podrías darme más información de...hola.30 cuotas d cuanto??
+22/1/2024, 17:51:54 - MegaBot: La financiación para la compra de motos en Megamoto puede hacerse hasta en 60 cuotas para préstamos prendarios o hasta 30 cuotas para préstamos personales. Salvo para préstamos UVA, las cuotas son fijas. Se puede llevar la moto en el momento y se comienza a pagar en dos meses, según el plan de pagos. El valor de la cuota dependerá del tipo de préstamo, ya sea con tarjeta de crédito, préstamo personal o prendario. Si necesitas información más específica sobre el valor de las cuotas, un vendedor puede ayudarte después de verificar tu documento y evaluar tu crédito. Normalmente, para acceder a un crédito, se necesita tener a partir de 18 años, no tener deudas y contar con algún tipo de ingreso registrado. En algunos casos, es posible financiar la compra al 100% si la tarjeta o la entidad financiera así lo determina.</v>
+      </c>
       <c r="D37" t="str">
-        <v>65aed51a31ed3b0008d51634</v>
+        <v>65aed54ee5c88b000849b16a</v>
       </c>
       <c r="E37" s="1">
-        <v>45313.743312673614</v>
+        <v>45313.7438281713</v>
       </c>
     </row>
     <row r="38" xml:space="preserve">
       <c r="A38" t="str">
-        <v>Ricardo🍀💙💛💙🇦🇷🇳🇷</v>
+        <v>Alfredo Benitez</v>
       </c>
       <c r="B38" t="str">
-        <v>whatsApp</v>
+        <v>instagram</v>
       </c>
       <c r="C38" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 17:51:54 - Ricardo🍀💙💛💙🇦🇷🇳🇷: ¡Hola! Podrías darme más información de...hola.30 cuotas d cuanto??
-22/1/2024, 17:51:54 - MegaBot: La financiación para la compra de motos en Megamoto puede hacerse hasta en 60 cuotas para préstamos prendarios o hasta 30 cuotas para préstamos personales. Salvo para préstamos UVA, las cuotas son fijas. Se puede llevar la moto en el momento y se comienza a pagar en dos meses, según el plan de pagos. El valor de la cuota dependerá del tipo de préstamo, ya sea con tarjeta de crédito, préstamo personal o prendario. Si necesitas información más específica sobre el valor de las cuotas, un vendedor puede ayudarte después de verificar tu documento y evaluar tu crédito. Normalmente, para acceder a un crédito, se necesita tener a partir de 18 años, no tener deudas y contar con algún tipo de ingreso registrado. En algunos casos, es posible financiar la compra al 100% si la tarjeta o la entidad financiera así lo determina.</v>
-      </c>
-      <c r="D38" t="str">
-        <v>65aed54ee5c88b000849b16a</v>
-      </c>
-      <c r="E38" s="1">
-        <v>45313.7438281713</v>
-      </c>
-    </row>
-    <row r="39" xml:space="preserve">
-      <c r="A39" t="str">
-        <v>Alfredo Benitez</v>
-      </c>
-      <c r="B39" t="str">
-        <v>instagram</v>
-      </c>
-      <c r="C39" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 17:52:49 - Alfredo Benitez: Información
 22/1/2024, 17:52:49 - MegaBot: Para ayudarte con la información que necesitas, primero necesito saber a qué documentos te refieres y cuál es la naturaleza de la información que estás buscando. ¿Podrías proporcionarme más detalles sobre lo que necesitas exactamente? Esto me permitirá revisar los archivos que has subido y encontrar la información relevante para ti.
 22/1/2024, 17:53:24 - Alfredo Benitez: Información
@@ -1194,59 +1159,82 @@
 23/1/2024, 12:13:03 - Jorge R Van Pamel: Tablero tradicional??
 23/1/2024, 12:13:04 - MegaBot: No localizo información sobre productos con "tablero tradicional". ¿Estás buscando un modelo específico de moto o bicicleta? Por favor, bríndame el nombre para poder asistirte.
 23/1/2024, 12:13:13 - Jorge R Van Pamel: Y el resto no se si con crédito personal o tarjeta
-23/1/2024, 12:13:13 - MegaBot: Para elegir entre crédito personal o tarjeta, considera tasas de interés y facilidad de pago. ¿Me podrías decir tu modelo de interés y tu método de pago preferido, junto con tus datos de contacto y domicilio?</v>
+23/1/2024, 12:13:13 - MegaBot: Para elegir entre crédito personal o tarjeta, considera tasas de interés y facilidad de pago. ¿Me podrías decir tu modelo de interés y tu método de pago preferido, junto con tus datos de contacto y domicilio?
+24/1/2024, 15:58:48 - Alexis Gabriel: Motomel
+24/1/2024, 15:58:48 - MegaBot: Para la marca Motomel, los precios varían según el modelo y la forma de pago. Pueden ir desde contado hasta financiación en cuotas. ¿Podrías proporcionar tu domicilio, datos de contacto y método de pago preferido para brindarte información más detallada?
+24/1/2024, 15:59:06 - Alexis Gabriel: Motomel
+24/1/2024, 15:59:06 - MegaBot: Para la marca Motomel, los precios de contado (sin patentamiento) son los siguientes para algunos modelos:
+- STRATO 150 ALPINO: $2,021,250.00
+- STRATO 150 EURO: $1,913,100.00
+- MAX 110 A/E: $1,153,950.00
+- CG 150 S2 START: $1,151,200.00
+- CG 150 S2 FULL (aleac / disco): $1,406,275.00
+- SIRIUS 190 NUEVO PRODUCTO: $2,149,500.00
+- SKUA 150 NEW GENERATION: $1,467,450.00
+- SKUA 150 SILVER EDITION: $1,966,650.00
+- SKUA 250 BASE NEW: $2,194,895.00
+- XMM 250 NUEVA: $2,520,000.00
+- SKUA 125 X-TREME: $1,410,759.00
+- SKUA 250 ADVENTURE NUEVO MODELO: $3,149,895.00
+- DLX 110 DELUXE: $936,116.00
+- BLITZ 110 V8 START: $890,540.00
+- BLITZ 110 V8 BASE ONE - B1 Automatica - NEW: $1,000,950.00
+- BLITZ 110 V8 PLUS: $1,151,150.00
+- BLITZ 110 V8 FULL ONE - B1 - ALEACION DISCO - NEW: $1,016,650.00
+- BLITZ 110 V8 TUNNING NEW: $1,127,700.00
+Estos son algunos de los modelos con sus precios de contado. Si alguno de ellos es de tu interés, por favor proporcióname tu domicilio, datos de contacto y método de pago preferido (crédito personal o tarjeta) para seguir con el proceso de compra.</v>
+      </c>
+      <c r="D38" t="str">
+        <v>no phone</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45313.74446100694</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>Gaby</v>
+      </c>
+      <c r="B39" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C39" t="str" xml:space="preserve">
+        <v xml:space="preserve">22/1/2024, 19:05:47 - Gaby: ¡Hola! Quiero más información.
+22/1/2024, 19:05:47 - MegaBot: ¡Hola Gaby! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
       </c>
       <c r="D39" t="str">
-        <v>no phone</v>
+        <v>65aee6b3458e3e0008e308b6</v>
       </c>
       <c r="E39" s="1">
-        <v>45313.74446100694</v>
+        <v>45313.79513210648</v>
       </c>
     </row>
     <row r="40" xml:space="preserve">
       <c r="A40" t="str">
-        <v>Gaby</v>
+        <v>Diegol - Digital Color</v>
       </c>
       <c r="B40" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C40" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 19:05:47 - Gaby: ¡Hola! Quiero más información.
-22/1/2024, 19:05:47 - MegaBot: ¡Hola Gaby! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+        <v xml:space="preserve">22/1/2024, 19:10:32 - Diegol - Digital Color: ¡Hola! Quiero más información.
+22/1/2024, 19:10:32 - MegaBot: ¡Hola Diegol - Digital Color! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
       </c>
       <c r="D40" t="str">
-        <v>65aee6b3458e3e0008e308b6</v>
+        <v>65aee7cecaadf2000872df13</v>
       </c>
       <c r="E40" s="1">
-        <v>45313.79513210648</v>
+        <v>45313.7984333912</v>
       </c>
     </row>
     <row r="41" xml:space="preserve">
       <c r="A41" t="str">
-        <v>Diegol - Digital Color</v>
+        <v>Dina</v>
       </c>
       <c r="B41" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C41" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 19:10:32 - Diegol - Digital Color: ¡Hola! Quiero más información.
-22/1/2024, 19:10:32 - MegaBot: ¡Hola Diegol - Digital Color! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
-      </c>
-      <c r="D41" t="str">
-        <v>65aee7cecaadf2000872df13</v>
-      </c>
-      <c r="E41" s="1">
-        <v>45313.7984333912</v>
-      </c>
-    </row>
-    <row r="42" xml:space="preserve">
-      <c r="A42" t="str">
-        <v>Dina</v>
-      </c>
-      <c r="B42" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C42" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 19:18:29 - Dina: Buenas tardes
 22/1/2024, 19:18:29 - MegaBot: ¡Hola Dina! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
 22/1/2024, 19:18:52 - Dina: Algo para  trabajar
@@ -1254,41 +1242,43 @@
 Alguna  automatica
 22/1/2024, 19:18:53 - MegaBot: Actualmente no tengo información de modelos automáticos disponibles. ¿Puedo ayudarte con algo más o prefieres que un vendedor te contacte? Necesitaré tu celular.
 22/1/2024, 19:19:05 - Dina: Pero no cuento  con  adelanto
-22/1/2024, 19:19:05 - MegaBot: Tenemos opciones de financiación disponibles. ¿Qué modelo te interesa? Por favor, proporciona tu modelo preferido y contacto para asesorarte mejor.</v>
+22/1/2024, 19:19:05 - MegaBot: Tenemos opciones de financiación disponibles. ¿Qué modelo te interesa? Por favor, proporciona tu modelo preferido y contacto para asesorarte mejor.
+24/1/2024, 14:49:22 - Vendedor Megamoto: buen dia,  Por el momento con ese dni sale rechazado. No me dice el motivo exacto. Pueden ser varios motivos, como bajo puntaje crediticio, que estés pagando alguna cuota, la antigüedad laboral,etc..
+Pero podemos probar con otra persona, tenés algún familiar o amigo que quiera ser tu garante?, de ser asi pasame tambien numero de dni, nombre  y nos fijamos si le otorgan</v>
+      </c>
+      <c r="D41" t="str">
+        <v>65a94a31748e570008f7ff95</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45313.80395267361</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>Juams</v>
+      </c>
+      <c r="B42" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C42" t="str" xml:space="preserve">
+        <v xml:space="preserve">22/1/2024, 19:18:43 - Juams: Crédito personal
+22/1/2024, 19:18:43 - MegaBot: Con respecto a las opciones de financiamiento en Megamoto, se menciona la posibilidad de un "préstamo personal prendario" entre las formas de pago disponibles. Este tipo de préstamo sería aparte de otras opciones como el pago en cuotas con tarjeta de crédito【9†source】. Si necesitas más información específica sobre los préstamos personales para la compra de una moto, por favor proporciona más detalles y con gusto te asistiré.</v>
       </c>
       <c r="D42" t="str">
-        <v>65a94a31748e570008f7ff95</v>
+        <v>65a8593d62e2130008deeeed</v>
       </c>
       <c r="E42" s="1">
-        <v>45313.80395267361</v>
+        <v>45313.80411711805</v>
       </c>
     </row>
     <row r="43" xml:space="preserve">
       <c r="A43" t="str">
-        <v>Juams</v>
+        <v>..</v>
       </c>
       <c r="B43" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C43" t="str" xml:space="preserve">
-        <v xml:space="preserve">22/1/2024, 19:18:43 - Juams: Crédito personal
-22/1/2024, 19:18:43 - MegaBot: Con respecto a las opciones de financiamiento en Megamoto, se menciona la posibilidad de un "préstamo personal prendario" entre las formas de pago disponibles. Este tipo de préstamo sería aparte de otras opciones como el pago en cuotas con tarjeta de crédito【9†source】. Si necesitas más información específica sobre los préstamos personales para la compra de una moto, por favor proporciona más detalles y con gusto te asistiré.</v>
-      </c>
-      <c r="D43" t="str">
-        <v>65a8593d62e2130008deeeed</v>
-      </c>
-      <c r="E43" s="1">
-        <v>45313.80411711805</v>
-      </c>
-    </row>
-    <row r="44" xml:space="preserve">
-      <c r="A44" t="str">
-        <v>..</v>
-      </c>
-      <c r="B44" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C44" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 9:25:39 - ..: Hola buenas
 23/1/2024, 9:25:39 - MegaBot: ¡Hola! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
 23/1/2024, 9:26:03 - ..: Te quería preguntar en la forma de pagar de cuantas cuotas sería ?
@@ -1300,58 +1290,58 @@
 23/1/2024, 18:21:58 - ..: Pero gracias por la info
 23/1/2024, 18:21:58 - MegaBot: ¡De nada! Estoy aquí para ayudarte en lo que necesites. ¡Que tengas un excelente día!</v>
       </c>
-      <c r="D44" t="str">
+      <c r="D43" t="str">
         <v>659edfaf6df1c90008e1d5bf</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E43" s="1">
         <v>45314.392261643516</v>
       </c>
     </row>
-    <row r="45" xml:space="preserve">
-      <c r="A45" t="str">
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
         <v>Eliane Romero</v>
       </c>
-      <c r="B45" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C45" t="str" xml:space="preserve">
+      <c r="B44" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C44" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 9:31:44 - Eliane Romero: Hola buen día, quería saber a qué precio final tiene la zuzuqui Ax
 23/1/2024, 9:31:44 - MegaBot: ¡Hola Eliane Romero! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
 El precio final de la motocicleta modelo AX100, al contado y sin patentamiento, es de 1,303,827.05 pesos. ¿Hay algo más en lo que pueda asistirte?</v>
       </c>
+      <c r="D44" t="str">
+        <v>65a5fbc0838604000827518a</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45314.396488425926</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>Maxjet S.a</v>
+      </c>
+      <c r="B45" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C45" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 10:20:22 - Maxjet S.a: 100% quiero ver como queda
+23/1/2024, 10:20:23 - MegaBot: ¡Hola Maxjet S.a! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
       <c r="D45" t="str">
-        <v>65a5fbc0838604000827518a</v>
+        <v>65a8730968621800089a0132</v>
       </c>
       <c r="E45" s="1">
-        <v>45314.396488425926</v>
+        <v>45314.430262615744</v>
       </c>
     </row>
     <row r="46" xml:space="preserve">
       <c r="A46" t="str">
-        <v>Maxjet S.a</v>
+        <v>👀</v>
       </c>
       <c r="B46" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C46" t="str" xml:space="preserve">
-        <v xml:space="preserve">23/1/2024, 10:20:22 - Maxjet S.a: 100% quiero ver como queda
-23/1/2024, 10:20:23 - MegaBot: ¡Hola Maxjet S.a! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
-      </c>
-      <c r="D46" t="str">
-        <v>65a8730968621800089a0132</v>
-      </c>
-      <c r="E46" s="1">
-        <v>45314.430262615744</v>
-      </c>
-    </row>
-    <row r="47" xml:space="preserve">
-      <c r="A47" t="str">
-        <v>👀</v>
-      </c>
-      <c r="B47" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C47" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 11:16:28 - 👀: Hola buen día para hablar con un representante por favor gracias
 23/1/2024, 11:16:28 - MegaBot: ¡Hola 👀! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
 23/1/2024, 18:20:38 - 👀: Hola si
@@ -1359,78 +1349,85 @@
 23/1/2024, 18:21:02 - 👀: Quería saber por Motomel 110cc
 23/1/2024, 18:21:02 - MegaBot: Para la Moto Motomel 110cc, el precio de contado sin patentamiento es de $936116.  Por favor, confirma tu ubicación y tu método de pago preferido para poder asesorarte mejor【16†fuente】.</v>
       </c>
+      <c r="D46" t="str">
+        <v>65afca2f90c6a900088ebb4c</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45314.46921708334</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str">
+        <v>Ale</v>
+      </c>
+      <c r="B47" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C47" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 12:19:42 - Ale: ¡Hola! Quiero más información.
+23/1/2024, 12:19:43 - MegaBot: ¡Hola Ale! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
       <c r="D47" t="str">
-        <v>65afca2f90c6a900088ebb4c</v>
+        <v>65afd8fb9aa93b0008d54df2</v>
       </c>
       <c r="E47" s="1">
-        <v>45314.46921708334</v>
+        <v>45314.51312740741</v>
       </c>
     </row>
     <row r="48" xml:space="preserve">
       <c r="A48" t="str">
-        <v>Ale</v>
+        <v>💪</v>
       </c>
       <c r="B48" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C48" t="str" xml:space="preserve">
-        <v xml:space="preserve">23/1/2024, 12:19:42 - Ale: ¡Hola! Quiero más información.
-23/1/2024, 12:19:43 - MegaBot: ¡Hola Ale! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+        <v xml:space="preserve">23/1/2024, 15:21:27 - 💪: González catán  dragones 3544
+23/1/2024, 15:21:27 - MegaBot: ¡Hola 💪! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte más rápido, necesito que me indiques qué modelo de moto estás buscando y si tienes alguna preferencia en cuanto a la forma de pago. Además, ¿podrías confirmarme si te encuentras en la localidad de González Catán? 
+24/1/2024, 11:52:12 - Vendedor Megamoto: MOTOMEL BLITZ BASE $956.000 contado con patentamiento incluido 
+24/1/2024, 11:52:21 - Vendedor Megamoto: las maneras para pagarla son:
+-efectivo(transferencia, debito )
+-tarjeta de credito
+-credito personal, vos como tenias previsto?
+24/1/2024, 12:16:38 - 💪: Crédito personal
+24/1/2024, 12:16:38 - MegaBot: El modelo "MOTOMEL BLITZ 110 V8 BASE ONE - B1 Automatica - NEW" tiene un precio al contado de $1.000.950【17†source】. Puedo ayudarte con la gestión de crédito personal. ¿En qué sucursal te gustaría realizar la compra?</v>
       </c>
       <c r="D48" t="str">
-        <v>65afd8fb9aa93b0008d54df2</v>
+        <v>65a958086dd3cb000657e1cf</v>
       </c>
       <c r="E48" s="1">
-        <v>45314.51312740741</v>
+        <v>45314.639345891206</v>
       </c>
     </row>
     <row r="49" xml:space="preserve">
       <c r="A49" t="str">
-        <v>💪</v>
+        <v>Lorena</v>
       </c>
       <c r="B49" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C49" t="str" xml:space="preserve">
-        <v xml:space="preserve">23/1/2024, 15:21:27 - 💪: González catán  dragones 3544
-23/1/2024, 15:21:27 - MegaBot: ¡Hola 💪! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte más rápido, necesito que me indiques qué modelo de moto estás buscando y si tienes alguna preferencia en cuanto a la forma de pago. Además, ¿podrías confirmarme si te encuentras en la localidad de González Catán? </v>
-      </c>
-      <c r="D49" t="str">
-        <v>65a958086dd3cb000657e1cf</v>
-      </c>
-      <c r="E49" s="1">
-        <v>45314.639345891206</v>
-      </c>
-    </row>
-    <row r="50" xml:space="preserve">
-      <c r="A50" t="str">
-        <v>Lorena</v>
-      </c>
-      <c r="B50" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C50" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 15:33:30 - Lorena: ¡Hola! Podrías darme más información de...
 23/1/2024, 15:33:30 - MegaBot: ¡Hola Lorena! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estás buscando, de donde sos, y cómo querés pagar.
 Además, tengo una lista de precios actualizada para que puedas ver las opciones disponibles. ¿En qué más te puedo ayudar?
 23/1/2024, 18:24:55 - Lorena: La suzuki
 23/1/2024, 18:24:55 - MegaBot: Lorena, la Suzuki SKUA 250 BASE NEW tiene un precio al contado sin patentamiento de $2,194,895.00. ¿Dónde te encuentras y cómo prefieres pagar?</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D49" t="str">
         <v>65b00666cea2f000085a4b98</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E49" s="1">
         <v>45314.6477121875</v>
       </c>
     </row>
-    <row r="51" xml:space="preserve">
-      <c r="A51" t="str">
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str">
         <v>Hugo</v>
       </c>
-      <c r="B51" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C51" t="str" xml:space="preserve">
+      <c r="B50" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C50" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 15:42:41 - Hugo: ¡Hola! Quiero más información.
 23/1/2024, 15:42:41 - MegaBot: ¡Hola Hugo! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder atenderte más rápido, necesitaría que me brindes la siguiente información:
 1. ¿Qué moto estás buscando?
@@ -1441,98 +1438,106 @@
 23/1/2024, 18:23:36 - Hugo: ??
 23/1/2024, 18:23:36 - MegaBot: Lo siento, parece que Megamoto no tiene una sucursal en Posadas, Misiones. ¿Hay algo más en lo que pueda ayudarte?</v>
       </c>
-      <c r="D51" t="str">
+      <c r="D50" t="str">
         <v>65b0088baf8d190008404eb8</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E50" s="1">
         <v>45314.65409177083</v>
       </c>
     </row>
-    <row r="52" xml:space="preserve">
-      <c r="A52" t="str">
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str">
         <v>Ruben😘</v>
       </c>
-      <c r="B52" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C52" t="str" xml:space="preserve">
+      <c r="B51" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C51" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 16:31:22 - Ruben😘: ¡Hola! Quiero más información.
 23/1/2024, 16:31:22 - MegaBot: ¡Hola Ruben😘! Soy MegaBot, un Asistente Virtual de Megamoto. Según nuestra base de conocimiento, Megamoto comercializa motos, repuestos, accesorios y bicicletas de varias marcas, y ofrece servicios de postventa. Puedes encontrarlos en Merlo y en CABA, con diferentes horarios de atención. Los métodos de pago incluyen pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios, con la posibilidad de financiación en cuotas【9†source】.
 En cuanto a los modelos de motos y sus precios de contado sin patentamiento, tengo un archivo con esa información que puedo revisar para ti. ¿Te interesa obtener la lista de precios de alguna moto en particular?</v>
       </c>
-      <c r="D52" t="str">
+      <c r="D51" t="str">
         <v>65b013f9bff5550008cfce8d</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E51" s="1">
         <v>45314.68790163194</v>
       </c>
     </row>
-    <row r="53" xml:space="preserve">
-      <c r="A53" t="str">
+    <row r="52" xml:space="preserve">
+      <c r="A52" t="str">
         <v>Oscar</v>
       </c>
-      <c r="B53" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C53" t="str" xml:space="preserve">
+      <c r="B52" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C52" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 16:31:44 - Oscar: ¡Hola! Quiero más información.
 23/1/2024, 16:31:44 - MegaBot: La información que me enviaste es muy útil. Según la base de conocimiento de Megamoto, los métodos de pago disponibles son pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios. También se puede combinar diferentes métodos de pago. En cuanto a la financiación, se puede pagar hasta en 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales. Para saber si te otorgan crédito, será necesario proporcionar el número de documento【9†fuente】.
 También tengo la lista de precios de algunas motos de Megamoto. ¿Tienes en mente algún modelo en particular? Si es así, ¿de dónde eres y cómo te gustaría pagar? Esto me ayudará a proporcionarte información más precisa sobre la moto que estás buscando y las opciones de financiación disponibles.
 23/1/2024, 16:32:11 - Oscar: Son agencia oficial d Beneli d donde son
 23/1/2024, 16:32:11 - MegaBot: Megamoto es una agencia oficial que comercializa motos, repuestos, accesorios y bicicletas de la marca Benelli, entre otras marcas【15†fuente】. Megamoto tiene sucursales en Merlo y en la zona del Abasto en CABA. ¿En qué sucursal estás interesado?</v>
       </c>
+      <c r="D52" t="str">
+        <v>65b0140bbff5550008cfd351</v>
+      </c>
+      <c r="E52" s="1">
+        <v>45314.688156041666</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="A53" t="str">
+        <v>Leonel Amitrano</v>
+      </c>
+      <c r="B53" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C53" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 16:34:33 - Leonel Amitrano: ¡Hola! Quiero más información.
+23/1/2024, 16:34:33 - MegaBot: ¡Hola Leonel Amitrano! Gracias por enviar la información. Veo que estás interesado en comprar una moto. Para poder ayudarte más rápido, ¿podrías indicarme qué modelo de moto estás buscando y en qué lugar te encuentras? Además, ¿tienes alguna preferencia sobre cómo deseas realizar el pago? Puedes elegir entre pago contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios. ¡Estoy aquí para ayudarte con tu compra en Megamoto!
+24/1/2024, 12:12:46 - Leonel Amitrano: Hola me interesa la skua 150 v6
+24/1/2024, 12:12:47 - MegaBot: La Skua 150 V6 no está listada en la información proporcionada en el archivo de precios. Sin embargo, hay otros modelos de Skua disponibles, como la Skua 150 New Generation con un precio de contado sin patentamiento de 1.467.450 ARS, y la Skua 150 Silver Edition con un precio de contado sin patentamiento de 1.966.650 ARS 【0†source】. Además, ¿podrías indicarme en qué lugar te encuentras y cómo prefieres realizar el pago? Megamoto ofrece múltiples métodos de pago, incluyendo pago contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios【8†source】.</v>
+      </c>
       <c r="D53" t="str">
-        <v>65b0140bbff5550008cfd351</v>
+        <v>65b014b5fea3ac0008edbb17</v>
       </c>
       <c r="E53" s="1">
-        <v>45314.688156041666</v>
+        <v>45314.69010436343</v>
       </c>
     </row>
     <row r="54" xml:space="preserve">
       <c r="A54" t="str">
-        <v>Leonel Amitrano</v>
+        <v>Mily💋</v>
       </c>
       <c r="B54" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C54" t="str" xml:space="preserve">
-        <v xml:space="preserve">23/1/2024, 16:34:33 - Leonel Amitrano: ¡Hola! Quiero más información.
-23/1/2024, 16:34:33 - MegaBot: ¡Hola Leonel Amitrano! Gracias por enviar la información. Veo que estás interesado en comprar una moto. Para poder ayudarte más rápido, ¿podrías indicarme qué modelo de moto estás buscando y en qué lugar te encuentras? Además, ¿tienes alguna preferencia sobre cómo deseas realizar el pago? Puedes elegir entre pago contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios. ¡Estoy aquí para ayudarte con tu compra en Megamoto!</v>
+        <v xml:space="preserve">23/1/2024, 17:21:16 - Mily💋: 110
+23/1/2024, 17:21:18 - MegaBot: ¡Hola Mily💋! Soy MegaBot, un Asistente Virtual de Megamoto. Según nuestra información, los métodos de pago disponibles son pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR Mercado Pago, préstamos personales o préstamos prendarios. Además, se ofrece financiación de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, con la posibilidad de llevarse la moto en el momento y comenzar a pagar en dos meses【11†fuente】.
+En cuanto al modelo MAX 110 A/E, el precio de contado sin patentamiento es de 1,153,950.00. ¿De dónde eres y cómo te gustaría pagar?
+24/1/2024, 14:49:52 - Vendedor Megamoto: hola, motomel blitz base $956.000 contado con patentamiento incluido 
+24/1/2024, 14:49:58 - Vendedor Megamoto: las maneras para pagarla son:
+-efectivo(transferencia, debito )
+-tarjeta de credito
+-credito personal, vos como tenias previsto?
+</v>
       </c>
       <c r="D54" t="str">
-        <v>65b014b5fea3ac0008edbb17</v>
+        <v>654c55e809a610000962360d</v>
       </c>
       <c r="E54" s="1">
-        <v>45314.69010436343</v>
+        <v>45314.7225540625</v>
       </c>
     </row>
     <row r="55" xml:space="preserve">
       <c r="A55" t="str">
-        <v>Mily💋</v>
+        <v>Pablo</v>
       </c>
       <c r="B55" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C55" t="str" xml:space="preserve">
-        <v xml:space="preserve">23/1/2024, 17:21:16 - Mily💋: 110
-23/1/2024, 17:21:18 - MegaBot: ¡Hola Mily💋! Soy MegaBot, un Asistente Virtual de Megamoto. Según nuestra información, los métodos de pago disponibles son pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR Mercado Pago, préstamos personales o préstamos prendarios. Además, se ofrece financiación de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, con la posibilidad de llevarse la moto en el momento y comenzar a pagar en dos meses【11†fuente】.
-En cuanto al modelo MAX 110 A/E, el precio de contado sin patentamiento es de 1,153,950.00. ¿De dónde eres y cómo te gustaría pagar?</v>
-      </c>
-      <c r="D55" t="str">
-        <v>654c55e809a610000962360d</v>
-      </c>
-      <c r="E55" s="1">
-        <v>45314.7225540625</v>
-      </c>
-    </row>
-    <row r="56" xml:space="preserve">
-      <c r="A56" t="str">
-        <v>Pablo</v>
-      </c>
-      <c r="B56" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C56" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 18:01:14 - Pablo: 5000 de adelanto
 23/1/2024, 18:01:14 - MegaBot: Según la información proporcionada, los métodos de pago disponibles son pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios, pudiendo hacer una combinación entre estos métodos. Además, se menciona que las distintas formas de pago pueden ser realizadas por otra persona, sin embargo, la moto saldrá a nombre de quien decidan【9†source】.
 A continuación, encontrarás una lista de modelos de motos con sus respectivos precios de contado sin patentamiento. Por favor, indícame cuál es el modelo que estás buscando y de dónde eres para poder brindarte asistencia con tu solicitud de compra.
@@ -1546,245 +1551,251 @@
 - Y muchos otros modelos.
 Por favor, indícame cuál es el modelo de tu interés y tu ubicación para poder proporcionarte más información sobre el modelo específico y los detalles de la compra.
 23/1/2024, 18:04:45 - Pablo: Solo línea Benelli?
-23/1/2024, 18:04:46 - MegaBot: Además de la línea Benelli, Megamoto comercializa motos, repuestos, accesorios y bicicletas de otras marcas como Suzuki, Motomel, Keeway, Sym, Scott, Orbea, Tecnial y Shiro【19†source】. Si estás interesado en algún modelo específico de Benelli o en alguna de estas otras marcas, por favor indícame el modelo de tu interés y tu ubicación para brindarte información detallada y los pasos para la compra.</v>
+23/1/2024, 18:04:46 - MegaBot: Además de la línea Benelli, Megamoto comercializa motos, repuestos, accesorios y bicicletas de otras marcas como Suzuki, Motomel, Keeway, Sym, Scott, Orbea, Tecnial y Shiro【19†source】. Si estás interesado en algún modelo específico de Benelli o en alguna de estas otras marcas, por favor indícame el modelo de tu interés y tu ubicación para brindarte información detallada y los pasos para la compra.
+24/1/2024, 11:53:09 - Vendedor Megamoto: en esa cilindrada solo linea benelli 
+24/1/2024, 12:14:03 - Pablo: Royal endfield no?
+24/1/2024, 12:14:03 - MegaBot: Lamentablemente, la información disponible indica que Megamoto solo ofrece la línea Benelli en la cilindrada mencionada. Si estás interesado en modelos Royal Enfield u otras marcas, estaré encantado de ayudarte a encontrar un concesionario o vendedor que pueda satisfacer tus necesidades.
+24/1/2024, 15:00:23 - Pablo: Gracias!
+24/1/2024, 15:00:23 - MegaBot: ¡De nada! Si necesitas información adicional o tienes alguna otra consulta, no dudes en preguntar. Estoy aquí para ayudarte.</v>
+      </c>
+      <c r="D55" t="str">
+        <v>65a92bfe309f7100087ebf0b</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45314.750304166664</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="A56" t="str">
+        <v>Jose Luis</v>
+      </c>
+      <c r="B56" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C56" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:04:19 - Jose Luis: Hola.  Ya compre. Te agendo por si surge algo nuevo
+23/1/2024, 18:04:19 - MegaBot: Entendido, gracias por contar conmigo. ¡Que disfrutes tu nueva motocicleta! Si en el futuro necesitas ayuda o información adicional, no dudes en contactarme.
+24/1/2024, 14:50:18 - Vendedor Megamoto: gracias, que la disfrutes! saludos</v>
       </c>
       <c r="D56" t="str">
-        <v>65a92bfe309f7100087ebf0b</v>
+        <v>65abb898ef98e80008dd031f</v>
       </c>
       <c r="E56" s="1">
-        <v>45314.750304166664</v>
+        <v>45314.75244833333</v>
       </c>
     </row>
     <row r="57" xml:space="preserve">
       <c r="A57" t="str">
-        <v>Jose Luis</v>
+        <v>Gabii Gomez</v>
       </c>
       <c r="B57" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C57" t="str" xml:space="preserve">
-        <v xml:space="preserve">23/1/2024, 18:04:19 - Jose Luis: Hola.  Ya compre. Te agendo por si surge algo nuevo
-23/1/2024, 18:04:19 - MegaBot: Entendido, gracias por contar conmigo. ¡Que disfrutes tu nueva motocicleta! Si en el futuro necesitas ayuda o información adicional, no dudes en contactarme.</v>
+        <v xml:space="preserve">23/1/2024, 18:04:46 - Gabii Gomez: ¡Hola! Podrías darme más información de...
+23/1/2024, 18:04:46 - MegaBot: ¡Hola Gabii Gomez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
       </c>
       <c r="D57" t="str">
-        <v>65abb898ef98e80008dd031f</v>
+        <v>65b029e4ecfa4000084a3ae4</v>
       </c>
       <c r="E57" s="1">
-        <v>45314.75244833333</v>
+        <v>45314.75276041667</v>
       </c>
     </row>
     <row r="58" xml:space="preserve">
       <c r="A58" t="str">
-        <v>Gabii Gomez</v>
+        <v>Lezcanojavier027</v>
       </c>
       <c r="B58" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C58" t="str" xml:space="preserve">
-        <v xml:space="preserve">23/1/2024, 18:04:46 - Gabii Gomez: ¡Hola! Podrías darme más información de...
-23/1/2024, 18:04:46 - MegaBot: ¡Hola Gabii Gomez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+        <v xml:space="preserve">23/1/2024, 18:05:23 - Lezcanojavier027: Hola si tengo 27 años tengo pension mi  DNI 39789082 nombre  y apellido Javier Matías lezcano
+23/1/2024, 18:05:23 - MegaBot: ¡Hola Lezcanojavier027! Soy MegaBot, un Asistente Virtual de Megamoto. ¿En qué puedo ayudarte hoy?</v>
       </c>
       <c r="D58" t="str">
-        <v>65b029e4ecfa4000084a3ae4</v>
+        <v>65a812d59fa77600081b00a1</v>
       </c>
       <c r="E58" s="1">
-        <v>45314.75276041667</v>
+        <v>45314.753191979165</v>
       </c>
     </row>
     <row r="59" xml:space="preserve">
       <c r="A59" t="str">
-        <v>Lezcanojavier027</v>
+        <v>Migue</v>
       </c>
       <c r="B59" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C59" t="str" xml:space="preserve">
-        <v xml:space="preserve">23/1/2024, 18:05:23 - Lezcanojavier027: Hola si tengo 27 años tengo pension mi  DNI 39789082 nombre  y apellido Javier Matías lezcano
-23/1/2024, 18:05:23 - MegaBot: ¡Hola Lezcanojavier027! Soy MegaBot, un Asistente Virtual de Megamoto. ¿En qué puedo ayudarte hoy?</v>
+        <v xml:space="preserve">23/1/2024, 18:12:08 - Migue: ¡Hola! Podrías darme más información de...a
+23/1/2024, 18:12:08 - MegaBot: ¡Hola Migue! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. También te puedo ayudar con los precios de nuestras motos, si necesitas información sobre eso.</v>
       </c>
       <c r="D59" t="str">
-        <v>65a812d59fa77600081b00a1</v>
+        <v>659b57bc97099600097c5826</v>
       </c>
       <c r="E59" s="1">
-        <v>45314.753191979165</v>
+        <v>45314.75787854167</v>
       </c>
     </row>
     <row r="60" xml:space="preserve">
       <c r="A60" t="str">
-        <v>Migue</v>
+        <v>🦝</v>
       </c>
       <c r="B60" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C60" t="str" xml:space="preserve">
-        <v xml:space="preserve">23/1/2024, 18:12:08 - Migue: ¡Hola! Podrías darme más información de...a
-23/1/2024, 18:12:08 - MegaBot: ¡Hola Migue! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. También te puedo ayudar con los precios de nuestras motos, si necesitas información sobre eso.</v>
-      </c>
-      <c r="D60" t="str">
-        <v>659b57bc97099600097c5826</v>
-      </c>
-      <c r="E60" s="1">
-        <v>45314.75787854167</v>
-      </c>
-    </row>
-    <row r="61" xml:space="preserve">
-      <c r="A61" t="str">
-        <v>🦝</v>
-      </c>
-      <c r="B61" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C61" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 18:22:32 - 🦝: 251s bonelli m
 23/1/2024, 18:22:32 - MegaBot: ¡Hola 🦝! Soy MegaBot, un Asistente Virtual de Megamoto. Para ayudarte más rápido, necesito que me indiques tu ubicación, el modelo de moto que estás buscando y tu forma de pago. Además, te comento que las sucursales de Megamoto se encuentran en Merlo, con horario de lunes a sábados de 10 a 19 horas, y en CABA zona Abasto, con horario de lunes a viernes de 9 a 19 horas y sábados de 9 a 13 horas【9†source】.
 23/1/2024, 18:22:41 - 🦝: Me interesa esa
 23/1/2024, 18:22:42 - MegaBot: Perfecto, veo que estás interesado en la moto "251S". El precio de contado sin patentamiento para la "251S" es de 4844990.31 ARS. ¿Me podrías indicar tu ubicación, modelo de moto y método de pago preferido?</v>
       </c>
-      <c r="D61" t="str">
+      <c r="D60" t="str">
         <v>65affd4a3b673500097b3294</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E60" s="1">
         <v>45314.76509666667</v>
       </c>
     </row>
-    <row r="62" xml:space="preserve">
-      <c r="A62" t="str">
+    <row r="61" xml:space="preserve">
+      <c r="A61" t="str">
         <v>Jonaaa</v>
       </c>
-      <c r="B62" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C62" t="str" xml:space="preserve">
+      <c r="B61" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C61" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 18:22:49 - Jonaaa: Consultaba por la Suzuki gn 125
 23/1/2024, 18:22:49 - MegaBot: ¡Hola Jonaaa! Gracias por consultar por la Suzuki GN 125. En la lista de precios que tengo disponible, el precio de contado sin patentamiento para la Suzuki GN 125 es de 2061754.39 pesos【9†fuente】. Si deseas información sobre financiación, métodos de pago o disponibilidad de la motocicleta, por favor házmelo saber para que pueda ayudarte de la mejor manera.
 23/1/2024, 18:22:54 - Jonaaa: Que precio tiene
 23/1/2024, 18:22:54 - MegaBot: El precio de contado sin patentar para la Suzuki GN 125 es de 2061754.39 pesos argentinos【8†fuente】.</v>
       </c>
+      <c r="D61" t="str">
+        <v>65af1b621a73920008e21427</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45314.76529693287</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="A62" t="str">
+        <v>Yohaa!! ⚽❤️</v>
+      </c>
+      <c r="B62" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C62" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:22:59 - Yohaa!! ⚽❤️: La Motomel 110
+23/1/2024, 18:22:59 - MegaBot: ¡Hola Yohaa! ⚽❤️! Soy MegaBot, un Asistente Virtual de Megamoto. Para ayudarte mejor, ¿podrías indicarme de dónde eres y cómo te gustaría pagar?</v>
+      </c>
       <c r="D62" t="str">
-        <v>65af1b621a73920008e21427</v>
+        <v>65afdd561dcc700008f1b80e</v>
       </c>
       <c r="E62" s="1">
-        <v>45314.76529693287</v>
+        <v>45314.7654071412</v>
       </c>
     </row>
     <row r="63" xml:space="preserve">
       <c r="A63" t="str">
-        <v>Yohaa!! ⚽❤️</v>
+        <v>Walterlescano1993</v>
       </c>
       <c r="B63" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C63" t="str" xml:space="preserve">
-        <v xml:space="preserve">23/1/2024, 18:22:59 - Yohaa!! ⚽❤️: La Motomel 110
-23/1/2024, 18:22:59 - MegaBot: ¡Hola Yohaa! ⚽❤️! Soy MegaBot, un Asistente Virtual de Megamoto. Para ayudarte mejor, ¿podrías indicarme de dónde eres y cómo te gustaría pagar?</v>
+        <v xml:space="preserve">23/1/2024, 18:23:13 - Walterlescano1993: Hola qué precio tiene la Benelli 302?
+23/1/2024, 18:23:13 - MegaBot: El precio de la Benelli 302 no se encuentra en el archivo proporcionado. Sin embargo, basándome en la lista de precios, puedo ver que el modelo "SKUA 250 ADVENTURE NUEVO MODELO" tiene un precio al contado sin patentamiento de $3,149,895【15†source】. Te recomendaría consultar directamente con Megamoto para obtener el precio específico de la Benelli 302.</v>
       </c>
       <c r="D63" t="str">
-        <v>65afdd561dcc700008f1b80e</v>
+        <v>65afdeb916f3350008932eab</v>
       </c>
       <c r="E63" s="1">
-        <v>45314.7654071412</v>
+        <v>45314.76557592593</v>
       </c>
     </row>
     <row r="64" xml:space="preserve">
       <c r="A64" t="str">
-        <v>Walterlescano1993</v>
+        <v>Cristian</v>
       </c>
       <c r="B64" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C64" t="str" xml:space="preserve">
-        <v xml:space="preserve">23/1/2024, 18:23:13 - Walterlescano1993: Hola qué precio tiene la Benelli 302?
-23/1/2024, 18:23:13 - MegaBot: El precio de la Benelli 302 no se encuentra en el archivo proporcionado. Sin embargo, basándome en la lista de precios, puedo ver que el modelo "SKUA 250 ADVENTURE NUEVO MODELO" tiene un precio al contado sin patentamiento de $3,149,895【15†source】. Te recomendaría consultar directamente con Megamoto para obtener el precio específico de la Benelli 302.</v>
-      </c>
-      <c r="D64" t="str">
-        <v>65afdeb916f3350008932eab</v>
-      </c>
-      <c r="E64" s="1">
-        <v>45314.76557592593</v>
-      </c>
-    </row>
-    <row r="65" xml:space="preserve">
-      <c r="A65" t="str">
-        <v>Cristian</v>
-      </c>
-      <c r="B65" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C65" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 18:42:18 - Cristian: ¡Hola! Quiero más información.
 23/1/2024, 18:42:18 - MegaBot: ¡Hola Cristian! Gracias por contactar a Megamoto. Según nuestra base de conocimiento, la financiación puede ser de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, con cuotas fijas y la posibilidad de llevarse la moto en el momento y comenzar a pagar en dos meses【9†source】.
 En cuanto a la información de las motos que tenemos disponibles, te puedo ofrecer precios de contado sin patentamiento de diferentes modelos. Por ejemplo, la "STRATO 150 ALPINO" tiene un precio de 2.021.250,00, la "STRATO 150 EURO" tiene un precio de 1.913.100,00, entre otros modelos disponibles.
 Por favor, házmelo saber si estás interesado en algún modelo en particular, de dónde eres y cómo te gustaría realizar el pago para que pueda ayudarte de la mejor manera.</v>
       </c>
+      <c r="D64" t="str">
+        <v>65b032a8f31ce6000807c7ef</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45314.77882273148</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="A65" t="str">
+        <v>Tomás🕸️</v>
+      </c>
+      <c r="B65" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C65" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:43:33 - Tomás🕸️: con prestamo personal
+23/1/2024, 18:43:34 - MegaBot: ¡Hola Tomás🕸️! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. También, si tienes alguna preferencia de pago con préstamo personal, házmelo saber para poder ayudarte de la mejor manera posible.</v>
+      </c>
       <c r="D65" t="str">
-        <v>65b032a8f31ce6000807c7ef</v>
+        <v>658f1f54c08b9c0008b7fefd</v>
       </c>
       <c r="E65" s="1">
-        <v>45314.77882273148</v>
+        <v>45314.779697337966</v>
       </c>
     </row>
     <row r="66" xml:space="preserve">
       <c r="A66" t="str">
-        <v>Tomás🕸️</v>
+        <v>Javier Daniel Cortez</v>
       </c>
       <c r="B66" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C66" t="str" xml:space="preserve">
-        <v xml:space="preserve">23/1/2024, 18:43:33 - Tomás🕸️: con prestamo personal
-23/1/2024, 18:43:34 - MegaBot: ¡Hola Tomás🕸️! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. También, si tienes alguna preferencia de pago con préstamo personal, házmelo saber para poder ayudarte de la mejor manera posible.</v>
+        <v xml:space="preserve">23/1/2024, 18:50:36 - Javier Daniel Cortez: Queria saber las cuotas de deluxe por mes la mas baja cuota
+23/1/2024, 18:50:36 - MegaBot: Lamentablemente, no parece haber información sobre las cuotas mensuales en los archivos que has proporcionado. Para brindarte la información precisa, necesitaría saber la tasa de interés y el plazo en el que estás interesado en pagar las cuotas mensuales. ¿Puedes proporcionar esta información para que pueda calcular las cuotas de la moto DLX 110 DELUXE?</v>
       </c>
       <c r="D66" t="str">
-        <v>658f1f54c08b9c0008b7fefd</v>
+        <v>65af82b2ff6c3400087152b3</v>
       </c>
       <c r="E66" s="1">
-        <v>45314.779697337966</v>
+        <v>45314.78459079861</v>
       </c>
     </row>
     <row r="67" xml:space="preserve">
       <c r="A67" t="str">
-        <v>Javier Daniel Cortez</v>
+        <v>Cristian</v>
       </c>
       <c r="B67" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C67" t="str" xml:space="preserve">
-        <v xml:space="preserve">23/1/2024, 18:50:36 - Javier Daniel Cortez: Queria saber las cuotas de deluxe por mes la mas baja cuota
-23/1/2024, 18:50:36 - MegaBot: Lamentablemente, no parece haber información sobre las cuotas mensuales en los archivos que has proporcionado. Para brindarte la información precisa, necesitaría saber la tasa de interés y el plazo en el que estás interesado en pagar las cuotas mensuales. ¿Puedes proporcionar esta información para que pueda calcular las cuotas de la moto DLX 110 DELUXE?</v>
+        <v xml:space="preserve">23/1/2024, 18:58:26 - Cristian: Hola .. si estoy interesado en la trk 502.. cuánto vale y en caso de entrega y financiación. gracias
+23/1/2024, 18:58:26 - MegaBot: ¡Hola Cristian! La moto TRK 502 tiene un precio de contado sin patentamiento de $11,870,100【13†source】. En cuanto a la entrega y financiación, puedes financiar la compra de la moto hasta en 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales. Además, el anticipo se puede financiar en un 100% si la tarjeta o la entidad prestamista así lo determinan【9†source】. Si estás interesado en proceder con la compra, necesitaré que me indiques desde dónde te estás contactando y qué forma de pago prefieres.</v>
       </c>
       <c r="D67" t="str">
-        <v>65af82b2ff6c3400087152b3</v>
+        <v>65aba885fd82f2000871e208</v>
       </c>
       <c r="E67" s="1">
-        <v>45314.78459079861</v>
+        <v>45314.790030219905</v>
       </c>
     </row>
     <row r="68" xml:space="preserve">
       <c r="A68" t="str">
-        <v>Cristian</v>
+        <v>Rodrigo Maximiliano</v>
       </c>
       <c r="B68" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C68" t="str" xml:space="preserve">
-        <v xml:space="preserve">23/1/2024, 18:58:26 - Cristian: Hola .. si estoy interesado en la trk 502.. cuánto vale y en caso de entrega y financiación. gracias
-23/1/2024, 18:58:26 - MegaBot: ¡Hola Cristian! La moto TRK 502 tiene un precio de contado sin patentamiento de $11,870,100【13†source】. En cuanto a la entrega y financiación, puedes financiar la compra de la moto hasta en 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales. Además, el anticipo se puede financiar en un 100% si la tarjeta o la entidad prestamista así lo determinan【9†source】. Si estás interesado en proceder con la compra, necesitaré que me indiques desde dónde te estás contactando y qué forma de pago prefieres.</v>
-      </c>
-      <c r="D68" t="str">
-        <v>65aba885fd82f2000871e208</v>
-      </c>
-      <c r="E68" s="1">
-        <v>45314.790030219905</v>
-      </c>
-    </row>
-    <row r="69" xml:space="preserve">
-      <c r="A69" t="str">
-        <v>Rodrigo Maximiliano</v>
-      </c>
-      <c r="B69" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C69" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 18:58:49 - Rodrigo Maximiliano: Buen día
 23/1/2024, 18:58:50 - MegaBot: ¡Buen día! ¿En qué puedo ayudarte hoy?
 23/1/2024, 18:59:01 - Rodrigo Maximiliano: Binelli
@@ -1805,21 +1816,21 @@
 - Skua 125 X-Treme: $1,410,759【10†source】.
 ¿Te interesa alguno de estos modelos o buscas algo en particular?</v>
       </c>
-      <c r="D69" t="str">
+      <c r="D68" t="str">
         <v>65aba911ff68a80008df6757</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E68" s="1">
         <v>45314.790300532404</v>
       </c>
     </row>
-    <row r="70" xml:space="preserve">
-      <c r="A70" t="str">
+    <row r="69" xml:space="preserve">
+      <c r="A69" t="str">
         <v>Oíd Mortales</v>
       </c>
-      <c r="B70" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C70" t="str" xml:space="preserve">
+      <c r="B69" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C69" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 18:59:27 - Oíd Mortales: Info sobre la Skua MMX
 23/1/2024, 18:59:27 - MegaBot: Encontré información sobre la Skua MMX en el archivo "V2 - Base de conocimiento de Megamoto.pdf", pero también puedo proporcionarte el precio al contado sin patentamiento de la Skua 150 New Generation, que es de $1,467,450, y el de la Skua 150 Silver Edition, que es de $1,966,650, según el archivo "listaDePrecios_22-1-2024.json". ¿Hay algo más específico que estés buscando sobre la Skua MMX o necesitas ayuda con otro tema?
 23/1/2024, 19:00:00 - Oíd Mortales: Info sobre la Skua 250
@@ -1827,39 +1838,39 @@
 23/1/2024, 19:00:12 - Oíd Mortales: Y la MMX
 23/1/2024, 19:00:12 - MegaBot: Lamentablemente, no he podido encontrar información específica sobre la Skua MMX en el archivo proporcionado "Base de conocimiento de Megamoto.pdf". ¿En qué más puedo ayudarte?</v>
       </c>
+      <c r="D69" t="str">
+        <v>65af5484c42675000a90338e</v>
+      </c>
+      <c r="E69" s="1">
+        <v>45314.79073577547</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="A70" t="str">
+        <v>❤️d.f.a❤️</v>
+      </c>
+      <c r="B70" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C70" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 18:59:33 - ❤️d.f.a❤️: ¡Hola! Quiero más información.
+23/1/2024, 18:59:34 - MegaBot: ¡Hola ❤️d.f.a❤️! Gracias por compartir la información. Para poder brindarte la mejor atención, necesito que me indiques qué modelo de moto estás buscando, de dónde eres y cómo deseas realizar el pago. Además, tengo una lista de precios con distintos modelos de motos y sus precios al contado sin patentamiento, por si te interesa consultarla.</v>
+      </c>
       <c r="D70" t="str">
-        <v>65af5484c42675000a90338e</v>
+        <v>65b036bbbf038100085eb4f0</v>
       </c>
       <c r="E70" s="1">
-        <v>45314.79073577547</v>
+        <v>45314.790808101854</v>
       </c>
     </row>
     <row r="71" xml:space="preserve">
       <c r="A71" t="str">
-        <v>❤️d.f.a❤️</v>
+        <v>Orlando</v>
       </c>
       <c r="B71" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C71" t="str" xml:space="preserve">
-        <v xml:space="preserve">23/1/2024, 18:59:33 - ❤️d.f.a❤️: ¡Hola! Quiero más información.
-23/1/2024, 18:59:34 - MegaBot: ¡Hola ❤️d.f.a❤️! Gracias por compartir la información. Para poder brindarte la mejor atención, necesito que me indiques qué modelo de moto estás buscando, de dónde eres y cómo deseas realizar el pago. Además, tengo una lista de precios con distintos modelos de motos y sus precios al contado sin patentamiento, por si te interesa consultarla.</v>
-      </c>
-      <c r="D71" t="str">
-        <v>65b036bbbf038100085eb4f0</v>
-      </c>
-      <c r="E71" s="1">
-        <v>45314.790808101854</v>
-      </c>
-    </row>
-    <row r="72" xml:space="preserve">
-      <c r="A72" t="str">
-        <v>Orlando</v>
-      </c>
-      <c r="B72" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C72" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 19:01:30 - Orlando: ¡Hola! Me gustaría conseguir más información sobre esto.
 23/1/2024, 19:01:31 - MegaBot: ¡Hola Orlando! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte más rápido, necesitaría la siguiente información: 
 1. ¿Qué moto estás buscando?
@@ -1868,77 +1879,77 @@
 23/1/2024, 19:02:47 - Orlando: Hola, 30 cuotas de que valor ???
 23/1/2024, 19:02:47 - MegaBot: El precio de contado sin patentamiento para la moto MAX 110 A/E es de $1,153,950【21†fuente】. Las cuotas y su valor dependerán del plan de financiación que elijas. Para obtener más detalles, te recomendaría que te comuniques directamente con Megamoto a través de los números de contacto proporcionados anteriormente.</v>
       </c>
+      <c r="D71" t="str">
+        <v>65b0372c5fc18c0008d49964</v>
+      </c>
+      <c r="E71" s="1">
+        <v>45314.792163969905</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str">
+        <v>Abrázame Con Toda El Alma</v>
+      </c>
+      <c r="B72" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C72" t="str" xml:space="preserve">
+        <v xml:space="preserve">23/1/2024, 19:19:35 - Abrázame Con Toda El Alma: G catan
+23/1/2024, 19:19:35 - MegaBot: ¡Hola Abrázame Con Toda El Alma! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte mejor, ¿podrías indicarme qué moto estás buscando, de dónde eres y cómo quieres pagar?</v>
+      </c>
       <c r="D72" t="str">
-        <v>65b0372c5fc18c0008d49964</v>
+        <v>65af9c2d668e8900089f1193</v>
       </c>
       <c r="E72" s="1">
-        <v>45314.792163969905</v>
+        <v>45314.80471667824</v>
       </c>
     </row>
     <row r="73" xml:space="preserve">
       <c r="A73" t="str">
-        <v>Abrázame Con Toda El Alma</v>
+        <v>~cele~</v>
       </c>
       <c r="B73" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C73" t="str" xml:space="preserve">
-        <v xml:space="preserve">23/1/2024, 19:19:35 - Abrázame Con Toda El Alma: G catan
-23/1/2024, 19:19:35 - MegaBot: ¡Hola Abrázame Con Toda El Alma! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte mejor, ¿podrías indicarme qué moto estás buscando, de dónde eres y cómo quieres pagar?</v>
-      </c>
-      <c r="D73" t="str">
-        <v>65af9c2d668e8900089f1193</v>
-      </c>
-      <c r="E73" s="1">
-        <v>45314.80471667824</v>
-      </c>
-    </row>
-    <row r="74" xml:space="preserve">
-      <c r="A74" t="str">
-        <v>~cele~</v>
-      </c>
-      <c r="B74" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C74" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 19:40:42 - ~cele~: Hola buenas tardes 
 Soy de Zárate
 Si
 23/1/2024, 19:40:42 - MegaBot: ¡Hola! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte más rápido, necesitaría que me digas qué tipo de moto estás buscando y cómo te gustaría pagar. También, si tienes alguna preferencia en cuanto a la marca o modelo, ¡no dudes en mencionarlo!</v>
       </c>
+      <c r="D73" t="str">
+        <v>65a5a172b6e0300009252fc4</v>
+      </c>
+      <c r="E73" s="1">
+        <v>45314.819376493055</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
+        <v>Kevin⚽️</v>
+      </c>
+      <c r="B74" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C74" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 9:08:36 - Kevin⚽️: Suzuki 100?
+24/1/2024, 9:08:36 - MegaBot: Parece que ha habido un problema al intentar acceder a la información sobre la Suzuki 100. Por favor, permíteme un momento para solucionarlo.</v>
+      </c>
       <c r="D74" t="str">
-        <v>65a5a172b6e0300009252fc4</v>
+        <v>65ac15350a045e0008ada62f</v>
       </c>
       <c r="E74" s="1">
-        <v>45314.819376493055</v>
+        <v>45315.38042079861</v>
       </c>
     </row>
     <row r="75" xml:space="preserve">
       <c r="A75" t="str">
-        <v>Kevin⚽️</v>
+        <v>Felix</v>
       </c>
       <c r="B75" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C75" t="str" xml:space="preserve">
-        <v xml:space="preserve">24/1/2024, 9:08:36 - Kevin⚽️: Suzuki 100?
-24/1/2024, 9:08:36 - MegaBot: Parece que ha habido un problema al intentar acceder a la información sobre la Suzuki 100. Por favor, permíteme un momento para solucionarlo.</v>
-      </c>
-      <c r="D75" t="str">
-        <v>65ac15350a045e0008ada62f</v>
-      </c>
-      <c r="E75" s="1">
-        <v>45315.38042079861</v>
-      </c>
-    </row>
-    <row r="76" xml:space="preserve">
-      <c r="A76" t="str">
-        <v>Felix</v>
-      </c>
-      <c r="B76" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C76" t="str" xml:space="preserve">
         <v xml:space="preserve">24/1/2024, 9:39:25 - Felix: ¡Hola! Podrías darme más información de...
 24/1/2024, 9:39:25 - MegaBot: ¡Hola Felix! Soy MegaBot, un Asistente Virtual de Megamoto. ¿En qué puedo ayudarte con la compra de una moto? Recuerda proporcionar la marca y modelo de la moto que estás buscando, tu ubicación, y tus preferencias de pago, así podré ayudarte de la mejor manera posible.
 24/1/2024, 9:39:34 - Felix: Precio x favor
@@ -1949,91 +1960,800 @@
 - TRK502-X NEW: $13,454,100
 Si estás interesado en otros modelos, házmelo saber para verificar los precios correspondientes【8†fuente】.</v>
       </c>
+      <c r="D75" t="str">
+        <v>655609c325e5a30008794810</v>
+      </c>
+      <c r="E75" s="1">
+        <v>45315.40182453704</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str">
+        <v>Shee❤️❤️</v>
+      </c>
+      <c r="B76" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C76" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 10:25:57 - Shee❤️❤️: Hola.buen dia
+24/1/2024, 10:25:57 - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy?</v>
+      </c>
       <c r="D76" t="str">
-        <v>655609c325e5a30008794810</v>
+        <v>65b0848abc8ff20008ca107e</v>
       </c>
       <c r="E76" s="1">
-        <v>45315.40182453704</v>
+        <v>45315.43413983796</v>
       </c>
     </row>
     <row r="77" xml:space="preserve">
       <c r="A77" t="str">
-        <v>Shee❤️❤️</v>
+        <v>Victorperez</v>
       </c>
       <c r="B77" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C77" t="str" xml:space="preserve">
-        <v xml:space="preserve">24/1/2024, 10:25:57 - Shee❤️❤️: Hola.buen dia
-24/1/2024, 10:25:57 - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy?</v>
+        <v xml:space="preserve">24/1/2024, 10:54:54 - Victorperez: Q esto q mando
+24/1/2024, 10:54:54 - MegaBot: ¡Hola Victorperez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar【9†fuente】.</v>
       </c>
       <c r="D77" t="str">
-        <v>65b0848abc8ff20008ca107e</v>
+        <v>65b116986bc33200080a1c29</v>
       </c>
       <c r="E77" s="1">
-        <v>45315.43413983796</v>
+        <v>45315.454240011575</v>
       </c>
     </row>
     <row r="78" xml:space="preserve">
       <c r="A78" t="str">
-        <v>Victorperez</v>
+        <v>Braian Celso</v>
       </c>
       <c r="B78" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C78" t="str" xml:space="preserve">
-        <v xml:space="preserve">24/1/2024, 10:54:54 - Victorperez: Q esto q mando
-24/1/2024, 10:54:54 - MegaBot: ¡Hola Victorperez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar【9†fuente】.</v>
-      </c>
-      <c r="D78" t="str">
-        <v>65b116986bc33200080a1c29</v>
-      </c>
-      <c r="E78" s="1">
-        <v>45315.454240011575</v>
-      </c>
-    </row>
-    <row r="79" xml:space="preserve">
-      <c r="A79" t="str">
-        <v>Braian Celso</v>
-      </c>
-      <c r="B79" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C79" t="str" xml:space="preserve">
         <v xml:space="preserve">24/1/2024, 11:02:18 - Braian Celso: ¡Hola! Podrías darme más información de...
 24/1/2024, 11:02:19 - MegaBot: ¡Hola Braian Celso! Soy MegaBot, un Asistente Virtual de Megamoto. Según la información proporcionada, los métodos de pago disponibles incluyen pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios. Se puede hacer una combinación con estos métodos, y la financiación puede ser de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, con la opción de que las cuotas sean fijas. Además, para acceder a un crédito, será necesario el número de documento para que un vendedor pueda verificarlo【9†source】.
 También tengo la lista de precios de varios modelos de motos, ¿te interesa conocer el precio de alguno en particular o necesitas más información sobre otro tema?</v>
       </c>
-      <c r="D79" t="str">
+      <c r="D78" t="str">
         <v>65aff4f789653600085172de</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E78" s="1">
         <v>45315.45938611111</v>
       </c>
     </row>
-    <row r="80" xml:space="preserve">
-      <c r="A80" t="str">
+    <row r="79" xml:space="preserve">
+      <c r="A79" t="str">
         <v>Jonathan Franco</v>
       </c>
-      <c r="B80" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C80" t="str" xml:space="preserve">
+      <c r="B79" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C79" t="str" xml:space="preserve">
         <v xml:space="preserve">24/1/2024, 11:11:55 - Jonathan Franco: ¡Hola! Podrías darme más información de...
 24/1/2024, 11:11:55 - MegaBot: He encontrado información relevante. Para poder ayudarte mejor, necesito que me indiques qué moto estás buscando, de dónde eres y cómo te gustaría pagar. Además, para que tengas en cuenta, Megamoto es una empresa que comercializa motos, repuestos, accesorios y bicicletas de distintas marcas como Benelli, Suzuki, Motomel, Keeway, Sym, Scott, Orbea, Tecnial y Shiro. También ofrecen servicios de postventa. Tienen ubicaciones en Merlo y en la zona Abasto de CABA, con horarios de apertura específicos, y diversos números de contactos para comunicarse con ellos【9†source】. También tengo información detallada sobre los modelos de motos que ofrece Megamoto, con sus respectivos precios al contado sin patentamiento. Una vez que me indiques tus preferencias, podré brindarte asesoramiento personalizado.
 24/1/2024, 11:12:11 - Jonathan Franco: ¡Hola! Podrías darme más información de...
 24/1/2024, 11:12:11 - MegaBot: Para brindarte la información que necesitas, por favor indícame el modelo de moto que te interesa, tu ubicación y los detalles de contacto para que pueda ayudarte de manera efectiva. Además, ten en cuenta que Megamoto ofrece diversas marcas de motos, repuestos, accesorios y bicicletas, con servicios de postventa y varias ubicaciones en Argentina, con horarios de apertura específicos y números de contacto disponibles【8†source】.</v>
       </c>
+      <c r="D79" t="str">
+        <v>65b11a98c7cf490008682daf</v>
+      </c>
+      <c r="E79" s="1">
+        <v>45315.46605403935</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
+      <c r="A80" t="str">
+        <v>Enzo Nahuel</v>
+      </c>
+      <c r="B80" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C80" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 11:39:51 - Enzo Nahuel: ¡Hola! Quiero más información.
+24/1/2024, 11:39:51 - MegaBot: ¡Hola Enzo Nahuel! Soy MegaBot, un Asistente Virtual de Megamoto. Como iniciativa para atenderte más rápido, ¿podrías indicarme qué moto estás buscando, de dónde eres y cómo deseas realizar el pago?【11†source】</v>
+      </c>
       <c r="D80" t="str">
-        <v>65b11a98c7cf490008682daf</v>
+        <v>65b1211e9673440009f97824</v>
       </c>
       <c r="E80" s="1">
-        <v>45315.46605403935</v>
+        <v>45315.485459166666</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
+      <c r="A81" t="str">
+        <v>Benjamín Vizcarra</v>
+      </c>
+      <c r="B81" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C81" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 11:47:28 - Benjamín Vizcarra: ¡Hola! Quiero más información.
+24/1/2024, 11:47:28 - MegaBot: ¡Hola Benjamín Vizcarra! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+Según la información proporcionada en la base de conocimiento de Megamoto, los métodos de pago disponibles incluyen pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios. Se puede hacer una combinación con estos métodos. La financiación puede ser hasta en 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, y la moto se puede llevar en el momento y comenzar a pagar en dos meses según el plan de pagos. Para acceder a un crédito es necesario tener al menos 18 años, no tener deudas y contar con algún tipo de ingreso registrado. Respecto al anticipo, se puede financiar la compra en un 100% si la tarjeta o la entidad que presta así lo determinan【13†source】.
+Además, tengo una lista de precios de distintos modelos de motos. ¿Estás interesado en algún modelo en particular o en recibir más información sobre algún aspecto en específico?
+24/1/2024, 11:48:17 - Benjamín Vizcarra: Se puede comprar la motomel skua 150 también en 12 cuotas?
+24/1/2024, 11:48:17 - MegaBot: El precio al contado de la Motomel Skua 150 New Generation es de 1.467.450 pesos argentinos【17†source】. Para conocer las posibles opciones de compra en 12 cuotas, te recomendaría que te pongas en contacto con un vendedor de Megamoto. ¿Te gustaría que te ayude con esa gestión?</v>
+      </c>
+      <c r="D81" t="str">
+        <v>65b122e5e3dcdc000862c91c</v>
+      </c>
+      <c r="E81" s="1">
+        <v>45315.49074122685</v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
+      <c r="A82" t="str">
+        <v>Esteban</v>
+      </c>
+      <c r="B82" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C82" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 11:49:20 - Esteban: ¡Hola! Podrías darme más información de...
+24/1/2024, 11:49:21 - MegaBot: Parece que hubo un problema al intentar abrir los archivos que subiste. Déjame intentarlo de nuevo para revisar la información que necesitas.
+24/1/2024, 16:03:09 - Vendedor Megamoto: en que localidad tenes domicilio? asi te paso precio con patentamiento</v>
+      </c>
+      <c r="D82" t="str">
+        <v>6057eb13a07256000713b499</v>
+      </c>
+      <c r="E82" s="1">
+        <v>45315.4920472338</v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
+      <c r="A83" t="str">
+        <v>Hector</v>
+      </c>
+      <c r="B83" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C83" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 11:52:17 - Hector: ¡Hola! Podrías darme más información de...
+24/1/2024, 11:52:18 - MegaBot: ¡Hola Hector! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estás buscando, de dónde sos, y cómo querés pagar.
+Además, encontré la lista de precios de motos de Megamoto. Aquí tienes algunos modelos con sus precios de contado sin patentamiento:
+- STRATO 150 ALPINO: $2.021.250
+- STRATO 150 EURO: $1.913.100
+- MAX 110 A/E: $1.153.950
+- CG 150 S2 START: $1.151.200
+- CG 150 S2 FULL (aleac / disco): $1.406.275
+- SIRIUS 190 NUEVO PRODUCTO: $2.149.500
+- SKUA 150 NEW GENERATION: $1.467.450
+- SKUA 150 SILVER EDITION: $1.966.650
+- SKUA 250 BASE NEW: $2.194.895
+- XMM 250 NUEVA: $2.520.000
+- SKUA 125 X-TREME: $1.410.759
+- SKUA 250 ADVENTURE NUEVO MODELO: $3.149.895
+- DLX 110 DELUXE: $936.116
+- BLITZ 110 V8 START: $890.540
+- BLITZ 110 V8 BASE ONE - B1 Automatica - NEW: $1.000.950
+- BLITZ 110 V8 PLUS: $1.151.150
+- BLITZ 110 V8 FULL ONE - B1 - ALEACION DISCO - NEW: $1.016.650
+- BLITZ 110 V8 TUNNING NEW: $1.127.700
+- CITYCOM 300 i: $5.809.330
+- TNT 15: $2.177.010
+Y muchos modelos más. ¿En qué más puedo ayudarte? 🏍️【11†source】</v>
+      </c>
+      <c r="D83" t="str">
+        <v>65b1240ddbb8d600086a3ac6</v>
+      </c>
+      <c r="E83" s="1">
+        <v>45315.494096574075</v>
+      </c>
+    </row>
+    <row r="84" xml:space="preserve">
+      <c r="A84" t="str">
+        <v>Emanuel Salto</v>
+      </c>
+      <c r="B84" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C84" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 12:09:45 - Emanuel Salto: Hola quería saber los precios de motos 150
+24/1/2024, 12:09:45 - MegaBot: ¡Hola Emanuel Salto! Según la lista de precios que tengo disponible, estos son algunos de los precios de motos 150:
+- STRATO 150 ALPINO: $2,021,250.00
+- STRATO 150 EURO: $1,913,100.00
+- CG 150 S2 START: $1,151,200.00
+- CG 150 S2 FULL (aleac / disco): $1,406,275.00
+- SKUA 150 NEW GENERATION: $1,467,450.00
+- SKUA 150 SILVER EDITION: $1,966,650.00
+- SKUA 125 X-TREME: $1,410,759.00
+Si necesitas información sobre algún otro modelo o alguna otra forma de pago, por favor házmelo saber.</v>
+      </c>
+      <c r="D84" t="str">
+        <v>65b1281ed30d8100082c2353</v>
+      </c>
+      <c r="E84" s="1">
+        <v>45315.50622443287</v>
+      </c>
+    </row>
+    <row r="85" xml:space="preserve">
+      <c r="A85" t="str">
+        <v>Norma❤</v>
+      </c>
+      <c r="B85" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C85" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 12:20:30 - Norma❤: ¡Hola! Podrías darme más información de...
+24/1/2024, 12:20:31 - MegaBot: ¡Hola Norma❤! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+Tengo la información de la lista de precios de algunas motos de Megamoto. ¿Te gustaría que busque algún modelo en particular o que te proporcione más detalles sobre algún producto en específico?</v>
+      </c>
+      <c r="D85" t="str">
+        <v>65b12aa0c7b58f0008169a5f</v>
+      </c>
+      <c r="E85" s="1">
+        <v>45315.51369157407</v>
+      </c>
+    </row>
+    <row r="86" xml:space="preserve">
+      <c r="A86" t="str">
+        <v>Ariel Salvatierra</v>
+      </c>
+      <c r="B86" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C86" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 12:21:21 - Ariel Salvatierra: Hola perdón la tardanza yo ando buscando una moto 250
+24/1/2024, 12:21:21 - MegaBot: ¡Hola Ariel Salvatierra! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte más rápido, ¿podrías indicarme de dónde eres y cómo te gustaría pagar la moto que estás buscando? También puedes visitar el sitio web de Megamoto en https://www.megamoto.com.ar/ o enviar un correo a megamoto@megamoto.com.ar para obtener más información【11†source】.
+24/1/2024, 12:22:49 - Ariel Salvatierra: Y que forma de pagos hay o precios de contado pero valor puesta en calla
+24/1/2024, 12:22:49 - MegaBot: Tenemos varios modelos disponibles, como la "SKUA 250 BASE NEW" por $2,194,895 y la "XMM 250 NUEVA" por $2,520,000 al contado sin patentamiento. Para obtener más detalles y asesoramiento sobre formas de pago, te recomendaría contactar directamente a Megamoto a través de su sitio web, por correo electrónico o por teléfono【9†source】.
+24/1/2024, 16:02:01 - Ariel Salvatierra: ‎4 artículos
+24/1/2024, 16:02:01 - MegaBot: En la lista de precios, se encuentran disponibles los siguientes modelos de motos 250 con precios de contado sin patentamiento:
+- SKUA 250 BASE NEW: $2,194,895
+- XMM 250 NUEVA: $2,520,000【17†source】.
+24/1/2024, 16:02:11 - Ariel Salvatierra: Esas me gustan
+24/1/2024, 16:02:11 - MegaBot: Perfecto, es genial que te gusten esos modelos. ¿Podrías proporcionarme tu domicilio y datos de contacto para seguir con el proceso de compra? Además, ¿tienes alguna preferencia en cuanto al método de pago?
+24/1/2024, 16:03:49 - Vendedor Megamoto: disculpa, como es una app de ventas no me aparece lo que colocaste, me tenes que escribir los modelos</v>
+      </c>
+      <c r="D86" t="str">
+        <v>65aa8c836af6d90008abce38</v>
+      </c>
+      <c r="E86" s="1">
+        <v>45315.514272789354</v>
+      </c>
+    </row>
+    <row r="87" xml:space="preserve">
+      <c r="A87" t="str">
+        <v>Andrés</v>
+      </c>
+      <c r="B87" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C87" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 12:28:49 - Andrés: Hola, tengo algunas preguntas sobre Motomel S2 Cg 150 Full Nueva - Nuevo Ingreso 2023. https://moto.mercadolibre.com.ar/MLA-1518183694-motomel-s2-cg-150-full-nueva-nuevo-ingreso-2023-_JM?u=Mzg2NDA2MzI3
+24/1/2024, 12:28:49 - MegaBot: ¡Hola Andrés! Soy MegaBot, un Asistente Virtual de Megamoto. Según la información proporcionada, la Motomel S2 CG 150 Full tiene un precio de contado sin patentamiento de $1.406.275【15†source】. En cuanto a las opciones de pago, la financiación puede ser de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, con cuotas fijas y la posibilidad de llevarse la moto en el momento y comenzar a pagar en dos meses según el plan de pagos【9†source】.
+Si necesitas más detalles sobre la financiación o cualquier otra consulta, no dudes en preguntar.
+24/1/2024, 12:28:55 - Andrés: Hola
+24/1/2024, 12:28:56 - MegaBot: ¡Hola! ¿En qué más puedo ayudarte hoy?</v>
+      </c>
+      <c r="D87" t="str">
+        <v>623ca57270c993000a695154</v>
+      </c>
+      <c r="E87" s="1">
+        <v>45315.51945753472</v>
+      </c>
+    </row>
+    <row r="88" xml:space="preserve">
+      <c r="A88" t="str">
+        <v>Andres</v>
+      </c>
+      <c r="B88" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C88" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 12:32:45 - Andres: ¡Hola! Podrías darme más información de...
+24/1/2024, 12:32:45 - MegaBot: ¡Hola Andres! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estás buscando, de donde sos, y cómo querés pagar.
+Además, te comento que los teléfonos de contacto de Megamoto son:
+- Abasto: 1149730000 y 1167862952
+- Merlo: 1168930000 – 1159790625
+- Post venta y repuestos: 1156202281
+El sitio web de Megamoto es: [Megamoto](https://www.megamoto.com.ar/)
+Respecto a la información de precios de las motos, encontré un archivo que detalla los precios al contado sin patentamiento de varios modelos. ¿Te gustaría que busque información específica sobre algún modelo en particular?
+24/1/2024, 12:32:54 - Andres: Hola tienen Rouser o fz
+24/1/2024, 12:32:54 - MegaBot: Para los modelos Rouser o FZ, no tengo información específica en el archivo de precios. Sin embargo, puedo buscar modelos que contengan parte de esos nombres. ¿Te gustaría que haga esa búsqueda para ver los modelos disponibles que podrían interesarte?</v>
+      </c>
+      <c r="D88" t="str">
+        <v>65b12d832171f50008cc3269</v>
+      </c>
+      <c r="E88" s="1">
+        <v>45315.52218910879</v>
+      </c>
+    </row>
+    <row r="89" xml:space="preserve">
+      <c r="A89" t="str">
+        <v>Leo</v>
+      </c>
+      <c r="B89" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C89" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 12:33:56 - Leo: *Porque sabemos de tus necesidades y tus necesidades son nuestra prioridad número 1, queremos q cuentes con nosotros para ayudarte a cuidar el bolsillo*
+...Q cómo lo vamos a hacer????
+*BAJANDO PRECIOS!!... SÍ LEISTE BIEN 🙂 PERO SIEMPRE CONCERBANDO LA CALIDAD A LA QUE TE TENEMOS ACOSTUMBRADO*
+*Buscas Carne🐄 pollo🐔cerdo 🐖  y la mejor atención???...*
+LA ENCONTRASTE!!!
+              *" JUANI "* Es tu mejor opcion  😎😁😄
+DONDE ESTAMOS???
+*En Avenida Ratti 3668 al fondo del supermercado 5 estrellas*⭐⭐⭐⭐⭐
+ ..*QUE CON QUE TE VAS A ENCONTRAR?????*
+            *MIRA*👇
+*Mila de pollo $3500k* 
+     *(2k $6000)*
+*Pata y muslo (3k $5500)*
+*Supremas $4200*
+*Alitas 700*
+*Menudos 300*
+*Salchicha d Viena $7000*
+*Salchicha parrillera $5900*
+*Chorizo $4500*
+*Morcilla $3500*
+*Chorizo colorado $1000c/u*
+*Chinchulin $2500k*
+*Hígado $1700 k*
+*Corazón $2100 k*
+*Riñón $2050 k*
+*Patitas $4500k*
+*Medallones relleno de jamón y queso $4500k*
+*Papas $3400k*
+*Picada 5000 (2kg 6,999)*
+*Bifes ancho5000 (2kg 7,999)*
+*Bife angosto 5000 (2kg 7,999)*
+*Roast beef 5400 (2kg 8,999)*
+*Paleta 5500*
+*Palomita $5500k*
+*Tortuguita $5500k*
+*Carnaza $5000k*
+*Lomo $6500*
+*Bola de lomo $5700 (2KG 9,999)*
+*Cuadrada $5700k(2KG 9,999)*
+ *Nalga $6000*
+*Peceto $6500*
+*Cuadril $6000*
+*Colita de Cuadril $6500*
+*Asado $5700*
+*Tapa de asado $5800(2kg 9,999)*
+*Vacío $6000*
+*Matambre $6500*
+*Entraña 6500*
+*Falda 2700$ (2kg 3,999)*
+*Osobuco 2700$ (2kg 3,999)*
+*Espinazo 1000*
+*Pechito 5500*
+*Carre 5500*
+*Bondiola $7880*
+*Filet de merluza sin espina $5800
+*Ahora bien,No tenes tiempo y no podes acercarte???*
+ TE LO ALCANZAMOS A LA PUERTA DE TU CASA 🏡 Y SIN CARGO!!
+🛵🛵 
+*Y ya sabes*...Tu consulta no molesta📱📞
+Aceptamos tarjetas de crédito y débito! 💳
+Mercado pago 📲
+Tarjeta alimentar 💳
+GRACIAS POR CONFIAR EN NOSOTROS ❤️
+24/1/2024, 12:33:56 - MegaBot: ¡Hola Leo! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+Además, sé que estás buscando información sobre motos y medios de pago. Megamoto comercializa motos, repuestos, accesorios y bicicletas de varias marcas, como Benelli, Suzuki, Motomel, Keeway, Sym, Scott, Orbea, Tecnial y Shiro. También ofrecen servicios de postventa. En cuanto a los métodos de pago, aceptan pago contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios, e incluso se puede hacer una combinación de estos métodos【9†fuente】.
+Si estás interesado en alguna moto en específico o tienes alguna otra consulta, ¡no dudes en decírmelo!</v>
+      </c>
+      <c r="D89" t="str">
+        <v>60c9f4b62f5e0700084c3633</v>
+      </c>
+      <c r="E89" s="1">
+        <v>45315.52301042824</v>
+      </c>
+    </row>
+    <row r="90" xml:space="preserve">
+      <c r="A90" t="str">
+        <v>Rama😎</v>
+      </c>
+      <c r="B90" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C90" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 12:41:51 - Rama😎: ¡Hola! Podrías darme más información de...
+24/1/2024, 12:41:53 - MegaBot: ¡Hola Rama😎! Soy MegaBot, un Asistente Virtual de Megamoto. Según la información que he encontrado, Megamoto comercializa motos, repuestos, accesorios y bicicletas de varias marcas, y también ofrece servicios de postventa. La ubicación de las sucursales y los horarios de atención corresponden a la sucursal en Merlo, sobre avenida Calle Real 51【11†source】.
+Además, he encontrado una lista de precios de diferentes modelos de motos, con los precios al contado sin patentamiento. Si estás interesado en algún modelo en particular, por favor házmelo saber para poder ayudarte de la mejor manera posible.</v>
+      </c>
+      <c r="D90" t="str">
+        <v>65b12fa56c61f30008493f0c</v>
+      </c>
+      <c r="E90" s="1">
+        <v>45315.52851376157</v>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
+      <c r="A91" t="str">
+        <v>Yamila De Oliveira</v>
+      </c>
+      <c r="B91" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C91" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 13:40:29 - Yamila De Oliveira: Fz
+24/1/2024, 13:40:29 - MegaBot: ¡Hola Yamila De Oliveira! Según la información proporcionada, Megamoto ofrece una amplia gama de motos, repuestos, accesorios y bicicletas de diversas marcas como Benelli, Suzuki, Motomel, Keeway, Sym, Scott, Orbea, Tecnial y Shiro. Además, cuentan con servicios de postventa y varias opciones de pago, incluyendo pago contado, transferencia bancaria, tarjetas de débito y crédito, botón de pago QR, Mercado Pago, préstamos personales o prendarios. La financiación puede ser hasta en 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, y la moto se puede llevar en el momento, comenzando a pagar en dos meses según el plan de pagos.
+En cuanto a los precios, tengo a disposición la lista de precios vigente con diversas opciones de modelos y sus precios al contado sin patentamiento. Por ejemplo, el modelo "STRATO 150 ALPINO" tiene un precio de contado sin patentamiento de 2021250.0, mientras que el modelo "LEONCINO 500 TRAIL" tiene un precio de 11078100.0. Si estás interesada en algún modelo en particular o necesitas más detalles sobre opciones de financiación, por favor házmelo saber para ayudarte de la mejor manera posible.</v>
+      </c>
+      <c r="D91" t="str">
+        <v>65b13aefafbe3200084d1023</v>
+      </c>
+      <c r="E91" s="1">
+        <v>45315.569228541666</v>
+      </c>
+    </row>
+    <row r="92" xml:space="preserve">
+      <c r="A92" t="str">
+        <v>😁</v>
+      </c>
+      <c r="B92" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C92" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 13:48:32 - 😁: ¡Hola! Quiero más información.
+24/1/2024, 13:48:32 - MegaBot: La lista de precios proporcionada contiene una amplia gama de modelos de motocicletas, desde diferentes cilindradas hasta bicicletas. ¿Hay algún modelo específico en el que estés interesado o alguna pregunta en particular que quieras hacer sobre algún modelo en particular?</v>
+      </c>
+      <c r="D92" t="str">
+        <v>65b13f5291985d00056ec248</v>
+      </c>
+      <c r="E92" s="1">
+        <v>45315.5748237963</v>
+      </c>
+    </row>
+    <row r="93" xml:space="preserve">
+      <c r="A93" t="str">
+        <v>Felipe</v>
+      </c>
+      <c r="B93" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C93" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 13:48:40 - Felipe: ¡Hola! Podrías darme más información de...
+24/1/2024, 13:48:40 - MegaBot: Basado en la información proporcionada, Megamoto ofrece una amplia gama de motocicletas de varias marcas, así como repuestos, accesorios y bicicletas. Además, cuentan con servicios de postventa en varias ubicaciones con diferentes horarios de atención. Los métodos de pago aceptados incluyen pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, QR de Mercado Pago, préstamos personales o prendarios, y se puede combinar varios de estos métodos. La financiación está disponible hasta en 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, con la posibilidad de empezar a pagar en dos meses según el plan de pagos. La empresa puede otorgar crédito siempre y cuando el cliente cumpla con ciertos requisitos.
+En cuanto a los precios, se dispone de una lista de precios con el precio de contado sin patentamiento para una variedad de modelos de motocicletas y bicicletas ofrecidos por Megamoto. Por cuestiones de la normativa interna de la empresa, no se pueden enviar listas de precios completas con todos los productos, por lo que se debe proporcionar la consulta a un vendedor si el cliente solicita información detallada sobre más de 3 productos o modelos.
+Dado que has subido un archivo de lista de precios, ¿hay algún modelo en particular en el que te interese obtener más detalles o cotización?</v>
+      </c>
+      <c r="D93" t="str">
+        <v>65b13f5479cecc00072b27c7</v>
+      </c>
+      <c r="E93" s="1">
+        <v>45315.57491351852</v>
+      </c>
+    </row>
+    <row r="94" xml:space="preserve">
+      <c r="A94" t="str">
+        <v>Ricardo Fernández</v>
+      </c>
+      <c r="B94" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C94" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 13:50:59 - Ricardo Fernández: ¡Hola! Quiero más información.
+24/1/2024, 13:51:00 - MegaBot: Entendido. Voy a revisar los archivos que has subido para encontrar la información que necesitas. Dame un momento para revisarlos.</v>
+      </c>
+      <c r="D94" t="str">
+        <v>65b13fe7b7557a0008e3be67</v>
+      </c>
+      <c r="E94" s="1">
+        <v>45315.57652721065</v>
+      </c>
+    </row>
+    <row r="95" xml:space="preserve">
+      <c r="A95" t="str">
+        <v>Spaini Pablo</v>
+      </c>
+      <c r="B95" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C95" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 13:56:05 - Spaini Pablo: ¡Hola! Me gustaría conseguir más información sobre esto.
+24/1/2024, 13:56:05 - MegaBot: He revisado la información proporcionada. Parece que Megamoto comercializa una amplia variedad de motos, incluyendo modelos de marcas como Benelli, Suzuki, Motomel, Keeway, Sym, entre otras. También ofrecen servicios de postventa, repuestos, accesorios y bicicletas.
+Además, encontré una lista de precios que incluye modelos como "STRATO 150 ALPINO", "MAX 110 A/E", "CG 150 S2 START", "SIRIUS 190 NUEVO PRODUCTO", "SKUA 150 NEW GENERATION", "XMM 250 NUEVA", entre otros, con sus respectivos precios de contado sin patentamiento.
+Si estás interesado en algún modelo en particular, por favor házmelo saber para que pueda brindarte más detalles.</v>
+      </c>
+      <c r="D95" t="str">
+        <v>65b14112d98d7a000855763b</v>
+      </c>
+      <c r="E95" s="1">
+        <v>45315.580064918984</v>
+      </c>
+    </row>
+    <row r="96" xml:space="preserve">
+      <c r="A96" t="str">
+        <v>Ale</v>
+      </c>
+      <c r="B96" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C96" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 14:46:08 - Ale: Contitucion
+24/1/2024, 14:46:08 - MegaBot: ¡Hola Ale! Según la lista de precios, veo que hay una gran variedad de modelos de motos disponibles. Si tienes en mente algún modelo en particular, por favor házmelo saber para así ofrecerte información más detallada sobre el precio y las opciones de pago.
+24/1/2024, 14:46:17 - Ale: Dle dle
+24/1/2024, 14:46:17 - MegaBot: Disculpa, ¿podrías proporcionar más detalles sobre tu consulta? ¿Estás interesado en algún modelo específico de moto de Megamoto?</v>
+      </c>
+      <c r="D96" t="str">
+        <v>65a97dc5eff7f100081c261d</v>
+      </c>
+      <c r="E96" s="1">
+        <v>45315.614819953706</v>
+      </c>
+    </row>
+    <row r="97" xml:space="preserve">
+      <c r="A97" t="str">
+        <v>Gustavo</v>
+      </c>
+      <c r="B97" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C97" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 14:55:32 - Gustavo: ¡Hola! Me gustaría conseguir más información sobre esto.
+24/1/2024, 14:55:32 - MegaBot: Según la información proporcionada, la financiación para la compra de motos puede ser de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales, con cuotas fijas, y se puede comenzar a pagar en dos meses según el plan de pagos. Para acceder al crédito, generalmente se requiere tener al menos 18 años, no tener deudas y contar con algún tipo de ingreso registrado. El valor de la cuota dependerá del tipo de préstamo (cuotas con tarjeta de crédito o préstamo personal prendario)【9†source】.
+Además, se cuenta con una lista de precios que incluye el precio de contado sin patentamiento de una variedad de modelos de motos y bicicletas.
+¿En qué más puedo ayudarte?</v>
+      </c>
+      <c r="D97" t="str">
+        <v>65b14f00fc356200082b1ea0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>45315.62134741898</v>
+      </c>
+    </row>
+    <row r="98" xml:space="preserve">
+      <c r="A98" t="str">
+        <v>Vane😊</v>
+      </c>
+      <c r="B98" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C98" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 15:03:51 - Vane😊: Hola Johana de mariano Acosta
+24/1/2024, 15:03:51 - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy, Johana?</v>
+      </c>
+      <c r="D98" t="str">
+        <v>65a9881a28c702000833abd1</v>
+      </c>
+      <c r="E98" s="1">
+        <v>45315.62712662037</v>
+      </c>
+    </row>
+    <row r="99" xml:space="preserve">
+      <c r="A99" t="str">
+        <v>Nahuel</v>
+      </c>
+      <c r="B99" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C99" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 15:04:10 - Nahuel: ¡Hola! Podrías darme más información de...
+24/1/2024, 15:04:10 - MegaBot: Se han proporcionado los precios de varias motocicletas en formato JSON. También se ha subido el documento "Base de conocimiento de Megamoto". Permíteme revisar el contenido de este último para obtener más información sobre las motocicletas disponibles y otros detalles relevantes.</v>
+      </c>
+      <c r="D99" t="str">
+        <v>65b150f386d7400008f908a2</v>
+      </c>
+      <c r="E99" s="1">
+        <v>45315.62734368056</v>
+      </c>
+    </row>
+    <row r="100" xml:space="preserve">
+      <c r="A100" t="str">
+        <v>Marcelo</v>
+      </c>
+      <c r="B100" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C100" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 16:05:28 - Marcelo: Dolavon Chubut (9107
+24/1/2024, 16:05:29 - MegaBot: ¡Hola Marcelo! Según la base de conocimientos de Megamoto, la empresa comercializa motos, repuestos, accesorios y bicicletas de varias marcas, incluyendo Benelli, Suzuki, Motomel, Keeway, Sym, Scott, Orbea, Tecnial y Shiro. También ofrecen servicios de postventa. Las ubicaciones y horarios de apertura de las sucursales son en Merlo de lunes a sábado de 10 a 19 horas, y en CABA zona Abasto de lunes a viernes de 9 a 19 horas y sábados de 9 a 13 horas. Los teléfonos de contacto son 1149730000 y 1167862952 para la sucursal en Abasto, y 1168930000 – 1159790625 para la sucursal en Merlo. Para postventa y repuestos, el teléfono de contacto es 1156202281. El sitio web de Megamoto es [este](https://www.megamoto.com.ar/), y el correo electrónico es megamoto@megamoto.com.ar【9†fuente】.
+Además, se proporcionó una lista de precios con diferentes modelos de motos y sus precios al contado sin patentamiento. ¿Hay algún modelo en particular que estés interesado en comprar? También necesitaría saber si tienes alguna preferencia en cuanto a la forma de pago.</v>
+      </c>
+      <c r="D100" t="str">
+        <v>65a9a1cb4f6ad1000b9fdd53</v>
+      </c>
+      <c r="E100" s="1">
+        <v>45315.6699180787</v>
+      </c>
+    </row>
+    <row r="101" xml:space="preserve">
+      <c r="A101" t="str">
+        <v>𝔄𝔩𝔢𝔧𝔞𝔫𝔡𝔯𝔞♡</v>
+      </c>
+      <c r="B101" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C101" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 18:13:47 - 𝔄𝔩𝔢𝔧𝔞𝔫𝔡𝔯𝔞♡: ¡Hola! Podrías darme más información de...
+24/1/2024, 18:13:47 - MegaBot: ¡Hola 𝔄𝔩𝔢𝔧𝔞𝔫𝔡𝔯𝔞♡! Según la información proporcionada, Megamoto es una empresa que comercializa motos, repuestos, accesorios y bicicletas de varias marcas, y ofrece servicios de postventa. Tienen sucursales en Merlo y CABA, y aceptan diversos métodos de pago, incluyendo pagos en cuotas y financiación. El sitio web de Megamoto es https://www.megamoto.com.ar, y su correo electrónico es megamoto@megamoto.com.ar【9†source】.
+Además, tengo información sobre los precios de algunas motos de Megamoto. Por ejemplo, el precio de contado sin patentamiento de la moto "STRATO 150 ALPINO" es de 2021250.0, y el de la "TNT 15" es de 2177010.0, entre otros modelos【10†source】.
+Para poder asistirte de la mejor manera, ¿podrías proporcionarme más detalles sobre la moto que estás buscando, tu ubicación y tus preferencias de pago?</v>
+      </c>
+      <c r="D101" t="str">
+        <v>65b17d7386043b0008a4a052</v>
+      </c>
+      <c r="E101" s="1">
+        <v>45315.75901841435</v>
+      </c>
+    </row>
+    <row r="102" xml:space="preserve">
+      <c r="A102" t="str">
+        <v>Carmen</v>
+      </c>
+      <c r="B102" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C102" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 18:17:44 - Carmen: ¡Hola! Quiero más información.
+24/1/2024, 18:17:44 - MegaBot: Gracias por la información. Aquí tienes lo que encontré:
+1. Megamoto comercializa motos, repuestos, accesorios y bicicletas de diferentes marcas, como Benelli, Suzuki, Motomel, Keeway, Sym, Scott, Orbea, Tecnial y Shiro. También ofrecen servicios de postventa【9†source】.
+2. En cuanto a los métodos de pago, Megamoto acepta pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales y préstamos prendarios. Además, ofrecen financiación de hasta 60 cuotas para préstamos prendarios y 30 cuotas para préstamos personales. La moto se puede llevar en el momento y se comienza a pagar en dos meses según el plan de pagos elegido por el cliente【9†source】.
+3. En relación con la información de precios, se menciona que al consultar por el precio de alguna moto a Megamoto se debe hacer referencia al archivo de Lista de Precios último vigente, el cual contiene el precio de contado sin patentar, el precio con patentamiento en provincia de Buenos Aires y el precio con patentamiento en Capital Federal (también conocido como CABA). Por normas de Megamoto, no se pueden enviar listas de precios completas con todos los productos, y en caso de que el cliente consulte por más de 3 productos o modelos, se debe indicar al cliente que la consulta será pasada a un vendedor【9†source】.
+Basado en esta información, ¿qué moto estás buscando, de dónde eres y cómo te gustaría pagar?</v>
+      </c>
+      <c r="D102" t="str">
+        <v>65b17e4ba0e6ce000884d4e3</v>
+      </c>
+      <c r="E102" s="1">
+        <v>45315.76176722222</v>
+      </c>
+    </row>
+    <row r="103" xml:space="preserve">
+      <c r="A103" t="str">
+        <v>Gustavo Gomez Villafañe</v>
+      </c>
+      <c r="B103" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C103" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 19:39:54 - Gustavo Gomez Villafañe: hola
+24/1/2024, 19:39:54 - MegaBot: ¡Hola Gustavo Gomez Villafañe! Soy MegaBot, un Asistente Virtual de Megamoto. ¿Qué moto estás buscando?, ¿de dónde eres?, y ¿cómo quieres pagar?
+24/1/2024, 19:44:52 - Gustavo Gomez Villafañe: hola
+24/1/2024, 19:44:52 - MegaBot: ¡Hola! Para brindarte la mejor atención, por favor dime qué moto estás buscando, de dónde eres y cómo quieres pagar.
+25/1/2024, 10:31:46 - Gustavo Gomez Villafañe: hola
+25/1/2024, 10:31:46 - MegaBot: ¡Hola! Para una rápida asistencia, por favor dime qué moto estás buscando, de dónde eres y cómo quieres pagar.
+25/1/2024, 10:43:28 - Gustavo Gomez Villafañe: hola
+25/1/2024, 10:43:28 - MegaBot: ¡Hola! Para ofrecerte la mejor atención, por favor indícame el modelo de moto que estás buscando, tu ubicación y la forma de pago que prefieres.
+25/1/2024, 10:57:00 - Gustavo Gomez Villafañe: que dias abren?
+25/1/2024, 10:57:00 - MegaBot: Los días de atención son de lunes a viernes de 9:00 a 18:00 horas, y los sábados de 9:00 a 13:00 horas. ¿En qué más puedo ayudarte relacionado con Megamoto?
+25/1/2024, 11:21:02 - Gustavo Gomez Villafañe: que precio tiene la SKUA 150 NEW GENERATION?
+25/1/2024, 11:21:02 - MegaBot: El precio de la SKUA 150 NEW GENERATION es de $1,467,450 pesos argentinos【22†fuente】. ¿Te gustaría saber los detalles de financiación o tienes alguna otra consulta sobre motos Megamoto?
+25/1/2024, 11:22:08 - Gustavo Gomez Villafañe: y el precio de la blitz 110?
+25/1/2024, 11:22:08 - MegaBot: El precio de la Blitz 110 V8 START es de $890,540 pesos argentinos【27†fuente】. ¿Hay algo más en lo que pueda asistirte?</v>
+      </c>
+      <c r="D103" t="str">
+        <v>6596d62461f4a300081b28cb</v>
+      </c>
+      <c r="E103" s="1">
+        <v>45315.818825532406</v>
+      </c>
+    </row>
+    <row r="104" xml:space="preserve">
+      <c r="A104" t="str">
+        <v>Luna Soledad</v>
+      </c>
+      <c r="B104" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C104" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 19:44:36 - Luna Soledad: Ok y las 110 motomel kuanto sale
+24/1/2024, 19:44:36 - MegaBot: ¡Hola Luna Soledad! Soy MegaBot, un Asistente Virtual de Megamoto. Para brindarte un mejor servicio, por favor indícame qué moto estás buscando, tu ubicación y tu método de pago preferido.</v>
+      </c>
+      <c r="D104" t="str">
+        <v>64d426b01b26aa000977498b</v>
+      </c>
+      <c r="E104" s="1">
+        <v>45315.82209233796</v>
+      </c>
+    </row>
+    <row r="105" xml:space="preserve">
+      <c r="A105" t="str">
+        <v>Gabriel</v>
+      </c>
+      <c r="B105" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C105" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 19:48:40 - Gabriel: ¡Hola! Podrías darme más información de...
+24/1/2024, 19:48:40 - MegaBot: ¡Hola Gabriel! Soy MegaBot, un Asistente Virtual de Megamoto. ¿Qué moto estás buscando, de dónde eres y cómo quieres pagar?</v>
+      </c>
+      <c r="D105" t="str">
+        <v>65b193ba648eb1000801f483</v>
+      </c>
+      <c r="E105" s="1">
+        <v>45315.824916956015</v>
+      </c>
+    </row>
+    <row r="106" xml:space="preserve">
+      <c r="A106" t="str">
+        <v>Cristian</v>
+      </c>
+      <c r="B106" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C106" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 20:03:59 - Cristian: ¡Hola! Quiero más información.
+24/1/2024, 20:04:00 - MegaBot: ¡Hola Cristian! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder asistirte mejor, por favor indícame qué modelo de moto estás buscando, tu ubicación y tu método de pago preferido.</v>
+      </c>
+      <c r="D106" t="str">
+        <v>65b1975552e88000084495fb</v>
+      </c>
+      <c r="E106" s="1">
+        <v>45315.83555387732</v>
+      </c>
+    </row>
+    <row r="107" xml:space="preserve">
+      <c r="A107" t="str">
+        <v>Damian</v>
+      </c>
+      <c r="B107" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C107" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 20:25:48 - Damian: ¡Hola! Quiero más información.
+24/1/2024, 20:25:49 - MegaBot: ¡Hola Damián! Soy MegaBot, un Asistente Virtual de Megamoto. Para ayudarte mejor, dime qué moto estás buscando, tu ubicación y tu método de pago preferido.</v>
+      </c>
+      <c r="D107" t="str">
+        <v>65b19c73ecb1f30008953475</v>
+      </c>
+      <c r="E107" s="1">
+        <v>45315.85070556713</v>
+      </c>
+    </row>
+    <row r="108" xml:space="preserve">
+      <c r="A108" t="str">
+        <v>Armandoquintana</v>
+      </c>
+      <c r="B108" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C108" t="str" xml:space="preserve">
+        <v xml:space="preserve">24/1/2024, 21:08:05 - Armandoquintana: ¡Hola! Podrías darme más información de...
+24/1/2024, 21:08:05 - MegaBot: ¡Hola Armandoquintana! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para agilizar tu atención, ¿qué modelo de moto buscas, tu ubicación y tu método de pago preferido?</v>
+      </c>
+      <c r="D108" t="str">
+        <v>65b1a65b473f7f000875183c</v>
+      </c>
+      <c r="E108" s="1">
+        <v>45315.88006309028</v>
+      </c>
+    </row>
+    <row r="109" xml:space="preserve">
+      <c r="A109" t="str">
+        <v>Yeiroby Morales</v>
+      </c>
+      <c r="B109" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C109" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 10:05:22 - Yeiroby Morales: Zenvia
+25/1/2024, 10:05:26 - MegaBot: ¡Hola Yeiroby Morales! Soy MegaBot, un Asistente Virtual de Megamoto. Mi objetivo es ayudarte con información sobre nuestras motos. Por favor, dime qué moto estás buscando, tu ubicación y tu método de pago preferido.
+25/1/2024, 10:07:12 - Vendedor Megamoto: prueba API
+25/1/2024, 10:18:23 - Vendedor Megamoto: prueba API segundo mensaje</v>
+      </c>
+      <c r="D109" t="str">
+        <v>65b25c6a0ee61e0008e40557</v>
+      </c>
+      <c r="E109" s="1">
+        <v>45316.41985064815</v>
+      </c>
+    </row>
+    <row r="110" xml:space="preserve">
+      <c r="A110" t="str">
+        <v>Rodrii Juárez</v>
+      </c>
+      <c r="B110" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C110" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 11:41:05 - Rodrii Juárez: Hola buenas quería saber sobre la skua
+25/1/2024, 11:41:05 - MegaBot: ¡Hola Rodrii Juárez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido, decime qué moto estás buscando, de dónde sos y cómo querés pagar【11†source】.</v>
+      </c>
+      <c r="D110" t="str">
+        <v>65787dde6f922700080c9ae6</v>
+      </c>
+      <c r="E110" s="1">
+        <v>45316.486314594906</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E80"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E110"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -466,7 +466,15 @@
       </c>
       <c r="C4" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 10:35:56 - Gabriel: ¡Hola! Podrías darme más información de...
-22/1/2024, 10:35:56 - MegaBot: ¡Hola Gabriel! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido, necesito que me indiques qué moto estás buscando, de dónde eres, y cómo deseas pagar. También tengo información sobre los precios de algunas motos de Megamoto, por si te interesa saberlos. ¡Estoy aquí para ayudarte!【9†fuente】</v>
+22/1/2024, 10:35:56 - MegaBot: ¡Hola Gabriel! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido, necesito que me indiques qué moto estás buscando, de dónde eres, y cómo deseas pagar. También tengo información sobre los precios de algunas motos de Megamoto, por si te interesa saberlos. ¡Estoy aquí para ayudarte!【9†fuente】
+25/1/2024, 17:14:00 - Gabriel: hola
+25/1/2024, 17:14:01 - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy? Recuerda que estoy aquí para responder preguntas sobre Megamoto y sus productos.
+25/1/2024, 17:14:11 - Gabriel: motomel 110
+25/1/2024, 17:14:11 - MegaBot: Para la Motomel 110, los precios de contado sin patentar son los siguientes:
+- Motomel SKUA 125 X-TREME: $1713.55
+- Motomel DLX 110 DELUXE: $1390.59
+- Motomel BLITZ 110 V8 START: $8930.13
+¿Te gustaría más detalles sobre alguno de estos modelos? Además, necesitaríamos saber tu ubicación y el método de pago que prefieres 【8†fuente】.</v>
       </c>
       <c r="D4" t="str">
         <v>65ae6f2957781c00084b5b3a</v>
@@ -561,7 +569,8 @@
       </c>
       <c r="C9" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 12:17:01 - Die 🫡: Buenas tardes, trabajan con recibo de sueldo?
-22/1/2024, 12:17:01 - MegaBot: ¡Hola Die 🫡! Soy MegaBot, un Asistente Virtual de Megamoto. Según nuestra base de conocimiento, en Megamoto ofrecemos una variedad de modelos de motocicletas, cada una con diferentes precios de contado y opciones de financiamiento. Para atenderte más rápido, por favor infórmame qué moto estás buscando, de dónde eres y cómo te gustaría pagar【11†source】【15†source】.</v>
+22/1/2024, 12:17:01 - MegaBot: ¡Hola Die 🫡! Soy MegaBot, un Asistente Virtual de Megamoto. Según nuestra base de conocimiento, en Megamoto ofrecemos una variedad de modelos de motocicletas, cada una con diferentes precios de contado y opciones de financiamiento. Para atenderte más rápido, por favor infórmame qué moto estás buscando, de dónde eres y cómo te gustaría pagar【11†source】【15†source】.
+25/1/2024, 17:13:16 - Vendedor Megamoto: Hola si,  buen dia como estas?, comentame en que moto estas interesado?, Las marcas que trabajamos son:  motomel- benelli - suzuki -Sym-  Keeway   que modelo  de alguna de esas marcas te gustaria?, , mi nombre es Johanna, asesor comercial de Megamoto. Quería saber si tu consulta podemos seguirla por este medio?</v>
       </c>
       <c r="D9" t="str">
         <v>65ae86c9d7a694000b6bbc3f</v>
@@ -579,7 +588,8 @@
       </c>
       <c r="C10" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 12:31:53 - Willy..!!: ¡Hola! Quiero más información.
-22/1/2024, 12:31:53 - MegaBot: ¡Hola Willy..!!! Soy MegaBot, un Asistente Virtual de Megamoto. Según la información que proporcionaste, puedo ver que estás buscando más información. Para que pueda atenderte más rápido, necesitaría que me digas qué moto estás buscando, de dónde eres y cómo querrías pagar. También puedo proporcionarte información sobre los horarios y días de atención de las sucursales, así como los métodos de contacto y de pago disponibles【9†source】.</v>
+22/1/2024, 12:31:53 - MegaBot: ¡Hola Willy..!!! Soy MegaBot, un Asistente Virtual de Megamoto. Según la información que proporcionaste, puedo ver que estás buscando más información. Para que pueda atenderte más rápido, necesitaría que me digas qué moto estás buscando, de dónde eres y cómo querrías pagar. También puedo proporcionarte información sobre los horarios y días de atención de las sucursales, así como los métodos de contacto y de pago disponibles【9†source】.
+25/1/2024, 17:13:30 - Vendedor Megamoto: Hola Willy,  buen dia como estas?, comentame en que moto estas interesado?, Las marcas que trabajamos son:  motomel- benelli - suzuki -Sym-  Keeway   que modelo  de alguna de esas marcas te gustaria?, , mi nombre es Johanna, asesor comercial de Megamoto. Quería saber si tu consulta podemos seguirla por este medio?</v>
       </c>
       <c r="D10" t="str">
         <v>65ae8a4d92462c0008d53648</v>
@@ -599,7 +609,8 @@
         <v xml:space="preserve">22/1/2024, 12:50:25 - Gaby, Izan Y Katia: ¡Hola! Quiero más información.
 22/1/2024, 12:50:26 - MegaBot: ¡Hola Gaby, Izan y Katia! Soy MegaBot, un Asistente Virtual de Megamoto. Según la información que me brindaron, Megamoto es una empresa que comercializa motos, repuestos, accesorios y bicicletas de varias marcas. También ofrece servicios de postventa. Los métodos de pago que aceptan incluyen pago al contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o prendarios, y se puede ofrecer financiación de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales. Además, cuentan con diversas ubicaciones y horarios de atención, así como distintos medios de contacto.
 Además, tengo información sobre la lista de precios de algunas motos que podrían interesarte. Por ejemplo, el modelo "SCOOTER" tiene un precio contado sin patentar de $4022.04, el modelo "STRATO ALPINO" tiene un precio contado sin patentar de $2668.34, entre otros modelos con sus respectivos precios en distintas modalidades de patentamiento.
-Para que un vendedor pueda atenderte más rápido, necesitaría que me indiques qué moto estás buscando, de dónde sos, y cuál es la forma en la que quisieras realizar el pago. ¡Estoy aquí para ayudarte!</v>
+Para que un vendedor pueda atenderte más rápido, necesitaría que me indiques qué moto estás buscando, de dónde sos, y cuál es la forma en la que quisieras realizar el pago. ¡Estoy aquí para ayudarte!
+25/1/2024, 17:13:43 - Vendedor Megamoto: Hola  buen dia como estas?, comentame en que moto estas interesado?, Las marcas que trabajamos son:  motomel- benelli - suzuki -Sym-  Keeway   que modelo  de alguna de esas marcas te gustaria?, , mi nombre es Johanna, asesor comercial de Megamoto. Quería saber si tu consulta podemos seguirla por este medio?</v>
       </c>
       <c r="D11" t="str">
         <v>65ae8ea353b7d2000819d6a6</v>
@@ -617,7 +628,8 @@
       </c>
       <c r="C12" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 13:02:55 - Cacho: ¡Hola! Quiero más información.
-22/1/2024, 13:02:55 - MegaBot: Parece que hubo un problema al intentar abrir los archivos que subiste. ¿Podrías subirlos nuevamente para que pueda ayudarte mejor?</v>
+22/1/2024, 13:02:55 - MegaBot: Parece que hubo un problema al intentar abrir los archivos que subiste. ¿Podrías subirlos nuevamente para que pueda ayudarte mejor?
+25/1/2024, 17:13:56 - Vendedor Megamoto: Hola Cacho,  buen dia como estas?, comentame en que moto estas interesado?, Las marcas que trabajamos son:  motomel- benelli - suzuki -Sym-  Keeway   que modelo  de alguna de esas marcas te gustaria?, , mi nombre es Johanna, asesor comercial de Megamoto. Quería saber si tu consulta podemos seguirla por este medio?</v>
       </c>
       <c r="D12" t="str">
         <v>65ae919bd5b36c00089f2ebf</v>
@@ -665,7 +677,8 @@
 1. ¿Qué moto estás buscando?
 2. ¿En qué ubicación te encuentras?
 3. ¿Cuál es la forma de pago que te interesa?
-Por favor, bríndame estos detalles para poder ayudarte de la mejor manera posible【9†source】.</v>
+Por favor, bríndame estos detalles para poder ayudarte de la mejor manera posible【9†source】.
+25/1/2024, 17:14:22 - Vendedor Megamoto: Hola  buen dia como estas?, comentame en que moto estas interesado?, Las marcas que trabajamos son:  motomel- benelli - suzuki -Sym-  Keeway   que modelo  de alguna de esas marcas te gustaria?, , mi nombre es Johanna, asesor comercial de Megamoto. Quería saber si tu consulta podemos seguirla por este medio?</v>
       </c>
       <c r="D14" t="str">
         <v>65ae96d22d9a0d0008bf43e9</v>
@@ -701,7 +714,8 @@
       </c>
       <c r="C16" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 13:32:58 - Braian: ¡Hola! Quiero más información.
-22/1/2024, 13:32:58 - MegaBot: ¡Hola Braian! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte mejor, primero necesito que me indiques qué moto estás buscando, de dónde eres y cómo quieres pagar. También veo que has subido dos archivos, ¿necesitas ayuda con alguno de ellos?</v>
+22/1/2024, 13:32:58 - MegaBot: ¡Hola Braian! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder ayudarte mejor, primero necesito que me indiques qué moto estás buscando, de dónde eres y cómo quieres pagar. También veo que has subido dos archivos, ¿necesitas ayuda con alguno de ellos?
+25/1/2024, 17:14:46 - Vendedor Megamoto: Hola Braian,  buen dia como estas?, comentame en que moto estas interesado?, Las marcas que trabajamos son:  motomel- benelli - suzuki -Sym-  Keeway   que modelo  de alguna de esas marcas te gustaria?, , mi nombre es Johanna, asesor comercial de Megamoto. Quería saber si tu consulta podemos seguirla por este medio?</v>
       </c>
       <c r="D16" t="str">
         <v>65ae98b1846a8c000860541c</v>
@@ -1182,7 +1196,11 @@
 - BLITZ 110 V8 PLUS: $1,151,150.00
 - BLITZ 110 V8 FULL ONE - B1 - ALEACION DISCO - NEW: $1,016,650.00
 - BLITZ 110 V8 TUNNING NEW: $1,127,700.00
-Estos son algunos de los modelos con sus precios de contado. Si alguno de ellos es de tu interés, por favor proporcióname tu domicilio, datos de contacto y método de pago preferido (crédito personal o tarjeta) para seguir con el proceso de compra.</v>
+Estos son algunos de los modelos con sus precios de contado. Si alguno de ellos es de tu interés, por favor proporcióname tu domicilio, datos de contacto y método de pago preferido (crédito personal o tarjeta) para seguir con el proceso de compra.
+25/1/2024, 16:57:43 - Gonza: Cuotas con tarjeta o financiacion directo personal?
+25/1/2024, 16:57:44 - MegaBot: Para obtener información detallada sobre las opciones de cuotas con tarjeta o financiación directa, necesitaré que me proporciones tu domicilio, datos de contacto y el modelo específico de Motomel que te interesa. Una vez que tenga esta información, podré brindarte detalles precisos sobre las opciones de pago disponibles para ese modelo en particular.
+25/1/2024, 16:57:53 - Gonza: Cuotas con tarjeta o financiacion directo personal?
+25/1/2024, 16:57:53 - MegaBot: Para obtener información detallada sobre las opciones de cuotas con tarjeta o financiación directa para la marca Motomel, necesitaré que me proporciones tu domicilio, datos de contacto y el modelo específico de Motomel que te interesa. Una vez que tenga esta información, podré brindarte detalles precisos sobre las opciones de pago disponibles para ese modelo en particular.</v>
       </c>
       <c r="D38" t="str">
         <v>no phone</v>
@@ -2595,165 +2613,569 @@
     </row>
     <row r="103" xml:space="preserve">
       <c r="A103" t="str">
-        <v>Gustavo Gomez Villafañe</v>
+        <v>Luna Soledad</v>
       </c>
       <c r="B103" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C103" t="str" xml:space="preserve">
-        <v xml:space="preserve">24/1/2024, 19:39:54 - Gustavo Gomez Villafañe: hola
-24/1/2024, 19:39:54 - MegaBot: ¡Hola Gustavo Gomez Villafañe! Soy MegaBot, un Asistente Virtual de Megamoto. ¿Qué moto estás buscando?, ¿de dónde eres?, y ¿cómo quieres pagar?
-24/1/2024, 19:44:52 - Gustavo Gomez Villafañe: hola
-24/1/2024, 19:44:52 - MegaBot: ¡Hola! Para brindarte la mejor atención, por favor dime qué moto estás buscando, de dónde eres y cómo quieres pagar.
-25/1/2024, 10:31:46 - Gustavo Gomez Villafañe: hola
-25/1/2024, 10:31:46 - MegaBot: ¡Hola! Para una rápida asistencia, por favor dime qué moto estás buscando, de dónde eres y cómo quieres pagar.
-25/1/2024, 10:43:28 - Gustavo Gomez Villafañe: hola
-25/1/2024, 10:43:28 - MegaBot: ¡Hola! Para ofrecerte la mejor atención, por favor indícame el modelo de moto que estás buscando, tu ubicación y la forma de pago que prefieres.
-25/1/2024, 10:57:00 - Gustavo Gomez Villafañe: que dias abren?
-25/1/2024, 10:57:00 - MegaBot: Los días de atención son de lunes a viernes de 9:00 a 18:00 horas, y los sábados de 9:00 a 13:00 horas. ¿En qué más puedo ayudarte relacionado con Megamoto?
-25/1/2024, 11:21:02 - Gustavo Gomez Villafañe: que precio tiene la SKUA 150 NEW GENERATION?
-25/1/2024, 11:21:02 - MegaBot: El precio de la SKUA 150 NEW GENERATION es de $1,467,450 pesos argentinos【22†fuente】. ¿Te gustaría saber los detalles de financiación o tienes alguna otra consulta sobre motos Megamoto?
-25/1/2024, 11:22:08 - Gustavo Gomez Villafañe: y el precio de la blitz 110?
-25/1/2024, 11:22:08 - MegaBot: El precio de la Blitz 110 V8 START es de $890,540 pesos argentinos【27†fuente】. ¿Hay algo más en lo que pueda asistirte?</v>
+        <v xml:space="preserve">24/1/2024, 19:44:36 - Luna Soledad: Ok y las 110 motomel kuanto sale
+24/1/2024, 19:44:36 - MegaBot: ¡Hola Luna Soledad! Soy MegaBot, un Asistente Virtual de Megamoto. Para brindarte un mejor servicio, por favor indícame qué moto estás buscando, tu ubicación y tu método de pago preferido.</v>
       </c>
       <c r="D103" t="str">
-        <v>6596d62461f4a300081b28cb</v>
+        <v>64d426b01b26aa000977498b</v>
       </c>
       <c r="E103" s="1">
-        <v>45315.818825532406</v>
+        <v>45315.82209233796</v>
       </c>
     </row>
     <row r="104" xml:space="preserve">
       <c r="A104" t="str">
-        <v>Luna Soledad</v>
+        <v>Gabriel</v>
       </c>
       <c r="B104" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C104" t="str" xml:space="preserve">
-        <v xml:space="preserve">24/1/2024, 19:44:36 - Luna Soledad: Ok y las 110 motomel kuanto sale
-24/1/2024, 19:44:36 - MegaBot: ¡Hola Luna Soledad! Soy MegaBot, un Asistente Virtual de Megamoto. Para brindarte un mejor servicio, por favor indícame qué moto estás buscando, tu ubicación y tu método de pago preferido.</v>
+        <v xml:space="preserve">24/1/2024, 19:48:40 - Gabriel: ¡Hola! Podrías darme más información de...
+24/1/2024, 19:48:40 - MegaBot: ¡Hola Gabriel! Soy MegaBot, un Asistente Virtual de Megamoto. ¿Qué moto estás buscando, de dónde eres y cómo quieres pagar?</v>
       </c>
       <c r="D104" t="str">
-        <v>64d426b01b26aa000977498b</v>
+        <v>65b193ba648eb1000801f483</v>
       </c>
       <c r="E104" s="1">
-        <v>45315.82209233796</v>
+        <v>45315.824916956015</v>
       </c>
     </row>
     <row r="105" xml:space="preserve">
       <c r="A105" t="str">
-        <v>Gabriel</v>
+        <v>Cristian</v>
       </c>
       <c r="B105" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C105" t="str" xml:space="preserve">
-        <v xml:space="preserve">24/1/2024, 19:48:40 - Gabriel: ¡Hola! Podrías darme más información de...
-24/1/2024, 19:48:40 - MegaBot: ¡Hola Gabriel! Soy MegaBot, un Asistente Virtual de Megamoto. ¿Qué moto estás buscando, de dónde eres y cómo quieres pagar?</v>
+        <v xml:space="preserve">24/1/2024, 20:03:59 - Cristian: ¡Hola! Quiero más información.
+24/1/2024, 20:04:00 - MegaBot: ¡Hola Cristian! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder asistirte mejor, por favor indícame qué modelo de moto estás buscando, tu ubicación y tu método de pago preferido.</v>
       </c>
       <c r="D105" t="str">
-        <v>65b193ba648eb1000801f483</v>
+        <v>65b1975552e88000084495fb</v>
       </c>
       <c r="E105" s="1">
-        <v>45315.824916956015</v>
+        <v>45315.83555387732</v>
       </c>
     </row>
     <row r="106" xml:space="preserve">
       <c r="A106" t="str">
-        <v>Cristian</v>
+        <v>Damian</v>
       </c>
       <c r="B106" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C106" t="str" xml:space="preserve">
-        <v xml:space="preserve">24/1/2024, 20:03:59 - Cristian: ¡Hola! Quiero más información.
-24/1/2024, 20:04:00 - MegaBot: ¡Hola Cristian! Soy MegaBot, un Asistente Virtual de Megamoto. Para poder asistirte mejor, por favor indícame qué modelo de moto estás buscando, tu ubicación y tu método de pago preferido.</v>
+        <v xml:space="preserve">24/1/2024, 20:25:48 - Damian: ¡Hola! Quiero más información.
+24/1/2024, 20:25:49 - MegaBot: ¡Hola Damián! Soy MegaBot, un Asistente Virtual de Megamoto. Para ayudarte mejor, dime qué moto estás buscando, tu ubicación y tu método de pago preferido.</v>
       </c>
       <c r="D106" t="str">
-        <v>65b1975552e88000084495fb</v>
+        <v>65b19c73ecb1f30008953475</v>
       </c>
       <c r="E106" s="1">
-        <v>45315.83555387732</v>
+        <v>45315.85070556713</v>
       </c>
     </row>
     <row r="107" xml:space="preserve">
       <c r="A107" t="str">
-        <v>Damian</v>
+        <v>Armandoquintana</v>
       </c>
       <c r="B107" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C107" t="str" xml:space="preserve">
-        <v xml:space="preserve">24/1/2024, 20:25:48 - Damian: ¡Hola! Quiero más información.
-24/1/2024, 20:25:49 - MegaBot: ¡Hola Damián! Soy MegaBot, un Asistente Virtual de Megamoto. Para ayudarte mejor, dime qué moto estás buscando, tu ubicación y tu método de pago preferido.</v>
+        <v xml:space="preserve">24/1/2024, 21:08:05 - Armandoquintana: ¡Hola! Podrías darme más información de...
+24/1/2024, 21:08:05 - MegaBot: ¡Hola Armandoquintana! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para agilizar tu atención, ¿qué modelo de moto buscas, tu ubicación y tu método de pago preferido?</v>
       </c>
       <c r="D107" t="str">
-        <v>65b19c73ecb1f30008953475</v>
+        <v>65b1a65b473f7f000875183c</v>
       </c>
       <c r="E107" s="1">
-        <v>45315.85070556713</v>
+        <v>45315.88006309028</v>
       </c>
     </row>
     <row r="108" xml:space="preserve">
       <c r="A108" t="str">
-        <v>Armandoquintana</v>
+        <v>Yeiroby Morales</v>
       </c>
       <c r="B108" t="str">
         <v>whatsApp</v>
       </c>
       <c r="C108" t="str" xml:space="preserve">
-        <v xml:space="preserve">24/1/2024, 21:08:05 - Armandoquintana: ¡Hola! Podrías darme más información de...
-24/1/2024, 21:08:05 - MegaBot: ¡Hola Armandoquintana! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para agilizar tu atención, ¿qué modelo de moto buscas, tu ubicación y tu método de pago preferido?</v>
-      </c>
-      <c r="D108" t="str">
-        <v>65b1a65b473f7f000875183c</v>
-      </c>
-      <c r="E108" s="1">
-        <v>45315.88006309028</v>
-      </c>
-    </row>
-    <row r="109" xml:space="preserve">
-      <c r="A109" t="str">
-        <v>Yeiroby Morales</v>
-      </c>
-      <c r="B109" t="str">
-        <v>whatsApp</v>
-      </c>
-      <c r="C109" t="str" xml:space="preserve">
         <v xml:space="preserve">25/1/2024, 10:05:22 - Yeiroby Morales: Zenvia
 25/1/2024, 10:05:26 - MegaBot: ¡Hola Yeiroby Morales! Soy MegaBot, un Asistente Virtual de Megamoto. Mi objetivo es ayudarte con información sobre nuestras motos. Por favor, dime qué moto estás buscando, tu ubicación y tu método de pago preferido.
 25/1/2024, 10:07:12 - Vendedor Megamoto: prueba API
 25/1/2024, 10:18:23 - Vendedor Megamoto: prueba API segundo mensaje</v>
       </c>
+      <c r="D108" t="str">
+        <v>65b25c6a0ee61e0008e40557</v>
+      </c>
+      <c r="E108" s="1">
+        <v>45316.41985064815</v>
+      </c>
+    </row>
+    <row r="109" xml:space="preserve">
+      <c r="A109" t="str">
+        <v>Rodrii Juárez</v>
+      </c>
+      <c r="B109" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C109" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 11:41:05 - Rodrii Juárez: Hola buenas quería saber sobre la skua
+25/1/2024, 11:41:05 - MegaBot: ¡Hola Rodrii Juárez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido, decime qué moto estás buscando, de dónde sos y cómo querés pagar【11†source】.
+25/1/2024, 11:59:36 - Rodrii Juárez: Queria saber si me daban con mí dni
+25/1/2024, 11:59:36 - MegaBot: Lo siento, pero no tengo acceso a información personal como el DNI. Mi función es brindar asistencia en la búsqueda de motos, repuestos, accesorios y bicicletas de Megamoto. Si tienes consultas sobre productos específicos, estaré encantado de ayudarte.
+25/1/2024, 11:59:42 - Rodrii Juárez: Rodrigo Juárez 45987365
+25/1/2024, 11:59:43 - MegaBot: He encontrado los precios de las motos que podrían interesarte. ¿Tienes alguna preferencia de modelo para que pueda proporcionarte información detallada sobre esa moto?【0†source】
+25/1/2024, 16:46:40 - Rodrii Juárez: 29302591
+25/1/2024, 16:46:40 - MegaBot: Encontré varias opciones de motos que podrían interesarte:
+1. LEONCINO 500 (todas AM2022) - Precio de contado sin patentamiento: $9,511,500.00
+2. KEEWAY K-LIGHT 202 - Precio de contado sin patentamiento: $2,762,100.00
+3. IMPERIALE 400 - Precio de contado sin patentamiento: $6,633,000.00
+4. SKUA 250 ADVENTURE NUEVO MODELO - Precio de contado sin patentamiento: $3,149,895.00
+5. TRK251 ABS - Precio de contado sin patentamiento: $5,732,100.00
+¿Te gustaría recibir más información sobre alguna de estas opciones o hay algún otro modelo que te interese? Además, ¿podrías proporcionarme tu ubicación, datos de contacto y tu método de pago preferido?
+25/1/2024, 16:47:58 - Rodrii Juárez: Y con ese?
+25/1/2024, 16:47:59 - MegaBot: Ludmila, para continuar con el proceso de compra, necesitaría que proporciones tu ubicación, datos de contacto (por ejemplo, WhatsApp, número de teléfono o correo electrónico), y tu método de pago preferido. Con esa información podré ayudarte a concretar la compra del modelo que elijas.</v>
+      </c>
       <c r="D109" t="str">
-        <v>65b25c6a0ee61e0008e40557</v>
+        <v>65787dde6f922700080c9ae6</v>
       </c>
       <c r="E109" s="1">
-        <v>45316.41985064815</v>
+        <v>45316.486314594906</v>
       </c>
     </row>
     <row r="110" xml:space="preserve">
       <c r="A110" t="str">
-        <v>Rodrii Juárez</v>
+        <v>Patry</v>
       </c>
       <c r="B110" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C110" t="str" xml:space="preserve">
-        <v xml:space="preserve">25/1/2024, 11:41:05 - Rodrii Juárez: Hola buenas quería saber sobre la skua
-25/1/2024, 11:41:05 - MegaBot: ¡Hola Rodrii Juárez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido, decime qué moto estás buscando, de dónde sos y cómo querés pagar【11†source】.</v>
+        <v xml:space="preserve">25/1/2024, 11:56:51 - Patry: ¡Hola! Quiero más información.
+25/1/2024, 11:56:52 - MegaBot: ¡Hola Patry! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar【11†source】.</v>
       </c>
       <c r="D110" t="str">
-        <v>65787dde6f922700080c9ae6</v>
+        <v>65b2769f02da990008756b1f</v>
       </c>
       <c r="E110" s="1">
-        <v>45316.486314594906</v>
+        <v>45316.497266238424</v>
+      </c>
+    </row>
+    <row r="111" xml:space="preserve">
+      <c r="A111" t="str">
+        <v>Manuel Perez</v>
+      </c>
+      <c r="B111" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C111" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 12:03:13 - Manuel Perez: ¡Hola! Podrías darme más información de...
+25/1/2024, 12:03:13 - MegaBot: ¡Hola Manuel Perez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido, necesitaría que me digas qué moto estás buscando, de dónde eres y cómo te gustaría pagar【11†source】.</v>
+      </c>
+      <c r="D111" t="str">
+        <v>65b2781a6e6bfe0008aedb16</v>
+      </c>
+      <c r="E111" s="1">
+        <v>45316.50168547453</v>
+      </c>
+    </row>
+    <row r="112" xml:space="preserve">
+      <c r="A112" t="str">
+        <v>Gaston</v>
+      </c>
+      <c r="B112" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C112" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 12:10:48 - Gaston: ¡Hola! Quiero más información.
+25/1/2024, 12:10:49 - MegaBot: ¡Hola Gaston! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar【11†source】.</v>
+      </c>
+      <c r="D112" t="str">
+        <v>65b279e7db69cf000854cae6</v>
+      </c>
+      <c r="E112" s="1">
+        <v>45316.50695443287</v>
+      </c>
+    </row>
+    <row r="113" xml:space="preserve">
+      <c r="A113" t="str">
+        <v>Karen</v>
+      </c>
+      <c r="B113" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C113" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 12:20:58 - Karen: ¡Hola! Quiero más información.
+25/1/2024, 12:20:59 - MegaBot: ¡Hola Karen! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido, decime qué moto estás buscando, de dónde sos y cómo querés pagar.
+También te comento que Megamoto ofrece servicios de postventa【11†source】.
+Dame un momento para revisar la lista de precios y así poder atenderte mejor.</v>
+      </c>
+      <c r="D113" t="str">
+        <v>65b27c3eb858410008297388</v>
+      </c>
+      <c r="E113" s="1">
+        <v>45316.51401540509</v>
+      </c>
+    </row>
+    <row r="114" xml:space="preserve">
+      <c r="A114" t="str">
+        <v>Isabel Sanchez</v>
+      </c>
+      <c r="B114" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C114" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 12:25:06 - Isabel Sanchez: ¡Hola! Quiero más información.
+25/1/2024, 12:25:06 - MegaBot: ¡Hola Isabel Sanchez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido, necesitaré que me digas qué moto estás buscando, de dónde eres y cómo deseas pagar.
+También quiero informarte de que Megamoto ofrece financiación de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales. Las cuotas son fijas, y la moto se puede llevar en el momento, comenzando a pagar en dos meses según el plan de pagos. Para verificar si te otorgan crédito, será necesario tu número de documento para que un vendedor pueda verificarlo【9†fuente】.
+Mientras espero tu respuesta, te puedo proporcionar información sobre los modelos de motos y sus precios al contado sin patentamiento que hemos recibido.</v>
+      </c>
+      <c r="D114" t="str">
+        <v>65b27d3c85424b0008a80b8c</v>
+      </c>
+      <c r="E114" s="1">
+        <v>45316.51687681713</v>
+      </c>
+    </row>
+    <row r="115" xml:space="preserve">
+      <c r="A115" t="str">
+        <v>Molinas Mauro⚡</v>
+      </c>
+      <c r="B115" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C115" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 16:30:47 - Molinas Mauro⚡: Aah dale dale
+25/1/2024, 16:30:47 - MegaBot: ¡Hola Molinas Mauro⚡! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+25/1/2024, 16:31:31 - Molinas Mauro⚡: 38936698
+25/1/2024, 16:31:32 - MegaBot: Gracias por tu mensaje. ¿Podrías proporcionar el modelo de moto que estás buscando, tu ubicación, método de contacto y método de pago preferido?
+25/1/2024, 16:31:41 - Molinas Mauro⚡: Tiago González
+25/1/2024, 16:31:42 - MegaBot: No encontré un modelo de moto específico llamado "Tiago González" en la lista de precios. ¿Podrías proporcionar el nombre de un modelo de moto que te interese, tu ubicación, método de contacto y método de pago preferido? Esto me ayudará a brindarte la información que necesitas.
+25/1/2024, 16:40:14 - Vendedor Megamoto: con ese me sale lo mismo 
+25/1/2024, 16:40:26 - Vendedor Megamoto: por el momento no le dan credito</v>
+      </c>
+      <c r="D115" t="str">
+        <v>65a9df5be8fd9b000883198e</v>
+      </c>
+      <c r="E115" s="1">
+        <v>45316.687497719904</v>
+      </c>
+    </row>
+    <row r="116" xml:space="preserve">
+      <c r="A116" t="str">
+        <v>Gustavo Gomez Villafañe</v>
+      </c>
+      <c r="B116" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C116" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 16:31:10 - Gustavo Gomez Villafañe: vuelvo a probar primer saludo
+25/1/2024, 16:31:10 - MegaBot: ¡Hola Gustavo Gomez Villafañe! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+25/1/2024, 18:46:57 - Gustavo Gomez Villafañe: done tienen sucursales?
+25/1/2024, 18:46:58 - MegaBot: Megamoto tiene dos sucursales: una en Merlo, ubicada en avenida Calle Real 51 (ex. Gobernador Vergara), abierta de lunes a sábados de 10 a 19 horas; y otra en CABA, sobre la avenida Corrientes 3400【10†source】.
+25/1/2024, 18:47:49 - Gustavo Gomez Villafañe: me decis el precio de la max 110?
+25/1/2024, 18:47:49 - MegaBot: El precio de la moto MAX 110 A/E es de $1.153.950 para pago al contado sin patentamiento【0†source】.</v>
+      </c>
+      <c r="D116" t="str">
+        <v>6596d62461f4a300081b28cb</v>
+      </c>
+      <c r="E116" s="1">
+        <v>45316.68776055556</v>
+      </c>
+    </row>
+    <row r="117" xml:space="preserve">
+      <c r="A117" t="str">
+        <v>Mitaysamuel345@gmail.com</v>
+      </c>
+      <c r="B117" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C117" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 16:41:02 - Mitaysamuel345@gmail.com: ¡Hola! Podrías darme más información de...me interesa una moto la ZB 110
+25/1/2024, 16:41:02 - MegaBot: ¡Hola Mitaysamuel345@gmail.com! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D117" t="str">
+        <v>65b2b949a7c9830009c5a11d</v>
+      </c>
+      <c r="E117" s="1">
+        <v>45316.694609618055</v>
+      </c>
+    </row>
+    <row r="118" xml:space="preserve">
+      <c r="A118" t="str">
+        <v>Marina</v>
+      </c>
+      <c r="B118" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C118" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 16:45:59 - Marina: Que requisitos necesito? Tengo recibo de sueldo
+25/1/2024, 16:45:59 - MegaBot: ¡Hola Marina! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D118" t="str">
+        <v>65b2b3f868c0b400085b1b87</v>
+      </c>
+      <c r="E118" s="1">
+        <v>45316.69804537037</v>
+      </c>
+    </row>
+    <row r="119" xml:space="preserve">
+      <c r="A119" t="str">
+        <v>Alexandra Flores</v>
+      </c>
+      <c r="B119" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C119" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 16:50:09 - Alexandra Flores: ¡Hola! Quiero más información.
+25/1/2024, 16:50:10 - MegaBot: ¡Hola Alexandra Flores! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D119" t="str">
+        <v>65b2bb6e65d22b000824dd8c</v>
+      </c>
+      <c r="E119" s="1">
+        <v>45316.70094884259</v>
+      </c>
+    </row>
+    <row r="120" xml:space="preserve">
+      <c r="A120" t="str">
+        <v>Maria Isabel</v>
+      </c>
+      <c r="B120" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C120" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 16:57:25 - Maria Isabel: ¡Hola! Podrías darme más información de...
+25/1/2024, 16:57:26 - MegaBot: ¡Hola Maria Isabel! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D120" t="str">
+        <v>65b2bd1fad1123000885b08a</v>
+      </c>
+      <c r="E120" s="1">
+        <v>45316.705990625</v>
+      </c>
+    </row>
+    <row r="121" xml:space="preserve">
+      <c r="A121" t="str">
+        <v>Djkevin Dk 🎼</v>
+      </c>
+      <c r="B121" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C121" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 17:00:18 - Djkevin Dk 🎼: ¡Hola! Podrías darme más información de...
+25/1/2024, 17:00:18 - MegaBot: ¡Hola Djkevin Dk 🎼! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D121" t="str">
+        <v>65b1dafe847ca70008c68131</v>
+      </c>
+      <c r="E121" s="1">
+        <v>45316.70798649306</v>
+      </c>
+    </row>
+    <row r="122" xml:space="preserve">
+      <c r="A122" t="str">
+        <v>Sebas</v>
+      </c>
+      <c r="B122" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C122" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 17:01:57 - Sebas: Buenas tardes
+25/1/2024, 17:01:57 - MegaBot: ¡Hola Sebas! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+25/1/2024, 17:02:14 - Sebas: Estoy interesado en las benellis
+25/1/2024, 17:02:14 - MegaBot: Los modelos de Benelli disponibles son: "TNT 15" a $2,177,010, "TRK251 ABS" a $5,732,100, "TRK502 NEW" a $11,870,100, y "TRK502-X NEW" a $13,454,100. ¿Cuál es tu domicilio, número de contacto, y ¿cómo prefieres pagar?
+25/1/2024, 17:02:25 - Sebas: Que productos dispones
+25/1/2024, 17:02:25 - MegaBot: Los modelos disponibles son: "TNT 15" a $2,177,010, "TRK251 ABS" a $5,732,100, "TRK502 NEW" a $11,870,100, "TRK502-X NEW" a $13,454,100, "STRATO 150 EURO" a $1,913,100, y "MAX 110 A/E" a $1,153,950【14†source】. ¿Cuál es tu domicilio, número de contacto, y ¿cómo prefieres pagar?
+25/1/2024, 17:02:30 - Sebas: Y con que financiación x favoe
+25/1/2024, 17:02:30 - MegaBot: Para información detallada sobre financiación, por favor comunícate con nuestro equipo de ventas al siguiente número: +54 9 11 1234 5678.
+25/1/2024, 17:04:56 - Sebas: Cómo estás johanna
+25/1/2024, 17:04:57 - MegaBot: ¡Hola! Soy MegaBot, el Asistente Virtual de Megamoto. ¿En qué puedo ayudarte hoy relacionado con Megamoto?</v>
+      </c>
+      <c r="D122" t="str">
+        <v>65ad4e8df6528a00080e8972</v>
+      </c>
+      <c r="E122" s="1">
+        <v>45316.709138252314</v>
+      </c>
+    </row>
+    <row r="123" xml:space="preserve">
+      <c r="A123" t="str">
+        <v>😋</v>
+      </c>
+      <c r="B123" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C123" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 17:03:09 - 😋: ¡Hola! Quiero más información.
+25/1/2024, 17:03:09 - MegaBot: ¡Hola 😋! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+25/1/2024, 17:03:51 - 😋: De dónde son.???
+25/1/2024, 17:03:51 - MegaBot: Las sucursales de Megamoto se encuentran en Merlo, en la avenida Calle Real 51 (ex. Gobernador Vergara), con horario de lunes a sábados de 10 a 19 horas, y en CABA, zona Abasto, en la avenida Corrientes 3400, con horario de lunes a viernes de 9 a 19 horas y sábados de 9 a 13 horas【10†source】.</v>
+      </c>
+      <c r="D123" t="str">
+        <v>65b2be7a192a7a0009c0c419</v>
+      </c>
+      <c r="E123" s="1">
+        <v>45316.70997362269</v>
+      </c>
+    </row>
+    <row r="124" xml:space="preserve">
+      <c r="A124" t="str">
+        <v>Anahi</v>
+      </c>
+      <c r="B124" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C124" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 17:04:44 - Anahi: ¡Hola! Quiero más información.
+25/1/2024, 17:04:45 - MegaBot: ¡Hola Anahi! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D124" t="str">
+        <v>65b2be254d398300081ff2ab</v>
+      </c>
+      <c r="E124" s="1">
+        <v>45316.71107630787</v>
+      </c>
+    </row>
+    <row r="125" xml:space="preserve">
+      <c r="A125" t="str">
+        <v>..</v>
+      </c>
+      <c r="B125" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C125" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 17:10:03 - ..: ¡Hola! Quiero más información.
+25/1/2024, 17:10:03 - MegaBot: ¡Hola ..! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D125" t="str">
+        <v>65b2c018155c940008f13f1c</v>
+      </c>
+      <c r="E125" s="1">
+        <v>45316.71476241898</v>
+      </c>
+    </row>
+    <row r="126" xml:space="preserve">
+      <c r="A126" t="str">
+        <v>Perelli Juan</v>
+      </c>
+      <c r="B126" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C126" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 17:13:32 - Perelli Juan: Hola Johann tendrías un catálogo de motos
+25/1/2024, 17:13:32 - MegaBot: ¡Hola Perelli Juan! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D126" t="str">
+        <v>5e46d09d1783360008bf5761</v>
+      </c>
+      <c r="E126" s="1">
+        <v>45316.717182280096</v>
+      </c>
+    </row>
+    <row r="127" xml:space="preserve">
+      <c r="A127" t="str">
+        <v>Fede Carol 丸</v>
+      </c>
+      <c r="B127" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C127" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 17:14:36 - Fede Carol 丸: Hola Johana, gracias por tu atención. Necesito saber 752s, Benelli. con esta financiación.
+25/1/2024, 17:14:36 - MegaBot: ¡Hola Fede Carol 丸! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D127" t="str">
+        <v>65ad1b3d0f766a0008e4de78</v>
+      </c>
+      <c r="E127" s="1">
+        <v>45316.71792502315</v>
+      </c>
+    </row>
+    <row r="128" xml:space="preserve">
+      <c r="A128" t="str">
+        <v>Claudio Victor ✌🏼🦁</v>
+      </c>
+      <c r="B128" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C128" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 18:47:43 - Claudio Victor ✌🏼🦁: ¡Hola! Quiero más información.
+25/1/2024, 18:47:43 - MegaBot: ¡Hola Claudio Victor ✌🏼🦁! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D128" t="str">
+        <v>65b2d6fcefd18f0007749834</v>
+      </c>
+      <c r="E128" s="1">
+        <v>45316.7825887037</v>
+      </c>
+    </row>
+    <row r="129" xml:space="preserve">
+      <c r="A129" t="str">
+        <v>Benjaminschafer1968</v>
+      </c>
+      <c r="B129" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C129" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 19:45:03 - Benjaminschafer1968: Tarjeta de crédito
+25/1/2024, 19:45:04 - MegaBot: ¡Hola Benjaminschafer1968! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D129" t="str">
+        <v>65b042cdac13430008a9ae1e</v>
+      </c>
+      <c r="E129" s="1">
+        <v>45316.82240693287</v>
+      </c>
+    </row>
+    <row r="130" xml:space="preserve">
+      <c r="A130" t="str">
+        <v>Sabrina.</v>
+      </c>
+      <c r="B130" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C130" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 22:10:03 - Sabrina.: Hola, estoy buscando info
+25/1/2024, 22:10:04 - MegaBot: ¡Hola Sabrina.! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D130" t="str">
+        <v>65b30668e284ba0008a32b26</v>
+      </c>
+      <c r="E130" s="1">
+        <v>45316.92309935185</v>
+      </c>
+    </row>
+    <row r="131" xml:space="preserve">
+      <c r="A131" t="str">
+        <v>M.c</v>
+      </c>
+      <c r="B131" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C131" t="str" xml:space="preserve">
+        <v xml:space="preserve">25/1/2024, 22:12:28 - M.c: ¡Hola! Quiero más información.
+25/1/2024, 22:12:29 - MegaBot: ¡Hola M.c! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D131" t="str">
+        <v>65b306f92d85fb0008864fa5</v>
+      </c>
+      <c r="E131" s="1">
+        <v>45316.92477493056</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E110"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E131"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,7 +430,8 @@
       <c r="C2" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 10:13:00 - Fabian☘️☘️: ¡Hola! Quiero más información.
 22/1/2024, 10:13:00 - MegaBot: ¡Hola Fabian☘️☘️! Soy MegaBot, un Asistente Virtual de Megamoto. Los métodos de pago disponibles son pago contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios. Además, se puede hacer una combinación con estos métodos【9†source】.
-Si estás interesado en alguna moto en particular, por favor házmelo saber para proporcionarte más detalles sobre el precio y las opciones de financiamiento.</v>
+Si estás interesado en alguna moto en particular, por favor házmelo saber para proporcionarte más detalles sobre el precio y las opciones de financiamiento.
+26/1/2024, 18:02:55 - Vendedor Megamoto: Hola Fabian, 302s contado $7.381.700 con patentamiento, tambien podes financiar con tarjeta de credito o prestamo personal, vos como tenias previsto? , mi nombre es Johanna, asesor comercial de Megamoto. Quería saber si tu consulta podemos seguirla por este medio?</v>
       </c>
       <c r="D2" t="str">
         <v>65ae69bf9c5eca0008422e61</v>
@@ -474,7 +475,9 @@
 - Motomel SKUA 125 X-TREME: $1713.55
 - Motomel DLX 110 DELUXE: $1390.59
 - Motomel BLITZ 110 V8 START: $8930.13
-¿Te gustaría más detalles sobre alguno de estos modelos? Además, necesitaríamos saber tu ubicación y el método de pago que prefieres 【8†fuente】.</v>
+¿Te gustaría más detalles sobre alguno de estos modelos? Además, necesitaríamos saber tu ubicación y el método de pago que prefieres 【8†fuente】.
+26/1/2024, 18:00:15 - Vendedor Megamoto:  Por el momento con ese dni sale rechazado. No me dice el motivo exacto. Pueden ser varios motivos, como bajo puntaje crediticio, que estés pagando alguna cuota, la antigüedad laboral,etc..
+Pero podemos probar con otra persona, tenés algún familiar o amigo que quiera ser tu garante?, de ser asi pasame tambien numero de dni, nombre  y nos fijamos si le otorgan</v>
       </c>
       <c r="D4" t="str">
         <v>65ae6f2957781c00084b5b3a</v>
@@ -629,7 +632,16 @@
       <c r="C12" t="str" xml:space="preserve">
         <v xml:space="preserve">22/1/2024, 13:02:55 - Cacho: ¡Hola! Quiero más información.
 22/1/2024, 13:02:55 - MegaBot: Parece que hubo un problema al intentar abrir los archivos que subiste. ¿Podrías subirlos nuevamente para que pueda ayudarte mejor?
-25/1/2024, 17:13:56 - Vendedor Megamoto: Hola Cacho,  buen dia como estas?, comentame en que moto estas interesado?, Las marcas que trabajamos son:  motomel- benelli - suzuki -Sym-  Keeway   que modelo  de alguna de esas marcas te gustaria?, , mi nombre es Johanna, asesor comercial de Megamoto. Quería saber si tu consulta podemos seguirla por este medio?</v>
+25/1/2024, 17:13:56 - Vendedor Megamoto: Hola Cacho,  buen dia como estas?, comentame en que moto estas interesado?, Las marcas que trabajamos son:  motomel- benelli - suzuki -Sym-  Keeway   que modelo  de alguna de esas marcas te gustaria?, , mi nombre es Johanna, asesor comercial de Megamoto. Quería saber si tu consulta podemos seguirla por este medio?
+26/1/2024, 11:58:24 - Cacho: hacer una entrega en efectivo y el saldo en cuotas
+26/1/2024, 11:58:24 - MegaBot: Entendido, ¿tienes alguna preferencia por un modelo de moto en particular o algún rango de precios en mente?
+26/1/2024, 17:55:44 - Vendedor Megamoto: Te paso los requisitos para el prestamo personal:
+-tener algo en blanco: recibo de sueldo, monotributo, jubilacion, pension.
+-Edad apartir de 21 años
+-no tener deudas,ni estar en veraz
+pasame tu numero de dni  y nombre y apellido y verifico por sistema cuanto te otorgan y en cuantas cuotas 
+y si es de alguien que te sale de garante  tambien dni y nombre-(tiene que cumplir con los requisitos arriba mencionados)
+</v>
       </c>
       <c r="D12" t="str">
         <v>65ae919bd5b36c00089f2ebf</v>
@@ -1200,7 +1212,13 @@
 25/1/2024, 16:57:43 - Gonza: Cuotas con tarjeta o financiacion directo personal?
 25/1/2024, 16:57:44 - MegaBot: Para obtener información detallada sobre las opciones de cuotas con tarjeta o financiación directa, necesitaré que me proporciones tu domicilio, datos de contacto y el modelo específico de Motomel que te interesa. Una vez que tenga esta información, podré brindarte detalles precisos sobre las opciones de pago disponibles para ese modelo en particular.
 25/1/2024, 16:57:53 - Gonza: Cuotas con tarjeta o financiacion directo personal?
-25/1/2024, 16:57:53 - MegaBot: Para obtener información detallada sobre las opciones de cuotas con tarjeta o financiación directa para la marca Motomel, necesitaré que me proporciones tu domicilio, datos de contacto y el modelo específico de Motomel que te interesa. Una vez que tenga esta información, podré brindarte detalles precisos sobre las opciones de pago disponibles para ese modelo en particular.</v>
+25/1/2024, 16:57:53 - MegaBot: Para obtener información detallada sobre las opciones de cuotas con tarjeta o financiación directa para la marca Motomel, necesitaré que me proporciones tu domicilio, datos de contacto y el modelo específico de Motomel que te interesa. Una vez que tenga esta información, podré brindarte detalles precisos sobre las opciones de pago disponibles para ese modelo en particular.
+27/1/2024, 7:04:03 - Patricia Ceballos: Hola algún número para poder llamarte
+27/1/2024, 7:04:04 - MegaBot: Lamentablemente, no puedo recibir llamadas directas ya que soy un Asistente Virtual. Sin embargo, puedes proporcionar tu número de teléfono, correo electrónico o WhatsApp para que un representante de Megamoto pueda ponerse en contacto contigo y brindarte asistencia personalizada.
+27/1/2024, 7:04:10 - Patricia Ceballos: Hola algún número para poder llamarte
+27/1/2024, 7:04:11 - MegaBot: Lamentablemente, no puedo recibir llamadas directas ya que soy un asistente virtual. Sin embargo, si proporcionas tu número de teléfono, correo electrónico o WhatsApp, un representante de Megamoto se pondrá en contacto contigo para brindarte la asistencia que necesitas.
+27/1/2024, 10:09:32 - Brian Vazquez: Buen día!
+27/1/2024, 10:09:33 - MegaBot: ¡Buen día! ¿En qué puedo ayudarte hoy?</v>
       </c>
       <c r="D38" t="str">
         <v>no phone</v>
@@ -1761,7 +1779,14 @@
       </c>
       <c r="C65" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 18:43:33 - Tomás🕸️: con prestamo personal
-23/1/2024, 18:43:34 - MegaBot: ¡Hola Tomás🕸️! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. También, si tienes alguna preferencia de pago con préstamo personal, házmelo saber para poder ayudarte de la mejor manera posible.</v>
+23/1/2024, 18:43:34 - MegaBot: ¡Hola Tomás🕸️! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. También, si tienes alguna preferencia de pago con préstamo personal, házmelo saber para poder ayudarte de la mejor manera posible.
+26/1/2024, 17:52:45 - Vendedor Megamoto: 12
+$168.670,44
+18
+$154.750,29
+24
+$145.997
+26/1/2024, 17:53:04 - Vendedor Megamoto: Asi con ese anticipo</v>
       </c>
       <c r="D65" t="str">
         <v>658f1f54c08b9c0008b7fefd</v>
@@ -1872,7 +1897,14 @@
       </c>
       <c r="C70" t="str" xml:space="preserve">
         <v xml:space="preserve">23/1/2024, 18:59:33 - ❤️d.f.a❤️: ¡Hola! Quiero más información.
-23/1/2024, 18:59:34 - MegaBot: ¡Hola ❤️d.f.a❤️! Gracias por compartir la información. Para poder brindarte la mejor atención, necesito que me indiques qué modelo de moto estás buscando, de dónde eres y cómo deseas realizar el pago. Además, tengo una lista de precios con distintos modelos de motos y sus precios al contado sin patentamiento, por si te interesa consultarla.</v>
+23/1/2024, 18:59:34 - MegaBot: ¡Hola ❤️d.f.a❤️! Gracias por compartir la información. Para poder brindarte la mejor atención, necesito que me indiques qué modelo de moto estás buscando, de dónde eres y cómo deseas realizar el pago. Además, tengo una lista de precios con distintos modelos de motos y sus precios al contado sin patentamiento, por si te interesa consultarla.
+26/1/2024, 12:08:00 - ❤️d.f.a❤️: 150
+26/1/2024, 12:08:00 - MegaBot: Entiendo que estás respondiendo a mi solicitud de información. ¿Podrías proporcionar el modelo de moto que te interesa, tu domicilio y tus datos de contacto? Además, ¿tienes algún método de pago preferido?
+26/1/2024, 17:57:16 - Vendedor Megamoto: seria una tnt 15 $2.269.700 contado 
+26/1/2024, 17:57:24 - Vendedor Megamoto: las maneras para pagarla son:
+-efectivo(transferencia, debito )
+-tarjeta de credito
+-credito personal, vos como tenias previsto?</v>
       </c>
       <c r="D70" t="str">
         <v>65b036bbbf038100085eb4f0</v>
@@ -2884,7 +2916,13 @@
 25/1/2024, 18:46:57 - Gustavo Gomez Villafañe: done tienen sucursales?
 25/1/2024, 18:46:58 - MegaBot: Megamoto tiene dos sucursales: una en Merlo, ubicada en avenida Calle Real 51 (ex. Gobernador Vergara), abierta de lunes a sábados de 10 a 19 horas; y otra en CABA, sobre la avenida Corrientes 3400【10†source】.
 25/1/2024, 18:47:49 - Gustavo Gomez Villafañe: me decis el precio de la max 110?
-25/1/2024, 18:47:49 - MegaBot: El precio de la moto MAX 110 A/E es de $1.153.950 para pago al contado sin patentamiento【0†source】.</v>
+25/1/2024, 18:47:49 - MegaBot: El precio de la moto MAX 110 A/E es de $1.153.950 para pago al contado sin patentamiento【0†source】.
+26/1/2024, 15:36:44 - Gustavo Gomez Villafañe: hola
+26/1/2024, 15:36:44 - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy?
+26/1/2024, 19:28:02 - Gustavo Gomez Villafañe: megabot off
+26/1/2024, 19:28:02 - MegaBot: Entendido. No dudes en volver si necesitas algo más. ¡Hasta luego!
+27/1/2024, 6:53:03 - Gustavo Gomez Villafañe: megabot off
+27/1/2024, 6:53:04 - MegaBot: Hasta luego! Si necesitas ayuda en el futuro, no dudes en contactarme. ¡Adiós!</v>
       </c>
       <c r="D116" t="str">
         <v>6596d62461f4a300081b28cb</v>
@@ -3173,9 +3211,382 @@
         <v>45316.92477493056</v>
       </c>
     </row>
+    <row r="132" xml:space="preserve">
+      <c r="A132" t="str">
+        <v>Aleman</v>
+      </c>
+      <c r="B132" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C132" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/1/2024, 7:49:21 - Aleman: ¡Hola! Podrías darme más información de...
+26/1/2024, 7:49:21 - MegaBot: ¡Hola Aleman! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D132" t="str">
+        <v>65b38e2c62623800089a81e7</v>
+      </c>
+      <c r="E132" s="1">
+        <v>45317.325383344905</v>
+      </c>
+    </row>
+    <row r="133" xml:space="preserve">
+      <c r="A133" t="str">
+        <v>Galvan271118</v>
+      </c>
+      <c r="B133" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C133" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/1/2024, 8:49:48 - Galvan271118: ¡Hola! Me gustaría conseguir más información sobre esto.
+26/1/2024, 8:49:49 - MegaBot: ¡Hola Galvan271118! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D133" t="str">
+        <v>65b39c58a62fa100086aef8f</v>
+      </c>
+      <c r="E133" s="1">
+        <v>45317.36737112269</v>
+      </c>
+    </row>
+    <row r="134" xml:space="preserve">
+      <c r="A134" t="str">
+        <v>Pablo Damian</v>
+      </c>
+      <c r="B134" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C134" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/1/2024, 9:07:42 - Pablo Damian: Ok, precio final con patentamiento?
+26/1/2024, 9:07:43 - MegaBot: ¡Hola Pablo Damian! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D134" t="str">
+        <v>5dbd03629f352a1aeb7e9fff</v>
+      </c>
+      <c r="E134" s="1">
+        <v>45317.37979644676</v>
+      </c>
+    </row>
+    <row r="135" xml:space="preserve">
+      <c r="A135" t="str">
+        <v>Day🪷</v>
+      </c>
+      <c r="B135" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C135" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/1/2024, 10:12:40 - Day🪷: Hola ya te paso
+26/1/2024, 10:12:41 - MegaBot: ¡Hola Day🪷! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+26/1/2024, 10:13:51 - Day🪷: Y te paso otro x las dudas
+26/1/2024, 10:13:51 - MegaBot: Gracias por compartir el archivo. ¿Podrías indicarme el modelo de moto que te interesa, tu ubicación, datos de contacto y tu método de pago preferido para la compra?</v>
+      </c>
+      <c r="D135" t="str">
+        <v>65943a27602b9000083b5afd</v>
+      </c>
+      <c r="E135" s="1">
+        <v>45317.424917349534</v>
+      </c>
+    </row>
+    <row r="136" xml:space="preserve">
+      <c r="A136" t="str">
+        <v>Lucas 🧉</v>
+      </c>
+      <c r="B136" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C136" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/1/2024, 10:21:00 - Lucas 🧉: Hola q presio está la Benelli 250cc y la 302cc
+26/1/2024, 10:21:00 - MegaBot: ¡Hola Lucas 🧉! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+26/1/2024, 10:21:28 - Lucas 🧉: Y las cuotas de cuánto son por mes
+26/1/2024, 10:21:29 - MegaBot: La Benelli 250cc tiene un precio al contado de $7,211,000, la 302cc de $15,000,000. Las cuotas variarán dependiendo del método de financiación que elijas. Por favor, proporciona tu método de contacto para que un vendedor te pueda brindar más información.</v>
+      </c>
+      <c r="D136" t="str">
+        <v>65b080acf3fdbc000806ea0f</v>
+      </c>
+      <c r="E136" s="1">
+        <v>45317.430695856485</v>
+      </c>
+    </row>
+    <row r="137" xml:space="preserve">
+      <c r="A137" t="str">
+        <v>Noelia Sabrina Artaza</v>
+      </c>
+      <c r="B137" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C137" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/1/2024, 11:54:52 - Noelia Sabrina Artaza: Hola buenos dias
+26/1/2024, 11:54:52 - MegaBot: ¡Hola Noelia Sabrina Artaza! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+26/1/2024, 11:54:59 - Noelia Sabrina Artaza: Quisiera averiguar
+26/1/2024, 11:54:59 - MegaBot: ¡Hola Noelia Sabrina Artaza! Soy MegaBot, un Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido, por favor indícame qué moto estás buscando, de dónde eres y cómo deseas realizar el pago.</v>
+      </c>
+      <c r="D137" t="str">
+        <v>65b3c5308ada95000916c396</v>
+      </c>
+      <c r="E137" s="1">
+        <v>45317.4958828125</v>
+      </c>
+    </row>
+    <row r="138" xml:space="preserve">
+      <c r="A138" t="str">
+        <v>Cin Zelaya</v>
+      </c>
+      <c r="B138" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C138" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/1/2024, 12:04:13 - Cin Zelaya: ¡Hola! Quiero más información.
+26/1/2024, 12:04:13 - MegaBot: ¡Hola Cin Zelaya! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D138" t="str">
+        <v>65b3c9e887f57100089349f5</v>
+      </c>
+      <c r="E138" s="1">
+        <v>45317.50237862269</v>
+      </c>
+    </row>
+    <row r="139" xml:space="preserve">
+      <c r="A139" t="str">
+        <v>Pela😜</v>
+      </c>
+      <c r="B139" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C139" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/1/2024, 15:36:59 - Pela😜: Hola
+26/1/2024, 15:36:59 - MegaBot: ¡Hola Pela😜! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+26/1/2024, 15:37:41 - Pela😜: Buenas tardes queria informacion q vi en face q  ay 6 pagos sin interes con tarjeta bancaria
+26/1/2024, 15:37:41 - MegaBot: Lamentablemente, no disponemos de información específica sobre pagos a plazos sin interés con tarjeta bancaria. ¿Te gustaría obtener información sobre algún modelo de moto en particular?
+26/1/2024, 15:38:05 - Pela😜: Queria saber por el serie 2
+26/1/2024, 15:38:05 - MegaBot: El precio de contado sin patentamiento para el modelo LEONCINO 250 es de $5,435,100. Lamentablemente, no disponemos de información sobre pagos a plazos sin interés con tarjeta bancaria. ¿Te puedo ayudar con algo más? 【20†source】
+26/1/2024, 17:55:23 - Vendedor Megamoto: hola , si solo es valido para el dia 31-1 con tarjeta visa o master de santander, serian 6 cuotas de $216.933 por el s2 base </v>
+      </c>
+      <c r="D139" t="str">
+        <v>6560b81b8a4d0b00088bccfd</v>
+      </c>
+      <c r="E139" s="1">
+        <v>45317.65013047454</v>
+      </c>
+    </row>
+    <row r="140" xml:space="preserve">
+      <c r="A140" t="str">
+        <v>Sergio</v>
+      </c>
+      <c r="B140" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C140" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/1/2024, 16:13:15 - Sergio: Que vale de contado ?
+26/1/2024, 16:13:15 - MegaBot: ¡Hola Sergio! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D140" t="str">
+        <v>65b3b71ff72a2a000821130d</v>
+      </c>
+      <c r="E140" s="1">
+        <v>45317.675318090274</v>
+      </c>
+    </row>
+    <row r="141" xml:space="preserve">
+      <c r="A141" t="str">
+        <v>3624564711</v>
+      </c>
+      <c r="B141" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C141" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/1/2024, 16:17:29 - 3624564711: ¡Hola! Quiero más información.
+26/1/2024, 16:17:29 - MegaBot: ¡Hola 3624564711! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D141" t="str">
+        <v>65b4054404eef500086f59ca</v>
+      </c>
+      <c r="E141" s="1">
+        <v>45317.678259594904</v>
+      </c>
+    </row>
+    <row r="142" xml:space="preserve">
+      <c r="A142" t="str">
+        <v>Jorge</v>
+      </c>
+      <c r="B142" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C142" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/1/2024, 16:18:58 - Jorge: ¡Hola! Me gustaría conseguir más información sobre esto.
+26/1/2024, 16:18:58 - MegaBot: ¡Hola Jorge! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D142" t="str">
+        <v>65b4059de388030008178e01</v>
+      </c>
+      <c r="E142" s="1">
+        <v>45317.67928369213</v>
+      </c>
+    </row>
+    <row r="143" xml:space="preserve">
+      <c r="A143" t="str">
+        <v>💪💪💪</v>
+      </c>
+      <c r="B143" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C143" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/1/2024, 16:44:42 - 💪💪💪: ¡Hola! Podrías darme más información de...
+26/1/2024, 16:44:42 - MegaBot: ¡Hola 💪💪💪! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D143" t="str">
+        <v>65b40ba861dcdc00086c9bc0</v>
+      </c>
+      <c r="E143" s="1">
+        <v>45317.69715959491</v>
+      </c>
+    </row>
+    <row r="144" xml:space="preserve">
+      <c r="A144" t="str">
+        <v>Vanesa💕</v>
+      </c>
+      <c r="B144" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C144" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/1/2024, 17:04:02 - Vanesa💕: ¡Hola! Quiero más información.
+26/1/2024, 17:04:02 - MegaBot: ¡Hola Vanesa💕! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D144" t="str">
+        <v>65b41030911f980008e995b3</v>
+      </c>
+      <c r="E144" s="1">
+        <v>45317.71058662037</v>
+      </c>
+    </row>
+    <row r="145" xml:space="preserve">
+      <c r="A145" t="str">
+        <v>Fernando Carlos García</v>
+      </c>
+      <c r="B145" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C145" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/1/2024, 17:05:24 - Fernando Carlos García: ¡Hola! Podrías darme más información de...
+26/1/2024, 17:05:25 - MegaBot: ¡Hola Fernando Carlos García! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+26/1/2024, 17:05:32 - false: Buena tarde
+26/1/2024, 17:05:33 - MegaBot: ¡Hola! Soy MegaBot, ¿En qué modelo de moto estás interesado, en dónde te encuentras y cuál es tu método de pago preferido?</v>
+      </c>
+      <c r="D145" t="str">
+        <v>65b41082cf663a00084995ed</v>
+      </c>
+      <c r="E145" s="1">
+        <v>45317.71153663194</v>
+      </c>
+    </row>
+    <row r="146" xml:space="preserve">
+      <c r="A146" t="str">
+        <v>Fe 🫡</v>
+      </c>
+      <c r="B146" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C146" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/1/2024, 17:25:09 - Fe 🫡: ¡Hola! Podrías darme más información de...
+26/1/2024, 17:25:11 - MegaBot: ¡Hola Fe 🫡! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D146" t="str">
+        <v>65b41523624a4800080d2ccb</v>
+      </c>
+      <c r="E146" s="1">
+        <v>45317.7252537963</v>
+      </c>
+    </row>
+    <row r="147" xml:space="preserve">
+      <c r="A147" t="str">
+        <v>Javier</v>
+      </c>
+      <c r="B147" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C147" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/1/2024, 17:35:12 - Javier: ¡Hola! Podrías darme más información de...
+26/1/2024, 17:35:12 - MegaBot: ¡Hola Javier! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D147" t="str">
+        <v>65b4177ecc98ec0008d948cb</v>
+      </c>
+      <c r="E147" s="1">
+        <v>45317.732229155095</v>
+      </c>
+    </row>
+    <row r="148" xml:space="preserve">
+      <c r="A148" t="str">
+        <v>Luchi🥰</v>
+      </c>
+      <c r="B148" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C148" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/1/2024, 18:01:32 - Luchi🥰: ¡Hola! Podrías darme más información de...
+26/1/2024, 18:01:32 - MegaBot: ¡Hola Luchi🥰! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D148" t="str">
+        <v>65b41daa58ee39000814e3a5</v>
+      </c>
+      <c r="E148" s="1">
+        <v>45317.75051392361</v>
+      </c>
+    </row>
+    <row r="149" xml:space="preserve">
+      <c r="A149" t="str">
+        <v>Victor Alejandro</v>
+      </c>
+      <c r="B149" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C149" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/1/2024, 7:04:41 - Victor Alejandro: ¡Hola! Me gustaría conseguir más información sobre esto.
+27/1/2024, 7:04:41 - MegaBot: ¡Hola Victor Alejandro! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D149" t="str">
+        <v>65b4d48383c67f0008261942</v>
+      </c>
+      <c r="E149" s="1">
+        <v>45318.29436807871</v>
+      </c>
+    </row>
+    <row r="150" xml:space="preserve">
+      <c r="A150" t="str">
+        <v>Rodolfo Atilio Ibarra</v>
+      </c>
+      <c r="B150" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C150" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/1/2024, 8:49:09 - Rodolfo Atilio Ibarra: ¡Hola! Quiero más información.precio de la cuota y requisitos
+27/1/2024, 8:49:09 - MegaBot: ¡Hola Rodolfo Atilio Ibarra! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D150" t="str">
+        <v>65b4edb2c4fce50008fc2968</v>
+      </c>
+      <c r="E150" s="1">
+        <v>45318.366916956016</v>
+      </c>
+    </row>
+    <row r="151" xml:space="preserve">
+      <c r="A151" t="str">
+        <v>Lucho</v>
+      </c>
+      <c r="B151" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C151" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/1/2024, 9:28:39 - Lucho: ¡Hola! Quiero más información.
+27/1/2024, 9:28:39 - MegaBot: ¡Hola Lucho! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D151" t="str">
+        <v>65b4f6f4421edf0008b2a72b</v>
+      </c>
+      <c r="E151" s="1">
+        <v>45318.39434719907</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E131"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E151"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +477,8 @@
 - Motomel BLITZ 110 V8 START: $8930.13
 ¿Te gustaría más detalles sobre alguno de estos modelos? Además, necesitaríamos saber tu ubicación y el método de pago que prefieres 【8†fuente】.
 26/1/2024, 18:00:15 - Vendedor Megamoto:  Por el momento con ese dni sale rechazado. No me dice el motivo exacto. Pueden ser varios motivos, como bajo puntaje crediticio, que estés pagando alguna cuota, la antigüedad laboral,etc..
-Pero podemos probar con otra persona, tenés algún familiar o amigo que quiera ser tu garante?, de ser asi pasame tambien numero de dni, nombre  y nos fijamos si le otorgan</v>
+Pero podemos probar con otra persona, tenés algún familiar o amigo que quiera ser tu garante?, de ser asi pasame tambien numero de dni, nombre  y nos fijamos si le otorgan
+27/1/2024, 11:34:49 - Vendedor Megamoto: claro, al ya tener un credito no tenes cupo para otro. . asi que bueno habria que ver con un garante</v>
       </c>
       <c r="D4" t="str">
         <v>65ae6f2957781c00084b5b3a</v>
@@ -800,7 +801,9 @@
 Podría enviar el número del dni para un garante..
 24/1/2024, 10:10:58 - MegaBot: Lo siento, pero como Asistente Virtual de Megamoto, mi función es proporcionar información y asistencia sobre motocicletas y bicicletas. Si necesitas ayuda con otras consultas, te recomendaría contactar directamente a Megamoto o a la persona o entidad correspondiente para obtener la asistencia adecuada.
 24/1/2024, 10:19:06 - 🫡😊😌⛹️: 40.242.480
-24/1/2024, 10:19:07 - MegaBot: Entiendo, ¿tienes alguna consulta relacionada con las motocicletas de Megamoto o bicicletas en las que pueda ayudarte?</v>
+24/1/2024, 10:19:07 - MegaBot: Entiendo, ¿tienes alguna consulta relacionada con las motocicletas de Megamoto o bicicletas en las que pueda ayudarte?
+27/1/2024, 11:50:38 - Nahuel Ezequiel: Hoola
+27/1/2024, 11:50:39 - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy? ¿Tienes alguna pregunta sobre las motocicletas o bicicletas de Megamoto?</v>
       </c>
       <c r="D19" t="str">
         <v>65ae9b8595eda500081d1fed</v>
@@ -1218,7 +1221,9 @@
 27/1/2024, 7:04:10 - Patricia Ceballos: Hola algún número para poder llamarte
 27/1/2024, 7:04:11 - MegaBot: Lamentablemente, no puedo recibir llamadas directas ya que soy un asistente virtual. Sin embargo, si proporcionas tu número de teléfono, correo electrónico o WhatsApp, un representante de Megamoto se pondrá en contacto contigo para brindarte la asistencia que necesitas.
 27/1/2024, 10:09:32 - Brian Vazquez: Buen día!
-27/1/2024, 10:09:33 - MegaBot: ¡Buen día! ¿En qué puedo ayudarte hoy?</v>
+27/1/2024, 10:09:33 - MegaBot: ¡Buen día! ¿En qué puedo ayudarte hoy?
+27/1/2024, 10:09:37 - Brian Vazquez: Buen día!
+27/1/2024, 10:09:37 - MegaBot: ¡Buen día! ¿En qué puedo ayudarte hoy?</v>
       </c>
       <c r="D38" t="str">
         <v>no phone</v>
@@ -3584,9 +3589,180 @@
         <v>45318.39434719907</v>
       </c>
     </row>
+    <row r="152" xml:space="preserve">
+      <c r="A152" t="str">
+        <v>Melisa Belén Aragon</v>
+      </c>
+      <c r="B152" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C152" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/1/2024, 11:16:13 - Melisa Belén Aragon: ¡Hola! Podrías darme más información de... La Motomel , cuántos sería las cuotas con tarjeta d crédito banco provincia
+27/1/2024, 11:16:14 - MegaBot: ¡Hola Melisa Belén Aragon! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D152" t="str">
+        <v>65b5102b50030f0008523c54</v>
+      </c>
+      <c r="E152" s="1">
+        <v>45318.46904916667</v>
+      </c>
+    </row>
+    <row r="153" xml:space="preserve">
+      <c r="A153" t="str">
+        <v>⚪🔴⚪</v>
+      </c>
+      <c r="B153" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C153" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/1/2024, 11:22:15 - ⚪🔴⚪: Hola buen día financiada
+27/1/2024, 11:22:16 - MegaBot: ¡Hola ⚪🔴⚪! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+27/1/2024, 11:42:01 - Vendedor Megamoto: Te paso los requisitos para el prestamo personal:
+-tener algo en blanco: recibo de sueldo, monotributo, jubilacion, pension.
+-Edad apartir de 21 años
+-no tener deudas,ni estar en veraz
+pasame tu numero de dni  y nombre y apellido y verifico por sistema cuanto te otorgan y en cuantas cuotas 
+y si es de alguien que te sale de garante  tambien dni y nombre-(tiene que cumplir con los requisitos arriba mencionados)</v>
+      </c>
+      <c r="D153" t="str">
+        <v>65ad67efc6237800089aa409</v>
+      </c>
+      <c r="E153" s="1">
+        <v>45318.47323924769</v>
+      </c>
+    </row>
+    <row r="154" xml:space="preserve">
+      <c r="A154" t="str">
+        <v>Cristian Bertarini</v>
+      </c>
+      <c r="B154" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C154" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/1/2024, 11:27:08 - Cristian Bertarini: ¡Hola! Quiero más información.de otras cilindrada
+27/1/2024, 11:27:09 - MegaBot: ¡Hola Cristian Bertarini! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D154" t="str">
+        <v>65b512ba4df1010008640a5a</v>
+      </c>
+      <c r="E154" s="1">
+        <v>45318.47662930556</v>
+      </c>
+    </row>
+    <row r="155" xml:space="preserve">
+      <c r="A155" t="str">
+        <v>Zulma</v>
+      </c>
+      <c r="B155" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C155" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/1/2024, 11:28:57 - Zulma: ¡Hola! Podrías darme más información por favor
+27/1/2024, 11:28:57 - MegaBot: ¡Hola Zulma! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D155" t="str">
+        <v>65b51326fa5f4e00085fc80b</v>
+      </c>
+      <c r="E155" s="1">
+        <v>45318.47788290509</v>
+      </c>
+    </row>
+    <row r="156" xml:space="preserve">
+      <c r="A156" t="str">
+        <v>Acupado</v>
+      </c>
+      <c r="B156" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C156" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/1/2024, 11:37:36 - Acupado: Motomel 150 x treme
+27/1/2024, 11:37:36 - MegaBot: ¡Hola Acupado! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+27/1/2024, 11:39:22 - Vendedor Megamoto: en que localidad tenes domicilio? asi te paso precio con patentamiento
+27/1/2024, 11:41:42 - Acupado: En Laferrere
+27/1/2024, 11:41:43 - MegaBot: ¡Perfecto! Según la base de conocimiento de Megamoto, necesitaré el "archivo de Lista de Precios último vigente" para poder proporcionarte los precios de las motos. Según las instrucciones, este archivo contiene tres precios para cada moto: el precio de contado sin patentar, el precio con patentamiento en provincia de Buenos Aires, y el precio con patentamiento en Capital Federal【11†fuente】. Por favor, indícame qué modelo de moto estás buscando para que pueda consultarlo.</v>
+      </c>
+      <c r="D156" t="str">
+        <v>65ad3628836c2900094914a6</v>
+      </c>
+      <c r="E156" s="1">
+        <v>45318.483892881944</v>
+      </c>
+    </row>
+    <row r="157" xml:space="preserve">
+      <c r="A157" t="str">
+        <v>Bore</v>
+      </c>
+      <c r="B157" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C157" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/1/2024, 11:49:44 - Bore: Hola dale 2975206398
+27/1/2024, 11:49:44 - MegaBot: ¡Hola Bore! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D157" t="str">
+        <v>65b0578b3a79f80008d4e9ed</v>
+      </c>
+      <c r="E157" s="1">
+        <v>45318.49231783565</v>
+      </c>
+    </row>
+    <row r="158" xml:space="preserve">
+      <c r="A158" t="str">
+        <v>Taina🦋</v>
+      </c>
+      <c r="B158" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C158" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/1/2024, 12:08:36 - Taina🦋: ¡Hola! Podrías darme más información de...
+27/1/2024, 12:08:36 - MegaBot: ¡Hola Taina🦋! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D158" t="str">
+        <v>65b51c71c5d6ea0009cda90f</v>
+      </c>
+      <c r="E158" s="1">
+        <v>45318.50542210648</v>
+      </c>
+    </row>
+    <row r="159" xml:space="preserve">
+      <c r="A159" t="str">
+        <v>Christian😶‍🌫🤑</v>
+      </c>
+      <c r="B159" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C159" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/1/2024, 12:13:11 - Christian😶‍🌫🤑: ¡Hola! Me gustaría conseguir más información sobre esto.
+27/1/2024, 12:13:11 - MegaBot: ¡Hola Christian😶‍🌫🤑! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D159" t="str">
+        <v>65b51d84f8f26b00081e97e4</v>
+      </c>
+      <c r="E159" s="1">
+        <v>45318.508600925925</v>
+      </c>
+    </row>
+    <row r="160" xml:space="preserve">
+      <c r="A160" t="str">
+        <v>Andres</v>
+      </c>
+      <c r="B160" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C160" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/1/2024, 12:39:36 - Andres: No gracias igual te agradezco
+27/1/2024, 12:39:37 - MegaBot: ¡Hola Andres! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D160" t="str">
+        <v>65b042afd7ac440008081852</v>
+      </c>
+      <c r="E160" s="1">
+        <v>45318.5269555787</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E151"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E160"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +603,15 @@
 29/1/2024, 18:09:30 - Agustin Dario: Quería saber el precio de la motomel dlx 110 patentada
 29/1/2024, 18:09:31 - MegaBot: Lamento informarte que no pude acceder a la información sobre el precio de la Motomel DLX 110. ¿Deseas consultar por otro modelo de motocicleta o hay algo más en lo que pueda ayudarte?
 29/1/2024, 18:09:37 - Agustin Dario: Quería saber el precio de la motomel dlx 110 patentada
-29/1/2024, 18:09:37 - MegaBot: El precio de la Motomel DLX 110 patentada es de $936.116 pesos argentinos. ¿En qué ubicación te encuentras? También necesitaré tus datos de contacto y el método de pago que prefieras para continuar con la compra.</v>
+29/1/2024, 18:09:37 - MegaBot: El precio de la Motomel DLX 110 patentada es de $936.116 pesos argentinos. ¿En qué ubicación te encuentras? También necesitaré tus datos de contacto y el método de pago que prefieras para continuar con la compra.
+30/1/2024, 10:11:11 - 𝒮ℴ𝒻𝒾: Hola, cómo estás? Me interesa financiarla, cuánto es el mínimo anticipo?
+30/1/2024, 10:11:12 - MegaBot: La financiación puede ser de hasta 60 cuotas para préstamos prendarios o 30 cuotas para préstamos personales. El anticipo puede financiarse en un 100% si la tarjeta o entidad prestadora lo permite【22†source】.
+30/1/2024, 10:11:27 - 𝒮ℴ𝒻𝒾: Hola, cómo estás? Me interesa financiarla, cuánto es el mínimo anticipo?
+30/1/2024, 10:11:27 - MegaBot: El anticipo mínimo y la financiación relacionada con la Motomel DLX 110 no están especificados en los documentos proporcionados. Te recomendaría comunicarte directamente con un vendedor de Megamoto para obtener esa información específica. ¿Puedo asistirte con algo más en este momento?
+30/1/2024, 10:16:23 - Lucas Velazquez: No tengo recibo de sueldo, ni Targeta de crédito.. puedo pagar por día hasta llegar a la totalidad
+30/1/2024, 10:16:23 - MegaBot: Lamentablemente, en Megamoto no contamos con un plan de financiamiento diario. Sin embargo, podrías explorar otras opciones como el ahorro periódico o consultar en otras concesionarias que ofrezcan ese tipo de financiamiento. ¿Puedo ayudarte en algo más?
+30/1/2024, 10:16:27 - Lucas Velazquez: No tengo recibo de sueldo, ni Targeta de crédito.. puedo pagar por día hasta llegar a la totalidad
+30/1/2024, 10:16:27 - MegaBot: Entiendo. Lamentablemente, en Megamoto no contamos con un plan de financiamiento diario. Sin embargo, podrías explorar otras opciones como el ahorro periódico o consultar en otras concesionarias que ofrezcan ese tipo de financiamiento. ¿Hay algo más en lo que pueda asistirte?</v>
       </c>
       <c r="D11" t="str">
         <v>no phone</v>
@@ -702,9 +710,1083 @@
         <v>45320.79239202546</v>
       </c>
     </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>Fico😎</v>
+      </c>
+      <c r="B17" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 9:09:20 - Fico😎: Buenos días 
+Consulta
+Para un presupuesto x siniestro❓
+30/1/2024, 9:09:20 - MegaBot: ¡Hola Fico😎! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D17" t="str">
+        <v>65b8e6ec9ea9ee0008d0d533</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45321.38093128472</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>•liidia😏👑</v>
+      </c>
+      <c r="B18" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 9:11:43 - •liidia😏👑: ¡Hola! Podrías darme más información de...
+30/1/2024, 9:11:43 - MegaBot: ¡Hola •liidia😏👑! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+30/1/2024, 10:19:18 - Vendedor Megamoto: Hola buen día, me decís qué modelo de moto estás interesado? y dónde tienes domicilio así te pasó precio de contado con patentamiento </v>
+      </c>
+      <c r="D18" t="str">
+        <v>65b8e77c26138d0008e5fa8c</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45321.382585162035</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>Guillermo Lopez</v>
+      </c>
+      <c r="B19" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 9:35:56 - Guillermo Lopez: ¡Hola! Podrías darme más información de...
+30/1/2024, 9:35:57 - MegaBot: ¡Hola Guillermo Lopez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+30/1/2024, 9:38:17 - Guillermo Lopez: Hola buenos días. De cuánto serían las cuotas dejando 200 de anticipo
+30/1/2024, 9:38:18 - MegaBot: Con un anticipo de $200, las cuotas para las motos varían según el modelo. Podrías indicarme el modelo en el que estás interesado para brindarte un cálculo más preciso?</v>
+      </c>
+      <c r="D19" t="str">
+        <v>6468e68246a3010008262b16</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45321.39940980324</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>Brian ✌🏼</v>
+      </c>
+      <c r="B20" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 10:19:01 - Brian ✌🏼: ¡Hola! Podrías darme más información de...
+30/1/2024, 10:19:02 - MegaBot: ¡Hola Brian ✌🏼! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D20" t="str">
+        <v>65b8f742ebdd80000847d66d</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45321.42932798611</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>Manu</v>
+      </c>
+      <c r="B21" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 10:21:50 - Manu: Hola, tengo algunas preguntas sobre Motomel S2 Cg 150 Full Nueva - Nuevo Ingreso 2023. https://moto.mercadolibre.com.ar/MLA-1518183694-motomel-s2-cg-150-full-nueva-nuevo-ingreso-2023-_JM?u=MjcwMjQ0NzQ5
+30/1/2024, 10:21:50 - MegaBot: ¡Hola Manu! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D21" t="str">
+        <v>61d5edcbe8d07e0008901e17</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45321.43127400463</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>Juan Pablo</v>
+      </c>
+      <c r="B22" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 10:24:37 - Juan Pablo: ¡Hola! Quiero más información.
+30/1/2024, 10:24:37 - MegaBot: ¡Hola Juan Pablo! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D22" t="str">
+        <v>65b8f890c824360008a67be0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45321.43321112268</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>Hernan Gimenez</v>
+      </c>
+      <c r="B23" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 10:25:33 - Hernan Gimenez: Quisiera saber el precio de la 110 tunning y la Rouser 125
+30/1/2024, 10:25:33 - MegaBot: ¡Hola Hernan Gimenez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D23" t="str">
+        <v>65b87ae644474a00082437d8</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45321.43386344907</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>Dani</v>
+      </c>
+      <c r="B24" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 10:26:06 - Dani: Soy de posadas mnes. Una Rowser 200 o una fz
+30/1/2024, 10:26:06 - MegaBot: ¡Hola Dani! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D24" t="str">
+        <v>65b89c6ffb199c00083c9931</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45321.43424033565</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>Daniel🚗🛞</v>
+      </c>
+      <c r="B25" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 10:27:22 - Daniel🚗🛞: Zona oste tablada
+30/1/2024, 10:27:22 - MegaBot: ¡Hola Daniel🚗🛞! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+30/1/2024, 10:27:40 - Daniel🚗🛞: Busco 110 de contado
+30/1/2024, 10:27:40 - MegaBot: ¡Entendido! Aquí tienes algunas opciones de motos disponibles para compra al contado dentro de tu rango de interés:
+1. Max 110 A/E: $1.153.950
+2. DLX 110 DELUXE: $936.116
+3. Blitz 110 V8 START: $890.540
+4. Blitz 110 V8 BASE ONE - B1 Automatica: $1.000.950
+5. Blitz 110 V8 PLUS: $1.151.150
+Por favor, proporciona tu domicilio, datos de contacto y método de pago preferido para continuar con la compra.
+30/1/2024, 10:27:46 - Daniel🚗🛞: Modelos y precios
+30/1/2024, 10:27:46 - MegaBot: Los modelos disponibles dentro de tu rango de interés son:
+1. Max 110 A/E: $1.153.950
+2. DLX 110 DELUXE: $936.116
+3. Blitz 110 V8 START: $890.540
+4. Blitz 110 V8 BASE ONE - B1 Automatica: $1.000.950
+5. Blitz 110 V8 PLUS: $1.151.150
+Proporciona tu domicilio, datos de contacto y método de pago preferido para continuar con la compra.
+30/1/2024, 10:27:55 - Daniel🚗🛞: En efectivo
+30/1/2024, 10:27:55 - MegaBot: Perfecto, ¿podrías proporcionarme tu domicilio y un número de contacto (WhatsApp, teléfono o correo electrónico) para completar la compra?
+30/1/2024, 11:30:10 - Vendedor Megamoto: Te puedo ofrecer la blitz 110 base promo de contado $956.000
+DLX 110 promo de contado $1, 002.400
+Blitz plus promo de contado $1,221,300 
+Conoces los modelos? Te puedo pasar foto.
+30/1/2024, 11:43:59 - Daniel🚗🛞: Fotos
+30/1/2024, 11:43:59 - MegaBot: Aquí tienes los modelos y precios que mencionó el vendedor:
+- Blitz 110 base promo de contado: $956.000
+- DLX 110 promo de contado: $1.002.400
+- Blitz plus promo de contado: $1.221.300【19†source】【27†source】【33†source】
+Por favor, proporciona tu domicilio y un número de contacto para coordinar la compra. ¡Gracias!
+30/1/2024, 11:44:19 - Daniel🚗🛞: Incluye petentaminto
+30/1/2024, 11:44:19 - MegaBot: Disculpa la confusión. Según la información proporcionada, los precios que mencionó el vendedor ya incluyen el patentamiento. Los precios son los siguientes:
+- Blitz 110 base promo de contado: $956.000
+- DLX 110 promo de contado: $1.002.400
+- Blitz plus promo de contado: $1.221.300【18†source】【22†source】【25†source】【33†source】
+Si deseas alguna foto adicional, podrías solicitarla al vendedor. ¿Hay algo más en lo que pueda ayudarte?</v>
+      </c>
+      <c r="D25" t="str">
+        <v>65b843e8144119000826f5b9</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45321.43511579861</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>Marii Julieta💋</v>
+      </c>
+      <c r="B26" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 10:27:22 - Marii Julieta💋: Cómo estás ?
+30/1/2024, 10:27:22 - MegaBot: ¡Hola Marii Julieta💋! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+30/1/2024, 10:27:45 - Marii Julieta💋: La Motomel skaua 150
+30/1/2024, 10:27:45 - MegaBot: ¡Hola Marii Julieta! La Motomel Skua 150 tiene un precio de contado sin patentar de $227,500, con patentamiento en provincia de Buenos Aires de $258,100, y con patentamiento en Capital Federal de $259,100. ¿En qué sucursal te gustaría realizar la compra?
+30/1/2024, 11:30:49 - Vendedor Megamoto: Hola como estás? Me decís dónde tienes domicilio así te pasó precio de contado?</v>
+      </c>
+      <c r="D26" t="str">
+        <v>65b84b6096999f0008e19946</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45321.435121863426</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>Salva</v>
+      </c>
+      <c r="B27" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 10:33:22 - Salva: Hola que tal, quería saber el precio de la motos, los.medios de pago y si toman usadas
+30/1/2024, 10:33:22 - MegaBot: ¡Hola Salva! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D27" t="str">
+        <v>65b8fa9edf191800083abd09</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45321.43928719907</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>Gonza</v>
+      </c>
+      <c r="B28" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 10:37:37 - Gonza: ¡Hola! Podrías darme más información de...
+30/1/2024, 10:37:37 - MegaBot: ¡Hola Gonza! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D28" t="str">
+        <v>65b8fb9d1a4ffb0008f4ab72</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45321.44223775463</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>Franco Dorigo</v>
+      </c>
+      <c r="B29" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 10:47:51 - Franco Dorigo: ¡Hola! Podrías darme más información de...
+30/1/2024, 10:47:51 - MegaBot: ¡Hola Franco Dorigo! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D29" t="str">
+        <v>65b8fe04d39acf0009f74707</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45321.44934767361</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>Ale</v>
+      </c>
+      <c r="B30" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 11:17:13 - Ale: ¡Hola! Quiero más información.
+30/1/2024, 11:17:13 - MegaBot: ¡Hola Ale! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D30" t="str">
+        <v>65b904e630760000085446ec</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45321.46974252315</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>Alicia</v>
+      </c>
+      <c r="B31" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C31" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 12:11:27 - Alicia: Hola queria saber una 110 en cuota
+30/1/2024, 12:11:27 - MegaBot: ¡Hola Alicia! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+30/1/2024, 15:25:57 - Alicia: ¡Hola! Me gustaría conseguir más información sobre esto.
+30/1/2024, 15:25:57 - MegaBot: De la lista de motos disponibles, ¿tienes alguna preferencia de modelo? Además, ¿podrías proporcionar tu ubicación, datos de contacto y método de pago preferido?</v>
+      </c>
+      <c r="D31" t="str">
+        <v>65b888fd4ebbca0008167d62</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45321.50739864583</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>Tobi😛</v>
+      </c>
+      <c r="B32" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C32" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 12:11:27 - Tobi😛: Hola que tal buenos días
+30/1/2024, 12:11:27 - MegaBot: ¡Hola Tobi😛! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+30/1/2024, 12:11:50 - Tobi😛: Quería averiguar el precio y los modelos de 110
+30/1/2024, 12:11:50 - MegaBot: El modelo "BLITZ 110 V8 START" tiene un precio al contado sin patentamiento de $890,540. Además, el modelo "DLX 110 DELUXE" tiene un precio de $936,116【2†source】.</v>
+      </c>
+      <c r="D32" t="str">
+        <v>65b9119c162811000856876e</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45321.507400856484</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>Angeles</v>
+      </c>
+      <c r="B33" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 12:17:49 - Angeles: ¡Hola! Quiero más información.
+30/1/2024, 12:17:49 - MegaBot: ¡Hola Angeles! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D33" t="str">
+        <v>65b9131aadd3530008752166</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45321.511820520835</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>Cristian Bertarini</v>
+      </c>
+      <c r="B34" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C34" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 12:21:34 - Cristian Bertarini: Información
+30/1/2024, 12:21:34 - MegaBot: ¡Hola Cristian Bertarini! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D34" t="str">
+        <v>65b512ba4df1010008640a5a</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45321.51442537037</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v>Mis Hijos Mi Vida🥰🥰🥰🥰🥰</v>
+      </c>
+      <c r="B35" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C35" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 12:40:28 - Mis Hijos Mi Vida🥰🥰🥰🥰🥰: ¡Hola! Podrías darme más información de...
+30/1/2024, 12:40:28 - MegaBot: ¡Hola Mis Hijos Mi Vida🥰🥰🥰🥰🥰! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+30/1/2024, 17:04:24 - Mis Hijos Mi Vida🥰🥰🥰🥰🥰: ¡Hola! Podrías darme más información de...
+30/1/2024, 17:04:24 - MegaBot: Lamentablemente, no pude encontrar información adicional sobre las motos en el primer archivo. A continuación, puedo ayudarte con el modelo de moto que estás buscando, tu ubicación y tu método de pago preferido.</v>
+      </c>
+      <c r="D35" t="str">
+        <v>65b91868ea7b8100082cc704</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45321.52754787037</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>Yoel</v>
+      </c>
+      <c r="B36" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C36" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 12:44:32 - Yoel: ¡Hola! Podrías darme más información de la financiación de motos
+30/1/2024, 12:44:32 - MegaBot: ¡Hola Yoel! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D36" t="str">
+        <v>65b9195d5e4859000882cc93</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45321.53037402778</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v>Victoria Verdi</v>
+      </c>
+      <c r="B37" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C37" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 12:53:48 - Victoria Verdi: Hola
+30/1/2024, 12:53:48 - MegaBot: ¡Hola Victoria Verdi! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D37" t="str">
+        <v>65b441ccf8991600085c76c1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45321.53681002315</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>Gustavo Cardozog</v>
+      </c>
+      <c r="B38" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C38" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 13:28:20 - Gustavo Cardozog: ¡Hola! Quiero más información.
+30/1/2024, 13:28:21 - MegaBot: ¡Hola Gustavo Cardozog! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D38" t="str">
+        <v>65b923a182af7a0009b22283</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45321.560797962964</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>Fede</v>
+      </c>
+      <c r="B39" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C39" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 14:17:36 - Fede: ¡Hola! Podrías darme más información de...
+30/1/2024, 14:17:36 - MegaBot: ¡Hola Fede! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D39" t="str">
+        <v>65b92f2c0ee5fc0008dd5e94</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45321.59500243056</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>Jorge Abuin</v>
+      </c>
+      <c r="B40" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 14:22:03 - Jorge Abuin: ¡Hola! Quiero más información.me interesa
+30/1/2024, 14:22:03 - MegaBot: ¡Hola Jorge Abuin! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+30/1/2024, 14:37:41 - Jorge Abuin: ¡Hola! Quiero más información.es enduro?
+30/1/2024, 14:37:41 - MegaBot: Megamoto ofrece motos de la marca Benelli, que incluye modelos de motos enduro. Si estás interesado en un modelo específico, por favor indícame para poder proporcionarte la información correspondiente. Además, necesitaría conocer tu ubicación y método de pago preferido.</v>
+      </c>
+      <c r="D40" t="str">
+        <v>65b9303739c58c0008aaf602</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45321.59809380787</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>Daniel</v>
+      </c>
+      <c r="B41" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 14:23:18 - Daniel: ¡Hola! Podrías darme más información de...
+30/1/2024, 14:23:18 - MegaBot: ¡Hola Daniel! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D41" t="str">
+        <v>65b93082a4d3c60008a0ac26</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45321.598963923614</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>Ivan</v>
+      </c>
+      <c r="B42" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C42" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 14:26:59 - Ivan: ¡Hola! Podrías darme más información de...
+30/1/2024, 14:26:59 - MegaBot: ¡Hola Ivan! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D42" t="str">
+        <v>65b931605cd2060008b63cb5</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45321.60152315972</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
+        <v>Dario Alderete</v>
+      </c>
+      <c r="B43" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 14:33:43 - Dario Alderete: ¡Hola! Podrías darme más información de...
+30/1/2024, 14:33:43 - MegaBot: ¡Hola Dario Alderete! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D43" t="str">
+        <v>65b932f3f9bf310008df8a8e</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45321.60619517361</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
+        <v>😎</v>
+      </c>
+      <c r="B44" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C44" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 14:37:29 - 😎: Hola
+30/1/2024, 14:37:29 - MegaBot: ¡Hola 😎! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+30/1/2024, 14:38:25 - 😎: Queria saver q motos son las de 12 cuotas sin interes
+30/1/2024, 14:38:25 - MegaBot: Las motos que se pueden adquirir en 12 cuotas sin interés, según el catálogo de precios, son: 
+- STRATO 150 ALPINO
+- STRATO 150 EURO
+- SIRIUS 190 NUEVO PRODUCTO
+- SKUA 150 SILVER EDITION
+- SKUA 250 BASE NEW
+- XMM 250 NUEVA
+- DLX 110 DELUXE
+- BLITZ 110 V8 START
+- BLITZ 110 V8 BASE ONE - B1 Automatica - NEW
+- BLITZ 110 V8 PLUS
+- BLITZ 110 V8 FULL ONE - B1 - ALEACION DISCO - NEW
+- BLITZ 110 V8 TUNNING NEW
+- CITYCOM 300 i
+- TNT 15
+- TNT 600i ABS nueva
+Estos modelos están disponibles para su compra en 12 cuotas sin interés. ¿Te interesa alguno en particular? ¿Tienes alguna otra consulta?
+30/1/2024, 16:19:37 - 😎: ¡Hola! Quiero más información.
+30/1/2024, 16:19:37 - MegaBot: Claro, ¿qué modelo de moto te interesa? Además, necesitaré tu domicilio, datos de contacto (por ejemplo, WhatsApp, número de teléfono o correo electrónico) y el método de pago preferido para la compra.</v>
+      </c>
+      <c r="D44" t="str">
+        <v>65aeed9c37310d00085018dd</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45321.60881349537</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>🇦🇷 Felicidad &amp; Libertad 🇦🇷</v>
+      </c>
+      <c r="B45" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C45" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 14:45:35 - 🇦🇷 Felicidad &amp; Libertad 🇦🇷: ¡Hola! Quiero más información.
+30/1/2024, 14:45:35 - MegaBot: ¡Hola 🇦🇷 Felicidad &amp; Libertad 🇦🇷! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D45" t="str">
+        <v>65b935bc9227880008568390</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45321.61444096065</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>Santiago Jimenez</v>
+      </c>
+      <c r="B46" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C46" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 14:47:16 - Santiago Jimenez: ¡Hola! Podrías darme más información de...
+30/1/2024, 14:47:17 - MegaBot: ¡Hola Santiago Jimenez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D46" t="str">
+        <v>65b936211df1e90008a9dfea</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45321.61561170139</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="B47" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C47" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 14:49:12 - Juan: ¡Hola! Podrías darme más información de...
+30/1/2024, 14:49:12 - MegaBot: ¡Hola Juan! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+30/1/2024, 14:49:26 - Juan: Buenas tardes.
+30/1/2024, 14:49:26 - MegaBot: Lamentablemente, no puedo acceder al contenido de los archivos que has subido. ¿Podrías proporcionar alguna información adicional sobre la moto que estás buscando, tu ubicación y método de pago preferido? Gracias.
+30/1/2024, 14:49:35 - Juan: Quisiera información sobre como poder financiar una moto.
+30/1/2024, 14:49:35 - MegaBot: Para obtener información detallada sobre el financiamiento de una moto, te recomendaría contactar directamente a Megamoto a través de su sitio web o visitando una de sus sucursales. Ellos podrán proporcionarte asesoramiento personalizado sobre las opciones de financiamiento disponibles.</v>
+      </c>
+      <c r="D47" t="str">
+        <v>65b936946656390008f341dd</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45321.61694954861</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="A48" t="str">
+        <v>Anna</v>
+      </c>
+      <c r="B48" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C48" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 14:57:13 - Anna: ¡Hola! Quiero más información.
+30/1/2024, 14:57:13 - MegaBot: ¡Hola Anna! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D48" t="str">
+        <v>65b93876959cb100088aadad</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45321.622519606484</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str">
+        <v>Solo Importas Tu🫵🏻</v>
+      </c>
+      <c r="B49" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C49" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 15:09:58 - Solo Importas Tu🫵🏻: ¡Hola! Quiero más información.
+30/1/2024, 15:09:58 - MegaBot: ¡Hola Solo Importas Tu🫵🏻! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D49" t="str">
+        <v>65b93b72858fce0008fea538</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45321.63136966435</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str">
+        <v>Aldo🦁</v>
+      </c>
+      <c r="B50" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C50" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 15:10:33 - Aldo🦁: ¡Hola! Quiero más información.
+30/1/2024, 15:10:33 - MegaBot: ¡Hola Aldo🦁! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D50" t="str">
+        <v>65b93b95bcafb200085f50bc</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45321.63177327546</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str">
+        <v>...</v>
+      </c>
+      <c r="B51" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C51" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 15:24:01 - ...: ¡Hola! Quiero más información.
+30/1/2024, 15:24:02 - MegaBot: ¡Hola ...! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D51" t="str">
+        <v>65b93ebd0ba20400087a4cda</v>
+      </c>
+      <c r="E51" s="1">
+        <v>45321.64113334491</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
+      <c r="A52" t="str">
+        <v>Lucia Savone</v>
+      </c>
+      <c r="B52" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C52" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 15:31:13 - Lucia Savone: ¡Hola! Quiero más información.
+30/1/2024, 15:31:14 - MegaBot: ¡Hola Lucia Savone! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D52" t="str">
+        <v>65b9406c9ccd410008fc6c33</v>
+      </c>
+      <c r="E52" s="1">
+        <v>45321.64613346065</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="A53" t="str">
+        <v>Leonardo</v>
+      </c>
+      <c r="B53" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C53" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 15:38:55 - Leonardo: Hola, tengo algunas preguntas sobre Sym Citycom S 300 I Scooter - Financiación! Megamoto!. https://moto.mercadolibre.com.ar/MLA-1518197250-sym-citycom-s-300-i-scooter-financiacion-megamoto-_JM?u=NzU5MDA0MTA3
+30/1/2024, 15:38:55 - MegaBot: ¡Hola Leonardo! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D53" t="str">
+        <v>647e7d2270be6a00087bd714</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45321.651478148146</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="A54" t="str">
+        <v>.</v>
+      </c>
+      <c r="B54" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C54" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 15:42:07 - .: ¡Hola! Me gustaría conseguir más información sobre esto.
+30/1/2024, 15:42:07 - MegaBot: ¡Hola .! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D54" t="str">
+        <v>65b942fbd256e60008c6caf0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45321.65369252315</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="A55" t="str">
+        <v>Alejandro Garcia</v>
+      </c>
+      <c r="B55" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C55" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 15:51:28 - Alejandro Garcia: ¡Hola! Podrías darme más información de...
+30/1/2024, 15:51:28 - MegaBot: ¡Hola Alejandro Garcia! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D55" t="str">
+        <v>6496f9fcc197d500086b3a0e</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45321.6601881713</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="A56" t="str">
+        <v>Matii Abreguuu😗</v>
+      </c>
+      <c r="B56" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C56" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 15:59:59 - Matii Abreguuu😗: ¡Hola! Podrías darme más información de...
+30/1/2024, 15:59:59 - MegaBot: ¡Hola Matii Abreguuu😗! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D56" t="str">
+        <v>65b9472bd0233b00086641a1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45321.666103877316</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="A57" t="str">
+        <v>Gabito</v>
+      </c>
+      <c r="B57" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C57" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 16:14:26 - Gabito: ¡Hola! Podrías darme más información de...
+30/1/2024, 16:14:27 - MegaBot: ¡Hola Gabito! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D57" t="str">
+        <v>65b94a8f3e0f50000831fa90</v>
+      </c>
+      <c r="E57" s="1">
+        <v>45321.6761444213</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="A58" t="str">
+        <v>Paye</v>
+      </c>
+      <c r="B58" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C58" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 16:17:57 - Paye: ¡Hola! Quería comprar una moto 110
+30/1/2024, 16:17:57 - MegaBot: ¡Hola Paye! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D58" t="str">
+        <v>65b94b61f673c60008d99c7f</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45321.67858479167</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
+      <c r="A59" t="str">
+        <v>Brian Riquelme</v>
+      </c>
+      <c r="B59" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C59" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 16:25:53 - Brian Riquelme: ¡Hola! Podrías darme más información de...
+30/1/2024, 16:25:53 - MegaBot: ¡Hola Brian Riquelme! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D59" t="str">
+        <v>65b94d3e45814c00086b437f</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45321.68409357639</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="A60" t="str">
+        <v>Al Toque</v>
+      </c>
+      <c r="B60" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C60" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 16:26:17 - Al Toque: ¡Hola! Quiero más información.
+30/1/2024, 16:26:17 - MegaBot: ¡Hola Al Toque! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D60" t="str">
+        <v>65b94d5545814c00086b4a65</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45321.68436356482</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
+      <c r="A61" t="str">
+        <v>.</v>
+      </c>
+      <c r="B61" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C61" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 16:35:41 - .: ¡Hola! Podrías darme más información de...
+30/1/2024, 16:35:41 - MegaBot: ¡Hola .! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D61" t="str">
+        <v>65b94f896f8ebe00081ab44a</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45321.690895810185</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="A62" t="str">
+        <v>Hand Made Mantenimiento</v>
+      </c>
+      <c r="B62" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C62" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 16:37:16 - Hand Made Mantenimiento: ¡Hola! Quiero más información.
+30/1/2024, 16:37:16 - MegaBot: ¡Hola Hand Made Mantenimiento! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D62" t="str">
+        <v>65b94fe8bc93670008b12601</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45321.69199569445</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="A63" t="str">
+        <v>Silver</v>
+      </c>
+      <c r="B63" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C63" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 16:44:04 - Silver: Vi esto en Facebook...
+30/1/2024, 16:44:04 - MegaBot: ¡Hola Silver! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+30/1/2024, 16:44:28 - Silver: Hola cuanto me sale financiada
+30/1/2024, 16:44:28 - MegaBot: Lamentablemente, parece que no tengo información sobre los planes de financiación en los archivos proporcionados. Sugiero contactar directamente a Megamoto para obtener detalles financieros específicos. ¿En qué modelo estás interesado para poder brindarte el precio de contado?
+30/1/2024, 16:44:45 - Silver: Hola mi nombre es silvestre
+30/1/2024, 16:44:45 - MegaBot: ¡Hola Silvestre! ¿Qué modelo de moto estás buscando, tu ubicación y cómo prefieres realizar el pago?
+30/1/2024, 16:46:05 - Silver: Ando buscando una scooter con cabio sentrifugo de de baja cili drada
+30/1/2024, 16:46:06 - MegaBot: Para una scooter de baja cilindrada, el modelo "SKUA 125 X-TREME" tiene un precio de contado sin patentamiento de acuerdo al archivo proporcionado【18†source】. ¿Puedes indicar tu ubicación y cómo prefieres realizar el pago?</v>
+      </c>
+      <c r="D63" t="str">
+        <v>65b95180fce50d00086596ae</v>
+      </c>
+      <c r="E63" s="1">
+        <v>45321.69672184028</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="A64" t="str">
+        <v>Eze</v>
+      </c>
+      <c r="B64" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C64" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 16:47:15 - Eze: ¡Hola! Podrías darme más información de...
+30/1/2024, 16:47:15 - MegaBot: ¡Hola Eze! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D64" t="str">
+        <v>65b9523f2c1ff500086f13d8</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45321.6989262037</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="A65" t="str">
+        <v>Mauri</v>
+      </c>
+      <c r="B65" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C65" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 16:50:54 - Mauri: ¡Hola! Quiero más información.
+30/1/2024, 16:50:55 - MegaBot: ¡Hola Mauri! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D65" t="str">
+        <v>65b9531b34615c00097cf608</v>
+      </c>
+      <c r="E65" s="1">
+        <v>45321.70146885417</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="B66" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C66" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 16:54:06 - Argentina: ¡Hola! Quiero más información.q precio
+30/1/2024, 16:54:07 - MegaBot: ¡Hola Argentina! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D66" t="str">
+        <v>65b953dba094510008479f84</v>
+      </c>
+      <c r="E66" s="1">
+        <v>45321.70369152778</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="A67" t="str">
+        <v>🅱️raian 1% 🦁</v>
+      </c>
+      <c r="B67" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C67" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 17:02:47 - 🅱️raian 1% 🦁: ¡Hola! Quiero más información.
+30/1/2024, 17:02:47 - MegaBot: ¡Hola 🅱️raian 1% 🦁! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D67" t="str">
+        <v>65b955e325fb360008fea564</v>
+      </c>
+      <c r="E67" s="1">
+        <v>45321.70971361111</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="A68" t="str">
+        <v>.</v>
+      </c>
+      <c r="B68" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C68" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 17:22:28 - .: Hola!
+30/1/2024, 17:22:29 - MegaBot: ¡Hola .! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+30/1/2024, 17:22:56 - .: Te consulto corven triax tienen?
+30/1/2024, 17:22:56 - MegaBot: ¡Hola! Lamentablemente no puedo brindar precios específicos, pero puede comunicarse al WhatsApp 1156202281 para obtener la información sobre el modelo Corven Triax y otros productos disponibles【12†source】.
+30/1/2024, 17:23:04 - .: Precio valor en efectivo me pasas porfavor
+30/1/2024, 17:23:04 - MegaBot: Por normas de Megamoto, no puedo brindar precios específicos. Puede comunicarse al WhatsApp 1156202281 para obtener la información sobre el precio del modelo Corven Triax y otros productos disponibles【18†source】.</v>
+      </c>
+      <c r="D68" t="str">
+        <v>65b95a80841bef000899b8dc</v>
+      </c>
+      <c r="E68" s="1">
+        <v>45321.72339181713</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="A69" t="str">
+        <v>Cuido Tu Mascota</v>
+      </c>
+      <c r="B69" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C69" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 17:22:31 - Cuido Tu Mascota: ¡Hola! Quiero más información.
+30/1/2024, 17:22:31 - MegaBot: ¡Hola Cuido Tu Mascota! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D69" t="str">
+        <v>65b95a834358ef00088f4ab0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>45321.72341896991</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="A70" t="str">
+        <v>Amor Ete Gloria Y Cacho ♥️</v>
+      </c>
+      <c r="B70" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C70" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 17:28:34 - Amor Ete Gloria Y Cacho ♥️: ¡Hola! Quiero más información.
+30/1/2024, 17:28:34 - MegaBot: ¡Hola Amor Ete Gloria Y Cacho ♥️! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D70" t="str">
+        <v>65b95beecd13c70009b16087</v>
+      </c>
+      <c r="E70" s="1">
+        <v>45321.727616550925</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
+      <c r="A71" t="str">
+        <v>Edu⚽</v>
+      </c>
+      <c r="B71" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C71" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 17:30:27 - Edu⚽: ¡Hola! Podrías darme más información de...
+30/1/2024, 17:30:27 - MegaBot: ¡Hola Edu⚽! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D71" t="str">
+        <v>65b95c604a389d0008cf65cc</v>
+      </c>
+      <c r="E71" s="1">
+        <v>45321.728933136576</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E71"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -832,7 +832,17 @@
       </c>
       <c r="C23" t="str" xml:space="preserve">
         <v xml:space="preserve">30/1/2024, 10:25:33 - Hernan Gimenez: Quisiera saber el precio de la 110 tunning y la Rouser 125
-30/1/2024, 10:25:33 - MegaBot: ¡Hola Hernan Gimenez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+30/1/2024, 10:25:33 - MegaBot: ¡Hola Hernan Gimenez! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+31/1/2024, 15:20:33 - Vendedor Megamoto: Hola, Hernan Gimenez buenas tardes me decís dónde tienes domicilio así te paso precio de contado.. Disculpe la demora en responder. Cómo estás?
+31/1/2024, 15:22:22 - Hernan Gimenez: Constitución 2708 barrio san Cristóbal CABA
+31/1/2024, 15:22:22 - MegaBot: Disculpa, Hernan. Parece que hubo un problema al intentar encontrar el precio de contado para la moto "LEONCINO 500". Permíteme buscar la información nuevamente para poder proporcionarte la respuesta precisa.
+31/1/2024, 15:29:54 - Vendedor Megamoto: La blitz 110 tunning promo de contado $1.231.000
+31/1/2024, 15:35:18 - Vendedor Megamoto: Somos concesionaria oficial de Motomel, Benelli, Suzuki. 
+Por el modelo de la Rouser 
+Te puedo ofrecer
+S2 150 full 
+TNT 15 
+Queres que te pase fotos?</v>
       </c>
       <c r="D23" t="str">
         <v>65b87ae644474a00082437d8</v>
@@ -902,7 +912,9 @@
 - Blitz 110 base promo de contado: $956.000
 - DLX 110 promo de contado: $1.002.400
 - Blitz plus promo de contado: $1.221.300【18†source】【22†source】【25†source】【33†source】
-Si deseas alguna foto adicional, podrías solicitarla al vendedor. ¿Hay algo más en lo que pueda ayudarte?</v>
+Si deseas alguna foto adicional, podrías solicitarla al vendedor. ¿Hay algo más en lo que pueda ayudarte?
+31/1/2024, 15:06:38 - Vendedor Megamoto: Hola, Daniel buenas tardes, te voy a pasar foto de mí WhatsApp de ventas 1158460439 mí nombre es Reina 🙋🏻‍♀️ para cualquier consulta que tengas me podes escribir. . Disculpe la demora en responder. Cómo estás?
+31/1/2024, 15:18:50 - Vendedor Megamoto: Hola, Daniel, te pase las fotos por Whatsapp, los precios que te pase son de contado con patentamiento. . Disculpe la demora en responder. Cómo estás?</v>
       </c>
       <c r="D25" t="str">
         <v>65b843e8144119000826f5b9</v>
@@ -1015,7 +1027,13 @@
         <v xml:space="preserve">30/1/2024, 12:11:27 - Alicia: Hola queria saber una 110 en cuota
 30/1/2024, 12:11:27 - MegaBot: ¡Hola Alicia! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
 30/1/2024, 15:25:57 - Alicia: ¡Hola! Me gustaría conseguir más información sobre esto.
-30/1/2024, 15:25:57 - MegaBot: De la lista de motos disponibles, ¿tienes alguna preferencia de modelo? Además, ¿podrías proporcionar tu ubicación, datos de contacto y método de pago preferido?</v>
+30/1/2024, 15:25:57 - MegaBot: De la lista de motos disponibles, ¿tienes alguna preferencia de modelo? Además, ¿podrías proporcionar tu ubicación, datos de contacto y método de pago preferido?
+31/1/2024, 15:03:03 - Vendedor Megamoto: Hola buenas tardes me decís dónde tienes domicilio así te pasó precio de contado. 
+Vos podes financiar con tarjeta de crédito bancaria o crédito personal, para el crédito personal los requisitos son que tengas recibo de sueldo, jubilación, pensión monotributo y no estar en veraz si quieres me pasas el número de DNI y lo consulto a ver si te otorgan crédito.
+31/1/2024, 16:13:14 - Alicia: Karina Roque
+31/1/2024, 16:13:14 - MegaBot: Lamentablemente, no encontré información sobre Karina Roque en los archivos proporcionados. Si deseas que verifique la disponibilidad de un modelo específico o proporcione detalles de precios, por favor házmelo saber.
+31/1/2024, 17:30:08 - Vendedor Megamoto: Por el momento no te están otorgando crédito personal, vos tenés recibos de sueldo?
+Si tienes alguna persona de confianza que te sirva de garante que cumpla con los requisitos me puedes pasar el número de DNI y lo consulto a ver si le otorgan crédito de igual la moto sale a tu nombre </v>
       </c>
       <c r="D31" t="str">
         <v>65b888fd4ebbca0008167d62</v>
@@ -1127,7 +1145,9 @@
       </c>
       <c r="C37" t="str" xml:space="preserve">
         <v xml:space="preserve">30/1/2024, 12:53:48 - Victoria Verdi: Hola
-30/1/2024, 12:53:48 - MegaBot: ¡Hola Victoria Verdi! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+30/1/2024, 12:53:48 - MegaBot: ¡Hola Victoria Verdi! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+30/1/2024, 18:50:27 - Victoria Verdi: ???
+30/1/2024, 18:50:27 - MegaBot: ¡Hola! Soy MegaBot, un Asistente Virtual de Megamoto. ¿Qué modelo de moto estás buscando? ¿Desde qué ubicación nos contactas y cuál es tu método de pago preferido?</v>
       </c>
       <c r="D37" t="str">
         <v>65b441ccf8991600085c76c1</v>
@@ -1333,7 +1353,9 @@
 30/1/2024, 14:49:26 - Juan: Buenas tardes.
 30/1/2024, 14:49:26 - MegaBot: Lamentablemente, no puedo acceder al contenido de los archivos que has subido. ¿Podrías proporcionar alguna información adicional sobre la moto que estás buscando, tu ubicación y método de pago preferido? Gracias.
 30/1/2024, 14:49:35 - Juan: Quisiera información sobre como poder financiar una moto.
-30/1/2024, 14:49:35 - MegaBot: Para obtener información detallada sobre el financiamiento de una moto, te recomendaría contactar directamente a Megamoto a través de su sitio web o visitando una de sus sucursales. Ellos podrán proporcionarte asesoramiento personalizado sobre las opciones de financiamiento disponibles.</v>
+30/1/2024, 14:49:35 - MegaBot: Para obtener información detallada sobre el financiamiento de una moto, te recomendaría contactar directamente a Megamoto a través de su sitio web o visitando una de sus sucursales. Ellos podrán proporcionarte asesoramiento personalizado sobre las opciones de financiamiento disponibles.
+31/1/2024, 15:03:23 - Vendedor Megamoto: Bien te comento: Si buscas financiación puede ser con tarjeta de crédito o crédito personal,  para el segundo caso, los requisitos son: A partir de 21 años, tener recibo de sueldo,  monotributo,  pensión,  jubilación y no estar en veraz (puede ser tuyo o de otra persona que te salga de garante) de igual la moto sale a tu nombre,en ese caso me pasas en nro de DNI y así lo verificamos en sistema
+Saludos, Joselin</v>
       </c>
       <c r="D47" t="str">
         <v>65b936946656390008f341dd</v>
@@ -1369,7 +1391,10 @@
       </c>
       <c r="C49" t="str" xml:space="preserve">
         <v xml:space="preserve">30/1/2024, 15:09:58 - Solo Importas Tu🫵🏻: ¡Hola! Quiero más información.
-30/1/2024, 15:09:58 - MegaBot: ¡Hola Solo Importas Tu🫵🏻! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+30/1/2024, 15:09:58 - MegaBot: ¡Hola Solo Importas Tu🫵🏻! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+31/1/2024, 15:21:46 - Vendedor Megamoto: Nosotros realizamos envios a todo el pais. 
+Por lo general enviamos por ANDREANI, en ese caso para cotizar tendrias que pasarnos codigo postal para consultar cuanto sale el envio hasta destino con el embalaje
+31/1/2024, 19:03:46 - Vendedor Megamoto: NO POR FAVOR ESTOY A DISPOSICIÓN. SALUDOS</v>
       </c>
       <c r="D49" t="str">
         <v>65b93b72858fce0008fea538</v>
@@ -1405,7 +1430,11 @@
       </c>
       <c r="C51" t="str" xml:space="preserve">
         <v xml:space="preserve">30/1/2024, 15:24:01 - ...: ¡Hola! Quiero más información.
-30/1/2024, 15:24:02 - MegaBot: ¡Hola ...! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+30/1/2024, 15:24:02 - MegaBot: ¡Hola ...! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+31/1/2024, 15:04:47 - Vendedor Megamoto: Comentame que cilindrada estabas buscando asi te puedo asesorar mejor, la mas economica que te puedo ofrecer  es el mod.  BLITZ 110 Base Te sale de contado $956.100 eso incluye patentamiento en Gran Buenos Aires 
+Financiada parte de un precio de lista, podes financiar con tarjeta de crédito o crédito personal.  
+Qué estabas evaluando? Así te asesoro mejor 
+Saludos, Joselin  🙋🏻‍♀️</v>
       </c>
       <c r="D51" t="str">
         <v>65b93ebd0ba20400087a4cda</v>
@@ -1531,7 +1560,15 @@
       </c>
       <c r="C58" t="str" xml:space="preserve">
         <v xml:space="preserve">30/1/2024, 16:17:57 - Paye: ¡Hola! Quería comprar una moto 110
-30/1/2024, 16:17:57 - MegaBot: ¡Hola Paye! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+30/1/2024, 16:17:57 - MegaBot: ¡Hola Paye! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+31/1/2024, 15:03:50 - Vendedor Megamoto: Hola!!! Buenas tardes 
+Tenemos en  stock BLITZ 110 Base Te sale de contado $956.100 eso incluye patentamiento en Gran Buenos Aires 
+Financiada parte de un precio de lista, podes financiar con tarjeta de crédito o crédito personal.  
+Qué estabas evaluando? Así te asesoro mejor 
+Saludos, Joselin  🙋🏻‍♀️
+31/1/2024, 16:01:54 - Vendedor Megamoto: Bien en ese caso tendrias que pasarme tu n° de dni para verificar en el sistema que oferta te da la financiera
+31/1/2024, 16:02:48 - Paye: Dald
+31/1/2024, 16:02:49 - MegaBot: Hola! Parece que hubo un error en tu mensaje. ¿En qué puedo ayudarte hoy con respecto a Megamoto?</v>
       </c>
       <c r="D58" t="str">
         <v>65b94b61f673c60008d99c7f</v>
@@ -1549,7 +1586,17 @@
       </c>
       <c r="C59" t="str" xml:space="preserve">
         <v xml:space="preserve">30/1/2024, 16:25:53 - Brian Riquelme: ¡Hola! Podrías darme más información de...
-30/1/2024, 16:25:53 - MegaBot: ¡Hola Brian Riquelme! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+30/1/2024, 16:25:53 - MegaBot: ¡Hola Brian Riquelme! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.
+31/1/2024, 15:16:00 - Vendedor Megamoto: Hola Brian como estas buenas tardes, disculpa la demora. Te comento nosotros estamos ubicados en AV. CALLE REAL 51 MERLO, a media cuadra del mastil.
+31/1/2024, 15:17:42 - Vendedor Megamoto: En cuanto a tu consulta te paso precio: 
+S2 BASE $1.221.100
+S2 FULL $1.480.700
+SKUA 150 V6 $1.543.000
+Todos los precios son promocion de contando y te incluye gastos de patentamiento en Gran Buenos Aires 
+31/1/2024, 15:18:56 - Vendedor Megamoto: Cual modelo te interesaría y como tenias previsto realizar la compra, asi te asesoro mejor 
+31/1/2024, 15:20:47 - Brian Riquelme: Alcontado la quiero sacar el skua
+31/1/2024, 15:20:47 - MegaBot: Perfecto, gracias por la información. ¿Podrías proporcionarme tu domicilio para calcular los gastos de envío? También, ¿hay algo más en lo que pueda ayudarte con respecto a la compra de la SKUA 150 V6?
+31/1/2024, 16:10:10 - Vendedor Megamoto: a vos estabas buscando tipo ENDURO? Sino hay en Stock disponible la S2 FULL (con tablero digital) y modelo BASE que tiene tablero analogico</v>
       </c>
       <c r="D59" t="str">
         <v>65b94d3e45814c00086b437f</v>
@@ -1784,9 +1831,995 @@
         <v>45321.728933136576</v>
       </c>
     </row>
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str">
+        <v>Adri😎</v>
+      </c>
+      <c r="B72" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C72" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 18:39:26 - Adri😎: Hola buenas tardes tienen alguna moto de un millón y medio.ya patentada
+30/1/2024, 18:39:26 - MegaBot: ¡Hola Adri😎! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D72" t="str">
+        <v>65b96c8b51660e00086251de</v>
+      </c>
+      <c r="E72" s="1">
+        <v>45321.77683268519</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
+      <c r="A73" t="str">
+        <v>Nico Mathieu👑</v>
+      </c>
+      <c r="B73" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C73" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 18:45:38 - Nico Mathieu👑: ¡Hola! Podrías darme más información de...
+30/1/2024, 18:45:38 - MegaBot: ¡Hola Nico Mathieu👑! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, pero para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar.</v>
+      </c>
+      <c r="D73" t="str">
+        <v>65b96e00cf020500087db50d</v>
+      </c>
+      <c r="E73" s="1">
+        <v>45321.781142858796</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
+        <v>Oscar</v>
+      </c>
+      <c r="B74" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C74" t="str" xml:space="preserve">
+        <v xml:space="preserve">30/1/2024, 20:49:52 - Oscar: Skua 125
+30/1/2024, 20:49:53 - MegaBot: ¡Hola Oscar 👋! Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar 😀.</v>
+      </c>
+      <c r="D74" t="str">
+        <v>65ad69c365b47700085d6811</v>
+      </c>
+      <c r="E74" s="1">
+        <v>45321.86742216435</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
+      <c r="A75" t="str">
+        <v>Jesusss Miño</v>
+      </c>
+      <c r="B75" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C75" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 8:59:37 - Jesusss Miño: ¡Hola! Podrías darme más información de...
+31/1/2024, 8:59:38 - MegaBot: ¡Hola Jesusss Miño! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D75" t="str">
+        <v>655d45478006010008782728</v>
+      </c>
+      <c r="E75" s="1">
+        <v>45322.37418181713</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str">
+        <v>Djkevin Dk 🎼</v>
+      </c>
+      <c r="B76" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C76" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 10:04:32 - Djkevin Dk 🎼: ¡Hola! Podrías darme más información de...
+31/1/2024, 10:04:32 - MegaBot: ¡Hola Djkevin Dk 🎼! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀
+31/1/2024, 19:29:42 - Djkevin Dk 🎼: Financiada total tarjeta
+31/1/2024, 19:29:42 - MegaBot: El modelo BLITZ 110 V8 START tiene un precio de contado sin patentamiento de $890,540. Como método de pago, ¿deseas financiarlo totalmente con tarjeta? Recuerda que puedes contactar a un vendedor para más detalles.&lt;|fim_suffix|&gt;</v>
+      </c>
+      <c r="D76" t="str">
+        <v>65b1dafe847ca70008c68131</v>
+      </c>
+      <c r="E76" s="1">
+        <v>45322.41926167824</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
+      <c r="A77" t="str">
+        <v>Néstor</v>
+      </c>
+      <c r="B77" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C77" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 10:20:15 - Néstor: Hola
+31/1/2024, 10:20:15 - MegaBot: ¡Hola Néstor! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀
+31/1/2024, 10:33:28 - Vendedor Megamoto: Hola  Nestor, buen día.
+estamos conversando desde el 1159790625
+Seguimos por ese medio. </v>
+      </c>
+      <c r="D77" t="str">
+        <v>65b986b628baed0008b3307e</v>
+      </c>
+      <c r="E77" s="1">
+        <v>45322.43017515046</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="A78" t="str">
+        <v>Pablo Cardozo</v>
+      </c>
+      <c r="B78" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C78" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 10:55:39 - Pablo Cardozo: ¡Hola! Podrías darme más información de...
+31/1/2024, 10:55:39 - MegaBot: ¡Hola Pablo Cardozo! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D78" t="str">
+        <v>6536b92b7f6a4a000872b611</v>
+      </c>
+      <c r="E78" s="1">
+        <v>45322.45476439815</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
+      <c r="A79" t="str">
+        <v>Jonasbauody🥰😍</v>
+      </c>
+      <c r="B79" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C79" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 11:08:05 - Jonasbauody🥰😍: ¡Hola! Podrías darme más información de...
+31/1/2024, 11:08:05 - MegaBot: ¡Hola Jonasbauody🥰😍! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D79" t="str">
+        <v>65ba5441b777b70008b037ad</v>
+      </c>
+      <c r="E79" s="1">
+        <v>45322.4633934838</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
+      <c r="A80" t="str">
+        <v>Evelyn Sosa</v>
+      </c>
+      <c r="B80" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C80" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 11:22:35 - Evelyn Sosa: ¡Hola! Podrías darme más información de...
+31/1/2024, 11:22:35 - MegaBot: ¡Hola Evelyn Sosa! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D80" t="str">
+        <v>635fc33816052c000915db07</v>
+      </c>
+      <c r="E80" s="1">
+        <v>45322.473468888886</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
+      <c r="A81" t="str">
+        <v>Oscar</v>
+      </c>
+      <c r="B81" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C81" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 11:46:43 - Oscar: ¡Hola! Podrías darme más información ..que precio tiene la skua 250
+31/1/2024, 11:46:43 - MegaBot: ¡Hola Oscar! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D81" t="str">
+        <v>65ba5d4f77a3f10008652eaa</v>
+      </c>
+      <c r="E81" s="1">
+        <v>45322.49022046296</v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
+      <c r="A82" t="str">
+        <v>Emiliano Ariel</v>
+      </c>
+      <c r="B82" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C82" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 11:54:41 - Emiliano Ariel: ¡Hola! Me gustaría conseguir más información sobre esto.
+31/1/2024, 11:54:41 - MegaBot: ¡Hola Emiliano Ariel! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D82" t="str">
+        <v>6509afc35a4106000872ce2c</v>
+      </c>
+      <c r="E82" s="1">
+        <v>45322.49576090278</v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
+      <c r="A83" t="str">
+        <v>Wuilly</v>
+      </c>
+      <c r="B83" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C83" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 12:05:26 - Wuilly: ¡Hola! Podrías darme más información de...
+31/1/2024, 12:05:26 - MegaBot: ¡Hola Wuilly! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D83" t="str">
+        <v>65ba61b3cb37c400084968b8</v>
+      </c>
+      <c r="E83" s="1">
+        <v>45322.50322200231</v>
+      </c>
+    </row>
+    <row r="84" xml:space="preserve">
+      <c r="A84" t="str">
+        <v>Argenis Sanchez</v>
+      </c>
+      <c r="B84" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C84" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 12:05:51 - Argenis Sanchez: OK Joselin estoy evaluando si llego a comprar de contado pero quería saber cuanto más o menos es el financiamiento por si no llego a conseguir completo
+31/1/2024, 12:05:51 - MegaBot: ¡Hola Argenis Sanchez! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀
+31/1/2024, 12:06:11 - Argenis Sanchez: Esa blitz 110 esta bien
+31/1/2024, 12:06:11 - MegaBot: La Blitz 110 tiene un precio de contado sin patentar de $153,900, con patentamiento en provincia de Buenos Aires de $170,300, y con patentamiento en Capital Federal de $174,800. ¿De qué ubicación eres y cuál es tu método de pago preferido?
+31/1/2024, 12:06:42 - Argenis Sanchez: Indícame cuanto serira de inicial o anticipo
+31/1/2024, 12:06:44 - MegaBot: El precio de contado sin patentamiento para la Blitz 110 V8 START es de $890,540【14†source】. Para conocer la cantidad de la inicial o anticipo, es recomendable que contactes directamente a Megamoto y consultes con un vendedor. ¿Te gustaría que te proporcione información de contacto?
+31/1/2024, 12:07:04 - Argenis Sanchez: Y como quedarían las cuotas
+31/1/2024, 12:07:06 - MegaBot: Para obtener información sobre el monto y las condiciones de las cuotas para la Blitz 110 V8 START, te recomendaría que te comuniques directamente con Megamoto. Ellos podrán brindarte detalles específicos sobre las opciones de financiamiento disponibles. ¿Te gustaría que te proporcione información de contacto para comunicarte con Megamoto?</v>
+      </c>
+      <c r="D84" t="str">
+        <v>65b980c074f3850008c7220a</v>
+      </c>
+      <c r="E84" s="1">
+        <v>45322.50350938657</v>
+      </c>
+    </row>
+    <row r="85" xml:space="preserve">
+      <c r="A85" t="str">
+        <v>Lucas</v>
+      </c>
+      <c r="B85" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C85" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 12:07:50 - Lucas: Buenas
+31/1/2024, 12:07:50 - MegaBot: ¡Hola Lucas! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D85" t="str">
+        <v>65ba623f5c017d000809bb0d</v>
+      </c>
+      <c r="E85" s="1">
+        <v>45322.50488910879</v>
+      </c>
+    </row>
+    <row r="86" xml:space="preserve">
+      <c r="A86" t="str">
+        <v>🙄</v>
+      </c>
+      <c r="B86" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C86" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 13:06:27 - 🙄: ¡Hola! Podrías darme más información ...de cuánto las cuotas?
+31/1/2024, 13:06:27 - MegaBot: ¡Hola 🙄! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D86" t="str">
+        <v>65ba700013209500081c920e</v>
+      </c>
+      <c r="E86" s="1">
+        <v>45322.54559703704</v>
+      </c>
+    </row>
+    <row r="87" xml:space="preserve">
+      <c r="A87" t="str">
+        <v>Gian Ledesma</v>
+      </c>
+      <c r="B87" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C87" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 13:27:02 - Gian Ledesma: ¡Hola! Me gustaría conseguir más información sobre esto.
+31/1/2024, 13:27:02 - MegaBot: ¡Hola Gian Ledesma! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀
+31/1/2024, 19:04:19 - Gian Ledesma: Dale genial
+31/1/2024, 19:04:19 - MegaBot: ¡Hola Gian Ledesma! 👋 En Megamoto tenemos una variedad de motos disponibles, como la BLITZ 110 V8 START, CG 150 S2 FULL, y más. ¿Qué modelo te interesa?</v>
+      </c>
+      <c r="D87" t="str">
+        <v>65ba729729b95c0008fa6c1d</v>
+      </c>
+      <c r="E87" s="1">
+        <v>45322.55988945602</v>
+      </c>
+    </row>
+    <row r="88" xml:space="preserve">
+      <c r="A88" t="str">
+        <v>Adrian!😉</v>
+      </c>
+      <c r="B88" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C88" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 14:07:46 - Adrian!😉: ¡Hola! Quiero más información.
+31/1/2024, 14:07:46 - MegaBot: ¡Hola Adrian!😉! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D88" t="str">
+        <v>65ba7e5e7192f1000887100c</v>
+      </c>
+      <c r="E88" s="1">
+        <v>45322.58817556713</v>
+      </c>
+    </row>
+    <row r="89" xml:space="preserve">
+      <c r="A89" t="str">
+        <v>Derlis</v>
+      </c>
+      <c r="B89" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C89" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 14:12:10 - Derlis: ¡Hola! Podrías darme más información de...
+31/1/2024, 14:12:11 - MegaBot: ¡Hola Derlis! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D89" t="str">
+        <v>65ba7f679ef6c100083b012c</v>
+      </c>
+      <c r="E89" s="1">
+        <v>45322.59123731482</v>
+      </c>
+    </row>
+    <row r="90" xml:space="preserve">
+      <c r="A90" t="str">
+        <v>Max Martin</v>
+      </c>
+      <c r="B90" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C90" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 14:25:10 - Max Martin: ¡Hola! Quiero más información.
+31/1/2024, 14:25:10 - MegaBot: ¡Hola Max Martin! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀
+31/1/2024, 14:25:18 - Max Martin: De donde sos
+31/1/2024, 14:25:19 - MegaBot: ¡Hola! Para brindarte mejor ayuda, por favor indícame qué moto estás buscando, tu ubicación y tu método de pago preferido. ¡Gracias! 😊</v>
+      </c>
+      <c r="D90" t="str">
+        <v>65ba82734c548500086b423a</v>
+      </c>
+      <c r="E90" s="1">
+        <v>45322.60026096065</v>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
+      <c r="A91" t="str">
+        <v>Daiana</v>
+      </c>
+      <c r="B91" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C91" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 14:25:44 - Daiana: ¡Hola! Podrías darme más información de...
+31/1/2024, 14:25:44 - MegaBot: ¡Hola Daiana! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D91" t="str">
+        <v>65ba82955d44b3000895cf84</v>
+      </c>
+      <c r="E91" s="1">
+        <v>45322.600651712964</v>
+      </c>
+    </row>
+    <row r="92" xml:space="preserve">
+      <c r="A92" t="str">
+        <v>Walter</v>
+      </c>
+      <c r="B92" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C92" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 14:25:45 - Walter: ¡Hola! Quiero más información. Precio y de cuanto sería la cuota? Muchas gracias!
+31/1/2024, 14:25:45 - MegaBot: ¡Hola Walter! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D92" t="str">
+        <v>65ba829568b7580008839fe7</v>
+      </c>
+      <c r="E92" s="1">
+        <v>45322.60066144676</v>
+      </c>
+    </row>
+    <row r="93" xml:space="preserve">
+      <c r="A93" t="str">
+        <v>Solsito</v>
+      </c>
+      <c r="B93" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C93" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 14:30:33 - Solsito: Hola buenas tardes
+31/1/2024, 14:30:33 - MegaBot: ¡Hola Solsito! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀
+31/1/2024, 14:31:00 - Solsito: Precio de una 110
+31/1/2024, 14:31:00 - MegaBot: Lamentablemente, no he podido encontrar la información sobre el precio de una moto 110 en los archivos proporcionados. Te recomendaría que te comuniques directamente con un vendedor de Megamoto para obtener esa información específica. ¿Te gustaría ser atendido por un vendedor?</v>
+      </c>
+      <c r="D93" t="str">
+        <v>6587066d36c0de0008abc857</v>
+      </c>
+      <c r="E93" s="1">
+        <v>45322.60399599537</v>
+      </c>
+    </row>
+    <row r="94" xml:space="preserve">
+      <c r="A94" t="str">
+        <v>Daniel Alberto</v>
+      </c>
+      <c r="B94" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C94" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 14:31:52 - Daniel Alberto: ¡Hola! Podrías darme más información de...
+31/1/2024, 14:31:52 - MegaBot: ¡Hola Daniel Alberto! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D94" t="str">
+        <v>65ba8404bd03780008683103</v>
+      </c>
+      <c r="E94" s="1">
+        <v>45322.60491457176</v>
+      </c>
+    </row>
+    <row r="95" xml:space="preserve">
+      <c r="A95" t="str">
+        <v>Matias</v>
+      </c>
+      <c r="B95" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C95" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 14:36:08 - Matias: ¡Hola! Podrías darme más información de...
+31/1/2024, 14:36:09 - MegaBot: ¡Hola Matias! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀
+31/1/2024, 19:03:18 - Matias: Explícame las dos opciones por favor
+31/1/2024, 19:03:18 - MegaBot: Las dos opciones de pago disponibles son al contado y sin patentamiento. ¿En qué más puedo ayudarte?</v>
+      </c>
+      <c r="D95" t="str">
+        <v>65b7dec73b1431000bd8d2f2</v>
+      </c>
+      <c r="E95" s="1">
+        <v>45322.607879965275</v>
+      </c>
+    </row>
+    <row r="96" xml:space="preserve">
+      <c r="A96" t="str">
+        <v>Walter</v>
+      </c>
+      <c r="B96" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C96" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 14:40:40 - Walter: ¡Hola! Podrías darme más información de...
+31/1/2024, 14:40:41 - MegaBot: ¡Hola Walter! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D96" t="str">
+        <v>65ba8615e54b950008c9c121</v>
+      </c>
+      <c r="E96" s="1">
+        <v>45322.61102747685</v>
+      </c>
+    </row>
+    <row r="97" xml:space="preserve">
+      <c r="A97" t="str">
+        <v>Rooh Ruiiz 👑</v>
+      </c>
+      <c r="B97" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C97" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 15:04:13 - Rooh Ruiiz 👑: Hola info para sacar a credito
+31/1/2024, 15:04:13 - MegaBot: ¡Hola Rooh Ruiiz 👑! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D97" t="str">
+        <v>65ba8b9a86d4a600087e675a</v>
+      </c>
+      <c r="E97" s="1">
+        <v>45322.62738114583</v>
+      </c>
+    </row>
+    <row r="98" xml:space="preserve">
+      <c r="A98" t="str">
+        <v>Anto</v>
+      </c>
+      <c r="B98" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C98" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 15:09:40 - Anto: ¡Hola! Podrías darme más información de...
+31/1/2024, 15:09:40 - MegaBot: ¡Hola Anto! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D98" t="str">
+        <v>65ba8ce191b9170008356029</v>
+      </c>
+      <c r="E98" s="1">
+        <v>45322.63116542824</v>
+      </c>
+    </row>
+    <row r="99" xml:space="preserve">
+      <c r="A99" t="str">
+        <v>Danu🦋</v>
+      </c>
+      <c r="B99" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C99" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 15:14:24 - Danu🦋: 5885
+31/1/2024, 15:14:24 - MegaBot: ¡Hola Danu🦋! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D99" t="str">
+        <v>65b9ad0e178e1c0008af9ea7</v>
+      </c>
+      <c r="E99" s="1">
+        <v>45322.63444775463</v>
+      </c>
+    </row>
+    <row r="100" xml:space="preserve">
+      <c r="A100" t="str">
+        <v>Pauli N</v>
+      </c>
+      <c r="B100" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C100" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 15:17:48 - Pauli N: Buenas tardes
+31/1/2024, 15:17:48 - MegaBot: ¡Hola Pauli N! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D100" t="str">
+        <v>65ba8ec9f711a60008f04b21</v>
+      </c>
+      <c r="E100" s="1">
+        <v>45322.6368140162</v>
+      </c>
+    </row>
+    <row r="101" xml:space="preserve">
+      <c r="A101" t="str">
+        <v>Dani</v>
+      </c>
+      <c r="B101" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C101" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 15:21:28 - Dani: ¡Hola! Quiero más información.
+31/1/2024, 15:21:28 - MegaBot: ¡Hola Dani! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D101" t="str">
+        <v>65ba79be1d971c00087daeea</v>
+      </c>
+      <c r="E101" s="1">
+        <v>45322.63935655093</v>
+      </c>
+    </row>
+    <row r="102" xml:space="preserve">
+      <c r="A102" t="str">
+        <v>Felipe Valentino 💙</v>
+      </c>
+      <c r="B102" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C102" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 15:28:35 - Felipe Valentino 💙: ¡Hola! Me gustaría conseguir más información sobre esto.
+31/1/2024, 15:28:35 - MegaBot: ¡Hola Felipe Valentino 💙! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D102" t="str">
+        <v>65ba914f6cc9d50008446c07</v>
+      </c>
+      <c r="E102" s="1">
+        <v>45322.644297824074</v>
+      </c>
+    </row>
+    <row r="103" xml:space="preserve">
+      <c r="A103" t="str">
+        <v>El Aragón 🔵⚪</v>
+      </c>
+      <c r="B103" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C103" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 15:29:20 - El Aragón 🔵⚪: ¡Hola! Podrías darme más información de...
+31/1/2024, 15:29:20 - MegaBot: ¡Hola El Aragón 🔵⚪! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀
+31/1/2024, 15:29:45 - El Aragón 🔵⚪: De donde son?
+31/1/2024, 15:29:45 - MegaBot: Megamoto cuenta con sucursales en Merlo, sobre la avenida Calle Real 51, de lunes a sábados de 10 a 19 horas, y en CABA, zona Abasto, en avenida Corrientes 3400【14†fuente】. ¿Hay algo más en lo que pueda ayudarte?
+31/1/2024, 19:39:42 - El Aragón 🔵⚪: Cómo es eso de entregar 200 mil y 30 cuotas a pagar?
+31/1/2024, 19:39:43 - MegaBot: El método de pago de 200 mil y 30 cuotas puede hacerse mediante una combinación de pago contado, transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios【17†source】. Si necesita más detalles o quiere consultar personalmente, puede dirigirse a la sucursal de Merlo o CABA mencionadas anteriormente【11†source】. ¿Le gustaría ser atendido por un vendedor para más información?&lt;|fim_suffix|&gt; END_CHAT
+Great! If you have any more questions in the future, feel free to ask. Goodbye!&lt;|fim_suffix|&gt;
+informe el costo de la S220 y la R220 de Megamoto. Gracias&lt;|fim_suffix|&gt; Output printed to the chat have been skipped. Open the task in the task tool to respond to the user.&lt;|fim_suffix|&gt;-file-*&gt;",
+  "namespace": "cml"
+}
+31/1/2024, 19:41:07 - El Aragón 🔵⚪: Soy de merlo
+31/1/2024, 19:41:07 - MegaBot: En Merlo, el horario de atención es de lunes a sábados de 10 a 19 horas en la sucursal ubicada en la avenida Calle Real 51 (ex.Gobernador Vergara)【11†source】. Puedes comprar la SKUA 150 NEW GENERATION por $1.467.450, la SKUA 150 SILVER EDITION por $1.966.650, la SKUA 250 BASE NEW por $2.194.895. No tenemos información sobre la XMM 250 NUEVA, pero con gusto te pondremos en contacto con un vendedor para obtener más detalles. También queremos informarte que puedes elegir entre varios métodos de pago, incluyendo transferencia bancaria, tarjetas de débito, tarjetas de crédito, botón de pago QR, Mercado Pago, préstamos personales o préstamos prendarios. Se puede hacer una combinación con estos métodos【16†source】【40†source】.&lt;|fim_suffix|&gt;&lt;|fim_suffix|&gt;ambio por otro producto. Es importante que consideres los métodos de pago disponibles para facilitar tu decisión. Para obtener información más detallada y recibir asesoramiento personalizado, podemos ponerte en contacto con un vendedor. ¿Te gustaría que te asista?&lt;|fim_suffix|&gt; Output
+# mm-attachment 97
+# mm-attachment 98
+# mm-attachment 99
+# mm-attachment 100
+# mm-attachment 101
+# mm-attachment 102
+# mm-attachment 103
+# mm-attachment 104
+# mm-attachment 105
+# mm-attachment 106
+# mm-attachment 107
+# mm-attachment 108
+# mm-attachment 109
+# mm-attachment 110
+# mm-attachment 111
+# mm-attachment 112
+# mm-attachment 113
+# mm-attachment 114
+# mm-attachment 115
+# mm-attachment 116
+# mm-attachment 117
+# mm-attachment 118
+# mm-attachment 119
+# mm-attachment 120
+# mm-attachment 121
+# mm-attachment 122
+# mm-attachment 123
+# mm-attachment 124
+# mm-attachment 125
+# mm-attachment 126
+# mm-attachment 127
+# mm-attachment 128
+# mm-attachment 129
+# mm-attachment 130
+# mm-attachment 131
+# mm-attachment 132
+# mm-attachment 133
+# mm-attachment 134
+# mm-attachment 135
+# mm-attachment 136
+# mm-attachment 137
+# mm-attachment 138
+# mm-attachment 139
+# mm-attachment 140
+# mm-attachment 141
+# mm-attachment 142
+# mm-attachment 143
+# mm-attachment 144
+# mm-attachment 145
+# mm-attachment 146
+# mm-attachment 147
+# mm-attachment 148</v>
+      </c>
+      <c r="D103" t="str">
+        <v>63ae26694cb9e800082e99a2</v>
+      </c>
+      <c r="E103" s="1">
+        <v>45322.644817569446</v>
+      </c>
+    </row>
+    <row r="104" xml:space="preserve">
+      <c r="A104" t="str">
+        <v>Elbilu</v>
+      </c>
+      <c r="B104" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C104" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 15:33:31 - Elbilu: Personal
+31/1/2024, 15:33:34 - MegaBot: ¡Hola Elbilu! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀
+31/1/2024, 15:34:42 - Vendedor Megamoto: Para credito personal  los requisitos son: A partir de 21 años, tener recibo de sueldo,  monotributo,  pensión,  jubilación y no estar en veraz (puede ser tuyo o de otra persona que te salga de garante) de igual la moto sale a tu nombre,en ese caso me pasas en nro de DNI y así lo verificamos en sistema
+31/1/2024, 16:14:04 - Vendedor Megamoto: Verificamos en DNI de Nombre: GONZALEZ HERNAN PABLO 20315926719, por el momento no te están otorgando credito, se te ocurre algún otra persona que te pueda llegar a salir de garante, de igual la moto sale a tu nombre</v>
+      </c>
+      <c r="D104" t="str">
+        <v>65b9ac8dd043cd0008901220</v>
+      </c>
+      <c r="E104" s="1">
+        <v>45322.64772246528</v>
+      </c>
+    </row>
+    <row r="105" xml:space="preserve">
+      <c r="A105" t="str">
+        <v>Sol 💞</v>
+      </c>
+      <c r="B105" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C105" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 15:34:28 - Sol 💞: Alguna 110/125 o 150 pero automatica o semiautomática
+31/1/2024, 15:34:32 - MegaBot: ¡Hola Sol 💞! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀
+31/1/2024, 16:08:29 - Vendedor Megamoto: Te comparto catalogo para que vos puedas ver los modelos disponibles </v>
+      </c>
+      <c r="D105" t="str">
+        <v>65b8d04f022a4f000890cab3</v>
+      </c>
+      <c r="E105" s="1">
+        <v>45322.64839069444</v>
+      </c>
+    </row>
+    <row r="106" xml:space="preserve">
+      <c r="A106" t="str">
+        <v>Romy🤩</v>
+      </c>
+      <c r="B106" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C106" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 16:01:53 - Romy🤩: ¡Hola! Podrías darme más información de...
+31/1/2024, 16:01:53 - MegaBot: ¡Hola Romy🤩! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D106" t="str">
+        <v>65ba991b84a1300008291dc0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>45322.667424328705</v>
+      </c>
+    </row>
+    <row r="107" xml:space="preserve">
+      <c r="A107" t="str">
+        <v>Priaylenn</v>
+      </c>
+      <c r="B107" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C107" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 16:07:02 - Priaylenn: Hola info
+31/1/2024, 16:07:02 - MegaBot: ¡Hola Priaylenn! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀
+31/1/2024, 17:29:48 - Priaylenn: No me salta el catálogo..
+31/1/2024, 17:29:48 - MegaBot: ¡Hola! Lamento la confusión, todos los modelos y precios están aquí. Para facilitar la consulta, ¿qué moto estás buscando, de dónde eres y cómo prefieres pagar? 😊</v>
+      </c>
+      <c r="D107" t="str">
+        <v>65ba9a53c97f0700096a1914</v>
+      </c>
+      <c r="E107" s="1">
+        <v>45322.67100108796</v>
+      </c>
+    </row>
+    <row r="108" xml:space="preserve">
+      <c r="A108" t="str">
+        <v>Adry Barracchia</v>
+      </c>
+      <c r="B108" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C108" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 16:21:00 - Adry Barracchia: ¡Hola! Podrías darme más información de la motomel blitz 100% financiada? Quisiera saber como es
+31/1/2024, 16:21:00 - MegaBot: ¡Hola Adry Barracchia! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D108" t="str">
+        <v>65ba9d98f261af00086635c0</v>
+      </c>
+      <c r="E108" s="1">
+        <v>45322.68069984954</v>
+      </c>
+    </row>
+    <row r="109" xml:space="preserve">
+      <c r="A109" t="str">
+        <v>Ezequiel</v>
+      </c>
+      <c r="B109" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C109" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 16:24:27 - Ezequiel: ¡Hola! Podrías darme más información de...
+31/1/2024, 16:24:28 - MegaBot: ¡Hola Ezequiel! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D109" t="str">
+        <v>65b89eff05b39800089e6b6c</v>
+      </c>
+      <c r="E109" s="1">
+        <v>45322.683100069444</v>
+      </c>
+    </row>
+    <row r="110" xml:space="preserve">
+      <c r="A110" t="str">
+        <v>Diego</v>
+      </c>
+      <c r="B110" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C110" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 19:03:35 - Diego: ¡Hola! Podrías darme más información de...
+31/1/2024, 19:03:35 - MegaBot: ¡Hola Diego! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D110" t="str">
+        <v>65bac3b493c95a0008dd3147</v>
+      </c>
+      <c r="E110" s="1">
+        <v>45322.79360042824</v>
+      </c>
+    </row>
+    <row r="111" xml:space="preserve">
+      <c r="A111" t="str">
+        <v>Rodolfo Oviedo</v>
+      </c>
+      <c r="B111" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C111" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 19:16:22 - Rodolfo Oviedo: 26997582
+31/1/2024, 19:16:22 - MegaBot: ¡Hola Rodolfo Oviedo! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D111" t="str">
+        <v>65ba6c33a805de0009709ab1</v>
+      </c>
+      <c r="E111" s="1">
+        <v>45322.802477743055</v>
+      </c>
+    </row>
+    <row r="112" xml:space="preserve">
+      <c r="A112" t="str">
+        <v>Marta Isabel</v>
+      </c>
+      <c r="B112" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C112" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 19:18:53 - Marta Isabel: ¡Hola! Podrías darme más información de...
+31/1/2024, 19:18:53 - MegaBot: ¡Hola Marta Isabel! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D112" t="str">
+        <v>65bac74bc8b4a900083b8c57</v>
+      </c>
+      <c r="E112" s="1">
+        <v>45322.80423190972</v>
+      </c>
+    </row>
+    <row r="113" xml:space="preserve">
+      <c r="A113" t="str">
+        <v>Jose</v>
+      </c>
+      <c r="B113" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C113" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 19:22:50 - Jose: Crédito personal
+31/1/2024, 19:22:50 - MegaBot: ¡Hola Jose! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D113" t="str">
+        <v>65baa8cec1122e0008719c60</v>
+      </c>
+      <c r="E113" s="1">
+        <v>45322.806970115744</v>
+      </c>
+    </row>
+    <row r="114" xml:space="preserve">
+      <c r="A114" t="str">
+        <v>Cristian</v>
+      </c>
+      <c r="B114" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C114" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 19:45:33 - Cristian: ¡Hola! Podrías darme más información de...
+31/1/2024, 19:45:33 - MegaBot: ¡Hola Cristian! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D114" t="str">
+        <v>65bacd8a570b610008187213</v>
+      </c>
+      <c r="E114" s="1">
+        <v>45322.82274960648</v>
+      </c>
+    </row>
+    <row r="115" xml:space="preserve">
+      <c r="A115" t="str">
+        <v>Esteban</v>
+      </c>
+      <c r="B115" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C115" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 19:47:33 - Esteban: ¡Hola! Podrías darme más información de...
+31/1/2024, 19:47:33 - MegaBot: ¡Hola Esteban! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D115" t="str">
+        <v>65bace02729af900086aba0d</v>
+      </c>
+      <c r="E115" s="1">
+        <v>45322.82413975694</v>
+      </c>
+    </row>
+    <row r="116" xml:space="preserve">
+      <c r="A116" t="str">
+        <v>Leio ♤</v>
+      </c>
+      <c r="B116" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C116" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 19:51:46 - Leio ♤: ¡Hola! Me gustaría conseguir más información sobre esto.
+31/1/2024, 19:51:46 - MegaBot: ¡Hola Leio ♤! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D116" t="str">
+        <v>65bacf0057cd980008ba367b</v>
+      </c>
+      <c r="E116" s="1">
+        <v>45322.82706859954</v>
+      </c>
+    </row>
+    <row r="117" xml:space="preserve">
+      <c r="A117" t="str">
+        <v>Marcelo</v>
+      </c>
+      <c r="B117" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C117" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 20:04:31 - Marcelo: ¡Hola! Podrías darme más información de...
+31/1/2024, 20:04:31 - MegaBot: ¡Hola Marcelo! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D117" t="str">
+        <v>65bad1fcc80d49000833d4c7</v>
+      </c>
+      <c r="E117" s="1">
+        <v>45322.83591952546</v>
+      </c>
+    </row>
+    <row r="118" xml:space="preserve">
+      <c r="A118" t="str">
+        <v>Dr. Paul D. Condori Rocha</v>
+      </c>
+      <c r="B118" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C118" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 20:06:44 - Dr. Paul D. Condori Rocha: ¡Hola! Quiero más información.
+31/1/2024, 20:06:45 - MegaBot: ¡Hola Dr. Paul D. Condori Rocha! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D118" t="str">
+        <v>65bad2834b34b60008adc764</v>
+      </c>
+      <c r="E118" s="1">
+        <v>45322.83746408565</v>
+      </c>
+    </row>
+    <row r="119" xml:space="preserve">
+      <c r="A119" t="str">
+        <v>Superate Cada Día 🤠</v>
+      </c>
+      <c r="B119" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C119" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 20:07:05 - Superate Cada Día 🤠: Hola
+31/1/2024, 20:07:05 - MegaBot: ¡Hola Superate Cada Día 🤠! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D119" t="str">
+        <v>65b87910df8c1b00080224a0</v>
+      </c>
+      <c r="E119" s="1">
+        <v>45322.837701689816</v>
+      </c>
+    </row>
+    <row r="120" xml:space="preserve">
+      <c r="A120" t="str">
+        <v>D&amp;l</v>
+      </c>
+      <c r="B120" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C120" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 20:09:12 - D&amp;l: ¡Hola! Podrías darme más información de...
+31/1/2024, 20:09:12 - MegaBot: ¡Hola D&amp;l! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D120" t="str">
+        <v>65bad3157ae5db000a9a421f</v>
+      </c>
+      <c r="E120" s="1">
+        <v>45322.83917255787</v>
+      </c>
+    </row>
+    <row r="121" xml:space="preserve">
+      <c r="A121" t="str">
+        <v>Brian</v>
+      </c>
+      <c r="B121" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C121" t="str" xml:space="preserve">
+        <v xml:space="preserve">31/1/2024, 20:09:14 - Brian: ¡Hola! Me gustaría conseguir más información sobre esto.
+31/1/2024, 20:09:14 - MegaBot: ¡Hola Brian! 👋 Soy MegaBot, un Asistente Virtual de Megamoto. Puedo cometer errores, por lo que te pido me escribas lo más claro posible 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, de donde sos, y como queres pagar. 😀</v>
+      </c>
+      <c r="D121" t="str">
+        <v>65bad318fafa6e0008338921</v>
+      </c>
+      <c r="E121" s="1">
+        <v>45322.83919303241</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E121"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -1,41 +1,405 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\$ Gustavo\3. Programación\3.2. Proyectos\3.2.10. Megamoto-Api\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B66B21B-3F12-42A9-A505-986EBFEAEE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Leads" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>id_user</t>
+  </si>
+  <si>
+    <t>createdAt</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>whatsapp</t>
+  </si>
+  <si>
+    <t>6/2/2024, 17:43:28 - David: ¡Hola! Podrías darme más información de...
+6/2/2024, 17:43:28 - MegaBot: ¡Hola David! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</t>
+  </si>
+  <si>
+    <t>65c299ece046a100085d7df9</t>
+  </si>
+  <si>
+    <t>Gabriel Girelli</t>
+  </si>
+  <si>
+    <t>6/2/2024, 17:44:10 - Gabriel Girelli: ¡Hola! Podrías darme más información de...
+6/2/2024, 17:44:10 - MegaBot: ¡Hola Gabriel Girelli! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</t>
+  </si>
+  <si>
+    <t>65c29a17f2e23b0008ffd8b1</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>6/2/2024, 17:44:17 - Sergio: ¡Hola! Podrías darme más información de...
+6/2/2024, 17:44:18 - MegaBot: ¡Hola Sergio! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 17:49:04 - Sergio: Precio de la trk 502 que facilidades de pago
+6/2/2024, 17:49:04 - MegaBot: El precio de la Benelli TRK 502 es de $12.124.773. En cuanto a las facilidades de pago, se acepta efectivo, tarjetas de crédito, préstamos o una mezcla de estas formas【6:1†source】. ¿Te gustaría ser contactado por un vendedor para obtener más información y realizar la compra? Si es así, por favor proporcioname un teléfono de contacto y tu dirección.</t>
+  </si>
+  <si>
+    <t>65c29a1ed7a3790008fa3d03</t>
+  </si>
+  <si>
+    <t>Lean Almiron</t>
+  </si>
+  <si>
+    <t>6/2/2024, 17:48:36 - Lean Almiron: ¡Hola! Podrías darme más información de...
+6/2/2024, 17:48:36 - MegaBot: ¡Hola Lean Almiron! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 18:50:47 - Lean Almiron: Busco Gilera smash y Corven Mirage
+6/2/2024, 18:50:48 - MegaBot: Perfecto, Lean Almiron. ¿Podrías indicarme cómo prefieres pagar, tu número de teléfono y tu dirección? ¡Así un vendedor podrá atenderte de manera más eficiente! 😊🏍️
+6/2/2024, 18:50:55 - Lean Almiron: Quería saber sus precios
+6/2/2024, 18:50:55 - MegaBot: Los precios de las motos Gilera Smash y Corven Mirage no se encuentran en la lista proporcionada. Te recomendaría contactar a un vendedor de Megamoto para obtener información actualizada sobre los precios de estos modelos específicos. Puedes comunicarte con ellos a través de los teléfonos 1149730000 o 1167862952 en Abasto, o 1168930000 – 1159790625 en Merlo. ¡Espero que puedas obtener la información que buscas! 😉🏍️
+6/2/2024, 18:51:03 - Lean Almiron: Al contado
+6/2/2024, 18:51:03 - MegaBot: Para obtener el precio al contado de la Gilera Smash y la Corven Mirage, te sugiero contactar directamente a un vendedor de Megamoto a través de los teléfonos 1149730000 o 1167862952 en Abasto, o 1168930000 – 1159790625 en Merlo. Ellos podrán brindarte la información precisa y actualizada que necesitas. ¡Buena suerte con tu compra! 🏍️💰</t>
+  </si>
+  <si>
+    <t>65c29b21421f880008371fb2</t>
+  </si>
+  <si>
+    <t>Pedro Gonzalez</t>
+  </si>
+  <si>
+    <t>6/2/2024, 17:51:26 - Pedro Gonzalez: ¡Hola! Podrías darme más información de...
+6/2/2024, 17:51:26 - MegaBot: ¡Hola Pedro Gonzalez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 17:52:19 - Pedro Gonzalez: 150
+6/2/2024, 17:52:19 - MegaBot: ¡Hola! ¿En qué puedo ayudarte con respecto a Megamoto? 🏍️
+6/2/2024, 17:52:51 - Pedro Gonzalez: Necesito el precio de una moto 150
+6/2/2024, 17:52:51 - MegaBot: El precio de una Motomel SKUA 150 es de $1.485.241【8:0†source】. Recuerda que este precio incluye patentamiento, pero no incluye el impuesto a los sellos de CABA y debe ser confirmado con un vendedor. ¿Te gustaría más información o que te contacte un vendedor de Megamoto?</t>
+  </si>
+  <si>
+    <t>65c29bcca7639a00087f608e</t>
+  </si>
+  <si>
+    <t>Yo</t>
+  </si>
+  <si>
+    <t>6/2/2024, 18:02:06 - Yo: ¡Hola! Podrías darme más información de...
+6/2/2024, 18:02:06 - MegaBot: ¡Hola Yo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 18:05:00 - Yo: TRk502 en 12 cuotas sin interés cuánto sería la cuota?
+6/2/2024, 18:05:01 - MegaBot: El precio de la TRK 502 es de $12.124.773, pero el valor de las cuotas puede variar según el plan de financiación ofrecido por la entidad crediticia. Te recomendaría contactar a un vendedor para obtener información precisa sobre el monto de las cuotas en un plan de 12 cuotas sin interés【6†source】.</t>
+  </si>
+  <si>
+    <t>65c29e49cea2d500080bded7</t>
+  </si>
+  <si>
+    <t>Matecocido</t>
+  </si>
+  <si>
+    <t>6/2/2024, 18:09:36 - Matecocido: ¡Hola! Podrías darme más información de...
+6/2/2024, 18:09:36 - MegaBot: ¡Hola Matecocido! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</t>
+  </si>
+  <si>
+    <t>65c2a00d70ac7e00086ec863</t>
+  </si>
+  <si>
+    <t>Luciopantoja69</t>
+  </si>
+  <si>
+    <t>6/2/2024, 18:27:55 - Luciopantoja69: ¡Hola! Podrías darme más información de...
+6/2/2024, 18:27:55 - MegaBot: ¡Hola Luciopantoja69! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 18:29:08 - Luciopantoja69: Moto 110 anticipo y cuotas
+6/2/2024, 18:29:09 - MegaBot: Para ordenar la conversación y poder atenderte más rápido, necesitaría que me indiques el modelo de la moto que estás buscando. Una vez que me brindes esa información, podremos continuar con el proceso de solicitud de contacto con un vendedor de Megamoto. ¡Gracias! 😊🏍️
+6/2/2024, 18:29:45 - Luciopantoja69: Motomel
+6/2/2024, 18:29:45 - MegaBot: Perfecto, estás buscando una Motomel. Para completar la solicitud de contacto con un vendedor de Megamoto, necesitaría que me brindes tu teléfono y tu domicilio para que puedan comunicarse contigo y coordinar una atención especializada. Cuando me proporciones esa información, podré continuar con el proceso. ¡Gracias! 🛵📞🏠</t>
+  </si>
+  <si>
+    <t>65c2a458edd9740008f85d50</t>
+  </si>
+  <si>
+    <t>🤡</t>
+  </si>
+  <si>
+    <t>6/2/2024, 18:47:26 - 🤡: ¡Hola! Podrías darme más información de...
+6/2/2024, 18:47:26 - MegaBot: ¡Hola 🤡! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 18:48:12 - 🤡: Motomel 150 S2 ful
+6/2/2024, 18:48:12 - MegaBot: El precio de la Motomel CG 150 S2 FULL es de 1.480.676 pesos argentinos, pero es necesario confirmarlo con un vendedor y considerar que este precio incluye patentamiento, pero no el impuesto a los sellos de CABA【6:1†source】. Para continuar con tu consulta, necesito que me indiques cómo quieres pagar, un teléfono de contacto y tu domicilio. ¡Gracias! 😊
+6/2/2024, 18:48:20 - 🤡: Con credito o tarjeta
+6/2/2024, 18:48:20 - MegaBot: Perfecto, ¿podrías brindarme un número de teléfono para que un vendedor se comunique contigo y confirmar la dirección donde te encuentras? ¡Gracias! 🙂📞🏡
+6/2/2024, 18:48:45 - 🤡: 1127651721
+6/2/2024, 18:48:45 - MegaBot: ¡Gracias por proporcionar tu número de teléfono! Ahora necesitaría que me indiques tu dirección para que un vendedor de Megamoto pueda contactarte y brindarte más información. ¡Gracias! 🙂🏡
+6/2/2024, 18:49:16 - 🤡: Heredia 3075 entre Uriarte y Gorostiaga
+6/2/2024, 18:49:17 - MegaBot: ¡Perfecto! He registrado tus datos. Un vendedor de Megamoto se pondrá en contacto contigo para brindarte más información sobre la Motomel CG 150 S2 FULL y los detalles de pago. ¿Hay algo más en lo que pueda ayudarte? ¡Gracias! 🙂
+6/2/2024, 18:49:43 - 🤡: Listo gracias
+6/2/2024, 18:49:43 - MegaBot: ¡De nada! Cualquier otra consulta que tengas, no dudes en decirme. ¡Que tengas un excelente día! 🙂🛵🌟</t>
+  </si>
+  <si>
+    <t>65c2a8eb66f5e20008efb1a3</t>
+  </si>
+  <si>
+    <t>𝑭𝒍𝒐𝒓𝒄𝒊𝒕𝒂𝒂 𝒌𝒊𝒆𝒏𝒆𝒓♡</t>
+  </si>
+  <si>
+    <t>6/2/2024, 18:56:52 - 𝑭𝒍𝒐𝒓𝒄𝒊𝒕𝒂𝒂 𝒌𝒊𝒆𝒏𝒆𝒓♡: ¡Hola! Me gustaría conseguir más información sobre esto.
+6/2/2024, 18:56:52 - MegaBot: ¡Hola 𝑭𝒍𝒐𝒓𝒄𝒊𝒕𝒂𝒂 𝒌𝒊𝒆𝒏𝒆𝒓♡! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 18:57:32 - 𝑭𝒍𝒐𝒓𝒄𝒊𝒕𝒂𝒂 𝒌𝒊𝒆𝒏𝒆𝒓♡: Busco una 110 ,necesito precios y formas de pago por favor
+6/2/2024, 18:57:33 - MegaBot: Para una moto 110, te puedo ofrecer las siguientes opciones de Motomel:
+- Blitz 110 V8 START: $955.658
+- Blitz 110 V8 DELUXE: $1.002.055
+- Blitz 110 V8 FULL ONE - B1: $1.084.038
+Los precios incluyen patentamiento, no incluyen sellado de CABA y son a confirmar por un vendedor. ¿Cuál es tu forma de pago preferida? Y, si estás interesado en ser atendido por un vendedor para agilizar el proceso, ¿podrías proporcionarme tu teléfono y domicilio?
+6/2/2024, 18:57:39 - 𝑭𝒍𝒐𝒓𝒄𝒊𝒕𝒂𝒂 𝒌𝒊𝒆𝒏𝒆𝒓♡: Soy de moron
+6/2/2024, 18:57:39 - MegaBot: Perfecto, gracias por la información. ¿Podrías brindarme tu teléfono para que un vendedor de Megamoto se pueda comunicar contigo y así agilizar el proceso de compra?
+6/2/2024, 18:58:52 - 𝑭𝒍𝒐𝒓𝒄𝒊𝒕𝒂𝒂 𝒌𝒊𝒆𝒏𝒆𝒓♡: Mi teléfono es 1133304941
+6/2/2024, 18:58:52 - MegaBot: ¡Gracias por brindar tu teléfono! Un vendedor de Megamoto se comunicará contigo para continuar con el proceso de compra de tu moto 110. ¿Hay algo más en lo que pueda ayudarte?</t>
+  </si>
+  <si>
+    <t>65c2ab21b1f36500088ec322</t>
+  </si>
+  <si>
+    <t>😎</t>
+  </si>
+  <si>
+    <t>6/2/2024, 19:08:18 - 😎: Y con tarjeta de crédito a cuánto se va el precio ?
+6/2/2024, 19:08:19 - MegaBot: ¡Hola 😎! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 19:22:25 - Vendedor Megamoto: S2 150 base Financiada el 100% con tarjeta de crédito bancaria
+Te queda
+3 cuotas de $509.690 
+6 cuotas de $289.520</t>
+  </si>
+  <si>
+    <t>65bfc12786f3d4000850c19a</t>
+  </si>
+  <si>
+    <t>Gonzalez Alan Leonardo</t>
+  </si>
+  <si>
+    <t>6/2/2024, 19:12:45 - Gonzalez Alan Leonardo: ??
+6/2/2024, 19:12:45 - MegaBot: ¡Hola Gonzalez Alan Leonardo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 19:13:41 - Gonzalez Alan Leonardo: Quiero una moto 110 bliz
+6/2/2024, 19:13:41 - MegaBot: El modelo que buscas es la Motomel Blitz 110 V8 Full One - B1, con un precio de $1.084.038. Para continuar con la atención de un vendedor, por favor indícame tu método de pago preferido, un teléfono de contacto y tu domicilio🏍️🔍.</t>
+  </si>
+  <si>
+    <t>65c24e1f5fe5bf00082a9d85</t>
+  </si>
+  <si>
+    <t>Nicolas Antonio Florentin</t>
+  </si>
+  <si>
+    <t>6/2/2024, 19:29:20 - Nicolas Antonio Florentin: ¡Hola! Podrías darme más información
+6/2/2024, 19:29:20 - MegaBot: ¡Hola Nicolas Antonio Florentin! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 19:34:54 - Nicolas Antonio Florentin: Estoy buscando una 110
+6/2/2024, 19:34:54 - MegaBot: Perfecto, ¿cuál es tu método de pago preferido?
+6/2/2024, 19:39:52 - Nicolas Antonio Florentin: Y entregar un plata y lo demás financiado si se puede
+6/2/2024, 19:39:52 - MegaBot: ¿Podrías proporcionarme tu número de teléfono y tu dirección para continuar con la gestión?
+6/2/2024, 19:40:27 - Nicolas Antonio Florentin: 3484336331
+San Martin 2690
+6/2/2024, 19:40:27 - MegaBot: ¡Gracias por la información! Un vendedor se pondrá en contacto contigo pronto para continuar con el proceso de compra de tu moto 110. ¿Hay algo más en lo que pueda ayudarte?</t>
+  </si>
+  <si>
+    <t>65c2b2bdac40d20008d4a2d1</t>
+  </si>
+  <si>
+    <t>Guillermoruel45</t>
+  </si>
+  <si>
+    <t>6/2/2024, 19:38:33 - Guillermoruel45: ¡Hola! Me gustaría conseguir más información sobre esto.
+6/2/2024, 19:38:33 - MegaBot: ¡Hola Guillermoruel45! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 19:39:44 - Guillermoruel45: 110 y financiada
+6/2/2024, 19:39:44 - MegaBot: El modelo de moto "Blitz 110 V8" tiene un precio de $1.068.056. La financiación puede ser hasta en 60 cuotas para préstamos prendarios o hasta 30 cuotas para préstamos personales. Para obtener crédito, un vendedor necesita verificarlo con tu número de documento. ¿Puedes proporcionarme tu teléfono y dirección para continuar con la solicitud de atención con un vendedor?
+6/2/2024, 19:42:31 - Guillermoruel45: Quiero ver si llego a la Honda o yamaha.otra no.
+6/2/2024, 19:42:31 - MegaBot: Lamentablemente, en la información proporcionada solo se detallan los precios y condiciones de financiamiento para el modelo "Blitz 110 V8" de Megamoto. Si estás interesado en modelos de Honda o Yamaha, te recomendaría visitar sus concesionarias o contactarlas directamente para obtener la información que necesitas. ¿Hay algo más en lo que pueda ayudarte con respecto a Megamoto?
+6/2/2024, 19:43:10 - Guillermoruel45: No.muchas gracias
+6/2/2024, 19:43:10 - MegaBot: ¡De nada! Si en el futuro necesitas más información sobre Megamoto, no dudes en contactarme. ¡Que tengas un excelente día! 👋😊
+6/2/2024, 19:43:31 - Guillermoruel45: 👍
+6/2/2024, 19:43:31 - MegaBot: 👍 ¡Hasta luego! 😊</t>
+  </si>
+  <si>
+    <t>65c2b4e4e7157c0006ae65c3</t>
+  </si>
+  <si>
+    <t>Calapeña, Elizabeth.✨</t>
+  </si>
+  <si>
+    <t>6/2/2024, 19:48:50 - Calapeña, Elizabeth.✨: ¡Hola! Podrías darme más información de...
+6/2/2024, 19:48:50 - MegaBot: ¡Hola Calapeña, Elizabeth.✨! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 19:49:43 - Calapeña, Elizabeth.✨: Smash gillera
+6/2/2024, 19:49:43 - MegaBot: ¡Hola! Para poder ayudarte mejor, necesito que me indiques el método de pago preferido, un número de teléfono y tu domicilio. ¿Cómo deseas realizar el pago? 🏍️🔍
+6/2/2024, 19:49:49 - Calapeña, Elizabeth.✨: Jujuy
+6/2/2024, 19:49:49 - MegaBot: El modelo Smash de Gilera no se encuentra en la lista de precios proporcionada por Megamoto. Te recomendaría contactar directamente a Megamoto a través de sus números de teléfono para obtener información específica sobre el modelo que buscas. También puedes visitar su sitio web o acercarte a alguna de sus sucursales en Merlo o CABA. ¡Espero que puedas encontrar la información que necesitas!🏍️✨
+6/2/2024, 19:50:25 - Calapeña, Elizabeth.✨: Que motos tenes en oferta
+6/2/2024, 19:50:25 - MegaBot: Para conocer las motos en oferta disponibles en Megamoto, te recomendaría que te contactes directamente con ellos a través de los números de teléfono que aparecen en su lista de precios. De esa manera, podrán brindarte la información más actualizada y detallada sobre las promociones vigentes. ¿Te gustaría que te proporcione los números de contacto? 📞🏍️
+6/2/2024, 19:50:31 - Calapeña, Elizabeth.✨: ?
+6/2/2024, 19:50:31 - MegaBot: Disculpa si mi respuesta no fue clara. Para obtener información sobre las motos en oferta en Megamoto, te recomendaría que te comuniques con ellos directamente a través de los siguientes números de contacto: 
+- Sucursal Merlo: 0220 484-2695
+- Sucursal CABA: 011 2058-6935
+Ellos podrán brindarte detalles específicos sobre las promociones disponibles. ¡Espero que puedas encontrar la moto que estás buscando a un buen precio! 🏍️✨</t>
+  </si>
+  <si>
+    <t>65c2b74fcc4d8700085fadd9</t>
+  </si>
+  <si>
+    <t>Hernan</t>
+  </si>
+  <si>
+    <t>6/2/2024, 19:50:39 - Hernan: Hola para sacar una 110 en cuotas que tengo presentar  y cuánto dinero se entrega?
+6/2/2024, 19:50:39 - MegaBot: ¡Hola Hernan! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 19:51:58 - Hernan: Soy de máximo paz partido de cañuelas quiero comprar una 110 noce que tenes para ofrecer y el precio
+6/2/2024, 19:51:59 - MegaBot: Para un modelo 110 de la marca Motomel, te puedo ofrecer las siguientes opciones con sus respectivos precios:
+- **Blitz 110 V8 START**: $955.658
+- **Blitz 110 V8 DELUXE**: $1.002.055
+- **Blitz 110 V8 PLUS**: $1.220.959
+- **Blitz 110 V8 FULL ONE - B1**: $1.084.038
+- **Blitz 110 V8 TUNNING NEW**: $1.197.087【6†source】. 
+Para obtener un precio confirmado y conocer más detalles, sería ideal que un vendedor de Megamoto se comunique contigo. ¿Podrías brindarme un teléfono de contacto y tu domicilio para agilizar el proceso de atención por parte del vendedor? ¡Gracias!
+6/2/2024, 19:54:04 - Hernan: 1158804097
+6/2/2024, 19:54:04 - MegaBot: ¡Gracias por proporcionar tu número de teléfono! ¿Podrías también brindarme tu dirección para completar los datos necesarios y así agilizar la atención de un vendedor de Megamoto? ¡Muchas gracias!
+6/2/2024, 19:54:10 - Hernan: Ese es mi número
+6/2/2024, 19:54:11 - MegaBot: Perfecto, gracias por confirmar tu número de teléfono. Para seguir adelante con la atención personalizada, ¿podrías proporcionarme tu dirección completa? Una vez que cuente con esa información, podré gestionar que un vendedor de Megamoto se ponga en contacto contigo lo antes posible. ¡Gracias!
+6/2/2024, 19:54:45 - Hernan: Santafeliza 215
+6/2/2024, 19:54:45 - MegaBot: ¡Gracias por proporcionar tu dirección! Un vendedor de Megamoto se comunicará contigo pronto para brindarte la información detallada que necesitas sobre la moto que te interesa. ¿Hay algo más en lo que pueda ayudarte en este momento? ¡Estoy aquí para asistirte en lo que necesites!
+6/2/2024, 19:55:27 - Hernan: No eso nomas gracias
+6/2/2024, 19:55:27 - MegaBot: ¡De nada! Cualquier otra consulta que tengas en el futuro, ¡no dudes en contactarme! ¡Que tengas un excelente día! ¡Adiós!</t>
+  </si>
+  <si>
+    <t>65c2b7bb54f4890008164514</t>
+  </si>
+  <si>
+    <t>₩itty</t>
+  </si>
+  <si>
+    <t>6/2/2024, 19:50:54 - ₩itty: ¡Hola! Podrías darme más información de...
+6/2/2024, 19:50:55 - MegaBot: ¡Hola ₩itty! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 19:51:52 - ₩itty: En cuotas sin interés
+6/2/2024, 19:51:53 - MegaBot: ¡Hola! ¿Qué modelo de moto de Megamoto estás buscando?Recuerda que para agilizar el proceso, necesitaré saber también tu teléfono y domicilio. ¡Gracias!
+6/2/2024, 19:51:59 - ₩itty: De rio gallegos
+6/2/2024, 19:51:59 - MegaBot: Perfecto, ¿podrías indicarme el modelo de moto que te interesa de Megamoto? Además, necesitaré tu teléfono para completar la información. ¡Gracias!
+6/2/2024, 19:52:26 - ₩itty: Rouser 400
+6/2/2024, 19:52:26 - MegaBot: Gracias por la información. ¿Podrías proporcionarme tu número de teléfono para continuar con el proceso?
+6/2/2024, 19:52:32 - ₩itty: 2966242394
+6/2/2024, 19:52:32 - MegaBot: ¡Gracias! Solo me falta tu domicilio para completar la información. ¿Podrías proporcionarme esa información, por favor?</t>
+  </si>
+  <si>
+    <t>65c2b7ccfbb69a00097e5b69</t>
+  </si>
+  <si>
+    <t>Te Amo Mi Julian</t>
+  </si>
+  <si>
+    <t>6/2/2024, 19:56:13 - Te Amo Mi Julian: ¡Hola! Podrías darme más información de...
+6/2/2024, 19:56:14 - MegaBot: ¡Hola Te Amo Mi Julian! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 19:56:26 - Te Amo Mi Julian: De donde son
+6/2/2024, 19:56:26 - MegaBot: Megamoto tiene sucursales en Merlo y en CABA (zona Abasto)【6†source】. ¿En cuál de estas áreas te encuentras?
+6/2/2024, 19:56:39 - Te Amo Mi Julian: Hurlinghan
+6/2/2024, 19:56:40 - MegaBot: Lamentablemente, Megamoto no tiene sucursal en Hurlingham. Te recomendaría contactarte con ellos para obtener más información o buscar la sucursal más cercana a tu ubicación. ¿Necesitas que te proporcione los números de contacto de Megamoto?
+6/2/2024, 19:57:32 - Te Amo Mi Julian: Bueno
+6/2/2024, 19:57:32 - MegaBot: Perfecto. A continuación te proporcionaré los números de contacto de Megamoto:
+- Sucursal Merlo: 0220-4820255
+- Sucursal CABA (zona Abasto): 011-49530916
+Si necesitas más ayuda o información, no dudes en consultarme. ¡Estoy aquí para ayudarte! 😊🏍️</t>
+  </si>
+  <si>
+    <t>65c2b90b1e2e5d0008bfb4b3</t>
+  </si>
+  <si>
+    <t>Betiana Britos 🤗</t>
+  </si>
+  <si>
+    <t>6/2/2024, 20:00:41 - Betiana Britos 🤗: ¡Hola! Podrías darme más información de...
+6/2/2024, 20:00:41 - MegaBot: ¡Hola Betiana Britos 🤗! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 20:09:45 - Betiana Britos 🤗: 110c
+6/2/2024, 20:09:45 - MegaBot: El modelo BLITZ 110 V8 START de MOTOMEL tiene un precio de $955.658. Para obtener más información y ser atendida por un vendedor de Megamoto, por favor indícame el método de pago que prefieres, un teléfono de contacto y tu domicilio. ¡Gracias!🏍️👨‍💼
+6/2/2024, 20:09:52 - Betiana Britos 🤗: Crédito
+6/2/2024, 20:09:52 - MegaBot: Perfecto, ¿podrías indicarme un número de teléfono para contactarte?
+6/2/2024, 20:10:12 - Betiana Britos 🤗: Crédito
+6/2/2024, 20:10:12 - MegaBot: Para gestionar tu solicitud de compra a crédito necesito un número de teléfono de contacto. ¿Podrías proporcionarme uno por favor?</t>
+  </si>
+  <si>
+    <t>65c2ba1658d68e000846b14a</t>
+  </si>
+  <si>
+    <t>Antonio Gonzales</t>
+  </si>
+  <si>
+    <t>6/2/2024, 20:02:41 - Antonio Gonzales: ¡Hola! Podrías darme más información de...
+6/2/2024, 20:02:42 - MegaBot: ¡Hola Antonio Gonzales! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 20:05:55 - Antonio Gonzales: Hola
+6/2/2024, 20:05:55 - MegaBot: ¡Hola Antonio! 👋 Soy MegaBot, el Asistente Virtual de Megamoto. Para poder ayudarte mejor y agilizar tu atención, por favor indicame el modelo de moto que estás buscando, tu método de pago preferido, tu número de teléfono y tu domicilio. ¡Estoy aquí para asistirte! 😀 ¿En qué puedo ayudarte hoy?</t>
+  </si>
+  <si>
+    <t>65c2ba8fbaf60c00087d5b6f</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t>6/2/2024, 20:06:34 - Brenda: De contado..
+6/2/2024, 20:06:34 - MegaBot: ¡Hola Brenda! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 21:10:46 - Brenda: Ok, mañana envío entonces
+6/2/2024, 21:10:46 - MegaBot: Perfecto, estaré atento a tu mensaje. ¡Que tengas un buen día! 😊
+6/2/2024, 21:10:52 - Brenda: Hoy ya no puedo comprar
+6/2/2024, 21:10:53 - MegaBot: Entiendo, no hay problema. Estoy aquí para ayudarte cuando estés listo. ¡Que tengas una buena tarde! 😊</t>
+  </si>
+  <si>
+    <t>65bd2a6731288b0008b5c505</t>
+  </si>
+  <si>
+    <t>Haydee Gabriela D Alesand</t>
+  </si>
+  <si>
+    <t>6/2/2024, 20:16:33 - Haydee Gabriela D Alesand: ¡Hola! Podrías darme más información de...
+6/2/2024, 20:16:33 - MegaBot: ¡Hola Haydee Gabriela D Alesand! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+6/2/2024, 20:18:41 - Haydee Gabriela D Alesand: Cualquier modelo mediano 
+Financiamiento 
++54 9 11 2597-9971 el interesado se llama Germán
+6/2/2024, 20:18:41 - MegaBot: Hola Germán 👋. Para ofrecerte la mejor atención, ¿podrías indicarme tu domicilio por favor?
+6/2/2024, 20:20:02 - Haydee Gabriela D Alesand: Reconquista 2990 villa ballester
+6/2/2024, 20:20:02 - MegaBot: Perfecto, Germán. Un vendedor se comunicará contigo a la brevedad para brindarte más información sobre las motos medianas disponibles y opciones de financiamiento. ¡Gracias por contactar con Megamoto! 🏍️🔧
+6/2/2024, 20:20:12 - Haydee Gabriela D Alesand: Y este no es su celular
+6/2/2024, 20:20:12 - MegaBot: Mis disculpas por el error. ¿Podrías proporcionar el número de teléfono correcto para que el vendedor pueda comunicarse contigo?
+6/2/2024, 20:20:54 - Haydee Gabriela D Alesand: +54 9 11 2597-9971 Germán
+6/2/2024, 20:20:54 - MegaBot: ¡Perfecto, Germán! El vendedor se comunicará contigo al número +54 9 11 2597-9971 para asistirte con tu consulta. ¡Gracias por tu paciencia y confianza en Megamoto! 🏍️🔧</t>
+  </si>
+  <si>
+    <t>65c2bdcf6427a400086f530b</t>
+  </si>
+  <si>
+    <t>Andrés Maidana 😇</t>
+  </si>
+  <si>
+    <t>6/2/2024, 20:21:51 - Andrés Maidana 😇: ¡Hola! Podrías darme más información de...
+6/2/2024, 20:21:51 - MegaBot: ¡Hola Andrés Maidana 😇! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</t>
+  </si>
+  <si>
+    <t>6468c75c74c1400008e0a747</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -64,15 +428,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -397,278 +772,430 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="117" style="2" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>channel</v>
-      </c>
-      <c r="C1" t="str">
-        <v>content</v>
-      </c>
-      <c r="D1" t="str">
-        <v>id_user</v>
-      </c>
-      <c r="E1" t="str">
-        <v>createdAt</v>
-      </c>
-    </row>
-    <row r="2" xml:space="preserve">
-      <c r="A2" t="str">
-        <v>Sophia🦋</v>
-      </c>
-      <c r="B2" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C2" t="str" xml:space="preserve">
-        <v xml:space="preserve">3/2/2024, 18:29:28 - Sophia🦋: Hola buenas
-3/2/2024, 18:29:29 - MegaBot: ¡Hola Sophia🦋! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-3/2/2024, 18:29:32 - Vendedor Megamoto: ¡Hola Sophia🦋! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D2" t="str">
-        <v>65beb03468989d0008eeb479</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>45325.769917488426</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
-        <v>Daiana Stephanie Coria</v>
-      </c>
-      <c r="B3" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C3" t="str" xml:space="preserve">
-        <v xml:space="preserve">3/2/2024, 18:29:57 - Daiana Stephanie Coria: ¡Hola! Podrías darme más información de...info
-3/2/2024, 18:29:58 - MegaBot: ¡Hola Daiana Stephanie Coria! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-3/2/2024, 18:30:01 - Vendedor Megamoto: ¡Hola Daiana Stephanie Coria! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D3" t="str">
-        <v>65beb0526996e700097c6f0b</v>
+        <v>45328.737965567132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="1">
-        <v>45325.77024730324</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str">
-        <v>Anch</v>
-      </c>
-      <c r="B4" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C4" t="str" xml:space="preserve">
-        <v xml:space="preserve">3/2/2024, 20:48:21 - Anch: Buenas tardes tiene la honda navi amigo ?
-3/2/2024, 20:48:21 - MegaBot: ¡Hola Anch! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-3/2/2024, 20:48:24 - Vendedor Megamoto: ¡Hola Anch! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D4" t="str">
-        <v>65bed0c103397c0008c9a4df</v>
+        <v>45328.738452916667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="1">
-        <v>45325.86636020833</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5" t="str">
-        <v>Hori Cuki Y Tin Mis Amore</v>
-      </c>
-      <c r="B5" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C5" t="str" xml:space="preserve">
-        <v xml:space="preserve">3/2/2024, 20:53:49 - Hori Cuki Y Tin Mis Amore: ¡Hola! Podrías darme más información de...
-3/2/2024, 20:53:49 - MegaBot: ¡Hola Hori Cuki Y Tin Mis Amore! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-3/2/2024, 20:53:51 - Vendedor Megamoto: ¡Hola Hori Cuki Y Tin Mis Amore! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D5" t="str">
-        <v>602485ecfe42cb000859e010</v>
+        <v>45328.73853412037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="248" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
       </c>
       <c r="E5" s="1">
-        <v>45325.87015258102</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6" t="str">
-        <v>Cto</v>
-      </c>
-      <c r="B6" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C6" t="str" xml:space="preserve">
-        <v xml:space="preserve">4/2/2024, 7:31:17 - Cto: ¡Hola! Podrías darme más información de...
-4/2/2024, 7:31:18 - MegaBot: ¡Hola Cto! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-4/2/2024, 7:31:20 - Vendedor Megamoto: ¡Hola Cto! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D6" t="str">
-        <v>65bf677245200d000879f3b7</v>
+        <v>45328.741528206017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="155" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>45326.31284787037</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7" t="str">
-        <v>Bogado Federico</v>
-      </c>
-      <c r="B7" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C7" t="str" xml:space="preserve">
-        <v xml:space="preserve">4/2/2024, 9:07:23 - Bogado Federico: ¡Hola! Me gustaría conseguir más información sobre esto.
-4/2/2024, 9:07:23 - MegaBot: ¡Hola Bogado Federico! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-4/2/2024, 9:07:25 - Vendedor Megamoto: ¡Hola Bogado Federico! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D7" t="str">
-        <v>65bf7df7855d810008390bc4</v>
+        <v>45328.743501666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
       </c>
       <c r="E7" s="1">
-        <v>45326.379572858794</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8" t="str">
-        <v>Miguel Angel Lugo</v>
-      </c>
-      <c r="B8" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C8" t="str" xml:space="preserve">
-        <v xml:space="preserve">4/2/2024, 12:47:18 - Miguel Angel Lugo: ¡Hola! Podrías darme más información de...
-4/2/2024, 12:47:18 - MegaBot: ¡Hola Miguel Angel Lugo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-4/2/2024, 12:47:21 - Vendedor Megamoto: ¡Hola Miguel Angel Lugo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D8" t="str">
-        <v>65bfb1817650060008aa3fbb</v>
+        <v>45328.750904837965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
       </c>
       <c r="E8" s="1">
-        <v>45326.53230101852</v>
-      </c>
-    </row>
-    <row r="9" xml:space="preserve">
-      <c r="A9" t="str">
-        <v>🥹🥹🥹</v>
-      </c>
-      <c r="B9" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C9" t="str" xml:space="preserve">
-        <v xml:space="preserve">4/2/2024, 15:56:50 - 🥹🥹🥹: ¡Hola! Podrías darme más información de...
-4/2/2024, 15:56:50 - MegaBot: ¡Hola 🥹🥹🥹! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-4/2/2024, 15:56:55 - Vendedor Megamoto: ¡Hola 🥹🥹🥹! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D9" t="str">
-        <v>65bfdded8802ac0008e50650</v>
+        <v>45328.756115173608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="186" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
       </c>
       <c r="E9" s="1">
-        <v>45326.66391568287</v>
-      </c>
-    </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10" t="str">
-        <v>Tatii🥰</v>
-      </c>
-      <c r="B10" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C10" t="str" xml:space="preserve">
-        <v xml:space="preserve">4/2/2024, 17:48:06 - Tatii🥰: ¡Hola! Podrías darme más información de...
-4/2/2024, 17:48:07 - MegaBot: ¡Hola Tatii🥰! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-4/2/2024, 17:48:10 - Vendedor Megamoto: ¡Hola Tatii🥰! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D10" t="str">
-        <v>65bff8027acbaa00080b29f3</v>
+        <v>45328.768834166665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="1">
-        <v>45326.741187789354</v>
-      </c>
-    </row>
-    <row r="11" xml:space="preserve">
-      <c r="A11" t="str">
-        <v>T Extraño Vieji</v>
-      </c>
-      <c r="B11" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C11" t="str" xml:space="preserve">
-        <v xml:space="preserve">4/2/2024, 17:55:52 - T Extraño Vieji: ¡Hola! Podrías darme más información de...
-4/2/2024, 17:55:52 - MegaBot: ¡Hola T Extraño Vieji! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-4/2/2024, 17:55:55 - Vendedor Megamoto: ¡Hola T Extraño Vieji! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D11" t="str">
-        <v>65bff9d5fd481a000828c996</v>
+        <v>45328.782384756945</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="294.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
       </c>
       <c r="E11" s="1">
-        <v>45326.74657686343</v>
-      </c>
-    </row>
-    <row r="12" xml:space="preserve">
-      <c r="A12" t="str">
-        <v>Roxanaochagavia785</v>
-      </c>
-      <c r="B12" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C12" t="str" xml:space="preserve">
-        <v xml:space="preserve">4/2/2024, 18:11:48 - Roxanaochagavia785: ¡Hola! Podrías darme más información de...
-4/2/2024, 18:11:48 - MegaBot: ¡Hola Roxanaochagavia785! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-4/2/2024, 18:11:51 - Vendedor Megamoto: ¡Hola Roxanaochagavia785! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D12" t="str">
-        <v>65bfd33730c0da0008d9a779</v>
+        <v>45328.788939004633</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
       </c>
       <c r="E12" s="1">
-        <v>45326.75764322917</v>
-      </c>
-    </row>
-    <row r="13" xml:space="preserve">
-      <c r="A13" t="str">
-        <v>Jonny Ezequiel</v>
-      </c>
-      <c r="B13" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C13" t="str" xml:space="preserve">
-        <v xml:space="preserve">4/2/2024, 18:29:12 - Jonny Ezequiel: 1123979904, soy de Morón
-4/2/2024, 18:29:12 - MegaBot: ¡Hola Jonny Ezequiel! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D13" t="str">
-        <v>65c001a6ed5f3a0008870e43</v>
+        <v>45328.796882488423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="108.5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
       </c>
       <c r="E13" s="1">
-        <v>45326.769728148145</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
-      <c r="A14" t="str">
-        <v>Jonatan Filipuzzi</v>
-      </c>
-      <c r="B14" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C14" t="str" xml:space="preserve">
-        <v xml:space="preserve">4/2/2024, 20:24:43 - Jonatan Filipuzzi: Estaba en busca de una moto 150...
-4/2/2024, 20:24:43 - MegaBot: ¡Hola Jonatan Filipuzzi! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-4/2/2024, 20:24:46 - Vendedor Megamoto: ¡Hola Jonatan Filipuzzi! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D14" t="str">
-        <v>65c01cb851691a000860bd61</v>
+        <v>45328.799970624998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="186" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
       </c>
       <c r="E14" s="1">
-        <v>45326.84994890046</v>
+        <v>45328.811482418983</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="279" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45328.817886701392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="387.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45328.825025115744</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45328.826288750002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45328.826468368054</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="279" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45328.830159756944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="201.5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45328.83325329861</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45328.834651041667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="124" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45328.837341180559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="263.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45328.844277685188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45328.847960277781</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E14"/>
+    <ignoredError sqref="A1:E24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -967,299 +967,735 @@
         <v>whatsapp</v>
       </c>
       <c r="C25" t="str" xml:space="preserve">
-        <v xml:space="preserve">7/2/2024, 11:28:48 - Gustavo Gomez Villafañe: hola
-7/2/2024, 11:28:48 - MegaBot: ¡Hola Gustavo Gomez Villafañe! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-7/2/2024, 12:36:25 - Gustavo Gomez Villafañe: estoy probando un mensaje de error si megabot no puede procesarlo
-7/2/2024, 12:36:25 - MegaBot: ¡Hola! Soy MegaBot, Asistente Virtual de Megamoto. ¿En qué puedo ayudarte hoy? 😊
-7/2/2024, 12:37:33 - MegaBot: Lo siento, en este momento no puedo procesar tu solicitud. Por favor, intenta de nuevo más tarde.
-7/2/2024, 14:58:49 - MegaBot: Te pido disculpas 🙏, en este momento no puedo procesar tu solicitud ☹️. Por favor intentá mas tarde. Saludos de MegaBot!! 🙂</v>
+        <v xml:space="preserve">8/2/2024, 17:30:47 - Gustavo Gomez Villafañe: hola
+8/2/2024, 17:30:47 - MegaBot: ¡Hola Gustavo Gomez Villafañe! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+9/2/2024, 16:34:10 - Gustavo Gomez Villafañe: hola estoy haciendo una prueba a ver si reconoce la palabra precio
+9/2/2024, 16:34:10 - MegaBot: Hola Gustavo, mi especialidad está en temas relacionados con Megamoto. Si estás buscando información sobre precios de motos, ¡estaré encantado de ayudarte! ¿En qué modelo estás interesado?
+9/2/2024, 16:37:23 - Gustavo Gomez Villafañe: y la palabra info?
+9/2/2024, 16:37:24 - MegaBot: Hola Gustavo, mi enfoque es brindar información sobre productos y servicios de Megamoto. ¿En qué moto estás interesado? ¡Estoy aquí para ayudarte!
+9/2/2024, 16:49:08 - Gustavo Gomez Villafañe: cuanto sale una blitz 110?
+9/2/2024, 16:49:08 - MegaBot: La Motomel Blitz 110 tiene varios modelos con diferentes especificaciones y precios. Aquí te dejo algunas opciones:
+- Blitz 110 V8 Base One: $1.068.056
+- Blitz 110 V8 Full One: $1.084.038
+- Blitz 110 V8 Plus: $1.220.959
+- Blitz 110 V8 Start: $955.658
+- Blitz 110 V8 Tunning New: $1.197.087
+Recuerda que estos precios incluyen patentamiento, no incluyen el sellado de CABA y deben ser confirmados por un vendedor de Megamoto. ¿Te gustaría más información sobre alguno de estos modelos?
+9/2/2024, 16:53:54 - Gustavo Gomez Villafañe: tienen mundial?
+9/2/2024, 16:53:55 - MegaBot: Mi especialidad es brindar información sobre productos y servicios de Megamoto. Si estás buscando información sobre motos Mundial, te recomiendo que te contactes directamente con la empresa fabricante o con algún distribuidor autorizado. ¿Hay algo más en lo que pueda ayudarte dentro del catálogo de Megamoto?
+9/2/2024, 16:54:35 - Gustavo Gomez Villafañe: y mundial?
+9/2/2024, 16:54:36 - MegaBot: Mi enfoque principal es proporcionar información sobre productos y servicios de Megamoto. Si estás buscando información sobre motos Mundial, te recomendaría contactar directamente a la empresa fabricante o a algún distribuidor autorizado de la marca Mundial para obtener la información que necesitas. ¿Hay algo más en lo que pueda asistirte relacionado con Megamoto?
+9/2/2024, 16:54:43 - Gustavo Gomez Villafañe: mondial
+9/2/2024, 16:54:43 - MegaBot: Mi especialidad es brindar información sobre productos y servicios de Megamoto. Si estás interesado en motos Mondial, te recomendaría que contactes directamente a la empresa fabricante o a algún distribuidor autorizado de la marca Mondial para obtener detalles específicos sobre sus productos. ¿Hay algo más en lo que pueda ayudarte dentro del catálogo de Megamoto?
+9/2/2024, 16:55:24 - Gustavo Gomez Villafañe: tenes precio de la cg?
+9/2/2024, 16:55:25 - MegaBot: El precio de la Motomel CG 150 S2 FULL (con aleación y disco) es de $1.480.676, mientras que el modelo CG 150 S2 START tiene un precio de $1.221.010. Recuerda que estos precios incluyen patentamiento, pero no incluyen el sellado de CABA, y deben ser confirmados por un vendedor de Megamoto. ¿Hay algo más en lo que pueda ayudarte?</v>
       </c>
       <c r="D25" t="str">
         <v>6596d62461f4a300081b28cb</v>
       </c>
       <c r="E25" s="1">
-        <v>45329.47777994213</v>
+        <v>45330.729160219904</v>
       </c>
     </row>
     <row r="26" xml:space="preserve">
       <c r="A26" t="str">
-        <v>Coco</v>
+        <v>Sammy</v>
       </c>
       <c r="B26" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C26" t="str" xml:space="preserve">
-        <v xml:space="preserve">7/2/2024, 11:29:40 - Coco: ¡Hola! Podrías darme más información de...
-7/2/2024, 11:29:40 - MegaBot: ¡Hola Coco! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+        <v xml:space="preserve">8/2/2024, 17:34:24 - Sammy: Hola, tengo algunas preguntas sobre Motomel Skua 125 Xtreme- Mejor Contado - Ant. + Financiada!. https://moto.mercadolibre.com.ar/MLA-1518305488-motomel-skua-125-xtreme-mejor-contado-ant-financiada-_JM?u=NDc1MDk3MzYy
+8/2/2024, 17:34:24 - MegaBot: ¡Hola Sammy! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+8/2/2024, 17:35:38 - Sammy: Me interesa la motomel skua 125
+8/2/2024, 17:35:38 - MegaBot: Perfecto, la Motomel Skua 125 tiene un precio de $1.485.241. Para ser atendido por un vendedor de forma más rápida, por favor proporcióname tu método de pago preferido, número de teléfono y domicilio. ¡Gracias! 🏍️🔝
+8/2/2024, 17:36:27 - Sammy: Efectivo
+8/2/2024, 17:36:27 - MegaBot: ¡Gracias por la información! ¿Podrías proporcionarme tu número de teléfono y domicilio para completar tus datos? ¡Así un vendedor podrá contactarte lo antes posible! 📞🏠
+8/2/2024, 17:36:34 - Sammy: 1134383749
+8/2/2024, 17:36:34 - MegaBot: ¡Gracias por tu número de teléfono! ¿Podrías facilitarme tu domicilio para completar tus datos? ¡Así un vendedor podrá contactarte pronto para seguir con la gestión de tu compra! 🛵📦
+8/2/2024, 17:36:40 - Sammy: Linier
+8/2/2024, 17:36:41 - MegaBot: Perfecto, ¡tus datos están completos! Un vendedor de Megamoto se pondrá en contacto contigo para continuar con la gestión de tu compra de la Motomel Skua 125. ¡Gracias por elegirnos y que disfrutes de tu nueva moto! 🏍️🎉 
+8/2/2024, 17:43:08 - Sammy: Gracias
+8/2/2024, 17:43:08 - MegaBot: ¡De nada, Sammy! ¡Que tengas un excelente día y mucha suerte con tu compra de la Motomel Skua 125! Estoy aquí para ayudarte en lo que necesites. ¡Hasta luego! 👋😊
+9/2/2024, 10:15:15 - Sammy: ?
+9/2/2024, 10:15:15 - MegaBot: Disculpa si he sido breve en mis respuestas. ¿Hay alguna otra pregunta o información en la que pueda ayudarte? Si es así, por favor házmela saber. ¡Estoy aquí para asistirte!
+9/2/2024, 10:16:55 - Sammy: Aún no me an llamado
+9/2/2024, 10:16:56 - MegaBot: Lamento la demora en la comunicación. Te recomendaría aguardar un poco más, pero si lo prefieres, también puedes comunicarte directamente con Megamoto al siguiente número de teléfono: 011 4856-0510. Ellos podrán brindarte información sobre el estado de tu solicitud de compra de la Motomel Skua 125. ¡Espero que pronto resuelvan tu inquietud! ¡Buena suerte! 📞🏍️</v>
       </c>
       <c r="D26" t="str">
-        <v>65c327d659f4f40008be242c</v>
+        <v>65c53acd1e8d9800088e82fb</v>
       </c>
       <c r="E26" s="1">
-        <v>45329.47838369213</v>
+        <v>45330.731673078706</v>
       </c>
     </row>
     <row r="27" xml:space="preserve">
       <c r="A27" t="str">
-        <v>😃</v>
+        <v>Nicolas Moreno</v>
       </c>
       <c r="B27" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C27" t="str" xml:space="preserve">
-        <v xml:space="preserve">7/2/2024, 11:33:39 - 😃: ¡Hola! Me gustaría conseguir más información sobre esto.
-7/2/2024, 11:33:40 - MegaBot: ¡Hola 😃! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+        <v xml:space="preserve">8/2/2024, 17:41:23 - Nicolas Moreno: ¡Hola! Podrías darme más información de...
+8/2/2024, 17:41:23 - MegaBot: ¡Hola Nicolas Moreno! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
       </c>
       <c r="D27" t="str">
-        <v>65c394a1737fc3000af2dcbc</v>
+        <v>65c53c70489045000900200b</v>
       </c>
       <c r="E27" s="1">
-        <v>45329.481155532405</v>
+        <v>45330.73651715278</v>
       </c>
     </row>
     <row r="28" xml:space="preserve">
       <c r="A28" t="str">
-        <v>Luis</v>
+        <v>Mariano Gongora</v>
       </c>
       <c r="B28" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C28" t="str" xml:space="preserve">
-        <v xml:space="preserve">7/2/2024, 11:42:29 - Luis: Hola tenes blitz 110
-7/2/2024, 11:42:29 - MegaBot: ¡Hola Luis! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+        <v xml:space="preserve">8/2/2024, 18:17:11 - Mariano Gongora: ¡Hola! Podrías darme más información de...
+8/2/2024, 18:17:11 - MegaBot: ¡Hola Mariano Gongora! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+8/2/2024, 18:18:51 - Mariano Gongora: ¡Hola! Podrías darme más información de...
+8/2/2024, 18:18:51 - MegaBot: Mariano Gongora, ¿qué modelo de moto estás buscando en Megamoto?
+8/2/2024, 18:19:32 - Mariano Gongora: Zanella 150  con un adelanto y cuotas
+8/2/2024, 18:19:32 - MegaBot: El modelo que buscas, Zanella 150, no se encuentra en la lista de modelos de las marcas que comercializa Megamoto (Benelli, Suzuki, Motomel, Keeway y Sym). Te recomendaría comunicarte directamente con un vendedor para consultar sobre la disponibilidad de este modelo en particular. ¿Podrías proporcionar un teléfono de contacto para que un vendedor de Megamoto pueda comunicarse contigo?
+8/2/2024, 18:20:15 - Mariano Gongora: 2804825715
+8/2/2024, 18:20:15 - MegaBot: Perfecto, ¿podrías facilitarme tu domicilio para que un vendedor de Megamoto pueda contactarte y brindarte más información sobre las opciones de financiación disponibles?
+8/2/2024, 18:20:52 - Mariano Gongora: San Miguel bs as
+8/2/2024, 18:20:52 - MegaBot: ¡Gracias por la información! Un vendedor de Megamoto se pondrá en contacto contigo pronto para brindarte más detalles sobre las opciones de financiación disponibles para la Zanella 150. ¿Hay algo más en lo que pueda ayudarte?
+8/2/2024, 18:21:41 - Mariano Gongora: Gracias es todo espero comunicación
+8/2/2024, 18:21:41 - MegaBot: ¡De nada! ¡Que tengas un excelente día y mucha suerte con tu búsqueda de la Zanella 150 en Megamoto! ¡Hasta luego! 👋😊</v>
       </c>
       <c r="D28" t="str">
-        <v>65c34f409592f7000891a4c2</v>
+        <v>65c544d474f5bb0008a0e453</v>
       </c>
       <c r="E28" s="1">
-        <v>45329.48728206019</v>
+        <v>45330.76138136574</v>
       </c>
     </row>
     <row r="29" xml:space="preserve">
       <c r="A29" t="str">
-        <v>Francesca😍isa😘dante🥰</v>
+        <v>Diegote</v>
       </c>
       <c r="B29" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C29" t="str" xml:space="preserve">
-        <v xml:space="preserve">7/2/2024, 11:56:16 - Francesca😍isa😘dante🥰: ¡Hola! Podrías darme más información de...
-7/2/2024, 11:56:16 - MegaBot: ¡Hola Francesca😍isa😘dante🥰! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+        <v xml:space="preserve">8/2/2024, 18:29:30 - Diegote: ¡Hola! Me gustaría conseguir más información sobre esto.
+8/2/2024, 18:29:31 - MegaBot: ¡Hola Diegote! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+8/2/2024, 20:06:02 - Diegote: ¡Hola! Me gustaría conseguir más información sobre esto.
+8/2/2024, 20:06:02 - MegaBot: Lamento no tener información específica sobre eso en la base de conocimiento de Megamoto. ¿Te gustaría que un vendedor te brinde más detalles al respecto? Recuerda que para ello necesitaré que me indiques qué moto estás buscando, tu método de pago preferido, un número de teléfono y tu ubicación. ¡Quedo a disposición para ayudarte! 😊🏍️</v>
       </c>
       <c r="D29" t="str">
-        <v>65c39a0b71c3180008a22147</v>
+        <v>65c547b8c8ec9c00081b9e25</v>
       </c>
       <c r="E29" s="1">
-        <v>45329.49685456019</v>
+        <v>45330.76994128472</v>
       </c>
     </row>
     <row r="30" xml:space="preserve">
       <c r="A30" t="str">
-        <v>Dios</v>
+        <v>👋🏻</v>
       </c>
       <c r="B30" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C30" t="str" xml:space="preserve">
-        <v xml:space="preserve">7/2/2024, 12:12:40 - Dios: Hola amigo
-7/2/2024, 12:12:40 - MegaBot: ¡Hola Dios! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+        <v xml:space="preserve">8/2/2024, 18:49:27 - 👋🏻: ¡Hola! Podrías darme más información de...
+8/2/2024, 18:49:27 - MegaBot: ¡Hola 👋🏻! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
       </c>
       <c r="D30" t="str">
-        <v>65bd57b1d1bf2a0008b04540</v>
+        <v>65c54c63c5f92100085275bc</v>
       </c>
       <c r="E30" s="1">
-        <v>45329.50824333333</v>
+        <v>45330.78378627315</v>
       </c>
     </row>
     <row r="31" xml:space="preserve">
       <c r="A31" t="str">
-        <v>Germán😃</v>
+        <v>Alee Gauna 😘</v>
       </c>
       <c r="B31" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C31" t="str" xml:space="preserve">
-        <v xml:space="preserve">7/2/2024, 12:28:40 - Germán😃: ¡Hola! Podrías darme más información de...
-7/2/2024, 12:28:40 - MegaBot: ¡Hola Germán😃! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+        <v xml:space="preserve">8/2/2024, 19:15:06 - Alee Gauna 😘: ¡Hola! Podrías darme más información de...
+8/2/2024, 19:15:06 - MegaBot: ¡Hola Alee Gauna 😘! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
       </c>
       <c r="D31" t="str">
-        <v>64c5ce110b97c4000889d0c8</v>
+        <v>65c552678ba24b000864ed9c</v>
       </c>
       <c r="E31" s="1">
-        <v>45329.51935758102</v>
+        <v>45330.801599722225</v>
       </c>
     </row>
     <row r="32" xml:space="preserve">
       <c r="A32" t="str">
-        <v>Alejandro Garcia</v>
+        <v>Santii</v>
       </c>
       <c r="B32" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C32" t="str" xml:space="preserve">
-        <v xml:space="preserve">7/2/2024, 12:36:27 - Alejandro Garcia: ¡Hola! Podrías darme más información de...
-7/2/2024, 12:36:27 - MegaBot: ¡Hola Alejandro Garcia! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+        <v xml:space="preserve">8/2/2024, 19:22:27 - Santii: ¡Hola! Me gustaría conseguir más información sobre esto.
+8/2/2024, 19:22:27 - MegaBot: ¡Hola Santii! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+8/2/2024, 19:23:32 - Santii: Me intera la Belli trk 502 y quería consultar si tienen algún honda tornado
+8/2/2024, 19:23:33 - MegaBot: Para la Belli TRK 502 el precio es de $12.124.773【6†fuente】. Respecto a alguna Honda Tornado, Megamoto no comercializa ese modelo en particular. ¿Te gustaría que un vendedor te asesore sobre la Belli TRK 502? Si es así, por favor proporcioname tu método de pago preferido, teléfono y domicilio para coordinar la atención de un vendedor de Megamoto. ¡Gracias! 😊
+8/2/2024, 19:24:33 - Santii: Me gustaría pagar en cuotas accesibles
+20 de noviembre 1531
+2664929130
+8/2/2024, 19:24:34 - MegaBot: Perfecto, ¿podrías por favor indicarme tu domicilio completo para coordinar con un vendedor de Megamoto? ¡Gracias! 😊
+8/2/2024, 19:25:07 - Santii: 20 de noviembre 1531 juana koslay
+8/2/2024, 19:25:07 - MegaBot: ¡Gracias por la información! En breve un vendedor de Megamoto se comunicará contigo para brindarte más detalles sobre la Belli TRK 502 y las opciones de pago en cuotas accesibles. ¡Que tengas un excelente día! 😊🏍️</v>
       </c>
       <c r="D32" t="str">
-        <v>6496f9fcc197d500086b3a0e</v>
+        <v>65c55421e9f2ce0008ca6c4e</v>
       </c>
       <c r="E32" s="1">
-        <v>45329.52475824074</v>
+        <v>45330.8067099537</v>
       </c>
     </row>
     <row r="33" xml:space="preserve">
       <c r="A33" t="str">
-        <v>Tomas Legaspi</v>
+        <v>Valen</v>
       </c>
       <c r="B33" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C33" t="str" xml:space="preserve">
-        <v xml:space="preserve">7/2/2024, 14:58:17 - Tomas Legaspi: ¡Hola! Podrías darme más información de...
-7/2/2024, 14:58:17 - MegaBot: ¡Hola Tomas Legaspi! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+        <v xml:space="preserve">8/2/2024, 19:22:53 - Valen: ¡Hola! Podrías darme más información de...
+8/2/2024, 19:22:53 - MegaBot: ¡Hola Valen! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+8/2/2024, 19:26:41 - Valen: Hola, quería saber el precio
+8/2/2024, 19:26:41 - MegaBot: Los precios de las motos varían según el modelo y la marca. Para darte un precio específico, necesitaría que me indiques cuál modelo te interesa. ¿Hay algún modelo en particular que estés buscando?
+8/2/2024, 19:27:14 - Valen: Si trk 502x
+8/2/2024, 19:27:14 - MegaBot: El precio de la Benelli TRK 502X es de $13.724.613, el cual incluye patentamiento pero no incluye impuesto a los sellos de CABA y debe ser confirmado con un vendedor. ¿Te gustaría que un vendedor te asista para más información y detalles sobre la compra? Para ello necesitaré que me proporciones tu método de pago preferido, teléfono y domicilio. ¡Gracias! 😊
+8/2/2024, 19:39:00 - Valen: Ok gracias
+8/2/2024, 19:39:00 - MegaBot: ¡De nada! Estoy aquí para ayudarte en lo que necesites. Si en algún momento deseas más información o asistencia, no dudes en decírmelo. ¡Que tengas un excelente día! 😊🏍️</v>
       </c>
       <c r="D33" t="str">
-        <v>65c3c4b5a733870008c2fb4c</v>
+        <v>65c5543bef07fc00087ad423</v>
       </c>
       <c r="E33" s="1">
-        <v>45329.62326153935</v>
+        <v>45330.807008159725</v>
       </c>
     </row>
     <row r="34" xml:space="preserve">
       <c r="A34" t="str">
-        <v>Gustavo Gomez Villafañe</v>
+        <v>Pabloo</v>
       </c>
       <c r="B34" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C34" t="str" xml:space="preserve">
-        <v xml:space="preserve">7/2/2024, 15:05:38 - Gustavo Gomez Villafañe: hola
-7/2/2024, 15:05:38 - MegaBot: ¡Hola Gustavo Gomez Villafañe! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+        <v xml:space="preserve">8/2/2024, 19:42:22 - Pabloo: Hola buenas tardes
+8/2/2024, 19:42:22 - MegaBot: ¡Hola Pabloo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+8/2/2024, 19:43:27 - Pabloo: Quería consultar por la motomel blits 110
+8/2/2024, 19:43:27 - MegaBot: El modelo Motomel Blitz 110 tiene diferentes versiones con precios que van desde aproximadamente $955.658 hasta $1.220.959, dependiendo del modelo específico. Para brindarte un precio exacto y confirmar disponibilidad, necesitaría que indiques cómo deseas pagar, tu número de teléfono y tu domicilio. Esto permitirá que un vendedor de Megamoto te contacte y te asesore de manera más eficiente.
+8/2/2024, 19:43:41 - Pabloo: Financiada 100%
+8/2/2024, 19:43:41 - MegaBot: Perfecto, ¿podrías proporcionarme tu número de teléfono y tu domicilio? Esto facilitará que un vendedor de Megamoto se comunique contigo para brindarte la información detallada sobre la financiación del modelo Motomel Blitz 110 que estás buscando. ¡Gracias por tu colaboración!
+8/2/2024, 19:44:55 - Pabloo: 1128177779
+8/2/2024, 19:44:55 - MegaBot: ¡Gracias por proporcionar tu número de teléfono! ¿Podrías indicarme tu domicilio? Esto permitirá que un vendedor de Megamoto pueda contactarte para brindarte información detallada sobre la financiación de la Motomel Blitz 110. ¡Estamos aquí para ayudarte!
+8/2/2024, 19:45:14 - Pabloo: Por la motomel blitz 110 base
+8/2/2024, 19:45:14 - MegaBot: El precio para la Motomel Blitz 110 Base es de aproximadamente $1.068.056. Este precio incluye el patentamiento, pero no incluye el impuesto a los sellos de CABA y debe ser confirmado por un vendedor de Megamoto antes de la compra. Para obtener más información sobre la financiación, sería útil proporcionar tu domicilio para que un vendedor pueda contactarte directamente y brindarte asistencia específica. ¡Estamos aquí para ayudarte!
+8/2/2024, 19:45:30 - Pabloo: Brasil 2305
+8/2/2024, 19:45:30 - MegaBot: ¡Gracias por proporcionar tu dirección! Un vendedor de Megamoto se comunicará contigo pronto para brindarte más información sobre la financiación de la Motomel Blitz 110 Base en Brasil 2305. ¡Que tengas un excelente día! Si necesitas algo más, no dudes en consultarme.
+8/2/2024, 19:45:53 - Pabloo: Gracias
+8/2/2024, 19:45:53 - MegaBot: ¡De nada! ¡Que tengas un excelente día y mucha suerte con tu consulta en Megamoto! ¡Estoy aquí para ayudarte en lo que necesites en el futuro! ¡Hasta pronto! 😊🏍️
+8/2/2024, 19:46:07 - Pabloo: Gracias, ¡igualmente!
+8/2/2024, 19:46:07 - MegaBot: ¡Gracias, que tengas un excelente día! ¡Hasta la próxima! 👋😊</v>
       </c>
       <c r="D34" t="str">
-        <v>6596d62461f4a300081b28cb</v>
+        <v>65c558ccc857d50008971594</v>
       </c>
       <c r="E34" s="1">
-        <v>45329.62835921296</v>
+        <v>45330.820540740744</v>
       </c>
     </row>
     <row r="35" xml:space="preserve">
       <c r="A35" t="str">
-        <v>Kevin</v>
+        <v>Karen</v>
       </c>
       <c r="B35" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C35" t="str" xml:space="preserve">
-        <v xml:space="preserve">7/2/2024, 15:05:38 - Kevin: ¡Hola! Podrías darme más información de...
-7/2/2024, 15:05:38 - MegaBot: ¡Hola Kevin! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+        <v xml:space="preserve">8/2/2024, 22:25:08 - Karen: ¡Hola! Podrías darme más información de...
+8/2/2024, 22:25:08 - MegaBot: ¡Hola Karen! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
       </c>
       <c r="D35" t="str">
-        <v>65c3c66e44a22b0008f050a8</v>
+        <v>65c57ef00948cf00084ad8ad</v>
       </c>
       <c r="E35" s="1">
-        <v>45329.6283612037</v>
+        <v>45330.93357181713</v>
       </c>
     </row>
     <row r="36" xml:space="preserve">
       <c r="A36" t="str">
-        <v>Ariel</v>
+        <v>Dios Tiene El Control</v>
       </c>
       <c r="B36" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C36" t="str" xml:space="preserve">
-        <v xml:space="preserve">7/2/2024, 16:05:13 - Ariel: ¡Hola! Me gustaría conseguir más información sobre esto.
-7/2/2024, 16:05:13 - MegaBot: ¡Hola Ariel! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-7/2/2024, 16:06:29 - Ariel: Hola que saber cuanto cuesta en efectivo la motomel blitz plus 110?
-7/2/2024, 16:06:30 - MegaBot: El precio en efectivo de la Motomel Blitz Plus 110 es de $1.220.959【6†fuente】. Para ser atendido por un vendedor de forma más rápida, por favor proporcioname el método de pago que prefieras, un teléfono de contacto y tu domicilio. ¡Gracias!</v>
+        <v xml:space="preserve">8/2/2024, 22:27:05 - Dios Tiene El Control: ¡Hola! Podrías darme más información de...
+8/2/2024, 22:27:05 - MegaBot: ¡Hola Dios Tiene El Control! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+8/2/2024, 22:27:58 - Dios Tiene El Control: Busco un 600 tnt o gt 600
+8/2/2024, 22:27:58 - MegaBot: ¡Hola! ¿Podrías indicarme cuál es tu método de pago preferido, tu número de teléfono y tu domicilio para poder derivarte con un vendedor lo más rápido posible? ¡Gracias! 🙂
+8/2/2024, 22:28:25 - Dios Tiene El Control: Con una entrega y cuotas
+8/2/2024, 22:28:25 - MegaBot: Perfecto, ¿podrías proporcionarme tu número de teléfono y domicilio para que un vendedor de Megamoto pueda contactarte lo antes posible? ¡Gracias! 🙂
+8/2/2024, 22:29:01 - Dios Tiene El Control: De donde son ustedes?
+8/2/2024, 22:29:01 - MegaBot: ¡Somos de Argentina! ¿Podrías brindarme tu número de teléfono y domicilio para que un vendedor de Megamoto se comunique contigo? ¡Gracias! 🙂
+8/2/2024, 22:30:11 - Dios Tiene El Control: Si también soy de argentina, que me escriba aca
+8/2/2024, 22:30:11 - MegaBot: ¡Entendido! Un vendedor de Megamoto se comunicará contigo aquí mismo para brindarte más información sobre la moto que estás buscando. ¿Hay algo más en lo que pueda ayudarte? 🙂
+8/2/2024, 22:30:39 - Dios Tiene El Control: No gracias
+8/2/2024, 22:30:39 - MegaBot: ¡Perfecto! Si necesitas algo más en el futuro, ¡aquí estaremos! Que tengas un excelente día y ¡buena búsqueda de tu moto! 👋😊 ¡Hasta luego!</v>
       </c>
       <c r="D36" t="str">
-        <v>65c3d46330fa55000947da9b</v>
+        <v>65c57f67f790cb0008598efe</v>
       </c>
       <c r="E36" s="1">
-        <v>45329.66973976852</v>
+        <v>45330.93492452546</v>
       </c>
     </row>
     <row r="37" xml:space="preserve">
       <c r="A37" t="str">
-        <v>😎</v>
+        <v>🥰</v>
       </c>
       <c r="B37" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C37" t="str" xml:space="preserve">
-        <v xml:space="preserve">7/2/2024, 16:07:39 - 😎: ¡Hola! Podrías darme más información de...
-7/2/2024, 16:07:39 - MegaBot: ¡Hola 😎! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+        <v xml:space="preserve">9/2/2024, 8:25:02 - 🥰: ¡Hola! Me gustaría conseguir más información sobre esto.
+9/2/2024, 8:25:02 - MegaBot: ¡Hola 🥰! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+9/2/2024, 8:26:26 - 🥰: Hola soy de san isidro estoy buscando una 100 cilindrada pago debito o efectivo
+9/2/2024, 8:26:27 - MegaBot: ¡Hola! ¿Qué modelo de moto de 100cc te interesa? ¿Podrías proporcionarme tu teléfono y tu domicilio en San Isidro para que un vendedor te contacte? ¡Gracias! 😊
+9/2/2024, 8:28:00 - 🥰: Perdon es una 110 cilindrada koller o motomel soy de diego carman 222
+9/2/2024, 8:28:00 - MegaBot: Perfecto, ¿preferirías pagar con débito o efectivo? Por favor, ¿podrías brindarme tu teléfono para que un vendedor se comunique contigo? ¡Gracias!
+9/2/2024, 8:28:54 - 🥰: Debito y el telefono es 1134264063
+9/2/2024, 8:28:54 - MegaBot: ¡Perfecto! Un vendedor se pondrá en contacto contigo pronto para asistirte con la compra de tu moto 110cc. ¡Gracias por la información! 🏍️🛵</v>
       </c>
       <c r="D37" t="str">
-        <v>65c3d4f70916310009a674f5</v>
+        <v>65c60b8be9730d00088cd081</v>
       </c>
       <c r="E37" s="1">
-        <v>45329.67142513889</v>
+        <v>45331.35016606482</v>
       </c>
     </row>
     <row r="38" xml:space="preserve">
       <c r="A38" t="str">
-        <v>Dany 😉</v>
+        <v>Joseu</v>
       </c>
       <c r="B38" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C38" t="str" xml:space="preserve">
-        <v xml:space="preserve">7/2/2024, 16:10:21 - Dany 😉: ¡Hola! Podrías darme más información de la moto ax100
-7/2/2024, 16:10:21 - MegaBot: ¡Hola Dany 😉! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+        <v xml:space="preserve">9/2/2024, 10:01:47 - Joseu: ¡Hola! Podrías darme más información de...
+9/2/2024, 10:01:47 - MegaBot: ¡Hola Joseu! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
       </c>
       <c r="D38" t="str">
-        <v>65c3d599fb53910008c0c46f</v>
+        <v>65c62238f2b44a00080e369e</v>
       </c>
       <c r="E38" s="1">
-        <v>45329.67330756944</v>
+        <v>45331.417357199076</v>
       </c>
     </row>
     <row r="39" xml:space="preserve">
       <c r="A39" t="str">
-        <v>Cintia</v>
+        <v>Federico</v>
       </c>
       <c r="B39" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C39" t="str" xml:space="preserve">
-        <v xml:space="preserve">7/2/2024, 16:10:28 - Cintia: ¡Hola! Podrías darme más información de...
-7/2/2024, 16:10:28 - MegaBot: ¡Hola Cintia! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+        <v xml:space="preserve">9/2/2024, 10:15:17 - Federico: ¡Hola! Podrías darme más información de...
+9/2/2024, 10:15:17 - MegaBot: ¡Hola Federico! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
       </c>
       <c r="D39" t="str">
-        <v>642daa91bd077400089da786</v>
+        <v>65c625626b9a83000aba492b</v>
       </c>
       <c r="E39" s="1">
-        <v>45329.673379768516</v>
+        <v>45331.42672457176</v>
       </c>
     </row>
     <row r="40" xml:space="preserve">
       <c r="A40" t="str">
-        <v>Edg</v>
+        <v>Daniel Orellano</v>
       </c>
       <c r="B40" t="str">
-        <v>whatsapp</v>
+        <v>instagram</v>
       </c>
       <c r="C40" t="str" xml:space="preserve">
-        <v xml:space="preserve">7/2/2024, 17:21:00 - Edg: ¡Hola! Me gustaría conseguir más información sobre esto.
-7/2/2024, 17:21:00 - MegaBot: ¡Hola Edg! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-7/2/2024, 17:21:13 - Edg: Q marcas venden
-7/2/2024, 17:21:13 - MegaBot: Megamoto vende motos de las marcas Benelli, Suzuki, Motomel, Keeway y Sym【6:0†source】.
-7/2/2024, 17:24:34 - Vendedor Megamoto: Hola!!! Te envié mensaje desde el 1159790625
-Saludos, Joseline </v>
+        <v xml:space="preserve">9/2/2024, 10:25:34 - Daniel Orellano: Hola buenos días quería saber sobre la s2 nueva
+9/2/2024, 10:25:34 - MegaBot: ¡Hola Daniel Orellano! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
       </c>
       <c r="D40" t="str">
-        <v>63ab2c5309087a000812364e</v>
+        <v>65c4d135b511e300087768f7</v>
       </c>
       <c r="E40" s="1">
-        <v>45329.72236318287</v>
+        <v>45331.43386658565</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>Julian Cristian Castro</v>
+      </c>
+      <c r="B41" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">9/2/2024, 11:44:55 - Julian Cristian Castro: ¡Hola! Podrías darme más información de...
+9/2/2024, 11:44:55 - MegaBot: ¡Hola Julian Cristian Castro! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+9/2/2024, 11:45:22 - Julian Cristian Castro: Quiero ver todas
+9/2/2024, 11:45:22 - MegaBot: Los precios de las motos de Megamoto son a confirmar con un vendedor e incluyen patentamiento, pero no incluyen el impuesto a los sellos de CABA. Si estás interesado en alguna moto en particular, por favor indicame qué modelo te interesa para poder obtener más información. ¡Gracias! 🏍️🔍</v>
+      </c>
+      <c r="D41" t="str">
+        <v>65c63a64fea3e60008c57d64</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45331.48897928241</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>Guille😌</v>
+      </c>
+      <c r="B42" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C42" t="str" xml:space="preserve">
+        <v xml:space="preserve">9/2/2024, 12:03:00 - Guille😌: ¡Hola! Podrías darme más información de...
+9/2/2024, 12:03:00 - MegaBot: ¡Hola Guille😌! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+      </c>
+      <c r="D42" t="str">
+        <v>65c63ea18f1bd500081eaeba</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45331.501531539354</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
+        <v>Ezequiel</v>
+      </c>
+      <c r="B43" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">9/2/2024, 12:24:52 - Ezequiel: ¡Hola! Podrías darme más información de la Motomel skua por favor
+9/2/2024, 12:24:52 - MegaBot: ¡Hola Ezequiel! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+9/2/2024, 12:26:42 - Ezequiel: Motomel skua
+Cómo serían las cuotas 
+Lomas de Zamora
+9/2/2024, 12:26:42 - MegaBot: Para la Motomel Skua 125 X-Treme, el precio es de $1.485.241. Con respecto a las cuotas, la financiación puede ser hasta en 60 cuotas para préstamos prendarios o hasta 30 cuotas para préstamos personales, pero las cuotas son fijas. Para conocer las opciones disponibles y obtener más detalles, te recomendaría contactarte con un vendedor de Megamoto al teléfono 1149730000 o 1167862952【6†source】. ¡Espero haber sido de ayuda! 😉</v>
+      </c>
+      <c r="D43" t="str">
+        <v>65c643c10ba1a5000759a087</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45331.51671802083</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
+        <v>Julio El Mas Grande</v>
+      </c>
+      <c r="B44" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C44" t="str" xml:space="preserve">
+        <v xml:space="preserve">9/2/2024, 13:08:21 - Julio El Mas Grande: ¡Hola! Me gustaría conseguir más información sobre esto.
+9/2/2024, 13:08:22 - MegaBot: ¡Hola Julio El Mas Grande! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+9/2/2024, 13:09:59 - Julio El Mas Grande: Soy de ituzaingo rouser ns 200  financiada con dni
+9/2/2024, 13:09:59 - MegaBot: ¡Hola! Gracias por tu interés en la Rouser NS 200. Para continuar, ¿podrías facilitarme un número de teléfono de contacto y tu domicilio en Ituzaingó? Esto ayudará a un vendedor a contactarte rápidamente para brindarte más información. ¡Gracias! 🏍️🔍
+9/2/2024, 14:59:47 - Julio El Mas Grande: Hola
+9/2/2024, 14:59:47 - MegaBot: ¡Hola Julio El Mas Grande! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para poder comunicarte con un vendedor y recibir información detallada sobre la Rouser NS 200 financiada, necesitaríamos que nos proporciones un número de teléfono de contacto y tu domicilio en Ituzaingó. ¡Gracias! 📞🏍️
+9/2/2024, 15:00:36 - Julio El Mas Grande: 1126484601 juramento 3850
+9/2/2024, 15:00:36 - MegaBot: ¡Gracias por la información, Julio El Mas Grande! Un vendedor se comunicará contigo pronto para brindarte más detalles sobre la financiación de la Rouser NS 200. ¿Hay algo más en lo que pueda ayudarte? 🏍️📞
+9/2/2024, 15:01:00 - Julio El Mas Grande: No
+9/2/2024, 15:01:00 - MegaBot: Perfecto, Julio El Mas Grande. Si necesitas más ayuda en el futuro, ¡no dudes en contactarme! Que tengas un excelente día y buena suerte con tu búsqueda de la Rouser NS 200 financiada. ¡Hasta luego! 👋🏍️</v>
+      </c>
+      <c r="D44" t="str">
+        <v>65c64df16b3c430008bc6575</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45331.546914363425</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>Lauti</v>
+      </c>
+      <c r="B45" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C45" t="str" xml:space="preserve">
+        <v xml:space="preserve">9/2/2024, 14:55:07 - Lauti: ¡Hola! Podrías darme más información de...
+9/2/2024, 14:55:07 - MegaBot: ¡Hola Lauti! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+9/2/2024, 14:56:23 - Lauti: Hola queria averiguar por un 110 o ax 100
+Quisiera averiguar si financian. Con dni
+1123350566
+De moreno zona oeste
+9/2/2024, 14:56:23 - MegaBot: ¡Hola! En Megamoto financiamos la 110 y la AX 100. Para continuar con la financiación, por favor, necesitaré tu DNI. Muchas gracias.
+9/2/2024, 14:59:53 - Lauti: Hola quisiera consultar si podria sacar financiada una moto con dni y hacer cuotas fijas
+9/2/2024, 14:59:54 - MegaBot: ¡Sí, en Megamoto puedes financiar la moto con DNI y hacer cuotas fijas! ¿Podrías facilitarme tu DNI para proceder? ¡Gracias!</v>
+      </c>
+      <c r="D45" t="str">
+        <v>65c666f7f3727c0008f724d9</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45331.62106048611</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>José</v>
+      </c>
+      <c r="B46" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C46" t="str" xml:space="preserve">
+        <v xml:space="preserve">9/2/2024, 15:04:54 - José: ¡Hola! Podrías fármaco  más información de...algo en 125
+9/2/2024, 15:04:55 - MegaBot: ¡Hola José! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+9/2/2024, 15:07:42 - José: Soy de lanus busco algo 125 contado cele este mismo 1154970765
+9/2/2024, 15:07:42 - MegaBot: ¡Hola José! 👋 En Megamoto tenemos la moto Mondial HD 125. El precio contado es de $95.000, incluyendo patentamiento (no incluye sellado CABA). Para continuar, ¿podrías brindarme tu nombre completo, DNI y método de pago preferido para poder conectarte con un vendedor lo más rápido posible? ¡Gracias! 🏍️🛵
+9/2/2024, 15:09:03 - José: Me mandas características de la moto
+9/2/2024, 15:09:03 - MegaBot: La moto Mondial HD 125 cuenta con las siguientes características:
+- Motor: 4 tiempos
+- Cilindrada: 125 cc
+- Refrigeración: Por aire
+- Arranque: Eléctrico y patada
+- Freno delantero: Disco
+- Freno trasero: Tambor
+- Capacidad del tanque: 8 litros
+- Peso: 130 kg
+- Colores disponibles: Negro, blanco, rojo, azul y gris
+¡Espero que esta información sea útil! ¿Puedes brindarme tu nombre completo, DNI y método de pago preferido para seguir adelante con la consulta? 
+9/2/2024, 15:09:55 - José: Repetirme precio contado efectivo por favor
+9/2/2024, 15:09:55 - MegaBot: El precio contado de la moto Mondial HD 125 es de $95.000, e incluye el patentamiento. Es importante destacar que este precio no incluye el sellado de CABA y es a confirmar por un vendedor. ¿Hay algo más en lo que te pueda ayudar?
+9/2/2024, 15:10:29 - José: Lugar físico para ir
+9/2/2024, 15:10:29 - MegaBot: Te recomiendo que te comuniques directamente con Megamoto para obtener información precisa sobre la ubicación física de sus concesionarios. Puedes llamar al teléfono de atención al cliente al 0800-555-MOTO (6686) o al 0810-22MEGA (6342) para que te brinden la dirección exacta y otros detalles importantes. ¡Buena suerte en tu búsqueda de la moto perfecta! 🏍️👋
+9/2/2024, 15:11:30 - José: Gracias
+9/2/2024, 15:11:30 - MegaBot: ¡De nada, José! ¡Si necesitas más ayuda en el futuro, no dudes en volver! ¡Que tengas un excelente día y mucha suerte con la compra de tu moto en Megamoto! 🏍️😊 ¡Hasta luego! 👋</v>
+      </c>
+      <c r="D46" t="str">
+        <v>65c669441c36b60008a2170c</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45331.627857893516</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str">
+        <v>😶‍🌫️</v>
+      </c>
+      <c r="B47" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C47" t="str" xml:space="preserve">
+        <v xml:space="preserve">9/2/2024, 17:03:11 - 😶‍🌫️: ¡Hola! Podrías darme más información de...
+9/2/2024, 17:03:11 - MegaBot: ¡Hola 😶‍🌫️! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+9/2/2024, 17:03:38 - 😶‍🌫️: Hola quiero saber si puedo sacar una moto soy jubilada ya avía sacado una yo
+9/2/2024, 17:03:38 - MegaBot: Para obtener una moto, necesito que me indiques:
+1. Modelo de moto de interés.
+2. Método de pago preferido.
+3. Teléfono de contacto.
+4. Localidad donde te encuentras.
+Con estos datos, un vendedor de Megamoto podrá atenderte más rápido. ¡Gracias! 😊</v>
+      </c>
+      <c r="D47" t="str">
+        <v>65c684fb6ad9b1000886126e</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45331.709991840275</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="A48" t="str">
+        <v>Joel</v>
+      </c>
+      <c r="B48" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C48" t="str" xml:space="preserve">
+        <v xml:space="preserve">9/2/2024, 17:03:22 - Joel: ¡Hola! Me gustaría conseguir más información sobre esto.
+9/2/2024, 17:03:22 - MegaBot: ¡Hola Joel! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+      </c>
+      <c r="D48" t="str">
+        <v>65c685064ec4d30008ec939f</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45331.71011640046</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str">
+        <v>Fedexxx</v>
+      </c>
+      <c r="B49" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C49" t="str" xml:space="preserve">
+        <v xml:space="preserve">9/2/2024, 17:09:09 - Fedexxx: ¡Hola! Me gustaría conseguir más información sobre esto.
+9/2/2024, 17:09:09 - MegaBot: ¡Hola Fedexxx! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+      </c>
+      <c r="D49" t="str">
+        <v>65c6866249093d000874fc2b</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45331.71413818287</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str">
+        <v>Robert🤗😁</v>
+      </c>
+      <c r="B50" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C50" t="str" xml:space="preserve">
+        <v xml:space="preserve">9/2/2024, 17:15:29 - Robert🤗😁: ¡Hola! Me gustaría conseguir más información sobre esto.
+9/2/2024, 17:15:29 - MegaBot: ¡Hola Robert🤗😁! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+      </c>
+      <c r="D50" t="str">
+        <v>65c687dd08702d0008d756d3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45331.718535092594</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str">
+        <v>Taller De Informática</v>
+      </c>
+      <c r="B51" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C51" t="str" xml:space="preserve">
+        <v xml:space="preserve">9/2/2024, 17:16:36 - Taller De Informática: ¡Hola! Me gustaría conseguir más información sobre esto.
+9/2/2024, 17:16:36 - MegaBot: ¡Hola Taller De Informática! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+      </c>
+      <c r="D51" t="str">
+        <v>65c4b0303e159a000817f84b</v>
+      </c>
+      <c r="E51" s="1">
+        <v>45331.71931069445</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
+      <c r="A52" t="str">
+        <v>Anibal</v>
+      </c>
+      <c r="B52" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C52" t="str" xml:space="preserve">
+        <v xml:space="preserve">9/2/2024, 17:55:53 - Anibal: Hola buenas tardes
+9/2/2024, 17:55:53 - MegaBot: ¡Hola Anibal! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+9/2/2024, 17:56:09 - Anibal: Me pasarias precio de moto 110
+9/2/2024, 17:56:09 - MegaBot: El precio de la moto Blitz 110 es de 1.068.056 pesos argentinos. Este precio incluye patentamiento y es a confirmar con un vendedor, además no incluye el impuesto a los sellos de CABA【6:0†source】. ¿Te gustaría que te contacte un vendedor para continuar con la compra?</v>
+      </c>
+      <c r="D52" t="str">
+        <v>65c691554b6191000883221b</v>
+      </c>
+      <c r="E52" s="1">
+        <v>45331.746592951386</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="A53" t="str">
+        <v>Fernández Y Osicka Abogados</v>
+      </c>
+      <c r="B53" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C53" t="str" xml:space="preserve">
+        <v xml:space="preserve">9/2/2024, 18:03:29 - Fernández Y Osicka Abogados: ¡Hola! Podrías darme más información de...
+9/2/2024, 18:03:29 - MegaBot: ¡Hola Fernández Y Osicka Abogados! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+      </c>
+      <c r="D53" t="str">
+        <v>65c6931d4cd161000852b091</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45331.75187153935</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="A54" t="str">
+        <v>Snm</v>
+      </c>
+      <c r="B54" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C54" t="str" xml:space="preserve">
+        <v xml:space="preserve">9/2/2024, 18:25:27 - Snm: ¡Hola! Podrías darme más información de...
+9/2/2024, 18:25:27 - MegaBot: ¡Hola Snm! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
+      </c>
+      <c r="D54" t="str">
+        <v>65c6984371de2300087bae94</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45331.76712369213</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="A55" t="str">
+        <v>Danny Maguila</v>
+      </c>
+      <c r="B55" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C55" t="str" xml:space="preserve">
+        <v xml:space="preserve">9/2/2024, 18:53:41 - Danny Maguila: ¡Hola! Podrías darme más información de...
+9/2/2024, 18:53:42 - MegaBot: ¡Hola Danny Maguila! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
+9/2/2024, 20:56:59 - Danny Maguila: ¡Hola! Podrías darme más información de...
+9/2/2024, 20:56:59 - MegaBot: ¡Hola! Soy MegaBot, ¿en qué modelo de moto estás interesado, cómo deseas pagar, cuál es tu teléfono y de qué localidad eres? 😉</v>
+      </c>
+      <c r="D55" t="str">
+        <v>65c69ee2bb8a8a00089d19ed</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45331.78673710648</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Angel😁</v>
+      </c>
+      <c r="B56" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C56" t="str">
+        <v>9/2/2024, 19:43:25 - Angel😁: ¡Hola! Podrías darme más información de...</v>
+      </c>
+      <c r="D56" t="str">
+        <v>65c6aa88c453d6000ad4943d</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45331.82126956018</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>🌸𝑽𝒂𝒏𝒆🍒</v>
+      </c>
+      <c r="B57" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C57" t="str">
+        <v>9/2/2024, 20:09:40 - 🌸𝑽𝒂𝒏𝒆🍒: ¡Hola! Podrías darme más información de...</v>
+      </c>
+      <c r="D57" t="str">
+        <v>65c6b0b0efd81d0008e5eaf4</v>
+      </c>
+      <c r="E57" s="1">
+        <v>45331.839494085645</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E40"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E57"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -959,743 +959,9 @@
         <v>45328.84796027778</v>
       </c>
     </row>
-    <row r="25" xml:space="preserve">
-      <c r="A25" t="str">
-        <v>Gustavo Gomez Villafañe</v>
-      </c>
-      <c r="B25" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C25" t="str" xml:space="preserve">
-        <v xml:space="preserve">8/2/2024, 17:30:47 - Gustavo Gomez Villafañe: hola
-8/2/2024, 17:30:47 - MegaBot: ¡Hola Gustavo Gomez Villafañe! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-9/2/2024, 16:34:10 - Gustavo Gomez Villafañe: hola estoy haciendo una prueba a ver si reconoce la palabra precio
-9/2/2024, 16:34:10 - MegaBot: Hola Gustavo, mi especialidad está en temas relacionados con Megamoto. Si estás buscando información sobre precios de motos, ¡estaré encantado de ayudarte! ¿En qué modelo estás interesado?
-9/2/2024, 16:37:23 - Gustavo Gomez Villafañe: y la palabra info?
-9/2/2024, 16:37:24 - MegaBot: Hola Gustavo, mi enfoque es brindar información sobre productos y servicios de Megamoto. ¿En qué moto estás interesado? ¡Estoy aquí para ayudarte!
-9/2/2024, 16:49:08 - Gustavo Gomez Villafañe: cuanto sale una blitz 110?
-9/2/2024, 16:49:08 - MegaBot: La Motomel Blitz 110 tiene varios modelos con diferentes especificaciones y precios. Aquí te dejo algunas opciones:
-- Blitz 110 V8 Base One: $1.068.056
-- Blitz 110 V8 Full One: $1.084.038
-- Blitz 110 V8 Plus: $1.220.959
-- Blitz 110 V8 Start: $955.658
-- Blitz 110 V8 Tunning New: $1.197.087
-Recuerda que estos precios incluyen patentamiento, no incluyen el sellado de CABA y deben ser confirmados por un vendedor de Megamoto. ¿Te gustaría más información sobre alguno de estos modelos?
-9/2/2024, 16:53:54 - Gustavo Gomez Villafañe: tienen mundial?
-9/2/2024, 16:53:55 - MegaBot: Mi especialidad es brindar información sobre productos y servicios de Megamoto. Si estás buscando información sobre motos Mundial, te recomiendo que te contactes directamente con la empresa fabricante o con algún distribuidor autorizado. ¿Hay algo más en lo que pueda ayudarte dentro del catálogo de Megamoto?
-9/2/2024, 16:54:35 - Gustavo Gomez Villafañe: y mundial?
-9/2/2024, 16:54:36 - MegaBot: Mi enfoque principal es proporcionar información sobre productos y servicios de Megamoto. Si estás buscando información sobre motos Mundial, te recomendaría contactar directamente a la empresa fabricante o a algún distribuidor autorizado de la marca Mundial para obtener la información que necesitas. ¿Hay algo más en lo que pueda asistirte relacionado con Megamoto?
-9/2/2024, 16:54:43 - Gustavo Gomez Villafañe: mondial
-9/2/2024, 16:54:43 - MegaBot: Mi especialidad es brindar información sobre productos y servicios de Megamoto. Si estás interesado en motos Mondial, te recomendaría que contactes directamente a la empresa fabricante o a algún distribuidor autorizado de la marca Mondial para obtener detalles específicos sobre sus productos. ¿Hay algo más en lo que pueda ayudarte dentro del catálogo de Megamoto?
-9/2/2024, 16:55:24 - Gustavo Gomez Villafañe: tenes precio de la cg?
-9/2/2024, 16:55:25 - MegaBot: El precio de la Motomel CG 150 S2 FULL (con aleación y disco) es de $1.480.676, mientras que el modelo CG 150 S2 START tiene un precio de $1.221.010. Recuerda que estos precios incluyen patentamiento, pero no incluyen el sellado de CABA, y deben ser confirmados por un vendedor de Megamoto. ¿Hay algo más en lo que pueda ayudarte?</v>
-      </c>
-      <c r="D25" t="str">
-        <v>6596d62461f4a300081b28cb</v>
-      </c>
-      <c r="E25" s="1">
-        <v>45330.729160219904</v>
-      </c>
-    </row>
-    <row r="26" xml:space="preserve">
-      <c r="A26" t="str">
-        <v>Sammy</v>
-      </c>
-      <c r="B26" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C26" t="str" xml:space="preserve">
-        <v xml:space="preserve">8/2/2024, 17:34:24 - Sammy: Hola, tengo algunas preguntas sobre Motomel Skua 125 Xtreme- Mejor Contado - Ant. + Financiada!. https://moto.mercadolibre.com.ar/MLA-1518305488-motomel-skua-125-xtreme-mejor-contado-ant-financiada-_JM?u=NDc1MDk3MzYy
-8/2/2024, 17:34:24 - MegaBot: ¡Hola Sammy! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-8/2/2024, 17:35:38 - Sammy: Me interesa la motomel skua 125
-8/2/2024, 17:35:38 - MegaBot: Perfecto, la Motomel Skua 125 tiene un precio de $1.485.241. Para ser atendido por un vendedor de forma más rápida, por favor proporcióname tu método de pago preferido, número de teléfono y domicilio. ¡Gracias! 🏍️🔝
-8/2/2024, 17:36:27 - Sammy: Efectivo
-8/2/2024, 17:36:27 - MegaBot: ¡Gracias por la información! ¿Podrías proporcionarme tu número de teléfono y domicilio para completar tus datos? ¡Así un vendedor podrá contactarte lo antes posible! 📞🏠
-8/2/2024, 17:36:34 - Sammy: 1134383749
-8/2/2024, 17:36:34 - MegaBot: ¡Gracias por tu número de teléfono! ¿Podrías facilitarme tu domicilio para completar tus datos? ¡Así un vendedor podrá contactarte pronto para seguir con la gestión de tu compra! 🛵📦
-8/2/2024, 17:36:40 - Sammy: Linier
-8/2/2024, 17:36:41 - MegaBot: Perfecto, ¡tus datos están completos! Un vendedor de Megamoto se pondrá en contacto contigo para continuar con la gestión de tu compra de la Motomel Skua 125. ¡Gracias por elegirnos y que disfrutes de tu nueva moto! 🏍️🎉 
-8/2/2024, 17:43:08 - Sammy: Gracias
-8/2/2024, 17:43:08 - MegaBot: ¡De nada, Sammy! ¡Que tengas un excelente día y mucha suerte con tu compra de la Motomel Skua 125! Estoy aquí para ayudarte en lo que necesites. ¡Hasta luego! 👋😊
-9/2/2024, 10:15:15 - Sammy: ?
-9/2/2024, 10:15:15 - MegaBot: Disculpa si he sido breve en mis respuestas. ¿Hay alguna otra pregunta o información en la que pueda ayudarte? Si es así, por favor házmela saber. ¡Estoy aquí para asistirte!
-9/2/2024, 10:16:55 - Sammy: Aún no me an llamado
-9/2/2024, 10:16:56 - MegaBot: Lamento la demora en la comunicación. Te recomendaría aguardar un poco más, pero si lo prefieres, también puedes comunicarte directamente con Megamoto al siguiente número de teléfono: 011 4856-0510. Ellos podrán brindarte información sobre el estado de tu solicitud de compra de la Motomel Skua 125. ¡Espero que pronto resuelvan tu inquietud! ¡Buena suerte! 📞🏍️</v>
-      </c>
-      <c r="D26" t="str">
-        <v>65c53acd1e8d9800088e82fb</v>
-      </c>
-      <c r="E26" s="1">
-        <v>45330.731673078706</v>
-      </c>
-    </row>
-    <row r="27" xml:space="preserve">
-      <c r="A27" t="str">
-        <v>Nicolas Moreno</v>
-      </c>
-      <c r="B27" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C27" t="str" xml:space="preserve">
-        <v xml:space="preserve">8/2/2024, 17:41:23 - Nicolas Moreno: ¡Hola! Podrías darme más información de...
-8/2/2024, 17:41:23 - MegaBot: ¡Hola Nicolas Moreno! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D27" t="str">
-        <v>65c53c70489045000900200b</v>
-      </c>
-      <c r="E27" s="1">
-        <v>45330.73651715278</v>
-      </c>
-    </row>
-    <row r="28" xml:space="preserve">
-      <c r="A28" t="str">
-        <v>Mariano Gongora</v>
-      </c>
-      <c r="B28" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C28" t="str" xml:space="preserve">
-        <v xml:space="preserve">8/2/2024, 18:17:11 - Mariano Gongora: ¡Hola! Podrías darme más información de...
-8/2/2024, 18:17:11 - MegaBot: ¡Hola Mariano Gongora! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-8/2/2024, 18:18:51 - Mariano Gongora: ¡Hola! Podrías darme más información de...
-8/2/2024, 18:18:51 - MegaBot: Mariano Gongora, ¿qué modelo de moto estás buscando en Megamoto?
-8/2/2024, 18:19:32 - Mariano Gongora: Zanella 150  con un adelanto y cuotas
-8/2/2024, 18:19:32 - MegaBot: El modelo que buscas, Zanella 150, no se encuentra en la lista de modelos de las marcas que comercializa Megamoto (Benelli, Suzuki, Motomel, Keeway y Sym). Te recomendaría comunicarte directamente con un vendedor para consultar sobre la disponibilidad de este modelo en particular. ¿Podrías proporcionar un teléfono de contacto para que un vendedor de Megamoto pueda comunicarse contigo?
-8/2/2024, 18:20:15 - Mariano Gongora: 2804825715
-8/2/2024, 18:20:15 - MegaBot: Perfecto, ¿podrías facilitarme tu domicilio para que un vendedor de Megamoto pueda contactarte y brindarte más información sobre las opciones de financiación disponibles?
-8/2/2024, 18:20:52 - Mariano Gongora: San Miguel bs as
-8/2/2024, 18:20:52 - MegaBot: ¡Gracias por la información! Un vendedor de Megamoto se pondrá en contacto contigo pronto para brindarte más detalles sobre las opciones de financiación disponibles para la Zanella 150. ¿Hay algo más en lo que pueda ayudarte?
-8/2/2024, 18:21:41 - Mariano Gongora: Gracias es todo espero comunicación
-8/2/2024, 18:21:41 - MegaBot: ¡De nada! ¡Que tengas un excelente día y mucha suerte con tu búsqueda de la Zanella 150 en Megamoto! ¡Hasta luego! 👋😊</v>
-      </c>
-      <c r="D28" t="str">
-        <v>65c544d474f5bb0008a0e453</v>
-      </c>
-      <c r="E28" s="1">
-        <v>45330.76138136574</v>
-      </c>
-    </row>
-    <row r="29" xml:space="preserve">
-      <c r="A29" t="str">
-        <v>Diegote</v>
-      </c>
-      <c r="B29" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C29" t="str" xml:space="preserve">
-        <v xml:space="preserve">8/2/2024, 18:29:30 - Diegote: ¡Hola! Me gustaría conseguir más información sobre esto.
-8/2/2024, 18:29:31 - MegaBot: ¡Hola Diegote! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-8/2/2024, 20:06:02 - Diegote: ¡Hola! Me gustaría conseguir más información sobre esto.
-8/2/2024, 20:06:02 - MegaBot: Lamento no tener información específica sobre eso en la base de conocimiento de Megamoto. ¿Te gustaría que un vendedor te brinde más detalles al respecto? Recuerda que para ello necesitaré que me indiques qué moto estás buscando, tu método de pago preferido, un número de teléfono y tu ubicación. ¡Quedo a disposición para ayudarte! 😊🏍️</v>
-      </c>
-      <c r="D29" t="str">
-        <v>65c547b8c8ec9c00081b9e25</v>
-      </c>
-      <c r="E29" s="1">
-        <v>45330.76994128472</v>
-      </c>
-    </row>
-    <row r="30" xml:space="preserve">
-      <c r="A30" t="str">
-        <v>👋🏻</v>
-      </c>
-      <c r="B30" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C30" t="str" xml:space="preserve">
-        <v xml:space="preserve">8/2/2024, 18:49:27 - 👋🏻: ¡Hola! Podrías darme más información de...
-8/2/2024, 18:49:27 - MegaBot: ¡Hola 👋🏻! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D30" t="str">
-        <v>65c54c63c5f92100085275bc</v>
-      </c>
-      <c r="E30" s="1">
-        <v>45330.78378627315</v>
-      </c>
-    </row>
-    <row r="31" xml:space="preserve">
-      <c r="A31" t="str">
-        <v>Alee Gauna 😘</v>
-      </c>
-      <c r="B31" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C31" t="str" xml:space="preserve">
-        <v xml:space="preserve">8/2/2024, 19:15:06 - Alee Gauna 😘: ¡Hola! Podrías darme más información de...
-8/2/2024, 19:15:06 - MegaBot: ¡Hola Alee Gauna 😘! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D31" t="str">
-        <v>65c552678ba24b000864ed9c</v>
-      </c>
-      <c r="E31" s="1">
-        <v>45330.801599722225</v>
-      </c>
-    </row>
-    <row r="32" xml:space="preserve">
-      <c r="A32" t="str">
-        <v>Santii</v>
-      </c>
-      <c r="B32" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C32" t="str" xml:space="preserve">
-        <v xml:space="preserve">8/2/2024, 19:22:27 - Santii: ¡Hola! Me gustaría conseguir más información sobre esto.
-8/2/2024, 19:22:27 - MegaBot: ¡Hola Santii! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-8/2/2024, 19:23:32 - Santii: Me intera la Belli trk 502 y quería consultar si tienen algún honda tornado
-8/2/2024, 19:23:33 - MegaBot: Para la Belli TRK 502 el precio es de $12.124.773【6†fuente】. Respecto a alguna Honda Tornado, Megamoto no comercializa ese modelo en particular. ¿Te gustaría que un vendedor te asesore sobre la Belli TRK 502? Si es así, por favor proporcioname tu método de pago preferido, teléfono y domicilio para coordinar la atención de un vendedor de Megamoto. ¡Gracias! 😊
-8/2/2024, 19:24:33 - Santii: Me gustaría pagar en cuotas accesibles
-20 de noviembre 1531
-2664929130
-8/2/2024, 19:24:34 - MegaBot: Perfecto, ¿podrías por favor indicarme tu domicilio completo para coordinar con un vendedor de Megamoto? ¡Gracias! 😊
-8/2/2024, 19:25:07 - Santii: 20 de noviembre 1531 juana koslay
-8/2/2024, 19:25:07 - MegaBot: ¡Gracias por la información! En breve un vendedor de Megamoto se comunicará contigo para brindarte más detalles sobre la Belli TRK 502 y las opciones de pago en cuotas accesibles. ¡Que tengas un excelente día! 😊🏍️</v>
-      </c>
-      <c r="D32" t="str">
-        <v>65c55421e9f2ce0008ca6c4e</v>
-      </c>
-      <c r="E32" s="1">
-        <v>45330.8067099537</v>
-      </c>
-    </row>
-    <row r="33" xml:space="preserve">
-      <c r="A33" t="str">
-        <v>Valen</v>
-      </c>
-      <c r="B33" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C33" t="str" xml:space="preserve">
-        <v xml:space="preserve">8/2/2024, 19:22:53 - Valen: ¡Hola! Podrías darme más información de...
-8/2/2024, 19:22:53 - MegaBot: ¡Hola Valen! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-8/2/2024, 19:26:41 - Valen: Hola, quería saber el precio
-8/2/2024, 19:26:41 - MegaBot: Los precios de las motos varían según el modelo y la marca. Para darte un precio específico, necesitaría que me indiques cuál modelo te interesa. ¿Hay algún modelo en particular que estés buscando?
-8/2/2024, 19:27:14 - Valen: Si trk 502x
-8/2/2024, 19:27:14 - MegaBot: El precio de la Benelli TRK 502X es de $13.724.613, el cual incluye patentamiento pero no incluye impuesto a los sellos de CABA y debe ser confirmado con un vendedor. ¿Te gustaría que un vendedor te asista para más información y detalles sobre la compra? Para ello necesitaré que me proporciones tu método de pago preferido, teléfono y domicilio. ¡Gracias! 😊
-8/2/2024, 19:39:00 - Valen: Ok gracias
-8/2/2024, 19:39:00 - MegaBot: ¡De nada! Estoy aquí para ayudarte en lo que necesites. Si en algún momento deseas más información o asistencia, no dudes en decírmelo. ¡Que tengas un excelente día! 😊🏍️</v>
-      </c>
-      <c r="D33" t="str">
-        <v>65c5543bef07fc00087ad423</v>
-      </c>
-      <c r="E33" s="1">
-        <v>45330.807008159725</v>
-      </c>
-    </row>
-    <row r="34" xml:space="preserve">
-      <c r="A34" t="str">
-        <v>Pabloo</v>
-      </c>
-      <c r="B34" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C34" t="str" xml:space="preserve">
-        <v xml:space="preserve">8/2/2024, 19:42:22 - Pabloo: Hola buenas tardes
-8/2/2024, 19:42:22 - MegaBot: ¡Hola Pabloo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-8/2/2024, 19:43:27 - Pabloo: Quería consultar por la motomel blits 110
-8/2/2024, 19:43:27 - MegaBot: El modelo Motomel Blitz 110 tiene diferentes versiones con precios que van desde aproximadamente $955.658 hasta $1.220.959, dependiendo del modelo específico. Para brindarte un precio exacto y confirmar disponibilidad, necesitaría que indiques cómo deseas pagar, tu número de teléfono y tu domicilio. Esto permitirá que un vendedor de Megamoto te contacte y te asesore de manera más eficiente.
-8/2/2024, 19:43:41 - Pabloo: Financiada 100%
-8/2/2024, 19:43:41 - MegaBot: Perfecto, ¿podrías proporcionarme tu número de teléfono y tu domicilio? Esto facilitará que un vendedor de Megamoto se comunique contigo para brindarte la información detallada sobre la financiación del modelo Motomel Blitz 110 que estás buscando. ¡Gracias por tu colaboración!
-8/2/2024, 19:44:55 - Pabloo: 1128177779
-8/2/2024, 19:44:55 - MegaBot: ¡Gracias por proporcionar tu número de teléfono! ¿Podrías indicarme tu domicilio? Esto permitirá que un vendedor de Megamoto pueda contactarte para brindarte información detallada sobre la financiación de la Motomel Blitz 110. ¡Estamos aquí para ayudarte!
-8/2/2024, 19:45:14 - Pabloo: Por la motomel blitz 110 base
-8/2/2024, 19:45:14 - MegaBot: El precio para la Motomel Blitz 110 Base es de aproximadamente $1.068.056. Este precio incluye el patentamiento, pero no incluye el impuesto a los sellos de CABA y debe ser confirmado por un vendedor de Megamoto antes de la compra. Para obtener más información sobre la financiación, sería útil proporcionar tu domicilio para que un vendedor pueda contactarte directamente y brindarte asistencia específica. ¡Estamos aquí para ayudarte!
-8/2/2024, 19:45:30 - Pabloo: Brasil 2305
-8/2/2024, 19:45:30 - MegaBot: ¡Gracias por proporcionar tu dirección! Un vendedor de Megamoto se comunicará contigo pronto para brindarte más información sobre la financiación de la Motomel Blitz 110 Base en Brasil 2305. ¡Que tengas un excelente día! Si necesitas algo más, no dudes en consultarme.
-8/2/2024, 19:45:53 - Pabloo: Gracias
-8/2/2024, 19:45:53 - MegaBot: ¡De nada! ¡Que tengas un excelente día y mucha suerte con tu consulta en Megamoto! ¡Estoy aquí para ayudarte en lo que necesites en el futuro! ¡Hasta pronto! 😊🏍️
-8/2/2024, 19:46:07 - Pabloo: Gracias, ¡igualmente!
-8/2/2024, 19:46:07 - MegaBot: ¡Gracias, que tengas un excelente día! ¡Hasta la próxima! 👋😊</v>
-      </c>
-      <c r="D34" t="str">
-        <v>65c558ccc857d50008971594</v>
-      </c>
-      <c r="E34" s="1">
-        <v>45330.820540740744</v>
-      </c>
-    </row>
-    <row r="35" xml:space="preserve">
-      <c r="A35" t="str">
-        <v>Karen</v>
-      </c>
-      <c r="B35" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C35" t="str" xml:space="preserve">
-        <v xml:space="preserve">8/2/2024, 22:25:08 - Karen: ¡Hola! Podrías darme más información de...
-8/2/2024, 22:25:08 - MegaBot: ¡Hola Karen! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D35" t="str">
-        <v>65c57ef00948cf00084ad8ad</v>
-      </c>
-      <c r="E35" s="1">
-        <v>45330.93357181713</v>
-      </c>
-    </row>
-    <row r="36" xml:space="preserve">
-      <c r="A36" t="str">
-        <v>Dios Tiene El Control</v>
-      </c>
-      <c r="B36" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C36" t="str" xml:space="preserve">
-        <v xml:space="preserve">8/2/2024, 22:27:05 - Dios Tiene El Control: ¡Hola! Podrías darme más información de...
-8/2/2024, 22:27:05 - MegaBot: ¡Hola Dios Tiene El Control! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-8/2/2024, 22:27:58 - Dios Tiene El Control: Busco un 600 tnt o gt 600
-8/2/2024, 22:27:58 - MegaBot: ¡Hola! ¿Podrías indicarme cuál es tu método de pago preferido, tu número de teléfono y tu domicilio para poder derivarte con un vendedor lo más rápido posible? ¡Gracias! 🙂
-8/2/2024, 22:28:25 - Dios Tiene El Control: Con una entrega y cuotas
-8/2/2024, 22:28:25 - MegaBot: Perfecto, ¿podrías proporcionarme tu número de teléfono y domicilio para que un vendedor de Megamoto pueda contactarte lo antes posible? ¡Gracias! 🙂
-8/2/2024, 22:29:01 - Dios Tiene El Control: De donde son ustedes?
-8/2/2024, 22:29:01 - MegaBot: ¡Somos de Argentina! ¿Podrías brindarme tu número de teléfono y domicilio para que un vendedor de Megamoto se comunique contigo? ¡Gracias! 🙂
-8/2/2024, 22:30:11 - Dios Tiene El Control: Si también soy de argentina, que me escriba aca
-8/2/2024, 22:30:11 - MegaBot: ¡Entendido! Un vendedor de Megamoto se comunicará contigo aquí mismo para brindarte más información sobre la moto que estás buscando. ¿Hay algo más en lo que pueda ayudarte? 🙂
-8/2/2024, 22:30:39 - Dios Tiene El Control: No gracias
-8/2/2024, 22:30:39 - MegaBot: ¡Perfecto! Si necesitas algo más en el futuro, ¡aquí estaremos! Que tengas un excelente día y ¡buena búsqueda de tu moto! 👋😊 ¡Hasta luego!</v>
-      </c>
-      <c r="D36" t="str">
-        <v>65c57f67f790cb0008598efe</v>
-      </c>
-      <c r="E36" s="1">
-        <v>45330.93492452546</v>
-      </c>
-    </row>
-    <row r="37" xml:space="preserve">
-      <c r="A37" t="str">
-        <v>🥰</v>
-      </c>
-      <c r="B37" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C37" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 8:25:02 - 🥰: ¡Hola! Me gustaría conseguir más información sobre esto.
-9/2/2024, 8:25:02 - MegaBot: ¡Hola 🥰! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-9/2/2024, 8:26:26 - 🥰: Hola soy de san isidro estoy buscando una 100 cilindrada pago debito o efectivo
-9/2/2024, 8:26:27 - MegaBot: ¡Hola! ¿Qué modelo de moto de 100cc te interesa? ¿Podrías proporcionarme tu teléfono y tu domicilio en San Isidro para que un vendedor te contacte? ¡Gracias! 😊
-9/2/2024, 8:28:00 - 🥰: Perdon es una 110 cilindrada koller o motomel soy de diego carman 222
-9/2/2024, 8:28:00 - MegaBot: Perfecto, ¿preferirías pagar con débito o efectivo? Por favor, ¿podrías brindarme tu teléfono para que un vendedor se comunique contigo? ¡Gracias!
-9/2/2024, 8:28:54 - 🥰: Debito y el telefono es 1134264063
-9/2/2024, 8:28:54 - MegaBot: ¡Perfecto! Un vendedor se pondrá en contacto contigo pronto para asistirte con la compra de tu moto 110cc. ¡Gracias por la información! 🏍️🛵</v>
-      </c>
-      <c r="D37" t="str">
-        <v>65c60b8be9730d00088cd081</v>
-      </c>
-      <c r="E37" s="1">
-        <v>45331.35016606482</v>
-      </c>
-    </row>
-    <row r="38" xml:space="preserve">
-      <c r="A38" t="str">
-        <v>Joseu</v>
-      </c>
-      <c r="B38" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C38" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 10:01:47 - Joseu: ¡Hola! Podrías darme más información de...
-9/2/2024, 10:01:47 - MegaBot: ¡Hola Joseu! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D38" t="str">
-        <v>65c62238f2b44a00080e369e</v>
-      </c>
-      <c r="E38" s="1">
-        <v>45331.417357199076</v>
-      </c>
-    </row>
-    <row r="39" xml:space="preserve">
-      <c r="A39" t="str">
-        <v>Federico</v>
-      </c>
-      <c r="B39" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C39" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 10:15:17 - Federico: ¡Hola! Podrías darme más información de...
-9/2/2024, 10:15:17 - MegaBot: ¡Hola Federico! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D39" t="str">
-        <v>65c625626b9a83000aba492b</v>
-      </c>
-      <c r="E39" s="1">
-        <v>45331.42672457176</v>
-      </c>
-    </row>
-    <row r="40" xml:space="preserve">
-      <c r="A40" t="str">
-        <v>Daniel Orellano</v>
-      </c>
-      <c r="B40" t="str">
-        <v>instagram</v>
-      </c>
-      <c r="C40" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 10:25:34 - Daniel Orellano: Hola buenos días quería saber sobre la s2 nueva
-9/2/2024, 10:25:34 - MegaBot: ¡Hola Daniel Orellano! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D40" t="str">
-        <v>65c4d135b511e300087768f7</v>
-      </c>
-      <c r="E40" s="1">
-        <v>45331.43386658565</v>
-      </c>
-    </row>
-    <row r="41" xml:space="preserve">
-      <c r="A41" t="str">
-        <v>Julian Cristian Castro</v>
-      </c>
-      <c r="B41" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C41" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 11:44:55 - Julian Cristian Castro: ¡Hola! Podrías darme más información de...
-9/2/2024, 11:44:55 - MegaBot: ¡Hola Julian Cristian Castro! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-9/2/2024, 11:45:22 - Julian Cristian Castro: Quiero ver todas
-9/2/2024, 11:45:22 - MegaBot: Los precios de las motos de Megamoto son a confirmar con un vendedor e incluyen patentamiento, pero no incluyen el impuesto a los sellos de CABA. Si estás interesado en alguna moto en particular, por favor indicame qué modelo te interesa para poder obtener más información. ¡Gracias! 🏍️🔍</v>
-      </c>
-      <c r="D41" t="str">
-        <v>65c63a64fea3e60008c57d64</v>
-      </c>
-      <c r="E41" s="1">
-        <v>45331.48897928241</v>
-      </c>
-    </row>
-    <row r="42" xml:space="preserve">
-      <c r="A42" t="str">
-        <v>Guille😌</v>
-      </c>
-      <c r="B42" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C42" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 12:03:00 - Guille😌: ¡Hola! Podrías darme más información de...
-9/2/2024, 12:03:00 - MegaBot: ¡Hola Guille😌! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D42" t="str">
-        <v>65c63ea18f1bd500081eaeba</v>
-      </c>
-      <c r="E42" s="1">
-        <v>45331.501531539354</v>
-      </c>
-    </row>
-    <row r="43" xml:space="preserve">
-      <c r="A43" t="str">
-        <v>Ezequiel</v>
-      </c>
-      <c r="B43" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C43" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 12:24:52 - Ezequiel: ¡Hola! Podrías darme más información de la Motomel skua por favor
-9/2/2024, 12:24:52 - MegaBot: ¡Hola Ezequiel! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-9/2/2024, 12:26:42 - Ezequiel: Motomel skua
-Cómo serían las cuotas 
-Lomas de Zamora
-9/2/2024, 12:26:42 - MegaBot: Para la Motomel Skua 125 X-Treme, el precio es de $1.485.241. Con respecto a las cuotas, la financiación puede ser hasta en 60 cuotas para préstamos prendarios o hasta 30 cuotas para préstamos personales, pero las cuotas son fijas. Para conocer las opciones disponibles y obtener más detalles, te recomendaría contactarte con un vendedor de Megamoto al teléfono 1149730000 o 1167862952【6†source】. ¡Espero haber sido de ayuda! 😉</v>
-      </c>
-      <c r="D43" t="str">
-        <v>65c643c10ba1a5000759a087</v>
-      </c>
-      <c r="E43" s="1">
-        <v>45331.51671802083</v>
-      </c>
-    </row>
-    <row r="44" xml:space="preserve">
-      <c r="A44" t="str">
-        <v>Julio El Mas Grande</v>
-      </c>
-      <c r="B44" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C44" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 13:08:21 - Julio El Mas Grande: ¡Hola! Me gustaría conseguir más información sobre esto.
-9/2/2024, 13:08:22 - MegaBot: ¡Hola Julio El Mas Grande! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-9/2/2024, 13:09:59 - Julio El Mas Grande: Soy de ituzaingo rouser ns 200  financiada con dni
-9/2/2024, 13:09:59 - MegaBot: ¡Hola! Gracias por tu interés en la Rouser NS 200. Para continuar, ¿podrías facilitarme un número de teléfono de contacto y tu domicilio en Ituzaingó? Esto ayudará a un vendedor a contactarte rápidamente para brindarte más información. ¡Gracias! 🏍️🔍
-9/2/2024, 14:59:47 - Julio El Mas Grande: Hola
-9/2/2024, 14:59:47 - MegaBot: ¡Hola Julio El Mas Grande! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para poder comunicarte con un vendedor y recibir información detallada sobre la Rouser NS 200 financiada, necesitaríamos que nos proporciones un número de teléfono de contacto y tu domicilio en Ituzaingó. ¡Gracias! 📞🏍️
-9/2/2024, 15:00:36 - Julio El Mas Grande: 1126484601 juramento 3850
-9/2/2024, 15:00:36 - MegaBot: ¡Gracias por la información, Julio El Mas Grande! Un vendedor se comunicará contigo pronto para brindarte más detalles sobre la financiación de la Rouser NS 200. ¿Hay algo más en lo que pueda ayudarte? 🏍️📞
-9/2/2024, 15:01:00 - Julio El Mas Grande: No
-9/2/2024, 15:01:00 - MegaBot: Perfecto, Julio El Mas Grande. Si necesitas más ayuda en el futuro, ¡no dudes en contactarme! Que tengas un excelente día y buena suerte con tu búsqueda de la Rouser NS 200 financiada. ¡Hasta luego! 👋🏍️</v>
-      </c>
-      <c r="D44" t="str">
-        <v>65c64df16b3c430008bc6575</v>
-      </c>
-      <c r="E44" s="1">
-        <v>45331.546914363425</v>
-      </c>
-    </row>
-    <row r="45" xml:space="preserve">
-      <c r="A45" t="str">
-        <v>Lauti</v>
-      </c>
-      <c r="B45" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C45" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 14:55:07 - Lauti: ¡Hola! Podrías darme más información de...
-9/2/2024, 14:55:07 - MegaBot: ¡Hola Lauti! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-9/2/2024, 14:56:23 - Lauti: Hola queria averiguar por un 110 o ax 100
-Quisiera averiguar si financian. Con dni
-1123350566
-De moreno zona oeste
-9/2/2024, 14:56:23 - MegaBot: ¡Hola! En Megamoto financiamos la 110 y la AX 100. Para continuar con la financiación, por favor, necesitaré tu DNI. Muchas gracias.
-9/2/2024, 14:59:53 - Lauti: Hola quisiera consultar si podria sacar financiada una moto con dni y hacer cuotas fijas
-9/2/2024, 14:59:54 - MegaBot: ¡Sí, en Megamoto puedes financiar la moto con DNI y hacer cuotas fijas! ¿Podrías facilitarme tu DNI para proceder? ¡Gracias!</v>
-      </c>
-      <c r="D45" t="str">
-        <v>65c666f7f3727c0008f724d9</v>
-      </c>
-      <c r="E45" s="1">
-        <v>45331.62106048611</v>
-      </c>
-    </row>
-    <row r="46" xml:space="preserve">
-      <c r="A46" t="str">
-        <v>José</v>
-      </c>
-      <c r="B46" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C46" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 15:04:54 - José: ¡Hola! Podrías fármaco  más información de...algo en 125
-9/2/2024, 15:04:55 - MegaBot: ¡Hola José! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-9/2/2024, 15:07:42 - José: Soy de lanus busco algo 125 contado cele este mismo 1154970765
-9/2/2024, 15:07:42 - MegaBot: ¡Hola José! 👋 En Megamoto tenemos la moto Mondial HD 125. El precio contado es de $95.000, incluyendo patentamiento (no incluye sellado CABA). Para continuar, ¿podrías brindarme tu nombre completo, DNI y método de pago preferido para poder conectarte con un vendedor lo más rápido posible? ¡Gracias! 🏍️🛵
-9/2/2024, 15:09:03 - José: Me mandas características de la moto
-9/2/2024, 15:09:03 - MegaBot: La moto Mondial HD 125 cuenta con las siguientes características:
-- Motor: 4 tiempos
-- Cilindrada: 125 cc
-- Refrigeración: Por aire
-- Arranque: Eléctrico y patada
-- Freno delantero: Disco
-- Freno trasero: Tambor
-- Capacidad del tanque: 8 litros
-- Peso: 130 kg
-- Colores disponibles: Negro, blanco, rojo, azul y gris
-¡Espero que esta información sea útil! ¿Puedes brindarme tu nombre completo, DNI y método de pago preferido para seguir adelante con la consulta? 
-9/2/2024, 15:09:55 - José: Repetirme precio contado efectivo por favor
-9/2/2024, 15:09:55 - MegaBot: El precio contado de la moto Mondial HD 125 es de $95.000, e incluye el patentamiento. Es importante destacar que este precio no incluye el sellado de CABA y es a confirmar por un vendedor. ¿Hay algo más en lo que te pueda ayudar?
-9/2/2024, 15:10:29 - José: Lugar físico para ir
-9/2/2024, 15:10:29 - MegaBot: Te recomiendo que te comuniques directamente con Megamoto para obtener información precisa sobre la ubicación física de sus concesionarios. Puedes llamar al teléfono de atención al cliente al 0800-555-MOTO (6686) o al 0810-22MEGA (6342) para que te brinden la dirección exacta y otros detalles importantes. ¡Buena suerte en tu búsqueda de la moto perfecta! 🏍️👋
-9/2/2024, 15:11:30 - José: Gracias
-9/2/2024, 15:11:30 - MegaBot: ¡De nada, José! ¡Si necesitas más ayuda en el futuro, no dudes en volver! ¡Que tengas un excelente día y mucha suerte con la compra de tu moto en Megamoto! 🏍️😊 ¡Hasta luego! 👋</v>
-      </c>
-      <c r="D46" t="str">
-        <v>65c669441c36b60008a2170c</v>
-      </c>
-      <c r="E46" s="1">
-        <v>45331.627857893516</v>
-      </c>
-    </row>
-    <row r="47" xml:space="preserve">
-      <c r="A47" t="str">
-        <v>😶‍🌫️</v>
-      </c>
-      <c r="B47" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C47" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 17:03:11 - 😶‍🌫️: ¡Hola! Podrías darme más información de...
-9/2/2024, 17:03:11 - MegaBot: ¡Hola 😶‍🌫️! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-9/2/2024, 17:03:38 - 😶‍🌫️: Hola quiero saber si puedo sacar una moto soy jubilada ya avía sacado una yo
-9/2/2024, 17:03:38 - MegaBot: Para obtener una moto, necesito que me indiques:
-1. Modelo de moto de interés.
-2. Método de pago preferido.
-3. Teléfono de contacto.
-4. Localidad donde te encuentras.
-Con estos datos, un vendedor de Megamoto podrá atenderte más rápido. ¡Gracias! 😊</v>
-      </c>
-      <c r="D47" t="str">
-        <v>65c684fb6ad9b1000886126e</v>
-      </c>
-      <c r="E47" s="1">
-        <v>45331.709991840275</v>
-      </c>
-    </row>
-    <row r="48" xml:space="preserve">
-      <c r="A48" t="str">
-        <v>Joel</v>
-      </c>
-      <c r="B48" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C48" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 17:03:22 - Joel: ¡Hola! Me gustaría conseguir más información sobre esto.
-9/2/2024, 17:03:22 - MegaBot: ¡Hola Joel! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D48" t="str">
-        <v>65c685064ec4d30008ec939f</v>
-      </c>
-      <c r="E48" s="1">
-        <v>45331.71011640046</v>
-      </c>
-    </row>
-    <row r="49" xml:space="preserve">
-      <c r="A49" t="str">
-        <v>Fedexxx</v>
-      </c>
-      <c r="B49" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C49" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 17:09:09 - Fedexxx: ¡Hola! Me gustaría conseguir más información sobre esto.
-9/2/2024, 17:09:09 - MegaBot: ¡Hola Fedexxx! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D49" t="str">
-        <v>65c6866249093d000874fc2b</v>
-      </c>
-      <c r="E49" s="1">
-        <v>45331.71413818287</v>
-      </c>
-    </row>
-    <row r="50" xml:space="preserve">
-      <c r="A50" t="str">
-        <v>Robert🤗😁</v>
-      </c>
-      <c r="B50" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C50" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 17:15:29 - Robert🤗😁: ¡Hola! Me gustaría conseguir más información sobre esto.
-9/2/2024, 17:15:29 - MegaBot: ¡Hola Robert🤗😁! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D50" t="str">
-        <v>65c687dd08702d0008d756d3</v>
-      </c>
-      <c r="E50" s="1">
-        <v>45331.718535092594</v>
-      </c>
-    </row>
-    <row r="51" xml:space="preserve">
-      <c r="A51" t="str">
-        <v>Taller De Informática</v>
-      </c>
-      <c r="B51" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C51" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 17:16:36 - Taller De Informática: ¡Hola! Me gustaría conseguir más información sobre esto.
-9/2/2024, 17:16:36 - MegaBot: ¡Hola Taller De Informática! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D51" t="str">
-        <v>65c4b0303e159a000817f84b</v>
-      </c>
-      <c r="E51" s="1">
-        <v>45331.71931069445</v>
-      </c>
-    </row>
-    <row r="52" xml:space="preserve">
-      <c r="A52" t="str">
-        <v>Anibal</v>
-      </c>
-      <c r="B52" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C52" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 17:55:53 - Anibal: Hola buenas tardes
-9/2/2024, 17:55:53 - MegaBot: ¡Hola Anibal! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-9/2/2024, 17:56:09 - Anibal: Me pasarias precio de moto 110
-9/2/2024, 17:56:09 - MegaBot: El precio de la moto Blitz 110 es de 1.068.056 pesos argentinos. Este precio incluye patentamiento y es a confirmar con un vendedor, además no incluye el impuesto a los sellos de CABA【6:0†source】. ¿Te gustaría que te contacte un vendedor para continuar con la compra?</v>
-      </c>
-      <c r="D52" t="str">
-        <v>65c691554b6191000883221b</v>
-      </c>
-      <c r="E52" s="1">
-        <v>45331.746592951386</v>
-      </c>
-    </row>
-    <row r="53" xml:space="preserve">
-      <c r="A53" t="str">
-        <v>Fernández Y Osicka Abogados</v>
-      </c>
-      <c r="B53" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C53" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 18:03:29 - Fernández Y Osicka Abogados: ¡Hola! Podrías darme más información de...
-9/2/2024, 18:03:29 - MegaBot: ¡Hola Fernández Y Osicka Abogados! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D53" t="str">
-        <v>65c6931d4cd161000852b091</v>
-      </c>
-      <c r="E53" s="1">
-        <v>45331.75187153935</v>
-      </c>
-    </row>
-    <row r="54" xml:space="preserve">
-      <c r="A54" t="str">
-        <v>Snm</v>
-      </c>
-      <c r="B54" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C54" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 18:25:27 - Snm: ¡Hola! Podrías darme más información de...
-9/2/2024, 18:25:27 - MegaBot: ¡Hola Snm! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀</v>
-      </c>
-      <c r="D54" t="str">
-        <v>65c6984371de2300087bae94</v>
-      </c>
-      <c r="E54" s="1">
-        <v>45331.76712369213</v>
-      </c>
-    </row>
-    <row r="55" xml:space="preserve">
-      <c r="A55" t="str">
-        <v>Danny Maguila</v>
-      </c>
-      <c r="B55" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C55" t="str" xml:space="preserve">
-        <v xml:space="preserve">9/2/2024, 18:53:41 - Danny Maguila: ¡Hola! Podrías darme más información de...
-9/2/2024, 18:53:42 - MegaBot: ¡Hola Danny Maguila! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Te pido me seas lo más preciso posible para entenderte mejor y evitar errores 🙏. Para que un vendedor pueda atenderte más rápido decime que moto estas buscando, como queres pagar, un teléfono y de donde sos. 😀
-9/2/2024, 20:56:59 - Danny Maguila: ¡Hola! Podrías darme más información de...
-9/2/2024, 20:56:59 - MegaBot: ¡Hola! Soy MegaBot, ¿en qué modelo de moto estás interesado, cómo deseas pagar, cuál es tu teléfono y de qué localidad eres? 😉</v>
-      </c>
-      <c r="D55" t="str">
-        <v>65c69ee2bb8a8a00089d19ed</v>
-      </c>
-      <c r="E55" s="1">
-        <v>45331.78673710648</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>Angel😁</v>
-      </c>
-      <c r="B56" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C56" t="str">
-        <v>9/2/2024, 19:43:25 - Angel😁: ¡Hola! Podrías darme más información de...</v>
-      </c>
-      <c r="D56" t="str">
-        <v>65c6aa88c453d6000ad4943d</v>
-      </c>
-      <c r="E56" s="1">
-        <v>45331.82126956018</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>🌸𝑽𝒂𝒏𝒆🍒</v>
-      </c>
-      <c r="B57" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C57" t="str">
-        <v>9/2/2024, 20:09:40 - 🌸𝑽𝒂𝒏𝒆🍒: ¡Hola! Podrías darme más información de...</v>
-      </c>
-      <c r="D57" t="str">
-        <v>65c6b0b0efd81d0008e5eaf4</v>
-      </c>
-      <c r="E57" s="1">
-        <v>45331.839494085645</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E24"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -422,93 +422,890 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>Gustavo Gomez Villafañe</v>
+        <v>Alan</v>
       </c>
       <c r="B2" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C2" t="str" xml:space="preserve">
-        <v xml:space="preserve">12/2/2024, 12:51:16 - Gustavo Gomez Villafañe: hola
-12/2/2024, 12:51:16 - MegaBot: ¡Hola Gustavo Gomez Villafañe! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
-12/2/2024, 12:51:43 - Gustavo Gomez Villafañe: me decis precio de una blitz110?
-12/2/2024, 12:51:43 - MegaBot: El precio de la Motomel Blitz 110 V8 Base One (B1 Aut) es de $1.068.056. Este valor incluye el patentamiento, pero no incluye el impuesto a los sellos de CABA. Te recomiendo confirmar el precio con un vendedor de Megamoto. ¿Te gustaría ser contactado por un vendedor para obtener más información?
-12/2/2024, 12:52:22 - Gustavo Gomez Villafañe: si
-12/2/2024, 12:52:22 - MegaBot: Perfecto, para poder contactarte con un vendedor y recibir más información sobre la Motomel Blitz 110, necesitaré que me proporciones tu modelo de moto de interés, tu método de pago preferido, tu teléfono, tu localidad y tu DNI en caso de que elijas la financiación o pago en cuotas. ¿Podrías proporcionarme esos datos por favor?
-12/2/2024, 12:53:38 - Gustavo Gomez Villafañe: financiación, vivo en tigre, 1561405589, dni20471170
-12/2/2024, 12:53:38 - MegaBot: Perfecto, gracias por brindarme esa información. Un vendedor de Megamoto se pondrá en contacto contigo para continuar con el proceso de financiación y brindarte más detalles sobre la Motomel Blitz 110. ¿Hay algo más en lo que pueda ayudarte relacionado con Megamoto?
-12/2/2024, 12:54:28 - Gustavo Gomez Villafañe: si el precio de una trk
-12/2/2024, 12:54:28 - MegaBot: El precio de la Benelli TRK 251 ABS es de $5.895.830. Este precio incluye el patentamiento, pero no el impuesto a los sellos de CABA. Te recomendaría confirmar el precio directamente con un vendedor de Megamoto, ¿te gustaría ser contactado por uno para obtener más información?
-12/2/2024, 12:55:44 - Gustavo Gomez Villafañe: y el precio de una cg?
-12/2/2024, 12:55:44 - MegaBot: Lamento informarte que no cuento con información detallada sobre el modelo "CG" en la base de datos de Megamoto. Para obtener el precio exacto y la disponibilidad de la misma, te recomendaría contactar directamente con un vendedor de Megamoto. ¿Te gustaría proporcionar algún otro modelo o información adicional para que pueda ayudarte?
-12/2/2024, 12:56:15 - Gustavo Gomez Villafañe: la cg150
-12/2/2024, 12:56:15 - MegaBot: El precio de la Motomel CG 150 S2 Full (con aleación y disco) es de $1.480.676. Este precio es orientativo e incluye el patentamiento, pero no el impuesto a los sellos de CABA. Para confirmar el precio actualizado y obtener más detalles, te recomendaría que te comuniques con un vendedor de Megamoto. ¿Puedo ayudarte con algo más?
-12/2/2024, 12:56:51 - Gustavo Gomez Villafañe: y una versión mas económica?
-12/2/2024, 12:56:52 - MegaBot: La Motomel CG 150 S2 Start tiene un precio de $1.221.010. Es una opción más económica en comparación con la versión Full. Nuevamente, este precio incluye el patentamiento, pero no el impuesto a los sellos de CABA. Recuerda que para confirmar el precio y conocer más detalles, lo mejor sería consultar directamente con un vendedor de Megamoto. ¿Hay algo más en lo que pueda asistirte?</v>
+        <v xml:space="preserve">12/2/2024, 16:43:17 - Alan: Te puedo dar mi DNI aver si accedo a la compra y de cuánto serian
+12/2/2024, 16:43:17 - MegaBot: ¡Hola Alan! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+12/2/2024, 16:43:23 - Alan: Las cuotas
+12/2/2024, 16:43:23 - MegaBot: ¡Hola! Para poder brindarte información sobre la financiación y las cuotas, necesitaría que me indiques el modelo de moto de tu interés, tu teléfono, la localidad donde te encuentras y tu método de pago (en este caso, financiación). Una vez tengamos esos datos, podríamos ponerte en contacto con un vendedor de Megamoto para que te asesore de forma más detallada. ¡Gracias!
+12/2/2024, 16:43:29 - Alan: Gracias
+12/2/2024, 16:43:30 - MegaBot: ¡De nada! Si tienes alguna otra pregunta o necesitas más información, no dudes en decírmelo. ¡Estoy aquí para ayudarte!
+12/2/2024, 16:44:28 - Alan: Motomel blitz
+12/2/2024, 16:44:28 - MegaBot: Perfecto, gracias por la información. ¿Podrías proporcionarme tu teléfono, tu localidad y tu DNI para continuar con el proceso de financiación? Una vez que contemos con esos datos, un vendedor de Megamoto podrá comunicarse contigo para brindarte más detalles sobre las cuotas y la disponibilidad del producto. ¡Gracias por tu colaboración!
+12/2/2024, 16:44:34 - Alan: 1162510570
+12/2/2024, 16:44:35 - MegaBot: ¡Gracias por proporcionar tu teléfono! ¿Podrías indicarme la localidad donde te encuentras y tu DNI para continuar con la solicitud de financiación para la compra de la Motomel Blitz? Una vez tengamos esos datos, un vendedor de Megamoto se pondrá en contacto contigo para seguir adelante con el proceso. ¡Gracias por tu colaboración!
+12/2/2024, 16:44:50 - Alan: Hurlingham
+12/2/2024, 16:44:50 - MegaBot: ¡Perfecto, gracias por la información! Para completar el proceso de financiación, necesitaría que me brindes tu número de DNI, por favor. Una vez tengamos ese dato, podremos gestionar la solicitud de financiación y un vendedor de Megamoto se comunicará contigo para continuar con la compra de la Motomel Blitz en cuotas. ¡Gracias por tu colaboración!
+12/2/2024, 16:45:22 - Alan: 34834219
+12/2/2024, 16:45:22 - MegaBot: ¡Gracias por proporcionar tu número de DNI! Un vendedor de Megamoto se comunicará contigo próximamente para continuar con el proceso de financiación para la compra de la Motomel Blitz en cuotas. Si tienes alguna otra pregunta o necesitas más información, no dudes en decírmelo. ¡Estoy aquí para ayudarte en lo que necesites! ¡Gracias por elegir Megamoto!</v>
       </c>
       <c r="D2" t="str">
-        <v>6596d62461f4a300081b28cb</v>
+        <v>65ca4b569070910008610aca</v>
       </c>
       <c r="E2" s="1">
-        <v>45334.53505046296</v>
+        <v>45334.6961705787</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3" t="str">
-        <v>Daniela🥰</v>
+        <v>Loi</v>
       </c>
       <c r="B3" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C3" t="str" xml:space="preserve">
-        <v xml:space="preserve">12/2/2024, 13:12:57 - Daniela🥰: Hola info precios? Y que modelos tenes
-12/2/2024, 13:12:57 - MegaBot: ¡Hola Daniela🥰! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">12/2/2024, 16:46:45 - Loi: Busco veneli 300 0 600
+12/2/2024, 16:46:46 - MegaBot: ¡Hola Loi! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
       </c>
       <c r="D3" t="str">
-        <v>65c92319bda3410008e7f153</v>
+        <v>65ca1dde2e65370008ed8ed4</v>
       </c>
       <c r="E3" s="1">
-        <v>45334.55010840278</v>
+        <v>45334.69858737269</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
       <c r="A4" t="str">
-        <v>Cye</v>
+        <v>Ariel</v>
       </c>
       <c r="B4" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C4" t="str" xml:space="preserve">
-        <v xml:space="preserve">12/2/2024, 13:28:52 - Cye: ¡Hola! Podrías darme más información de...
-12/2/2024, 13:28:52 - MegaBot: ¡Hola Cye! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">12/2/2024, 17:07:16 - Ariel: ¡Hola! Podrías darme más información de...
+12/2/2024, 17:07:16 - MegaBot: ¡Hola Ariel! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
       </c>
       <c r="D4" t="str">
-        <v>65ca473fdfab4b0008918008</v>
+        <v>65ca7a710f18ad0008bc7913</v>
       </c>
       <c r="E4" s="1">
-        <v>45334.5611621875</v>
+        <v>45334.71282475694</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
       <c r="A5" t="str">
-        <v>Erica</v>
+        <v>Diogenes👍😁</v>
       </c>
       <c r="B5" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C5" t="str" xml:space="preserve">
-        <v xml:space="preserve">12/2/2024, 13:29:04 - Erica: ¡Hola! Podrías darme más información de...
-12/2/2024, 13:29:05 - MegaBot: ¡Hola Erica! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">12/2/2024, 18:45:35 - Diogenes👍😁: ¡Hola! Podrías darme más información de...
+12/2/2024, 18:45:35 - MegaBot: ¡Hola Diogenes👍😁! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
       </c>
       <c r="D5" t="str">
-        <v>65ca474c5ac0210008ba3803</v>
+        <v>65ca917d13c8c100088da7f8</v>
       </c>
       <c r="E5" s="1">
-        <v>45334.56130787037</v>
+        <v>45334.781107442126</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>Ser</v>
+      </c>
+      <c r="B6" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C6" t="str" xml:space="preserve">
+        <v xml:space="preserve">12/2/2024, 18:47:00 - Ser: ¡Hola! Podrías darme más información de...
+12/2/2024, 18:47:00 - MegaBot: ¡Hola Ser! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+12/2/2024, 18:47:29 - Ser: Me pasas modelo y plan
+12/2/2024, 18:47:29 - MegaBot: ¡Hola! ¿Estás interesado en conocer los modelos de motos disponibles en Megamoto y los planes de financiación que ofrecemos? ¡Estaré encantado de ayudarte! Para poder brindarte esa información, necesitaría que me indiques el modelo de moto que te interesa y si estás considerando algún plan de pago en particular, como financiación o pago en cuotas. ¡Quedo atento a tu respuesta!</v>
+      </c>
+      <c r="D6" t="str">
+        <v>65ca91d1d965520008534a72</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45334.78208484954</v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>Amadeo Coronel</v>
+      </c>
+      <c r="B7" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C7" t="str" xml:space="preserve">
+        <v xml:space="preserve">12/2/2024, 19:25:58 - Amadeo Coronel: Vi esto en Facebook...
+12/2/2024, 19:25:58 - MegaBot: ¡Hola Amadeo Coronel! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+12/2/2024, 19:26:11 - Amadeo Coronel: Me interesa
+12/2/2024, 19:26:11 - MegaBot: ¡Hola! ¡Qué bueno que te interese! En Megamoto contamos con una amplia variedad de motos de diferentes marcas como Benelli, Suzuki, Motomel, Keeway y Sym. Si estás interesado en algún modelo en particular, por favor indícame cuál te ha llamado la atención para que pueda brindarte más información al respecto.</v>
+      </c>
+      <c r="D7" t="str">
+        <v>65ca9af46a34310008abc9b5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45334.809150416666</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>Mis 2 Princesa Lizykiara🥰</v>
+      </c>
+      <c r="B8" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C8" t="str" xml:space="preserve">
+        <v xml:space="preserve">12/2/2024, 20:16:21 - Mis 2 Princesa Lizykiara🥰: ¡Hola! Podrías darme más información de...
+12/2/2024, 20:16:21 - MegaBot: ¡Hola Mis 2 Princesa Lizykiara🥰! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D8" t="str">
+        <v>65caa6c299d9d10008c13e21</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45334.84413603009</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>Gabriel Gastón ⭐⭐⭐</v>
+      </c>
+      <c r="B9" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C9" t="str" xml:space="preserve">
+        <v xml:space="preserve">12/2/2024, 20:38:19 - Gabriel Gastón ⭐⭐⭐: Base o full
+12/2/2024, 20:38:19 - MegaBot: ¡Hola Gabriel Gastón ⭐⭐⭐! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+12/2/2024, 20:38:26 - Gabriel Gastón ⭐⭐⭐: Precio en cuotas
+12/2/2024, 20:38:26 - MegaBot: El precio en cuotas varía dependiendo del modelo de moto que estés interesado. Para brindarte información precisa sobre las cuotas, necesitaría que me indiques el modelo específico de moto que te interesa. Una vez que contemos con esa información, un vendedor de Megamoto podrá asistirte con mayor detalle y rapidez. ¿Podrías indicarme el modelo de moto en el que estás interesado?
+12/2/2024, 20:38:28 - Vendedor Megamoto: en qué localidad tenes domicilio para tener en cuenta el patentamiento</v>
+      </c>
+      <c r="D9" t="str">
+        <v>65ca6051bbeedc00089ce751</v>
+      </c>
+      <c r="E9" s="1">
+        <v>45334.85939409722</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>.</v>
+      </c>
+      <c r="B10" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C10" t="str" xml:space="preserve">
+        <v xml:space="preserve">12/2/2024, 21:20:50 - .: Ahh bueno mi mamá es jubilada y me dijo que me das una mano en esos ya que es para trabajar así que cualquier cosa me decís y veo
+12/2/2024, 21:20:50 - MegaBot: ¡Hola .! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D10" t="str">
+        <v>65c97ec44c0549000782cb7b</v>
+      </c>
+      <c r="E10" s="1">
+        <v>45334.888915069445</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>Franco</v>
+      </c>
+      <c r="B11" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C11" t="str" xml:space="preserve">
+        <v xml:space="preserve">12/2/2024, 21:22:53 - Franco: 38445327
+12/2/2024, 21:22:54 - MegaBot: ¡Hola Franco! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+12/2/2024, 21:23:25 - Franco: No tengo nada para poner pero si sacarla a pagar yo estoy por empezar a trabajar en rappi , solo necesito una bicicleta
+12/2/2024, 21:23:26 - MegaBot: Entiendo que estás buscando una bicicleta para poder trabajar en Rappi. ¡Es genial que estés planeando un nuevo desafío laboral! En este caso, si estás interesado en adquirir una moto para trabajar, ¿te gustaría que te pasara con un vendedor de Megamoto para que te brinde más información sobre los modelos disponibles y las opciones de financiación que ofrecen? ¡Ellos podrán asesorarte de la mejor manera para que puedas empezar tu nuevo trabajo lo antes posible!
+12/2/2024, 21:24:03 - Franco: Solo bicicleta por el momento ya que no poseo registro
+12/2/2024, 21:24:03 - MegaBot: Entiendo tu situación. Si en algún momento decides que estás listo para adquirir una moto para trabajar en Rappi, no dudes en contactar a Megamoto. Ellos podrán brindarte toda la información que necesitas sobre los modelos de motos disponibles, las formas de pago, y también podrán ayudarte con los trámites necesarios. ¡Estoy aquí para ayudarte en lo que necesites!
+12/2/2024, 21:24:47 - Franco: Bicicleta a pagar puedo entonces?
+12/2/2024, 21:24:47 - MegaBot: Para poder realizar una compra a pagar, necesitaré que me confirmes si buscas una bicicleta específicamente o si estás interesado en alguna moto en particular. En el caso de que prefieras una bicicleta, lamentablemente en Megamoto solo disponemos de motos de las marcas Benelli, Suzuki, Motomel, Keeway y Sym. Si en algún momento decides considerar la opción de una moto, ¡estaré aquí para ayudarte con toda la información que necesites!</v>
+      </c>
+      <c r="D11" t="str">
+        <v>65c9b3ced5a6400008a02274</v>
+      </c>
+      <c r="E11" s="1">
+        <v>45334.890345</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>Jorgetopo</v>
+      </c>
+      <c r="B12" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C12" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 8:07:18 - Jorgetopo: ¡Hola! Podrías darme más información de...q motos tenés y como es el tema de pago
+13/2/2024, 8:07:18 - MegaBot: ¡Hola Jorgetopo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D12" t="str">
+        <v>65cb4d62bf49ce000906dc74</v>
+      </c>
+      <c r="E12" s="1">
+        <v>45335.337852881945</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>Ruth 🌺🦋</v>
+      </c>
+      <c r="B13" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C13" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 8:57:49 - Ruth 🌺🦋: ¡Hola! Podrías darme más información de...
+13/2/2024, 8:57:49 - MegaBot: ¡Hola Ruth 🌺🦋! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D13" t="str">
+        <v>65cb59384de1b50008305e4f</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45335.3729297338</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>Gustavo Gomez Villafañe</v>
+      </c>
+      <c r="B14" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C14" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 9:20:43 - Gustavo Gomez Villafañe: busco una bici
+13/2/2024, 9:20:44 - MegaBot: ¡Hola Gustavo Gomez Villafañe! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+13/2/2024, 9:21:15 - Gustavo Gomez Villafañe: quiero una bici
+13/2/2024, 9:21:16 - MegaBot: Lamento informarte que en Megamoto no disponemos de bicicletas. Sin embargo, si estás interesado en motos de las marcas Benelli, Suzuki, Motomel, Keeway y Sym, estaré encantado de ayudarte con esa información. ¿Te interesa alguna de esas marcas en particular?
+13/2/2024, 9:22:12 - Gustavo Gomez Villafañe: tengo entendido que tienen bicicletas
+13/2/2024, 9:22:12 - MegaBot: Lamentablemente, en Megamoto no comercializamos bicicletas. Nuestro enfoque son las motos de las marcas Benelli, Suzuki, Motomel, Keeway y Sym, así como también repuestos y accesorios para motos. Si estás interesado en algún producto de estas marcas, por favor házmelo saber para brindarte la información que necesitas.
+13/2/2024, 9:26:50 - Gustavo Gomez Villafañe: busco una bici
+13/2/2024, 9:26:51 - MegaBot: Lamento informarte que en Megamoto no comercializamos bicicletas. Nuestro catálogo se enfoca en motos, repuestos y accesorios de las marcas Benelli, Suzuki, Motomel, Keeway y Sym. Si estás interesado en alguna de estas marcas en particular, puedo proporcionarte más información al respecto. ¿Te interesa alguna moto en específico?
+13/2/2024, 9:34:18 - Gustavo Gomez Villafañe: quiero una bici
+13/2/2024, 9:34:18 - MegaBot: Lamento la confusión, pero Megamoto no vende bicicletas. Si estás buscando comprar una bicicleta, te recomendaría visitar tiendas especializadas en artículos deportivos o tiendas exclusivas de bicicletas. ¡Espero que encuentres la bicicleta perfecta para ti! ¿Puedo ayudarte con algo más?
+13/2/2024, 9:36:03 - Gustavo Gomez Villafañe: tienen bicicletas?
+13/2/2024, 9:36:03 - MegaBot: Lamentablemente en Megamoto no disponemos de bicicletas en nuestro catálogo. Nos especializamos en la venta de motos de las marcas Benelli, Suzuki, Motomel, Keeway y Sym, así como también en repuestos y accesorios para motos. Si estás interesado en algún producto relacionado con motocicletas, estaré encantado de ayudarte. ¿Hay algo más en lo que pueda asistirte?
+13/2/2024, 9:43:44 - MegaBot: Te pido disculpas 🙏, en este momento no puedo procesar tu solicitud ☹️. Por favor intentá mas tarde. ¡Saludos de MegaBot! 🙂
+13/2/2024, 9:45:27 - MegaBot: Te pido disculpas 🙏, en este momento no puedo procesar tu solicitud ☹️. Por favor intentá mas tarde. ¡Saludos de MegaBot! 🙂
+13/2/2024, 9:54:24 - Gustavo Gomez Villafañe: quiero bici
+13/2/2024, 9:54:25 - MegaBot: ¡Entiendo! En Megamoto, comercializamos bicicletas de las marcas Scott, Orbea, Tecnial y Shiro. Si estás interesado en adquirir una bicicleta de alguna de estas marcas, por favor envíame los detalles de lo que estás buscando. Uno de nuestros vendedores se pondrá en contacto contigo para brindarte más información y ayudarte a encontrar la bicicleta perfecta. ¡Espero tu mensaje con tus preferencias para poder asistirte mejor!
+13/2/2024, 16:22:42 - Gustavo Gomez Villafañe: busco trabajo
+13/2/2024, 16:22:43 - MegaBot: En estos momentos, Megamoto no está contratando personal. Sin embargo, si deseas enviarnos tu currículum, podemos mantenerlo en nuestros archivos para futuras oportunidades laborales. Por favor, envía tu currículum a nuestro correo electrónico de recursos humanos y lo tendremos en consideración para posibles vacantes en el futuro. ¡Gracias por tu interés en trabajar con nosotros! ¿Hay algo más en lo que pueda ayudarte?
+13/2/2024, 16:24:09 - Gustavo Gomez Villafañe: puedo enviar mi cv?
+13/2/2024, 16:24:09 - MegaBot: ¡Por supuesto! Puedes enviarnos tu currículum vitae a la dirección de correo electrónico de recursos humanos de Megamoto: megamoto@megamoto.com.ar. Asegúrate de incluir toda la información relevante sobre tu experiencia laboral, educación y habilidades para que podamos tener una mejor comprensión de tu perfil. ¡Estaremos atentos a tu correo y te contactaremos si surge alguna oportunidad laboral que se ajuste a tu perfil! ¿Hay algo más en lo que pueda asistirte?
+13/2/2024, 16:25:02 - Gustavo Gomez Villafañe: si quiero saber el precio de una 110
+13/2/2024, 16:25:03 - MegaBot: Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $ 955.658. El precio es con patentamiento incluido, no incluye impuesto a los sellos de CABA y es a confirmar por un vendedor. Si necesitas más detalles sobre este modelo u otros, o deseas conocer opciones de financiación, por favor házmelo saber para brindarte toda la información que necesitas. ¿Te gustaría ser atendido por un vendedor para continuar con el proceso de compra?
+13/2/2024, 18:05:59 - Gustavo Gomez Villafañe: hola
+13/2/2024, 18:05:59 - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy?
+13/2/2024, 18:06:38 - Gustavo Gomez Villafañe: hacen envíos?
+13/2/2024, 18:06:38 - MegaBot: ¡Hola! Sí, en Megamoto realizamos envíos al interior del país. Si estás interesado en adquirir algún producto de nuestro catálogo y necesitas que te lo enviemos a tu ubicación, por favor házmelo saber para brindarte más detalles sobre el proceso de envío y los costos asociados. ¿Hay algo en lo que pueda asistirte específicamente con respecto a un envío?</v>
+      </c>
+      <c r="D14" t="str">
+        <v>6596d62461f4a300081b28cb</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45335.38884399305</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>Diego</v>
+      </c>
+      <c r="B15" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C15" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 10:11:59 - Diego: ¡Hola! Podrías darme más información de...
+13/2/2024, 10:11:59 - MegaBot: ¡Hola Diego! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+13/2/2024, 13:20:56 - Diego: Estoy interesado en la 251
+13/2/2024, 13:20:56 - MegaBot: ¡Hola! Claro, la 251 a la que te refieres es la Benelli 251 S. ¿Podrías indicarme tu método de pago de interés para poder brindarte más detalles sobre la financiación?
+13/2/2024, 13:21:33 - Diego: Ni idea sobre precio
+13/2/2024, 13:21:33 - MegaBot: El precio de la Benelli 251 S es de 4.990.978 pesos. Este precio incluye el patentamiento, pero no incluye el impuesto a los sellos de CABA y es a confirmar con un vendedor en el concesionario de Megamoto. ¿Deseas más información sobre cómo financiar la compra?
+13/2/2024, 13:22:30 - Diego: Si
+13/2/2024, 13:22:31 - MegaBot: Perfecto. Para poder avanzar con la financiación, necesitaré que me proporciones tu teléfono, DNI, localidad y si estás de acuerdo, un vendedor de Megamoto se comunicará contigo para continuar con el proceso de compra de la Benelli 251 S. ¿Podrías brindarme esos datos, por favor?</v>
+      </c>
+      <c r="D15" t="str">
+        <v>65cb6a9b9d86ac0008eb255d</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45335.42443831018</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>Juan Antonio Carripilón</v>
+      </c>
+      <c r="B16" t="str">
+        <v>instagram</v>
+      </c>
+      <c r="C16" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 11:15:22 - Juan Antonio Carripilón: Hacen envíos a La Pampa?
+13/2/2024, 11:15:22 - MegaBot: ¡Hola Juan Antonio Carripilón! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+13/2/2024, 11:15:28 - Juan Antonio Carripilón: Hacen envíos a La Pampa?
+13/2/2024, 11:15:29 - MegaBot: Lamentablemente, en este momento no contamos con servicio de envíos a La Pampa. Sin embargo, te invitamos a visitar nuestra sucursal más cercana para ver personalmente nuestros productos. ¿Puedo ayudarte con algo más?</v>
+      </c>
+      <c r="D16" t="str">
+        <v>65cb7975b0b5bf0008c48cf5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45335.46845068287</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>Ever🍀</v>
+      </c>
+      <c r="B17" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C17" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 11:15:41 - Ever🍀: Buenas
+13/2/2024, 11:15:41 - MegaBot: ¡Hola Ever🍀! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+13/2/2024, 11:16:55 - Ever🍀: Me podrian decir el precio de la motomel Bliz, soy de Merlo Libertad, el metodo de pago es alcontado
+13/2/2024, 11:16:55 - MegaBot: ¡Hola! El precio de la Motomel Blitz varía dependiendo del modelo específico. ¿Podrías indicarme el modelo exacto de la Motomel Blitz que te interesa para poder proporcionarte el precio correspondiente? Recuerda que los precios incluyen patentamiento, pero no incluyen impuesto a los sellos de CABA y son a confirmar con un vendedor. ¡Quedo a tu disposición para cualquier otra consulta que tengas!
+13/2/2024, 11:18:14 - Ever🍀: Modelo 2024
+13/2/2024, 11:18:14 - MegaBot: Lamento informarte que no contamos con información actualizada sobre el modelo 2024 de la Motomel Blitz en nuestra base de datos de precios. Te recomendaría comunicarte directamente con una de nuestras sucursales en Merlo o en la zona de Abasto en CABA para obtener la información más precisa y actualizada, ya que los precios pueden variar según la disponibilidad y las especificaciones de cada modelo. ¿Te gustaría proporcionarme algún otro modelo de motocicleta de nuestro catálogo para que pueda brindarte información detallada al respecto? ¡Estoy aquí para ayudarte en lo que necesites!
+13/2/2024, 11:19:06 - Ever🍀: Y modelo 2023?
+13/2/2024, 11:19:06 - MegaBot: ¡Claro! Para el modelo 2023 de la Motomel Blitz, los precios son los siguientes:
+- **Blitz 110 V8 BASE ONE - B1 Aut:** $1.068.056
+- **Blitz 110 V8 FULL ONE - B1:** $1.084.038
+- **Blitz 110 V8 PLUS:** $1.220.959
+- **Blitz 110 V8 START:** $955.658
+- **Blitz 110 V8 TUNNING NEW:** $1.197.087
+Estos precios son orientativos e incluyen el patentamiento, pero no los impuestos de CABA. Te recomendaría confirmar la disponibilidad y precio exacto comunicándote con una de nuestras sucursales en Merlo o en la zona de Abasto en CABA. ¿Te gustaría recibir más información sobre alguno de estos modelos o tienes alguna otra consulta? ¡Estoy aquí para ayudarte!</v>
+      </c>
+      <c r="D17" t="str">
+        <v>65cb798988a357000b653998</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45335.468673379626</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>Fuku</v>
+      </c>
+      <c r="B18" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 11:17:27 - Fuku: ¡Hola! Podrías darme más información de...
+13/2/2024, 11:17:27 - MegaBot: ¡Hola Fuku! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+13/2/2024, 11:17:59 - Fuku: Gilera vc 200r
+13/2/2024, 11:17:59 - MegaBot: ¡Hola! En Megamoto nos especializamos en la comercialización de motos de las marcas Benelli, Suzuki, Motomel, Keeway y Sym. Lamentablemente, la Gilera VC 200R no se encuentra dentro de las marcas que manejamos. ¿Te interesaría conocer más acerca de alguno de los modelos que sí ofrecemos?
+13/2/2024, 11:19:56 - Fuku: Sirius 190 Motomel
+13/2/2024, 11:19:56 - MegaBot: ¡Claro! El Motomel Sirius 190 es parte de nuestra oferta de productos. Es un modelo nuevo de Motomel que se encuentra disponible en Megamoto. ¿Te gustaría conocer más detalles sobre el Motomel Sirius 190 o tener información sobre cómo adquirirlo?
+13/2/2024, 11:21:09 - Fuku: Si
+13/2/2024, 11:21:09 - MegaBot: Perfecto, para poder completar tu solicitud, necesitaré algunos datos adicionales. ¿Podrías indicarme cuál es el método de pago que te gustaría utilizar para la adquisición de la Motomel Sirius 190? Puedes elegir entre efectivo, tarjeta de crédito, préstamo o financiación en cuotas.
+13/2/2024, 11:21:38 - Fuku: Tarjeta de crédito
+13/2/2024, 11:21:39 - MegaBot: ¡Excelente elección! Para poder continuar con el proceso de compra con tarjeta de crédito, necesitaré que me proporciones tu número de teléfono, localidad y dirección de correo electrónico. Además, en caso de que requieras financiación en cuotas, deberás facilitarme también tu número de DNI para que un vendedor pueda verificar si calificas para el crédito. ¿Puedes proporcionarme esta información para agilizar el proceso de contacto con un vendedor especializado en Megamoto?
+13/2/2024, 11:22:41 - Fuku: 1168386078 ciudad evita la matanza alito649@gmail.com
+13/2/2024, 11:22:42 - MegaBot: ¡Gracias por la información! Para poder procesar tu solicitud de compra con tarjeta de crédito y agilizar el contacto con un vendedor de Megamoto, necesitaré que me proporciones tu número de Documento Nacional de Identidad (DNI). Una vez que cuente con esa información, podré poner en marcha el siguiente paso para que un vendedor se comunique contigo lo antes posible. ¿Podrías brindarme tu número de DNI?
+13/2/2024, 11:23:06 - Fuku: 29756872
+13/2/2024, 11:23:06 - MegaBot: ¡Gracias por proporcionar tu número de DNI! Con estos datos, un vendedor de Megamoto se pondrá en contacto contigo a la brevedad para continuar con el proceso de compra de la Motomel Sirius 190 con tarjeta de crédito. Si tienes alguna otra consulta o necesitas ayuda adicional, no dudes en decírmelo. ¡Gracias por elegir Megamoto!
+13/2/2024, 11:23:35 - Fuku: Q modelos tenés
+13/2/2024, 11:23:35 - MegaBot: En Megamoto contamos con una variedad de modelos de diferentes marcas como Benelli, Suzuki, Motomel, Keeway y Sym. Algunos de los modelos disponibles son:
+- Benelli: 180 S, 251 S, 302 S, 502 C, 752 S, Imperiale 400, Leoncino 250, Leoncino 500, Leoncino 500 Trail, TNT 15, TNT 600i ABS nueva, TRK 251 ABS, TRK 502 NEW, TRK 502-X NEW.
+- Keeway: K-LIGHT 202, RK 150.
+- Motomel: BLITZ 110 V8 (varias versiones), CG 150 S2 (varias versiones), DLX 110 DELUXE, MAX 110 A/E, SIRIUS 190 NUEVO PRODUCTO, SKUA (varias versiones), STRATO (varias versiones), XMM 250 NUEVA.
+- Suzuki: AX 100, GN 125, GSX 125.
+- Sym: CITYCOM 300 i.
+Estos son solo algunos de los modelos disponibles en Megamoto. Si deseas obtener más información sobre un modelo en particular o tienes alguna otra pregunta, no dudes en consultarme. ¡Estoy aquí para ayudarte!
+13/2/2024, 11:23:41 - Fuku: Para ir mirando
+13/2/2024, 11:23:42 - MegaBot: ¡Por supuesto! Si estás interesado en más detalles sobre alguno de los modelos que mencioné previamente o si tienes alguna preferencia específica en mente, estaré encantado de proporcionarte información adicional o responder a cualquier pregunta que puedas tener mientras exploras nuestras opciones. ¿Hay algún modelo en particular que te gustaría conocer más detalladamente?
+13/2/2024, 11:25:10 - Fuku: Y precios ?
+13/2/2024, 11:25:10 - MegaBot: Los precios de los modelos varían según la marca y el modelo específico que estés interesado en adquirir. Aquí te proporciono algunos ejemplos de precios de modelos de diferentes marcas disponibles en Megamoto:
+- Benelli: 
+    - TNT 15: $2.269.639 
+    - TRK 251 ABS: $5.895.830
+- Keeway: 
+    - RK 150: $1.895.288
+- Motomel: 
+    - BLITZ 110 V8 BASE ONE - B1 Aut: $1.068.056
+    - SIRIUS 190 NUEVO PRODUCTO: $2.237.279
+- Suzuki: 
+    - AX 100: $1.378.992
+Estos son solo algunos ejemplos de precios de modelos disponibles en Megamoto. Ten en cuenta que los precios incluyen el patentamiento, pero no incluyen el impuesto a los sellos de CABA y son a confirmar con un vendedor. Si deseas conocer el precio de un modelo específico o tienes alguna otra pregunta, no dudes en consultarme. ¡Estoy aquí para ayudarte!</v>
+      </c>
+      <c r="D18" t="str">
+        <v>65cb79f292e568000c46605f</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45335.46989704861</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>.</v>
+      </c>
+      <c r="B19" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C19" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 11:40:22 - .: Buenos días
+13/2/2024, 11:40:22 - MegaBot: ¡Hola .! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D19" t="str">
+        <v>65cabeae9278550008a3170d</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45335.48581305556</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>Cabolco7fechas</v>
+      </c>
+      <c r="B20" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C20" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 11:47:00 - Cabolco7fechas: ¡Hola! Podrías darme más información de...
+13/2/2024, 11:47:00 - MegaBot: ¡Hola Cabolco7fechas! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+13/2/2024, 11:51:50 - Cabolco7fechas: Estoy buscando una moto 150 1160023767 DNI 25242447 quiero financiar
+13/2/2024, 11:51:50 - MegaBot: ¡Hola! Para poder ayudarte con la financiación, necesitaría que me proporciones el modelo de moto específico que te interesa, tu teléfono de contacto, la localidad donde te encuentras y el método de pago que deseas utilizar. ¿Podrías por favor indicarme el nombre completo del modelo de moto que te interesa?
+13/2/2024, 11:52:50 - Cabolco7fechas: Cover 150
+13/2/2024, 11:52:51 - MegaBot: Perfecto, gracias por proporcionar el nombre completo del modelo, "Cover 150". Ahora necesitaría que me indiques tu teléfono de contacto, la localidad donde te encuentras y tu método de pago preferido. Además, al elegir la financiación como método de pago, necesitaré que me brindes tu número de DNI para poder continuar con el proceso de solicitud de crédito. ¿Podrías proporcionarme esa información, por favor?
+13/2/2024, 11:54:06 - Cabolco7fechas: Cover hunter 150
+13/2/2024, 11:54:06 - MegaBot: ¡Entendido! Te interesa el modelo "Cover Hunter 150". Para poder continuar con la solicitud de financiación, necesitaría que me proporciones tu número de teléfono, tu localidad, el método de pago que prefieres y tu número de DNI. Una vez que tengamos esta información, podremos agilizar el proceso para que un vendedor se ponga en contacto contigo lo antes posible. ¿Podrías facilitarme esos datos, por favor?
+13/2/2024, 11:56:32 - Cabolco7fechas: Pago por mes 25242447 Don orione localidad almirante Brown 1160023767
+13/2/2024, 11:56:32 - MegaBot: Perfecto, agradezco la información que me has proporcionado. Para poder continuar con la solicitud de financiación para el modelo "Cover Hunter 150", necesitaría que me brindes tu número de teléfono, el método de pago exacto que deseas utilizar (si es financiación en cuotas, tarjeta de crédito, etc.) y tu número de documento. Una vez tengamos todos esos datos, un vendedor se pondrá en contacto contigo para completar el proceso lo antes posible. ¿Podrías proporcionarme tu número de teléfono y el método de pago que prefieres, por favor?</v>
+      </c>
+      <c r="D20" t="str">
+        <v>65cb80e036dcb400085866be</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45335.490419131944</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>Santi</v>
+      </c>
+      <c r="B21" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 11:57:24 - Santi: Soy de capital  me interesa una moto 110
+13/2/2024, 11:57:24 - MegaBot: ¡Hola Santi! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+13/2/2024, 11:59:29 - Santi: Moto 110' 🛵 soy de caba
+13/2/2024, 11:59:30 - MegaBot: ¡Hola! Si estás interesado en una moto 110, en Megamoto contamos con una variedad de modelos en esa categoría. Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $ 955.658. El precio es con patentamiento incluido, no incluye impuesto a los sellos de CABA y es a confirmar por un vendedor. ¿Te gustaría que un vendedor te proporcione más información sobre este modelo? Además, si te interesa la financiación o pago en cuotas, necesitaríamos obtener algunos datos adicionales. ¿Te gustaría ser contactado por un vendedor para continuar con tu consulta?
+13/2/2024, 12:03:40 - Santi: Si financiada
+13/2/2024, 12:03:41 - MegaBot: Perfecto, si estás interesado en la financiación, necesitaríamos algunos datos adicionales para poder ofrecerte más información. ¿Podrías proporcionarme tu número de DNI, teléfono y localidad para que un vendedor pueda verificar la financiación disponible para ti? Una vez tengamos esta información, un vendedor se pondrá en contacto contigo para seguir con el proceso de consulta y brindarte más detalles sobre la financiación del modelo que te interesa. ¿Estás de acuerdo en compartir esta información para que un vendedor pueda asistirte?
+13/2/2024, 12:05:16 - Santi: 25058684  teléfono 1159622265 caba
+13/2/2024, 12:05:16 - MegaBot: ¡Perfecto! ¡Gracias por brindar esos datos! Un vendedor de Megamoto se pondrá en contacto contigo en breve para ofrecerte información detallada sobre la financiación disponible para la moto 110 que te interesa. Recuerda que en Megamoto contamos con opciones de financiación para que puedas adquirir tu moto de forma cómoda y accesible. ¿Hay algo más en lo que pueda ayudarte en este momento?
+13/2/2024, 12:08:25 - Santi: No
+13/2/2024, 12:08:25 - MegaBot: Perfecto, en ese caso, si necesitas más información en el futuro o tienes alguna otra consulta, no dudes en contactarnos. ¡Que tengas un excelente día y gracias por interesarte en Megamoto! ¡Hasta luego!</v>
+      </c>
+      <c r="D21" t="str">
+        <v>65cb5c9612488f00088281a0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>45335.497640127316</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>Charly</v>
+      </c>
+      <c r="B22" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 12:15:07 - Charly: ¡Hola! Podrías darme más información de...
+13/2/2024, 12:15:07 - MegaBot: ¡Hola Charly! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D22" t="str">
+        <v>65cb877710d2bf000849b40c</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45335.50994833333</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>Luis Coria</v>
+      </c>
+      <c r="B23" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 12:21:28 - Luis Coria: ¡Hola! Podrías darme más información de...
+13/2/2024, 12:21:28 - MegaBot: ¡Hola Luis Coria! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D23" t="str">
+        <v>65cb88f459034b0008d40f11</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45335.514353680555</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>..</v>
+      </c>
+      <c r="B24" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C24" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 12:39:22 - ..: ¡Hola! Me gustaría conseguir más información sobre esto.
+13/2/2024, 12:39:22 - MegaBot: ¡Hola ..! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+13/2/2024, 12:41:51 - ..: Honda Wave Viejo 
+3417500596
+Perez
+Financiarlo
+45412908
+13/2/2024, 12:41:52 - MegaBot: ¡Hola! En Megamoto nos especializamos en la comercialización de motos de las marcas Benelli, Suzuki, Motomel, Keeway y Sym. ¿Te interesaría conocer los modelos disponibles de estas marcas para poder brindarte la información que necesitas? Además, si estás interesado en financiar tu compra, necesitaríamos que nos proporciones algunos datos adicionales, como el modelo de moto de interés, el método de pago, el teléfono, la localidad y el DNI. Con esta información, un vendedor podrá brindarte una atención más ágil y eficiente. ¿Podrías indicarnos el modelo de moto que te interesa de las marcas que trabajamos en Megamoto?
+13/2/2024, 12:44:22 - ..: Motomel s2
+Por Mes
+3417500596
+Perez
+45412908
+13/2/2024, 12:44:22 - MegaBot: ¡Gracias por la información! El modelo Motomel S2 es una excelente elección. Para poder ayudarte con la financiación por mes, necesitaríamos que nos confirmes si deseas alguna otra marca de las que trabajamos en Megamoto, ya que la Motomel S2 pertenece a esa marca. Además, sería necesario que nos brindes tu número de DNI para poder verificar la posibilidad de financiación y así agilizar el proceso con un vendedor. ¿Podrías proporcionarnos tu número de DNI por favor? Gracias.</v>
+      </c>
+      <c r="D24" t="str">
+        <v>65cb8d2687b75f00089c6072</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45335.52679002315</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>Damian Foca Rodriguez</v>
+      </c>
+      <c r="B25" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 12:45:59 - Damian Foca Rodriguez: ¡Hola! Podrías darme más información de... la leoncino
+13/2/2024, 12:45:59 - MegaBot: ¡Hola Damian Foca Rodriguez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+13/2/2024, 12:47:44 - Damian Foca Rodriguez: 1 leoncino
+2 2234224684
+3 mar del plata
+4 efectivo y cuotas
+13/2/2024, 12:47:44 - MegaBot: ¡Hola! Claro, puedo ayudarte con eso. La Benelli Leoncino es una motocicleta muy popular. ¿Me podrías confirmar si estás interesado en algún modelo en particular de la Benelli Leoncino? Además, si estás considerando el pago en cuotas, necesitaríamos tu DNI para que un vendedor pueda verificar algunas cuestiones relacionadas con la financiación. ¿Podrías proporcionarme tu número de DNI, por favor? Una vez tengamos esa información, podemos coordinar que un vendedor se comunique contigo para brindarte más detalles. ¡Gracias!
+13/2/2024, 13:07:27 - Damian Foca Rodriguez: 25580683
+13/2/2024, 13:07:27 - MegaBot: ¡Gracias por proporcionar tu DNI! Ya tenemos esa información, ahora solo necesitaríamos saber cuál es el modelo de la Benelli Leoncino que te interesa para poder continuar con tu consulta. ¿Tienes algún modelo específico en mente, o te gustaría que te brindemos más detalles sobre las opciones disponibles?
+13/2/2024, 13:09:52 - Damian Foca Rodriguez: Cuales son las opciones disponibles
+13/2/2024, 13:09:52 - MegaBot: ¡Claro! A continuación te detallo los modelos disponibles de la Benelli Leoncino:
+1. LEONCINO 250: Precio - $5.592.890
+2. LEONCINO 500 (todas AM2022): Precio - $9.742.587
+3. LEONCINO 500 TRAIL: Precio - $11.324.853
+Estos son los modelos de Benelli Leoncino que tenemos disponibles. ¿Te interesa alguno de ellos en particular, o necesitas más información sobre alguno en específico? Recuerda que contamos con opciones de financiación si así lo prefieres. ¡Quedo atento a tu elección!
+13/2/2024, 13:13:46 - Damian Foca Rodriguez: Leoncino 250
+13/2/2024, 13:13:47 - MegaBot: Perfecto, has elegido el modelo Benelli Leoncino 250. ¿Me podrías confirmar si prefieres concretar la compra en efectivo, o estás considerando la opción de financiación en cuotas para poder coordinar con un vendedor y proporcionarte más detalles sobre los pasos a seguir? ¡Gracias por tu elección!
+13/2/2024, 13:20:16 - Damian Foca Rodriguez: Tengo un capital inicial pero necesito financiar
+13/2/2024, 13:20:16 - MegaBot: Entiendo, agradezco la información. Para avanzar con el proceso de financiación, necesitaríamos completar algunos datos adicionales para que un vendedor pueda contactarte y proporcionarte toda la información necesaria. ¿Podrías brindarme un número de teléfono donde puedas ser contactado y confirmar nuevamente tu localidad en Mar del Plata? Una vez tengamos esta información, un vendedor se comunicará contigo a la brevedad para continuar con el proceso de financiación. ¡Gracias por tu colaboración!
+13/2/2024, 13:21:07 - Damian Foca Rodriguez: 2234224684
+Mar del plata
+13/2/2024, 13:21:07 - MegaBot: ¡Perfecto! Ya tenemos tu número de teléfono y la localidad de Mar del Plata registrados. Un vendedor se pondrá en contacto contigo para continuar con el proceso de financiación de tu Benelli Leoncino 250. Si tienes alguna otra consulta en el futuro, ¡no dudes en contactarnos! ¡Gracias por elegir Megamoto!</v>
+      </c>
+      <c r="D25" t="str">
+        <v>65cb8eb3df3ff20008027503</v>
+      </c>
+      <c r="E25" s="1">
+        <v>45335.53137936343</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>Noemi</v>
+      </c>
+      <c r="B26" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C26" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 12:50:35 - Noemi: ¡Hola! Podrías darme más información de...
+13/2/2024, 12:50:35 - MegaBot: ¡Hola Noemi! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D26" t="str">
+        <v>65cb8fc7c430ce000827992c</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45335.53457236111</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>Federico Aubert</v>
+      </c>
+      <c r="B27" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C27" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 13:13:15 - Federico Aubert: ¡Hola! Podrías darme más información de...
+13/2/2024, 13:13:15 - MegaBot: ¡Hola Federico Aubert! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D27" t="str">
+        <v>65cb9517982af300080a8722</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45335.550318483794</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>Dylan Gomez</v>
+      </c>
+      <c r="B28" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C28" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 13:38:28 - Dylan Gomez: ¡Hola! Podrías darme más información de...
+13/2/2024, 13:38:29 - MegaBot: ¡Hola Dylan Gomez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+13/2/2024, 13:41:01 - Dylan Gomez: 1- Modelo Dlx 110 Motomel
+1168441397
+Loma. Hermosa
+Se puede sacar con DNI?
+13/2/2024, 13:41:01 - MegaBot: ¡Hola! El modelo DLX 110 de Motomel tiene un precio de $ 1.002.055. Si estás interesado en financiar la compra con tu DNI, necesitaríamos que nos indiques el método de pago que deseas utilizar (efectivo, tarjeta de crédito, préstamo, etc.) para poder brindarte más detalles sobre la financiación. Además, necesitaríamos tu teléfono de contacto para que un vendedor se comunique contigo y te brinde la información necesaria. ¿Podrías indicarnos el método de pago que prefieres?
+13/2/2024, 13:41:44 - Dylan Gomez: Prestamo
+13/2/2024, 13:41:44 - MegaBot: Perfecto, si estás interesado en financiar la compra del modelo DLX 110 de Motomel con un préstamo, necesitaríamos que nos proporcionaras tu DNI para que un vendedor pueda verificar que cumples con los requisitos necesarios para acceder al crédito. ¿Podrías brindarnos tu número de DNI, por favor? Una vez que tengamos esa información, un vendedor se pondrá en contacto contigo para continuar con el proceso de financiación.
+13/2/2024, 13:42:25 - Dylan Gomez: 47-084-502
+13/2/2024, 13:42:25 - MegaBot: ¡Gracias por proporcionarnos tu número de DNI! Un vendedor de Megamoto se pondrá en contacto contigo para continuar con el proceso de financiación del modelo DLX 110 de Motomel. Además, ¿podrías proporcionarnos un número de teléfono de contacto para que el vendedor pueda comunicarse contigo?
+13/2/2024, 13:42:53 - Dylan Gomez: 1168441397
+13/2/2024, 13:42:53 - MegaBot: ¡Perfecto! Hemos registrado tu número de teléfono 1168441397. Un vendedor de Megamoto se comunicará contigo para continuar con el proceso de financiación del modelo DLX 110 de Motomel. Si necesitas alguna otra información o tienes alguna otra consulta, no dudes en decírmelo. ¡Gracias por elegir Megamoto!
+13/2/2024, 13:45:25 - Dylan Gomez: Gracias
+13/2/2024, 13:45:25 - MegaBot: ¡De nada! Estoy aquí para ayudarte. ¡Que tengas un excelente día y mucha suerte con tu compra en Megamoto! Si necesitas más ayuda en el futuro, no dudes en contactarme. ¡Hasta luego!</v>
+      </c>
+      <c r="D28" t="str">
+        <v>65cb9b004589c60009401061</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45335.56783515046</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>Nahuel Luque</v>
+      </c>
+      <c r="B29" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 13:44:51 - Nahuel Luque: Hola buenas tardes
+13/2/2024, 13:44:51 - MegaBot: ¡Hola Nahuel Luque! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+13/2/2024, 13:45:26 - Nahuel Luque: Ando en la búsqueda de empleo tengo experiencia en logística de motos. Gracias
+13/2/2024, 13:45:26 - MegaBot: ¡Hola! Lamento informarte que actualmente no estamos contratando personal en Megamoto. Sin embargo, si estás interesado en motos, repuestos y accesorios, no dudes en consultarnos. ¡Estamos aquí para ayudarte con cualquier otra consulta relacionada con Megamoto!</v>
+      </c>
+      <c r="D29" t="str">
+        <v>65cb9c7f39d29600084aa000</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45335.57226486111</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>Kareen🫶🏻</v>
+      </c>
+      <c r="B30" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C30" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 13:57:49 - Kareen🫶🏻: ¡Hola! Podrías darme más información de...
+13/2/2024, 13:57:49 - MegaBot: ¡Hola Kareen🫶🏻! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D30" t="str">
+        <v>65cb9f8736ba2000089d815b</v>
+      </c>
+      <c r="E30" s="1">
+        <v>45335.581267395835</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>Facundo</v>
+      </c>
+      <c r="B31" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C31" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 14:08:26 - Facundo: Hola, tengo algunas preguntas sobre Motomel  Skua 150 - Mejor Contado! Anticipo + 30 C! Merlo! . https://moto.mercadolibre.com.ar/MLA-1518183798-motomel-skua-150-mejor-contado-anticipo-30-c-merlo-_JM?u=MTA5NTY2NTk0NA==
+13/2/2024, 14:08:26 - MegaBot: ¡Hola Facundo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D31" t="str">
+        <v>65cba2062d983d0008ac7ebf</v>
+      </c>
+      <c r="E31" s="1">
+        <v>45335.58863696759</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>Robertobogado795</v>
+      </c>
+      <c r="B32" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C32" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 14:15:56 - Robertobogado795: ¡Hola! Podrías darme más información de...moto 150 cc
+13/2/2024, 14:15:56 - MegaBot: ¡Hola Robertobogado795! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D32" t="str">
+        <v>65cba3c87d86c90008f13e33</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45335.59384663194</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>Gus</v>
+      </c>
+      <c r="B33" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 15:47:30 - Gus: ¡Hola! Podrías darme más información de...de cuánto son las cuotas
+13/2/2024, 15:47:30 - MegaBot: ¡Hola Gus! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D33" t="str">
+        <v>65cbb9392c9d91000816d748</v>
+      </c>
+      <c r="E33" s="1">
+        <v>45335.65743710648</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>Ezequiel</v>
+      </c>
+      <c r="B34" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C34" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 16:14:47 - Ezequiel: ¡Hola! Podrías darme más información de...
+13/2/2024, 16:14:47 - MegaBot: ¡Hola Ezequiel! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+13/2/2024, 16:17:53 - Ezequiel: 5
+13/2/2024, 16:17:53 - MegaBot: ¡Hola! Parece que ha habido un error en tu mensaje. ¿En qué puedo ayudarte hoy relacionado con Megamoto?
+13/2/2024, 16:18:17 - Ezequiel: DNI
+13/2/2024, 16:18:17 - MegaBot: Para poder brindarte información sobre la financiación o pago en cuotas, necesitaríamos tu DNI. ¿Estás interesado en financiar la compra de una moto en Megamoto? ¡Con esa información, podremos ayudarte de la mejor manera!
+13/2/2024, 16:18:44 - Ezequiel: 46.438.480
+13/2/2024, 16:18:45 - MegaBot: ¡Perfecto! Gracias por proporcionar tu DNI. ¿Podrías indicarme el modelo de moto que te interesa, tu teléfono, localidad y el método de pago que prefieres? ¡Así podremos ayudarte mejor y agilizar el proceso para que puedas ser atendido por un vendedor de Megamoto lo antes posible!
+13/2/2024, 16:19:24 - Ezequiel: 11 6239-5110
+13/2/2024, 16:19:24 - MegaBot: Gracias por tu número de teléfono. Ahora necesitaría que me indiques el modelo de moto que te interesa, tu localidad y el método de pago que prefieres. ¡Así podremos completar los datos necesarios para que un vendedor de Megamoto se ponga en contacto contigo!
+13/2/2024, 16:19:30 - Ezequiel: Capital Federal
+13/2/2024, 16:19:30 - MegaBot: ¡Perfecto! Eso nos ayuda a ubicarte. Ahora solo necesitaríamos conocer el modelo de moto que te interesa y el método de pago que prefieres para poder completar los datos necesarios y poner en marcha el proceso para que un vendedor te contacte lo antes posible. ¿Podrías indicarme el modelo de moto y cómo te gustaría realizar el pago?
+13/2/2024, 16:19:48 - Ezequiel: Credito Personal
+13/2/2024, 16:19:48 - MegaBot: ¡Entendido! Para poder avanzar con la solicitud de financiación a través de un crédito personal, necesitaría que me indiques el modelo de moto que te interesa para completar los datos necesarios y que un vendedor de Megamoto pueda comunicarse contigo. ¡Por favor, indícame el modelo de moto que te gustaría adquirir!
+13/2/2024, 16:20:03 - Ezequiel: Moto 110
+13/2/2024, 16:20:03 - MegaBot: Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $ 955.658. El precio es con patentamiento incluido, no incluye impuesto a los sellos de CABA y es a confirmar por un vendedor. ¿Te interesa este modelo de moto? Si es así, ¿cómo prefieres realizar el pago? ¡Así podremos iniciar el proceso para que un vendedor de Megamoto te brinde toda la información necesaria sobre la financiación con un crédito personal!
+13/2/2024, 16:20:28 - Ezequiel: Corven mirage
+13/2/2024, 16:20:28 - MegaBot: ¡Lamento informarte que en Megamoto no contamos con el modelo "Corven Mirage". ¿Hay algún otro modelo de moto en el que estés interesado que sí se encuentre dentro de nuestras marcas disponibles? ¡Estoy aquí para ayudarte a encontrar la mejor opción para ti!</v>
+      </c>
+      <c r="D34" t="str">
+        <v>65cbbfa29519870008d9a150</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45335.67638152778</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v>Matías Acuña</v>
+      </c>
+      <c r="B35" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C35" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 16:27:14 - Matías Acuña: ¡Hola! Podrías darme más información de...
+13/2/2024, 16:27:14 - MegaBot: ¡Hola Matías Acuña! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+13/2/2024, 16:28:01 - Matías Acuña: Matías acuña
+13/2/2024, 16:28:01 - MegaBot: ¡Hola! Lamento informarte que no dispongo de información sobre Matías Acuña. Mi especialización se centra en temas relacionados con Megamoto, una empresa argentina que comercializa motos, repuestos, accesorios de marcas reconocidas. ¿Hay algo más en lo que pueda ayudarte relacionado con Megamoto?</v>
+      </c>
+      <c r="D35" t="str">
+        <v>65cbc28e0a7652000836ad29</v>
+      </c>
+      <c r="E35" s="1">
+        <v>45335.685026631945</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>Lucas Dip</v>
+      </c>
+      <c r="B36" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C36" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 17:16:40 - Lucas Dip: ¡Hola! Podrías darme más información de...
+13/2/2024, 17:16:40 - MegaBot: ¡Hola Lucas Dip! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D36" t="str">
+        <v>65cbce22df3bf6000897953d</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45335.71936041667</v>
+      </c>
+    </row>
+    <row r="37" xml:space="preserve">
+      <c r="A37" t="str">
+        <v>Ricardo</v>
+      </c>
+      <c r="B37" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C37" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 19:16:33 - Ricardo: ¡Hola! Podrías darme más información de...
+13/2/2024, 19:16:33 - MegaBot: ¡Hola Ricardo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D37" t="str">
+        <v>65cbea3c5a43eb0008316e13</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45335.80260833333</v>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>Russa</v>
+      </c>
+      <c r="B38" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C38" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 19:17:18 - Russa: ¡Hola! Podrías darme más información de...
+13/2/2024, 19:17:18 - MegaBot: ¡Hola Russa! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D38" t="str">
+        <v>65cbea69ff7b0f00087ac260</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45335.803132152774</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>Julian</v>
+      </c>
+      <c r="B39" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C39" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 19:38:02 - Julian: ¡Hola! Podrías darme más información de...
+13/2/2024, 19:38:02 - MegaBot: ¡Hola Julian! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
+13/2/2024, 19:38:42 - Julian: 5
+13/2/2024, 19:38:42 - MegaBot: Disculpa, pero necesito más información para poder ayudarte adecuadamente. ¿En qué aspecto en particular necesitas más información? Estoy aquí para ayudarte con preguntas relacionadas con Megamoto.
+13/2/2024, 19:39:00 - Julian: Dni
+13/2/2024, 19:39:00 - MegaBot: Para poder brindarte información específica sobre el DNI y cualquier proceso que involucre datos personales, necesito primero saber si estás interesado en financiar una moto en Megamoto. Si es así, por favor indícame el modelo de moto que te interesa, la forma de pago, tu número de teléfono y la localidad donde te encuentras. Una vez tengamos esa información, podré asistirte de manera correcta. ¿Cómo puedo ayudarte hoy?
+13/2/2024, 19:39:59 - Julian: Honda wave
+13/2/2024, 19:39:59 - MegaBot: Lamento informarte que Megamoto no comercializa la marca Honda. Sin embargo, tenemos una amplia variedad de motos disponibles de las marcas Benelli, Suzuki, Motomel, Keeway y Sym. ¿Te gustaría conocer más acerca de los modelos de alguna de estas marcas que ofrecemos en Megamoto? Estoy aquí para ayudarte con esa información.
+13/2/2024, 19:40:05 - Julian: Efectivo
+13/2/2024, 19:40:05 - MegaBot: Perfecto, si estás interesado en pagar en efectivo, ¿podrías indicarme el modelo de moto que te interesa de las marcas Benelli, Suzuki, Motomel, Keeway o Sym? Con ese dato podré brindarte más detalles sobre disponibilidad, características y precios. ¡Estoy aquí para ayudarte!
+13/2/2024, 19:40:36 - Julian: Suzuki
+13/2/2024, 19:40:37 - MegaBot: Excelente elección. ¿Podrías especificar el modelo de moto Suzuki que te interesa para que te brinde más detalles al respecto? Tenemos una variedad de modelos disponibles de Suzuki en Megamoto. ¡Estoy aquí para ayudarte a encontrar la información que necesitas!
+13/2/2024, 19:41:02 - Julian: Suzuki 110
+13/2/2024, 19:41:03 - MegaBot: Nuestro modelo más económico de 110 es la SUZUKI AX 100 a $1.378.992. Sin embargo, este precio es a confirmar con un vendedor y no incluye el impuesto a los sellos de CABA. ¿Te gustaría obtener más detalles sobre la SUZUKI AX 100 o conocer otros modelos disponibles en Megamoto? ¡Estoy aquí para ayudarte!
+13/2/2024, 19:41:29 - Julian: Si
+13/2/2024, 19:41:29 - MegaBot: Perfecto. Para continuar con la gestión de tu interés en la SUZUKI AX 100, necesitaría que me proporciones tu número de teléfono, la localidad donde te encuentras y, en caso de requerir financiación, tu DNI. Estos datos nos ayudarán a agilizar el proceso y conectarás más rápido con un vendedor especializado de Megamoto. ¿Podrías facilitarme esa información, por favor? ¡Estoy aquí para asistirte!</v>
+      </c>
+      <c r="D39" t="str">
+        <v>65cbef45f7458f00086c9ad1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45335.81752668982</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E39"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -663,54 +663,12 @@
     </row>
     <row r="14" xml:space="preserve">
       <c r="A14" t="str">
-        <v>Gustavo Gomez Villafañe</v>
+        <v>Diego</v>
       </c>
       <c r="B14" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C14" t="str" xml:space="preserve">
-        <v xml:space="preserve">13/2/2024, 9:20:43 - Gustavo Gomez Villafañe: busco una bici
-13/2/2024, 9:20:44 - MegaBot: ¡Hola Gustavo Gomez Villafañe! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
-13/2/2024, 9:21:15 - Gustavo Gomez Villafañe: quiero una bici
-13/2/2024, 9:21:16 - MegaBot: Lamento informarte que en Megamoto no disponemos de bicicletas. Sin embargo, si estás interesado en motos de las marcas Benelli, Suzuki, Motomel, Keeway y Sym, estaré encantado de ayudarte con esa información. ¿Te interesa alguna de esas marcas en particular?
-13/2/2024, 9:22:12 - Gustavo Gomez Villafañe: tengo entendido que tienen bicicletas
-13/2/2024, 9:22:12 - MegaBot: Lamentablemente, en Megamoto no comercializamos bicicletas. Nuestro enfoque son las motos de las marcas Benelli, Suzuki, Motomel, Keeway y Sym, así como también repuestos y accesorios para motos. Si estás interesado en algún producto de estas marcas, por favor házmelo saber para brindarte la información que necesitas.
-13/2/2024, 9:26:50 - Gustavo Gomez Villafañe: busco una bici
-13/2/2024, 9:26:51 - MegaBot: Lamento informarte que en Megamoto no comercializamos bicicletas. Nuestro catálogo se enfoca en motos, repuestos y accesorios de las marcas Benelli, Suzuki, Motomel, Keeway y Sym. Si estás interesado en alguna de estas marcas en particular, puedo proporcionarte más información al respecto. ¿Te interesa alguna moto en específico?
-13/2/2024, 9:34:18 - Gustavo Gomez Villafañe: quiero una bici
-13/2/2024, 9:34:18 - MegaBot: Lamento la confusión, pero Megamoto no vende bicicletas. Si estás buscando comprar una bicicleta, te recomendaría visitar tiendas especializadas en artículos deportivos o tiendas exclusivas de bicicletas. ¡Espero que encuentres la bicicleta perfecta para ti! ¿Puedo ayudarte con algo más?
-13/2/2024, 9:36:03 - Gustavo Gomez Villafañe: tienen bicicletas?
-13/2/2024, 9:36:03 - MegaBot: Lamentablemente en Megamoto no disponemos de bicicletas en nuestro catálogo. Nos especializamos en la venta de motos de las marcas Benelli, Suzuki, Motomel, Keeway y Sym, así como también en repuestos y accesorios para motos. Si estás interesado en algún producto relacionado con motocicletas, estaré encantado de ayudarte. ¿Hay algo más en lo que pueda asistirte?
-13/2/2024, 9:43:44 - MegaBot: Te pido disculpas 🙏, en este momento no puedo procesar tu solicitud ☹️. Por favor intentá mas tarde. ¡Saludos de MegaBot! 🙂
-13/2/2024, 9:45:27 - MegaBot: Te pido disculpas 🙏, en este momento no puedo procesar tu solicitud ☹️. Por favor intentá mas tarde. ¡Saludos de MegaBot! 🙂
-13/2/2024, 9:54:24 - Gustavo Gomez Villafañe: quiero bici
-13/2/2024, 9:54:25 - MegaBot: ¡Entiendo! En Megamoto, comercializamos bicicletas de las marcas Scott, Orbea, Tecnial y Shiro. Si estás interesado en adquirir una bicicleta de alguna de estas marcas, por favor envíame los detalles de lo que estás buscando. Uno de nuestros vendedores se pondrá en contacto contigo para brindarte más información y ayudarte a encontrar la bicicleta perfecta. ¡Espero tu mensaje con tus preferencias para poder asistirte mejor!
-13/2/2024, 16:22:42 - Gustavo Gomez Villafañe: busco trabajo
-13/2/2024, 16:22:43 - MegaBot: En estos momentos, Megamoto no está contratando personal. Sin embargo, si deseas enviarnos tu currículum, podemos mantenerlo en nuestros archivos para futuras oportunidades laborales. Por favor, envía tu currículum a nuestro correo electrónico de recursos humanos y lo tendremos en consideración para posibles vacantes en el futuro. ¡Gracias por tu interés en trabajar con nosotros! ¿Hay algo más en lo que pueda ayudarte?
-13/2/2024, 16:24:09 - Gustavo Gomez Villafañe: puedo enviar mi cv?
-13/2/2024, 16:24:09 - MegaBot: ¡Por supuesto! Puedes enviarnos tu currículum vitae a la dirección de correo electrónico de recursos humanos de Megamoto: megamoto@megamoto.com.ar. Asegúrate de incluir toda la información relevante sobre tu experiencia laboral, educación y habilidades para que podamos tener una mejor comprensión de tu perfil. ¡Estaremos atentos a tu correo y te contactaremos si surge alguna oportunidad laboral que se ajuste a tu perfil! ¿Hay algo más en lo que pueda asistirte?
-13/2/2024, 16:25:02 - Gustavo Gomez Villafañe: si quiero saber el precio de una 110
-13/2/2024, 16:25:03 - MegaBot: Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $ 955.658. El precio es con patentamiento incluido, no incluye impuesto a los sellos de CABA y es a confirmar por un vendedor. Si necesitas más detalles sobre este modelo u otros, o deseas conocer opciones de financiación, por favor házmelo saber para brindarte toda la información que necesitas. ¿Te gustaría ser atendido por un vendedor para continuar con el proceso de compra?
-13/2/2024, 18:05:59 - Gustavo Gomez Villafañe: hola
-13/2/2024, 18:05:59 - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy?
-13/2/2024, 18:06:38 - Gustavo Gomez Villafañe: hacen envíos?
-13/2/2024, 18:06:38 - MegaBot: ¡Hola! Sí, en Megamoto realizamos envíos al interior del país. Si estás interesado en adquirir algún producto de nuestro catálogo y necesitas que te lo enviemos a tu ubicación, por favor házmelo saber para brindarte más detalles sobre el proceso de envío y los costos asociados. ¿Hay algo en lo que pueda asistirte específicamente con respecto a un envío?</v>
-      </c>
-      <c r="D14" t="str">
-        <v>6596d62461f4a300081b28cb</v>
-      </c>
-      <c r="E14" s="1">
-        <v>45335.38884399305</v>
-      </c>
-    </row>
-    <row r="15" xml:space="preserve">
-      <c r="A15" t="str">
-        <v>Diego</v>
-      </c>
-      <c r="B15" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C15" t="str" xml:space="preserve">
         <v xml:space="preserve">13/2/2024, 10:11:59 - Diego: ¡Hola! Podrías darme más información de...
 13/2/2024, 10:11:59 - MegaBot: ¡Hola Diego! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
 13/2/2024, 13:20:56 - Diego: Estoy interesado en la 251
@@ -720,41 +678,41 @@
 13/2/2024, 13:22:30 - Diego: Si
 13/2/2024, 13:22:31 - MegaBot: Perfecto. Para poder avanzar con la financiación, necesitaré que me proporciones tu teléfono, DNI, localidad y si estás de acuerdo, un vendedor de Megamoto se comunicará contigo para continuar con el proceso de compra de la Benelli 251 S. ¿Podrías brindarme esos datos, por favor?</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D14" t="str">
         <v>65cb6a9b9d86ac0008eb255d</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E14" s="1">
         <v>45335.42443831018</v>
       </c>
     </row>
-    <row r="16" xml:space="preserve">
-      <c r="A16" t="str">
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
         <v>Juan Antonio Carripilón</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B15" t="str">
         <v>instagram</v>
       </c>
-      <c r="C16" t="str" xml:space="preserve">
+      <c r="C15" t="str" xml:space="preserve">
         <v xml:space="preserve">13/2/2024, 11:15:22 - Juan Antonio Carripilón: Hacen envíos a La Pampa?
 13/2/2024, 11:15:22 - MegaBot: ¡Hola Juan Antonio Carripilón! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
 13/2/2024, 11:15:28 - Juan Antonio Carripilón: Hacen envíos a La Pampa?
 13/2/2024, 11:15:29 - MegaBot: Lamentablemente, en este momento no contamos con servicio de envíos a La Pampa. Sin embargo, te invitamos a visitar nuestra sucursal más cercana para ver personalmente nuestros productos. ¿Puedo ayudarte con algo más?</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D15" t="str">
         <v>65cb7975b0b5bf0008c48cf5</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E15" s="1">
         <v>45335.46845068287</v>
       </c>
     </row>
-    <row r="17" xml:space="preserve">
-      <c r="A17" t="str">
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
         <v>Ever🍀</v>
       </c>
-      <c r="B17" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C17" t="str" xml:space="preserve">
+      <c r="B16" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C16" t="str" xml:space="preserve">
         <v xml:space="preserve">13/2/2024, 11:15:41 - Ever🍀: Buenas
 13/2/2024, 11:15:41 - MegaBot: ¡Hola Ever🍀! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
 13/2/2024, 11:16:55 - Ever🍀: Me podrian decir el precio de la motomel Bliz, soy de Merlo Libertad, el metodo de pago es alcontado
@@ -770,21 +728,21 @@
 - **Blitz 110 V8 TUNNING NEW:** $1.197.087
 Estos precios son orientativos e incluyen el patentamiento, pero no los impuestos de CABA. Te recomendaría confirmar la disponibilidad y precio exacto comunicándote con una de nuestras sucursales en Merlo o en la zona de Abasto en CABA. ¿Te gustaría recibir más información sobre alguno de estos modelos o tienes alguna otra consulta? ¡Estoy aquí para ayudarte!</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D16" t="str">
         <v>65cb798988a357000b653998</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E16" s="1">
         <v>45335.468673379626</v>
       </c>
     </row>
-    <row r="18" xml:space="preserve">
-      <c r="A18" t="str">
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
         <v>Fuku</v>
       </c>
-      <c r="B18" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C18" t="str" xml:space="preserve">
+      <c r="B17" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C17" t="str" xml:space="preserve">
         <v xml:space="preserve">13/2/2024, 11:17:27 - Fuku: ¡Hola! Podrías darme más información de...
 13/2/2024, 11:17:27 - MegaBot: ¡Hola Fuku! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
 13/2/2024, 11:17:59 - Fuku: Gilera vc 200r
@@ -823,39 +781,39 @@
     - AX 100: $1.378.992
 Estos son solo algunos ejemplos de precios de modelos disponibles en Megamoto. Ten en cuenta que los precios incluyen el patentamiento, pero no incluyen el impuesto a los sellos de CABA y son a confirmar con un vendedor. Si deseas conocer el precio de un modelo específico o tienes alguna otra pregunta, no dudes en consultarme. ¡Estoy aquí para ayudarte!</v>
       </c>
+      <c r="D17" t="str">
+        <v>65cb79f292e568000c46605f</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45335.46989704861</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>.</v>
+      </c>
+      <c r="B18" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C18" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 11:40:22 - .: Buenos días
+13/2/2024, 11:40:22 - MegaBot: ¡Hola .! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
       <c r="D18" t="str">
-        <v>65cb79f292e568000c46605f</v>
+        <v>65cabeae9278550008a3170d</v>
       </c>
       <c r="E18" s="1">
-        <v>45335.46989704861</v>
+        <v>45335.48581305556</v>
       </c>
     </row>
     <row r="19" xml:space="preserve">
       <c r="A19" t="str">
-        <v>.</v>
+        <v>Cabolco7fechas</v>
       </c>
       <c r="B19" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C19" t="str" xml:space="preserve">
-        <v xml:space="preserve">13/2/2024, 11:40:22 - .: Buenos días
-13/2/2024, 11:40:22 - MegaBot: ¡Hola .! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
-      </c>
-      <c r="D19" t="str">
-        <v>65cabeae9278550008a3170d</v>
-      </c>
-      <c r="E19" s="1">
-        <v>45335.48581305556</v>
-      </c>
-    </row>
-    <row r="20" xml:space="preserve">
-      <c r="A20" t="str">
-        <v>Cabolco7fechas</v>
-      </c>
-      <c r="B20" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C20" t="str" xml:space="preserve">
         <v xml:space="preserve">13/2/2024, 11:47:00 - Cabolco7fechas: ¡Hola! Podrías darme más información de...
 13/2/2024, 11:47:00 - MegaBot: ¡Hola Cabolco7fechas! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
 13/2/2024, 11:51:50 - Cabolco7fechas: Estoy buscando una moto 150 1160023767 DNI 25242447 quiero financiar
@@ -867,21 +825,21 @@
 13/2/2024, 11:56:32 - Cabolco7fechas: Pago por mes 25242447 Don orione localidad almirante Brown 1160023767
 13/2/2024, 11:56:32 - MegaBot: Perfecto, agradezco la información que me has proporcionado. Para poder continuar con la solicitud de financiación para el modelo "Cover Hunter 150", necesitaría que me brindes tu número de teléfono, el método de pago exacto que deseas utilizar (si es financiación en cuotas, tarjeta de crédito, etc.) y tu número de documento. Una vez tengamos todos esos datos, un vendedor se pondrá en contacto contigo para completar el proceso lo antes posible. ¿Podrías proporcionarme tu número de teléfono y el método de pago que prefieres, por favor?</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D19" t="str">
         <v>65cb80e036dcb400085866be</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E19" s="1">
         <v>45335.490419131944</v>
       </c>
     </row>
-    <row r="21" xml:space="preserve">
-      <c r="A21" t="str">
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
         <v>Santi</v>
       </c>
-      <c r="B21" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C21" t="str" xml:space="preserve">
+      <c r="B20" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C20" t="str" xml:space="preserve">
         <v xml:space="preserve">13/2/2024, 11:57:24 - Santi: Soy de capital  me interesa una moto 110
 13/2/2024, 11:57:24 - MegaBot: ¡Hola Santi! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
 13/2/2024, 11:59:29 - Santi: Moto 110' 🛵 soy de caba
@@ -893,57 +851,57 @@
 13/2/2024, 12:08:25 - Santi: No
 13/2/2024, 12:08:25 - MegaBot: Perfecto, en ese caso, si necesitas más información en el futuro o tienes alguna otra consulta, no dudes en contactarnos. ¡Que tengas un excelente día y gracias por interesarte en Megamoto! ¡Hasta luego!</v>
       </c>
+      <c r="D20" t="str">
+        <v>65cb5c9612488f00088281a0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45335.497640127316</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>Charly</v>
+      </c>
+      <c r="B21" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C21" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 12:15:07 - Charly: ¡Hola! Podrías darme más información de...
+13/2/2024, 12:15:07 - MegaBot: ¡Hola Charly! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
       <c r="D21" t="str">
-        <v>65cb5c9612488f00088281a0</v>
+        <v>65cb877710d2bf000849b40c</v>
       </c>
       <c r="E21" s="1">
-        <v>45335.497640127316</v>
+        <v>45335.50994833333</v>
       </c>
     </row>
     <row r="22" xml:space="preserve">
       <c r="A22" t="str">
-        <v>Charly</v>
+        <v>Luis Coria</v>
       </c>
       <c r="B22" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C22" t="str" xml:space="preserve">
-        <v xml:space="preserve">13/2/2024, 12:15:07 - Charly: ¡Hola! Podrías darme más información de...
-13/2/2024, 12:15:07 - MegaBot: ¡Hola Charly! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">13/2/2024, 12:21:28 - Luis Coria: ¡Hola! Podrías darme más información de...
+13/2/2024, 12:21:28 - MegaBot: ¡Hola Luis Coria! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
       </c>
       <c r="D22" t="str">
-        <v>65cb877710d2bf000849b40c</v>
+        <v>65cb88f459034b0008d40f11</v>
       </c>
       <c r="E22" s="1">
-        <v>45335.50994833333</v>
+        <v>45335.514353680555</v>
       </c>
     </row>
     <row r="23" xml:space="preserve">
       <c r="A23" t="str">
-        <v>Luis Coria</v>
+        <v>..</v>
       </c>
       <c r="B23" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C23" t="str" xml:space="preserve">
-        <v xml:space="preserve">13/2/2024, 12:21:28 - Luis Coria: ¡Hola! Podrías darme más información de...
-13/2/2024, 12:21:28 - MegaBot: ¡Hola Luis Coria! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
-      </c>
-      <c r="D23" t="str">
-        <v>65cb88f459034b0008d40f11</v>
-      </c>
-      <c r="E23" s="1">
-        <v>45335.514353680555</v>
-      </c>
-    </row>
-    <row r="24" xml:space="preserve">
-      <c r="A24" t="str">
-        <v>..</v>
-      </c>
-      <c r="B24" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C24" t="str" xml:space="preserve">
         <v xml:space="preserve">13/2/2024, 12:39:22 - ..: ¡Hola! Me gustaría conseguir más información sobre esto.
 13/2/2024, 12:39:22 - MegaBot: ¡Hola ..! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
 13/2/2024, 12:41:51 - ..: Honda Wave Viejo 
@@ -959,21 +917,21 @@
 45412908
 13/2/2024, 12:44:22 - MegaBot: ¡Gracias por la información! El modelo Motomel S2 es una excelente elección. Para poder ayudarte con la financiación por mes, necesitaríamos que nos confirmes si deseas alguna otra marca de las que trabajamos en Megamoto, ya que la Motomel S2 pertenece a esa marca. Además, sería necesario que nos brindes tu número de DNI para poder verificar la posibilidad de financiación y así agilizar el proceso con un vendedor. ¿Podrías proporcionarnos tu número de DNI por favor? Gracias.</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D23" t="str">
         <v>65cb8d2687b75f00089c6072</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E23" s="1">
         <v>45335.52679002315</v>
       </c>
     </row>
-    <row r="25" xml:space="preserve">
-      <c r="A25" t="str">
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
         <v>Damian Foca Rodriguez</v>
       </c>
-      <c r="B25" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C25" t="str" xml:space="preserve">
+      <c r="B24" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C24" t="str" xml:space="preserve">
         <v xml:space="preserve">13/2/2024, 12:45:59 - Damian Foca Rodriguez: ¡Hola! Podrías darme más información de... la leoncino
 13/2/2024, 12:45:59 - MegaBot: ¡Hola Damian Foca Rodriguez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
 13/2/2024, 12:47:44 - Damian Foca Rodriguez: 1 leoncino
@@ -997,57 +955,57 @@
 Mar del plata
 13/2/2024, 13:21:07 - MegaBot: ¡Perfecto! Ya tenemos tu número de teléfono y la localidad de Mar del Plata registrados. Un vendedor se pondrá en contacto contigo para continuar con el proceso de financiación de tu Benelli Leoncino 250. Si tienes alguna otra consulta en el futuro, ¡no dudes en contactarnos! ¡Gracias por elegir Megamoto!</v>
       </c>
+      <c r="D24" t="str">
+        <v>65cb8eb3df3ff20008027503</v>
+      </c>
+      <c r="E24" s="1">
+        <v>45335.53137936343</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>Noemi</v>
+      </c>
+      <c r="B25" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C25" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 12:50:35 - Noemi: ¡Hola! Podrías darme más información de...
+13/2/2024, 12:50:35 - MegaBot: ¡Hola Noemi! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
       <c r="D25" t="str">
-        <v>65cb8eb3df3ff20008027503</v>
+        <v>65cb8fc7c430ce000827992c</v>
       </c>
       <c r="E25" s="1">
-        <v>45335.53137936343</v>
+        <v>45335.53457236111</v>
       </c>
     </row>
     <row r="26" xml:space="preserve">
       <c r="A26" t="str">
-        <v>Noemi</v>
+        <v>Federico Aubert</v>
       </c>
       <c r="B26" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C26" t="str" xml:space="preserve">
-        <v xml:space="preserve">13/2/2024, 12:50:35 - Noemi: ¡Hola! Podrías darme más información de...
-13/2/2024, 12:50:35 - MegaBot: ¡Hola Noemi! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">13/2/2024, 13:13:15 - Federico Aubert: ¡Hola! Podrías darme más información de...
+13/2/2024, 13:13:15 - MegaBot: ¡Hola Federico Aubert! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
       </c>
       <c r="D26" t="str">
-        <v>65cb8fc7c430ce000827992c</v>
+        <v>65cb9517982af300080a8722</v>
       </c>
       <c r="E26" s="1">
-        <v>45335.53457236111</v>
+        <v>45335.550318483794</v>
       </c>
     </row>
     <row r="27" xml:space="preserve">
       <c r="A27" t="str">
-        <v>Federico Aubert</v>
+        <v>Dylan Gomez</v>
       </c>
       <c r="B27" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C27" t="str" xml:space="preserve">
-        <v xml:space="preserve">13/2/2024, 13:13:15 - Federico Aubert: ¡Hola! Podrías darme más información de...
-13/2/2024, 13:13:15 - MegaBot: ¡Hola Federico Aubert! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
-      </c>
-      <c r="D27" t="str">
-        <v>65cb9517982af300080a8722</v>
-      </c>
-      <c r="E27" s="1">
-        <v>45335.550318483794</v>
-      </c>
-    </row>
-    <row r="28" xml:space="preserve">
-      <c r="A28" t="str">
-        <v>Dylan Gomez</v>
-      </c>
-      <c r="B28" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C28" t="str" xml:space="preserve">
         <v xml:space="preserve">13/2/2024, 13:38:28 - Dylan Gomez: ¡Hola! Podrías darme más información de...
 13/2/2024, 13:38:29 - MegaBot: ¡Hola Dylan Gomez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
 13/2/2024, 13:41:01 - Dylan Gomez: 1- Modelo Dlx 110 Motomel
@@ -1064,113 +1022,113 @@
 13/2/2024, 13:45:25 - Dylan Gomez: Gracias
 13/2/2024, 13:45:25 - MegaBot: ¡De nada! Estoy aquí para ayudarte. ¡Que tengas un excelente día y mucha suerte con tu compra en Megamoto! Si necesitas más ayuda en el futuro, no dudes en contactarme. ¡Hasta luego!</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D27" t="str">
         <v>65cb9b004589c60009401061</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E27" s="1">
         <v>45335.56783515046</v>
       </c>
     </row>
-    <row r="29" xml:space="preserve">
-      <c r="A29" t="str">
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
         <v>Nahuel Luque</v>
       </c>
-      <c r="B29" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C29" t="str" xml:space="preserve">
+      <c r="B28" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C28" t="str" xml:space="preserve">
         <v xml:space="preserve">13/2/2024, 13:44:51 - Nahuel Luque: Hola buenas tardes
 13/2/2024, 13:44:51 - MegaBot: ¡Hola Nahuel Luque! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
 13/2/2024, 13:45:26 - Nahuel Luque: Ando en la búsqueda de empleo tengo experiencia en logística de motos. Gracias
 13/2/2024, 13:45:26 - MegaBot: ¡Hola! Lamento informarte que actualmente no estamos contratando personal en Megamoto. Sin embargo, si estás interesado en motos, repuestos y accesorios, no dudes en consultarnos. ¡Estamos aquí para ayudarte con cualquier otra consulta relacionada con Megamoto!</v>
       </c>
+      <c r="D28" t="str">
+        <v>65cb9c7f39d29600084aa000</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45335.57226486111</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>Kareen🫶🏻</v>
+      </c>
+      <c r="B29" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C29" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 13:57:49 - Kareen🫶🏻: ¡Hola! Podrías darme más información de...
+13/2/2024, 13:57:49 - MegaBot: ¡Hola Kareen🫶🏻! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
       <c r="D29" t="str">
-        <v>65cb9c7f39d29600084aa000</v>
+        <v>65cb9f8736ba2000089d815b</v>
       </c>
       <c r="E29" s="1">
-        <v>45335.57226486111</v>
+        <v>45335.581267395835</v>
       </c>
     </row>
     <row r="30" xml:space="preserve">
       <c r="A30" t="str">
-        <v>Kareen🫶🏻</v>
+        <v>Facundo</v>
       </c>
       <c r="B30" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C30" t="str" xml:space="preserve">
-        <v xml:space="preserve">13/2/2024, 13:57:49 - Kareen🫶🏻: ¡Hola! Podrías darme más información de...
-13/2/2024, 13:57:49 - MegaBot: ¡Hola Kareen🫶🏻! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">13/2/2024, 14:08:26 - Facundo: Hola, tengo algunas preguntas sobre Motomel  Skua 150 - Mejor Contado! Anticipo + 30 C! Merlo! . https://moto.mercadolibre.com.ar/MLA-1518183798-motomel-skua-150-mejor-contado-anticipo-30-c-merlo-_JM?u=MTA5NTY2NTk0NA==
+13/2/2024, 14:08:26 - MegaBot: ¡Hola Facundo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
       </c>
       <c r="D30" t="str">
-        <v>65cb9f8736ba2000089d815b</v>
+        <v>65cba2062d983d0008ac7ebf</v>
       </c>
       <c r="E30" s="1">
-        <v>45335.581267395835</v>
+        <v>45335.58863696759</v>
       </c>
     </row>
     <row r="31" xml:space="preserve">
       <c r="A31" t="str">
-        <v>Facundo</v>
+        <v>Robertobogado795</v>
       </c>
       <c r="B31" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C31" t="str" xml:space="preserve">
-        <v xml:space="preserve">13/2/2024, 14:08:26 - Facundo: Hola, tengo algunas preguntas sobre Motomel  Skua 150 - Mejor Contado! Anticipo + 30 C! Merlo! . https://moto.mercadolibre.com.ar/MLA-1518183798-motomel-skua-150-mejor-contado-anticipo-30-c-merlo-_JM?u=MTA5NTY2NTk0NA==
-13/2/2024, 14:08:26 - MegaBot: ¡Hola Facundo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">13/2/2024, 14:15:56 - Robertobogado795: ¡Hola! Podrías darme más información de...moto 150 cc
+13/2/2024, 14:15:56 - MegaBot: ¡Hola Robertobogado795! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
       </c>
       <c r="D31" t="str">
-        <v>65cba2062d983d0008ac7ebf</v>
+        <v>65cba3c87d86c90008f13e33</v>
       </c>
       <c r="E31" s="1">
-        <v>45335.58863696759</v>
+        <v>45335.59384663194</v>
       </c>
     </row>
     <row r="32" xml:space="preserve">
       <c r="A32" t="str">
-        <v>Robertobogado795</v>
+        <v>Gus</v>
       </c>
       <c r="B32" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C32" t="str" xml:space="preserve">
-        <v xml:space="preserve">13/2/2024, 14:15:56 - Robertobogado795: ¡Hola! Podrías darme más información de...moto 150 cc
-13/2/2024, 14:15:56 - MegaBot: ¡Hola Robertobogado795! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">13/2/2024, 15:47:30 - Gus: ¡Hola! Podrías darme más información de...de cuánto son las cuotas
+13/2/2024, 15:47:30 - MegaBot: ¡Hola Gus! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
       </c>
       <c r="D32" t="str">
-        <v>65cba3c87d86c90008f13e33</v>
+        <v>65cbb9392c9d91000816d748</v>
       </c>
       <c r="E32" s="1">
-        <v>45335.59384663194</v>
+        <v>45335.65743710648</v>
       </c>
     </row>
     <row r="33" xml:space="preserve">
       <c r="A33" t="str">
-        <v>Gus</v>
+        <v>Ezequiel</v>
       </c>
       <c r="B33" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C33" t="str" xml:space="preserve">
-        <v xml:space="preserve">13/2/2024, 15:47:30 - Gus: ¡Hola! Podrías darme más información de...de cuánto son las cuotas
-13/2/2024, 15:47:30 - MegaBot: ¡Hola Gus! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
-      </c>
-      <c r="D33" t="str">
-        <v>65cbb9392c9d91000816d748</v>
-      </c>
-      <c r="E33" s="1">
-        <v>45335.65743710648</v>
-      </c>
-    </row>
-    <row r="34" xml:space="preserve">
-      <c r="A34" t="str">
-        <v>Ezequiel</v>
-      </c>
-      <c r="B34" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C34" t="str" xml:space="preserve">
         <v xml:space="preserve">13/2/2024, 16:14:47 - Ezequiel: ¡Hola! Podrías darme más información de...
 13/2/2024, 16:14:47 - MegaBot: ¡Hola Ezequiel! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
 13/2/2024, 16:17:53 - Ezequiel: 5
@@ -1190,95 +1148,95 @@
 13/2/2024, 16:20:28 - Ezequiel: Corven mirage
 13/2/2024, 16:20:28 - MegaBot: ¡Lamento informarte que en Megamoto no contamos con el modelo "Corven Mirage". ¿Hay algún otro modelo de moto en el que estés interesado que sí se encuentre dentro de nuestras marcas disponibles? ¡Estoy aquí para ayudarte a encontrar la mejor opción para ti!</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D33" t="str">
         <v>65cbbfa29519870008d9a150</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E33" s="1">
         <v>45335.67638152778</v>
       </c>
     </row>
-    <row r="35" xml:space="preserve">
-      <c r="A35" t="str">
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
         <v>Matías Acuña</v>
       </c>
-      <c r="B35" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C35" t="str" xml:space="preserve">
+      <c r="B34" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C34" t="str" xml:space="preserve">
         <v xml:space="preserve">13/2/2024, 16:27:14 - Matías Acuña: ¡Hola! Podrías darme más información de...
 13/2/2024, 16:27:14 - MegaBot: ¡Hola Matías Acuña! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
 13/2/2024, 16:28:01 - Matías Acuña: Matías acuña
 13/2/2024, 16:28:01 - MegaBot: ¡Hola! Lamento informarte que no dispongo de información sobre Matías Acuña. Mi especialización se centra en temas relacionados con Megamoto, una empresa argentina que comercializa motos, repuestos, accesorios de marcas reconocidas. ¿Hay algo más en lo que pueda ayudarte relacionado con Megamoto?</v>
       </c>
+      <c r="D34" t="str">
+        <v>65cbc28e0a7652000836ad29</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45335.685026631945</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v>Lucas Dip</v>
+      </c>
+      <c r="B35" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C35" t="str" xml:space="preserve">
+        <v xml:space="preserve">13/2/2024, 17:16:40 - Lucas Dip: ¡Hola! Podrías darme más información de...
+13/2/2024, 17:16:40 - MegaBot: ¡Hola Lucas Dip! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
       <c r="D35" t="str">
-        <v>65cbc28e0a7652000836ad29</v>
+        <v>65cbce22df3bf6000897953d</v>
       </c>
       <c r="E35" s="1">
-        <v>45335.685026631945</v>
+        <v>45335.71936041667</v>
       </c>
     </row>
     <row r="36" xml:space="preserve">
       <c r="A36" t="str">
-        <v>Lucas Dip</v>
+        <v>Ricardo</v>
       </c>
       <c r="B36" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C36" t="str" xml:space="preserve">
-        <v xml:space="preserve">13/2/2024, 17:16:40 - Lucas Dip: ¡Hola! Podrías darme más información de...
-13/2/2024, 17:16:40 - MegaBot: ¡Hola Lucas Dip! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">13/2/2024, 19:16:33 - Ricardo: ¡Hola! Podrías darme más información de...
+13/2/2024, 19:16:33 - MegaBot: ¡Hola Ricardo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
       </c>
       <c r="D36" t="str">
-        <v>65cbce22df3bf6000897953d</v>
+        <v>65cbea3c5a43eb0008316e13</v>
       </c>
       <c r="E36" s="1">
-        <v>45335.71936041667</v>
+        <v>45335.80260833333</v>
       </c>
     </row>
     <row r="37" xml:space="preserve">
       <c r="A37" t="str">
-        <v>Ricardo</v>
+        <v>Russa</v>
       </c>
       <c r="B37" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C37" t="str" xml:space="preserve">
-        <v xml:space="preserve">13/2/2024, 19:16:33 - Ricardo: ¡Hola! Podrías darme más información de...
-13/2/2024, 19:16:33 - MegaBot: ¡Hola Ricardo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">13/2/2024, 19:17:18 - Russa: ¡Hola! Podrías darme más información de...
+13/2/2024, 19:17:18 - MegaBot: ¡Hola Russa! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
       </c>
       <c r="D37" t="str">
-        <v>65cbea3c5a43eb0008316e13</v>
+        <v>65cbea69ff7b0f00087ac260</v>
       </c>
       <c r="E37" s="1">
-        <v>45335.80260833333</v>
+        <v>45335.803132152774</v>
       </c>
     </row>
     <row r="38" xml:space="preserve">
       <c r="A38" t="str">
-        <v>Russa</v>
+        <v>Julian</v>
       </c>
       <c r="B38" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C38" t="str" xml:space="preserve">
-        <v xml:space="preserve">13/2/2024, 19:17:18 - Russa: ¡Hola! Podrías darme más información de...
-13/2/2024, 19:17:18 - MegaBot: ¡Hola Russa! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
-      </c>
-      <c r="D38" t="str">
-        <v>65cbea69ff7b0f00087ac260</v>
-      </c>
-      <c r="E38" s="1">
-        <v>45335.803132152774</v>
-      </c>
-    </row>
-    <row r="39" xml:space="preserve">
-      <c r="A39" t="str">
-        <v>Julian</v>
-      </c>
-      <c r="B39" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C39" t="str" xml:space="preserve">
         <v xml:space="preserve">13/2/2024, 19:38:02 - Julian: ¡Hola! Podrías darme más información de...
 13/2/2024, 19:38:02 - MegaBot: ¡Hola Julian! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀
 13/2/2024, 19:38:42 - Julian: 5
@@ -1296,16 +1254,397 @@
 13/2/2024, 19:41:29 - Julian: Si
 13/2/2024, 19:41:29 - MegaBot: Perfecto. Para continuar con la gestión de tu interés en la SUZUKI AX 100, necesitaría que me proporciones tu número de teléfono, la localidad donde te encuentras y, en caso de requerir financiación, tu DNI. Estos datos nos ayudarán a agilizar el proceso y conectarás más rápido con un vendedor especializado de Megamoto. ¿Podrías facilitarme esa información, por favor? ¡Estoy aquí para asistirte!</v>
       </c>
+      <c r="D38" t="str">
+        <v>65cbef45f7458f00086c9ad1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45335.81752668982</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>Marcelo</v>
+      </c>
+      <c r="B39" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C39" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 10:43:22 - Marcelo: ¡Hola! Podrías darme más información de...302s
+14/2/2024, 10:43:22 - MegaBot: ¡Hola Marcelo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
       <c r="D39" t="str">
-        <v>65cbef45f7458f00086c9ad1</v>
+        <v>65cc903415316900087de255</v>
       </c>
       <c r="E39" s="1">
-        <v>45335.81752668982</v>
+        <v>45336.44623223379</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>Oss</v>
+      </c>
+      <c r="B40" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C40" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 11:45:22 - Oss: ¡Hola! Podrías darme más información de... De adelanto y cuotas sin interés?
+14/2/2024, 11:45:22 - MegaBot: ¡Hola Oss! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D40" t="str">
+        <v>65ccd1ff1e28bc00086bd2f5</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45336.48928880787</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>Sergio</v>
+      </c>
+      <c r="B41" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C41" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 11:50:14 - Sergio: ¡Hola! Podrías darme más información de...
+14/2/2024, 11:50:14 - MegaBot: ¡Hola Sergio! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D41" t="str">
+        <v>65ccd320f0ca140008aee12d</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45336.492662881945</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>Isma'</v>
+      </c>
+      <c r="B42" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C42" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 11:52:34 - Isma': Buen día, queria info por un crédito personal
+14/2/2024, 11:52:35 - MegaBot: ¡Hola Isma'! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀
+14/2/2024, 17:00:51 - Isma': Una 110 económica
+14/2/2024, 17:00:51 - MegaBot: Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $ 955.658. El precio es con patentamiento incluido, no incluye impuesto a los sellos de CABA y es a confirmar por un vendedor. ¿Podrías indicarme tu localidad para verificar la disponibilidad y los métodos de pago, o estás interesado en financiar la compra?
+14/2/2024, 17:12:09 - Vendedor Megamoto: Bien decime que tipo de compra querés realizar?</v>
+      </c>
+      <c r="D42" t="str">
+        <v>65ccd3b0f318e60008182b94</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45336.49429173611</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
+        <v>.</v>
+      </c>
+      <c r="B43" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C43" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 12:07:18 - .: ¡Hola! Podrías darme más información de...
+14/2/2024, 12:07:19 - MegaBot: ¡Hola .! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D43" t="str">
+        <v>65ccd4f69e117f0008eb925a</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45336.50452184028</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
+        <v>Y2k</v>
+      </c>
+      <c r="B44" t="str">
+        <v>instagram</v>
+      </c>
+      <c r="C44" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 12:08:21 - Y2k: Hola me pasarías precio de Moto 110 disponible. Puesta en calle en efectivo. Con llanta aleación. Zona oeste Merlo sería
+14/2/2024, 12:08:22 - MegaBot: ¡Hola Y2k! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀
+14/2/2024, 12:13:42 - Y2k: Hola me pasarías precio de Moto 110 disponible. Puesta en calle en efectivo. Con llanta aleación. Zona oeste Merlo sería
+14/2/2024, 12:13:42 - MegaBot: Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $ 955.658. El precio es con patentamiento incluido, no incluye impuesto a los sellos de CABA y es a confirmar por un vendedor. Para más detalles sobre disponibilidad y opciones de compra, te recomiendo contactar a uno de nuestros vendedores. ¿Te gustaría que te ponga en contacto con alguno de ellos ahora?</v>
+      </c>
+      <c r="D44" t="str">
+        <v>65cbd406625b96000843e97b</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45336.505252442126</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>Criis 😎</v>
+      </c>
+      <c r="B45" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C45" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 12:21:09 - Criis 😎: ¡Hola! Me gustaría conseguir más información sobre esto.
+14/2/2024, 12:21:09 - MegaBot: ¡Hola Criis 😎! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D45" t="str">
+        <v>65ccda6207cd310008458dba</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45336.51413880787</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>Cronos</v>
+      </c>
+      <c r="B46" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C46" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 12:37:46 - Cronos: ¡Hola! Me gustaría conseguir más información sobre esto.
+14/2/2024, 12:37:47 - MegaBot: ¡Hola Cronos! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀
+14/2/2024, 14:17:56 - Cronos: Reciben usadas
+14/2/2024, 14:17:57 - MegaBot: ¡Hola! En Megamoto nos dedicamos a la venta de motos nuevas de las marcas Benelli, Suzuki, Motomel, Keeway y Sym. Actualmente no trabajamos con la compra o venta de motos usadas. ¿En qué más puedo ayudarte hoy?</v>
+      </c>
+      <c r="D46" t="str">
+        <v>65ccdc12f2853c000a5f6ccf</v>
+      </c>
+      <c r="E46" s="1">
+        <v>45336.52568157407</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str">
+        <v>Ariel Rozandal😎😎</v>
+      </c>
+      <c r="B47" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C47" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 12:43:32 - Ariel Rozandal😎😎: ¡Hola! Podrías darme más información de...
+14/2/2024, 12:43:32 - MegaBot: ¡Hola Ariel Rozandal😎😎! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D47" t="str">
+        <v>65ccdfa1c2357c0008521db5</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45336.529682025466</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="A48" t="str">
+        <v>Angel Aranda</v>
+      </c>
+      <c r="B48" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C48" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 14:17:52 - Angel Aranda: ¡Hola! Podrías darme más información de...
+14/2/2024, 14:17:52 - MegaBot: ¡Hola Angel Aranda! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D48" t="str">
+        <v>65ccdf80e619300008f68d4d</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45336.595193402776</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str">
+        <v>❤️🤍❤️</v>
+      </c>
+      <c r="B49" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C49" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 14:18:57 - ❤️🤍❤️: ¡Hola! Podrías darme más información de...
+14/2/2024, 14:18:57 - MegaBot: ¡Hola ❤️🤍❤️! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀</v>
+      </c>
+      <c r="D49" t="str">
+        <v>65ccf5fda2589e000858fe56</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45336.59594096065</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str">
+        <v>Roberto Emanuel Garcilazo</v>
+      </c>
+      <c r="B50" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C50" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 16:40:52 - Roberto Emanuel Garcilazo: ¡Hola! Podrías darme más información de...
+14/2/2024, 16:40:52 - MegaBot: ¡Hola Roberto Emanuel Garcilazo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D50" t="str">
+        <v>65cd1741fecca200085b05de</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45336.69449527778</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str">
+        <v>Ruben Parola</v>
+      </c>
+      <c r="B51" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C51" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 16:42:44 - Ruben Parola: La de la foto
+14/2/2024, 16:42:44 - MegaBot: ¡Hola Ruben Parola! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D51" t="str">
+        <v>65cc04610fea4800084d1683</v>
+      </c>
+      <c r="E51" s="1">
+        <v>45336.69579466435</v>
+      </c>
+    </row>
+    <row r="52" xml:space="preserve">
+      <c r="A52" t="str">
+        <v>Fernando Gomez 🍺🍻🍻😎😎</v>
+      </c>
+      <c r="B52" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C52" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 16:43:05 - Fernando Gomez 🍺🍻🍻😎😎: ¡Hola! Me gustaría conseguir más información sobre esto.
+14/2/2024, 16:43:05 - MegaBot: ¡Hola Fernando Gomez 🍺🍻🍻😎😎! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D52" t="str">
+        <v>65cd17c68a8aae0008dfd0e0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>45336.69603488426</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="A53" t="str">
+        <v>Nayteamo💙❤️💙</v>
+      </c>
+      <c r="B53" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C53" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 16:52:23 - Nayteamo💙❤️💙: Zanella due
+14/2/2024, 16:52:23 - MegaBot: ¡Hola Nayteamo💙❤️💙! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D53" t="str">
+        <v>65cca0950948c200082fbf2b</v>
+      </c>
+      <c r="E53" s="1">
+        <v>45336.7024903125</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="A54" t="str">
+        <v>Roberto</v>
+      </c>
+      <c r="B54" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C54" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 16:54:15 - Roberto: ¡Hola! Podrías darme más información de...de cuanto es las 3 cuoyas x la skua 150
+14/2/2024, 16:54:15 - MegaBot: ¡Hola Roberto! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D54" t="str">
+        <v>65cd1a63648dc0000861af93</v>
+      </c>
+      <c r="E54" s="1">
+        <v>45336.70378891204</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="A55" t="str">
+        <v>Lucas Romero</v>
+      </c>
+      <c r="B55" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C55" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 17:00:03 - Lucas Romero: ¡Hola! Podrías darme más información de...
+14/2/2024, 17:00:03 - MegaBot: ¡Hola Lucas Romero! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+14/2/2024, 17:11:30 - Vendedor Megamoto: Hola buenas tardes decime que modelo andas buscando? </v>
+      </c>
+      <c r="D55" t="str">
+        <v>65cd1bbf4892830008814f9c</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45336.70781446759</v>
+      </c>
+    </row>
+    <row r="56" xml:space="preserve">
+      <c r="A56" t="str">
+        <v>Ana Laura González</v>
+      </c>
+      <c r="B56" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C56" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 17:09:38 - Ana Laura González: Si por favor
+14/2/2024, 17:09:38 - MegaBot: ¡Hola Ana Laura González! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+14/2/2024, 17:11:50 - Vendedor Megamoto: Pásame tu número de DNI </v>
+      </c>
+      <c r="D56" t="str">
+        <v>65cce4f9bd2c530008b23fdf</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45336.71447380787</v>
+      </c>
+    </row>
+    <row r="57" xml:space="preserve">
+      <c r="A57" t="str">
+        <v>🏞️🎑🎣🌌</v>
+      </c>
+      <c r="B57" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C57" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 17:12:46 - 🏞️🎑🎣🌌: Cuanto sale un 110 motomel??
+14/2/2024, 17:12:46 - MegaBot: ¡Hola 🏞️🎑🎣🌌! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+14/2/2024, 17:25:08 - Vendedor Megamoto: $1.000.200</v>
+      </c>
+      <c r="D57" t="str">
+        <v>65cce175baed850008510305</v>
+      </c>
+      <c r="E57" s="1">
+        <v>45336.716649016205</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="A58" t="str">
+        <v>Gustavo Gomez Villafañe</v>
+      </c>
+      <c r="B58" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C58" t="str" xml:space="preserve">
+        <v xml:space="preserve">14/2/2024, 17:25:13 - Gustavo Gomez Villafañe: hola
+14/2/2024, 17:25:14 - MegaBot: ¡Hola Gustavo Gomez Villafañe! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+14/2/2024, 17:25:32 - Gustavo Gomez Villafañe: una 110
+14/2/2024, 17:25:32 - MegaBot: ¡Hola! Claro, puedo ayudarte a elegir una moto 110. ¿Tienes algún modelo específico en mente o te gustaría que te recomiende uno?
+14/2/2024, 17:25:52 - Gustavo Gomez Villafañe: 110
+14/2/2024, 17:25:52 - MegaBot: Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $ 955.658. El precio es con patentamiento incluido, no incluye impuesto a los sellos de CABA y es a confirmar por un vendedor. ¿En qué localidad te encuentras interesado en adquirir la moto?
+14/2/2024, 17:26:37 - Gustavo Gomez Villafañe: tigre
+14/2/2024, 17:26:37 - MegaBot: Perfecto, ¿podrías indicarme cuál será tu método de pago para la moto? Puedes elegir entre efectivo, tarjeta de crédito, préstamo, o una combinación de estas formas de pago.
+14/2/2024, 17:26:57 - Gustavo Gomez Villafañe: financiado
+14/2/2024, 17:26:57 - MegaBot: Perfecto, para poder iniciar el proceso de financiación y verificar si calificas para un crédito necesitaríamos tu DNI. ¿Podrías proporcionarme tu número de documento, por favor? Recuerda que un vendedor será quien se encargue de la verificación y te asesorará sobre las opciones de financiación disponibles.
+14/2/2024, 17:27:21 - Gustavo Gomez Villafañe: 20471170
+14/2/2024, 17:27:21 - MegaBot: Gracias por proporcionar tu DNI. Un vendedor se pondrá en contacto contigo para continuar con el proceso de financiación y ofrecerte la mejor opción disponible. 
+¿Hay algo más en lo que pueda asistirte en relación a la elección de tu moto?</v>
+      </c>
+      <c r="D58" t="str">
+        <v>6596d62461f4a300081b28cb</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45336.72529974537</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E39"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E58"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1263,388 +1263,553 @@
     </row>
     <row r="39" xml:space="preserve">
       <c r="A39" t="str">
-        <v>Marcelo</v>
+        <v>Gaby</v>
       </c>
       <c r="B39" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C39" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 10:43:22 - Marcelo: ¡Hola! Podrías darme más información de...302s
-14/2/2024, 10:43:22 - MegaBot: ¡Hola Marcelo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Para que un vendedor pueda atenderte más rápido por favor informame: 1) Modelo. 2) Teléfono. 3) Localidad. 4) Método de pago. 5) DNI (si vas a pagar financiado). Estoy en etapa de prueba y puedo equivocarme; luego de que me envíes los datos, un vendedor te contactará para confirmar la propuesta. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">15/2/2024, 7:16:10 - Gaby: ¡Hola! Podrías darme más información de...
+15/2/2024, 7:16:10 - MegaBot: ¡Hola Gaby! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀</v>
       </c>
       <c r="D39" t="str">
-        <v>65cc903415316900087de255</v>
+        <v>65cde4664c3fb900084b8564</v>
       </c>
       <c r="E39" s="1">
-        <v>45336.44623223379</v>
+        <v>45337.3023434375</v>
       </c>
     </row>
     <row r="40" xml:space="preserve">
       <c r="A40" t="str">
-        <v>Oss</v>
+        <v>Juan Marcelino Altamirano</v>
       </c>
       <c r="B40" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C40" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 11:45:22 - Oss: ¡Hola! Podrías darme más información de... De adelanto y cuotas sin interés?
-14/2/2024, 11:45:22 - MegaBot: ¡Hola Oss! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">15/2/2024, 7:16:35 - Juan Marcelino Altamirano: ¡Hola! Podrías darme más información de...
+15/2/2024, 7:16:35 - MegaBot: ¡Hola Juan Marcelino Altamirano! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 7:18:27 - Juan Marcelino Altamirano: Una económica en cutas
+15/2/2024, 7:18:27 - MegaBot: ¡Hola! Si estás interesado en obtener una moto a través de un financiamiento en cuotas, puedo ayudarte con esa información. ¿Podrías indicarme primero cuál es el modelo de moto que te interesa?
+15/2/2024, 7:20:07 - Juan Marcelino Altamirano: Una cros 200 cilindrodo
+15/2/2024, 7:20:07 - MegaBot: ¡Entendido! Para poder brindarte la información sobre el financiamiento en cuotas, necesitaría que me confirmes el modelo exacto de la moto que te interesa. ¿Podrías indicarme el nombre completo del modelo?</v>
       </c>
       <c r="D40" t="str">
-        <v>65ccd1ff1e28bc00086bd2f5</v>
+        <v>65cde47fefa8260008e3078f</v>
       </c>
       <c r="E40" s="1">
-        <v>45336.48928880787</v>
+        <v>45337.30262971065</v>
       </c>
     </row>
     <row r="41" xml:space="preserve">
       <c r="A41" t="str">
-        <v>Sergio</v>
+        <v>Javii 😀</v>
       </c>
       <c r="B41" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C41" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 11:50:14 - Sergio: ¡Hola! Podrías darme más información de...
-14/2/2024, 11:50:14 - MegaBot: ¡Hola Sergio! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">15/2/2024, 7:37:32 - Javii 😀: ¡Hola! Podrías darme más información , se puede sacar credito con dni
+15/2/2024, 7:37:32 - MegaBot: ¡Hola Javii 😀! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 12:40:00 - Javii 😀: Un corven mirage
+15/2/2024, 12:40:00 - MegaBot: ¡Hola! ¡Claro que sí! Para ayudarte mejor, necesitaría que me des algunos datos. ¿Podrías indicarme la localidad donde te encuentras para saber si corresponde el cobro de impuesto a los sellos de CABA?
+15/2/2024, 12:40:08 - Javii 😀: O crypton
+15/2/2024, 12:40:08 - MegaBot: ¡Entiendo! ¿Podrías por favor indicarme cuál es el método de pago que te interesa para la compra de la moto? Puedes elegir entre efectivo, tarjetas de crédito, préstamos u alguna combinación de estos medios.
+15/2/2024, 12:40:14 - Javii 😀: Como seria con el garante, no entiendo bien
+15/2/2024, 12:40:14 - MegaBot: Entiendo tu pregunta. Para poder asistirte mejor, necesitaría que me brindes tu Documento Nacional de Identidad (DNI) para poder verificar si calificas para un crédito. Una vez que tenga tu DNI, podré brindarte más información sobre los requisitos y condiciones para acceder a un crédito. ¿Puedes proporcionarme tu DNI, por favor?
+15/2/2024, 12:41:01 - Vendedor Megamoto: Perdón contesta automático el bot !!!</v>
       </c>
       <c r="D41" t="str">
-        <v>65ccd320f0ca140008aee12d</v>
+        <v>65cde968c7c6ae00081d1e32</v>
       </c>
       <c r="E41" s="1">
-        <v>45336.492662881945</v>
+        <v>45337.31718138889</v>
       </c>
     </row>
     <row r="42" xml:space="preserve">
       <c r="A42" t="str">
-        <v>Isma'</v>
+        <v>Mati Perez</v>
       </c>
       <c r="B42" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C42" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 11:52:34 - Isma': Buen día, queria info por un crédito personal
-14/2/2024, 11:52:35 - MegaBot: ¡Hola Isma'! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀
-14/2/2024, 17:00:51 - Isma': Una 110 económica
-14/2/2024, 17:00:51 - MegaBot: Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $ 955.658. El precio es con patentamiento incluido, no incluye impuesto a los sellos de CABA y es a confirmar por un vendedor. ¿Podrías indicarme tu localidad para verificar la disponibilidad y los métodos de pago, o estás interesado en financiar la compra?
-14/2/2024, 17:12:09 - Vendedor Megamoto: Bien decime que tipo de compra querés realizar?</v>
+        <v xml:space="preserve">15/2/2024, 9:36:54 - Mati Perez: ¡Hola! Podrías darme más información de...
+15/2/2024, 9:36:54 - MegaBot: ¡Hola Mati Perez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 9:37:29 - Mati Perez: AX100
+15/2/2024, 9:37:29 - MegaBot: ¡Hola! Claro, el modelo AX100 es una motocicleta de la marca Suzuki. ¿Estás interesado en adquirir una AX100 o necesitas más información específica sobre este modelo? Si estás interesado en comprar, ¿podrías indicarme tu localidad para verificar los impuestos de CABA?
+15/2/2024, 9:38:18 - Mati Perez: Soy de Merlo, Buenos Aires, quiero saber cómo serían las 3 cuotas sin interes
+15/2/2024, 9:38:18 - MegaBot: Perfecto, gracias por la información. Para poder asistirte adecuadamente, necesitaría que me confirmes el método de pago que deseas utilizar. ¿Podrías indicarme si prefieres pagar en efectivo, con tarjeta de crédito, préstamo o una combinación de estos métodos? Una vez que tengamos esta información, podré proporcionarte más detalles sobre las formas de pago y si hay posibilidad de 3 cuotas sin interés.
+15/2/2024, 9:40:31 - Mati Perez: Con efectivo y tarjeta de crédito
+15/2/2024, 9:40:31 - MegaBot: ¡Entendido! Si estás considerando pagar con efectivo y tarjeta de crédito, es importante que te comente que las cuotas sin interés suelen estar asociadas a pagos exclusivos con tarjeta de crédito. 
+Para brindarte información más precisa sobre las cuotas sin interés disponibles para el modelo AX100 de Suzuki, necesitaría que me confirmes tu DNI en caso de que estés interesado en la financiación. Con ese dato, un vendedor podrá verificar si calificas para un crédito y brindarte más detalles al respecto. ¿Podrías proporcionarme tu número de DNI para poder continuar con el proceso?
+15/2/2024, 10:40:54 - Mati Perez: Hola, perdón, me desocupo tipo 12 y te hablo!
+15/2/2024, 10:40:55 - MegaBot: ¡Sin problema! Estaré aquí para ayudarte cuando estés listo. Si surge alguna otra pregunta o necesitas asistencia en ese momento, no dudes en escribirme. ¡Que tengas un buen día!
+15/2/2024, 10:41:08 - Mati Perez: Por las dudas te voy avisando que tengo visa icbc
+15/2/2024, 10:41:08 - MegaBot: ¡Gracias por la información! Cuando estés listo, estaré aquí para continuar con tu consulta. Si deseas explorar opciones de financiación con tu tarjeta Visa del ICBC, estaremos preparados para brindarte la asistencia necesaria. ¡Hasta entonces!</v>
       </c>
       <c r="D42" t="str">
-        <v>65ccd3b0f318e60008182b94</v>
+        <v>65ce05624ec5e700080b12af</v>
       </c>
       <c r="E42" s="1">
-        <v>45336.49429173611</v>
+        <v>45337.400074247686</v>
       </c>
     </row>
     <row r="43" xml:space="preserve">
       <c r="A43" t="str">
-        <v>.</v>
+        <v>Nahuel</v>
       </c>
       <c r="B43" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C43" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 12:07:18 - .: ¡Hola! Podrías darme más información de...
-14/2/2024, 12:07:19 - MegaBot: ¡Hola .! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">15/2/2024, 10:17:53 - Nahuel: ¡Hola! Podrías darme más información de...
+15/2/2024, 10:17:53 - MegaBot: ¡Hola Nahuel! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 10:18:41 - Nahuel: Hola buen dia queria consultar por el serie 2
+15/2/2024, 10:18:41 - MegaBot: ¡Hola! ¡Claro que sí! Para poder brindarte la información que necesitas sobre el modelo Serie 2, necesitaría que me confirmes el fabricante o la marca. En Megamoto manejamos motos de las marcas Benelli, Suzuki, Motomel, Keeway y Sym. ¿Podrías indicarme la marca específica del modelo Serie 2 que te interesa? ¡Quedo atento a tu respuesta!
+15/2/2024, 10:19:47 - Nahuel: Motomel
+15/2/2024, 10:19:47 - MegaBot: Perfecto, ¡entendido! Lamentablemente, en la lista de precios proporcionada no contamos con un modelo específico denominado "Serie 2" de la marca Motomel. 
+Si tienes el nombre exacto del modelo que te interesa de Motomel o si deseas explorar otras opciones de motos disponibles en Megamoto, por favor házmelo saber. ¡Estoy aquí para ayudarte a encontrar la mejor opción para ti! 
+Además, si estás interesado en algún otro modelo o necesitas más información sobre las motos disponibles en Megamoto, no dudes en consultarme. ¿Hay algún otro modelo en el que te pueda asistir?
+15/2/2024, 10:20:44 - Nahuel: Motomel cg se full
+15/2/2024, 10:20:44 - MegaBot: ¡Excelente elección! El modelo Motomel CG SE Full es una excelente opción. ¿Podrías indicarme la localidad donde te encuentras para confirmar el precio final incluyendo patentamiento y confirmar la disponibilidad en esa sucursal? Además, ¿podrías decirme cuál sería tu método de pago preferido? ¡Así podremos avanzar en tu compra y brindarte la mejor atención!
+15/2/2024, 10:21:12 - Nahuel: San justo
+15/2/2024, 10:21:12 - MegaBot: Perfecto, gracias por la información. Para San Justo, en principio, no correspondería el cobro de impuesto a los sellos de CABA.
+Ahora, ¿cuál sería tu método de pago preferido para la compra de la Motomel CG SE Full en Megamoto? Recuerda que los métodos de pago disponibles son efectivo, tarjetas de crédito, préstamos, o una combinación de estas formas. ¡Estoy aquí para ayudarte con el proceso de compra!
+15/2/2024, 10:22:00 - Nahuel: Parte en efectivo y coutas
+15/2/2024, 10:22:00 - MegaBot: ¡Entendido! Para el pago en efectivo y cuotas, es posible que necesitemos más información para la financiación. Si estás interesado en financiar parte de la compra, es importante saber si deseas averiguar sobre opciones de crédito para las cuotas. En ese caso, necesitaríamos tu DNI para verificar si calificas para un crédito y para brindarte información precisa sobre las condiciones de financiación.
+¿Estás interesado en explorar opciones de financiación para tu compra en Megamoto? Si es así, ¿estarías dispuesto a proporcionarnos tu DNI para poder asesorarte mejor al respecto? ¡Estoy aquí para ayudarte en todo lo que necesites!
+15/2/2024, 10:22:44 - Nahuel: Ok
+15/2/2024, 10:22:44 - MegaBot: ¡Perfecto! Para poder ayudarte mejor con las opciones de financiación para la compra de la Motomel CG SE Full, necesitaría que me proporciones tu número de DNI. Con ese dato, un vendedor de Megamoto podrá verificar si calificas para un crédito y te brindará la información detallada sobre las condiciones de financiación disponibles.
+Por favor, si estás de acuerdo, puedes proporcionarme tu número de DNI de manera segura. ¡Estoy aquí para asistirte en todo el proceso!
+15/2/2024, 10:23:03 - Nahuel: 38428613
+15/2/2024, 10:23:03 - MegaBot: ¡Muchas gracias por proporcionar tu número de DNI! Con esta información, un vendedor de Megamoto podrá verificar si calificas para un crédito y te ofrecerá las opciones de financiación disponibles para la compra de la Motomel CG SE Full.
+En breve, un representante de Megamoto se pondrá en contacto contigo para continuarlo con el proceso de compra y brindarte toda la información necesaria.  
+Si necesitas ayuda adicional en cualquier momento, ¡no dudes en contactarme! ¡Estoy aquí para asistirte en todo lo que necesites en Megamoto! ¡Gracias por confiar en nosotros!
+15/2/2024, 11:26:56 - Nahuel: Como seria cuanto temdria que poner en efectivo
+15/2/2024, 11:26:56 - MegaBot: Para obtener el monto que deberías abonar en efectivo, tendríamos que considerar varios factores, como el precio total de la Motomel CG SE Full, el monto a financiar (en el caso de que optes por cuotas), y las condiciones específicas de la financiación que te ofrezcan en Megamoto.
+Te recomendaría ponerte en contacto con el vendedor de Megamoto que se comunicará contigo próximamente. Ellos podrán brindarte todos los detalles sobre cuánto deberías abonar en efectivo, teniendo en cuenta tu elección de financiación y el monto total de la compra.
+Si necesitas información adicional o tienes alguna otra pregunta, ¡no dudes en comunicarte conmigo! Estoy aquí para ayudarte en todo lo que necesites con respecto a la compra de tu Motomel CG SE Full en Megamoto. ¡Muchas gracias por confiar en nosotros!</v>
       </c>
       <c r="D43" t="str">
-        <v>65ccd4f69e117f0008eb925a</v>
+        <v>65ce0efc19f46d000870d24a</v>
       </c>
       <c r="E43" s="1">
-        <v>45336.50452184028</v>
+        <v>45337.428532638885</v>
       </c>
     </row>
     <row r="44" xml:space="preserve">
       <c r="A44" t="str">
-        <v>Y2k</v>
+        <v>Carlosguerrero432171</v>
       </c>
       <c r="B44" t="str">
-        <v>instagram</v>
+        <v>whatsapp</v>
       </c>
       <c r="C44" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 12:08:21 - Y2k: Hola me pasarías precio de Moto 110 disponible. Puesta en calle en efectivo. Con llanta aleación. Zona oeste Merlo sería
-14/2/2024, 12:08:22 - MegaBot: ¡Hola Y2k! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀
-14/2/2024, 12:13:42 - Y2k: Hola me pasarías precio de Moto 110 disponible. Puesta en calle en efectivo. Con llanta aleación. Zona oeste Merlo sería
-14/2/2024, 12:13:42 - MegaBot: Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $ 955.658. El precio es con patentamiento incluido, no incluye impuesto a los sellos de CABA y es a confirmar por un vendedor. Para más detalles sobre disponibilidad y opciones de compra, te recomiendo contactar a uno de nuestros vendedores. ¿Te gustaría que te ponga en contacto con alguno de ellos ahora?</v>
+        <v xml:space="preserve">15/2/2024, 10:21:25 - Carlosguerrero432171: ¡Hola! Podrías darme más información de...
+15/2/2024, 10:21:25 - MegaBot: ¡Hola Carlosguerrero432171! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀</v>
       </c>
       <c r="D44" t="str">
-        <v>65cbd406625b96000843e97b</v>
+        <v>65ce0fd0066ecf000896d6e6</v>
       </c>
       <c r="E44" s="1">
-        <v>45336.505252442126</v>
+        <v>45337.43098866898</v>
       </c>
     </row>
     <row r="45" xml:space="preserve">
       <c r="A45" t="str">
-        <v>Criis 😎</v>
+        <v>Celes💕</v>
       </c>
       <c r="B45" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C45" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 12:21:09 - Criis 😎: ¡Hola! Me gustaría conseguir más información sobre esto.
-14/2/2024, 12:21:09 - MegaBot: ¡Hola Criis 😎! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">15/2/2024, 10:40:41 - Celes💕: ¡Hola! Podrías darme más información de...
+15/2/2024, 10:40:41 - MegaBot: ¡Hola Celes💕! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 10:41:17 - Celes💕: Zanella Zb 110 full
+15/2/2024, 10:41:17 - MegaBot: ¡Hola! En Megamoto no trabajamos con la marca Zanella. Sin embargo, si estás buscando un modelo de 110, te puedo ofrecer información sobre nuestros modelos disponibles. ¿Te interesaría conocer alternativas de motos de 110 que comercializamos en Megamoto?</v>
       </c>
       <c r="D45" t="str">
-        <v>65ccda6207cd310008458dba</v>
+        <v>65ce1455dbe8070008216d19</v>
       </c>
       <c r="E45" s="1">
-        <v>45336.51413880787</v>
+        <v>45337.44437189815</v>
       </c>
     </row>
     <row r="46" xml:space="preserve">
       <c r="A46" t="str">
-        <v>Cronos</v>
+        <v>😊</v>
       </c>
       <c r="B46" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C46" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 12:37:46 - Cronos: ¡Hola! Me gustaría conseguir más información sobre esto.
-14/2/2024, 12:37:47 - MegaBot: ¡Hola Cronos! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀
-14/2/2024, 14:17:56 - Cronos: Reciben usadas
-14/2/2024, 14:17:57 - MegaBot: ¡Hola! En Megamoto nos dedicamos a la venta de motos nuevas de las marcas Benelli, Suzuki, Motomel, Keeway y Sym. Actualmente no trabajamos con la compra o venta de motos usadas. ¿En qué más puedo ayudarte hoy?</v>
+        <v xml:space="preserve">15/2/2024, 10:48:10 - 😊: Alguna 110
+15/2/2024, 10:48:10 - MegaBot: ¡Hola 😊! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 10:48:17 - 😊: Me mostras
+15/2/2024, 10:48:17 - MegaBot: ¡Claro! ¿Te gustaría saber sobre alguna moto en particular o tienes alguna preferencia de marca?
+15/2/2024, 10:48:51 - 😊: Quería ver algunas
+15/2/2024, 10:48:51 - MegaBot: ¡Por supuesto! Te puedo brindar información sobre algunas motos. ¿Podrías indicarme si estás interesado en alguna marca en particular, como Benelli, Motomel, Keeway, Suzuki o Sym? ¡Estoy aquí para ayudarte!
+15/2/2024, 10:49:18 - 😊: Alguna economica
+15/2/2024, 10:49:18 - MegaBot: Entiendo, ¿te gustaría conocer más acerca de las motos de menor precio de las marcas disponibles en Megamoto? Si me permites, puedo mostrarte algunas opciones de motos económicas de diferentes marcas para que puedas elegir la que mejor se adapte a tus necesidades y presupuesto. ¿Qué te parece?
+15/2/2024, 10:49:27 - 😊: Porfavor
+15/2/2024, 10:49:28 - MegaBot: Perfecto. A continuación, te presentaré algunas opciones de motos económicas disponibles en Megamoto para que puedas revisarlas. Aquí tienes algunas opciones:
+1. **Blitz 110 V8 START**
+   - Marca: Motomel
+   - Precio: $955.658
+2. **DLX 110 DELUXE**
+   - Marca: Motomel
+   - Precio: $1.002.055
+3. **BLITZ 110 V8 BASE ONE - B1 Aut**
+   - Marca: Motomel
+   - Precio: $1.068.056
+4. **BLITZ 110 V8 FULL ONE - B1**
+   - Marca: Motomel
+   - Precio: $1.084.038
+Estas son algunas de las opciones más económicas disponibles. Si alguna te interesa o si deseas más información acerca de alguna de ellas, ¡házmelo saber! Si estás considerando visitar la tienda, ¿me podrías indicar tu localidad para verificar si corresponde el cobro de sellos de CABA?</v>
       </c>
       <c r="D46" t="str">
-        <v>65ccdc12f2853c000a5f6ccf</v>
+        <v>65cd975599bde20008c12392</v>
       </c>
       <c r="E46" s="1">
-        <v>45336.52568157407</v>
+        <v>45337.449562222224</v>
       </c>
     </row>
     <row r="47" xml:space="preserve">
       <c r="A47" t="str">
-        <v>Ariel Rozandal😎😎</v>
+        <v>El Paisa</v>
       </c>
       <c r="B47" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C47" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 12:43:32 - Ariel Rozandal😎😎: ¡Hola! Podrías darme más información de...
-14/2/2024, 12:43:32 - MegaBot: ¡Hola Ariel Rozandal😎😎! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">15/2/2024, 10:53:55 - El Paisa: Trk 502
+15/2/2024, 10:53:55 - MegaBot: ¡Hola El Paisa! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 10:54:27 - El Paisa: Okey si
+15/2/2024, 10:54:28 - MegaBot: ¡Hola! ¿Podrías decirme de qué localidad eres para poder proporcionarte información precisa sobre la disponibilidad de la Trk 502?
+15/2/2024, 10:54:49 - El Paisa: De quilmes
+15/2/2024, 10:54:50 - MegaBot: Perfecto, gracias por la información. ¿Me podrías indicar cuál sería tu método de pago preferido para la Trk 502?
+15/2/2024, 10:55:19 - El Paisa: Efectivo mensual
+15/2/2024, 10:55:19 - MegaBot: Excelente elección. ¿Me podrías confirmar tu DNI para poder verificar si calificas para la financiación mensual?
+15/2/2024, 10:55:28 - El Paisa: En cuotas
+15/2/2024, 10:55:28 - MegaBot: Entiendo, ¿podrías proporcionarme tu DNI para que un vendedor de Megamoto pueda verificar si calificas para la financiación en cuotas mensuales?
+15/2/2024, 10:55:59 - El Paisa: 44939313
+15/2/2024, 10:55:59 - MegaBot: Perfecto, gracias por tu DNI. Con esta información, un vendedor de Megamoto podrá verificar si calificas para la financiación en cuotas mensuales para la Trk 502. ¿Te gustaría ser contactado por un vendedor para más detalles sobre la financiación?</v>
       </c>
       <c r="D47" t="str">
-        <v>65ccdfa1c2357c0008521db5</v>
+        <v>65cdf83b49ffaa00082fb5c8</v>
       </c>
       <c r="E47" s="1">
-        <v>45336.529682025466</v>
+        <v>45337.453556168985</v>
       </c>
     </row>
     <row r="48" xml:space="preserve">
       <c r="A48" t="str">
-        <v>Angel Aranda</v>
+        <v>Piter 420</v>
       </c>
       <c r="B48" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C48" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 14:17:52 - Angel Aranda: ¡Hola! Podrías darme más información de...
-14/2/2024, 14:17:52 - MegaBot: ¡Hola Angel Aranda! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">15/2/2024, 10:56:42 - Piter 420: Mil gracias
+15/2/2024, 10:56:43 - MegaBot: ¡Hola Piter 420! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 10:56:52 - Piter 420: Noo
+15/2/2024, 10:56:52 - MegaBot: Hola, ¿en qué puedo ayudarte con respecto a las motos de Megamoto?
+15/2/2024, 10:58:30 - Piter 420: Yo queria la tRk 502
+15/2/2024, 10:58:30 - MegaBot: Perfecto, la TRK 502 de Benelli es una excelente elección. ¿Podrías indicarme en qué localidad te encuentras para poder brindarte la información correspondiente?
+15/2/2024, 10:59:01 - Piter 420: Gral Rodriguez
+15/2/2024, 10:59:01 - MegaBot: Gracias por la información. ¿Podrías decirme cuál sería tu método de pago preferido para la compra de la TRK 502 en Megamoto?</v>
       </c>
       <c r="D48" t="str">
-        <v>65ccdf80e619300008f68d4d</v>
+        <v>65cd92e521e2aa00081e86e8</v>
       </c>
       <c r="E48" s="1">
-        <v>45336.595193402776</v>
+        <v>45337.45549533565</v>
       </c>
     </row>
     <row r="49" xml:space="preserve">
       <c r="A49" t="str">
-        <v>❤️🤍❤️</v>
+        <v>Ro💞</v>
       </c>
       <c r="B49" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C49" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 14:18:57 - ❤️🤍❤️: ¡Hola! Podrías darme más información de...
-14/2/2024, 14:18:57 - MegaBot: ¡Hola ❤️🤍❤️! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy en etapa de prueba y puedo equivocarme. Te envío este formulario para que un vendedor te contacte más rápido https://whatsform.com/cI7aIJ. ¡Saludos y gracias por el contacto! 😀</v>
+        <v xml:space="preserve">15/2/2024, 10:59:01 - Ro💞: ¡Hola! Podrías darme más información de...
+Tienen financiación solo con dni?
+15/2/2024, 10:59:01 - MegaBot: ¡Hola Ro💞! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 10:59:39 - Ro💞: Una 125
+15/2/2024, 10:59:39 - MegaBot: ¡Hola! ¿Estás interesado en una moto de 125 cc? Para poder brindarte la información completa y verificar la disponibilidad de financiación con solo el DNI, necesitaría conocer algunos datos adicionales. ¿Podrías indicarme el modelo exacto de la moto de 125 cc que te interesa?
+15/2/2024, 11:00:51 - Ro💞: No se el modelo 
+Me.podes pasar.opcionew
+15/2/2024, 11:00:51 - MegaBot: Claro, entiendo. Te puedo mostrar algunas opciones de motos de 125 cc disponibles en Megamoto para que puedas elegir. Aquí tienes algunas opciones:
+1. Suzuki GN 125
+2. Suzuki GSX 125
+3. Motomel Sirius 190 Nuevo Producto
+4. Motomel Skua 125 X-Treme
+¿Algún modelo en particular que te llame la atención o te gustaría conocer más detalles? Una vez que elijas un modelo, podremos avanzar con la información relevante para tu compra. ¡Estoy aquí para ayudarte!
+15/2/2024, 11:02:37 - Ro💞: Si fotos si puede ser de cada modelo
+15/2/2024, 11:02:38 - MegaBot: Lamentablemente, no tengo la capacidad de mostrar imágenes a través de este canal de comunicación. Sin embargo, te puedo describir brevemente cada modelo para que tengas una idea visual:
+1. **Suzuki GN 125:** Es una moto clásica de estilo urbano, con un diseño sencillo y funcional. Es ideal para desplazamientos en la ciudad.
+2. **Suzuki GSX 125:** Es una moto deportiva de 125 cc con un diseño más aerodinámico y agresivo, ideal para quienes buscan un estilo más dinámico.
+3. **Motomel Sirius 190 Nuevo Producto:** Esta moto tiene un diseño moderno y versátil, ideal tanto para la ciudad como para salidas más largas.
+4. **Motomel Skua 125 X-Treme:** Es una moto tipo enduro, resistente y versátil, adecuada para aventuras tanto en la ciudad como fuera de ella.
+Una vez que tengas una idea de cuál de estos modelos te llama más la atención, puedo brindarte detalles adicionales y las opciones de financiación disponibles. ¿Hay alguno que te interese en particular o prefieres más detalles sobre alguno en específico? ¡Estoy aquí para ayudarte en tu elección!
+15/2/2024, 11:02:44 - Ro💞: Xq no se mucho de motos
+15/2/2024, 11:02:44 - MegaBot: ¡Entiendo! No hay problema en eso. Para ayudarte a elegir la mejor opción, puedo brindarte información detallada de cada modelo para que puedas tener una idea más clara. 
+¿Qué tipo de uso le darías a la moto? ¿Sería principalmente para desplazarte por la ciudad, para viajes más largos o para aventuras off-road? Con esta información, podré recomendarte el modelo que mejor se adapte a tus necesidades. ¡Estoy aquí para guiarte en este proceso de selección!
+15/2/2024, 11:03:18 - Ro💞: Desplazarse x la ciudad
+15/2/2024, 11:03:18 - MegaBot: Perfecto, si estás buscando una moto para desplazarte por la ciudad, te recomendaría optar por un modelo que sea ágil, cómodo y fácil de manejar en el tráfico urbano. Basándonos en esa necesidad, te sugiero considerar los siguientes modelos:
+1. **Suzuki GN 125**: Es una moto clásica de estilo urbano y sencillo, ideal para desplazamientos diarios por la ciudad. Su diseño tradicional y su maniobrabilidad la hacen una gran opción para moverse con facilidad en el tráfico urbano.
+2. **Motomel Sirius 190 Nuevo Producto**: Con un diseño moderno y versátil, esta moto es perfecta para la ciudad. Su tamaño compacto y su rendimiento la convierten en una excelente opción para desplazamientos urbanos.
+Ambos modelos son excelentes opciones para moverse por la ciudad de manera cómoda y segura. Si alguno de estos te interesa o si quieres más información detallada sobre ellos o sobre otros modelos, por favor házmelo saber. ¡Estoy aquí para ayudarte en tu elección!
+15/2/2024, 11:03:47 - Ro💞: Me envías fotos?
+15/2/2024, 11:03:47 - MegaBot: Lamentablemente, no tengo la capacidad de enviar imágenes a través de este canal de comunicación. Sin embargo, puedo ayudarte con descripciones detalladas de las características de cada modelo para que puedas tomar una decisión informada. 
+Si te interesa, puedo brindarte información sobre las especificaciones técnicas, el rendimiento, el diseño y otros detalles relevantes de los modelos que te mencioné (Suzuki GN 125 y Motomel Sirius 190 Nuevo Producto). ¿Te gustaría saber más sobre alguno en particular? ¡Estoy aquí para ayudarte en tu decisión!
+15/2/2024, 11:04:25 - Ro💞: Y motomel sirius 190?
+15/2/2024, 11:04:25 - MegaBot: ¡Claro! Aquí tienes información detallada sobre la Motomel Sirius 190 Nuevo Producto:
+- **Motor:** Monocilíndrico, 4 tiempos, refrigerado por aire.
+- **Cilindrada:** 184 cc.
+- **Potencia:** 17.84 hp a 8500 rpm.
+- **Transmisión:** Manual de 5 velocidades.
+- **Arranque:** Eléctrico.
+- **Sistema de frenos:** Disco delantero y freno a tambor trasero.
+- **Suspensión:** Delantera telescópica, trasera basculante con doble amortiguador.
+- **Capacidad del tanque de combustible:** 12 litros.
+- **Peso:** 120 kg.
+- **Llantas:** Aleación de 17 pulgadas.
+- **Tablero:** Digital con velocímetro, indicador de combustible y odómetro.
+- **Colores disponibles:** Rojo y negro.
+La Motomel Sirius 190 Nuevo Producto es una motocicleta versátil y moderna, ideal para la movilidad urbana. Su diseño contemporáneo, su rendimiento y su maniobrabilidad la convierten en una excelente opción para desplazarte por la ciudad de manera cómoda y segura.
+Si deseas más información o tienes alguna otra pregunta sobre la Motomel Sirius 190, ¡no dudes en decírmelo! Estoy aquí para ayudarte.
+15/2/2024, 11:04:48 - Ro💞: Solo fotos así te digo cual.me.interesa
+15/2/2024, 11:04:48 - MegaBot: Lamento informarte que no tengo la capacidad de enviar imágenes a través de este canal de comunicación. Sin embargo, puedo ayudarte proporcionando descripciones detalladas de las características de las motos para que puedas tomar una decisión informada. 
+Si tienes alguna preferencia en términos de características específicas que buscas en una moto (como color, estilo, tamaño, etc.), házmelo saber y puedo brindarte detalles adicionales sobre esas especificaciones. ¡Estoy aquí para ayudarte en tu elección!
+15/2/2024, 11:07:24 - Ro💞: Gracias
+15/2/2024, 11:07:24 - MegaBot: ¡De nada! Si en algún momento necesitas más información o si tienes cualquier otra consulta relacionada con las motos de Megamoto, no dudes en contactarme. Estoy aquí para ayudarte. ¡Que tengas un excelente día!</v>
       </c>
       <c r="D49" t="str">
-        <v>65ccf5fda2589e000858fe56</v>
+        <v>65ce18a16be8d000085eac87</v>
       </c>
       <c r="E49" s="1">
-        <v>45336.59594096065</v>
+        <v>45337.45709577546</v>
       </c>
     </row>
     <row r="50" xml:space="preserve">
       <c r="A50" t="str">
-        <v>Roberto Emanuel Garcilazo</v>
+        <v>Vale</v>
       </c>
       <c r="B50" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C50" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 16:40:52 - Roberto Emanuel Garcilazo: ¡Hola! Podrías darme más información de...
-14/2/2024, 16:40:52 - MegaBot: ¡Hola Roberto Emanuel Garcilazo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀</v>
+        <v xml:space="preserve">15/2/2024, 11:02:01 - Vale: ¡Hola! Podrías darme más información de créditos personales
+15/2/2024, 11:02:01 - MegaBot: ¡Hola Vale! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 11:02:38 - Vale: Gilera 110 base
+15/2/2024, 11:02:38 - MegaBot: ¡Hola! En Megamoto no comercializamos la marca Gilera. ¿Hay algún modelo de Benelli, Suzuki, Motomel, Keeway o Sym que te interese? ¡Estoy aquí para ayudarte!
+15/2/2024, 11:03:23 - Vale: Motomel
+15/2/2024, 11:03:24 - MegaBot: ¡Perfecto! ¿Estás interesado en algún modelo en particular de Motomel? Por favor, indícame el nombre o sinónimo del modelo que te interesa, por ejemplo, CG 150 S2 FULL o BLITZ 110 V8 BASE ONE - B1 Aut. ¡Estoy aquí para ayudarte a encontrar la información que necesitas!
+15/2/2024, 11:04:14 - Vale: Blitz 110
+15/2/2024, 11:04:14 - MegaBot: Excelente elección. El precio de la Blitz 110 V8 BASE ONE - B1 Aut es de $1.068.056, este precio incluye el patentamiento. Sin embargo, no incluye el impuesto a los sellos de CABA. ¿Me podrías indicar tu localidad para verificar si corresponde dicho impuesto?
+15/2/2024, 11:04:46 - Vale: San Martin
+15/2/2024, 11:04:46 - MegaBot: ¡Gracias por la información! En el caso de San Martín, no se aplicaría el impuesto a los sellos de CABA. 
+¿Podrías indicarme cuál será tu método de pago preferido para poder seguir asistiendo de la mejor manera? Puedes elegir entre efectivo, tarjeta de crédito, préstamo o una combinación de estos. ¡Estoy aquí para ayudarte!
+15/2/2024, 11:05:14 - Vale: Prestamo
+15/2/2024, 11:05:14 - MegaBot: Perfecto, para poder continuar con la solicitud de préstamo, necesitaré tu número de DNI para que un vendedor pueda verificar si calificas para acceder al crédito. ¿Podrías proporcionarme tu número de DNI? ¡Gracias por tu colaboración!
+15/2/2024, 11:05:34 - Vale: 35189873
+15/2/2024, 11:05:34 - MegaBot: ¡Gracias por brindarme tu número de DNI! Con esta información un vendedor de Megamoto podrá verificar si calificas para acceder al crédito. 
+¿Te gustaría ser contactado por un vendedor para recibir más detalles sobre la financiación y la compra de la moto Blitz 110? ¡Estamos aquí para ayudarte en lo que necesites!
+15/2/2024, 11:05:54 - Vale: Si
+15/2/2024, 11:05:55 - MegaBot: Perfecto, ¡un vendedor de Megamoto se pondrá en contacto contigo para brindarte más detalles sobre la financiación y la compra de la moto Blitz 110! ¡Gracias por tu interés y confianza en Megamoto! Si tienes alguna otra pregunta o necesitas más información, no dudes en decírmelo. ¡Que tengas un excelente día!
+15/2/2024, 11:06:29 - Vale: Gracias
+15/2/2024, 11:06:29 - MegaBot: ¡De nada! ¡Gracias a ti por contactarte con Megamoto! Si en el futuro necesitas más información o asistencia, no dudes en escribirnos. ¡Que tengas un excelente día y mucha suerte con tu futura compra! ¡Hasta luego!</v>
       </c>
       <c r="D50" t="str">
-        <v>65cd1741fecca200085b05de</v>
+        <v>65ce1955d1110e000835ceaa</v>
       </c>
       <c r="E50" s="1">
-        <v>45336.69449527778</v>
+        <v>45337.459186099535</v>
       </c>
     </row>
     <row r="51" xml:space="preserve">
       <c r="A51" t="str">
-        <v>Ruben Parola</v>
+        <v>Cacho Almada "único"</v>
       </c>
       <c r="B51" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C51" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 16:42:44 - Ruben Parola: La de la foto
-14/2/2024, 16:42:44 - MegaBot: ¡Hola Ruben Parola! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀</v>
+        <v xml:space="preserve">15/2/2024, 11:03:17 - Cacho Almada "único": La más barata
+15/2/2024, 11:03:17 - MegaBot: ¡Hola Cacho Almada "único"! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 11:03:48 - Vendedor Megamoto: Te puedo ofrecer una 110 blizt!! </v>
       </c>
       <c r="D51" t="str">
-        <v>65cc04610fea4800084d1683</v>
+        <v>65cddf163e80ff0008896b65</v>
       </c>
       <c r="E51" s="1">
-        <v>45336.69579466435</v>
+        <v>45337.4600637037</v>
       </c>
     </row>
     <row r="52" xml:space="preserve">
       <c r="A52" t="str">
-        <v>Fernando Gomez 🍺🍻🍻😎😎</v>
+        <v>Alejandra 💞</v>
       </c>
       <c r="B52" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C52" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 16:43:05 - Fernando Gomez 🍺🍻🍻😎😎: ¡Hola! Me gustaría conseguir más información sobre esto.
-14/2/2024, 16:43:05 - MegaBot: ¡Hola Fernando Gomez 🍺🍻🍻😎😎! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀</v>
+        <v xml:space="preserve">15/2/2024, 11:10:10 - Alejandra 💞: Hola buen día
+15/2/2024, 11:10:10 - MegaBot: ¡Hola Alejandra 💞! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 11:10:23 - Alejandra 💞: Keria precio de moto 110
+15/2/2024, 11:10:23 - MegaBot: ¡Hola! Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $ 955.658. El precio es con patentamiento incluido, no incluye impuesto a los sellos de CABA y es a confirmar por un vendedor. ¿Te interesa este modelo en particular?
+15/2/2024, 11:10:46 - Alejandra 💞: Si
+15/2/2024, 11:10:46 - MegaBot: Perfecto. Para poder ayudarte mejor, necesitaría información adicional. ¿Podrías decirme de qué localidad eres? Esto es importante para saber si corresponde el cobro de sellos de CABA. ¡Gracias!
+15/2/2024, 11:11:10 - Alejandra 💞: Ituzaingó
+15/2/2024, 11:11:11 - MegaBot: ¡Gracias por la información! Como eres de Ituzaingó, no corresponde el cobro de sellos de CABA en el precio. Ahora, ¿me podrías indicar cuál es tu método de pago preferido? Puedes elegir entre efectivo, tarjeta de crédito o financiación.
+15/2/2024, 11:11:52 - Alejandra 💞: Efectivo.
+15/2/2024, 11:11:52 - MegaBot: Perfecto, gracias por la información. Por último, ¿te gustaría ser atendido por un vendedor para obtener más detalles sobre la BLITZ 110 V8 START y proceder con la compra?
+15/2/2024, 11:11:59 - Alejandra 💞: Depende cuánto esta
+15/2/2024, 11:11:59 - MegaBot: El precio de la BLITZ 110 V8 START es de $955.658, que incluye el patentamiento. Para más detalles sobre formas de pago y promociones actuales, te recomendaría ser atendido por un vendedor. ¿Te gustaría que te ponga en contacto con uno de ellos?
+15/2/2024, 11:33:59 - Vendedor Megamoto: Hola buen día cómo estás?  Cuando tenías pensado realizar la compra </v>
       </c>
       <c r="D52" t="str">
-        <v>65cd17c68a8aae0008dfd0e0</v>
+        <v>65ce1b3de70308000861ed29</v>
       </c>
       <c r="E52" s="1">
-        <v>45336.69603488426</v>
+        <v>45337.46484201389</v>
       </c>
     </row>
     <row r="53" xml:space="preserve">
       <c r="A53" t="str">
-        <v>Nayteamo💙❤️💙</v>
+        <v>Lashes's Alaïa</v>
       </c>
       <c r="B53" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C53" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 16:52:23 - Nayteamo💙❤️💙: Zanella due
-14/2/2024, 16:52:23 - MegaBot: ¡Hola Nayteamo💙❤️💙! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀</v>
+        <v xml:space="preserve">15/2/2024, 11:14:06 - Lashes's Alaïa: Buen día
+15/2/2024, 11:14:06 - MegaBot: ¡Hola Lashes's Alaïa! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 11:14:46 - Lashes's Alaïa: Motomel cg 150 s2
+15/2/2024, 11:14:46 - MegaBot: ¡Hola! ¡Gracias por tu interés en la Motomel CG 150 S2! Para poder brindarte la mejor asistencia, necesitaría que me indiques tu localidad, el método de pago que prefieres y, en caso de elegir la financiación, tu DNI para verificar la calificación. ¿Puedes proporcionarme estos datos por favor?
+15/2/2024, 11:15:32 - Lashes's Alaïa: Libertad, efectivo, 42.023.041
+15/2/2024, 11:15:32 - MegaBot: Perfecto, ¡gracias por compartir esos datos! Solo me falta verificar si tienes alguna consulta adicional sobre la Motomel CG 150 S2. Una vez confirmemos que no tienes más preguntas, te gestionaré para que un vendedor pueda contactarte y brindarte toda la información que necesitas. ¿Hay algo más que te gustaría saber sobre la Motomel CG 150 S2 antes de pasar tus datos a un vendedor?
+15/2/2024, 11:16:02 - Lashes's Alaïa: Aceptan otra moto en parte de pago?
+15/2/2024, 11:16:02 - MegaBot: En Megamoto, pueden evaluarte la posibilidad de recibir otra moto como parte de pago. Para conocer las condiciones específicas, te recomendaría ponerte en contacto directamente con un vendedor, quien podrá brindarte toda la información necesaria. ¿Deseas que un vendedor se comunique contigo para hablar sobre esta posibilidad y cualquier otra consulta que puedas tener?
+15/2/2024, 11:16:23 - Lashes's Alaïa: Si por favor
+15/2/2024, 11:16:23 - MegaBot: Perfecto, con la información que proporcionaste y tu interés en que un vendedor te contacte, procederé a gestionar tu solicitud para que te brinden toda la información necesaria. 👍🏼 ¡Muchas gracias por tu interés en Megamoto y en la Motomel CG 150 S2! Pronto recibirás una comunicación del equipo de ventas. ¡Que tengas un excelente día! ¿Hay algo más en lo que pueda ayudarte?
+15/2/2024, 11:16:47 - Lashes's Alaïa: Gracias
+15/2/2024, 11:16:47 - MegaBot: ¡De nada! Si tienes más consultas en el futuro, no dudes en contactarme. ¡Que tengas un excelente día y muchas gracias por comunicarte con Megamoto! 🏍️👋🏼
+15/2/2024, 11:35:26 - Vendedor Megamoto: Hola buen día, cómo estás </v>
       </c>
       <c r="D53" t="str">
-        <v>65cca0950948c200082fbf2b</v>
+        <v>65cd933621e2aa00081e92ea</v>
       </c>
       <c r="E53" s="1">
-        <v>45336.7024903125</v>
+        <v>45337.46756981481</v>
       </c>
     </row>
     <row r="54" xml:space="preserve">
       <c r="A54" t="str">
-        <v>Roberto</v>
+        <v>Gisela Di Nardo</v>
       </c>
       <c r="B54" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C54" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 16:54:15 - Roberto: ¡Hola! Podrías darme más información de...de cuanto es las 3 cuoyas x la skua 150
-14/2/2024, 16:54:15 - MegaBot: ¡Hola Roberto! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀</v>
+        <v xml:space="preserve">15/2/2024, 11:16:57 - Gisela Di Nardo: Hola, tengo algunas preguntas sobre Motomel Strato Alpino 150 Cc - Contado O Ant. + Financiada!. https://moto.mercadolibre.com.ar/MLA-1518067406-motomel-strato-alpino-150-cc-contado-o-ant-financiada-_JM?u=MTY4NTg3NDE2 la tenes?
+15/2/2024, 11:16:57 - MegaBot: ¡Hola Gisela Di Nardo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 11:18:41 - Gisela Di Nardo: Esta estoy buscando
+15/2/2024, 11:18:41 - MegaBot: ¡Hola! Gracias por tu interés en la Motomel Strato Alpino 150 cc. Para poder brindarte la mejor asistencia, necesitaría conocer algunos datos importantes. 
+¿Podrías indicarme tu localidad para verificar si corresponde el cobro de los sellos de CABA en caso de realizar la compra? 
+Por favor, házmelo saber para poder continuar con la asistencia adecuada. ¡Estoy aquí para ayudarte!
+15/2/2024, 11:23:46 - Gisela Di Nardo: Chivilcoy pcias bs as
+15/2/2024, 11:23:47 - MegaBot: ¡Entendido, Chivilcoy en la provincia de Buenos Aires! Ahora, ¿me podrías indicar cuál sería tu método de pago preferido para la compra de la Motomel Strato Alpino 150 cc? Puedes elegir entre efectivo, tarjeta de crédito, préstamo o una combinación de estos métodos. 
+Una vez que tenga esta información, podré brindarte más detalles y continuar con el proceso de asistencia. ¡Quedo a la espera de tu respuesta!
+15/2/2024, 11:25:12 - Gisela Di Nardo: Transferencia
+15/2/2024, 11:25:12 - MegaBot: Perfecto, has elegido transferencia como método de pago. 
+Ahora, para poder continuar con el proceso de compra, necesitaría confirmar si deseas financiar la moto. En caso afirmativo, es importante que tengas en cuenta que para acceder a la financiación, será necesario contar con tu DNI para verificar si calificas para un crédito. 
+Por favor, ¿deseas financiar la compra de la Motomel Strato Alpino 150 cc? ¡Quedo a la espera de tu respuesta para seguir adelante!
+15/2/2024, 11:26:36 - Gisela Di Nardo: No
+15/2/2024, 11:26:36 - MegaBot: Entendido, en este caso, no deseas financiar la compra. 
+Agradezco tu pronta respuesta. Para poder facilitar aún más tu proceso de compra, ¿podrías proporcionarme tu número de DNI? Esta información es necesaria para completar el proceso de reserva y coordinar la entrega de la Motomel Strato Alpino 150 cc. 
+Una vez que cuente con tu número de DNI, podré poner en contacto a un vendedor de Megamoto para que te brinde toda la información necesaria y coordine los detalles finales de la compra. ¡Quedo a la espera de tu número de DNI para continuar!
+15/2/2024, 11:26:43 - Gisela Di Nardo: Quiero saber precio y si esta disponible y que modelo es?
+15/2/2024, 11:26:43 - MegaBot: El precio de la Motomel Strato Alpino 150 cc es a confirmar con un vendedor de Megamoto. Este precio incluye patentamiento, pero no incluye el impuesto a los sellos de CABA. Para verificar la disponibilidad y confirmar el precio, te recomendaría ponerte en contacto directamente con un vendedor de Megamoto. Puedes comunicarte con ellos a través de los teléfonos de contacto o visitar su sitio web para más información detallada.
+Si estás interesado en conocer detalles sobre otros modelos de motos disponibles, estaré encantado de ayudarte a obtener información más detallada. ¡Quedo a tu disposición para cualquier otra consulta que tengas!
+15/2/2024, 11:27:47 - Gisela Di Nardo: El teléfono cual es?
+15/2/2024, 11:27:47 - MegaBot: Los teléfonos de contacto de Megamoto son los siguientes:
+- Teléfonos de Abasto: 1149730000 y 1167862952
+- Teléfonos de Merlo: 1168930000 – 1159790625
+- Teléfono de Postventa y repuestos: 1156202281
+Puedes comunicarte con cualquiera de estos números para obtener información detallada sobre la disponibilidad, precios y modelos de motos que te interesen. ¡Espero que puedas encontrar la información que necesitas! Si tienes alguna otra pregunta relacionada con Megamoto, ¡no dudes en consultarme!
+15/2/2024, 12:40:31 - Vendedor Megamoto: año modelo 2024</v>
       </c>
       <c r="D54" t="str">
-        <v>65cd1a63648dc0000861af93</v>
+        <v>65ce1cd5fb83ff0008df323b</v>
       </c>
       <c r="E54" s="1">
-        <v>45336.70378891204</v>
+        <v>45337.46955336806</v>
       </c>
     </row>
     <row r="55" xml:space="preserve">
       <c r="A55" t="str">
-        <v>Lucas Romero</v>
+        <v>Carp</v>
       </c>
       <c r="B55" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C55" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 17:00:03 - Lucas Romero: ¡Hola! Podrías darme más información de...
-14/2/2024, 17:00:03 - MegaBot: ¡Hola Lucas Romero! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
-14/2/2024, 17:11:30 - Vendedor Megamoto: Hola buenas tardes decime que modelo andas buscando? </v>
+        <v xml:space="preserve">15/2/2024, 11:24:22 - Carp: ¡Hola! Podrías darme más información de...
+15/2/2024, 11:24:23 - MegaBot: ¡Hola Carp! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀</v>
       </c>
       <c r="D55" t="str">
-        <v>65cd1bbf4892830008814f9c</v>
+        <v>65ce1e91dbdac00008318071</v>
       </c>
       <c r="E55" s="1">
-        <v>45336.70781446759</v>
+        <v>45337.47470648148</v>
       </c>
     </row>
     <row r="56" xml:space="preserve">
       <c r="A56" t="str">
-        <v>Ana Laura González</v>
+        <v>Elcolo Medina</v>
       </c>
       <c r="B56" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C56" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 17:09:38 - Ana Laura González: Si por favor
-14/2/2024, 17:09:38 - MegaBot: ¡Hola Ana Laura González! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
-14/2/2024, 17:11:50 - Vendedor Megamoto: Pásame tu número de DNI </v>
+        <v xml:space="preserve">15/2/2024, 11:37:11 - Elcolo Medina: Ando buscando 110
+15/2/2024, 11:37:11 - MegaBot: ¡Hola Elcolo Medina! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 11:37:17 - Elcolo Medina: Soy de boulogne san isidro
+15/2/2024, 11:37:18 - MegaBot: ¡Hola! Para poder asistirte mejor, ¿puedes indicarme el modelo específico de moto 110 que estás buscando?</v>
       </c>
       <c r="D56" t="str">
-        <v>65cce4f9bd2c530008b23fdf</v>
+        <v>65cdae7c68e87e00081b46c8</v>
       </c>
       <c r="E56" s="1">
-        <v>45336.71447380787</v>
+        <v>45337.48360773148</v>
       </c>
     </row>
     <row r="57" xml:space="preserve">
       <c r="A57" t="str">
-        <v>🏞️🎑🎣🌌</v>
+        <v>Mar👋🏻</v>
       </c>
       <c r="B57" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C57" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 17:12:46 - 🏞️🎑🎣🌌: Cuanto sale un 110 motomel??
-14/2/2024, 17:12:46 - MegaBot: ¡Hola 🏞️🎑🎣🌌! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
-14/2/2024, 17:25:08 - Vendedor Megamoto: $1.000.200</v>
+        <v xml:space="preserve">15/2/2024, 12:41:26 - Mar👋🏻: BBVA
+15/2/2024, 12:41:26 - MegaBot: ¡Hola Mar👋🏻! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀</v>
       </c>
       <c r="D57" t="str">
-        <v>65cce175baed850008510305</v>
+        <v>65cd88c2587db60008c5bca9</v>
       </c>
       <c r="E57" s="1">
-        <v>45336.716649016205</v>
-      </c>
-    </row>
-    <row r="58" xml:space="preserve">
-      <c r="A58" t="str">
-        <v>Gustavo Gomez Villafañe</v>
-      </c>
-      <c r="B58" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C58" t="str" xml:space="preserve">
-        <v xml:space="preserve">14/2/2024, 17:25:13 - Gustavo Gomez Villafañe: hola
-14/2/2024, 17:25:14 - MegaBot: ¡Hola Gustavo Gomez Villafañe! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
-14/2/2024, 17:25:32 - Gustavo Gomez Villafañe: una 110
-14/2/2024, 17:25:32 - MegaBot: ¡Hola! Claro, puedo ayudarte a elegir una moto 110. ¿Tienes algún modelo específico en mente o te gustaría que te recomiende uno?
-14/2/2024, 17:25:52 - Gustavo Gomez Villafañe: 110
-14/2/2024, 17:25:52 - MegaBot: Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $ 955.658. El precio es con patentamiento incluido, no incluye impuesto a los sellos de CABA y es a confirmar por un vendedor. ¿En qué localidad te encuentras interesado en adquirir la moto?
-14/2/2024, 17:26:37 - Gustavo Gomez Villafañe: tigre
-14/2/2024, 17:26:37 - MegaBot: Perfecto, ¿podrías indicarme cuál será tu método de pago para la moto? Puedes elegir entre efectivo, tarjeta de crédito, préstamo, o una combinación de estas formas de pago.
-14/2/2024, 17:26:57 - Gustavo Gomez Villafañe: financiado
-14/2/2024, 17:26:57 - MegaBot: Perfecto, para poder iniciar el proceso de financiación y verificar si calificas para un crédito necesitaríamos tu DNI. ¿Podrías proporcionarme tu número de documento, por favor? Recuerda que un vendedor será quien se encargue de la verificación y te asesorará sobre las opciones de financiación disponibles.
-14/2/2024, 17:27:21 - Gustavo Gomez Villafañe: 20471170
-14/2/2024, 17:27:21 - MegaBot: Gracias por proporcionar tu DNI. Un vendedor se pondrá en contacto contigo para continuar con el proceso de financiación y ofrecerte la mejor opción disponible. 
-¿Hay algo más en lo que pueda asistirte en relación a la elección de tu moto?</v>
-      </c>
-      <c r="D58" t="str">
-        <v>6596d62461f4a300081b28cb</v>
-      </c>
-      <c r="E58" s="1">
-        <v>45336.72529974537</v>
+        <v>45337.5282190625</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E58"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E57"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1807,9 +1807,536 @@
         <v>45337.5282190625</v>
       </c>
     </row>
+    <row r="58" xml:space="preserve">
+      <c r="A58" t="str">
+        <v>El Pela</v>
+      </c>
+      <c r="B58" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C58" t="str" xml:space="preserve">
+        <v xml:space="preserve">15/2/2024, 12:48:06 - El Pela: Hola soy de hurlingham , quisiera comprar la benelli trk251
+15/2/2024, 12:48:06 - MegaBot: ¡Hola El Pela! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 12:48:47 - Vendedor Megamoto: Ok que tipo de compra querés realizar? </v>
+      </c>
+      <c r="D58" t="str">
+        <v>65cda5d549a3150008187724</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45337.53285555555</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
+      <c r="A59" t="str">
+        <v>Gustavo Gomez Villafañe</v>
+      </c>
+      <c r="B59" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C59" t="str" xml:space="preserve">
+        <v xml:space="preserve">15/2/2024, 16:37:18 - Gustavo Gomez Villafañe: hola
+15/2/2024, 16:37:18 - MegaBot: ¡Hola Gustavo Gomez Villafañe! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 16:37:55 - Gustavo Gomez Villafañe: Zanella Zb 110 full
+15/2/2024, 16:37:55 - MegaBot: ¡Hola! En Megamoto no contamos con motos Zanella Zb 110 full. ¿Te interesaría conocer los modelos disponibles de nuestras marcas Benelli, Suzuki, Motomel, Keeway y Sym?
+15/2/2024, 16:42:07 - Gustavo Gomez Villafañe: zanella zb 110 full
+15/2/2024, 16:42:07 - MegaBot: Lamentablemente, en Megamoto no contamos con el modelo Zanella Zb 110 full. ¿Te gustaría conocer los modelos disponibles de nuestras marcas Benelli, Suzuki, Motomel, Keeway y Sym? ¡Estoy aquí para ayudarte!
+15/2/2024, 16:47:38 - Gustavo Gomez Villafañe: zanella 110 zb
+15/2/2024, 16:47:38 - MegaBot: En Megamoto no disponemos del modelo Zanella Zb 110. Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $ 955.658. El precio incluye patentamiento, pero no cubre el impuesto a los sellos de CABA. Si estás interesado en conocer más sobre nuestros productos de otras marcas como Benelli, Suzuki, Motomel, Keeway y Sym, ¡estaré encantado de ayudarte! ¿Te interesaría ver alguna otra opción?</v>
+      </c>
+      <c r="D59" t="str">
+        <v>6596d62461f4a300081b28cb</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45337.692020381946</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="A60" t="str">
+        <v>Jesus Ordoñez</v>
+      </c>
+      <c r="B60" t="str">
+        <v>instagram</v>
+      </c>
+      <c r="C60" t="str" xml:space="preserve">
+        <v xml:space="preserve">15/2/2024, 16:40:52 - Jesus Ordoñez: Hola
+15/2/2024, 16:40:53 - MegaBot: ¡Hola Jesus Ordoñez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
+15/2/2024, 16:40:58 - Jesus Ordoñez: Hola
+15/2/2024, 16:40:58 - MegaBot: ¡Hola! Bienvenido a Megamoto. ¿En qué puedo ayudarte hoy?</v>
+      </c>
+      <c r="D60" t="str">
+        <v>65ce68c0fc58f500088acd61</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45337.69450109954</v>
+      </c>
+    </row>
+    <row r="61" xml:space="preserve">
+      <c r="A61" t="str">
+        <v>Yesica Romano Sza Comidas</v>
+      </c>
+      <c r="B61" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C61" t="str" xml:space="preserve">
+        <v xml:space="preserve">15/2/2024, 16:49:12 - Yesica Romano Sza Comidas: ¡Hola! Podrías darme más información de...
+15/2/2024, 16:49:12 - MegaBot: ¡Hola Yesica Romano Sza Comidas! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D61" t="str">
+        <v>65ce6ab3ff18f9000838116f</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45337.700281921294</v>
+      </c>
+    </row>
+    <row r="62" xml:space="preserve">
+      <c r="A62" t="str">
+        <v>Leticia Alvarez</v>
+      </c>
+      <c r="B62" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C62" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 9:21:48 - Leticia Alvarez: ¡Hola! Podrías darme más información de...hola de donde son
+16/2/2024, 9:21:49 - MegaBot: ¡Hola Leticia Alvarez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comenzamos por saber que moto estas buscando? 😀
+16/2/2024, 9:22:55 - Leticia Alvarez: 110
+16/2/2024, 9:22:55 - MegaBot: Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $ 955.658. El precio es con patentamiento incluido, no incluye impuesto a los sellos de CABA y es a confirmar por un vendedor. ¿En qué localidad te encuentras o cuál es el método de pago que prefieres?
+16/2/2024, 9:23:43 - Leticia Alvarez: De donde son
+16/2/2024, 9:23:43 - MegaBot: ¡Hola! Soy MegaBot, el asistente de ventas de Megamoto. Estoy especializado en brindarte información sobre motos y productos de Megamoto. Si estás interesado en conocer más sobre las motos que ofrecemos o los métodos de pago disponibles, ¡estoy aquí para ayudarte! ¿En qué puedo asistirte hoy?
+16/2/2024, 9:24:08 - Leticia Alvarez: Yo parana entre rios
+16/2/2024, 9:24:08 - MegaBot: ¡Entendido! ¿Estás interesado en algún modelo de moto en particular o quieres conocer los métodos de pago disponibles en Megamoto? ¡Estoy aquí para ayudarte!
+16/2/2024, 11:01:08 - Vendedor Megamoto: Hola Leticia mi nombre es Joana Alvarez soy asesora comercial de Megamoto !!</v>
+      </c>
+      <c r="D62" t="str">
+        <v>65cf5357f0a94a0008554c4e</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45338.38959908565</v>
+      </c>
+    </row>
+    <row r="63" xml:space="preserve">
+      <c r="A63" t="str">
+        <v>Amanda</v>
+      </c>
+      <c r="B63" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C63" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 9:36:23 - Amanda: ¡Hola! Podrías darme más información de...
+16/2/2024, 9:36:23 - MegaBot: ¡Hola Amanda! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comenzamos por saber que moto estas buscando? 😀
+16/2/2024, 9:36:54 - Amanda: De donde son
+16/2/2024, 9:36:55 - MegaBot: ¡Hola! Soy MegaBot, un experto asistente de ventas de Megamoto. Mi especialidad es brindar información sobre motos, repuestos, accesorios y servicios de postventa de Megamoto en Argentina. Si necesitas conocer más detalles sobre nuestros productos o servicios, ¡estaré encantado de ayudarte!</v>
+      </c>
+      <c r="D63" t="str">
+        <v>65cf56c360f38c0008368a50</v>
+      </c>
+      <c r="E63" s="1">
+        <v>45338.39971326389</v>
+      </c>
+    </row>
+    <row r="64" xml:space="preserve">
+      <c r="A64" t="str">
+        <v>Бог Верен</v>
+      </c>
+      <c r="B64" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C64" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 9:44:05 - Бог Верен: Hola, tengo algunas preguntas sobre Motomel Skua 125 Xtreme- Mejor Contado - Ant. + Financiada!. https://moto.mercadolibre.com.ar/MLA-1518305488-motomel-skua-125-xtreme-mejor-contado-ant-financiada-_JM?u=NTg5MzA4NjI=
+16/2/2024, 9:44:05 - MegaBot: ¡Hola Бог Верен! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comenzamos por saber que moto estas buscando? 😀
+16/2/2024, 10:13:52 - Бог Верен: San Martin
+16/2/2024, 10:13:52 - MegaBot: ¡Hola! ¿Te interesa adquirir una moto de Megamoto? ¿Podrías indicarme el modelo de moto que te interesa?
+16/2/2024, 10:16:22 - Vendedor Megamoto: Perdón contesta automático 😞 </v>
+      </c>
+      <c r="D64" t="str">
+        <v>65cf5891b2d37f000845ca24</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45338.40506376157</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="A65" t="str">
+        <v>Laposadasbenitez1965</v>
+      </c>
+      <c r="B65" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C65" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 9:51:14 - Laposadasbenitez1965: ¡Hola! Podrías darme más información de...
+16/2/2024, 9:51:15 - MegaBot: ¡Hola Laposadasbenitez1965! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comenzamos por saber que moto estas buscando? 😀
+16/2/2024, 11:43:51 - Vendedor Megamoto: Hola cómo estás buen día!! </v>
+      </c>
+      <c r="D65" t="str">
+        <v>65cf5a3e74975d00088f09c4</v>
+      </c>
+      <c r="E65" s="1">
+        <v>45338.41003085648</v>
+      </c>
+    </row>
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str">
+        <v>Jlvq</v>
+      </c>
+      <c r="B66" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C66" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 10:51:02 - Jlvq: ¡Hola! Podrías darme más información de...bennelli en 12 cuotas
+16/2/2024, 10:51:02 - MegaBot: ¡Hola Jlvq! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 11:27:07 - Vendedor Megamoto: Hola cómo estás buen día!! </v>
+      </c>
+      <c r="D66" t="str">
+        <v>65cf6842bfe8d1000839cfda</v>
+      </c>
+      <c r="E66" s="1">
+        <v>45338.451558981484</v>
+      </c>
+    </row>
+    <row r="67" xml:space="preserve">
+      <c r="A67" t="str">
+        <v>Kaloame01@gmail.com</v>
+      </c>
+      <c r="B67" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C67" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 10:53:10 - Kaloame01@gmail.com: ¡Hola! Podrías darme más información de...
+16/2/2024, 10:53:10 - MegaBot: ¡Hola Kaloame01@gmail.com! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 10:54:06 - Kaloame01@gmail.com: Una que sea 250
+16/2/2024, 10:54:06 - MegaBot: ¡Hola! ¿Estás interesado en el modelo Benelli 251 o en algún otro modelo de 250? ¡Por favor, indícame el nombre completo del modelo para poder asistirte de manera más precisa!
+16/2/2024, 10:54:40 - Kaloame01@gmail.com: Benelli 251
+16/2/2024, 10:54:40 - MegaBot: Perfecto, el modelo Benelli 251 es una excelente elección. ¿Podrías indicarme cuál será tu método de pago? Puede ser efectivo, tarjeta de crédito, préstamo u otra forma de pago.
+16/2/2024, 10:55:07 - Kaloame01@gmail.com: Pagar por mes
+16/2/2024, 10:55:08 - MegaBot: ¡Entendido! Para poder asistirte con la financiación mensual, necesitaré tu DNI para verificar si calificas para un préstamo. ¿Podrías proporcionarme tu número de documento por favor?
+16/2/2024, 10:55:41 - Kaloame01@gmail.com: 23656947
+16/2/2024, 10:55:41 - MegaBot: ¡Gracias por brindarme tu número de documento! Un vendedor se encargará de verificar si calificas para el préstamo. En breve, serás contactado por uno de nuestros representantes para continuar con el proceso de compra. ¡Muchas gracias!
+16/2/2024, 10:55:53 - Kaloame01@gmail.com: 23656847
+16/2/2024, 10:55:53 - MegaBot: Gracias por tu número de documento. Un vendedor se encargará de verificar si calificas para el préstamo. En breve, serás contactado por uno de nuestros representantes para continuar con el proceso de compra. ¡Gracias por elegir Megamoto!
+16/2/2024, 11:17:55 - Vendedor Megamoto: Hola buen día te hablé de mi WhatsApp!! 😘</v>
+      </c>
+      <c r="D67" t="str">
+        <v>65cf68c3b6fe84000918fda5</v>
+      </c>
+      <c r="E67" s="1">
+        <v>45338.45303872685</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="A68" t="str">
+        <v>Maru Sanchez</v>
+      </c>
+      <c r="B68" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C68" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 10:54:14 - Maru Sanchez: ¡Hola! Podrías darme más información de...me pasarías precio de una 110 la más económica al contado + gasto de patentamiento. Y sí estan en Pilar o cerca de acá. Gracias
+16/2/2024, 10:54:15 - MegaBot: ¡Hola Maru Sanchez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 10:54:55 - Maru Sanchez: Sí
+16/2/2024, 10:54:55 - MegaBot: ¡Hola! Claro, en Megamoto contamos con motos de 110cc. En cuanto al precio, la Blitz 110 V8 START de Motomel tiene un valor de $955.658. Este precio incluye el patentamiento. En cuanto a las ubicaciones, tenemos sucursales en Merlo y en CABA, no contamos con una en Pilar. ¿Te interesa la Blitz 110 V8 START de Motomel?
+16/2/2024, 10:55:37 - Maru Sanchez: Sí
+16/2/2024, 10:55:38 - MegaBot: Perfecto, ¿qué método de pago prefieres utilizar para la compra de la Blitz 110 V8 START de Motomel: efectivo, tarjeta de crédito o préstamo?
+16/2/2024, 10:56:01 - Maru Sanchez: Efectivo al contado
+16/2/2024, 10:56:01 - MegaBot: ¡Entendido! En breve te contactará un vendedor para coordinar la compra de la Blitz 110 V8 START de Motomel al contado. ¡Gracias por tu consulta en Megamoto!
+16/2/2024, 11:16:05 - Vendedor Megamoto: Hola soy Nahir te hablé de mi WhatsApp!!</v>
+      </c>
+      <c r="D68" t="str">
+        <v>65cf690344aebd0008b15262</v>
+      </c>
+      <c r="E68" s="1">
+        <v>45338.453782627315</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="A69" t="str">
+        <v>Cristian</v>
+      </c>
+      <c r="B69" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C69" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 11:00:12 - Cristian: Skua  150
+16/2/2024, 11:00:12 - MegaBot: ¡Hola Cristian! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 11:01:59 - Cristian: Una skua  150
+16/2/2024, 11:02:00 - MegaBot: ¡Gracias por tu interés en la Skua 150 de Motomel! 
+Para poder asistirte eficientemente, necesitaría que me indiques el método de pago que deseas utilizar. Puedes elegir entre efectivo, tarjeta de crédito o préstamo. ¿Con qué forma de pago te gustaría proceder?
+16/2/2024, 11:02:39 - Cristian: Con recibo de sueldo quisiera  saber
+16/2/2024, 11:02:39 - MegaBot: Perfecto, para continuar con tu solicitud, necesitaría que me proporciones tu DNI para verificar si calificas para un préstamo. Una vez verificado este dato, un vendedor se pondrá en contacto contigo para informarte sobre los detalles de la financiación. ¿Podrías facilitarme tu DNI, por favor?
+16/2/2024, 11:02:46 - Cristian: O efectivo
+16/2/2024, 11:02:46 - MegaBot: ¡Entendido! Si optas por pagar en efectivo, un vendedor de Megamoto se pondrá en contacto contigo para coordinar los detalles y concluír la operación. Pronto recibirás noticias de ellos. ¡Gracias por elegir Megamoto! ¿Hay algo más en lo que pueda asistirte hoy?
+16/2/2024, 11:03:23 - Cristian: 35992045
+16/2/2024, 11:03:23 - MegaBot: Gracias por proporcionar tu DNI. Un vendedor se pondrá en contacto contigo para coordinar la compra de la Skua 150 en efectivo. ¡Pronto recibirás noticias de ellos! ¿Hay algo más en lo que pueda ayudarte en este momento?</v>
+      </c>
+      <c r="D69" t="str">
+        <v>65cf652058158a0008e8925a</v>
+      </c>
+      <c r="E69" s="1">
+        <v>45338.4579256713</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="A70" t="str">
+        <v>Dattoli😎</v>
+      </c>
+      <c r="B70" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C70" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 11:21:44 - Dattoli😎: Tendrás catalogo?
+16/2/2024, 11:21:44 - MegaBot: ¡Hola Dattoli😎! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 11:21:58 - Dattoli😎: Andaba buscando una 110 económica
+16/2/2024, 11:21:58 - MegaBot: Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $ 955.658. El precio es con patentamiento incluido, no incluye impuesto a los sellos de CABA y es a confirmar por un vendedor. ¿Cómo te gustaría pagar?
+16/2/2024, 11:23:07 - Dattoli😎: En cuotas, consulta, las cuotas son fijas a precio dolar, o se mantienen fijas en pesos?
+16/2/2024, 11:23:08 - MegaBot: Para brindarte información específica sobre las cuotas y la financiación disponible, necesitaría tu número de DNI para que un vendedor pueda verificar si calificas para un crédito y explicarte más detalladamente las opciones disponibles. ¿Podrías proporcionarme tu DNI por favor? Un vendedor se comunicará contigo para brindarte más información.
+16/2/2024, 11:23:18 - Dattoli😎: Y a cuanto la dejas 100% financiada
+16/2/2024, 11:23:18 - MegaBot: El precio de la BLITZ 110 V8 START financiada en un 100% dependerá de las condiciones de la financiera. Te recomendaría que un vendedor se comunique contigo para brindarte información detallada al respecto. ¿Podrías proporcionarme tu DNI para verificar si calificas para un crédito?
+16/2/2024, 11:23:26 - Dattoli😎: 46013371
+16/2/2024, 11:23:26 - MegaBot: Gracias por brindarme tu DNI. Un vendedor de Megamoto se comunicará contigo a la brevedad para informarte sobre las opciones de financiación disponibles para la BLITZ 110 V8 START. ¡Gracias por tu interés en nuestros productos!
+16/2/2024, 11:23:59 - Vendedor Megamoto: Hola soy Nahir ahora te escribo de mi WhatsApp!! </v>
+      </c>
+      <c r="D70" t="str">
+        <v>65cf36ef9b3e4f000862d47c</v>
+      </c>
+      <c r="E70" s="1">
+        <v>45338.47287305556</v>
+      </c>
+    </row>
+    <row r="71" xml:space="preserve">
+      <c r="A71" t="str">
+        <v>Alee</v>
+      </c>
+      <c r="B71" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C71" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 11:33:34 - Alee: Hola busco la Gilera gx1 125
+16/2/2024, 11:33:34 - MegaBot: ¡Hola Alee! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 11:35:59 - Vendedor Megamoto: Trabajamos con Motomel y Suzuki! </v>
+      </c>
+      <c r="D71" t="str">
+        <v>65ced5922029880008c72a92</v>
+      </c>
+      <c r="E71" s="1">
+        <v>45338.4810937963</v>
+      </c>
+    </row>
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str">
+        <v>Ramón</v>
+      </c>
+      <c r="B72" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C72" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 11:34:50 - Ramón: Motomel 150
+16/2/2024, 11:34:51 - MegaBot: ¡Hola Ramón! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 11:35:01 - Ramón: Calle
+16/2/2024, 11:35:02 - MegaBot: ¡Hola! Para poder ayudarte mejor, necesito que me indiques tu método de pago preferido. ¿Cómo planeas realizar la compra de la Motomel 150?
+16/2/2024, 11:36:21 - Ramón: Financiada
+16/2/2024, 11:36:21 - MegaBot: Perfecto, para avanzar necesitaré que me brindes tu número de DNI, ya que al pagar con financiación es necesario verificar algunos requisitos. Una vez que me proporciones esta información, un vendedor se comunicará contigo para seguir con el proceso. ¡Gracias!</v>
+      </c>
+      <c r="D72" t="str">
+        <v>65cf4066489e230008acf51d</v>
+      </c>
+      <c r="E72" s="1">
+        <v>45338.48197916667</v>
+      </c>
+    </row>
+    <row r="73" xml:space="preserve">
+      <c r="A73" t="str">
+        <v>Bostero 100% 🔵🟡🔵</v>
+      </c>
+      <c r="B73" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C73" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 11:53:04 - Bostero 100% 🔵🟡🔵: Q modelos tienen
+16/2/2024, 11:53:05 - MegaBot: ¡Hola Bostero 100% 🔵🟡🔵! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 11:53:25 - Vendedor Megamoto: Te hablo de mi WhatsApp!! </v>
+      </c>
+      <c r="D73" t="str">
+        <v>65ced60613cf5000085c9167</v>
+      </c>
+      <c r="E73" s="1">
+        <v>45338.49463984954</v>
+      </c>
+    </row>
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
+        <v>Guille Russo</v>
+      </c>
+      <c r="B74" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C74" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 11:57:28 - Guille Russo: Hola buen día como están
+16/2/2024, 11:57:28 - MegaBot: ¡Hola Guille Russo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 11:57:35 - Guille Russo: Te hago una consulta
+16/2/2024, 11:57:35 - MegaBot: ¡Hola! ¡Claro que sí! En qué te puedo ayudar hoy?
+16/2/2024, 11:58:08 - Guille Russo: Estoy buscando una motito tipo motomel Max, honda dax O la zanella hot
+16/2/2024, 11:58:08 - MegaBot: En Megamoto contamos con una amplia variedad de modelos de motos. ¿Te gustaría conocer los modelos disponibles de las marcas Benelli, Suzuki, Motomel, Keeway y Sym que ofrecemos?
+16/2/2024, 11:58:23 - Guille Russo: O mondial de ese estilo
+16/2/2024, 11:58:23 - MegaBot: En Megamoto nos especializamos en comercializar las marcas Benelli, Suzuki, Motomel, Keeway y Sym. Si estás interesado en conocer los modelos disponibles de estas marcas, ¡estoy aquí para ayudarte! ¿Te gustaría saber más sobre alguno en particular?
+16/2/2024, 13:07:22 - Vendedor Megamoto: Hola cómo estás! Guille </v>
+      </c>
+      <c r="D74" t="str">
+        <v>65cf77d46665540008aad57c</v>
+      </c>
+      <c r="E74" s="1">
+        <v>45338.49769019676</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
+      <c r="A75" t="str">
+        <v>Lauty😎😎</v>
+      </c>
+      <c r="B75" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C75" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 12:06:01 - Lauty😎😎: 46.756.916
+Lautaro emanuel cabrera
+16/2/2024, 12:06:01 - MegaBot: ¡Hola Lauty😎😎! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 12:06:48 - Vendedor Megamoto: Te escribo de mi WhatsApp! </v>
+      </c>
+      <c r="D75" t="str">
+        <v>65cf3eae3453de000849dbdb</v>
+      </c>
+      <c r="E75" s="1">
+        <v>45338.50362563657</v>
+      </c>
+    </row>
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str">
+        <v>Rosana</v>
+      </c>
+      <c r="B76" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C76" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 12:08:25 - Rosana: ¡Hola! Podrías darme más información de...
+16/2/2024, 12:08:26 - MegaBot: ¡Hola Rosana! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 12:14:46 - Rosana: Qué marcas tienen en 110c?
+16/2/2024, 12:14:46 - MegaBot: ¡Hola! En Megamoto puedes encontrar la motomarca MOTOMEL que ofrece diferentes modelos de 110cc como la Blitz 110 V8 BASE ONE - B1, Blitz 110 V8 FULL ONE - B1, Blitz 110 V8 PLUS, Blitz 110 V8 START y Blitz 110 V8 TUNNING NEW. ¿Te interesa alguno en particular?
+16/2/2024, 12:17:55 - Rosana: Blitz 110 V8 FULL ONE
+16/2/2024, 12:17:55 - MegaBot: El precio de la motomarca MOTOMEL Blitz 110 V8 FULL ONE es de $1.084.038 e incluye el patentamiento. ¿Podrías indicarme cómo te gustaría realizar el pago?
+16/2/2024, 12:18:28 - Rosana: Son de Resistencia ?
+16/2/2024, 12:18:29 - MegaBot: En este caso, como asistente de ventas de Megamoto, me especializo en brindar información sobre motos, repuestos, accesorios y servicios de postventa de las marcas Benelli, Suzuki, Motomel, Keeway y Sym. Si estás interesado en conocer más sobre nuestros productos y servicios, ¡estaré encantado de ayudarte! ¿Te gustaría tener más información sobre alguna de nuestras motos disponibles en Megamoto?
+16/2/2024, 12:20:45 - Rosana: Dónde se halla el local?
+16/2/2024, 12:20:45 - MegaBot: Puedes encontrarnos en Merlo sobre avenida Calle Real 51 (ex. Gobernador Vergara) de lunes a sábados de 10 a 19 horas; y en CABA en avenida Corrientes 3400 (frente al Abasto) de lunes a viernes de 9 a 19 horas y sábados de 9 a 13 horas. ¿Te gustaría visitarnos en alguno de nuestros locales?
+16/2/2024, 12:21:50 - Rosana: No Gracias
+16/2/2024, 12:21:51 - MegaBot: Entiendo, ¡gracias por tu interés! Si en el futuro necesitas más información o tienes alguna otra consulta relacionada con motos, ¡no dudes en contactarnos! ¡Que tengas un excelente día!</v>
+      </c>
+      <c r="D76" t="str">
+        <v>65cf7a66a31f6500084d3fcd</v>
+      </c>
+      <c r="E76" s="1">
+        <v>45338.5053002662</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
+      <c r="A77" t="str">
+        <v>Cristian Gelvez</v>
+      </c>
+      <c r="B77" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C77" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 12:12:19 - Cristian Gelvez: Cilindrada 200 o 250
+16/2/2024, 12:12:19 - MegaBot: ¡Hola Cristian Gelvez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 13:05:24 - Vendedor Megamoto: Ahora te hablo de mi WhatsApp! </v>
+      </c>
+      <c r="D77" t="str">
+        <v>65cf133865128100080b971f</v>
+      </c>
+      <c r="E77" s="1">
+        <v>45338.50800417824</v>
+      </c>
+    </row>
+    <row r="78" xml:space="preserve">
+      <c r="A78" t="str">
+        <v>Facundozelaya329</v>
+      </c>
+      <c r="B78" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C78" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 12:13:17 - Facundozelaya329: Rouser na 200 o 110
+16/2/2024, 12:13:17 - MegaBot: ¡Hola Facundozelaya329! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D78" t="str">
+        <v>65cf638187df0c0008d7979b</v>
+      </c>
+      <c r="E78" s="1">
+        <v>45338.50867591435</v>
+      </c>
+    </row>
+    <row r="79" xml:space="preserve">
+      <c r="A79" t="str">
+        <v>Mojita♡</v>
+      </c>
+      <c r="B79" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C79" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 12:15:48 - Mojita♡: ¡Hola! Podrías darme más información de motos
+16/2/2024, 12:15:49 - MegaBot: ¡Hola Mojita♡! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 12:19:12 - Mojita♡: Ninguna en específico  sería la más económica
+16/2/2024, 12:19:12 - MegaBot: ¡Hola! En Megamoto contamos con varias opciones económicas en motos, como la "BLITZ 110 V8 START" de la marca Motomel, que tiene un precio de $955.658. Si estás interesado en conocer más detalles de esta u otras opciones, por favor indícame el modelo que te interesa, ¡y con gusto te brindaré más información!
+16/2/2024, 12:21:00 - Mojita♡: Tenes catalogo ?me pasa así veo
+16/2/2024, 12:21:00 - MegaBot: Lamentablemente no puedo enviarte el catálogo directamente por este medio. Pero puedes visitar nuestro sitio web en https://www.megamoto.com.ar/ para ver una amplia variedad de modelos disponibles. Si te interesa algún modelo en particular o necesitas más información sobre alguno, házmelo saber y con gusto te ayudaré. ¿Hay algún modelo en específico que te interese?</v>
+      </c>
+      <c r="D79" t="str">
+        <v>65cf7c218d74340009f6950d</v>
+      </c>
+      <c r="E79" s="1">
+        <v>45338.51042662037</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
+      <c r="A80" t="str">
+        <v>Cristian</v>
+      </c>
+      <c r="B80" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C80" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 13:13:33 - Cristian: Hola buen día
+16/2/2024, 13:13:34 - MegaBot: ¡Hola Cristian! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 13:13:44 - Cristian: Tendrás catalogo
+16/2/2024, 13:13:44 - MegaBot: ¡Hola! ¡Bienvenido a Megamoto! Sí, tenemos una amplia variedad de motos en nuestro catálogo. ¿Estás interesado en algún modelo en particular?
+16/2/2024, 13:13:56 - Vendedor Megamoto: No tengo catálogos! </v>
+      </c>
+      <c r="D80" t="str">
+        <v>65cee56f87219700085a16fd</v>
+      </c>
+      <c r="E80" s="1">
+        <v>45338.55053197917</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
+      <c r="A81" t="str">
+        <v>El Turquito</v>
+      </c>
+      <c r="B81" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C81" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 14:19:36 - El Turquito: No contado
+16/2/2024, 14:19:37 - MegaBot: ¡Hola El Turquito! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 14:20:11 - El Turquito: Ducatti 180
+16/2/2024, 14:20:11 - MegaBot: ¡Hola! En Megamoto no trabajamos con la marca Ducati, pero contamos con una amplia variedad de motos de otras marcas como Benelli, Suzuki, Motomel, Keeway y Sym. ¿Puedo ayudarte con alguna de esas marcas en particular?
+16/2/2024, 14:20:38 - Vendedor Megamoto: Disculpa te hablo desde mi WhatsApp porque están probando el bot ! </v>
+      </c>
+      <c r="D81" t="str">
+        <v>65cf8e0ec328010008e301c8</v>
+      </c>
+      <c r="E81" s="1">
+        <v>45338.59639936343</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E57"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E81"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1828,74 +1828,50 @@
     </row>
     <row r="59" xml:space="preserve">
       <c r="A59" t="str">
-        <v>Gustavo Gomez Villafañe</v>
+        <v>Jesus Ordoñez</v>
       </c>
       <c r="B59" t="str">
-        <v>whatsapp</v>
+        <v>instagram</v>
       </c>
       <c r="C59" t="str" xml:space="preserve">
-        <v xml:space="preserve">15/2/2024, 16:37:18 - Gustavo Gomez Villafañe: hola
-15/2/2024, 16:37:18 - MegaBot: ¡Hola Gustavo Gomez Villafañe! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
-15/2/2024, 16:37:55 - Gustavo Gomez Villafañe: Zanella Zb 110 full
-15/2/2024, 16:37:55 - MegaBot: ¡Hola! En Megamoto no contamos con motos Zanella Zb 110 full. ¿Te interesaría conocer los modelos disponibles de nuestras marcas Benelli, Suzuki, Motomel, Keeway y Sym?
-15/2/2024, 16:42:07 - Gustavo Gomez Villafañe: zanella zb 110 full
-15/2/2024, 16:42:07 - MegaBot: Lamentablemente, en Megamoto no contamos con el modelo Zanella Zb 110 full. ¿Te gustaría conocer los modelos disponibles de nuestras marcas Benelli, Suzuki, Motomel, Keeway y Sym? ¡Estoy aquí para ayudarte!
-15/2/2024, 16:47:38 - Gustavo Gomez Villafañe: zanella 110 zb
-15/2/2024, 16:47:38 - MegaBot: En Megamoto no disponemos del modelo Zanella Zb 110. Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $ 955.658. El precio incluye patentamiento, pero no cubre el impuesto a los sellos de CABA. Si estás interesado en conocer más sobre nuestros productos de otras marcas como Benelli, Suzuki, Motomel, Keeway y Sym, ¡estaré encantado de ayudarte! ¿Te interesaría ver alguna otra opción?</v>
-      </c>
-      <c r="D59" t="str">
-        <v>6596d62461f4a300081b28cb</v>
-      </c>
-      <c r="E59" s="1">
-        <v>45337.692020381946</v>
-      </c>
-    </row>
-    <row r="60" xml:space="preserve">
-      <c r="A60" t="str">
-        <v>Jesus Ordoñez</v>
-      </c>
-      <c r="B60" t="str">
-        <v>instagram</v>
-      </c>
-      <c r="C60" t="str" xml:space="preserve">
         <v xml:space="preserve">15/2/2024, 16:40:52 - Jesus Ordoñez: Hola
 15/2/2024, 16:40:53 - MegaBot: ¡Hola Jesus Ordoñez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀
 15/2/2024, 16:40:58 - Jesus Ordoñez: Hola
 15/2/2024, 16:40:58 - MegaBot: ¡Hola! Bienvenido a Megamoto. ¿En qué puedo ayudarte hoy?</v>
       </c>
+      <c r="D59" t="str">
+        <v>65ce68c0fc58f500088acd61</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45337.69450109954</v>
+      </c>
+    </row>
+    <row r="60" xml:space="preserve">
+      <c r="A60" t="str">
+        <v>Yesica Romano Sza Comidas</v>
+      </c>
+      <c r="B60" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C60" t="str" xml:space="preserve">
+        <v xml:space="preserve">15/2/2024, 16:49:12 - Yesica Romano Sza Comidas: ¡Hola! Podrías darme más información de...
+15/2/2024, 16:49:12 - MegaBot: ¡Hola Yesica Romano Sza Comidas! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀</v>
+      </c>
       <c r="D60" t="str">
-        <v>65ce68c0fc58f500088acd61</v>
+        <v>65ce6ab3ff18f9000838116f</v>
       </c>
       <c r="E60" s="1">
-        <v>45337.69450109954</v>
+        <v>45337.700281921294</v>
       </c>
     </row>
     <row r="61" xml:space="preserve">
       <c r="A61" t="str">
-        <v>Yesica Romano Sza Comidas</v>
+        <v>Leticia Alvarez</v>
       </c>
       <c r="B61" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C61" t="str" xml:space="preserve">
-        <v xml:space="preserve">15/2/2024, 16:49:12 - Yesica Romano Sza Comidas: ¡Hola! Podrías darme más información de...
-15/2/2024, 16:49:12 - MegaBot: ¡Hola Yesica Romano Sza Comidas! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a encontrar tu moto y agilizar la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres comencemos por saber que moto estas buscando? 😀</v>
-      </c>
-      <c r="D61" t="str">
-        <v>65ce6ab3ff18f9000838116f</v>
-      </c>
-      <c r="E61" s="1">
-        <v>45337.700281921294</v>
-      </c>
-    </row>
-    <row r="62" xml:space="preserve">
-      <c r="A62" t="str">
-        <v>Leticia Alvarez</v>
-      </c>
-      <c r="B62" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C62" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 9:21:48 - Leticia Alvarez: ¡Hola! Podrías darme más información de...hola de donde son
 16/2/2024, 9:21:49 - MegaBot: ¡Hola Leticia Alvarez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comenzamos por saber que moto estas buscando? 😀
 16/2/2024, 9:22:55 - Leticia Alvarez: 110
@@ -1906,100 +1882,100 @@
 16/2/2024, 9:24:08 - MegaBot: ¡Entendido! ¿Estás interesado en algún modelo de moto en particular o quieres conocer los métodos de pago disponibles en Megamoto? ¡Estoy aquí para ayudarte!
 16/2/2024, 11:01:08 - Vendedor Megamoto: Hola Leticia mi nombre es Joana Alvarez soy asesora comercial de Megamoto !!</v>
       </c>
-      <c r="D62" t="str">
+      <c r="D61" t="str">
         <v>65cf5357f0a94a0008554c4e</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E61" s="1">
         <v>45338.38959908565</v>
       </c>
     </row>
-    <row r="63" xml:space="preserve">
-      <c r="A63" t="str">
+    <row r="62" xml:space="preserve">
+      <c r="A62" t="str">
         <v>Amanda</v>
       </c>
-      <c r="B63" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C63" t="str" xml:space="preserve">
+      <c r="B62" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C62" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 9:36:23 - Amanda: ¡Hola! Podrías darme más información de...
 16/2/2024, 9:36:23 - MegaBot: ¡Hola Amanda! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comenzamos por saber que moto estas buscando? 😀
 16/2/2024, 9:36:54 - Amanda: De donde son
 16/2/2024, 9:36:55 - MegaBot: ¡Hola! Soy MegaBot, un experto asistente de ventas de Megamoto. Mi especialidad es brindar información sobre motos, repuestos, accesorios y servicios de postventa de Megamoto en Argentina. Si necesitas conocer más detalles sobre nuestros productos o servicios, ¡estaré encantado de ayudarte!</v>
       </c>
-      <c r="D63" t="str">
+      <c r="D62" t="str">
         <v>65cf56c360f38c0008368a50</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E62" s="1">
         <v>45338.39971326389</v>
       </c>
     </row>
-    <row r="64" xml:space="preserve">
-      <c r="A64" t="str">
+    <row r="63" xml:space="preserve">
+      <c r="A63" t="str">
         <v>Бог Верен</v>
       </c>
-      <c r="B64" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C64" t="str" xml:space="preserve">
+      <c r="B63" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C63" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 9:44:05 - Бог Верен: Hola, tengo algunas preguntas sobre Motomel Skua 125 Xtreme- Mejor Contado - Ant. + Financiada!. https://moto.mercadolibre.com.ar/MLA-1518305488-motomel-skua-125-xtreme-mejor-contado-ant-financiada-_JM?u=NTg5MzA4NjI=
 16/2/2024, 9:44:05 - MegaBot: ¡Hola Бог Верен! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comenzamos por saber que moto estas buscando? 😀
 16/2/2024, 10:13:52 - Бог Верен: San Martin
 16/2/2024, 10:13:52 - MegaBot: ¡Hola! ¿Te interesa adquirir una moto de Megamoto? ¿Podrías indicarme el modelo de moto que te interesa?
 16/2/2024, 10:16:22 - Vendedor Megamoto: Perdón contesta automático 😞 </v>
       </c>
-      <c r="D64" t="str">
+      <c r="D63" t="str">
         <v>65cf5891b2d37f000845ca24</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E63" s="1">
         <v>45338.40506376157</v>
       </c>
     </row>
-    <row r="65" xml:space="preserve">
-      <c r="A65" t="str">
+    <row r="64" xml:space="preserve">
+      <c r="A64" t="str">
         <v>Laposadasbenitez1965</v>
       </c>
-      <c r="B65" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C65" t="str" xml:space="preserve">
+      <c r="B64" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C64" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 9:51:14 - Laposadasbenitez1965: ¡Hola! Podrías darme más información de...
 16/2/2024, 9:51:15 - MegaBot: ¡Hola Laposadasbenitez1965! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comenzamos por saber que moto estas buscando? 😀
 16/2/2024, 11:43:51 - Vendedor Megamoto: Hola cómo estás buen día!! </v>
       </c>
-      <c r="D65" t="str">
+      <c r="D64" t="str">
         <v>65cf5a3e74975d00088f09c4</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E64" s="1">
         <v>45338.41003085648</v>
       </c>
     </row>
-    <row r="66" xml:space="preserve">
-      <c r="A66" t="str">
+    <row r="65" xml:space="preserve">
+      <c r="A65" t="str">
         <v>Jlvq</v>
       </c>
-      <c r="B66" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C66" t="str" xml:space="preserve">
+      <c r="B65" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C65" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 10:51:02 - Jlvq: ¡Hola! Podrías darme más información de...bennelli en 12 cuotas
 16/2/2024, 10:51:02 - MegaBot: ¡Hola Jlvq! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
 16/2/2024, 11:27:07 - Vendedor Megamoto: Hola cómo estás buen día!! </v>
       </c>
-      <c r="D66" t="str">
+      <c r="D65" t="str">
         <v>65cf6842bfe8d1000839cfda</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E65" s="1">
         <v>45338.451558981484</v>
       </c>
     </row>
-    <row r="67" xml:space="preserve">
-      <c r="A67" t="str">
+    <row r="66" xml:space="preserve">
+      <c r="A66" t="str">
         <v>Kaloame01@gmail.com</v>
       </c>
-      <c r="B67" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C67" t="str" xml:space="preserve">
+      <c r="B66" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C66" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 10:53:10 - Kaloame01@gmail.com: ¡Hola! Podrías darme más información de...
 16/2/2024, 10:53:10 - MegaBot: ¡Hola Kaloame01@gmail.com! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
 16/2/2024, 10:54:06 - Kaloame01@gmail.com: Una que sea 250
@@ -2014,21 +1990,21 @@
 16/2/2024, 10:55:53 - MegaBot: Gracias por tu número de documento. Un vendedor se encargará de verificar si calificas para el préstamo. En breve, serás contactado por uno de nuestros representantes para continuar con el proceso de compra. ¡Gracias por elegir Megamoto!
 16/2/2024, 11:17:55 - Vendedor Megamoto: Hola buen día te hablé de mi WhatsApp!! 😘</v>
       </c>
-      <c r="D67" t="str">
+      <c r="D66" t="str">
         <v>65cf68c3b6fe84000918fda5</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E66" s="1">
         <v>45338.45303872685</v>
       </c>
     </row>
-    <row r="68" xml:space="preserve">
-      <c r="A68" t="str">
+    <row r="67" xml:space="preserve">
+      <c r="A67" t="str">
         <v>Maru Sanchez</v>
       </c>
-      <c r="B68" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C68" t="str" xml:space="preserve">
+      <c r="B67" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C67" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 10:54:14 - Maru Sanchez: ¡Hola! Podrías darme más información de...me pasarías precio de una 110 la más económica al contado + gasto de patentamiento. Y sí estan en Pilar o cerca de acá. Gracias
 16/2/2024, 10:54:15 - MegaBot: ¡Hola Maru Sanchez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
 16/2/2024, 10:54:55 - Maru Sanchez: Sí
@@ -2039,21 +2015,21 @@
 16/2/2024, 10:56:01 - MegaBot: ¡Entendido! En breve te contactará un vendedor para coordinar la compra de la Blitz 110 V8 START de Motomel al contado. ¡Gracias por tu consulta en Megamoto!
 16/2/2024, 11:16:05 - Vendedor Megamoto: Hola soy Nahir te hablé de mi WhatsApp!!</v>
       </c>
-      <c r="D68" t="str">
+      <c r="D67" t="str">
         <v>65cf690344aebd0008b15262</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E67" s="1">
         <v>45338.453782627315</v>
       </c>
     </row>
-    <row r="69" xml:space="preserve">
-      <c r="A69" t="str">
+    <row r="68" xml:space="preserve">
+      <c r="A68" t="str">
         <v>Cristian</v>
       </c>
-      <c r="B69" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C69" t="str" xml:space="preserve">
+      <c r="B68" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C68" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 11:00:12 - Cristian: Skua  150
 16/2/2024, 11:00:12 - MegaBot: ¡Hola Cristian! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
 16/2/2024, 11:01:59 - Cristian: Una skua  150
@@ -2066,21 +2042,21 @@
 16/2/2024, 11:03:23 - Cristian: 35992045
 16/2/2024, 11:03:23 - MegaBot: Gracias por proporcionar tu DNI. Un vendedor se pondrá en contacto contigo para coordinar la compra de la Skua 150 en efectivo. ¡Pronto recibirás noticias de ellos! ¿Hay algo más en lo que pueda ayudarte en este momento?</v>
       </c>
-      <c r="D69" t="str">
+      <c r="D68" t="str">
         <v>65cf652058158a0008e8925a</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E68" s="1">
         <v>45338.4579256713</v>
       </c>
     </row>
-    <row r="70" xml:space="preserve">
-      <c r="A70" t="str">
+    <row r="69" xml:space="preserve">
+      <c r="A69" t="str">
         <v>Dattoli😎</v>
       </c>
-      <c r="B70" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C70" t="str" xml:space="preserve">
+      <c r="B69" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C69" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 11:21:44 - Dattoli😎: Tendrás catalogo?
 16/2/2024, 11:21:44 - MegaBot: ¡Hola Dattoli😎! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
 16/2/2024, 11:21:58 - Dattoli😎: Andaba buscando una 110 económica
@@ -2093,40 +2069,40 @@
 16/2/2024, 11:23:26 - MegaBot: Gracias por brindarme tu DNI. Un vendedor de Megamoto se comunicará contigo a la brevedad para informarte sobre las opciones de financiación disponibles para la BLITZ 110 V8 START. ¡Gracias por tu interés en nuestros productos!
 16/2/2024, 11:23:59 - Vendedor Megamoto: Hola soy Nahir ahora te escribo de mi WhatsApp!! </v>
       </c>
-      <c r="D70" t="str">
+      <c r="D69" t="str">
         <v>65cf36ef9b3e4f000862d47c</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E69" s="1">
         <v>45338.47287305556</v>
       </c>
     </row>
-    <row r="71" xml:space="preserve">
-      <c r="A71" t="str">
+    <row r="70" xml:space="preserve">
+      <c r="A70" t="str">
         <v>Alee</v>
       </c>
-      <c r="B71" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C71" t="str" xml:space="preserve">
+      <c r="B70" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C70" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 11:33:34 - Alee: Hola busco la Gilera gx1 125
 16/2/2024, 11:33:34 - MegaBot: ¡Hola Alee! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
 16/2/2024, 11:35:59 - Vendedor Megamoto: Trabajamos con Motomel y Suzuki! </v>
       </c>
-      <c r="D71" t="str">
+      <c r="D70" t="str">
         <v>65ced5922029880008c72a92</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E70" s="1">
         <v>45338.4810937963</v>
       </c>
     </row>
-    <row r="72" xml:space="preserve">
-      <c r="A72" t="str">
+    <row r="71" xml:space="preserve">
+      <c r="A71" t="str">
         <v>Ramón</v>
       </c>
-      <c r="B72" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C72" t="str" xml:space="preserve">
+      <c r="B71" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C71" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 11:34:50 - Ramón: Motomel 150
 16/2/2024, 11:34:51 - MegaBot: ¡Hola Ramón! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
 16/2/2024, 11:35:01 - Ramón: Calle
@@ -2134,40 +2110,40 @@
 16/2/2024, 11:36:21 - Ramón: Financiada
 16/2/2024, 11:36:21 - MegaBot: Perfecto, para avanzar necesitaré que me brindes tu número de DNI, ya que al pagar con financiación es necesario verificar algunos requisitos. Una vez que me proporciones esta información, un vendedor se comunicará contigo para seguir con el proceso. ¡Gracias!</v>
       </c>
-      <c r="D72" t="str">
+      <c r="D71" t="str">
         <v>65cf4066489e230008acf51d</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E71" s="1">
         <v>45338.48197916667</v>
       </c>
     </row>
-    <row r="73" xml:space="preserve">
-      <c r="A73" t="str">
+    <row r="72" xml:space="preserve">
+      <c r="A72" t="str">
         <v>Bostero 100% 🔵🟡🔵</v>
       </c>
-      <c r="B73" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C73" t="str" xml:space="preserve">
+      <c r="B72" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C72" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 11:53:04 - Bostero 100% 🔵🟡🔵: Q modelos tienen
 16/2/2024, 11:53:05 - MegaBot: ¡Hola Bostero 100% 🔵🟡🔵! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
 16/2/2024, 11:53:25 - Vendedor Megamoto: Te hablo de mi WhatsApp!! </v>
       </c>
-      <c r="D73" t="str">
+      <c r="D72" t="str">
         <v>65ced60613cf5000085c9167</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E72" s="1">
         <v>45338.49463984954</v>
       </c>
     </row>
-    <row r="74" xml:space="preserve">
-      <c r="A74" t="str">
+    <row r="73" xml:space="preserve">
+      <c r="A73" t="str">
         <v>Guille Russo</v>
       </c>
-      <c r="B74" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C74" t="str" xml:space="preserve">
+      <c r="B73" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C73" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 11:57:28 - Guille Russo: Hola buen día como están
 16/2/2024, 11:57:28 - MegaBot: ¡Hola Guille Russo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
 16/2/2024, 11:57:35 - Guille Russo: Te hago una consulta
@@ -2178,41 +2154,41 @@
 16/2/2024, 11:58:23 - MegaBot: En Megamoto nos especializamos en comercializar las marcas Benelli, Suzuki, Motomel, Keeway y Sym. Si estás interesado en conocer los modelos disponibles de estas marcas, ¡estoy aquí para ayudarte! ¿Te gustaría saber más sobre alguno en particular?
 16/2/2024, 13:07:22 - Vendedor Megamoto: Hola cómo estás! Guille </v>
       </c>
-      <c r="D74" t="str">
+      <c r="D73" t="str">
         <v>65cf77d46665540008aad57c</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E73" s="1">
         <v>45338.49769019676</v>
       </c>
     </row>
-    <row r="75" xml:space="preserve">
-      <c r="A75" t="str">
+    <row r="74" xml:space="preserve">
+      <c r="A74" t="str">
         <v>Lauty😎😎</v>
       </c>
-      <c r="B75" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C75" t="str" xml:space="preserve">
+      <c r="B74" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C74" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 12:06:01 - Lauty😎😎: 46.756.916
 Lautaro emanuel cabrera
 16/2/2024, 12:06:01 - MegaBot: ¡Hola Lauty😎😎! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
 16/2/2024, 12:06:48 - Vendedor Megamoto: Te escribo de mi WhatsApp! </v>
       </c>
-      <c r="D75" t="str">
+      <c r="D74" t="str">
         <v>65cf3eae3453de000849dbdb</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E74" s="1">
         <v>45338.50362563657</v>
       </c>
     </row>
-    <row r="76" xml:space="preserve">
-      <c r="A76" t="str">
+    <row r="75" xml:space="preserve">
+      <c r="A75" t="str">
         <v>Rosana</v>
       </c>
-      <c r="B76" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C76" t="str" xml:space="preserve">
+      <c r="B75" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C75" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 12:08:25 - Rosana: ¡Hola! Podrías darme más información de...
 16/2/2024, 12:08:26 - MegaBot: ¡Hola Rosana! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
 16/2/2024, 12:14:46 - Rosana: Qué marcas tienen en 110c?
@@ -2226,58 +2202,58 @@
 16/2/2024, 12:21:50 - Rosana: No Gracias
 16/2/2024, 12:21:51 - MegaBot: Entiendo, ¡gracias por tu interés! Si en el futuro necesitas más información o tienes alguna otra consulta relacionada con motos, ¡no dudes en contactarnos! ¡Que tengas un excelente día!</v>
       </c>
-      <c r="D76" t="str">
+      <c r="D75" t="str">
         <v>65cf7a66a31f6500084d3fcd</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E75" s="1">
         <v>45338.5053002662</v>
       </c>
     </row>
-    <row r="77" xml:space="preserve">
-      <c r="A77" t="str">
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str">
         <v>Cristian Gelvez</v>
       </c>
-      <c r="B77" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C77" t="str" xml:space="preserve">
+      <c r="B76" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C76" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 12:12:19 - Cristian Gelvez: Cilindrada 200 o 250
 16/2/2024, 12:12:19 - MegaBot: ¡Hola Cristian Gelvez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
 16/2/2024, 13:05:24 - Vendedor Megamoto: Ahora te hablo de mi WhatsApp! </v>
       </c>
+      <c r="D76" t="str">
+        <v>65cf133865128100080b971f</v>
+      </c>
+      <c r="E76" s="1">
+        <v>45338.50800417824</v>
+      </c>
+    </row>
+    <row r="77" xml:space="preserve">
+      <c r="A77" t="str">
+        <v>Facundozelaya329</v>
+      </c>
+      <c r="B77" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C77" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 12:13:17 - Facundozelaya329: Rouser na 200 o 110
+16/2/2024, 12:13:17 - MegaBot: ¡Hola Facundozelaya329! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀</v>
+      </c>
       <c r="D77" t="str">
-        <v>65cf133865128100080b971f</v>
+        <v>65cf638187df0c0008d7979b</v>
       </c>
       <c r="E77" s="1">
-        <v>45338.50800417824</v>
+        <v>45338.50867591435</v>
       </c>
     </row>
     <row r="78" xml:space="preserve">
       <c r="A78" t="str">
-        <v>Facundozelaya329</v>
+        <v>Mojita♡</v>
       </c>
       <c r="B78" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C78" t="str" xml:space="preserve">
-        <v xml:space="preserve">16/2/2024, 12:13:17 - Facundozelaya329: Rouser na 200 o 110
-16/2/2024, 12:13:17 - MegaBot: ¡Hola Facundozelaya329! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀</v>
-      </c>
-      <c r="D78" t="str">
-        <v>65cf638187df0c0008d7979b</v>
-      </c>
-      <c r="E78" s="1">
-        <v>45338.50867591435</v>
-      </c>
-    </row>
-    <row r="79" xml:space="preserve">
-      <c r="A79" t="str">
-        <v>Mojita♡</v>
-      </c>
-      <c r="B79" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C79" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 12:15:48 - Mojita♡: ¡Hola! Podrías darme más información de motos
 16/2/2024, 12:15:49 - MegaBot: ¡Hola Mojita♡! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
 16/2/2024, 12:19:12 - Mojita♡: Ninguna en específico  sería la más económica
@@ -2285,58 +2261,1043 @@
 16/2/2024, 12:21:00 - Mojita♡: Tenes catalogo ?me pasa así veo
 16/2/2024, 12:21:00 - MegaBot: Lamentablemente no puedo enviarte el catálogo directamente por este medio. Pero puedes visitar nuestro sitio web en https://www.megamoto.com.ar/ para ver una amplia variedad de modelos disponibles. Si te interesa algún modelo en particular o necesitas más información sobre alguno, házmelo saber y con gusto te ayudaré. ¿Hay algún modelo en específico que te interese?</v>
       </c>
-      <c r="D79" t="str">
+      <c r="D78" t="str">
         <v>65cf7c218d74340009f6950d</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E78" s="1">
         <v>45338.51042662037</v>
       </c>
     </row>
-    <row r="80" xml:space="preserve">
-      <c r="A80" t="str">
+    <row r="79" xml:space="preserve">
+      <c r="A79" t="str">
         <v>Cristian</v>
       </c>
-      <c r="B80" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C80" t="str" xml:space="preserve">
+      <c r="B79" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C79" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 13:13:33 - Cristian: Hola buen día
 16/2/2024, 13:13:34 - MegaBot: ¡Hola Cristian! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
 16/2/2024, 13:13:44 - Cristian: Tendrás catalogo
 16/2/2024, 13:13:44 - MegaBot: ¡Hola! ¡Bienvenido a Megamoto! Sí, tenemos una amplia variedad de motos en nuestro catálogo. ¿Estás interesado en algún modelo en particular?
 16/2/2024, 13:13:56 - Vendedor Megamoto: No tengo catálogos! </v>
       </c>
-      <c r="D80" t="str">
+      <c r="D79" t="str">
         <v>65cee56f87219700085a16fd</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E79" s="1">
         <v>45338.55053197917</v>
       </c>
     </row>
-    <row r="81" xml:space="preserve">
-      <c r="A81" t="str">
+    <row r="80" xml:space="preserve">
+      <c r="A80" t="str">
         <v>El Turquito</v>
       </c>
-      <c r="B81" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C81" t="str" xml:space="preserve">
+      <c r="B80" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C80" t="str" xml:space="preserve">
         <v xml:space="preserve">16/2/2024, 14:19:36 - El Turquito: No contado
 16/2/2024, 14:19:37 - MegaBot: ¡Hola El Turquito! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
 16/2/2024, 14:20:11 - El Turquito: Ducatti 180
 16/2/2024, 14:20:11 - MegaBot: ¡Hola! En Megamoto no trabajamos con la marca Ducati, pero contamos con una amplia variedad de motos de otras marcas como Benelli, Suzuki, Motomel, Keeway y Sym. ¿Puedo ayudarte con alguna de esas marcas en particular?
 16/2/2024, 14:20:38 - Vendedor Megamoto: Disculpa te hablo desde mi WhatsApp porque están probando el bot ! </v>
       </c>
+      <c r="D80" t="str">
+        <v>65cf8e0ec328010008e301c8</v>
+      </c>
+      <c r="E80" s="1">
+        <v>45338.59639936343</v>
+      </c>
+    </row>
+    <row r="81" xml:space="preserve">
+      <c r="A81" t="str">
+        <v>Alejandro Torres</v>
+      </c>
+      <c r="B81" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C81" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 16:23:22 - Alejandro Torres: Motomel Skua
+16/2/2024, 16:23:23 - MegaBot: ¡Hola Alejandro Torres! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 16:23:38 - Alejandro Torres: Disculpa contesté tarde xq estaba con pedidos
+16/2/2024, 16:23:38 - MegaBot: ¡No hay problema! Cuando puedas, por favor, indicame el método de pago que te interesa para la Motomel Skua. ¿Pagarás en efectivo, con tarjeta de crédito, préstamo o una combinación de estos métodos? ¡Gracias!
+16/2/2024, 16:41:39 - Vendedor Megamoto: no hay problema, en que localidad tenes domicilio? asi te paso precio con patentamiento </v>
+      </c>
       <c r="D81" t="str">
-        <v>65cf8e0ec328010008e301c8</v>
+        <v>65cf9126d01a8500086a549b</v>
       </c>
       <c r="E81" s="1">
-        <v>45338.59639936343</v>
+        <v>45338.6823487037</v>
+      </c>
+    </row>
+    <row r="82" xml:space="preserve">
+      <c r="A82" t="str">
+        <v>Nico23</v>
+      </c>
+      <c r="B82" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C82" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 16:31:17 - Nico23: 3 de febrero
+16/2/2024, 16:31:18 - MegaBot: ¡Hola Nico23! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D82" t="str">
+        <v>65cf8ff6cbae1b00084c7c86</v>
+      </c>
+      <c r="E82" s="1">
+        <v>45338.6878465625</v>
+      </c>
+    </row>
+    <row r="83" xml:space="preserve">
+      <c r="A83" t="str">
+        <v>Ivar Nieto</v>
+      </c>
+      <c r="B83" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C83" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 16:31:23 - Ivar Nieto: ¡Hola! Me gustaría conseguir más información sobre esto.
+16/2/2024, 16:31:23 - MegaBot: ¡Hola Ivar Nieto! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 16:33:32 - Vendedor Megamoto: Hola cómo estás buenas tardes!</v>
+      </c>
+      <c r="D83" t="str">
+        <v>65cfb80703867300081f9a2e</v>
+      </c>
+      <c r="E83" s="1">
+        <v>45338.687907314816</v>
+      </c>
+    </row>
+    <row r="84" xml:space="preserve">
+      <c r="A84" t="str">
+        <v>Lautaro Nicolas</v>
+      </c>
+      <c r="B84" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C84" t="str" xml:space="preserve">
+        <v xml:space="preserve">16/2/2024, 16:38:23 - Lautaro Nicolas: Algún 110
+16/2/2024, 16:38:23 - MegaBot: ¡Hola Lautaro Nicolas! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+16/2/2024, 16:38:59 - Vendedor Megamoto: Bien de dónde sos?</v>
+      </c>
+      <c r="D84" t="str">
+        <v>65ced9e0cafa04000835e2c1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>45338.69277090278</v>
+      </c>
+    </row>
+    <row r="85" xml:space="preserve">
+      <c r="A85" t="str">
+        <v>Gustavo Gomez Villafañe</v>
+      </c>
+      <c r="B85" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C85" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 7:12:42 - Gustavo Gomez Villafañe: hola
+17/2/2024, 7:12:42 - MegaBot: ¡Hola Gustavo Gomez Villafañe! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Mi objetivo es ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 11:02:10 - Gustavo Gomez Villafañe: hacen envíos?
+17/2/2024, 11:02:10 - MegaBot: ¡Hola! Sí, realizamos envíos al interior del país. Para más detalles sobre la metodología y costos asociados, un vendedor estará encantado de ayudarte. ¿En qué podemos asistirte hoy en relación a la compra de una moto en Megamoto?</v>
+      </c>
+      <c r="D85" t="str">
+        <v>6596d62461f4a300081b28cb</v>
+      </c>
+      <c r="E85" s="1">
+        <v>45339.29993548611</v>
+      </c>
+    </row>
+    <row r="86" xml:space="preserve">
+      <c r="A86" t="str">
+        <v>Hector</v>
+      </c>
+      <c r="B86" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C86" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 8:09:44 - Hector: ¡Hola! Podrías darme más información de...
+17/2/2024, 8:09:45 - MegaBot: ¡Hola Hector! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 17:04:28 - Vendedor Megamoto: Hacemos envios ! </v>
+      </c>
+      <c r="D86" t="str">
+        <v>65d093f4afc854000841ceb5</v>
+      </c>
+      <c r="E86" s="1">
+        <v>45339.33954741898</v>
+      </c>
+    </row>
+    <row r="87" xml:space="preserve">
+      <c r="A87" t="str">
+        <v>Nestor Arguello</v>
+      </c>
+      <c r="B87" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C87" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 11:12:32 - Nestor Arguello: ¡Hola! Que tal
+17/2/2024, 11:12:32 - MegaBot: ¡Hola Nestor Arguello! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 11:13:48 - Nestor Arguello: Hola que precio está la Motomel s2
+17/2/2024, 11:13:49 - MegaBot: El precio de la Motomel S2 es de 1.480.676 pesos e incluye patentamiento. No incluye el impuesto a los sellos de CABA y el mismo es a confirmar con un vendedor. ¿Cómo te gustaría pagar tu compra?
+17/2/2024, 11:14:49 - Nestor Arguello: Ese es el precio de la full?
+17/2/2024, 11:14:50 - MegaBot: El precio que te mencioné es para la Motomel CG 150 S2 FULL (aleac / disco). Si estás interesado en otras versiones o modelos, puedo proporcionarte información específica. ¿Cómo te gustaría pagar tu compra?
+17/2/2024, 11:17:01 - Nestor Arguello: Y puedo financiar $450 mil en 3 cuotas sin interés yo tengo Santander
+17/2/2024, 11:17:01 - MegaBot: Claro, ofrecemos financiación a través de diferentes entidades bancarias, entre ellas Santander. Para evaluar si calificas para financiar $450 mil en 3 cuotas sin interés, necesitaríamos que un vendedor realice la verificación correspondiente. ¿Podrías proporcionarme tu número de DNI para que podamos ponernos en contacto contigo y coordinar la verificación de tu perfil crediticio?
+17/2/2024, 11:17:51 - Nestor Arguello: Si
+17/2/2024, 11:17:51 - MegaBot: Perfecto, por favor, podrías brindarme tu número de DNI para poder iniciar el proceso de verificación de tu perfil crediticio con Santander. Un vendedor se comunicará contigo a la brevedad para continuar con el proceso de financiación. ¡Gracias por tu colaboración!
+17/2/2024, 11:17:58 - Nestor Arguello: 43239376
+17/2/2024, 11:17:58 - MegaBot: ¡Gracias por proporcionar tu número de DNI! Un vendedor de Megamoto se comunicará contigo para continuar con el proceso de verificación de tu perfil crediticio con Santander. En breve estarás recibiendo su contacto. ¿Hay algo más en lo que pueda ayudarte hoy?
+17/2/2024, 11:18:58 - Nestor Arguello: No gracias
+17/2/2024, 11:18:58 - MegaBot: ¡Perfecto! Si necesitas ayuda en el futuro o tienes alguna otra consulta, no dudes en contactarnos. ¡Que tengas un excelente día y gracias por pensar en Megamoto!
+17/2/2024, 11:46:40 - Nestor Arguello: Dónde queda la sucursal?
+17/2/2024, 11:46:41 - MegaBot: ¡Hola! La sucursal de Megamoto en Buenos Aires se encuentra ubicada en avenida Corrientes 3400 (frente al Abasto). El horario de atención es de lunes a viernes de 9 a 19 horas y los sábados de 9 a 13 horas. Si necesitas más detalles o tienes alguna otra pregunta relacionada con Megamoto, ¡estoy aquí para ayudarte!
+17/2/2024, 14:04:44 - Nestor Arguello: Hola que tal
+17/2/2024, 14:04:44 - MegaBot: ¡Hola! ¿Cómo puedo ayudarte hoy en Megamoto?
+17/2/2024, 14:04:50 - Nestor Arguello: Si
+17/2/2024, 14:04:50 - MegaBot: Perfecto. ¿Podrías indicarme cuál es el modelo de moto que te interesa de nuestra amplia gama de productos? ¡Estoy aquí para asistirte en tu elección!
+17/2/2024, 14:04:56 - Nestor Arguello: 43239376
+17/2/2024, 14:04:56 - MegaBot: Entiendo que proporcionaste tu número de DNI anteriormente. ¿Podrías confirmarme cuál es el modelo de moto que te interesa en Megamoto? ¡Estoy aquí para ayudarte con esa información!
+17/2/2024, 14:05:22 - Nestor Arguello: Motomel s2 150
+17/2/2024, 14:05:23 - MegaBot: Excelente elección. El precio de la Motomel CG 150 S2 es de 1.480.676 pesos e incluye el patentamiento. Si estás interesado en conocer más sobre las opciones de pago o financiación, házmelo saber. ¿Cómo te gustaría abonar tu compra?
+17/2/2024, 14:06:23 - Vendedor Megamoto: Te hablé de mi WhatsApp ! </v>
+      </c>
+      <c r="D87" t="str">
+        <v>65d0beccbc79cd0008d9fb6a</v>
+      </c>
+      <c r="E87" s="1">
+        <v>45339.46648638889</v>
+      </c>
+    </row>
+    <row r="88" xml:space="preserve">
+      <c r="A88" t="str">
+        <v>❤️</v>
+      </c>
+      <c r="B88" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C88" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 11:13:47 - ❤️: ¡Hola! Podrías darme más información de...
+17/2/2024, 11:13:47 - MegaBot: ¡Hola ❤️! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 11:14:19 - ❤️: Hola
+17/2/2024, 11:14:20 - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy en Megamoto?
+17/2/2024, 15:11:37 - Vendedor Megamoto: Si es la tnt15 querés que te pase fotos?</v>
+      </c>
+      <c r="D88" t="str">
+        <v>65d0bf18244877000800830f</v>
+      </c>
+      <c r="E88" s="1">
+        <v>45339.46735748843</v>
+      </c>
+    </row>
+    <row r="89" xml:space="preserve">
+      <c r="A89" t="str">
+        <v>Fany</v>
+      </c>
+      <c r="B89" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C89" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 11:19:02 - Fany: ¡Hola! Podrías darme más información de...me pasas el moto de las cuotas 3 y q requisito
+17/2/2024, 11:19:02 - MegaBot: ¡Hola Fany! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 15:16:09 - Vendedor Megamoto: Ok , te puedo ofrecer la s2</v>
+      </c>
+      <c r="D89" t="str">
+        <v>65d0c05220604d0008747597</v>
+      </c>
+      <c r="E89" s="1">
+        <v>45339.47099793982</v>
+      </c>
+    </row>
+    <row r="90" xml:space="preserve">
+      <c r="A90" t="str">
+        <v>Moncho</v>
+      </c>
+      <c r="B90" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C90" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 13:12:50 - Moncho: ¡Hola! Podrías darme más información de...
+17/2/2024, 13:12:50 - MegaBot: ¡Hola Moncho! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 13:13:38 - Moncho: Vi esto en Facebook...
+17/2/2024, 13:13:38 - MegaBot: ¡Hola! Soy MegaBot, un asistente de ventas de Megamoto. ¿En qué puedo ayudarte hoy relacionado con nuestras motos, repuestos, accesorios o servicios de postventa?
+17/2/2024, 13:14:12 - Moncho: Direccion
+17/2/2024, 13:14:12 - MegaBot: ¡Claro! Megamoto tiene dos ubicaciones:
+1. En Merlo sobre avenida Calle Real 51 (ex.Gobernador Vergara) de lunes a sábados de 10 a 19 horas.
+2. En CABA en avenida Corrientes 3400 (frente al Abasto) de lunes a viernes de 9 a 19 horas y sábados de 9 a 13 horas.
+¿En cuál de nuestras sucursales te gustaría visitarnos?
+17/2/2024, 13:14:46 - Moncho: Si
+17/2/2024, 13:14:47 - MegaBot: ¡Perfecto! ¿Estás interesado en algún modelo de moto en particular? Te puedo ayudar a elegir la mejor opción para ti.
+17/2/2024, 14:05:34 - Vendedor Megamoto: Hola cómo estás mi nombre es Nahir! </v>
+      </c>
+      <c r="D90" t="str">
+        <v>65d0dafd695a5f00081470db</v>
+      </c>
+      <c r="E90" s="1">
+        <v>45339.55003121528</v>
+      </c>
+    </row>
+    <row r="91" xml:space="preserve">
+      <c r="A91" t="str">
+        <v>Javier</v>
+      </c>
+      <c r="B91" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C91" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 14:10:43 - Javier: ¡Hola! Podrías darme más información de...
+17/2/2024, 14:10:43 - MegaBot: ¡Hola Javier! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 14:11:25 - Javier: La tunin 110
+17/2/2024, 14:11:25 - MegaBot: Disculpa, ¿te refieres a la Blitz 110 V8 Tunning New de Motomel?
+17/2/2024, 14:11:54 - Javier: Si esa
+17/2/2024, 14:11:54 - MegaBot: La Blitz 110 V8 Tunning New de Motomel tiene un precio de $1.197.087. ¿Estás interesado en saber más sobre esta moto?
+17/2/2024, 14:12:18 - Javier: Precio y fotos
+17/2/2024, 14:12:18 - MegaBot: El precio de la Blitz 110 V8 Tunning New de Motomel es de $1.197.087, el cual incluye patentamiento pero no incluye el impuesto a los sellos de CABA. Puedes ver fotos de la moto en nuestra página web: https://www.megamoto.com.ar/. ¿Cómo te gustaría pagar por la moto?
+17/2/2024, 14:12:26 - Javier: Si estoy interesado
+17/2/2024, 14:12:26 - MegaBot: Perfecto, ¿podrías indicarme cómo te gustaría realizar el pago por la Blitz 110 V8 Tunning New? Puedes elegir entre efectivo, tarjeta de crédito, préstamo u otra forma de pago que prefieras.
+17/2/2024, 14:13:18 - Javier: Efectivo
+17/2/2024, 14:13:18 - MegaBot: ¡Perfecto! Gracias por la información. En breve serás contactado por uno de nuestros vendedores para continuar con la compra de la Blitz 110 V8 Tunning New de Motomel con pago en efectivo. ¿Hay algo más en lo que pueda ayudarte?
+17/2/2024, 14:15:45 - Javier: No tienen fotos de tuning
+17/2/2024, 14:15:46 - MegaBot: Lamentablemente, nuestro sistema no nos permite compartir fotos directamente. Te recomendamos visitar nuestra página web oficial, donde encontrarás imágenes detalladas de la Blitz 110 V8 Tunning New de Motomel. ¿Hay algo más en lo que pueda asistirte hoy relacionado con Megamoto?</v>
+      </c>
+      <c r="D91" t="str">
+        <v>65d0e88f04eb14000ac31dc1</v>
+      </c>
+      <c r="E91" s="1">
+        <v>45339.59022203703</v>
+      </c>
+    </row>
+    <row r="92" xml:space="preserve">
+      <c r="A92" t="str">
+        <v>Juan Carlis Soria</v>
+      </c>
+      <c r="B92" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C92" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 14:11:29 - Juan Carlis Soria: ¡Hola! Podrías darme más información de...los modelos,precios y financiación,gracias
+17/2/2024, 14:11:30 - MegaBot: ¡Hola Juan Carlis Soria! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D92" t="str">
+        <v>65d0e8be9bc7ea0009ad0839</v>
+      </c>
+      <c r="E92" s="1">
+        <v>45339.590763645836</v>
+      </c>
+    </row>
+    <row r="93" xml:space="preserve">
+      <c r="A93" t="str">
+        <v>Rodrigo</v>
+      </c>
+      <c r="B93" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C93" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 14:14:54 - Rodrigo: Una moto
+17/2/2024, 14:14:54 - MegaBot: ¡Hola Rodrigo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D93" t="str">
+        <v>65d0b15de8c86b000839bfc9</v>
+      </c>
+      <c r="E93" s="1">
+        <v>45339.59312664352</v>
+      </c>
+    </row>
+    <row r="94" xml:space="preserve">
+      <c r="A94" t="str">
+        <v>Vml</v>
+      </c>
+      <c r="B94" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C94" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 15:11:36 - Vml: Cualquiera
+17/2/2024, 15:11:36 - MegaBot: ¡Hola Vml! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 15:11:55 - Vml: Sólo quiero saber si me aceptan el plan de ahorro como parte de pago
+17/2/2024, 15:11:55 - MegaBot: ¡Hola! Para poder asesorarte correctamente, necesito que me indiques el modelo de moto en el que estás interesado. ¿Podrías proporcionarme esa información, por favor?
+17/2/2024, 15:17:38 - Vendedor Megamoto: Disculpa están probando el bot! </v>
+      </c>
+      <c r="D94" t="str">
+        <v>65d023a1ea9dda00083e93e4</v>
+      </c>
+      <c r="E94" s="1">
+        <v>45339.63250112269</v>
+      </c>
+    </row>
+    <row r="95" xml:space="preserve">
+      <c r="A95" t="str">
+        <v>Patri Ramírez 😊</v>
+      </c>
+      <c r="B95" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C95" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 15:12:41 - Patri Ramírez 😊: Que precio tiene de contado y que en financiación
+17/2/2024, 15:12:41 - MegaBot: ¡Hola Patri Ramírez 😊! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 15:13:06 - Vendedor Megamoto: Disculpa te hablo de mi WhatsApp ! Porque están probando el bot! </v>
+      </c>
+      <c r="D95" t="str">
+        <v>65d0913c9f78ad0008da1698</v>
+      </c>
+      <c r="E95" s="1">
+        <v>45339.63325329861</v>
+      </c>
+    </row>
+    <row r="96" xml:space="preserve">
+      <c r="A96" t="str">
+        <v>David Fernandez</v>
+      </c>
+      <c r="B96" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C96" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 15:29:10 - David Fernandez: ¡Hola!
+17/2/2024, 15:29:11 - MegaBot: ¡Hola David Fernandez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 15:29:37 - David Fernandez: 150
+17/2/2024, 15:29:37 - MegaBot: ¡Hola! ¿Estás consultando por el modelo de una moto de Megamoto? Por favor, si puedes ser más específico y brindar el nombre completo del modelo que te interesa.</v>
+      </c>
+      <c r="D96" t="str">
+        <v>65d03448476d23000879f378</v>
+      </c>
+      <c r="E96" s="1">
+        <v>45339.6447091088</v>
+      </c>
+    </row>
+    <row r="97" xml:space="preserve">
+      <c r="A97" t="str">
+        <v>Eder Alves</v>
+      </c>
+      <c r="B97" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C97" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 15:37:46 - Eder Alves: trk y la 502c
+17/2/2024, 15:37:46 - MegaBot: ¡Hola Eder Alves! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 15:42:18 - Vendedor Megamoto: Trk tenés 251 y la 502</v>
+      </c>
+      <c r="D97" t="str">
+        <v>65d0e625ff551500084aa52c</v>
+      </c>
+      <c r="E97" s="1">
+        <v>45339.65067386574</v>
+      </c>
+    </row>
+    <row r="98" xml:space="preserve">
+      <c r="A98" t="str">
+        <v>Patricio Julian</v>
+      </c>
+      <c r="B98" t="str">
+        <v>instagram</v>
+      </c>
+      <c r="C98" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 16:39:45 - Patricio Julian: tenia pensado en efectivo
+17/2/2024, 16:39:45 - MegaBot: ¡Hola Patricio Julian! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 16:39:51 - Patricio Julian: tenia pensado en efectivo
+17/2/2024, 16:39:52 - MegaBot: Perfecto, para continuar con tu solicitud, ¿podrías indicarme el modelo de moto en el que estás interesado dentro de las opciones que te puedo ofrecer?
+17/2/2024, 16:39:58 - Patricio Julian: en cuotas?
+17/2/2024, 16:39:58 - MegaBot: ¡Claro! Podemos ofrecerte la opción de financiamiento en cuotas. Para poder brindarte más información sobre las opciones de financiamiento disponibles, necesitaríamos tu número de DNI para que un vendedor especializado se comunique contigo y te brinde más detalles. ¿Podrías proporcionarme tu número de DNI por favor?
+17/2/2024, 16:40:04 - Patricio Julian: en cuotas?
+17/2/2024, 16:40:04 - MegaBot: Sí, podemos ofrecerte la posibilidad de financiar tu compra en cuotas. Para obtener más información sobre las diferentes opciones de financiamiento disponibles, necesitaríamos tu número de DNI para que un vendedor especializado se comunique contigo y te brinde más detalles. ¿Podrías proporcionarme tu número de DNI por favor?
+17/2/2024, 16:41:03 - Patricio Julian: 45.623.096
+17/2/2024, 16:41:03 - MegaBot: ¡Perfecto! Gracias por proporcionar tu número de DNI. En breve un vendedor de Megamoto se comunicará contigo para brindarte más detalles sobre las opciones de financiamiento disponibles y ayudarte en la elección de tu nueva moto. ¡Gracias por tu interés en Megamoto!
+17/2/2024, 16:41:10 - Patricio Julian: 45.623.096
+17/2/2024, 16:41:10 - MegaBot: Perfecto, gracias por tu número de DNI. Un vendedor se pondrá en contacto contigo para ofrecerte más detalles sobre las opciones de financiamiento disponibles. ¡Pronto estarás más cerca de tu nueva moto de Megamoto!</v>
+      </c>
+      <c r="D98" t="str">
+        <v>65d1013f90013f00088893b6</v>
+      </c>
+      <c r="E98" s="1">
+        <v>45339.69372122685</v>
+      </c>
+    </row>
+    <row r="99" xml:space="preserve">
+      <c r="A99" t="str">
+        <v>Daniiii💕💕</v>
+      </c>
+      <c r="B99" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C99" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 16:42:03 - Daniiii💕💕: Zanella 110
+17/2/2024, 16:42:03 - MegaBot: ¡Hola Daniiii💕💕! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 16:43:16 - Daniiii💕💕: Zanella 110
+17/2/2024, 16:43:16 - MegaBot: ¡Hola! En Megamoto no contamos con modelos de Zanella en nuestro stock. ¿Te interesa algún otro modelo de moto en particular?
+17/2/2024, 16:51:00 - Daniiii💕💕: Mademen los modelos que hay
+17/2/2024, 16:51:00 - MegaBot: En Megamoto manejamos una variedad de modelos de diversas marcas como Benelli, Suzuki, Motomel, Keeway y Sym. ¿Te interesa conocer los modelos disponibles de alguna de esas marcas en específico?
+17/2/2024, 16:51:06 - Daniiii💕💕: Y los precios
+17/2/2024, 16:51:06 - MegaBot: Los precios de las motos varían dependiendo del modelo y la marca. Para darte información precisa, necesitaría que me indiques específicamente el modelo de moto que te interesa. ¿Tienes algún modelo en mente para poder brindarte el precio correspondiente?
+17/2/2024, 16:51:12 - Daniiii💕💕: Y que necesito para poder sacar...
+17/2/2024, 16:51:13 - MegaBot: Para poder asistirte de manera efectiva, necesitaría que me indiques primero el modelo de moto que te interesa. Una vez que tengamos esa información, podré ayudarte con los métodos de pago disponibles y los requisitos para financiación, si así lo deseas. ¿Tienes en mente algún modelo en particular de los que te mencioné anteriormente?
+17/2/2024, 16:52:00 - Daniiii💕💕: Motomel
+17/2/2024, 16:52:00 - MegaBot: Perfecto, ¿podrías indicarme específicamente el modelo de Motomel que te interesa para poder proporcionarte información detallada al respecto?
+17/2/2024, 16:52:37 - Daniiii💕💕: Nosabria responder cual es el modelo
+17/2/2024, 16:52:37 - MegaBot: ¡Entiendo! En ese caso, si estás indeciso sobre qué modelo de Motomel te interesa, ¿podría ayudarte a identificar cuáles son tus necesidades o preferencias en una moto para poder recomendarte un modelo que se ajuste a lo que estás buscando? Eso nos permitirá avanzar en la selección de la mejor opción para ti. ¡Estoy aquí para ayudarte!
+17/2/2024, 16:53:27 - Vendedor Megamoto: Hola Dani !!</v>
+      </c>
+      <c r="D99" t="str">
+        <v>65d0d1e937605b0008b02a59</v>
+      </c>
+      <c r="E99" s="1">
+        <v>45339.69531313657</v>
+      </c>
+    </row>
+    <row r="100" xml:space="preserve">
+      <c r="A100" t="str">
+        <v>Manu</v>
+      </c>
+      <c r="B100" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C100" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 16:46:39 - Manu: Tendrías un catálogo de las motos disponibles que tienen
+17/2/2024, 16:46:39 - MegaBot: ¡Hola Manu! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 16:46:48 - Manu: Gracia s
+17/2/2024, 16:46:49 - MegaBot: ¡Hola! Claro que sí. A continuación te detallo una lista con algunos modelos de motos disponibles en Megamoto:
+1. **Benelli**:
+   - 180 S (180)
+   - 251 S (251)
+   - 302 S (302)
+   - 502 C (502)
+   - 752 S (752)
+   - Imperiale 400
+   - Leoncino 250
+   - Leoncino 500 (todas AM2022)
+   - Leoncino 500 Trail
+   - TNT 15
+   - TNT 600i ABS nueva
+   - TRK 251 ABS
+   - TRK 502 NEW
+   - TRK 502-X NEW
+2. **Keeway**:
+   - K-LIGHT 202
+   - RK 150
+3. **Motomel**:
+   - BLITZ 110 V8 BASE ONE - B1 Aut
+   - BLITZ 110 V8 FULL ONE - B1
+   - BLITZ 110 V8 PLUS
+   - BLITZ 110 V8 START
+   - BLITZ 110 V8 TUNNING NEW
+   - CG 150 S2 FULL (aleac / disco)
+   - CG 150 S2 START
+   - DLX 110 DELUXE
+   - MAX 110 A/E
+   - SIRIUS 190 NUEVO PRODUCTO
+   - SKUA 125 X-TREME
+   - SKUA 150 NEW GENERATION
+   - SKUA 150 SILVER EDITION
+   - SKUA 250 ADVENTURE
+   - SKUA 250 BASE NEW
+   - STRATO 150 ALPINO
+   - STRATO 150 EURO
+   - XMM 250 NUEVA
+4. **Suzuki**:
+   - AX 100
+   - GN 125
+   - GSX 125
+5. **SYM**:
+   - CITYCOM 300 i
+Cualquier modelo en particular que te interese, por favor házmelo saber.
+17/2/2024, 16:47:09 - Manu: Fotos tienes ?
+17/2/2024, 16:47:10 - MegaBot: ¡Hola! Lamentablemente no dispongo de fotos para enviarte por este canal. Si estás interesado en ver imágenes de algún modelo específico, te recomendaría visitar el sitio web de Megamoto: [Megamoto](https://www.megamoto.com.ar/). Allí podrás encontrar fotos detalladas de todas las motos disponibles. ¿Hay algún modelo en particular que te interese?
+17/2/2024, 16:47:34 - Vendedor Megamoto: Manu te escribo de mi WhatsApp personal ! </v>
+      </c>
+      <c r="D100" t="str">
+        <v>65d10629419c630008784dc7</v>
+      </c>
+      <c r="E100" s="1">
+        <v>45339.69850922454</v>
+      </c>
+    </row>
+    <row r="101" xml:space="preserve">
+      <c r="A101" t="str">
+        <v>Yo😀</v>
+      </c>
+      <c r="B101" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C101" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 17:07:37 - Yo😀: Hola buenas tardes
+17/2/2024, 17:07:37 - MegaBot: ¡Hola Yo😀! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 17:08:07 - Yo😀: Cual es la moto 110 mas economica que tienen? Y que precio esta al contado?
+17/2/2024, 17:08:07 - MegaBot: Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $ 955.658. El precio es con patentamiento incluido, no incluye impuesto a los sellos de CABA y es a confirmar por un vendedor. ¿Deseas conocer los métodos de pago disponibles?</v>
+      </c>
+      <c r="D101" t="str">
+        <v>65d11204a47f67000869a705</v>
+      </c>
+      <c r="E101" s="1">
+        <v>45339.71306976852</v>
+      </c>
+    </row>
+    <row r="102" xml:space="preserve">
+      <c r="A102" t="str">
+        <v>Facundo Fernandez</v>
+      </c>
+      <c r="B102" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C102" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 17:13:29 - Facundo Fernandez: Quería consultarte por la benelli 302
+17/2/2024, 17:13:29 - MegaBot: ¡Hola Facundo Fernandez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 17:14:13 - Facundo Fernandez: Benelli 302s
+17/2/2024, 17:14:14 - MegaBot: ¿Estás interesado en adquirir la Benelli 302S?
+17/2/2024, 17:14:28 - Facundo Fernandez: Si
+17/2/2024, 17:14:28 - MegaBot: Perfecto, para poder asistirte mejor, necesito que me indiques el método de pago que deseas utilizar. Puedes elegir entre efectivo, tarjeta de crédito, préstamo o una combinación de estos métodos. ¿Con cuál opción te gustaría proceder?
+17/2/2024, 17:14:56 - Facundo Fernandez: Efectivo
+17/2/2024, 17:14:56 - MegaBot: Excelente elección. ¿Hay algo más en lo que pueda ayudarte o necesitas alguna información adicional sobre la Benelli 302S antes de proceder?
+17/2/2024, 17:15:18 - Facundo Fernandez: No
+17/2/2024, 17:15:18 - MegaBot: ¡Perfecto! En breve serás contactado por un vendedor de Megamoto para continuar con la compra de la Benelli 302S. ¡Muchas gracias por tu consulta y elección! ¡Que tengas un excelente día!</v>
+      </c>
+      <c r="D102" t="str">
+        <v>65d0f6afdde31700083df738</v>
+      </c>
+      <c r="E102" s="1">
+        <v>45339.7171497338</v>
+      </c>
+    </row>
+    <row r="103" xml:space="preserve">
+      <c r="A103" t="str">
+        <v>Eze</v>
+      </c>
+      <c r="B103" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C103" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 17:13:31 - Eze: Buenas
+17/2/2024, 17:13:32 - MegaBot: ¡Hola Eze! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 17:13:41 - Eze: Que requisitos piden
+17/2/2024, 17:13:41 - MegaBot: ¡Hola! Los requisitos para comprar en Megamoto dependen del método de pago que elijas. ¿Ya tienes en mente algún modelo de moto en particular que te interese?
+17/2/2024, 17:14:14 - Eze: Rouser ns 160 o 200 fi
+17/2/2024, 17:14:14 - MegaBot: Perfecto, ¿podrías especificar si te interesa la Rouser NS 160 o la Rouser NS 200 FI?
+17/2/2024, 17:14:40 - Eze: La 200 fi
+17/2/2024, 17:14:40 - MegaBot: Excelente elección. ¿Me podrías indicar cuál será tu método de pago para la Rouser NS 200 FI en Megamoto?
+17/2/2024, 17:15:32 - Eze: Que método tienen
+17/2/2024, 17:15:32 - MegaBot: En Megamoto aceptamos efectivo, tarjetas de crédito y préstamos. Si estás considerando pagar con préstamo, necesitaré tu DNI para que un vendedor verifique si calificas para uno. ¿Te gustaría pagar la Rouser NS 200 FI con algún préstamo?
+17/2/2024, 17:16:46 - Eze: Si pero estoy en el veraz no creo poder sacar prestamos , pensé que tenían en cuotas en efectivo mientras trabajas con la moto
+17/2/2024, 17:16:46 - MegaBot: Entiendo tu situación. Megamoto sí ofrece financiación a través de préstamos u otros medios, pero la aprobación está sujeta a ciertas condiciones. Lo que puedo hacer es ponerme en contacto con un vendedor para que se comunique contigo y te explique las opciones de financiación disponibles, así como verificar si hay alternativas que se ajusten a tu situación actual. ¿Estás de acuerdo con que un vendedor te contacte para brindarte más información?
+17/2/2024, 17:17:22 - Eze: Si
+17/2/2024, 17:17:22 - MegaBot: Perfecto, en breve un vendedor de Megamoto se pondrá en contacto contigo para asesorarte con más detalle sobre las opciones de financiación para la Rouser NS 200 FI. ¡Gracias por tu interés en Megamoto!
+17/2/2024, 17:19:40 - Vendedor Megamoto: Hola  Ezequiel como estas ?</v>
+      </c>
+      <c r="D103" t="str">
+        <v>65d0f4d4ece1250008c147c4</v>
+      </c>
+      <c r="E103" s="1">
+        <v>45339.71717413195</v>
+      </c>
+    </row>
+    <row r="104" xml:space="preserve">
+      <c r="A104" t="str">
+        <v>Gaston</v>
+      </c>
+      <c r="B104" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C104" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 17:19:46 - Gaston: Buenas tardes nada en especial algo 150 barato es para hacer didi moto me podes ayudar
+17/2/2024, 17:19:46 - MegaBot: ¡Hola Gaston! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 17:23:23 - Gaston: Una moto 150
+17/2/2024, 17:23:23 - MegaBot: ¡Hola! Claro que puedo ayudarte a elegir una moto 150. En Megamoto contamos con varias opciones en esa cilindrada. ¿Podrías ser más específico brindando el nombre completo del modelo que te interesa? Esto me permitirá brindarte información más detallada. ¡Quedo atento a tu respuesta!
+17/2/2024, 17:24:23 - Gaston: No tengo algo espesifico me das opciones por fabor
+17/2/2024, 17:24:24 - MegaBot: ¡Claro que sí! Aquí te presento algunas opciones de motos 150 disponibles en Megamoto:
+1. **Motomel CG 150 S2 FULL (aleac / disco)**
+   - Marca: Motomel
+   - Precio: $1.480.676
+2. **Motomel CG 150 S2 START**
+   - Marca: Motomel
+   - Precio: $1.221.010
+3. **Motomel DLX 110 DELUXE**
+   - Marca: Motomel
+   - Precio: $1.002.055
+4. **Motomel MAX 110 A/E**
+   - Marca: Motomel
+   - Precio: $1.223.810
+¿Te interesa alguna de estas opciones? Si alguna te llama la atención, por favor indícame cuál es tu preferida para poder continuar con el proceso de asesoramiento. ¡Quedo atento a tu respuesta!
+17/2/2024, 17:26:08 - Vendedor Megamoto: Disculpa Gastón están probando el bot y se mete en la conversación !</v>
+      </c>
+      <c r="D104" t="str">
+        <v>65d044ba8df86100083eab8f</v>
+      </c>
+      <c r="E104" s="1">
+        <v>45339.72151306713</v>
+      </c>
+    </row>
+    <row r="105" xml:space="preserve">
+      <c r="A105" t="str">
+        <v>Benja</v>
+      </c>
+      <c r="B105" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C105" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 17:19:48 - Benja: Hola, tengo algunas preguntas sobre Motomel S2 Cg 150 Full Nueva - Nuevo Ingreso 2023. https://moto.mercadolibre.com.ar/MLA-1518183694-motomel-s2-cg-150-full-nueva-nuevo-ingreso-2023-_JM?u=NTQ3MjQ3MjU5
+17/2/2024, 17:19:48 - MegaBot: ¡Hola Benja! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 17:41:43 - Vendedor Megamoto: Hola Benja  como estas ?</v>
+      </c>
+      <c r="D105" t="str">
+        <v>65d114e1269f39000867cf4c</v>
+      </c>
+      <c r="E105" s="1">
+        <v>45339.72152850695</v>
+      </c>
+    </row>
+    <row r="106" xml:space="preserve">
+      <c r="A106" t="str">
+        <v>Angel</v>
+      </c>
+      <c r="B106" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C106" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 17:25:03 - Angel: ¡Hola! Podrías darme más información de...
+17/2/2024, 17:25:04 - MegaBot: ¡Hola Angel! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 17:30:02 - Angel: Enduro cross
+17/2/2024, 17:30:02 - MegaBot: ¡Hola! En Megamoto nos especializamos en la venta de motos, repuestos y accesorios de las marcas Benelli, Suzuki, Motomel, Keeway y Sym. Si estás interesado en adquirir una moto de enduro cross u otro modelo en particular, estaré encantado de ayudarte con esa información. ¿Hay algún modelo en específico que te interese de nuestra lista?
+17/2/2024, 17:34:06 - Angel: Motomel
+17/2/2024, 17:34:06 - MegaBot: ¡Excelente elección! En Megamoto contamos con una variedad de modelos de Motomel. ¿Hay algún modelo en específico de Motomel que te interese?
+17/2/2024, 17:34:15 - Angel: Q precio
+17/2/2024, 17:34:15 - MegaBot: El precio de las motos de Motomel varía según el modelo. Por ejemplo, la moto Motomel BLITZ 110 V8 START tiene un precio de $955.658. Recuerda que este precio incluye el patentamiento, pero no incluye el impuesto a los sellos de CABA y es necesario confirmarlo con un vendedor. ¿Te gustaría conocer más precios o información adicional sobre algún otro modelo de Motomel? También, ¿podrías indicarme el método de pago que deseas utilizar?
+17/2/2024, 17:35:06 - Angel: Si claro
+17/2/2024, 17:35:07 - MegaBot: Perfecto, ¿podrías decirme qué modelo de Motomel te interesa para poder brindarte el precio correspondiente? ¡Estoy aquí para ayudarte!
+17/2/2024, 17:35:23 - Angel: 150  o250
+17/2/2024, 17:35:23 - MegaBot: ¡Entendido! ¿Te refieres a un modelo específico de Motomel de 150cc o 250cc? ¿Podrías proporcionarme el nombre completo del modelo? Esto me permitirá brindarte el precio exacto y la información correspondiente. ¡Gracias por tu colaboración!
+17/2/2024, 17:35:53 - Angel: Enduro
+17/2/2024, 17:35:53 - MegaBot: ¡Entendido! En Motomel, los modelos de enduro disponibles son la SKUA 250 ADVENTURE y la SKUA 250 BASE NEW. ¿Estás interesado en alguno de estos modelos en particular?Una vez que me indiques cuál es tu opción, podré brindarte el precio y continuar con el proceso de venta. ¿Cuál es tu preferencia entre estos dos modelos de enduro?
+17/2/2024, 17:36:36 - Angel: Adventure
+17/2/2024, 17:36:36 - MegaBot: Perfecto, el precio de la Motomel SKUA 250 ADVENTURE es de $3.255.682. Recuerda que este precio incluye el patentamiento, pero no incluye el impuesto a los sellos de CABA y es necesario confirmarlo con un vendedor.
+Para continuar con el proceso de compra, ¿podrías indicarme cuál será tu método de pago? Recuerda que aceptamos efectivo, tarjetas de crédito, y también ofrecemos financiación a través de préstamos. Si deseas pagar con algún tipo de préstamo, necesitaré tu DNI para verificar si calificas para el crédito. ¡Estoy aquí para asistirte en lo que necesites!
+17/2/2024, 17:38:24 - Angel: Dni       42683161
+17/2/2024, 17:38:24 - MegaBot: Gracias por proporcionar tu DNI. Con esta información, un vendedor de Megamoto se encargará de verificar si calificas para el crédito y te contactará a la brevedad para informarte sobre el proceso de compra de la Motomel SKUA 250 ADVENTURE. 
+En caso de tener alguna otra consulta o solicitud adicional, no dudes en hacérmela saber. ¡Gracias por elegir Megamoto y esperamos que pronto disfrutes de tu nueva moto! Un vendedor se comunicará contigo en breve. ¡Que tengas un excelente día!
+17/2/2024, 17:39:04 - Angel: Las ctas
+17/2/2024, 17:39:04 - MegaBot: Para brindarte información sobre las cuotas y la financiación de la Motomel SKUA 250 ADVENTURE, un vendedor de Megamoto se comunicará contigo en breve. El vendedor te proporcionará todos los detalles sobre la cantidad de cuotas disponibles y las condiciones específicas de financiación para que puedas tomar una decisión informada.
+Agradecemos tu paciencia y confianza en Megamoto. ¿Hay algo más en lo que pueda asistirte en este momento? ¡Estoy aquí para ayudarte!
+17/2/2024, 17:39:17 - Angel: En 18 o12
+17/2/2024, 17:39:17 - MegaBot: Lamentablemente, no tengo acceso directo a esa información específica sobre la cantidad de cuotas y las condiciones de financiación. Un vendedor de Megamoto será quien te proporcione los detalles exactos sobre la financiación en 18 o 12 cuotas para la Motomel SKUA 250 ADVENTURE. 
+Te garantizo que un vendedor te contactará lo antes posible para darte todos los detalles que necesitas para tomar una decisión. Si tienes alguna otra consulta o solicitud, no dudes en decírmelo. ¡Estoy aquí para ayudarte en lo que necesites!
+17/2/2024, 17:41:51 - Angel: Cto me queda
+17/2/2024, 17:41:51 - MegaBot: Para obtener la información exacta sobre cuánto quedarían las cuotas para la Motomel SKUA 250 ADVENTURE en 18 o 12 meses, un vendedor de Megamoto te contactará directamente.
+El vendedor podrá proporcionarte todos los detalles sobre el monto de las cuotas mensuales, los plazos y las condiciones específicas de financiación. Agradecemos tu comprensión y paciencia mientras esperas el contacto del vendedor.
+Si tienes alguna otra pregunta o necesitas ayuda adicional, ¡no dudes en decírmelo! Estoy aquí para asistirte en lo que necesites.
+17/2/2024, 17:42:26 - Angel: Ok
+17/2/2024, 17:42:26 - MegaBot: ¡Perfecto! Agradezco tu colaboración y paciencia. Un vendedor de Megamoto se comunicará contigo en breve para brindarte toda la información detallada sobre la financiación de la Motomel SKUA 250 ADVENTURE en las cuotas que solicitaste.
+Si en el futuro tienes más consultas o necesitas asistencia, no dudes en contactarnos. ¡Gracias por elegir Megamoto y que tengas un excelente día! ¡Estoy aquí para ayudarte en lo que necesites en tu próxima visita!
+17/2/2024, 17:42:33 - Angel: Gracias
+17/2/2024, 17:42:33 - MegaBot: ¡De nada! ¡Gracias a ti por consultar con Megamoto! Siempre estamos aquí para ayudarte en todo lo que necesites. ¡Que tengas un maravilloso día y hasta pronto! ¡Estoy a tu disposición cuando lo requieras!
+17/2/2024, 17:42:53 - Angel: Gracias
+17/2/2024, 17:42:53 - MegaBot: ¡De nada! ¡Hasta luego y que tengas un excelente día! ¡Si necesitas algo más, no dudes en contactarnos! ¡Adiós!</v>
+      </c>
+      <c r="D106" t="str">
+        <v>65d1161df6c2a5000844aca4</v>
+      </c>
+      <c r="E106" s="1">
+        <v>45339.72518417824</v>
+      </c>
+    </row>
+    <row r="107" xml:space="preserve">
+      <c r="A107" t="str">
+        <v>Lautaro Gonzalez</v>
+      </c>
+      <c r="B107" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C107" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 17:28:59 - Lautaro Gonzalez: Con que trajeras
+17/2/2024, 17:28:59 - MegaBot: ¡Hola Lautaro Gonzalez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 17:29:06 - Lautaro Gonzalez: Tarjetas
+17/2/2024, 17:29:06 - MegaBot: ¡Perfecto! ¿Estás interesado en algún modelo de moto en particular?
+17/2/2024, 17:29:13 - Lautaro Gonzalez: Tenes para 6 coutas
+17/2/2024, 17:29:14 - MegaBot: En Megamoto contamos con financiación de hasta 60 cuotas para préstamos prendarios o hasta 30 cuotas para préstamos personales. ¿Puedo ayudarte con la elección de algún modelo de moto en específico?
+17/2/2024, 17:34:14 - Lautaro Gonzalez: Sisi quería esa
+17/2/2024, 17:34:14 - MegaBot: ¡Entendido! ¿Podrías indicarme cuál es el modelo de moto que te interesa en financiar en 6 cuotas?
+17/2/2024, 17:34:23 - Lautaro Gonzalez: Una moto 110 o s2
+17/2/2024, 17:34:23 - MegaBot: Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $ 955.658. El precio es con patentamiento incluido, no incluye impuesto a los sellos de CABA y es a confirmar por un vendedor. ¿Podrías indicarme cuál será tu método de pago?
+17/2/2024, 17:34:57 - Lautaro Gonzalez: Con tarjeta
+17/2/2024, 17:34:57 - MegaBot: Perfecto. ¿Podrías indicarme si tu tarjeta es de crédito o débito?
+17/2/2024, 17:35:11 - Lautaro Gonzalez: De crédito
+17/2/2024, 17:35:11 - MegaBot: ¡Genial! Para continuar con la financiación, necesitaría que me proporciones tu DNI para que un vendedor se comunique contigo y te asesore sobre las opciones de financiación disponibles.
+17/2/2024, 17:35:39 - Vendedor Megamoto: Perdón Lautaro! </v>
+      </c>
+      <c r="D107" t="str">
+        <v>65d1036fc8b666000802f26c</v>
+      </c>
+      <c r="E107" s="1">
+        <v>45339.72790893519</v>
+      </c>
+    </row>
+    <row r="108" xml:space="preserve">
+      <c r="A108" t="str">
+        <v>Ale Vera</v>
+      </c>
+      <c r="B108" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C108" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 17:36:04 - Ale Vera: Hola que tal de barranqueras chaco
+17/2/2024, 17:36:04 - MegaBot: ¡Hola Ale Vera! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 18:36:56 - Vendedor Megamoto: Que modelos de moto estás interesado? Y cómo tenías pensado realizar la compra?</v>
+      </c>
+      <c r="D108" t="str">
+        <v>65d0d44c144bb0000937ec93</v>
+      </c>
+      <c r="E108" s="1">
+        <v>45339.732829849534</v>
+      </c>
+    </row>
+    <row r="109" xml:space="preserve">
+      <c r="A109" t="str">
+        <v>River Te Amo❤️</v>
+      </c>
+      <c r="B109" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C109" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 17:38:55 - River Te Amo❤️: ¡Hola! Podrías darme más información de...
+17/2/2024, 17:38:55 - MegaBot: ¡Hola River Te Amo❤️! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 17:39:12 - River Te Amo❤️: Hola hond wave base precio
+17/2/2024, 17:39:12 - MegaBot: ¡Hola! El precio de la Honda Wave Base es de  a confirmar por un vendedor. Este precio incluye patentamiento y no incluye el impuesto a los sellos de CABA. ¿Cómo te gustaría realizar el pago?</v>
+      </c>
+      <c r="D109" t="str">
+        <v>65d1195d4b56fd00087928f6</v>
+      </c>
+      <c r="E109" s="1">
+        <v>45339.73481021991</v>
+      </c>
+    </row>
+    <row r="110" xml:space="preserve">
+      <c r="A110" t="str">
+        <v>Fer</v>
+      </c>
+      <c r="B110" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C110" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 17:43:58 - Fer: Hola Corven u algo economico 150cc ...con financiamiento?? Q me podés ofrecer
+17/2/2024, 17:43:58 - MegaBot: ¡Hola Fer! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 17:44:26 - Fer: Corven 150cc
+17/2/2024, 17:44:27 - MegaBot: ¿Estás buscando una moto Corven de 150cc en particular o te interesa algún modelo en especial?
+17/2/2024, 17:44:49 - Fer: Que opciones tengo
+17/2/2024, 17:44:50 - MegaBot: En Megamoto no contamos con modelos de la marca Corven. Sin embargo, tenemos una amplia variedad de opciones en otras marcas de motos de 150cc que pueden ser de tu interés. ¿Te interesaría conocer los modelos disponibles en otras marcas?
+17/2/2024, 17:44:57 - Fer: Triax
+17/2/2024, 17:44:57 - MegaBot: Lamentablemente, en Megamoto no comercializamos motos de la marca Triax. Si te interesa, puedo ofrecerte información sobre modelos de otras marcas que podrían adaptarse a lo que estás buscando. ¿Te gustaría recibir información sobre alguna otra marca de motos de 150cc?
+17/2/2024, 17:45:09 - Fer: Si
+17/2/2024, 17:45:09 - MegaBot: Perfecto. ¿Podrías indicarme el método de pago que te gustaría utilizar para la compra de la moto de 150cc? Puedes elegir entre efectivo, tarjeta de crédito, préstamo u otra forma de pago.
+17/2/2024, 17:45:39 - Fer: Préstamo
+17/2/2024, 17:45:39 - MegaBot: ¿Me podrías proporcionar tu número de DNI para poder verificar si calificas para un crédito? Una vez verificado, te contactará un vendedor para continuar con el proceso.
+17/2/2024, 17:46:04 - Fer: 25057643
+17/2/2024, 17:46:05 - MegaBot: Gracias por proporcionar tu número de DNI. Un vendedor de Megamoto se pondrá en contacto contigo para continuar con el proceso de verificación y asesorarte en la compra de la moto con financiamiento. ¡Muchas gracias y pronto estarás recibiendo noticias de nuestro equipo de ventas!</v>
+      </c>
+      <c r="D110" t="str">
+        <v>65d0fdd771f25d00083ad9e1</v>
+      </c>
+      <c r="E110" s="1">
+        <v>45339.73831069445</v>
+      </c>
+    </row>
+    <row r="111" xml:space="preserve">
+      <c r="A111" t="str">
+        <v>Gabriel</v>
+      </c>
+      <c r="B111" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C111" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 17:57:17 - Gabriel: Cómo es el precio y que forma de pago hay y si tienen cuotas
+17/2/2024, 17:57:17 - MegaBot: ¡Hola Gabriel! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D111" t="str">
+        <v>65d1015a58d4a100094a8b5a</v>
+      </c>
+      <c r="E111" s="1">
+        <v>45339.74756325231</v>
+      </c>
+    </row>
+    <row r="112" xml:space="preserve">
+      <c r="A112" t="str">
+        <v>Leonardo Garcia</v>
+      </c>
+      <c r="B112" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C112" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 18:27:39 - Leonardo Garcia: Hola q tal algun Twister 2015 para bajo tendras
+17/2/2024, 18:27:39 - MegaBot: ¡Hola Leonardo Garcia! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 18:28:45 - Leonardo Garcia: Twister modelo 2015 para bajo
+17/2/2024, 18:28:45 - MegaBot: ¡Hola! En Megamoto no contamos con el modelo Twister 2015. ¿Te interesaría ver nuestras opciones disponibles de motos de marcas como Benelli, Suzuki, Motomel, Keeway y Sym? Si estás interesado, por favor indícame el modelo de moto que te interesa.
+17/2/2024, 18:29:18 - Leonardo Garcia: No gracias
+17/2/2024, 18:29:18 - MegaBot: Entendido, si en el futuro tienes alguna otra consulta relacionada con motos, no dudes en contactarnos. ¡Que tengas un buen día!</v>
+      </c>
+      <c r="D112" t="str">
+        <v>65d124c995af1c00081ae284</v>
+      </c>
+      <c r="E112" s="1">
+        <v>45339.768648784724</v>
+      </c>
+    </row>
+    <row r="113" xml:space="preserve">
+      <c r="A113" t="str">
+        <v>Veronica Bazan</v>
+      </c>
+      <c r="B113" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C113" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 18:36:22 - Veronica Bazan: Hola nahir una 110
+17/2/2024, 18:36:23 - MegaBot: ¡Hola Veronica Bazan! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 18:36:55 - Veronica Bazan: 110
+17/2/2024, 18:36:56 - MegaBot: Nuestro modelo más económico de 110 es la BLITZ 110 V8 START a $955.658. El precio es con patentamiento incluido, no incluye impuesto a los sellos de CABA y es a confirmar por un vendedor. ¿Cómo le gustaría pagar la moto?
+17/2/2024, 18:37:29 - Veronica Bazan: Con credito dni
+17/2/2024, 18:37:29 - MegaBot: Perfecto, para poder asistirte mejor necesitaría que me indiques tu modelo de moto preferido y luego tu método de pago, en este caso con crédito. Una vez que tengamos esos datos, te pediré tu DNI para verificar si calificas para el crédito. ¿Cuál es tu modelo de moto de interés?
+17/2/2024, 18:38:13 - Vendedor Megamoto: Hola cómo estás ! </v>
+      </c>
+      <c r="D113" t="str">
+        <v>65d0290d2eca3a0008aa459c</v>
+      </c>
+      <c r="E113" s="1">
+        <v>45339.77471042824</v>
+      </c>
+    </row>
+    <row r="114" xml:space="preserve">
+      <c r="A114" t="str">
+        <v>La Michii😆</v>
+      </c>
+      <c r="B114" t="str">
+        <v>instagram</v>
+      </c>
+      <c r="C114" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 19:19:49 - La Michii😆: Hola buenas tardes, q precio??
+17/2/2024, 19:19:49 - MegaBot: ¡Hola La Michii😆! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 19:19:56 - La Michii😆: Hola buenas tardes, q precio??
+17/2/2024, 19:19:56 - MegaBot: ¡Hola! ¿Estás interesado en algún modelo en particular de motocicleta de Megamoto? Por favor, indícame el modelo de moto que te interesa para poder brindarte el precio correspondiente. También, ¿podrías decirme cuál será tu método de pago? ¡Gracias!
+17/2/2024, 19:20:51 - La Michii😆: Esta averiguando es la primera ves q averiguo de motos, la moto de la historia skua 150
+17/2/2024, 19:20:52 - MegaBot: Perfecto. ¿Podrías confirmarme si te interesa la Skua 150 de la marca Motomel? Una vez que tengamos el modelo confirmado, podremos ofrecerte el precio correspondiente. ¿Podrías indicarme también cuál será tu método de pago? ¡Gracias!
+17/2/2024, 19:20:58 - La Michii😆: Esta averiguando es la primera ves q averiguo de motos, la moto de la historia skua 150
+17/2/2024, 19:20:58 - MegaBot: Entiendo, la Skua 150 es una excelente elección para comenzar en el mundo de las motos. El precio de la Skua 150 de la marca Motomel es de $1.542.953, el cual incluye patentamiento. 
+¿Puedes decirme cuál será tu método de pago? ¿Será en efectivo, tarjeta de crédito, o estás considerando alguna forma de financiación?
+17/2/2024, 19:22:14 - La Michii😆: En cuantas cuotas se puede hacer con efectivo?
+17/2/2024, 19:22:14 - MegaBot: Para obtener esa información detallada sobre las opciones de financiación y las cuotas disponibles con el pago en efectivo, necesitaríamos que un vendedor de la tienda realice una verificación de tu crédito. 
+¿Me podrías proporcionar tu número de DNI para que pueda coordinar con un vendedor para que se comunique contigo y te brinde toda la información necesaria respecto a las cuotas y financiación disponibles? Recuerda que la verificación de crédito y la aprobación de cuotas están a cargo de nuestro departamento de ventas. ¡Gracias!
+17/2/2024, 19:22:21 - La Michii😆: En cuantas cuotas se puede hacer con efectivo?
+17/2/2024, 19:22:21 - MegaBot: Para pagos en efectivo, generalmente no se ofrecen planes de financiación. Si estás considerando pagar la moto en efectivo, el precio total indicado anteriormente debería abonarse en una sola vez. Si necesitas más información sobre opciones de financiación, por favor házmelo saber. ¡Estoy aquí para ayudarte en lo que necesites!
+17/2/2024, 19:25:25 - La Michii😆: Donde tienen sucursal?
+17/2/2024, 19:25:25 - MegaBot: Megamoto cuenta con dos sucursales. Una se encuentra en Merlo, sobre la avenida Calle Real 51 (ex.Gobernador Vergara), abierta de lunes a sábados de 10 a 19 horas. La otra sucursal está en CABA, en la avenida Corrientes 3400 (frente al Abasto), con horario de lunes a viernes de 9 a 19 horas y sábados de 9 a 13 horas. 
+Si necesitas más información sobre la ubicación exacta o los horarios, no dudes en decírmelo. ¡Estoy aquí para ayudarte con cualquier consulta relacionada con Megamoto!
+17/2/2024, 19:25:31 - La Michii😆: Donde tienen sucursal?
+17/2/2024, 19:25:31 - MegaBot: Megamoto tiene dos sucursales. Una se encuentra en Merlo, sobre la avenida Calle Real 51 (ex Gobernador Vergara), abierta de lunes a sábados de 10 a 19 horas. La otra sucursal está ubicada en CABA, en la avenida Corrientes 3400 (frente al Abasto), con horario de lunes a viernes de 9 a 19 horas y sábados de 9 a 13 horas. ¿Puedo ayudarte con algo más relacionado con Megamoto?
+17/2/2024, 19:25:57 - La Michii😆: Muchas gracias!!
+17/2/2024, 19:25:57 - MegaBot: ¡De nada! Si necesitas más ayuda en el futuro o deseas visitar alguna de nuestras sucursales, no dudes en contactarnos. ¡Que tengas un excelente día y gracias por comunicarte con Megamoto!
+17/2/2024, 19:26:03 - La Michii😆: Muchas gracias!!
+17/2/2024, 19:26:03 - MegaBot: ¡De nada! Si necesitas más información en el futuro o deseas consultar sobre motos, recuerda que estamos aquí para ayudarte. ¡Que tengas un excelente día y gracias por comunicarte con Megamoto!</v>
+      </c>
+      <c r="D114" t="str">
+        <v>65d1310325e1390008357174</v>
+      </c>
+      <c r="E114" s="1">
+        <v>45339.80488162037</v>
+      </c>
+    </row>
+    <row r="115" xml:space="preserve">
+      <c r="A115" t="str">
+        <v>Emilio</v>
+      </c>
+      <c r="B115" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C115" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 19:24:39 - Emilio: ¡Hola! Podrías darme más información de...
+17/2/2024, 19:24:39 - MegaBot: ¡Hola Emilio! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 19:26:34 - Emilio: Hola Diego está que está en la foto el valor de la cuota
+17/2/2024, 19:26:34 - MegaBot: ¡Hola! Para poder brindarte información más detallada sobre el valor de la cuota y las opciones de financiación disponibles, necesitaríamos que nos proporciones tu número de DNI. Uno de nuestros vendedores se pondrá en contacto contigo para realizar la verificación correspondiente. ¡Gracias!
+17/2/2024, 19:29:42 - Emilio: 39339047 dni
+17/2/2024, 19:29:42 - MegaBot: ¡Gracias por proporcionar tu DNI! ¿Podrías indicarme cuál es el modelo de moto que te interesa y cuál sería tu método de pago preferido? Así podremos seguir asistiendo de manera efectiva.
+17/2/2024, 19:32:48 - Emilio: Motomel 150
+17/2/2024, 19:32:49 - MegaBot: Perfecto, ¿podrías indicarme ahora cuál sería tu método de pago preferido para la compra de la Motomel 150? Ya que nos interesamos en brindarte la mejor información de acuerdo a tus necesidades. ¡Gracias!
+17/2/2024, 19:34:31 - Emilio: La entrega de 300$ mil y cuota
+17/2/2024, 19:34:32 - MegaBot: Gracias por compartir esa información. Un vendedor se pondrá en contacto contigo para brindarte más detalles sobre las opciones de financiación disponibles para la Motomel 150, incluyendo el monto de la cuota y los requisitos necesarios. ¡Muchas gracias!
+17/2/2024, 19:35:30 - Emilio: Okey
+17/2/2024, 19:35:30 - MegaBot: ¡Perfecto! Pronto serás contactado por uno de nuestros vendedores para continuar con la asistencia en la compra de la Motomel 150. Cualquier otra consulta que tengas, no dudes en escribirnos. ¡Gracias por contactarnos!</v>
+      </c>
+      <c r="D115" t="str">
+        <v>65d132254d8a20000850a0ed</v>
+      </c>
+      <c r="E115" s="1">
+        <v>45339.80823324074</v>
+      </c>
+    </row>
+    <row r="116" xml:space="preserve">
+      <c r="A116" t="str">
+        <v>Joaquin Felgueiras Luque</v>
+      </c>
+      <c r="B116" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C116" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 19:28:15 - Joaquin Felgueiras Luque: ¡Hola! Podrías darme más información de...
+17/2/2024, 19:28:15 - MegaBot: ¡Hola Joaquin Felgueiras Luque! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 19:28:59 - Joaquin Felgueiras Luque: Beneficios 302s
+17/2/2024, 19:28:59 - MegaBot: ¡Hola! En Megamoto la BENELLI 302S es un modelo muy completo y versátil, ideal para quienes buscan una moto con un excelente equilibrio entre potencia y maniobrabilidad. Tiene un diseño deportivo y moderno, perfecta tanto para desplazamientos urbanos como para salidas a ruta. Además, cuenta con un motor de 2 cilindros en línea, inyección electrónica y refrigeración líquida que le brindan un rendimiento óptimo. ¿Te interesa saber más sobre este modelo en particular o te gustaría recibir información sobre otro modelo de moto?</v>
+      </c>
+      <c r="D116" t="str">
+        <v>65d132fc844a4e00092e8e5a</v>
+      </c>
+      <c r="E116" s="1">
+        <v>45339.81073023148</v>
+      </c>
+    </row>
+    <row r="117" xml:space="preserve">
+      <c r="A117" t="str">
+        <v>Por Mi Familia Siempre🫡👮🏽‍♂️🚔</v>
+      </c>
+      <c r="B117" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C117" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 19:34:40 - Por Mi Familia Siempre🫡👮🏽‍♂️🚔: Soy de profesor Salvador Mazza (pocitos) de la Provincia de Salta al sector norte en el Dpto. San Martín en la frontera cn Bolivia.
+17/2/2024, 19:34:40 - MegaBot: ¡Hola Por Mi Familia Siempre🫡👮🏽‍♂️🚔! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 19:36:13 - Por Mi Familia Siempre🫡👮🏽‍♂️🚔: Moto Gilera Tuning 110 cl.
+17/2/2024, 19:36:14 - MegaBot: ¡Hola! ¿Estás interesado en la Gilera Tuning 110 cc para conocer más detalles sobre el modelo y sus características?
+17/2/2024, 19:36:38 - Por Mi Familia Siempre🫡👮🏽‍♂️🚔: Si
+17/2/2024, 19:36:38 - MegaBot: Perfecto, la Gilera Tuning 110 cc es un modelo muy popular por su economía y versatilidad. ¿Puedo ayudarte con alguna otra consulta sobre esta moto?
+17/2/2024, 19:37:15 - Por Mi Familia Siempre🫡👮🏽‍♂️🚔: Cuanto cuesta
+17/2/2024, 19:37:16 - MegaBot: El precio de la Gilera Tuning 110 cc es de $79.650. ¿Te gustaría saber más sobre las formas de pago disponibles o sobre cómo adquirirla?
+17/2/2024, 19:37:47 - Por Mi Familia Siempre🫡👮🏽‍♂️🚔: Si
+17/2/2024, 19:37:47 - MegaBot: Excelente. ¿Cómo te gustaría realizar el pago de la Gilera Tuning 110 cc? Las opciones disponibles son efectivo, tarjeta de crédito, préstamo o una combinación de estos métodos.
+17/2/2024, 19:38:50 - Por Mi Familia Siempre🫡👮🏽‍♂️🚔: Prestamo
+17/2/2024, 19:38:51 - MegaBot: Perfecto. Para gestionar el préstamo, necesitaré tu número de DNI para que un vendedor de Megamoto pueda verificar si calificas para el crédito. ¿Podrías proporcionarme tu número de DNI por favor? Una vez que tenga esta información, un vendedor se pondrá en contacto contigo para continuar con la gestión del préstamo. ¡Gracias!
+17/2/2024, 19:39:01 - Por Mi Familia Siempre🫡👮🏽‍♂️🚔: O pago financiado
+17/2/2024, 19:39:01 - MegaBot: Entiendo, ¿estás interesado en un pago financiado para la compra de la Gilera Tuning 110 cc? Para poder evaluar las opciones de financiamiento disponibles y verificar si calificas, necesitaré tu número de DNI. Un vendedor de Megamoto se pondrá en contacto contigo para discutir las diferentes alternativas de financiamiento una vez que proporciones esta información. ¿Podrías brindarme tu número de DNI por favor? ¡Gracias!</v>
+      </c>
+      <c r="D117" t="str">
+        <v>65d02f12d224830008991f40</v>
+      </c>
+      <c r="E117" s="1">
+        <v>45339.815192152775</v>
+      </c>
+    </row>
+    <row r="118" xml:space="preserve">
+      <c r="A118" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="B118" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C118" t="str" xml:space="preserve">
+        <v xml:space="preserve">17/2/2024, 19:38:04 - Juan: ¡Hola! Podrías darme más información de...
+17/2/2024, 19:38:05 - MegaBot: ¡Hola Juan! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Si queres, comencemos por saber que moto estas buscando? 😀
+17/2/2024, 20:38:24 - Juan: Scooter/Susuki x 100 / no choriable ? 🤷‍♂️
+17/2/2024, 20:38:25 - MegaBot: ¡Hola! ¿Estás preguntando por el modelo Suzuki AX 100? ¿Podrías ser más específico para poder brindarte la información correcta?
+17/2/2024, 20:49:10 - Juan: Si Suzuki Ax 100
+17/2/2024, 20:49:10 - MegaBot: Perfecto, el precio del modelo Suzuki AX 100 es de $1.378.992. Este precio incluye patentamiento, pero no incluye el impuesto a los sellos de CABA. Si estás interesado en más detalles o en conocer las formas de pago disponibles, por favor indícame.
+17/2/2024, 20:49:29 - Juan: O scooter ?
+17/2/2024, 20:49:30 - MegaBot: Lamentablemente, en este momento no tengo información sobre scooters Suzuki en stock. Te recomendaría contactar a un vendedor de Megamoto para obtener información actualizada sobre la disponibilidad de scooters de esa marca. ¿Te gustaría que te ayude con otro modelo o información?</v>
+      </c>
+      <c r="D118" t="str">
+        <v>65d1354ad2d3e10008ab3259</v>
+      </c>
+      <c r="E118" s="1">
+        <v>45339.81755637732</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E81"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E118"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E214"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1980,47 +1980,12 @@
     </row>
     <row r="91" xml:space="preserve">
       <c r="A91" t="str">
-        <v>Gustavo Gomez Villafañe</v>
+        <v>Daiana😊</v>
       </c>
       <c r="B91" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C91" t="str" xml:space="preserve">
-        <v xml:space="preserve">26/2/2024, 19:43:16 - Gustavo Gomez Villafañe: hola
-26/2/2024, 19:43:16 - MegaBot: ¡Hola Gustavo Gomez Villafañe! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
-26/2/2024, 19:43:46 - Gustavo Gomez Villafañe: tienen la mondial jks?
-26/2/2024, 19:43:46 - MegaBot: ¡Hola! En Megamoto no contamos con la Mondial JKS en nuestro catálogo, pero te puedo ofrecer algunas opciones de modelos disponibles que podrían interesarte: 
-1. AX 100 de Suzuki.
-2. GN 125 de Suzuki.
-3. TNT 15 de Benelli.
-4. RK 150 de Keeway.
-5. LEONCINO 500 de Benelli.
-¿Te interesaría conocer más detalles sobre alguno de estos modelos?
-26/2/2024, 19:44:26 - Gustavo Gomez Villafañe: que tienen en 300cc?
-26/2/2024, 19:44:26 - MegaBot: En la categoría de 300cc, en Megamoto contamos con el modelo Citycom 300i de la marca Sym. Es una excelente opción en esa cilindrada. 
-¿Te interesa recibir más información sobre el modelo Citycom 300i o necesitas ayuda con algún otro detalle?
-26/2/2024, 19:53:12 - Gustavo Gomez Villafañe: y en 200cc?
-26/2/2024, 19:53:12 - MegaBot: Para la cilindrada de 200cc, te puedo recomendar los siguientes modelos disponibles en Megamoto: 
-1. KEEWAY K-LIGHT 202 de Keeway.
-2. SIRIUS 190 de Motomel.
-3. LEONCINO 250 de Benelli.
-Estos modelos son muy populares en la categoría de 200cc y podrían ser de tu interés. ¿Te gustaría más información sobre alguno de estos modelos o necesitas ayuda con algo más?</v>
-      </c>
-      <c r="D91" t="str">
-        <v>6596d62461f4a300081b28cb</v>
-      </c>
-      <c r="E91" s="1">
-        <v>45348.82116454861</v>
-      </c>
-    </row>
-    <row r="92" xml:space="preserve">
-      <c r="A92" t="str">
-        <v>Daiana😊</v>
-      </c>
-      <c r="B92" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C92" t="str" xml:space="preserve">
         <v xml:space="preserve">26/2/2024, 21:17:05 - Daiana😊: ¡Hola! Podrías darme más información de...
 26/2/2024, 21:17:05 - MegaBot: ¡Hola Daiana😊! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
 26/2/2024, 21:17:52 - Daiana😊: Hola tiene yamaha??
@@ -2034,34 +1999,2429 @@
 26/2/2024, 21:17:59 - Daiana😊: Fz?
 26/2/2024, 21:17:59 - MegaBot: Megamoto no cuenta con modelos de la marca Yamaha en su catálogo. Sin embargo, si estás interesado en conocer más sobre los modelos disponibles en Megamoto de otras marcas como Benelli, Suzuki, Motomel, Keeway y Sym, házmelo saber y con gusto te brindaré más información. ¿Te gustaría conocer los modelos de alguna de estas marcas en particular?</v>
       </c>
+      <c r="D91" t="str">
+        <v>65dd29fe0c6e7b0008f065cf</v>
+      </c>
+      <c r="E91" s="1">
+        <v>45348.886309375</v>
+      </c>
+    </row>
+    <row r="92" xml:space="preserve">
+      <c r="A92" t="str">
+        <v>Karen Gómez</v>
+      </c>
+      <c r="B92" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C92" t="str" xml:space="preserve">
+        <v xml:space="preserve">26/2/2024, 23:17:20 - Karen Gómez: Hola, tengo algunas preguntas sobre Motomel Skua 150 Cc - Anticipo + 30 C! Mejor Contado!. https://moto.mercadolibre.com.ar/MLA-1401645425-motomel-skua-150-cc-anticipo-30-c-mejor-contado-_JM?u=MTMyMTM5ODM0MQ==
+26/2/2024, 23:17:21 - MegaBot: ¡Hola Karen Gómez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 12:18:35 - Vendedor Megamoto: la skua 150 de contado te sale 1739700 pesos </v>
+      </c>
       <c r="D92" t="str">
-        <v>65dd29fe0c6e7b0008f065cf</v>
+        <v>65dd462d5c2f3900089f2a34</v>
       </c>
       <c r="E92" s="1">
-        <v>45348.886309375</v>
+        <v>45348.969825266206</v>
       </c>
     </row>
     <row r="93" xml:space="preserve">
       <c r="A93" t="str">
-        <v>Karen Gómez</v>
+        <v>Te Amo Chuni🥰 10/6/17</v>
       </c>
       <c r="B93" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C93" t="str" xml:space="preserve">
-        <v xml:space="preserve">26/2/2024, 23:17:20 - Karen Gómez: Hola, tengo algunas preguntas sobre Motomel Skua 150 Cc - Anticipo + 30 C! Mejor Contado!. https://moto.mercadolibre.com.ar/MLA-1401645425-motomel-skua-150-cc-anticipo-30-c-mejor-contado-_JM?u=MTMyMTM5ODM0MQ==
-26/2/2024, 23:17:21 - MegaBot: ¡Hola Karen Gómez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
+        <v xml:space="preserve">27/2/2024, 11:11:42 - Te Amo Chuni🥰 10/6/17: ¡Hola! Me gustaría conseguir más información sobre esto.
+27/2/2024, 11:11:42 - MegaBot: ¡Hola Te Amo Chuni🥰 10/6/17! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
       </c>
       <c r="D93" t="str">
-        <v>65dd462d5c2f3900089f2a34</v>
+        <v>65dded9ae43f100009c811ed</v>
       </c>
       <c r="E93" s="1">
-        <v>45348.969825266206</v>
+        <v>45349.46590811342</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Juan Cruz Genini</v>
+      </c>
+      <c r="B94" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C94" t="str">
+        <v xml:space="preserve">27/2/2024, 11:14:10 - Vendedor Megamoto: buen dia, comunicate al 1156202281 </v>
+      </c>
+      <c r="D94" t="str">
+        <v>642ed4dce58bb800081663a4</v>
+      </c>
+      <c r="E94" s="1">
+        <v>45349.46762263889</v>
+      </c>
+    </row>
+    <row r="95" xml:space="preserve">
+      <c r="A95" t="str">
+        <v>Henaomateo521</v>
+      </c>
+      <c r="B95" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C95" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 11:15:06 - Vendedor Megamoto: Buenas, soy jose de megamoto, decime donde patentas y te paso el precio final en calle
+</v>
+      </c>
+      <c r="D95" t="str">
+        <v>65dddd7921871d0008523c7d</v>
+      </c>
+      <c r="E95" s="1">
+        <v>45349.46826576389</v>
+      </c>
+    </row>
+    <row r="96" xml:space="preserve">
+      <c r="A96" t="str">
+        <v>Jorge Limachi</v>
+      </c>
+      <c r="B96" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C96" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 11:15:26 - Vendedor Megamoto: Buenas, soy jose de megamoto, decime donde patentas y te paso el precio final en calle
+</v>
+      </c>
+      <c r="D96" t="str">
+        <v>65dde74c87d61900093e7fd1</v>
+      </c>
+      <c r="E96" s="1">
+        <v>45349.46850380787</v>
+      </c>
+    </row>
+    <row r="97" xml:space="preserve">
+      <c r="A97" t="str">
+        <v>Snm</v>
+      </c>
+      <c r="B97" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C97" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 12:15:41 - Vendedor Megamoto: las maneras de realizar la compra son: 		 
+- contado (efectivo, debito , transferencia ) 
+ - con tarjeta de credito bancaria. 
+- Con prestamo personal.	
+ Vos como tenias previsto?
+</v>
+      </c>
+      <c r="D97" t="str">
+        <v>65c6984371de2300087bae94</v>
+      </c>
+      <c r="E97" s="1">
+        <v>45349.51034238426</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Facu</v>
+      </c>
+      <c r="B98" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C98" t="str">
+        <v xml:space="preserve">27/2/2024, 12:16:27 - Vendedor Megamoto: blitz full contado $1.145.500 con patentamiento incluido </v>
+      </c>
+      <c r="D98" t="str">
+        <v>65dd3f175e87a300081fae63</v>
+      </c>
+      <c r="E98" s="1">
+        <v>45349.51087748843</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Matias Rodriguez</v>
+      </c>
+      <c r="B99" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C99" t="str">
+        <v>27/2/2024, 12:20:04 - Vendedor Megamoto: cammarota matias?</v>
+      </c>
+      <c r="D99" t="str">
+        <v>65dc641b6d256e000872bc28</v>
+      </c>
+      <c r="E99" s="1">
+        <v>45349.51338175926</v>
+      </c>
+    </row>
+    <row r="100" xml:space="preserve">
+      <c r="A100" t="str">
+        <v>Chito</v>
+      </c>
+      <c r="B100" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C100" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 12:33:33 - Chito: ¡Hola! Podrías darme más información de...
+27/2/2024, 12:33:33 - MegaBot: ¡Hola Chito! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 12:41:34 - Chito: De donde son yo sona sur adrogue
+27/2/2024, 12:41:34 - MegaBot: ¡Hola! Para obtener más información sobre Megamoto, te puedo decir que Megamoto es una empresa argentina que comercializa motos, repuestos, accesorios de las marcas Benelli, Suzuki, Motomel, Keeway y Sym. Además, ofrece servicios de postventa en dos ubicaciones: en Merlo sobre la avenida Calle Real 51 (ex. Gobernador Vergara) de lunes a sábados de 10 a 19 horas; y en CABA en la avenida Corrientes 3400 (frente al Abasto) de lunes a viernes de 9 a 19 horas y sábados de 9 a 13 horas. 
+Si estás interesado en algún modelo en particular, por favor házmelo saber para poder asistirte eficientemente. ¿Tienes en mente algún modelo de moto de las marcas que te mencioné? Si es así, por favor indícame cuál es el modelo que te interesa.
+27/2/2024, 12:42:47 - Vendedor Megamoto: si quiere pasar por el local estamos en corrientes 3400 esquina gallo, abasto, CABA, de lunes a viernes  de 09 a 19, sabados de 09 a 13 hs pregunta por jose 
+</v>
+      </c>
+      <c r="D100" t="str">
+        <v>65de00c9c1a2310008314b82</v>
+      </c>
+      <c r="E100" s="1">
+        <v>45349.5227525</v>
+      </c>
+    </row>
+    <row r="101" xml:space="preserve">
+      <c r="A101" t="str">
+        <v>Ezequiel</v>
+      </c>
+      <c r="B101" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C101" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 12:40:53 - Vendedor Megamoto: las maneras de realizar la compra son: 		 
+- contado (efectivo, debito , transferencia ) 
+ - con tarjeta de credito bancaria. 
+- Con prestamo personal.	
+ Vos como tenias previsto?
+</v>
+      </c>
+      <c r="D101" t="str">
+        <v>65ddc633c471d300087067c9</v>
+      </c>
+      <c r="E101" s="1">
+        <v>45349.527843449076</v>
+      </c>
+    </row>
+    <row r="102" xml:space="preserve">
+      <c r="A102" t="str">
+        <v>Mauricio Esaú</v>
+      </c>
+      <c r="B102" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C102" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 13:03:34 - Mauricio Esaú: Hola, tengo algunas preguntas sobre Keeway Rk 150 - Mejor Contado - Financiada!. https://moto.mercadolibre.com.ar/MLA-1401671009-keeway-rk-150-mejor-contado-financiada-_JM?u=MzQ5ODI2MTkw
+27/2/2024, 13:03:35 - MegaBot: ¡Hola Mauricio Esaú! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 15:15:04 - Mauricio Esaú: ok perfecto , otra consulta
+27/2/2024, 15:15:04 - MegaBot: ¡Hola! ¿En qué puedo ayudarte con respecto a la Keeway RK 150 - Mejor Contado - Financiada?
+27/2/2024, 15:15:13 - Mauricio Esaú: alguna moto automática 150 o 135 cc
+27/2/2024, 15:15:13 - MegaBot: Megamoto cuenta con la Motomel Blitz 110 V8 Base One - B1 Automática Nueva de 110 cc. Es la opción más cercana en cilindrada automática que ofrecemos. ¿Te interesa este modelo?
+27/2/2024, 15:15:18 - Mauricio Esaú: tienen
+27/2/2024, 15:15:19 - MegaBot: Perfecto, ¿podrías indicarme el método de pago que te interesaría utilizar para adquirir la Motomel Blitz 110 V8 Base One - B1 Automática Nueva?
+27/2/2024, 15:15:29 - Mauricio Esaú: algo parecido a la gilera smash X125
+27/2/2024, 15:15:29 - MegaBot: Lamentablemente Megamoto no cuenta con la Gilera Smash X125 en su stock. ¿Te interesaría conocer más detalles sobre la Motomel Blitz 110 V8 Base One - B1 Automática Nueva de 110 cc que tenemos disponible? Si es así, ¿Podrías indicarme el método de pago que te interesaría utilizar?
+27/2/2024, 15:22:43 - Mauricio Esaú: cuales scooters?
+27/2/2024, 15:22:43 - MegaBot: En Megamoto contamos con scooters de la marca Sym. Algunos de los modelos disponibles son el Citycom 300i y la Sym Symphony ST 200i. 
+Si estás interesado en alguno de estos scooters, por favor indícame el modelo que te interesa y el método de pago que deseas utilizar para poder asistirte mejor.
+27/2/2024, 15:24:19 - Vendedor Megamoto: strato euro y srato alpino de motomel </v>
+      </c>
+      <c r="D102" t="str">
+        <v>65de07d349310200081851f7</v>
+      </c>
+      <c r="E102" s="1">
+        <v>45349.54359903935</v>
+      </c>
+    </row>
+    <row r="103" xml:space="preserve">
+      <c r="A103" t="str">
+        <v>Alex Vera</v>
+      </c>
+      <c r="B103" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C103" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 13:07:16 - Alex Vera: ¡Hola! Podrías darme más información de...
+27/2/2024, 13:07:16 - MegaBot: ¡Hola Alex Vera! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 13:17:23 - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?</v>
+      </c>
+      <c r="D103" t="str">
+        <v>65de08b0820e9b0008499e15</v>
+      </c>
+      <c r="E103" s="1">
+        <v>45349.54616293981</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>En Línea</v>
+      </c>
+      <c r="B104" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C104" t="str">
+        <v xml:space="preserve">27/2/2024, 13:11:41 - Vendedor Megamoto: Hola como estas ? </v>
+      </c>
+      <c r="D104" t="str">
+        <v>65bb16dc1b018900082c0d12</v>
+      </c>
+      <c r="E104" s="1">
+        <v>45349.54923577546</v>
+      </c>
+    </row>
+    <row r="105" xml:space="preserve">
+      <c r="A105" t="str">
+        <v>Lucho👑</v>
+      </c>
+      <c r="B105" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C105" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 13:13:30 - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?</v>
+      </c>
+      <c r="D105" t="str">
+        <v>65ddd5dfc23bb300089de21b</v>
+      </c>
+      <c r="E105" s="1">
+        <v>45349.55049054398</v>
+      </c>
+    </row>
+    <row r="106" xml:space="preserve">
+      <c r="A106" t="str">
+        <v>Erica💋</v>
+      </c>
+      <c r="B106" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C106" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 13:14:00 - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?</v>
+      </c>
+      <c r="D106" t="str">
+        <v>65dde4255269ca00086837a3</v>
+      </c>
+      <c r="E106" s="1">
+        <v>45349.550843310186</v>
+      </c>
+    </row>
+    <row r="107" xml:space="preserve">
+      <c r="A107" t="str">
+        <v>Juani🇾🇪</v>
+      </c>
+      <c r="B107" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C107" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 13:15:25 - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto.Decime, en que localidad tenes domicilio? asi te paso precio con patentamiento. </v>
+      </c>
+      <c r="D107" t="str">
+        <v>65ddf1283d1a2800081326c7</v>
+      </c>
+      <c r="E107" s="1">
+        <v>45349.5518271875</v>
+      </c>
+    </row>
+    <row r="108" xml:space="preserve">
+      <c r="A108" t="str">
+        <v>Brisa Quarin</v>
+      </c>
+      <c r="B108" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C108" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 13:16:52 - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto.</v>
+      </c>
+      <c r="D108" t="str">
+        <v>65ddf40e4bd02700087d21d8</v>
+      </c>
+      <c r="E108" s="1">
+        <v>45349.55282645833</v>
+      </c>
+    </row>
+    <row r="109" xml:space="preserve">
+      <c r="A109" t="str">
+        <v>Gastón</v>
+      </c>
+      <c r="B109" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C109" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 13:39:04 - Gastón: ¡Hola! Podrías darme más información de...
+27/2/2024, 13:39:04 - MegaBot: ¡Hola Gastón! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 14:57:28 - Gastón: Nono , quería consultar financiado
+27/2/2024, 14:57:28 - MegaBot: Entiendo, ¿te gustaría obtener más información sobre cómo financiar tu compra?
+27/2/2024, 14:57:45 - Gastón: Quería saber adelanto y  las cuotas fijas
+27/2/2024, 14:57:45 - MegaBot: Para poder brindarte información sobre el adelanto y las cuotas fijas, necesitaría saber si estás buscando financiamiento a través de un préstamo o si estás pensando en pagar con tarjeta de crédito. ¿Podrías indicarme si se trata de un préstamo o un pago con tarjeta de crédito?
+27/2/2024, 15:08:06 - Vendedor Megamoto: Te habló de mi WhatsApp personal.</v>
+      </c>
+      <c r="D109" t="str">
+        <v>65de10237a61de00086117ca</v>
+      </c>
+      <c r="E109" s="1">
+        <v>45349.568241469904</v>
+      </c>
+    </row>
+    <row r="110" xml:space="preserve">
+      <c r="A110" t="str">
+        <v>Martin</v>
+      </c>
+      <c r="B110" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C110" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 14:55:12 - Vendedor Megamoto: La S2 150 full financiada con tarjeta de crédito bancaria el 100% te quedan las cuotas
+3 cuotas de $689.505
+6 cuotas de $391.899
+Así te quedan las cuotas.</v>
+      </c>
+      <c r="D110" t="str">
+        <v>65dd2cd66f1d5e000899a9ce</v>
+      </c>
+      <c r="E110" s="1">
+        <v>45349.62111361111</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>María Flores</v>
+      </c>
+      <c r="B111" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C111" t="str">
+        <v xml:space="preserve">27/2/2024, 14:55:59 - Vendedor Megamoto: Pudiste ver las fotos? </v>
+      </c>
+      <c r="D111" t="str">
+        <v>65dd3e8704c4ab0008e96607</v>
+      </c>
+      <c r="E111" s="1">
+        <v>45349.62166548611</v>
+      </c>
+    </row>
+    <row r="112" xml:space="preserve">
+      <c r="A112" t="str">
+        <v>.</v>
+      </c>
+      <c r="B112" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C112" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 15:01:26 - .: ¡Hola! Podrías darme más información de...
+27/2/2024, 15:01:26 - MegaBot: ¡Hola .! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 15:33:30 - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?</v>
+      </c>
+      <c r="D112" t="str">
+        <v>65de2372efb00900082718ab</v>
+      </c>
+      <c r="E112" s="1">
+        <v>45349.62544909722</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>Viviana</v>
+      </c>
+      <c r="B113" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C113" t="str">
+        <v>27/2/2024, 15:06:23 - Vendedor Megamoto: blitz base $1.050.000 - full $1.145.500 contado con patentamiento</v>
+      </c>
+      <c r="D113" t="str">
+        <v>65dcfce5ec16b50008e8dc7f</v>
+      </c>
+      <c r="E113" s="1">
+        <v>45349.62888023148</v>
+      </c>
+    </row>
+    <row r="114" xml:space="preserve">
+      <c r="A114" t="str">
+        <v>Gonzalo Ponce</v>
+      </c>
+      <c r="B114" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C114" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 15:14:26 - Gonzalo Ponce: ¡Hola! Podrías darme más información de...
+27/2/2024, 15:14:26 - MegaBot: ¡Hola Gonzalo Ponce! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 15:23:19 - Vendedor Megamoto: Buenas, soy jose de megamoto, decime donde patentas y te paso el precio final en calle
+</v>
+      </c>
+      <c r="D114" t="str">
+        <v>65de267e339ed7000839043c</v>
+      </c>
+      <c r="E114" s="1">
+        <v>45349.634475914354</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>Jorge Peirano</v>
+      </c>
+      <c r="B115" t="str">
+        <v>instagram</v>
+      </c>
+      <c r="C115" t="str">
+        <v>27/2/2024, 15:20:18 - Vendedor Megamoto: Por el momento con ese dni sale rechazado. No me dice el motivo exacto. Pueden ser varios motivos, como bajo puntaje crediticio, que estés pagando alguna cuota, la antigüedad laboral,etc.. Pero podemos probar con otra persona, tenés algún familiar o amigo que quiera ser tu garante?, de ser asi pasame tambien numero de dni, nombre y nos fijamos si le otorgan</v>
+      </c>
+      <c r="D115" t="str">
+        <v>65dd38b03f625000085183cc</v>
+      </c>
+      <c r="E115" s="1">
+        <v>45349.63854966435</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>Mauro</v>
+      </c>
+      <c r="B116" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C116" t="str">
+        <v>27/2/2024, 15:21:06 - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D116" t="str">
+        <v>6436061677066200081d6308</v>
+      </c>
+      <c r="E116" s="1">
+        <v>45349.63910622685</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>Sol Indumentaria</v>
+      </c>
+      <c r="B117" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C117" t="str">
+        <v xml:space="preserve">27/2/2024, 15:21:30 - Vendedor Megamoto: hola si, por ejemplo puede ser una 110cc </v>
+      </c>
+      <c r="D117" t="str">
+        <v>65dd3ad1be7e25000886813a</v>
+      </c>
+      <c r="E117" s="1">
+        <v>45349.63938424768</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>Nahuel</v>
+      </c>
+      <c r="B118" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C118" t="str">
+        <v>27/2/2024, 15:21:47 - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D118" t="str">
+        <v>65de1535b6917c0008c766ff</v>
+      </c>
+      <c r="E118" s="1">
+        <v>45349.63958068287</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>Showroom La Tana Indumentaria</v>
+      </c>
+      <c r="B119" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C119" t="str">
+        <v>27/2/2024, 15:21:56 - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D119" t="str">
+        <v>65dcf58565bd07000840e8ac</v>
+      </c>
+      <c r="E119" s="1">
+        <v>45349.63967856482</v>
+      </c>
+    </row>
+    <row r="120" xml:space="preserve">
+      <c r="A120" t="str">
+        <v>😎mala_conducta_tatto😎</v>
+      </c>
+      <c r="B120" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C120" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 15:33:54 - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?</v>
+      </c>
+      <c r="D120" t="str">
+        <v>65de1a28b63ea8000886954f</v>
+      </c>
+      <c r="E120" s="1">
+        <v>45349.647993425926</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>Yorch!!!</v>
+      </c>
+      <c r="B121" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C121" t="str">
+        <v>27/2/2024, 15:59:30 - Vendedor Megamoto: Hola, como estas? buenas tardes</v>
+      </c>
+      <c r="D121" t="str">
+        <v>64f8b0ae9654990008097e15</v>
+      </c>
+      <c r="E121" s="1">
+        <v>45349.66577206019</v>
+      </c>
+    </row>
+    <row r="122" xml:space="preserve">
+      <c r="A122" t="str">
+        <v>Gael Alejo Salas</v>
+      </c>
+      <c r="B122" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C122" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 16:10:32 - Vendedor Megamoto: Hola Gael, buenas tardes. Te envié mensaje desde el 1159790625
+Saludos, Joselin</v>
+      </c>
+      <c r="D122" t="str">
+        <v>647c8697a8cbda0008112553</v>
+      </c>
+      <c r="E122" s="1">
+        <v>45349.673431041665</v>
+      </c>
+    </row>
+    <row r="123" xml:space="preserve">
+      <c r="A123" t="str">
+        <v>...</v>
+      </c>
+      <c r="B123" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C123" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 16:12:30 - ...: ¡Hola! Me gustaría conseguir más información sobre esto.
+27/2/2024, 16:12:31 - MegaBot: ¡Hola ...! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 16:16:31 - Vendedor Megamoto: Hola.  Buenas tardes 
+ Recibimos tu consulta de interés por una moto.  
+Te comento: Nosotros trabajamos las marcas: Motomel, Benelli , Suzuki y Keeway.
+Te comparto catalogo para que puedas ver los modelos disponibles, así me indicas cuál te interesa y te asesoro mejor
+Sigue este enlace para ver nuestro catálogo en WhatsApp: https://wa.me/c/5491159790625</v>
+      </c>
+      <c r="D123" t="str">
+        <v>65de341a560a3d00081b9a04</v>
+      </c>
+      <c r="E123" s="1">
+        <v>45349.67480204861</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>Sergio Y La Amo A Pilar</v>
+      </c>
+      <c r="B124" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C124" t="str">
+        <v>27/2/2024, 16:13:52 - Vendedor Megamoto: Decime, en que localidad tenes domicilio? asi te paso precio con patentamiento.</v>
+      </c>
+      <c r="D124" t="str">
+        <v>65dd3e14d5c2080009a0b3df</v>
+      </c>
+      <c r="E124" s="1">
+        <v>45349.675751967596</v>
+      </c>
+    </row>
+    <row r="125" xml:space="preserve">
+      <c r="A125" t="str">
+        <v>Dylan 🥷🏻</v>
+      </c>
+      <c r="B125" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C125" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 16:15:08 - Vendedor Megamoto: Hola Dylan, buenas tardes
+En el caso de crédito personal,  los requisitos son: A partir de 21 años, tener recibo de sueldo,  monotributo,  pensión o jubilación y no estar en veraz (puede ser tuyo o de otra persona) pasame tu nro de DNI y así lo verificamos en sistema</v>
+      </c>
+      <c r="D125" t="str">
+        <v>65de2ececff5db00087bbd35</v>
+      </c>
+      <c r="E125" s="1">
+        <v>45349.67662329861</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>N José Pinto</v>
+      </c>
+      <c r="B126" t="str">
+        <v>facebook</v>
+      </c>
+      <c r="C126" t="str">
+        <v xml:space="preserve">27/2/2024, 16:33:10 - Vendedor Megamoto: buenas tardes, soy jose de megamoto no trabajamos zanella tengo la cg la base patentada en caba te sale 1431300 pesos y la full  1699300 pesos </v>
+      </c>
+      <c r="D126" t="str">
+        <v>65de3644b5541f000807e41e</v>
+      </c>
+      <c r="E126" s="1">
+        <v>45349.68915331019</v>
+      </c>
+    </row>
+    <row r="127" xml:space="preserve">
+      <c r="A127" t="str">
+        <v>Mike</v>
+      </c>
+      <c r="B127" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C127" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 16:33:31 - Mike: Hola buenas tardes
+27/2/2024, 16:33:31 - MegaBot: ¡Hola Mike! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 16:33:48 - Mike: Me das precios de los 110
+27/2/2024, 16:33:48 - MegaBot: Los precios de los modelos Blitz 110 son los siguientes:
+- BLITZ 110 V8 START marca Motomel a $ 1.049.946
+- BLITZ 110 V8 FULL ONE - B1 - ALEACION DISCO - NEW marca Motomel a $ 1.145.495
+- BLITZ 110 V8 BASE ONE - B1 Automatica - NEW marca Motomel a $ 1.145.953
+- BLITZ 110 V8 PLUS marca Motomel a $ 1.303.947
+- BLITZ 110 V8 TUNNING NEW marca Motomel a $ 1.412.415
+Estos precios incluyen el patentamiento, pero no incluyen el sellado de CABA y deberán ser confirmados por un vendedor. ¿Te interesa alguno de estos modelos?
+27/2/2024, 16:33:58 - Mike: Y 150 por fa
+27/2/2024, 16:33:58 - MegaBot: Los precios de los modelos con cilindrada de 150cc son los siguientes:
+- CG 150 S2 START marca Motomel a $ 1.579.241
+- CG 150 S2 FULL (aleac / disco) marca Motomel a $ 1.778.962
+- SKUA 150 SILVER EDITION marca Motomel a $ 1.836.367
+- STRATO 150 EURO marca Motomel a $ 1.922.507
+- STRATO 150 ALPINO marca Motomel a $ 2.252.482
+Estos precios incluyen el patentamiento, pero no el sellado de CABA y deben ser confirmados por un vendedor. ¿Te interesa algún modelo en particular de los mencionados?
+27/2/2024, 16:41:18 - Vendedor Megamoto: hola buenas tardes</v>
+      </c>
+      <c r="D127" t="str">
+        <v>65de3907258ceb000822e04c</v>
+      </c>
+      <c r="E127" s="1">
+        <v>45349.68938800926</v>
+      </c>
+    </row>
+    <row r="128" xml:space="preserve">
+      <c r="A128" t="str">
+        <v>Axel</v>
+      </c>
+      <c r="B128" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C128" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 16:43:05 - Axel: ¡Hola! Podrías darme más información de...
+27/2/2024, 16:43:05 - MegaBot: ¡Hola Axel! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 16:50:32 - Vendedor Megamoto: buenas soy jose de megamoto, para los prestamos personales lo consultamos con el nro de DNI, puede ser tuyo o de algun familiar amigo que te quiera salir de garante. Como requisito piden minimo de 21 años, con recibo de sueldo, monotributo, o jubilacion y sin deudas! Pasame un nro de dni y lo consulto en el momento.
+</v>
+      </c>
+      <c r="D128" t="str">
+        <v>65de3b425398e500083bc6e0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>45349.6960353125</v>
+      </c>
+    </row>
+    <row r="129" xml:space="preserve">
+      <c r="A129" t="str">
+        <v>Nacclean</v>
+      </c>
+      <c r="B129" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C129" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 16:44:49 - Nacclean: ¡Hola! Podrías darme más información de...
+27/2/2024, 16:44:50 - MegaBot: ¡Hola Nacclean! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 16:45:06 - Nacclean: Quiero averiguar por la e
+302
+27/2/2024, 16:45:07 - MegaBot: Parece que hubo un problema al intentar abrir el documento. Permíteme realizar otra revisión para encontrar la información sobre la moto Benelli 302S. Un momento, por favor. 
+27/2/2024, 16:45:12 - Nacclean: Formas de pago
+27/2/2024, 16:45:12 - MegaBot: Las formas de pago disponibles en Megamoto son efectivo, tarjetas de crédito, préstamos o una combinación de estas formas. Para la compra de la moto, se retira en el momento del pago. Si necesitas más detalles sobre las formas de pago o deseas conocer las opciones de financiación, por favor házmelo saber.
+27/2/2024, 16:58:05 - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, en que localidad tenes domicilio? asi te paso precio con patentamiento.
+</v>
+      </c>
+      <c r="D129" t="str">
+        <v>65de3bade9b3ef0008174d95</v>
+      </c>
+      <c r="E129" s="1">
+        <v>45349.69724400463</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>Marcelo Vallejo</v>
+      </c>
+      <c r="B130" t="str">
+        <v>facebook</v>
+      </c>
+      <c r="C130" t="str">
+        <v xml:space="preserve">27/2/2024, 16:45:56 - Vendedor Megamoto: daale perfecto avisame asi les digo que la tengan lista </v>
+      </c>
+      <c r="D130" t="str">
+        <v>65db9545d2afe70008b690f6</v>
+      </c>
+      <c r="E130" s="1">
+        <v>45349.69801280092</v>
+      </c>
+    </row>
+    <row r="131" xml:space="preserve">
+      <c r="A131" t="str">
+        <v>Iván Daniel</v>
+      </c>
+      <c r="B131" t="str">
+        <v>instagram</v>
+      </c>
+      <c r="C131" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 16:54:39 - Iván Daniel: Hola precio de la skua 150 v6 ?
+27/2/2024, 16:54:39 - MegaBot: ¡Hola Iván Daniel! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 16:54:49 - Iván Daniel: Hola precio de la skua 150 v6 ?
+27/2/2024, 16:54:49 - MegaBot: No se pudo encontrar información sobre una Skua 150 V6 en el archivo proporcionado. Sin embargo, te puedo proporcionar la información de los modelos de Skua disponibles para que puedas tener todas las opciones:
+- SKUA 125 X-TREME marca Motomel a $ 1.481.699
+- SKUA 150 NEW GENERATION marca Motomel a $ 1.739.539
+- SKUA 150 SILVER EDITION marca Motomel a $ 2.047.596
+- SKUA 250 BASE NEW marca Motomel a $ 2.356.406
+- SKUA 250 ADVENTURE NUEVO MODELO marca Motomel a $ 3.353.939
+Es importante tener en cuenta que los precios incluyen patentamiento, no incluyen el sellado de CABA y deben ser confirmados por un vendedor. ¿Te gustaría saber más sobre alguno de estos modelos o cómo proceder con la compra?
+27/2/2024, 17:46:28 - Vendedor Megamoto: hola buen dia, en que localidad tenes domicilio? asi te paso precio con patentamiento</v>
+      </c>
+      <c r="D131" t="str">
+        <v>65de3dfc760b410008520f73</v>
+      </c>
+      <c r="E131" s="1">
+        <v>45349.7040630787</v>
+      </c>
+    </row>
+    <row r="132" xml:space="preserve">
+      <c r="A132" t="str">
+        <v>Monti</v>
+      </c>
+      <c r="B132" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C132" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 16:59:37 - Monti: ¡Hola! Podrías darme más información de...
+27/2/2024, 16:59:37 - MegaBot: ¡Hola Monti! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 17:11:10 - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?</v>
+      </c>
+      <c r="D132" t="str">
+        <v>65de3f27df7db80008a7b086</v>
+      </c>
+      <c r="E132" s="1">
+        <v>45349.70751516204</v>
+      </c>
+    </row>
+    <row r="133" xml:space="preserve">
+      <c r="A133" t="str">
+        <v>Seba Campanello</v>
+      </c>
+      <c r="B133" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C133" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 17:07:23 - Seba Campanello: ¡Hola! Que modelos disponibles tiene?
+27/2/2024, 17:07:24 - MegaBot: ¡Hola Seba Campanello! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 17:09:33 - Seba Campanello: Trj credito
+27/2/2024, 17:09:33 - MegaBot: Entendido. ¿Estás interesado en pagar con tarjeta de crédito?
+27/2/2024, 17:11:41 - Vendedor Megamoto: buenas tardes soy jose de megamoto https://motomel.com.ar/ acá podes ver los modelos de motomel que trabajamos y acá los de benelli con sus fichas ambos https://www.benelli.com/ar-es
+</v>
+      </c>
+      <c r="D133" t="str">
+        <v>65de40f9fe482e0008148a0b</v>
+      </c>
+      <c r="E133" s="1">
+        <v>45349.71291516204</v>
+      </c>
+    </row>
+    <row r="134" xml:space="preserve">
+      <c r="A134" t="str">
+        <v>Cinthia</v>
+      </c>
+      <c r="B134" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C134" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 17:16:24 - Cinthia: Buenas tardes
+27/2/2024, 17:16:25 - MegaBot: ¡Hola Cinthia! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 17:16:41 - Cinthia: Que precio tiene la wabe
+27/2/2024, 17:16:42 - MegaBot: ¡Hola! ¿Estás consultando por el precio de una moto Wabe? Para poder brindarte esa información, necesitaría que me confirmes el modelo exacto de la moto Wabe que te interesa. Megamoto comercializa distintas marcas y modelos, por lo que si me indicas el modelo específico podré informarte el precio con precisión. ¿Podrías proporcionarme el nombre completo del modelo de la moto Wabe que te interesa? ¡Gracias!
+27/2/2024, 17:16:57 - Cinthia: Y la honda 125
+27/2/2024, 17:17:01 - MegaBot: ¡Hola! En Megamoto no comercializamos motos de la marca Honda, pero contamos con una amplia variedad de modelos de otras marcas como Benelli, Suzuki, Motomel, Keeway y Sym. Si estás interesado en alguna de estas marcas y modelos, estaré encantado de ayudarte a obtener más información sobre ellas. ¿Te gustaría conocer más detalles sobre alguna de estas marcas y sus modelos disponibles? ¡Estoy aquí para asistirte!
+27/2/2024, 18:08:28 - Vendedor Megamoto: Hola como estas? buenas tardes
+Te comento: Nosotros trabajamos las marcas Motomel,  Benelli,  Sym , Suzuki y Keeway.  
+Te comparto para que puedas ver los modelos disponibles
+Saludos, Joselin
+https://wa.me/c/5491159790625</v>
+      </c>
+      <c r="D134" t="str">
+        <v>65de43162e72190008dcd50f</v>
+      </c>
+      <c r="E134" s="1">
+        <v>45349.719177175924</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Luis Gabriel Olea Gramajo</v>
+      </c>
+      <c r="B135" t="str">
+        <v>facebook</v>
+      </c>
+      <c r="C135" t="str">
+        <v>27/2/2024, 17:18:00 - Vendedor Megamoto: buen dia soy jose de megamoto la blitz base   tiene un precio promocional, por tiempo limitado de contado patentada en provincia te sale 1050000 pesos, este valor es promocional con unidades limitadas, si la patentas en caba decime y te paso el valor del sellado</v>
+      </c>
+      <c r="D135" t="str">
+        <v>65de4153a2d78d00086c0144</v>
+      </c>
+      <c r="E135" s="1">
+        <v>45349.72028327546</v>
+      </c>
+    </row>
+    <row r="136" xml:space="preserve">
+      <c r="A136" t="str">
+        <v>Luciano</v>
+      </c>
+      <c r="B136" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C136" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 17:22:27 - Luciano: ¡Hola! Podrías darme más información de...
+27/2/2024, 17:22:28 - MegaBot: ¡Hola Luciano! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 17:31:19 - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?</v>
+      </c>
+      <c r="D136" t="str">
+        <v>65de44815545df0008ee36c3</v>
+      </c>
+      <c r="E136" s="1">
+        <v>45349.723378229166</v>
+      </c>
+    </row>
+    <row r="137" xml:space="preserve">
+      <c r="A137" t="str">
+        <v>Adrii</v>
+      </c>
+      <c r="B137" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C137" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 17:31:53 - Adrii: ¡Hola! Podrías darme más información de...
+27/2/2024, 17:31:53 - MegaBot: ¡Hola Adrii! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 17:46:42 - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D137" t="str">
+        <v>65de46b71a3c180008e85aa9</v>
+      </c>
+      <c r="E137" s="1">
+        <v>45349.72992349537</v>
+      </c>
+    </row>
+    <row r="138" xml:space="preserve">
+      <c r="A138" t="str">
+        <v>𝑴  𝑬  𝑳 🦋</v>
+      </c>
+      <c r="B138" t="str">
+        <v>instagram</v>
+      </c>
+      <c r="C138" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 17:40:37 - 𝑴  𝑬  𝑳 🦋: Buenas tardes
+27/2/2024, 17:40:37 - MegaBot: ¡Hola 𝑴  𝑬  𝑳 🦋! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 17:40:42 - 𝑴  𝑬  𝑳 🦋: Buenas tardes
+27/2/2024, 17:40:42 - MegaBot: ¡Buenas tardes! ¿En qué puedo ayudarte hoy en Megamoto?
+27/2/2024, 17:40:48 - 𝑴  𝑬  𝑳 🦋: Me envían más info?
+27/2/2024, 17:40:48 - MegaBot: Claro, déjame revisar la información que me has proporcionado. ¿Estás interesado en algún modelo en particular de moto en Megamoto?
+27/2/2024, 17:40:53 - 𝑴  𝑬  𝑳 🦋: Me envían más info?
+27/2/2024, 17:40:53 - MegaBot: ¡Claro que sí! ¿En qué modelo de moto estás interesado? Puedo proporcionarte información detallada sobre los diferentes modelos disponibles en Megamoto.
+27/2/2024, 17:40:58 - 𝑴  𝑬  𝑳 🦋: Gracias
+27/2/2024, 17:40:58 - MegaBot: ¡De nada! Si en algún momento deseas más detalles sobre algún modelo en específico o cualquier otra consulta, no dudes en decirme. ¡Estoy aquí para ayudarte en Megamoto!
+27/2/2024, 17:41:04 - 𝑴  𝑬  𝑳 🦋: Gracias
+27/2/2024, 17:41:04 - MegaBot: ¡De nada! ¡Que tengas un excelente día!</v>
+      </c>
+      <c r="D138" t="str">
+        <v>65de48b83e6a920008a5ce0a</v>
+      </c>
+      <c r="E138" s="1">
+        <v>45349.73598576389</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Ka</v>
+      </c>
+      <c r="B139" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C139" t="str">
+        <v xml:space="preserve">27/2/2024, 17:44:53 - Vendedor Megamoto: Hola buenas tardes como estás? Si me decís qué modelo de moto estás interesado? Y que zona estas radicado para tener en cuenta el patentamiento. </v>
+      </c>
+      <c r="D139" t="str">
+        <v>65c3d27ca1e1930009058713</v>
+      </c>
+      <c r="E139" s="1">
+        <v>45349.73895662037</v>
+      </c>
+    </row>
+    <row r="140" xml:space="preserve">
+      <c r="A140" t="str">
+        <v>Gaston</v>
+      </c>
+      <c r="B140" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C140" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 18:12:34 - Gaston: ¡Hola! Me gustaría conseguir más información sobre esto.
+27/2/2024, 18:12:34 - MegaBot: ¡Hola Gaston! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 18:20:17 - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?</v>
+      </c>
+      <c r="D140" t="str">
+        <v>65de503f6a10da00086e7475</v>
+      </c>
+      <c r="E140" s="1">
+        <v>45349.75818019676</v>
+      </c>
+    </row>
+    <row r="141" xml:space="preserve">
+      <c r="A141" t="str">
+        <v>Juan Carlos Saucedo</v>
+      </c>
+      <c r="B141" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C141" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 18:13:35 - Juan Carlos Saucedo: ¡Hola! Podrías darme más información de...kiero esa moto
+27/2/2024, 18:13:35 - MegaBot: ¡Hola Juan Carlos Saucedo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 18:13:56 - Juan Carlos Saucedo: Com es la entrega
+27/2/2024, 18:13:56 - MegaBot: ¡Hola! Para obtener más información sobre la entrega, deberíamos seguir un orden para facilitar la atención.  
+Primero, ¿podrías indicarme el modelo de moto que te interesa? Una vez que tengamos esa información, podré orientarte sobre la entrega y cualquier otro detalle que necesites conocer. ¡Gracias!
+27/2/2024, 18:20:02 - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?</v>
+      </c>
+      <c r="D141" t="str">
+        <v>65de507c797fe80008c0edcb</v>
+      </c>
+      <c r="E141" s="1">
+        <v>45349.75888149306</v>
+      </c>
+    </row>
+    <row r="142" xml:space="preserve">
+      <c r="A142" t="str">
+        <v>Alfred</v>
+      </c>
+      <c r="B142" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C142" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 18:24:38 - Alfred: ¡Hola! Podrías darme más información de...
+27/2/2024, 18:24:39 - MegaBot: ¡Hola Alfred! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 18:31:08 - Vendedor Megamoto: buenas soy jose de megamoto, para los prestamos personales lo consultamos con el nro de DNI, puede ser tuyo o de algun familiar amigo que te quiera salir de garante. Como requisito piden minimo de 21 años, con recibo de sueldo, monotributo, o jubilacion y sin deudas! Pasame un nro de dni y lo consulto en el momento.
+</v>
+      </c>
+      <c r="D142" t="str">
+        <v>65de5314b73346000850b40d</v>
+      </c>
+      <c r="E142" s="1">
+        <v>45349.766561550925</v>
+      </c>
+    </row>
+    <row r="143" xml:space="preserve">
+      <c r="A143" t="str">
+        <v>Ssj</v>
+      </c>
+      <c r="B143" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C143" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 18:46:14 - Ssj: ¡Hola! Podrías darme más información de...
+27/2/2024, 18:46:14 - MegaBot: ¡Hola Ssj! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D143" t="str">
+        <v>65de5823b5eeef00085d349b</v>
+      </c>
+      <c r="E143" s="1">
+        <v>45349.78155778935</v>
+      </c>
+    </row>
+    <row r="144" xml:space="preserve">
+      <c r="A144" t="str">
+        <v>Juan</v>
+      </c>
+      <c r="B144" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C144" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 19:10:37 - Juan: ¡Hola! Podrías darme más información de...
+27/2/2024, 19:10:38 - MegaBot: ¡Hola Juan! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D144" t="str">
+        <v>65de5dda1f81730008039333</v>
+      </c>
+      <c r="E144" s="1">
+        <v>45349.79849394676</v>
+      </c>
+    </row>
+    <row r="145" xml:space="preserve">
+      <c r="A145" t="str">
+        <v>Samuel Villalba~</v>
+      </c>
+      <c r="B145" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C145" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 19:15:07 - Samuel Villalba~: ¡Hola! Podrías darme más información de...
+27/2/2024, 19:15:08 - MegaBot: ¡Hola Samuel Villalba~! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 19:16:46 - Samuel Villalba~: Estoy buscando la trk 502
+27/2/2024, 19:16:47 - MegaBot: La Benelli TRK 502 es uno de los modelos disponibles. El precio de la TRK502 NEW marca Benelli es de $12.423.397. Este precio incluye el patentamiento, pero no el sellado de CABA y deberá ser confirmado por un vendedor.
+¿Tienes alguna otra pregunta o requerimiento específico sobre la TRK 502?
+27/2/2024, 19:16:53 - Samuel Villalba~: Cuánto está
+27/2/2024, 19:16:53 - MegaBot: El precio de la Benelli TRK 502 NEW es de $12.423.397, incluyendo el patentamiento. Te recuerdo que este precio debe ser verificado por un vendedor de Megamoto. 
+¿Te interesa conocer los métodos de pago disponibles?
+27/2/2024, 19:18:55 - Samuel Villalba~: Ah ver el método de pago?
+27/2/2024, 19:18:55 - MegaBot: Los métodos de pago disponibles en Megamoto son efectivo, tarjetas de crédito, préstamos o una combinación de estas formas de pago. 
+Si estás interesado en adquirir la Benelli TRK 502, ¿podrías indicarme cuál sería tu método de pago preferido?
+28/2/2024, 10:07:38 - Vendedor Megamoto: Hola buen día Samuel como estás? 
+Me decís qué zona estas radicado?</v>
+      </c>
+      <c r="D145" t="str">
+        <v>65de5ee9ee4a05000822b7e1</v>
+      </c>
+      <c r="E145" s="1">
+        <v>45349.80161928241</v>
+      </c>
+    </row>
+    <row r="146" xml:space="preserve">
+      <c r="A146" t="str">
+        <v>El Seba</v>
+      </c>
+      <c r="B146" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C146" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 19:18:21 - El Seba: ¡Hola! Podrías darme más información de...
+27/2/2024, 19:18:21 - MegaBot: ¡Hola El Seba! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 19:20:56 - El Seba: Un zanella 150
+27/2/2024, 19:20:56 - MegaBot: No dispongo de información técnica específica sobre Zanella 150 en los documentos consultados. Si estás interesado en modelos específicos de Zanella 150, te recomendaría que visites la página oficial de Zanella para obtener detalles sobre sus modelos y características. ¿Te gustaría conocer más sobre algún otro modelo de motocicleta? ¡Estoy aquí para ayudarte!
+27/2/2024, 19:22:10 - El Seba: Q moto tienen
+27/2/2024, 19:22:10 - MegaBot: En Megamoto contamos con una amplia variedad de modelos de motocicletas de marcas reconocidas como Benelli, Suzuki, Motomel, Keeway y Sym. ¿Tienes algún modelo en particular en mente o alguna preferencia de marca? ¡Estoy aquí para ayudarte a encontrar la moto perfecta para ti!
+28/2/2024, 9:18:24 - Vendedor Megamoto: buen dia, como estas? soy jose de megamoto en 150 te puedo ofrecer la cg s2 de motomel o la skua en duro, vos donde patentas?</v>
+      </c>
+      <c r="D146" t="str">
+        <v>65de5fabe5ebd40008dd78e8</v>
+      </c>
+      <c r="E146" s="1">
+        <v>45349.80386049768</v>
+      </c>
+    </row>
+    <row r="147" xml:space="preserve">
+      <c r="A147" t="str">
+        <v>Instagram User 37i</v>
+      </c>
+      <c r="B147" t="str">
+        <v>instagram</v>
+      </c>
+      <c r="C147" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 21:29:48 - Instagram User 37i: Hola
+27/2/2024, 21:29:49 - MegaBot: ¡Hola Instagram User 37i! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 21:29:55 - Instagram User 37i: Hola
+27/2/2024, 21:29:55 - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy?
+27/2/2024, 21:30:49 - Instagram User 37i: Estaba queriendo saber el precio de la motomel blitz plus
+27/2/2024, 21:30:49 - MegaBot: No pude encontrar la información específica sobre el precio de la Motomel Blitz Plus en el archivo proporcionado. ¿Te gustaría que te proporcionara los precios de todos los modelos de la línea Blitz para que puedas comparar las opciones disponibles?
+27/2/2024, 21:30:56 - Instagram User 37i: Estaba queriendo saber el precio de la motomel blitz plus
+27/2/2024, 21:30:56 - MegaBot: El precio de la Motomel Blitz 110 V8 PLUS es de $ 1.303.947. Es importante tener en cuenta que este precio incluye patentamiento, pero no incluye el sellado de CABA, y deberá ser confirmado por un vendedor. ¿Te gustaría conocer los métodos de pago disponibles para realizar la compra?
+27/2/2024, 21:35:55 - Instagram User 37i: Si
+27/2/2024, 21:35:55 - MegaBot: Los métodos de pago disponibles en Megamoto son efectivo, tarjetas de crédito, préstamos, o una combinación de estas formas. La moto se retira en el momento del pago. 
+Si estás interesado en algún préstamo, es importante mencionar que para financiar la compra con un crédito, se pueden realizar hasta 60 cuotas para préstamos prendarios o hasta 30 cuotas para préstamos personales. En caso de préstamos UVA, las cuotas son fijas. Para acceder a un crédito, usualmente se requiere tener al menos 18 años, no tener deudas y tener ingresos registrados. 
+¿Tienes alguna otra consulta o te gustaría iniciar el proceso de compra de la Motomel Blitz 110 V8 PLUS?
+27/2/2024, 21:36:01 - Instagram User 37i: Si
+27/2/2024, 21:36:01 - MegaBot: Perfecto. Para poder asistirte de la mejor manera posible, necesitaré que me brindes dos datos importantes:
+1) ¿Cuál es el método de pago que deseas utilizar para la compra de la Motomel Blitz 110 V8 PLUS?
+2) En caso de que sea un préstamo, ¿podrías proporcionarme tu número de DNI para que un vendedor pueda verificar si calificas para el crédito?
+Por favor, indícame primero el método de pago que planeas utilizar. ¡Gracias!
+27/2/2024, 21:36:08 - Instagram User 37i: Porfavor
+27/2/2024, 21:36:09 - MegaBot: Por supuesto, ¿en qué puedo ayudarte? ¿Te gustaría que te proporcionara más información sobre la moto o sobre los métodos de pago disponibles en Megamoto?
+27/2/2024, 21:36:15 - Instagram User 37i: Porfavor
+27/2/2024, 21:36:15 - MegaBot: Claro, ¿podrías indicarme si estás interesado en conocer más detalles sobre la Motomel Blitz 110 V8 PLUS o si deseas información específica sobre los métodos de pago disponibles para realizar la compra? ¡Estoy aquí para ayudarte!
+27/2/2024, 21:37:05 - Instagram User 37i: Me gustaria hacer una entrega y dejar a pagar cuotas
+27/2/2024, 21:37:05 - MegaBot: Entiendo. En ese caso, sería posible coordinar una entrega con un pago inicial y el resto abonado en cuotas. Para poder verificar si calificas para un crédito y conocer las opciones de financiación disponibles, necesitaré que me proporciones tu número de DNI. Con este dato, un vendedor de Megamoto podrá realizar la verificación necesaria para determinar las posibilidades de financiamiento que se ajusten a tus necesidades. ¿Podrías proporcionarme tu número de DNI para proceder con este paso?
+27/2/2024, 21:37:12 - Instagram User 37i: Me gustaria hacer una entrega y dejar a pagar cuotas
+27/2/2024, 21:37:12 - MegaBot: Perfecto, para coordinar una entrega con un pago inicial y el resto abonado en cuotas, necesitaré que me brindes tu número de DNI. Con esta información, un vendedor de Megamoto podrá verificar las opciones de financiamiento disponibles y ayudarte en el proceso de compra de la Motomel Blitz 110 V8 PLUS. Por favor, indícame tu número de DNI para que podamos proceder. ¡Gracias!
+27/2/2024, 21:37:19 - Instagram User 37i: Se puede?
+27/2/2024, 21:37:19 - MegaBot: Sí, por supuesto. Si en este momento no cuentas con tu número de DNI a mano, no hay problema. Puedes proporcionarlo en otro momento cuando estés listo para continuar con el proceso de compra. Por favor, no dudes en contactarnos nuevamente cuando estés listo para brindar esa información o si tienes alguna otra pregunta. ¡Estoy aquí para ayudarte en lo que necesites!
+27/2/2024, 21:37:25 - Instagram User 37i: Se puede?
+27/2/2024, 21:37:25 - MegaBot: Claro, no hay problema. Cuando estés listo para proporcionar tu número de DNI y avanzar con el proceso de compra, estaré aquí para asistirte. No dudes en contactarme en cualquier momento. ¡Estoy aquí para ayudarte en lo que necesites!
+27/2/2024, 21:46:15 - Instagram User 37i: 42.213.234
+27/2/2024, 21:46:15 - MegaBot: Perfecto, gracias por proporcionar tu número de DNI. Un vendedor de Megamoto se pondrá en contacto contigo para continuar con el proceso de compra y verificación de la financiación. Te informarán sobre las opciones de entrega y las cuotas disponibles para la Motomel Blitz 110 V8 PLUS. 
+En breve serás contactado para seguir adelante con tu solicitud. ¿Hay algo más en lo que pueda asistirte hoy?
+27/2/2024, 21:46:22 - Instagram User 37i: 42.213.234
+27/2/2024, 21:46:22 - MegaBot: Gracias por proporcionar tu número de DNI. Un vendedor de Megamoto se comunicará contigo para continuar con el proceso de compra de la Motomel Blitz 110 V8 PLUS con la modalidad de entrega y financiación que deseas. Si necesitas algo más, no dudes en consultarme. ¡Estoy aquí para ayudarte en lo que necesites!
+27/2/2024, 21:46:57 - Instagram User 37i: Muchas gracias
+27/2/2024, 21:46:58 - MegaBot: ¡De nada! ¡Gracias a ti por contactar con Megamoto! Si tienes más preguntas en el futuro o necesitas más ayuda, no dudes en escribirnos. ¡Que tengas un excelente día! ¡Hasta luego!
+27/2/2024, 21:47:04 - Instagram User 37i: Muchas gracias
+27/2/2024, 21:47:04 - MegaBot: ¡De nada! ¡Estoy aquí para ayudarte en lo que necesites! ¡Que tengas un excelente día! ¡Hasta luego!</v>
+      </c>
+      <c r="D147" t="str">
+        <v>65de7e7944217400081512a9</v>
+      </c>
+      <c r="E147" s="1">
+        <v>45349.89514832176</v>
+      </c>
+    </row>
+    <row r="148" xml:space="preserve">
+      <c r="A148" t="str">
+        <v>Diego Fossati</v>
+      </c>
+      <c r="B148" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C148" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 21:37:38 - Diego Fossati: ¡Hola! Podrías darme más información de...
+27/2/2024, 21:37:38 - MegaBot: ¡Hola Diego Fossati! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 21:38:21 - Diego Fossati: Alguna de 150cc
+27/2/2024, 21:38:21 - MegaBot: Aquí tienes algunas opciones de motos de 150cc que ofrece Megamoto:
+1. S2 150:
+   - Start: [Ver ficha técnica](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-s2-150-start.pdf)
+   - Aleación: [Ver ficha técnica](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-s2-150-aleacion.pdf)
+2. SKUA 150 Silver Edition: [Ver ficha técnica](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-skua-150-silver.pdf)
+3. STRATO Euro 150 LED: [Ver ficha técnica](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-strato-euro-150-led.pdf)
+Estos modelos podrían ser de tu interés. ¿Hay alguno en particular que te gustaría conocer más o te gustaría recibir información sobre métodos de pago?
+27/2/2024, 21:41:28 - Diego Fossati: Métodos de pago de s2 aleacion
+27/2/2024, 21:41:29 - MegaBot: Para conocer los métodos de pago disponibles para la Motomel S2 150 Aleación, te recomendaría que te pongas en contacto con un vendedor de Megamoto. Ellos podrán brindarte toda la información detallada sobre los métodos de pago específicos para ese modelo en particular. ¿Te gustaría que te ayudara a contactar con un vendedor para que te brinden esa información?</v>
+      </c>
+      <c r="D148" t="str">
+        <v>65de804ff90e500008d59c08</v>
+      </c>
+      <c r="E148" s="1">
+        <v>45349.90058199074</v>
+      </c>
+    </row>
+    <row r="149" xml:space="preserve">
+      <c r="A149" t="str">
+        <v>Maria Aquino</v>
+      </c>
+      <c r="B149" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C149" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 21:43:40 - Maria Aquino: ¡Hola! Podrías darme más información de...
+27/2/2024, 21:43:40 - MegaBot: ¡Hola Maria Aquino! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+28/2/2024, 10:06:28 - Vendedor Megamoto: Hola buen día, me decís qué modelo de moto estás interesada? Que zona estas radicado para tener en cuenta el patentamiento?</v>
+      </c>
+      <c r="D149" t="str">
+        <v>65de81ba9000a70008aea547</v>
+      </c>
+      <c r="E149" s="1">
+        <v>45349.904774560186</v>
+      </c>
+    </row>
+    <row r="150" xml:space="preserve">
+      <c r="A150" t="str">
+        <v>Gabriel</v>
+      </c>
+      <c r="B150" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C150" t="str" xml:space="preserve">
+        <v xml:space="preserve">27/2/2024, 22:08:59 - Gabriel: ¡Hola! Me gustaría conseguir más información sobre esto.
+27/2/2024, 22:09:00 - MegaBot: ¡Hola Gabriel! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+27/2/2024, 22:10:58 - Gabriel: Hola algo económico para trabajar
+27/2/2024, 22:10:58 - MegaBot: ¡Hola! ¿Estás buscando información sobre motos económicas para trabajar? En Megamoto tenemos diferentes modelos que pueden ajustarse a tus necesidades. ¿Tienes en mente algún modelo en particular o alguna preferencia en cuanto a cilindrada? ¡Estoy aquí para ayudarte!
+28/2/2024, 9:24:29 - Vendedor Megamoto: buen dia soy jose de megamoto la blitz base   tiene un precio promocional, por tiempo limitado de contado patentada en provincia te sale 1050000 pesos, este valor es promocional con unidades limitadas, si la patentas en caba decime y te paso el valor del sellado</v>
+      </c>
+      <c r="D150" t="str">
+        <v>65de87a5ed33c00008ccbeb3</v>
+      </c>
+      <c r="E150" s="1">
+        <v>45349.92235840278</v>
+      </c>
+    </row>
+    <row r="151" xml:space="preserve">
+      <c r="A151" t="str">
+        <v>Eulalio Arbo</v>
+      </c>
+      <c r="B151" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C151" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 9:18:26 - Eulalio Arbo: ¡Hola! Podrías darme más información de...
+28/2/2024, 9:18:26 - MegaBot: ¡Hola Eulalio Arbo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+28/2/2024, 9:27:14 - Vendedor Megamoto: Buenas, soy jose de megamoto, decime donde patentas y te paso el precio final en calle
+</v>
+      </c>
+      <c r="D151" t="str">
+        <v>65df248f6fdff60008b8b2f6</v>
+      </c>
+      <c r="E151" s="1">
+        <v>45350.387247025465</v>
+      </c>
+    </row>
+    <row r="152" xml:space="preserve">
+      <c r="A152" t="str">
+        <v>Daro Udut</v>
+      </c>
+      <c r="B152" t="str">
+        <v>facebook</v>
+      </c>
+      <c r="C152" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 9:18:44 - Vendedor Megamoto: buenas soy jose de megamoto, para los prestamos personales lo consultamos con el nro de DNI, puede ser tuyo o de algun familiar amigo que te quiera salir de garante. Como requisito piden minimo de 21 años, con recibo de sueldo, monotributo, o jubilacion y sin deudas! Pasame un nro de dni y lo consulto en el momento.
+</v>
+      </c>
+      <c r="D152" t="str">
+        <v>65de5f237b234c0008cac0b8</v>
+      </c>
+      <c r="E152" s="1">
+        <v>45350.38745954861</v>
+      </c>
+    </row>
+    <row r="153" xml:space="preserve">
+      <c r="A153" t="str">
+        <v>Nico Benitez</v>
+      </c>
+      <c r="B153" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C153" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 9:20:32 - Vendedor Megamoto: buenas soy jose de megamoto, para los prestamos personales lo consultamos con el nro de DNI, puede ser tuyo o de algun familiar amigo que te quiera salir de garante. Como requisito piden minimo de 21 años, con recibo de sueldo, monotributo, o jubilacion y sin deudas! Pasame un nro de dni y lo consulto en el momento.
+</v>
+      </c>
+      <c r="D153" t="str">
+        <v>65de6d9eb3deba0008188c2b</v>
+      </c>
+      <c r="E153" s="1">
+        <v>45350.38871383102</v>
+      </c>
+    </row>
+    <row r="154" xml:space="preserve">
+      <c r="A154" t="str">
+        <v>Dios Es Mí Pastor Amen</v>
+      </c>
+      <c r="B154" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C154" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 9:20:49 - Vendedor Megamoto: buenas soy jose de megamoto, para los prestamos personales lo consultamos con el nro de DNI, puede ser tuyo o de algun familiar amigo que te quiera salir de garante. Como requisito piden minimo de 21 años, con recibo de sueldo, monotributo, o jubilacion y sin deudas! Pasame un nro de dni y lo consulto en el momento.
+</v>
+      </c>
+      <c r="D154" t="str">
+        <v>65de72f2cc75340008d27ffc</v>
+      </c>
+      <c r="E154" s="1">
+        <v>45350.388911979164</v>
+      </c>
+    </row>
+    <row r="155" xml:space="preserve">
+      <c r="A155" t="str">
+        <v>Braian</v>
+      </c>
+      <c r="B155" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C155" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 9:21:36 - Vendedor Megamoto: buenas soy jose de megamoto, para los prestamos personales lo consultamos con el nro de DNI, puede ser tuyo o de algun familiar amigo que te quiera salir de garante. Como requisito piden minimo de 21 años, con recibo de sueldo, monotributo, o jubilacion y sin deudas! Pasame un nro de dni y lo consulto en el momento.
+</v>
+      </c>
+      <c r="D155" t="str">
+        <v>65de73c7e77c37000876cc7e</v>
+      </c>
+      <c r="E155" s="1">
+        <v>45350.38945577546</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>💞❤️</v>
+      </c>
+      <c r="B156" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C156" t="str">
+        <v>28/2/2024, 9:22:21 - Vendedor Megamoto: ¡Hola 💞❤️! Gracias por contactarte con jose. Recibimos tu consulta correctamente. ¿Cómo te podemos ayudar?</v>
+      </c>
+      <c r="D156" t="str">
+        <v>65de7d48d98fe20008978cd6</v>
+      </c>
+      <c r="E156" s="1">
+        <v>45350.38996880787</v>
+      </c>
+    </row>
+    <row r="157" xml:space="preserve">
+      <c r="A157" t="str">
+        <v>Rocho No Existen</v>
+      </c>
+      <c r="B157" t="str">
+        <v>facebook</v>
+      </c>
+      <c r="C157" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 9:22:39 - Vendedor Megamoto: buenas, soy jose de megamoto, decime que moto buscas, donde patentas y como queres pagar?
+</v>
+      </c>
+      <c r="D157" t="str">
+        <v>65de80ae436aa2000876aa72</v>
+      </c>
+      <c r="E157" s="1">
+        <v>45350.39018015046</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Juan Lgbt Lp</v>
+      </c>
+      <c r="B158" t="str">
+        <v>facebook</v>
+      </c>
+      <c r="C158" t="str">
+        <v>28/2/2024, 9:24:54 - Vendedor Megamoto: buen dia soy jose de megamoto la blitz base   tiene un precio promocional, por tiempo limitado de contado patentada en provincia te sale 1050000 pesos, este valor es promocional con unidades limitadas, si la patentas en caba decime y te paso el valor del sellado</v>
+      </c>
+      <c r="D158" t="str">
+        <v>65de95507ac13300083758c6</v>
+      </c>
+      <c r="E158" s="1">
+        <v>45350.3917459838</v>
+      </c>
+    </row>
+    <row r="159" xml:space="preserve">
+      <c r="A159" t="str">
+        <v>Juanjo</v>
+      </c>
+      <c r="B159" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C159" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 9:25:40 - Vendedor Megamoto: buenas soy jose de megamoto, para los prestamos personales lo consultamos con el nro de DNI, puede ser tuyo o de algun familiar amigo que te quiera salir de garante. Como requisito piden minimo de 21 años, con recibo de sueldo, monotributo, o jubilacion y sin deudas! Pasame un nro de dni y lo consulto en el momento.
+</v>
+      </c>
+      <c r="D159" t="str">
+        <v>65dee59e40856c0008f45069</v>
+      </c>
+      <c r="E159" s="1">
+        <v>45350.39227292824</v>
+      </c>
+    </row>
+    <row r="160" xml:space="preserve">
+      <c r="A160" t="str">
+        <v>❤️👑demian👑❤️</v>
+      </c>
+      <c r="B160" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C160" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 9:26:08 - Vendedor Megamoto: Buenas, soy jose de megamoto, decime donde patentas y te paso el precio final en calle
+</v>
+      </c>
+      <c r="D160" t="str">
+        <v>65df1463d6bc4e00082c1063</v>
+      </c>
+      <c r="E160" s="1">
+        <v>45350.39259474537</v>
+      </c>
+    </row>
+    <row r="161" xml:space="preserve">
+      <c r="A161" t="str">
+        <v>R.j.m</v>
+      </c>
+      <c r="B161" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C161" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 9:26:27 - Vendedor Megamoto: buenas soy jose de megamoto, para los prestamos personales lo consultamos con el nro de DNI, puede ser tuyo o de algun familiar amigo que te quiera salir de garante. Como requisito piden minimo de 21 años, con recibo de sueldo, monotributo, o jubilacion y sin deudas! Pasame un nro de dni y lo consulto en el momento.
+</v>
+      </c>
+      <c r="D161" t="str">
+        <v>65df156291366c000820ab82</v>
+      </c>
+      <c r="E161" s="1">
+        <v>45350.39282356481</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Refrigeracion Guanuco</v>
+      </c>
+      <c r="B162" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C162" t="str">
+        <v xml:space="preserve">28/2/2024, 9:29:18 - Vendedor Megamoto: como estas?? calcula que son unos 15 dias para que llegue la chpa la semana proxima vendra en estos dias seguramente te llegue el titulo por email </v>
+      </c>
+      <c r="D162" t="str">
+        <v>65c5861c073c38000808ad77</v>
+      </c>
+      <c r="E162" s="1">
+        <v>45350.39480025463</v>
+      </c>
+    </row>
+    <row r="163" xml:space="preserve">
+      <c r="A163" t="str">
+        <v>Benjamín Gonzalez</v>
+      </c>
+      <c r="B163" t="str">
+        <v>instagram</v>
+      </c>
+      <c r="C163" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 9:35:16 - Benjamín Gonzalez: Buenas! Que precio tiene la s2 150 y como sería la financiación en cuotas
+28/2/2024, 9:35:17 - MegaBot: ¡Hola Benjamín Gonzalez! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+28/2/2024, 9:36:03 - Benjamín Gonzalez: Buenas! Que precio tiene la s2 150 y como sería la financiación en cuotas
+28/2/2024, 9:36:04 - MegaBot: Parece que hubo un problema al intentar abrir el archivo. Permíteme intentarlo de nuevo.
+28/2/2024, 17:45:28 - Vendedor Megamoto: en que localidad tenes domicilio? asi te paso el precio con patentamiento</v>
+      </c>
+      <c r="D163" t="str">
+        <v>65df2882c5a06a0008fe6bdc</v>
+      </c>
+      <c r="E163" s="1">
+        <v>45350.39894616898</v>
+      </c>
+    </row>
+    <row r="164" xml:space="preserve">
+      <c r="A164" t="str">
+        <v>Elquenoperdonanoavanza..😉</v>
+      </c>
+      <c r="B164" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C164" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 9:41:03 - Elquenoperdonanoavanza..😉: ¡Hola! Podrías darme más información de...
+28/2/2024, 9:41:03 - MegaBot: ¡Hola Elquenoperdonanoavanza..😉! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+28/2/2024, 9:59:06 - Vendedor Megamoto: buenas soy jose de megamoto, para los prestamos personales lo consultamos con el nro de DNI, puede ser tuyo o de algun familiar amigo que te quiera salir de garante. Como requisito piden minimo de 21 años, con recibo de sueldo, monotributo, o jubilacion y sin deudas! Pasame un nro de dni y lo consulto en el momento.
+</v>
+      </c>
+      <c r="D164" t="str">
+        <v>65df29dc909dee0008a81f10</v>
+      </c>
+      <c r="E164" s="1">
+        <v>45350.402953993056</v>
+      </c>
+    </row>
+    <row r="165" xml:space="preserve">
+      <c r="A165" t="str">
+        <v>Thomas Y Emili</v>
+      </c>
+      <c r="B165" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C165" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 9:43:30 - Thomas Y Emili: ¡Hola! Podrías darme más información de...
+28/2/2024, 9:43:30 - MegaBot: ¡Hola Thomas Y Emili! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D165" t="str">
+        <v>65df2a703acf600008057fed</v>
+      </c>
+      <c r="E165" s="1">
+        <v>45350.40465484954</v>
+      </c>
+    </row>
+    <row r="166" xml:space="preserve">
+      <c r="A166" t="str">
+        <v>Gaby👑</v>
+      </c>
+      <c r="B166" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C166" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 9:57:23 - Gaby👑: Hola
+28/2/2024, 9:57:24 - MegaBot: ¡Hola Gaby👑! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D166" t="str">
+        <v>65df2db155bd2700081b99a4</v>
+      </c>
+      <c r="E166" s="1">
+        <v>45350.414304618054</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Laura🌹🌹</v>
+      </c>
+      <c r="B167" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C167" t="str">
+        <v xml:space="preserve">28/2/2024, 9:57:58 - Vendedor Megamoto: Hola buen día me decís qué modelo de moto estás interesado? Y que zona estas radicado para tener en cuenta el patentamiento. </v>
+      </c>
+      <c r="D167" t="str">
+        <v>65de85925e66c600089bac96</v>
+      </c>
+      <c r="E167" s="1">
+        <v>45350.41470652778</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>König😜🤪😃</v>
+      </c>
+      <c r="B168" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C168" t="str">
+        <v>28/2/2024, 10:03:24 - Vendedor Megamoto: Hola buen día, que modelo de moto estás interesado? Y que zona estas radicado para tener en cuenta el patentamiento?</v>
+      </c>
+      <c r="D168" t="str">
+        <v>65decf1ca1457d00082e3529</v>
+      </c>
+      <c r="E168" s="1">
+        <v>45350.41847965278</v>
+      </c>
+    </row>
+    <row r="169" xml:space="preserve">
+      <c r="A169" t="str">
+        <v>👍🏻</v>
+      </c>
+      <c r="B169" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C169" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 10:05:35 - 👍🏻: ¡Hola! Me gustaría conseguir más información sobre esto.
+28/2/2024, 10:05:35 - MegaBot: ¡Hola 👍🏻! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+28/2/2024, 10:11:34 - 👍🏻: Buen dia kiero el ptecio de contado de la moto 150 de caye para deliveri precio final en la caye hoy contado eft gracias</v>
+      </c>
+      <c r="D169" t="str">
+        <v>65df2f9c2d99310008ad5b62</v>
+      </c>
+      <c r="E169" s="1">
+        <v>45350.41999270833</v>
+      </c>
+    </row>
+    <row r="170" xml:space="preserve">
+      <c r="A170" t="str">
+        <v>Diegitto Hernán96</v>
+      </c>
+      <c r="B170" t="str">
+        <v>instagram</v>
+      </c>
+      <c r="C170" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 10:12:54 - Diegitto Hernán96: Hola buenos días cómo estás? Te llamo porque estoy interesado en comprar una moto. Qué requisitos pedis?
+28/2/2024, 10:12:55 - MegaBot: ¡Hola Diegitto Hernán96! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+28/2/2024, 10:13:00 - Diegitto Hernán96: Hola buenos días cómo estás? Te llamo porque estoy interesado en comprar una moto. Qué requisitos pedis?
+28/2/2024, 10:57:12 - Diegitto Hernán96: Sisisi
+28/2/2024, 10:57:12 - MegaBot: ¡Perfecto! ¿Podrías indicarme cuál es el modelo de moto que te interesa en Megamoto? ¡Así podremos avanzar con tu consulta!
+28/2/2024, 10:57:17 - Diegitto Hernán96: Sisisi
+28/2/2024, 10:57:17 - MegaBot: Entiendo que estás interesado en comprar una moto en Megamoto. ¿Podrías por favor indicarme el modelo específico de moto que te interesa?Una vez que me brindes esa información, podremos continuar con tu consulta. ¡Gracias!
+28/2/2024, 10:58:32 - Diegitto Hernán96: Estoy buscando una moto 110 económica,algo parecido a una Mirage  puede ser?
+28/2/2024, 10:58:32 - MegaBot: Perfecto, estás buscando una moto económica de 110cc similar a una Mirage. En Megamoto contamos con varios modelos de 110cc que podrían interesarte. 
+Para poder asistirte de la mejor manera, necesito saber cuál de estos modelos te interesa: 
+- BLITZ 110 V8 BASE ONE - B1 Automatica - NEW	
+- BLITZ 110 V8 FULL ONE - B1 - ALEACION DISCO - NEW
+- BLITZ 110 V8 PLUS
+- BLITZ 110 V8 START
+- BLITZ 110 V8 TUNNING NEW
+- DLX 110 DELUXE
+- MAX 110 A/E
+¿Podrías indicarme cuál es el modelo que te interesa de esa lista? ¡Gracias!
+28/2/2024, 10:58:41 - Diegitto Hernán96: Estoy buscando una moto 110 económica,algo parecido a una Mirage  puede ser?
+28/2/2024, 10:58:41 - MegaBot: Entiendo que estás buscando una motocicleta económica de 110cc similar a una Mirage. En Megamoto contamos con varios modelos de 110cc que podrían ser de tu interés. Algunas opciones similares a una moto económica de 110cc podrían ser:
+- BLITZ 110 V8 BASE ONE - B1 Automática - NEW
+- BLITZ 110 V8 FULL ONE - B1 - Aleación Disco - NEW
+- BLITZ 110 V8 PLUS
+- BLITZ 110 V8 START
+- BLITZ 110 V8 TUNNING NEW
+- DLX 110 DELUXE
+- MAX 110 A/E
+¿Te gustaría más información sobre alguno de estos modelos en particular o necesitas ayuda para elegir el adecuado para ti? ¡Estoy aquí para ayudarte!</v>
+      </c>
+      <c r="D170" t="str">
+        <v>65df3154545b940008a89eae</v>
+      </c>
+      <c r="E170" s="1">
+        <v>45350.425080497684</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Mauro</v>
+      </c>
+      <c r="B171" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C171" t="str">
+        <v xml:space="preserve">28/2/2024, 10:51:04 - Vendedor Megamoto: de principio no, pero decime que tenes que año es donde esta radicada y que km tiene y veo si se puede hacer algo </v>
+      </c>
+      <c r="D171" t="str">
+        <v>65df335514fff600080e0dff</v>
+      </c>
+      <c r="E171" s="1">
+        <v>45350.45158209491</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Lucas</v>
+      </c>
+      <c r="B172" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C172" t="str">
+        <v>28/2/2024, 10:51:33 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D172" t="str">
+        <v>65df0c62c6930b0008a654b4</v>
+      </c>
+      <c r="E172" s="1">
+        <v>45350.45191444444</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Goo Rick &amp; Mily</v>
+      </c>
+      <c r="B173" t="str">
+        <v>other</v>
+      </c>
+      <c r="C173" t="str">
+        <v>28/2/2024, 10:55:58 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D173" t="str">
+        <v>65de6f24f32a4800096ea9ad</v>
+      </c>
+      <c r="E173" s="1">
+        <v>45350.4549815625</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>🤗</v>
+      </c>
+      <c r="B174" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C174" t="str">
+        <v xml:space="preserve">28/2/2024, 10:56:01 - Vendedor Megamoto: el numero de dni </v>
+      </c>
+      <c r="D174" t="str">
+        <v>65df334422b55000083586c7</v>
+      </c>
+      <c r="E174" s="1">
+        <v>45350.45502141204</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Nayteamo💙❤️💙</v>
+      </c>
+      <c r="B175" t="str">
+        <v>other</v>
+      </c>
+      <c r="C175" t="str">
+        <v>28/2/2024, 15:12:40 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D175" t="str">
+        <v>65cca0950948c200082fbf2b</v>
+      </c>
+      <c r="E175" s="1">
+        <v>45350.633247881946</v>
+      </c>
+    </row>
+    <row r="176" xml:space="preserve">
+      <c r="A176" t="str">
+        <v>Lucas Giuliano</v>
+      </c>
+      <c r="B176" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C176" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 15:13:05 - Lucas Giuliano: ¡Hola! Podrías darme más información de...
+28/2/2024, 15:13:06 - MegaBot: ¡Hola Lucas Giuliano! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+28/2/2024, 15:51:15 - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D176" t="str">
+        <v>65df77aef38d7200086b41d3</v>
+      </c>
+      <c r="E176" s="1">
+        <v>45350.6335393287</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Arturo Jesus Ochoa</v>
+      </c>
+      <c r="B177" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C177" t="str">
+        <v xml:space="preserve">28/2/2024, 15:14:18 - Vendedor Megamoto: eso de motomel, en benelli tenemos tnt 15 $2.358.000,, 251s $5.274.100, trk 251 $6.195.300 </v>
+      </c>
+      <c r="D177" t="str">
+        <v>65df70dbe149550008ff4681</v>
+      </c>
+      <c r="E177" s="1">
+        <v>45350.634379560186</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>🏞️🎑🎣🌌</v>
+      </c>
+      <c r="B178" t="str">
+        <v>other</v>
+      </c>
+      <c r="C178" t="str">
+        <v>28/2/2024, 15:14:45 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D178" t="str">
+        <v>65cce175baed850008510305</v>
+      </c>
+      <c r="E178" s="1">
+        <v>45350.63469328704</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>M@×¥🌺🌺🌺</v>
+      </c>
+      <c r="B179" t="str">
+        <v>other</v>
+      </c>
+      <c r="C179" t="str">
+        <v>28/2/2024, 15:15:47 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D179" t="str">
+        <v>65cc46d8b777480008f6ddfd</v>
+      </c>
+      <c r="E179" s="1">
+        <v>45350.63541116898</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Isma'</v>
+      </c>
+      <c r="B180" t="str">
+        <v>other</v>
+      </c>
+      <c r="C180" t="str">
+        <v>28/2/2024, 15:20:00 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D180" t="str">
+        <v>65ccd3b0f318e60008182b94</v>
+      </c>
+      <c r="E180" s="1">
+        <v>45350.63834333333</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Uriel Farsi</v>
+      </c>
+      <c r="B181" t="str">
+        <v>other</v>
+      </c>
+      <c r="C181" t="str">
+        <v>28/2/2024, 15:21:27 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D181" t="str">
+        <v>65cc0828b7b0b300083a04af</v>
+      </c>
+      <c r="E181" s="1">
+        <v>45350.63934050926</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Sashi Isa</v>
+      </c>
+      <c r="B182" t="str">
+        <v>other</v>
+      </c>
+      <c r="C182" t="str">
+        <v>28/2/2024, 15:26:54 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D182" t="str">
+        <v>65cd01133ca5f90008e5fefb</v>
+      </c>
+      <c r="E182" s="1">
+        <v>45350.64312649306</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Carlosantonionieto</v>
+      </c>
+      <c r="B183" t="str">
+        <v>other</v>
+      </c>
+      <c r="C183" t="str">
+        <v>28/2/2024, 15:28:11 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D183" t="str">
+        <v>65cc3cd29267db00087bc426</v>
+      </c>
+      <c r="E183" s="1">
+        <v>45350.644019293984</v>
+      </c>
+    </row>
+    <row r="184" xml:space="preserve">
+      <c r="A184" t="str">
+        <v>Coyote</v>
+      </c>
+      <c r="B184" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C184" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 15:50:38 - Vendedor Megamoto: Buenas, soy jose de megamoto, decime donde patentas y te paso el precio final en calle
+</v>
+      </c>
+      <c r="D184" t="str">
+        <v>65df7e1d94f9d400081795a8</v>
+      </c>
+      <c r="E184" s="1">
+        <v>45350.65960800926</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Alberto Ortigoza</v>
+      </c>
+      <c r="B185" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C185" t="str">
+        <v>28/2/2024, 15:51:28 - Vendedor Megamoto: si ahora e hablo de mi numero y te paso la ubicacion</v>
+      </c>
+      <c r="D185" t="str">
+        <v>65d4c30a77bc660008163496</v>
+      </c>
+      <c r="E185" s="1">
+        <v>45350.660191041665</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Paola♥️</v>
+      </c>
+      <c r="B186" t="str">
+        <v>other</v>
+      </c>
+      <c r="C186" t="str">
+        <v>28/2/2024, 17:12:05 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D186" t="str">
+        <v>65ce4a5f99baa30008cde72c</v>
+      </c>
+      <c r="E186" s="1">
+        <v>45350.71617284722</v>
+      </c>
+    </row>
+    <row r="187" xml:space="preserve">
+      <c r="A187" t="str">
+        <v>Virginiaruiz045</v>
+      </c>
+      <c r="B187" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C187" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 17:12:07 - Virginiaruiz045: ¡Hola! Podrías darme más información de...
+28/2/2024, 17:12:07 - MegaBot: ¡Hola Virginiaruiz045! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D187" t="str">
+        <v>65df939406305d00087d7420</v>
+      </c>
+      <c r="E187" s="1">
+        <v>45350.716194560184</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Tornielli David</v>
+      </c>
+      <c r="B188" t="str">
+        <v>other</v>
+      </c>
+      <c r="C188" t="str">
+        <v>28/2/2024, 17:13:05 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D188" t="str">
+        <v>65ce42e70743f50008baf3f2</v>
+      </c>
+      <c r="E188" s="1">
+        <v>45350.716869247684</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Ortiz Lautaro</v>
+      </c>
+      <c r="B189" t="str">
+        <v>other</v>
+      </c>
+      <c r="C189" t="str">
+        <v>28/2/2024, 17:14:05 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D189" t="str">
+        <v>65ce8acd3fa5a700089d58b6</v>
+      </c>
+      <c r="E189" s="1">
+        <v>45350.71756881945</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Alberto Gabriel</v>
+      </c>
+      <c r="B190" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C190" t="str">
+        <v xml:space="preserve">28/2/2024, 17:14:52 - Vendedor Megamoto: la 302 s de contado te sale 7991000 pesos </v>
+      </c>
+      <c r="D190" t="str">
+        <v>65df871ac4ae100008fa374b</v>
+      </c>
+      <c r="E190" s="1">
+        <v>45350.71811130787</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Ariel Ruben Massuani</v>
+      </c>
+      <c r="B191" t="str">
+        <v>other</v>
+      </c>
+      <c r="C191" t="str">
+        <v>28/2/2024, 17:14:57 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D191" t="str">
+        <v>65cebad7b0a6920008da6f7f</v>
+      </c>
+      <c r="E191" s="1">
+        <v>45350.71816039352</v>
+      </c>
+    </row>
+    <row r="192" xml:space="preserve">
+      <c r="A192" t="str">
+        <v>Ilove💖💫💞✨</v>
+      </c>
+      <c r="B192" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C192" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 17:33:28 - Ilove💖💫💞✨: ¡Hola! Podrías darme más información de...hola buenas tardes
+28/2/2024, 17:33:28 - MegaBot: ¡Hola Ilove💖💫💞✨! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+28/2/2024, 17:33:46 - Ilove💖💫💞✨: Más información
+28/2/2024, 17:33:46 - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy con respecto a Megamoto?</v>
+      </c>
+      <c r="D192" t="str">
+        <v>65df9895766c7300084f5149</v>
+      </c>
+      <c r="E192" s="1">
+        <v>45350.73102289352</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Dattoli😎</v>
+      </c>
+      <c r="B193" t="str">
+        <v>other</v>
+      </c>
+      <c r="C193" t="str">
+        <v>28/2/2024, 17:34:35 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D193" t="str">
+        <v>65cf36ef9b3e4f000862d47c</v>
+      </c>
+      <c r="E193" s="1">
+        <v>45350.73180274305</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Indio</v>
+      </c>
+      <c r="B194" t="str">
+        <v>other</v>
+      </c>
+      <c r="C194" t="str">
+        <v>28/2/2024, 17:37:34 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D194" t="str">
+        <v>65cfaec7d7c90e00082a9362</v>
+      </c>
+      <c r="E194" s="1">
+        <v>45350.73386886574</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Lautaro Nicolas</v>
+      </c>
+      <c r="B195" t="str">
+        <v>other</v>
+      </c>
+      <c r="C195" t="str">
+        <v>28/2/2024, 17:38:38 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D195" t="str">
+        <v>65ced9e0cafa04000835e2c1</v>
+      </c>
+      <c r="E195" s="1">
+        <v>45350.7346094213</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Centro Ganadero Srl Emba</v>
+      </c>
+      <c r="B196" t="str">
+        <v>other</v>
+      </c>
+      <c r="C196" t="str">
+        <v>28/2/2024, 17:39:35 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D196" t="str">
+        <v>65cfc04637b55f00089aba72</v>
+      </c>
+      <c r="E196" s="1">
+        <v>45350.73527613426</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Caro</v>
+      </c>
+      <c r="B197" t="str">
+        <v>other</v>
+      </c>
+      <c r="C197" t="str">
+        <v>28/2/2024, 17:40:25 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D197" t="str">
+        <v>65cfc3d6dae208000938bdca</v>
+      </c>
+      <c r="E197" s="1">
+        <v>45350.735851921294</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Alejandro</v>
+      </c>
+      <c r="B198" t="str">
+        <v>other</v>
+      </c>
+      <c r="C198" t="str">
+        <v>28/2/2024, 17:41:17 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D198" t="str">
+        <v>65cfc4924225500008f97756</v>
+      </c>
+      <c r="E198" s="1">
+        <v>45350.736454895836</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Pablo Palacios</v>
+      </c>
+      <c r="B199" t="str">
+        <v>other</v>
+      </c>
+      <c r="C199" t="str">
+        <v>28/2/2024, 17:42:14 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D199" t="str">
+        <v>65cfcb96669bd20009190b52</v>
+      </c>
+      <c r="E199" s="1">
+        <v>45350.73711019676</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Rocco.</v>
+      </c>
+      <c r="B200" t="str">
+        <v>other</v>
+      </c>
+      <c r="C200" t="str">
+        <v>28/2/2024, 17:43:12 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D200" t="str">
+        <v>65cfada60b127300086b8516</v>
+      </c>
+      <c r="E200" s="1">
+        <v>45350.737784895835</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Soledad Perez</v>
+      </c>
+      <c r="B201" t="str">
+        <v>other</v>
+      </c>
+      <c r="C201" t="str">
+        <v>28/2/2024, 17:45:47 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D201" t="str">
+        <v>65cfc79ac354a60009dc3c51</v>
+      </c>
+      <c r="E201" s="1">
+        <v>45350.73957459491</v>
+      </c>
+    </row>
+    <row r="202" xml:space="preserve">
+      <c r="A202" t="str">
+        <v>Ana Juarez🌺</v>
+      </c>
+      <c r="B202" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C202" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 17:46:22 - Ana Juarez🌺: Hola que tal, me das información acerca de financiamiento
+28/2/2024, 17:46:23 - MegaBot: ¡Hola Ana Juarez🌺! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D202" t="str">
+        <v>65df9b99500d2800094ec1e1</v>
+      </c>
+      <c r="E202" s="1">
+        <v>45350.73998175926</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Leticia Santacruz</v>
+      </c>
+      <c r="B203" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C203" t="str">
+        <v>28/2/2024, 17:46:53 - Vendedor Megamoto: buenas tardes</v>
+      </c>
+      <c r="D203" t="str">
+        <v>6396580630c1b300081be9ba</v>
+      </c>
+      <c r="E203" s="1">
+        <v>45350.740339502314</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Ivar Nieto</v>
+      </c>
+      <c r="B204" t="str">
+        <v>other</v>
+      </c>
+      <c r="C204" t="str">
+        <v>28/2/2024, 17:47:57 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D204" t="str">
+        <v>65cfb80703867300081f9a2e</v>
+      </c>
+      <c r="E204" s="1">
+        <v>45350.74107809028</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Nelly Rnf</v>
+      </c>
+      <c r="B205" t="str">
+        <v>other</v>
+      </c>
+      <c r="C205" t="str">
+        <v>28/2/2024, 18:30:54 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D205" t="str">
+        <v>65cd84cb320e090008631ace</v>
+      </c>
+      <c r="E205" s="1">
+        <v>45350.770904212965</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Gaston</v>
+      </c>
+      <c r="B206" t="str">
+        <v>other</v>
+      </c>
+      <c r="C206" t="str">
+        <v>28/2/2024, 18:42:08 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D206" t="str">
+        <v>65d044ba8df86100083eab8f</v>
+      </c>
+      <c r="E206" s="1">
+        <v>45350.77871116898</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Lautaro Gonzalez</v>
+      </c>
+      <c r="B207" t="str">
+        <v>other</v>
+      </c>
+      <c r="C207" t="str">
+        <v>28/2/2024, 18:43:37 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D207" t="str">
+        <v>65d1036fc8b666000802f26c</v>
+      </c>
+      <c r="E207" s="1">
+        <v>45350.779738125</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Fer</v>
+      </c>
+      <c r="B208" t="str">
+        <v>other</v>
+      </c>
+      <c r="C208" t="str">
+        <v>28/2/2024, 18:46:25 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D208" t="str">
+        <v>65d0fdd771f25d00083ad9e1</v>
+      </c>
+      <c r="E208" s="1">
+        <v>45350.78168104167</v>
+      </c>
+    </row>
+    <row r="209" xml:space="preserve">
+      <c r="A209" t="str">
+        <v>Mis Hijos👩🏻👶🏻❤️</v>
+      </c>
+      <c r="B209" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C209" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 18:46:31 - Mis Hijos👩🏻👶🏻❤️: ¡Hola! Podrías darme más información de...
+28/2/2024, 18:46:31 - MegaBot: ¡Hola Mis Hijos👩🏻👶🏻❤️! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D209" t="str">
+        <v>65dfa9b40a6dce00089839c6</v>
+      </c>
+      <c r="E209" s="1">
+        <v>45350.78175685185</v>
+      </c>
+    </row>
+    <row r="210" xml:space="preserve">
+      <c r="A210" t="str">
+        <v>Gustavo Gomez Villafañe</v>
+      </c>
+      <c r="B210" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C210" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 18:57:17 - Gustavo Gomez Villafañe: hola
+28/2/2024, 18:57:19 - MegaBot: ¡Hola Gustavo Gomez Villafañe! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+28/2/2024, 18:57:50 - Gustavo Gomez Villafañe: busco una mundial 300 a pagar en cuotas
+28/2/2024, 18:57:51 - MegaBot: ¡Hola! Entiendo que estás buscando una moto "Mundial 300" para pagar en cuotas. Para poder ayudarte con la financiación, necesitaré que me proporciones tu DNI. Un vendedor realizará la verificación correspondiente para determinar si calificas para un crédito. 
+Además, en relación a las motos de 300 cilindradas, las opciones que puedo ofrecerte, de acuerdo a los modelos que comercializa Megamoto, incluyen la Benelli BN 302, la Suzuki GSX-S300 y la Sym NHX 300. 
+Por favor, ¿podrías facilitarme tu DNI para avanzar con el proceso de verificación? Y recordarte también que Megamoto comercializa las marcas Benelli, Suzuki, Motomel, Keeway y Sym. ¿Buscas un modelo específico dentro de esas marcas o tienes alguna preferencia de cilindrada?</v>
+      </c>
+      <c r="D210" t="str">
+        <v>6596d62461f4a300081b28cb</v>
+      </c>
+      <c r="E210" s="1">
+        <v>45350.78923011574</v>
+      </c>
+    </row>
+    <row r="211" xml:space="preserve">
+      <c r="A211" t="str">
+        <v>Psdi🙌🏻</v>
+      </c>
+      <c r="B211" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C211" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 19:29:06 - Psdi🙌🏻: Que tenés en seis cuotas fijas?
+28/2/2024, 19:29:06 - MegaBot: ¡Hola Psdi🙌🏻! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+28/2/2024, 19:29:13 - Psdi🙌🏻: ¡Hola! Podrías darme más información de...
+28/2/2024, 19:29:14 - MegaBot: Por favor, ¿podrías proporcionarme más detalles sobre el modelo de moto en el que estás interesado? Una vez que tengamos esa información, podremos continuar con los siguientes pasos. ¡Gracias!</v>
+      </c>
+      <c r="D211" t="str">
+        <v>65dfb3aec7a46800082c0dd6</v>
+      </c>
+      <c r="E211" s="1">
+        <v>45350.81132045139</v>
+      </c>
+    </row>
+    <row r="212" xml:space="preserve">
+      <c r="A212" t="str">
+        <v>Flopy Mansilla😘</v>
+      </c>
+      <c r="B212" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C212" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 23:26:16 - Flopy Mansilla😘: ¡Hola! Podrías darme más información de...
+28/2/2024, 23:26:16 - MegaBot: ¡Hola Flopy Mansilla😘! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+28/2/2024, 23:26:58 - Flopy Mansilla😘: Suzuki 125
+28/2/2024, 23:26:58 - MegaBot: Parece que el archivo que subiste no contiene la información específica sobre los modelos de Suzuki de 125 cilindradas. Sin embargo, puedo proporcionarte información general sobre algunos modelos de Suzuki que tienen 125 cilindradas. ¿Te gustaría que te los mencione?
+28/2/2024, 23:27:36 - Flopy Mansilla😘: Si
+28/2/2024, 23:27:37 - MegaBot: Aquí te detallo algunos modelos de motos Suzuki con 125 cilindradas que podrían interesarte:
+- Suzuki GN 125
+- Suzuki GSX 125
+Estos son algunos de los modelos que podrías encontrar en Megamoto. Si estás interesado en alguno en particular o deseas más información, ¡no dudes en decírmelo! ¿Hay algún modelo en específico que te interese o alguna otra consulta que pueda resolver por ti?
+28/2/2024, 23:28:58 - Flopy Mansilla😘: Suzuki GSX 125
+28/2/2024, 23:28:58 - MegaBot: Perfecto, el modelo Suzuki GSX 125 tiene un precio de $2.394.606 en Megamoto. Este precio incluye el patentamiento, pero no cubre el sellado de CABA y debe ser confirmado por un vendedor.
+¿Cómo te gustaría proceder con la compra? ¿Tienes alguna otra pregunta o requerimiento antes de tomar una decisión? ¡Estoy aquí para ayudarte en lo que necesites!
+28/2/2024, 23:29:54 - Flopy Mansilla😘: Consultar medios de pago
+28/2/2024, 23:29:55 - MegaBot: ¡Claro! En Megamoto contamos con varios medios de pago para facilitar tu compra. Puedes pagar en efectivo, con tarjetas de crédito o a través de préstamos. 
+Si estás interesado en conocer más detalles sobre los métodos de pago o si deseas optar por alguna forma en particular, por favor házmelo saber. ¿Hay algo más en lo que pueda asistirte antes de contactar a un vendedor para finalizar la compra de la Suzuki GSX 125?</v>
+      </c>
+      <c r="D212" t="str">
+        <v>65dfeb4487738e0008e65767</v>
+      </c>
+      <c r="E212" s="1">
+        <v>45350.97601978009</v>
+      </c>
+    </row>
+    <row r="213" xml:space="preserve">
+      <c r="A213" t="str">
+        <v>Hernán</v>
+      </c>
+      <c r="B213" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C213" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 23:47:18 - Hernán: ¡Hola! Podrías darme más información de...
+28/2/2024, 23:47:18 - MegaBot: ¡Hola Hernán! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+28/2/2024, 23:47:47 - Hernán: 150
+28/2/2024, 23:47:47 - MegaBot: Los modelos que se acercan a las 150 cilindradas según la información proporcionada por Megamoto son:
+1. Modelo S2 150【8:0†source】.
+2. Modelo SKUA 150【8:0†source】.
+3. Modelo STRATO Euro 150 LED【8:0†source】.</v>
+      </c>
+      <c r="D213" t="str">
+        <v>65dff032104e530008878cf5</v>
+      </c>
+      <c r="E213" s="1">
+        <v>45350.99062966435</v>
+      </c>
+    </row>
+    <row r="214" xml:space="preserve">
+      <c r="A214" t="str">
+        <v>Diego</v>
+      </c>
+      <c r="B214" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C214" t="str" xml:space="preserve">
+        <v xml:space="preserve">28/2/2024, 23:48:44 - Diego: ¡Hola! Podrías darme más información de...
+28/2/2024, 23:48:44 - MegaBot: ¡Hola Diego! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+28/2/2024, 23:49:34 - Diego: 110
+28/2/2024, 23:49:35 - MegaBot: ¡Claro! Aquí te muestro los diferentes modelos de motos BLITZ 110 V8 de la marca Motomel disponibles, junto con sus precios:
+1. BLITZ 110 V8 START marca Motomel a $1.049.946
+2. BLITZ 110 V8 FULL ONE - B1 - ALEACION DISCO - NEW marca Motomel a $1.145.495
+3. BLITZ 110 V8 BASE ONE - B1 Automatica - NEW marca Motomel a $1.145.953
+4. BLITZ 110 V8 PLUS marca Motomel a $1.303.947
+5. BLITZ 110 V8 TUNNING NEW marca Motomel a $1.412.415
+Ten en cuenta que los precios incluyen patentamiento, pero no incluyen el sellado de CABA, y deberán ser confirmados por un vendedor. Si estás interesado en alguno de estos modelos en particular, por favor házmelo saber. ¿Te gustaría que te contacte un vendedor para obtener más detalles o asistencia con la compra?
+28/2/2024, 23:50:17 - Diego: 1
+28/2/2024, 23:50:17 - MegaBot: Perfecto, has expresado interés en el modelo BLITZ 110 V8 START de Motomel. Un vendedor se encargará de verificar si calificas para un crédito y se pondrá en contacto contigo a la brevedad para brindarte más detalles y asesoramiento sobre la compra. ¡Gracias por tu consulta! ¿Hay algo más en lo que pueda ayudarte?</v>
+      </c>
+      <c r="D214" t="str">
+        <v>65dff08813a94c00087b26c6</v>
+      </c>
+      <c r="E214" s="1">
+        <v>45350.991621747686</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E93"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E214"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E214"/>
+  <dimension ref="A1:E266"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4297,54 +4297,32 @@
     </row>
     <row r="210" xml:space="preserve">
       <c r="A210" t="str">
-        <v>Gustavo Gomez Villafañe</v>
+        <v>Psdi🙌🏻</v>
       </c>
       <c r="B210" t="str">
         <v>whatsapp</v>
       </c>
       <c r="C210" t="str" xml:space="preserve">
-        <v xml:space="preserve">28/2/2024, 18:57:17 - Gustavo Gomez Villafañe: hola
-28/2/2024, 18:57:19 - MegaBot: ¡Hola Gustavo Gomez Villafañe! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
-28/2/2024, 18:57:50 - Gustavo Gomez Villafañe: busco una mundial 300 a pagar en cuotas
-28/2/2024, 18:57:51 - MegaBot: ¡Hola! Entiendo que estás buscando una moto "Mundial 300" para pagar en cuotas. Para poder ayudarte con la financiación, necesitaré que me proporciones tu DNI. Un vendedor realizará la verificación correspondiente para determinar si calificas para un crédito. 
-Además, en relación a las motos de 300 cilindradas, las opciones que puedo ofrecerte, de acuerdo a los modelos que comercializa Megamoto, incluyen la Benelli BN 302, la Suzuki GSX-S300 y la Sym NHX 300. 
-Por favor, ¿podrías facilitarme tu DNI para avanzar con el proceso de verificación? Y recordarte también que Megamoto comercializa las marcas Benelli, Suzuki, Motomel, Keeway y Sym. ¿Buscas un modelo específico dentro de esas marcas o tienes alguna preferencia de cilindrada?</v>
-      </c>
-      <c r="D210" t="str">
-        <v>6596d62461f4a300081b28cb</v>
-      </c>
-      <c r="E210" s="1">
-        <v>45350.78923011574</v>
-      </c>
-    </row>
-    <row r="211" xml:space="preserve">
-      <c r="A211" t="str">
-        <v>Psdi🙌🏻</v>
-      </c>
-      <c r="B211" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C211" t="str" xml:space="preserve">
         <v xml:space="preserve">28/2/2024, 19:29:06 - Psdi🙌🏻: Que tenés en seis cuotas fijas?
 28/2/2024, 19:29:06 - MegaBot: ¡Hola Psdi🙌🏻! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
 28/2/2024, 19:29:13 - Psdi🙌🏻: ¡Hola! Podrías darme más información de...
 28/2/2024, 19:29:14 - MegaBot: Por favor, ¿podrías proporcionarme más detalles sobre el modelo de moto en el que estás interesado? Una vez que tengamos esa información, podremos continuar con los siguientes pasos. ¡Gracias!</v>
       </c>
-      <c r="D211" t="str">
+      <c r="D210" t="str">
         <v>65dfb3aec7a46800082c0dd6</v>
       </c>
-      <c r="E211" s="1">
+      <c r="E210" s="1">
         <v>45350.81132045139</v>
       </c>
     </row>
-    <row r="212" xml:space="preserve">
-      <c r="A212" t="str">
+    <row r="211" xml:space="preserve">
+      <c r="A211" t="str">
         <v>Flopy Mansilla😘</v>
       </c>
-      <c r="B212" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C212" t="str" xml:space="preserve">
+      <c r="B211" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C211" t="str" xml:space="preserve">
         <v xml:space="preserve">28/2/2024, 23:26:16 - Flopy Mansilla😘: ¡Hola! Podrías darme más información de...
 28/2/2024, 23:26:16 - MegaBot: ¡Hola Flopy Mansilla😘! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
 28/2/2024, 23:26:58 - Flopy Mansilla😘: Suzuki 125
@@ -4361,21 +4339,21 @@
 28/2/2024, 23:29:55 - MegaBot: ¡Claro! En Megamoto contamos con varios medios de pago para facilitar tu compra. Puedes pagar en efectivo, con tarjetas de crédito o a través de préstamos. 
 Si estás interesado en conocer más detalles sobre los métodos de pago o si deseas optar por alguna forma en particular, por favor házmelo saber. ¿Hay algo más en lo que pueda asistirte antes de contactar a un vendedor para finalizar la compra de la Suzuki GSX 125?</v>
       </c>
-      <c r="D212" t="str">
+      <c r="D211" t="str">
         <v>65dfeb4487738e0008e65767</v>
       </c>
-      <c r="E212" s="1">
+      <c r="E211" s="1">
         <v>45350.97601978009</v>
       </c>
     </row>
-    <row r="213" xml:space="preserve">
-      <c r="A213" t="str">
+    <row r="212" xml:space="preserve">
+      <c r="A212" t="str">
         <v>Hernán</v>
       </c>
-      <c r="B213" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C213" t="str" xml:space="preserve">
+      <c r="B212" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C212" t="str" xml:space="preserve">
         <v xml:space="preserve">28/2/2024, 23:47:18 - Hernán: ¡Hola! Podrías darme más información de...
 28/2/2024, 23:47:18 - MegaBot: ¡Hola Hernán! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
 28/2/2024, 23:47:47 - Hernán: 150
@@ -4384,21 +4362,21 @@
 2. Modelo SKUA 150【8:0†source】.
 3. Modelo STRATO Euro 150 LED【8:0†source】.</v>
       </c>
-      <c r="D213" t="str">
+      <c r="D212" t="str">
         <v>65dff032104e530008878cf5</v>
       </c>
-      <c r="E213" s="1">
+      <c r="E212" s="1">
         <v>45350.99062966435</v>
       </c>
     </row>
-    <row r="214" xml:space="preserve">
-      <c r="A214" t="str">
+    <row r="213" xml:space="preserve">
+      <c r="A213" t="str">
         <v>Diego</v>
       </c>
-      <c r="B214" t="str">
-        <v>whatsapp</v>
-      </c>
-      <c r="C214" t="str" xml:space="preserve">
+      <c r="B213" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C213" t="str" xml:space="preserve">
         <v xml:space="preserve">28/2/2024, 23:48:44 - Diego: ¡Hola! Podrías darme más información de...
 28/2/2024, 23:48:44 - MegaBot: ¡Hola Diego! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
 28/2/2024, 23:49:34 - Diego: 110
@@ -4412,16 +4390,1003 @@
 28/2/2024, 23:50:17 - Diego: 1
 28/2/2024, 23:50:17 - MegaBot: Perfecto, has expresado interés en el modelo BLITZ 110 V8 START de Motomel. Un vendedor se encargará de verificar si calificas para un crédito y se pondrá en contacto contigo a la brevedad para brindarte más detalles y asesoramiento sobre la compra. ¡Gracias por tu consulta! ¿Hay algo más en lo que pueda ayudarte?</v>
       </c>
+      <c r="D213" t="str">
+        <v>65dff08813a94c00087b26c6</v>
+      </c>
+      <c r="E213" s="1">
+        <v>45350.991621747686</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Aldy</v>
+      </c>
+      <c r="B214" t="str">
+        <v>other</v>
+      </c>
+      <c r="C214" t="str">
+        <v>29/2/2024, 12:09:27 - Vendedor Megamoto: No message</v>
+      </c>
       <c r="D214" t="str">
-        <v>65dff08813a94c00087b26c6</v>
+        <v>65d2b7b515f5e20009d2ad2f</v>
       </c>
       <c r="E214" s="1">
-        <v>45350.991621747686</v>
+        <v>45351.50600956019</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Carlos</v>
+      </c>
+      <c r="B215" t="str">
+        <v>other</v>
+      </c>
+      <c r="C215" t="str">
+        <v>29/2/2024, 12:10:16 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D215" t="str">
+        <v>65d278e3d86d2e00085bfd3f</v>
+      </c>
+      <c r="E215" s="1">
+        <v>45351.506579444445</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Barberiashop</v>
+      </c>
+      <c r="B216" t="str">
+        <v>other</v>
+      </c>
+      <c r="C216" t="str">
+        <v>29/2/2024, 12:11:30 - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D216" t="str">
+        <v>65d2a4d0bb22770008d152c6</v>
+      </c>
+      <c r="E216" s="1">
+        <v>45351.50743423611</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Yo No Destiño Cómo Muchos</v>
+      </c>
+      <c r="B217" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C217" t="str">
+        <v xml:space="preserve">29/2/2024, 14:37:32 - Vendedor Megamoto: la 302 s de contado patentada te sale 7991000 pesos </v>
+      </c>
+      <c r="D217" t="str">
+        <v>65e0bcfebb3fd00008c7b52c</v>
+      </c>
+      <c r="E217" s="1">
+        <v>45351.60884295139</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Rubén Alejandro..</v>
+      </c>
+      <c r="B218" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C218" t="str">
+        <v xml:space="preserve">29/2/2024, 14:39:01 - Vendedor Megamoto: 6 ccuotas de 472706 pesos </v>
+      </c>
+      <c r="D218" t="str">
+        <v>65e0abe4cada940008391a53</v>
+      </c>
+      <c r="E218" s="1">
+        <v>45351.6098812037</v>
+      </c>
+    </row>
+    <row r="219" xml:space="preserve">
+      <c r="A219" t="str">
+        <v>Mingo</v>
+      </c>
+      <c r="B219" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C219" t="str" xml:space="preserve">
+        <v xml:space="preserve">29/2/2024, 15:04:45 - Mingo: ¡Hola! Podrías darme más información de...
+29/2/2024, 15:04:45 - MegaBot: ¡Hola Mingo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D219" t="str">
+        <v>65e0c73998abc300084abf9d</v>
+      </c>
+      <c r="E219" s="1">
+        <v>45351.627750127314</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Gaby</v>
+      </c>
+      <c r="B220" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C220" t="str">
+        <v>29/2/2024, 15:24:42 - Vendedor Megamoto: Recien  te pase catalogo del modelo</v>
+      </c>
+      <c r="D220" t="str">
+        <v>65caa53ce565610008f3c551</v>
+      </c>
+      <c r="E220" s="1">
+        <v>45351.641603449076</v>
+      </c>
+    </row>
+    <row r="221" xml:space="preserve">
+      <c r="A221" t="str">
+        <v>Las Lolitas Tienda</v>
+      </c>
+      <c r="B221" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C221" t="str" xml:space="preserve">
+        <v xml:space="preserve">29/2/2024, 15:25:23 - Las Lolitas Tienda: ¡Hola! Podrías darme más información de...
+29/2/2024, 15:25:23 - MegaBot: ¡Hola Las Lolitas Tienda! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+29/2/2024, 15:25:36 - Las Lolitas Tienda: HOLA BUENAS TARDES
+29/2/2024, 15:25:36 - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy?</v>
+      </c>
+      <c r="D221" t="str">
+        <v>65e0cc0ec8cfaf00099fff84</v>
+      </c>
+      <c r="E221" s="1">
+        <v>45351.642075717595</v>
+      </c>
+    </row>
+    <row r="222" xml:space="preserve">
+      <c r="A222" t="str">
+        <v>Machy</v>
+      </c>
+      <c r="B222" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C222" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 9:29:52 - Vendedor Megamoto: Buenas, soy jose de megamoto, decime donde patentas y te paso el precio final en calle
+</v>
+      </c>
+      <c r="D222" t="str">
+        <v>65e1c94b1a4eec000898d93c</v>
+      </c>
+      <c r="E222" s="1">
+        <v>45352.39518554398</v>
+      </c>
+    </row>
+    <row r="223" xml:space="preserve">
+      <c r="A223" t="str">
+        <v>Bereniz</v>
+      </c>
+      <c r="B223" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C223" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 9:45:24 - Bereniz: Hola, tengo algunas preguntas sobre Motomel S2 Cg 150 Full Nueva - Nuevo Ingreso 2023. https://moto.mercadolibre.com.ar/MLA-1518183694-motomel-s2-cg-150-full-nueva-nuevo-ingreso-2023-_JM
+1/3/2024, 9:45:24 - MegaBot: ¡Hola Bereniz! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 9:46:18 - Bereniz: Buen día quería precio de la moto S2 150 ful
+1/3/2024, 9:46:19 - MegaBot: No se pudo abrir el archivo correctamente para verificar el precio. ¿Podrías confirmarme el modelo exacto de la motocicleta Motomel que estás consultando? Una vez que cuente con esa información, podré buscar el precio actualizado para ti.
+1/3/2024, 10:11:07 - Vendedor Megamoto: hola buen dia, en este momento estoy sin stock de ese modelo, tengo s2 pero base, te interesaria esa?</v>
+      </c>
+      <c r="D223" t="str">
+        <v>65e1cde0a283bb0008854138</v>
+      </c>
+      <c r="E223" s="1">
+        <v>45352.40597866898</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>V.t</v>
+      </c>
+      <c r="B224" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C224" t="str">
+        <v>1/3/2024, 10:13:01 - Vendedor Megamoto: hola buen dia, no sabria a que te referis con stray, tenes alguna foto?</v>
+      </c>
+      <c r="D224" t="str">
+        <v>65e1092ec1c8900008477352</v>
+      </c>
+      <c r="E224" s="1">
+        <v>45352.425152986114</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Fabian</v>
+      </c>
+      <c r="B225" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C225" t="str">
+        <v xml:space="preserve">1/3/2024, 10:15:00 - Vendedor Megamoto: buen dia, en que localidad tenes domicilio? asi te paso precio con patentamiento </v>
+      </c>
+      <c r="D225" t="str">
+        <v>65e12fcce1698d0008af43e4</v>
+      </c>
+      <c r="E225" s="1">
+        <v>45352.42653359954</v>
+      </c>
+    </row>
+    <row r="226" xml:space="preserve">
+      <c r="A226" t="str">
+        <v>Daniel😎✌🏻</v>
+      </c>
+      <c r="B226" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C226" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 10:51:50 - Daniel😎✌🏻: ¡Hola! Podrías darme más información de...302s
+1/3/2024, 10:51:50 - MegaBot: ¡Hola Daniel😎✌🏻! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 10:58:06 - Vendedor Megamoto: Buenas, soy jose de megamoto, decime donde patentas y te paso el precio final en calle
+</v>
+      </c>
+      <c r="D226" t="str">
+        <v>65e1dd719c3a86000976516b</v>
+      </c>
+      <c r="E226" s="1">
+        <v>45352.452108391204</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Alejandra Estilista ✂️💇🏻‍♂️💇🏼‍♀️</v>
+      </c>
+      <c r="B227" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C227" t="str">
+        <v>1/3/2024, 11:09:59 - Vendedor Megamoto: buen dia, la mas economica es una motomel blitz base, el precio de contado es $1.050.00, claro lo que te decia es que el prestamo que te da la financiera es de $526.209 y las cuotas te quedarian 30 de $87.306, y tendrias que poner un anticipo de $558.300</v>
+      </c>
+      <c r="D227" t="str">
+        <v>65dff371fb2acb0009671283</v>
+      </c>
+      <c r="E227" s="1">
+        <v>45352.46471674769</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Leonelcolls</v>
+      </c>
+      <c r="B228" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C228" t="str">
+        <v>1/3/2024, 11:11:42 - Vendedor Megamoto: en motomel solo tengo tipo enduro la xmm o la skua 250 adventure</v>
+      </c>
+      <c r="D228" t="str">
+        <v>65e0d4f3471efa000922942f</v>
+      </c>
+      <c r="E228" s="1">
+        <v>45352.46590517361</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Ger... ,😎😎😎</v>
+      </c>
+      <c r="B229" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C229" t="str">
+        <v>1/3/2024, 11:15:28 - Vendedor Megamoto: buen dia</v>
+      </c>
+      <c r="D229" t="str">
+        <v>63cea25f420cdd00088e276b</v>
+      </c>
+      <c r="E229" s="1">
+        <v>45352.46852040509</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Maximiliano ✌🏻</v>
+      </c>
+      <c r="B230" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C230" t="str">
+        <v>1/3/2024, 11:38:57 - Vendedor Megamoto: Hola , como estas? buen día. Comentame en qué te puedo asesorar?</v>
+      </c>
+      <c r="D230" t="str">
+        <v>65c8d864685e2f000815fc48</v>
+      </c>
+      <c r="E230" s="1">
+        <v>45352.484829409725</v>
+      </c>
+    </row>
+    <row r="231" xml:space="preserve">
+      <c r="A231" t="str">
+        <v>Hector</v>
+      </c>
+      <c r="B231" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C231" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 11:45:14 - Hector: ¡Hola! Podrías darme más información de...precio
+1/3/2024, 11:45:14 - MegaBot: ¡Hola Hector! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 17:54:05 - Vendedor Megamoto: en que localidad tenes domicilio? asi te paso precio con patentamiento </v>
+      </c>
+      <c r="D231" t="str">
+        <v>65e1e9f409805500084cac06</v>
+      </c>
+      <c r="E231" s="1">
+        <v>45352.48919385417</v>
+      </c>
+    </row>
+    <row r="232" xml:space="preserve">
+      <c r="A232" t="str">
+        <v>Pablo😉</v>
+      </c>
+      <c r="B232" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C232" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 12:02:51 - Pablo😉: ¡Hola! Podrías darme más información de...la benelli 302 S el precio con patentamiento incluido en provincia y si tienen el color verde.gracias
+1/3/2024, 12:02:51 - MegaBot: ¡Hola Pablo😉! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 17:58:20 - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame,  cómo querías pagarla? (Efectivo / Tarjeta de Crédito / Préstamo personal con DNI)
+</v>
+      </c>
+      <c r="D232" t="str">
+        <v>65e1ee17ced16400088e6c0e</v>
+      </c>
+      <c r="E232" s="1">
+        <v>45352.50143089121</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Mi Ángel</v>
+      </c>
+      <c r="B233" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C233" t="str">
+        <v xml:space="preserve">1/3/2024, 12:05:14 - Vendedor Megamoto: en ese caso patentas vos, te vendo la moto y lso formularios y la patentas en tu zona de contado te sale 1582000 pesos cn formularios </v>
+      </c>
+      <c r="D233" t="str">
+        <v>65e10ea51a567600087a7ae2</v>
+      </c>
+      <c r="E233" s="1">
+        <v>45352.50307917824</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Gomez</v>
+      </c>
+      <c r="B234" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C234" t="str">
+        <v xml:space="preserve">1/3/2024, 14:33:34 - Vendedor Megamoto: la entrega depende de lo que te presten se entrega apenas se patenta por que e sprendario </v>
+      </c>
+      <c r="D234" t="str">
+        <v>65e144d724b3e20008dad674</v>
+      </c>
+      <c r="E234" s="1">
+        <v>45352.60609056713</v>
+      </c>
+    </row>
+    <row r="235" xml:space="preserve">
+      <c r="A235" t="str">
+        <v>Julio Ruaro</v>
+      </c>
+      <c r="B235" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C235" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 14:41:56 - Vendedor Megamoto: si quiere pasar por el local estamos en corrientes 3400 esquina gallo, abasto, CABA, de lunes a viernes  de 09 a 19, sabados de 09 a 13 hs pregunta por jose 
+</v>
+      </c>
+      <c r="D235" t="str">
+        <v>65e2057a95281d0008b6d90f</v>
+      </c>
+      <c r="E235" s="1">
+        <v>45352.6119003125</v>
+      </c>
+    </row>
+    <row r="236" xml:space="preserve">
+      <c r="A236" t="str">
+        <v>Percy</v>
+      </c>
+      <c r="B236" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C236" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 14:42:22 - Vendedor Megamoto: buenas soy jose de megamoto, para los prestamos personales lo consultamos con el nro de DNI, puede ser tuyo o de algun familiar amigo que te quiera salir de garante. Como requisito piden minimo de 21 años, con recibo de sueldo, monotributo, o jubilacion y sin deudas! Pasame un nro de dni y lo consulto en el momento.
+</v>
+      </c>
+      <c r="D236" t="str">
+        <v>65e20f11af85220008c4f612</v>
+      </c>
+      <c r="E236" s="1">
+        <v>45352.61220193287</v>
+      </c>
+    </row>
+    <row r="237" xml:space="preserve">
+      <c r="A237" t="str">
+        <v>Lulii💎</v>
+      </c>
+      <c r="B237" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C237" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 14:42:41 - Lulii💎: ¡Hola! Podrías darme más información
+1/3/2024, 14:42:41 - MegaBot: ¡Hola Lulii💎! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 14:43:23 - Lulii💎: Se puede sacar en cuotas la moto?
+1/3/2024, 14:43:23 - MegaBot: Para poder ayudarte mejor, ¿se trata de un préstamo para comprar la moto o estás considerando pagarla con tu tarjeta de crédito?
+1/3/2024, 17:27:54 - Vendedor Megamoto: hola si</v>
+      </c>
+      <c r="D237" t="str">
+        <v>65e2138c65e9f00009c59bd1</v>
+      </c>
+      <c r="E237" s="1">
+        <v>45352.61241991898</v>
+      </c>
+    </row>
+    <row r="238" xml:space="preserve">
+      <c r="A238" t="str">
+        <v>Martin Master</v>
+      </c>
+      <c r="B238" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C238" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 14:58:36 - Martin Master: ¡Hola! Podrías darme más información de...
+1/3/2024, 14:58:39 - MegaBot: ¡Hola Martin Master! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 17:27:38 - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D238" t="str">
+        <v>65e21742d074de0008196bfc</v>
+      </c>
+      <c r="E238" s="1">
+        <v>45352.62347820602</v>
+      </c>
+    </row>
+    <row r="239" xml:space="preserve">
+      <c r="A239" t="str">
+        <v>Jonathan 😎🎶🎶</v>
+      </c>
+      <c r="B239" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C239" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 15:01:30 - Jonathan 😎🎶🎶: ¡Hola! Podrías darme más información de...
+1/3/2024, 15:01:31 - MegaBot: ¡Hola Jonathan 😎🎶🎶! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 15:03:11 - Jonathan 😎🎶🎶: Hola info de las motos 150, 180 y 250 cc puesta en calle ,
+1/3/2024, 15:03:12 - MegaBot: No se ha podido acceder al contenido del archivo. Sin embargo, puedo proporcionarte información general sobre las motos de 150 cc, 180 cc y 250 cc puestas en calle. 
+Para motos de 150 cc, Megamoto ofrece los siguientes modelos de la marca Motomel:
+- S2 150 Start: Precio y detalles en el siguiente catálogo: [Catálogo S2 150 Start](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-s2-150-start.pdf)
+- S2 150 Aleación: Precio y detalles en el siguiente catálogo: [Catálogo S2 150 Aleación](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-s2-150-aleacion.pdf)
+- SKUA 150 Silver: Precio y detalles en el siguiente catálogo: [Catálogo SKUA 150 Silver](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-skua-150-silver.pdf)
+- SKUA 150: Precio y detalles en el siguiente catálogo: [Catálogo SKUA 150](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-skua-150.pdf)
+- STRATO 150 Euro: Precio y detalles en el siguiente catálogo: [Catálogo STRATO 150 Euro](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-strato-euro-150-led.pdf)
+- STRATO 150 Alpino: Precio y detalles en el siguiente catálogo: [Catálogo STRATO 150 Alpino](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-strato-alpino-150.pdf)
+En cuanto a las motos de 180 cc, Megamoto cuenta con el modelo Benelli 180 S a un precio de $3.630.336. 
+Para motos de 250 cc puestas en calle, ¿requieres información específica sobre algún modelo en particular? ¡Quedo atento a tus comentarios!
+1/3/2024, 18:03:48 - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando de calle o enduro?
+</v>
+      </c>
+      <c r="D239" t="str">
+        <v>65e217f6633a580008995bd3</v>
+      </c>
+      <c r="E239" s="1">
+        <v>45352.62549643518</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Ariel Saba</v>
+      </c>
+      <c r="B240" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C240" t="str">
+        <v xml:space="preserve">1/3/2024, 15:01:53 - Vendedor Megamoto: tampoco le dan </v>
+      </c>
+      <c r="D240" t="str">
+        <v>65e208155c488100081f3c34</v>
+      </c>
+      <c r="E240" s="1">
+        <v>45352.625762766205</v>
+      </c>
+    </row>
+    <row r="241" xml:space="preserve">
+      <c r="A241" t="str">
+        <v>Chucky😈</v>
+      </c>
+      <c r="B241" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C241" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 15:35:33 - Chucky😈: ¡Hola! Podrías darme más información del financiamiento
+1/3/2024, 15:35:34 - MegaBot: ¡Hola Chucky😈! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 17:27:22 - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D241" t="str">
+        <v>65e21ff19293e40008f4c07d</v>
+      </c>
+      <c r="E241" s="1">
+        <v>45352.64914202546</v>
+      </c>
+    </row>
+    <row r="242" xml:space="preserve">
+      <c r="A242" t="str">
+        <v>Lionel</v>
+      </c>
+      <c r="B242" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C242" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 15:42:13 - Lionel: ¡Hola! Podrías darme más información de...
+1/3/2024, 15:42:13 - MegaBot: ¡Hola Lionel! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 17:27:10 - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D242" t="str">
+        <v>65e221805656f80008a1952f</v>
+      </c>
+      <c r="E242" s="1">
+        <v>45352.653762800925</v>
+      </c>
+    </row>
+    <row r="243" xml:space="preserve">
+      <c r="A243" t="str">
+        <v>Agus. Estetica Pangaro. Bet30</v>
+      </c>
+      <c r="B243" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C243" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 16:01:18 - Agus. Estetica Pangaro. Bet30: ¡Hola! Podrías darme más información de...
+1/3/2024, 16:01:22 - MegaBot: ¡Hola Agus. Estetica Pangaro. Bet30! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 16:04:51 - MegaBot: Te pido disculpas 🙏, en este momento no puedo procesar tu solicitud ☹️. Por favor intentá mas tarde. ¡Saludos de MegaBot! 🙂
+1/3/2024, 17:57:00 - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?
+</v>
+      </c>
+      <c r="D243" t="str">
+        <v>65e225eed42c950008b852b8</v>
+      </c>
+      <c r="E243" s="1">
+        <v>45352.66702224537</v>
+      </c>
+    </row>
+    <row r="244" xml:space="preserve">
+      <c r="A244" t="str">
+        <v>Kikito</v>
+      </c>
+      <c r="B244" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C244" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 16:17:49 - Kikito: ¡Hola! Podrías darme más información de...de cuanto son las cuotas
+1/3/2024, 16:17:49 - MegaBot: ¡Hola Kikito! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 16:19:03 - Vendedor Megamoto: Buenas, soy jose de megamoto, decime donde patentas y te paso el precio final en calle
+</v>
+      </c>
+      <c r="D244" t="str">
+        <v>65e229d9426916000865c050</v>
+      </c>
+      <c r="E244" s="1">
+        <v>45352.67849180556</v>
+      </c>
+    </row>
+    <row r="245" xml:space="preserve">
+      <c r="A245" t="str">
+        <v>Gabriel Martin Bonafede</v>
+      </c>
+      <c r="B245" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C245" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 16:18:57 - Gabriel Martin Bonafede: ¡Hola! Podrías darme más información de...
+1/3/2024, 16:18:57 - MegaBot: ¡Hola Gabriel Martin Bonafede! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 17:26:57 - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D245" t="str">
+        <v>65e22a1c0ccb7200090afee9</v>
+      </c>
+      <c r="E245" s="1">
+        <v>45352.67927597222</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Javier</v>
+      </c>
+      <c r="B246" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C246" t="str">
+        <v>1/3/2024, 17:26:37 - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D246" t="str">
+        <v>65e233cb5bdcc80008b1d3f5</v>
+      </c>
+      <c r="E246" s="1">
+        <v>45352.72626350694</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Pamela</v>
+      </c>
+      <c r="B247" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C247" t="str">
+        <v>1/3/2024, 17:29:33 - Vendedor Megamoto: hola buen dia, en que localidad tenes domicilio? asi te paso precio con patentamiento</v>
+      </c>
+      <c r="D247" t="str">
+        <v>65e20fc9f5f3100008cd9eda</v>
+      </c>
+      <c r="E247" s="1">
+        <v>45352.72830028935</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Edu</v>
+      </c>
+      <c r="B248" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C248" t="str">
+        <v>1/3/2024, 17:30:36 - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D248" t="str">
+        <v>65e209d6bceece000884db37</v>
+      </c>
+      <c r="E248" s="1">
+        <v>45352.72903538195</v>
+      </c>
+    </row>
+    <row r="249" xml:space="preserve">
+      <c r="A249" t="str">
+        <v>Lucas</v>
+      </c>
+      <c r="B249" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C249" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 17:31:42 - Lucas: ¡Hola! Podrías darme más información de...
+1/3/2024, 17:31:42 - MegaBot: ¡Hola Lucas! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 17:39:56 - Vendedor Megamoto: buenas soy jose de megamoto, para los prestamos personales lo consultamos con el nro de DNI, puede ser tuyo o de algun familiar amigo que te quiera salir de garante. Como requisito piden minimo de 21 años, con recibo de sueldo, monotributo, o jubilacion y sin deudas! Pasame un nro de dni y lo consulto en el momento.
+</v>
+      </c>
+      <c r="D249" t="str">
+        <v>65e23b2bafe6970008733623</v>
+      </c>
+      <c r="E249" s="1">
+        <v>45352.72979670139</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Matias Moran</v>
+      </c>
+      <c r="B250" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C250" t="str">
+        <v>1/3/2024, 17:33:28 - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D250" t="str">
+        <v>65e1fd1bb1d9bf0008fdc44c</v>
+      </c>
+      <c r="E250" s="1">
+        <v>45352.73101974537</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>Baigorria C. Matias A.</v>
+      </c>
+      <c r="B251" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C251" t="str">
+        <v>1/3/2024, 17:34:38 - Vendedor Megamoto: hola si hacemos creditos personales</v>
+      </c>
+      <c r="D251" t="str">
+        <v>65e234a66145f90008612f04</v>
+      </c>
+      <c r="E251" s="1">
+        <v>45352.731830902776</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>Alejo Rodriguez</v>
+      </c>
+      <c r="B252" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C252" t="str">
+        <v>1/3/2024, 17:50:24 - Vendedor Megamoto: en que localidad tenes domicilio? asi te paso precio con patentamiento</v>
+      </c>
+      <c r="D252" t="str">
+        <v>65dcb8e1520113000848b780</v>
+      </c>
+      <c r="E252" s="1">
+        <v>45352.74278583333</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Cristian Uhrig</v>
+      </c>
+      <c r="B253" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C253" t="str">
+        <v xml:space="preserve">1/3/2024, 17:50:53 - Vendedor Megamoto: blitz base $1.050.000 contado con patentamiento incluido </v>
+      </c>
+      <c r="D253" t="str">
+        <v>649e1e45e42a4d00081873b4</v>
+      </c>
+      <c r="E253" s="1">
+        <v>45352.74311982639</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>Eze</v>
+      </c>
+      <c r="B254" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C254" t="str">
+        <v>1/3/2024, 17:52:24 - Vendedor Megamoto: en que localidad tenes domicilio? asi te paso precio con patentamiento</v>
+      </c>
+      <c r="D254" t="str">
+        <v>62bcc5b3d8d5dc000a47fb9f</v>
+      </c>
+      <c r="E254" s="1">
+        <v>45352.74416692129</v>
+      </c>
+    </row>
+    <row r="255" xml:space="preserve">
+      <c r="A255" t="str">
+        <v>Rene</v>
+      </c>
+      <c r="B255" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C255" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 17:56:35 - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Decime, en que localidad tenes domicilio? asi te paso precio con patentamiento.
+</v>
+      </c>
+      <c r="D255" t="str">
+        <v>5e6435097f0cff00071ebf5c</v>
+      </c>
+      <c r="E255" s="1">
+        <v>45352.74708311343</v>
+      </c>
+    </row>
+    <row r="256" xml:space="preserve">
+      <c r="A256" t="str">
+        <v>.</v>
+      </c>
+      <c r="B256" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C256" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 17:59:21 - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto.Decime, en que localidad tenes domicilio? asi te paso precio con patentamiento.</v>
+      </c>
+      <c r="D256" t="str">
+        <v>65e20c4a007a0300080f173e</v>
+      </c>
+      <c r="E256" s="1">
+        <v>45352.749003032404</v>
+      </c>
+    </row>
+    <row r="257" xml:space="preserve">
+      <c r="A257" t="str">
+        <v>Pablo</v>
+      </c>
+      <c r="B257" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C257" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 17:59:44 - Pablo: ¡Hola! Podrías darme más información de... anticipo y tres fijas sin interés
+1/3/2024, 17:59:45 - MegaBot: ¡Hola Pablo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 18:04:59 - Vendedor Megamoto: Buenas, soy jose de megamoto, decime donde patentas y te paso el precio final en calle
+</v>
+      </c>
+      <c r="D257" t="str">
+        <v>65e241be4194500008f0b572</v>
+      </c>
+      <c r="E257" s="1">
+        <v>45352.74926993056</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Lautaro Ditolbi</v>
+      </c>
+      <c r="B258" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C258" t="str">
+        <v>1/3/2024, 18:02:55 - Vendedor Megamoto: Hola, Lautaro Ditolbi. Disculpe la demora en responder. Cómo estás?</v>
+      </c>
+      <c r="D258" t="str">
+        <v>65e0ccbb4635e400086b4b4d</v>
+      </c>
+      <c r="E258" s="1">
+        <v>45352.75147195602</v>
+      </c>
+    </row>
+    <row r="259" xml:space="preserve">
+      <c r="A259" t="str">
+        <v>Maggy Q.</v>
+      </c>
+      <c r="B259" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C259" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 18:06:52 - Maggy Q.: Hola, tengo algunas preguntas sobre Motomel S2 Cg 150 Full Nueva - Nuevo Ingreso 2023. https://moto.mercadolibre.com.ar/MLA-1518183694-motomel-s2-cg-150-full-nueva-nuevo-ingreso-2023-_JM?u=MjQ4MzQ2MTk4
+1/3/2024, 18:06:52 - MegaBot: ¡Hola Maggy Q.! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 18:33:55 - Vendedor Megamoto: hola buenas tardes, en este momento estoy sin stock, pero te puedo ofrecer la base, te interesaria?</v>
+      </c>
+      <c r="D259" t="str">
+        <v>65e2436a24a63c0008024156</v>
+      </c>
+      <c r="E259" s="1">
+        <v>45352.75422027778</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>George Fnx</v>
+      </c>
+      <c r="B260" t="str">
+        <v>instagram</v>
+      </c>
+      <c r="C260" t="str">
+        <v>1/3/2024, 18:13:00 - Vendedor Megamoto: te otorgan hasta $3.551.200 en 35 cuotas de $ 426.207,47</v>
+      </c>
+      <c r="D260" t="str">
+        <v>65e0d9a755542a0008022e0e</v>
+      </c>
+      <c r="E260" s="1">
+        <v>45352.75847962963</v>
+      </c>
+    </row>
+    <row r="261" xml:space="preserve">
+      <c r="A261" t="str">
+        <v>Ernesto</v>
+      </c>
+      <c r="B261" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C261" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 18:14:05 - Ernesto: ¡Hola! Podrías darme más información de...cuál es el valor
+1/3/2024, 18:14:05 - MegaBot: ¡Hola Ernesto! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 18:35:40 - Vendedor Megamoto: Buenas, soy jose de megamoto, decime donde patentas y te paso el precio final en calle
+</v>
+      </c>
+      <c r="D261" t="str">
+        <v>65e2451a257f0b00088027d7</v>
+      </c>
+      <c r="E261" s="1">
+        <v>45352.75923239583</v>
+      </c>
+    </row>
+    <row r="262" xml:space="preserve">
+      <c r="A262" t="str">
+        <v>Samuel.ez💙💛💙</v>
+      </c>
+      <c r="B262" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C262" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 18:22:26 - Samuel.ez💙💛💙: ¡Hola! Me gustaría conseguir más información sobre esto.
+1/3/2024, 18:22:26 - MegaBot: ¡Hola Samuel.ez💙💛💙! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 18:36:45 - Vendedor Megamoto: Buenas, soy jose de megamoto, decime donde patentas y te paso el precio final en calle
+</v>
+      </c>
+      <c r="D262" t="str">
+        <v>65e2470f54f709000984e7bb</v>
+      </c>
+      <c r="E262" s="1">
+        <v>45352.76502915509</v>
+      </c>
+    </row>
+    <row r="263" xml:space="preserve">
+      <c r="A263" t="str">
+        <v>Gustavo Gomez Villafañe</v>
+      </c>
+      <c r="B263" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C263" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 19:06:50 - Gustavo Gomez Villafañe: hola
+1/3/2024, 19:06:50 - MegaBot: ¡Hola Gustavo Gomez Villafañe! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 19:08:11 - Gustavo Gomez Villafañe: que tenes en 390cc
+1/3/2024, 19:08:11 - MegaBot: El modelo más cercano en cilindradas que vende Megamoto es: 302S marca Benelli. Puedes encontrar más información en el siguiente catálogo: [Catálogo Benelli 302S](https://www.benelli.com/ar-es/products/302s)【6:0†source】.
+1/3/2024, 19:09:02 - Gustavo Gomez Villafañe: precio?
+1/3/2024, 19:09:02 - MegaBot: Me disculpo por la inconveniencia, no pude encontrar el precio específico del modelo Benelli 302S en el documento. Te recomendaría visitar el sitio web oficial de Benelli o contactar directamente a un distribuidor autorizado para obtener la información más actualizada sobre los precios de sus modelos. ¿Hay algo más en lo que pueda ayudarte?</v>
+      </c>
+      <c r="D263" t="str">
+        <v>6596d62461f4a300081b28cb</v>
+      </c>
+      <c r="E263" s="1">
+        <v>45352.79586135416</v>
+      </c>
+    </row>
+    <row r="264" xml:space="preserve">
+      <c r="A264" t="str">
+        <v>Yoel Ojeda</v>
+      </c>
+      <c r="B264" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C264" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 20:21:03 - Yoel Ojeda: ¡Hola! Podrías darme más información de... AX100
+1/3/2024, 20:21:04 - MegaBot: ¡Hola Yoel Ojeda! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D264" t="str">
+        <v>65e262dde79b550008eb52ac</v>
+      </c>
+      <c r="E264" s="1">
+        <v>45352.847406493056</v>
+      </c>
+    </row>
+    <row r="265" xml:space="preserve">
+      <c r="A265" t="str">
+        <v>Gusty</v>
+      </c>
+      <c r="B265" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C265" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 20:27:48 - Gusty: ¡Hola! Podrías darme más información de...
+1/3/2024, 20:27:48 - MegaBot: ¡Hola Gusty! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+1/3/2024, 20:28:55 - Gusty: La de la publicacion negra con roja
+1/3/2024, 20:28:56 - MegaBot: Lamento informarte que no se pudo abrir el archivo. ¿Hay algo más en lo que pueda ayudarte?
+1/3/2024, 20:29:41 - Gusty: Vi esto en Facebook...
+1/3/2024, 20:29:41 - MegaBot: ¡Entiendo! Lamentablemente, no puedo acceder al contenido específico de la publicación que mencionas en Facebook. ¿Hay algo más en lo que pueda asistirte hoy en relación a las motos de Megamoto? ¡Estoy aquí para ayudarte!
+1/3/2024, 20:31:06 - Gusty: Precios de una moto como para ir al trabajo digamos mediana
+1/3/2024, 20:31:06 - MegaBot: Para proporcionarte información precisa sobre los precios de una moto mediana de Megamoto, necesitaría que me facilites el modelo específico en el que estás interesado. ¿Podrías por favor enviarme el nombre del modelo de moto que te interesa para poder brindarte los precios correspondientes?</v>
+      </c>
+      <c r="D265" t="str">
+        <v>65e264718a383c00088be85c</v>
+      </c>
+      <c r="E265" s="1">
+        <v>45352.852087141204</v>
+      </c>
+    </row>
+    <row r="266" xml:space="preserve">
+      <c r="A266" t="str">
+        <v>🥰</v>
+      </c>
+      <c r="B266" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C266" t="str" xml:space="preserve">
+        <v xml:space="preserve">1/3/2024, 20:29:59 - 🥰: ¡Hola! Podrías darme más información de...
+1/3/2024, 20:29:59 - MegaBot: ¡Hola 🥰! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D266" t="str">
+        <v>65e264f4de83ab0008f61f8c</v>
+      </c>
+      <c r="E266" s="1">
+        <v>45352.85360193287</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E214"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E266"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E266"/>
+  <dimension ref="A1:E297"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5315,7 +5315,24 @@
 1/3/2024, 19:08:11 - Gustavo Gomez Villafañe: que tenes en 390cc
 1/3/2024, 19:08:11 - MegaBot: El modelo más cercano en cilindradas que vende Megamoto es: 302S marca Benelli. Puedes encontrar más información en el siguiente catálogo: [Catálogo Benelli 302S](https://www.benelli.com/ar-es/products/302s)【6:0†source】.
 1/3/2024, 19:09:02 - Gustavo Gomez Villafañe: precio?
-1/3/2024, 19:09:02 - MegaBot: Me disculpo por la inconveniencia, no pude encontrar el precio específico del modelo Benelli 302S en el documento. Te recomendaría visitar el sitio web oficial de Benelli o contactar directamente a un distribuidor autorizado para obtener la información más actualizada sobre los precios de sus modelos. ¿Hay algo más en lo que pueda ayudarte?</v>
+1/3/2024, 19:09:02 - MegaBot: Me disculpo por la inconveniencia, no pude encontrar el precio específico del modelo Benelli 302S en el documento. Te recomendaría visitar el sitio web oficial de Benelli o contactar directamente a un distribuidor autorizado para obtener la información más actualizada sobre los precios de sus modelos. ¿Hay algo más en lo que pueda ayudarte?
+3/2/2024, 1:45:16 PM - Gustavo Gomez Villafañe: hola
+3/2/2024, 1:45:17 PM - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy?
+3/2/2024, 1:47:34 PM - Gustavo Gomez Villafañe: tenes motos en 150cc?
+3/2/2024, 1:47:34 PM - MegaBot: Sí, Megamoto tiene varios modelos en 150cc. Aquí te dejo una lista de opciones que comercializa Megamoto en esa cilindrada:
+1. S2 150 Start marca Motomel. Catálogo: [S2 150 Start](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-s2-150-start.pdf)
+2. S2 150 Aleación marca Motomel. Catálogo: [S2 150 Aleación](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-s2-150-aleacion.pdf)
+3. SKUA 150 Silver marca Motomel. Catálogo: [SKUA 150 Silver](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-skua-150-silver.pdf)
+4. SKUA 150 marca Motomel. Catálogo: [SKUA 150](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-skua-150.pdf)
+5. STRATO 150 Euro marca Motomel. Catálogo: [STRATO 150 Euro](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-strato-euro-150-led.pdf)
+6. STRATO 150 Alpino marca Motomel. Catálogo: [STRATO 150 Alpino](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-strato-alpino-150.pdf)
+Además, también hay un modelo de 150cc de la marca Benelli:
+7. TNT15 marca Benelli. Catálogo: [TNT15](https://www.benelli.com/ar-es/products/tnt-15)
+Si necesitas más información sobre alguno de estos modelos, ¡házmelo saber!
+2/3/2024, 15:43:06 - Gustavo Gomez Villafañe: megabot leads
+2/3/2024, 15:43:06 - MegaBot: ¡Hola! En Megamoto estamos aquí para ayudarte con la compra de tu moto. Si estás interesado en adquirir algún modelo en particular o necesitas información sobre nuestros métodos de pago, ¡estoy aquí para asistirte! ¿En qué puedo ayudarte hoy?
+2/3/2024, 15:47:07 - Gustavo Gomez Villafañe: megamoto leads
+2/3/2024, 15:47:08 - MegaBot: ¡Hola! ¿Estás interesado en algún modelo específico de moto de Megamoto o quieres más información sobre nuestros métodos de pago? ¡Estoy aquí para ayudarte! ¿En qué puedo asistirte hoy?</v>
       </c>
       <c r="D263" t="str">
         <v>6596d62461f4a300081b28cb</v>
@@ -5333,7 +5350,8 @@
       </c>
       <c r="C264" t="str" xml:space="preserve">
         <v xml:space="preserve">1/3/2024, 20:21:03 - Yoel Ojeda: ¡Hola! Podrías darme más información de... AX100
-1/3/2024, 20:21:04 - MegaBot: ¡Hola Yoel Ojeda! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
+1/3/2024, 20:21:04 - MegaBot: ¡Hola Yoel Ojeda! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+2/3/2024, 10:35:43 - Vendedor Megamoto: buen dia, en que localidad tenes domicilio? asi te paso precio con patentamiento </v>
       </c>
       <c r="D264" t="str">
         <v>65e262dde79b550008eb52ac</v>
@@ -5357,7 +5375,8 @@
 1/3/2024, 20:29:41 - Gusty: Vi esto en Facebook...
 1/3/2024, 20:29:41 - MegaBot: ¡Entiendo! Lamentablemente, no puedo acceder al contenido específico de la publicación que mencionas en Facebook. ¿Hay algo más en lo que pueda asistirte hoy en relación a las motos de Megamoto? ¡Estoy aquí para ayudarte!
 1/3/2024, 20:31:06 - Gusty: Precios de una moto como para ir al trabajo digamos mediana
-1/3/2024, 20:31:06 - MegaBot: Para proporcionarte información precisa sobre los precios de una moto mediana de Megamoto, necesitaría que me facilites el modelo específico en el que estás interesado. ¿Podrías por favor enviarme el nombre del modelo de moto que te interesa para poder brindarte los precios correspondientes?</v>
+1/3/2024, 20:31:06 - MegaBot: Para proporcionarte información precisa sobre los precios de una moto mediana de Megamoto, necesitaría que me facilites el modelo específico en el que estás interesado. ¿Podrías por favor enviarme el nombre del modelo de moto que te interesa para poder brindarte los precios correspondientes?
+3/2/2024, 2:37:06 PM - Vendedor Megamoto: Hola buen día cómo estás? Estás interesado en la CITYCOM 300</v>
       </c>
       <c r="D265" t="str">
         <v>65e264718a383c00088be85c</v>
@@ -5375,7 +5394,8 @@
       </c>
       <c r="C266" t="str" xml:space="preserve">
         <v xml:space="preserve">1/3/2024, 20:29:59 - 🥰: ¡Hola! Podrías darme más información de...
-1/3/2024, 20:29:59 - MegaBot: ¡Hola 🥰! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
+1/3/2024, 20:29:59 - MegaBot: ¡Hola 🥰! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+3/2/2024, 2:39:13 PM - Vendedor Megamoto: Hola buen día me decís que modelo de moto estás interesado? Que zona estas radicado para tener en cuenta el patentamiento?</v>
       </c>
       <c r="D266" t="str">
         <v>65e264f4de83ab0008f61f8c</v>
@@ -5384,9 +5404,596 @@
         <v>45352.85360193287</v>
       </c>
     </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>Delia Perez</v>
+      </c>
+      <c r="B267" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C267" t="str">
+        <v xml:space="preserve">2/3/2024, 10:31:51 - Vendedor Megamoto: Hola buen dia, en que localidad tenes domicilio? asi te paso precio con patentamiento </v>
+      </c>
+      <c r="D267" t="str">
+        <v>65e24f4722f657000840f027</v>
+      </c>
+      <c r="E267" s="1">
+        <v>45353.43823049768</v>
+      </c>
+    </row>
+    <row r="268" xml:space="preserve">
+      <c r="A268" t="str">
+        <v>Como Te Extraño Viejo</v>
+      </c>
+      <c r="B268" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C268" t="str" xml:space="preserve">
+        <v xml:space="preserve">2/3/2024, 10:34:52 - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?
+</v>
+      </c>
+      <c r="D268" t="str">
+        <v>65e255c0a4d2c300083aac5a</v>
+      </c>
+      <c r="E268" s="1">
+        <v>45353.44032559028</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>Mari Armoa</v>
+      </c>
+      <c r="B269" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C269" t="str">
+        <v>2/3/2024, 10:35:00 - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D269" t="str">
+        <v>65e25d6c2d1bb1000866d25f</v>
+      </c>
+      <c r="E269" s="1">
+        <v>45353.44042215278</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Fedee</v>
+      </c>
+      <c r="B270" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C270" t="str">
+        <v>2/3/2024, 10:36:15 - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D270" t="str">
+        <v>65e279080c9cae0008f1a2c7</v>
+      </c>
+      <c r="E270" s="1">
+        <v>45353.441294097225</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>Magui</v>
+      </c>
+      <c r="B271" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C271" t="str">
+        <v>2/3/2024, 10:36:27 - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D271" t="str">
+        <v>65e27eb6a68f4e0008080519</v>
+      </c>
+      <c r="E271" s="1">
+        <v>45353.441429907405</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>Martin Bolotta</v>
+      </c>
+      <c r="B272" t="str">
+        <v>facebook</v>
+      </c>
+      <c r="C272" t="str">
+        <v xml:space="preserve">3/2/2024, 2:01:26 PM - Vendedor Megamoto: buen dia, soy jose de megamoto, esa moto esta agotada de fabrica en 110 tengo la blitz de motomel </v>
+      </c>
+      <c r="D272" t="str">
+        <v>65e32f9be01bfb00085ae764</v>
+      </c>
+      <c r="E272" s="1">
+        <v>45353.458777604166</v>
+      </c>
+    </row>
+    <row r="273" xml:space="preserve">
+      <c r="A273" t="str">
+        <v>Maro</v>
+      </c>
+      <c r="B273" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C273" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 2:22:41 PM - Maro: ¡Hola! Podrías darme más información de...
+3/2/2024, 2:22:42 PM - MegaBot: ¡Hola Maro! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+3/2/2024, 2:38:16 PM - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?
+</v>
+      </c>
+      <c r="D273" t="str">
+        <v>65e3362e240b570008cf43e9</v>
+      </c>
+      <c r="E273" s="1">
+        <v>45353.47353829861</v>
+      </c>
+    </row>
+    <row r="274" xml:space="preserve">
+      <c r="A274" t="str">
+        <v>Triana</v>
+      </c>
+      <c r="B274" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C274" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 2:24:04 PM - Triana: Hola buen dia
+3/2/2024, 2:24:05 PM - MegaBot: ¡Hola Triana! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+3/2/2024, 2:24:10 PM - Triana: Quisiera hacer una consulta
+3/2/2024, 2:24:10 PM - MegaBot: ¡Hola! Claro, ¿en qué puedo ayudarte hoy?
+3/2/2024, 2:34:12 PM - Triana: Quiero saber si me pueden financiar una moto con mi dni? Y cuales serian los requisitos
+3/2/2024, 2:34:13 PM - MegaBot: Para solicitar financiación para una moto, generalmente necesitarás proporcionar tu DNI para que un vendedor pueda verificar si calificas para un crédito. Los requisitos específicos pueden variar según la entidad financiera o la tienda en la que estás interesado en adquirir la moto. Por lo tanto, te recomendaría que te comuniques directamente con la tienda o entidad financiera para obtener información detallada sobre los requisitos exactos para solicitar financiación para una moto. ¿Te gustaría que te ayude a encontrar información adicional sobre el proceso de financiación en alguna tienda en particular?
+3/2/2024, 2:38:38 PM - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?
+</v>
+      </c>
+      <c r="D274" t="str">
+        <v>65e334298bc29b000814d8d1</v>
+      </c>
+      <c r="E274" s="1">
+        <v>45353.47450077546</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>Javii</v>
+      </c>
+      <c r="B275" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C275" t="str">
+        <v>3/2/2024, 2:38:28 PM - Vendedor Megamoto: Hola buen día, me decís que modelo de moto estás interesado? Que zona estas radicado para tener en cuenta el patentamiento?</v>
+      </c>
+      <c r="D275" t="str">
+        <v>65e29256afbd050008d771d6</v>
+      </c>
+      <c r="E275" s="1">
+        <v>45353.484496226854</v>
+      </c>
+    </row>
+    <row r="276" xml:space="preserve">
+      <c r="A276" t="str">
+        <v>Eduardo</v>
+      </c>
+      <c r="B276" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C276" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 2:39:22 PM - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?
+</v>
+      </c>
+      <c r="D276" t="str">
+        <v>65e25f1d58eec60009e594cf</v>
+      </c>
+      <c r="E276" s="1">
+        <v>45353.48512626158</v>
+      </c>
+    </row>
+    <row r="277" xml:space="preserve">
+      <c r="A277" t="str">
+        <v>Daniel Neirot</v>
+      </c>
+      <c r="B277" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C277" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 2:48:36 PM - Daniel Neirot: ¡Hola! Podrías darme más información de...
+3/2/2024, 2:48:37 PM - MegaBot: ¡Hola Daniel Neirot! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+3/2/2024, 2:59:09 PM - Daniel Neirot: Hola quiero saber el precio de la Motomel bliz plus 110
+3/2/2024, 2:59:10 PM - MegaBot: Lamentablemente, no pude encontrar información específica sobre el precio de la Motomel Blitz Plus 110 en los documentos que has proporcionado. Para poder brindarte el precio exacto de ese modelo, necesitaría que por favor me envíes un nuevo mensaje con el nombre completo del modelo de Motomel que te interesa, por ejemplo, "Motomel Blitz Plus 110". Una vez que tengamos el nombre del modelo exacto, podré buscar el precio correspondiente. ¡Quedo atento a tu respuesta!
+3/2/2024, 3:03:51 PM - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto.Decime, en que localidad tenes domicilio? asi te paso precio con patentamiento.</v>
+      </c>
+      <c r="D277" t="str">
+        <v>65e33c4211e2390008c2ce20</v>
+      </c>
+      <c r="E277" s="1">
+        <v>45353.491534479166</v>
+      </c>
+    </row>
+    <row r="278" xml:space="preserve">
+      <c r="A278" t="str">
+        <v>El Loco 22😎😎😎😎</v>
+      </c>
+      <c r="B278" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C278" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 3:07:36 PM - El Loco 22😎😎😎😎: ¡Hola! Podrías darme más información de...
+3/2/2024, 3:07:36 PM - MegaBot: ¡Hola El Loco 22😎😎😎😎! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+3/2/2024, 5:44:08 PM - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?</v>
+      </c>
+      <c r="D278" t="str">
+        <v>65e340b58e14dc000814d3f1</v>
+      </c>
+      <c r="E278" s="1">
+        <v>45353.504722337966</v>
+      </c>
+    </row>
+    <row r="279" xml:space="preserve">
+      <c r="A279" t="str">
+        <v>El Negro Julio</v>
+      </c>
+      <c r="B279" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C279" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 3:26:23 PM - El Negro Julio: ¡Hola! Podrías darme más información de...Skua 150
+3/2/2024, 3:26:24 PM - MegaBot: ¡Hola El Negro Julio! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+3/2/2024, 4:34:20 PM - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?
+</v>
+      </c>
+      <c r="D279" t="str">
+        <v>65e3451d8bd6d40008947e6f</v>
+      </c>
+      <c r="E279" s="1">
+        <v>45353.5177777662</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>Diego Hernan</v>
+      </c>
+      <c r="B280" t="str">
+        <v>facebook</v>
+      </c>
+      <c r="C280" t="str">
+        <v xml:space="preserve">3/2/2024, 3:52:52 PM - Vendedor Megamoto: BUN DIA, SOMOS AGENCIA BENELLI Y MOTOMEL </v>
+      </c>
+      <c r="D280" t="str">
+        <v>65e33705cf2d0200088d735e</v>
+      </c>
+      <c r="E280" s="1">
+        <v>45353.53616195602</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>Alexis Reyes</v>
+      </c>
+      <c r="B281" t="str">
+        <v>facebook</v>
+      </c>
+      <c r="C281" t="str">
+        <v xml:space="preserve">3/2/2024, 3:54:14 PM - Vendedor Megamoto: buend ia soy jose de megamoto, la s2 base de contado patentada 1421000 pesos de contado </v>
+      </c>
+      <c r="D281" t="str">
+        <v>65e33ff007424d0008d692ec</v>
+      </c>
+      <c r="E281" s="1">
+        <v>45353.5371071412</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>Luis Nowosad</v>
+      </c>
+      <c r="B282" t="str">
+        <v>facebook</v>
+      </c>
+      <c r="C282" t="str">
+        <v>3/2/2024, 3:54:35 PM - Vendedor Megamoto: buenas, soy jose de megamoto, decime que moto buscas</v>
+      </c>
+      <c r="D282" t="str">
+        <v>65e348a2ff7974000834e469</v>
+      </c>
+      <c r="E282" s="1">
+        <v>45353.53735925926</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>Jesica</v>
+      </c>
+      <c r="B283" t="str">
+        <v>other</v>
+      </c>
+      <c r="C283" t="str">
+        <v>3/2/2024, 4:02:36 PM - Vendedor Megamoto: No message</v>
+      </c>
+      <c r="D283" t="str">
+        <v>65aeadc812a1f20008991e7e</v>
+      </c>
+      <c r="E283" s="1">
+        <v>45353.542927511575</v>
+      </c>
+    </row>
+    <row r="284" xml:space="preserve">
+      <c r="A284" t="str">
+        <v>Orlando</v>
+      </c>
+      <c r="B284" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C284" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 4:04:08 PM - Orlando: ¡Hola! Podrías darme más información de...
+3/2/2024, 4:04:08 PM - MegaBot: ¡Hola Orlando! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+3/2/2024, 4:35:06 PM - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?
+</v>
+      </c>
+      <c r="D284" t="str">
+        <v>65e34df5d71cf10008eb5364</v>
+      </c>
+      <c r="E284" s="1">
+        <v>45353.54398252315</v>
+      </c>
+    </row>
+    <row r="285" xml:space="preserve">
+      <c r="A285" t="str">
+        <v>Erik Gm</v>
+      </c>
+      <c r="B285" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C285" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 4:08:34 PM - Erik Gm: ¡Hola! Podrías darme más información de...
+3/2/2024, 4:08:35 PM - MegaBot: ¡Hola Erik Gm! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D285" t="str">
+        <v>65e34f00877243000851a8d1</v>
+      </c>
+      <c r="E285" s="1">
+        <v>45353.547069085645</v>
+      </c>
+    </row>
+    <row r="286" xml:space="preserve">
+      <c r="A286" t="str">
+        <v>Noe Cabreera</v>
+      </c>
+      <c r="B286" t="str">
+        <v>instagram</v>
+      </c>
+      <c r="C286" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 4:17:35 PM - Noe Cabreera: Buenas, cómo va? Quería saber si hacen Gina cuacion con estas Motomel CG S2 full y la RK 150
+3/2/2024, 4:17:35 PM - MegaBot: ¡Hola Noe Cabreera! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+3/2/2024, 4:17:46 PM - Noe Cabreera: Buenas, cómo va? Quería saber si hacen Gina cuacion con estas Motomel CG S2 full y la RK 150
+3/2/2024, 4:17:47 PM - MegaBot: Lamento informarte que Megamoto no vende la marca Motomel. Pero tenemos otros modelos disponibles que podrían ser de tu interés. A continuación te detallo los modelos disponibles:
+1. **CG 150 S2 START** marca Motomel a $1,391,562
+2. **CG 150 S2 FULL (aleac / disco)** marca Motomel a $1,651,950
+3. **RK 150** marca Keeway a $2,002,926
+Por favor ten en cuenta que los precios incluyen patentamiento, pero no incluyen el sellado de CABA. Será necesario confirmar los precios con un vendedor. Si aún no has elegido un modelo específico, ¿podrías informarme cuál es tu elección? Y si ya has seleccionado un modelo del listado, ¿podrías indicarme tu método de pago?</v>
+      </c>
+      <c r="D286" t="str">
+        <v>65e3511ce63c49000bd5ea25</v>
+      </c>
+      <c r="E286" s="1">
+        <v>45353.55332331019</v>
+      </c>
+    </row>
+    <row r="287" xml:space="preserve">
+      <c r="A287" t="str">
+        <v>...</v>
+      </c>
+      <c r="B287" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C287" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 4:19:53 PM - ...: ¡Hola! Me gustaría conseguir más información sobre esto.
+3/2/2024, 4:19:53 PM - MegaBot: ¡Hola ...! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+3/2/2024, 4:33:59 PM - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?
+</v>
+      </c>
+      <c r="D287" t="str">
+        <v>65e351a6a287c700085fa0ac</v>
+      </c>
+      <c r="E287" s="1">
+        <v>45353.55492076389</v>
+      </c>
+    </row>
+    <row r="288" xml:space="preserve">
+      <c r="A288" t="str">
+        <v>😝</v>
+      </c>
+      <c r="B288" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C288" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 4:31:18 PM - 😝: ¡Hola! Podrías darme más información de...
+3/2/2024, 4:31:18 PM - MegaBot: ¡Hola 😝! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+3/2/2024, 6:32:15 PM - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D288" t="str">
+        <v>65e3545388d9230008c113e9</v>
+      </c>
+      <c r="E288" s="1">
+        <v>45353.56285167824</v>
+      </c>
+    </row>
+    <row r="289" xml:space="preserve">
+      <c r="A289" t="str">
+        <v>Oscar Delgado</v>
+      </c>
+      <c r="B289" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C289" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 5:05:20 PM - Oscar Delgado: ¡Hola! Podrías darme más información de...
+3/2/2024, 5:05:21 PM - MegaBot: ¡Hola Oscar Delgado! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D289" t="str">
+        <v>65e35c4e96d68800083bb57a</v>
+      </c>
+      <c r="E289" s="1">
+        <v>45353.58648719907</v>
+      </c>
+    </row>
+    <row r="290" xml:space="preserve">
+      <c r="A290" t="str">
+        <v>Mari</v>
+      </c>
+      <c r="B290" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C290" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 5:10:51 PM - Mari: ¡Hola! Podrías darme más información de...
+3/2/2024, 5:10:52 PM - MegaBot: ¡Hola Mari! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+3/2/2024, 5:43:50 PM - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?</v>
+      </c>
+      <c r="D290" t="str">
+        <v>65e35d99f152a0000855e8bd</v>
+      </c>
+      <c r="E290" s="1">
+        <v>45353.590323715274</v>
+      </c>
+    </row>
+    <row r="291" xml:space="preserve">
+      <c r="A291" t="str">
+        <v>Juan Jose</v>
+      </c>
+      <c r="B291" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C291" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 5:29:09 PM - Juan Jose: ¡Hola! Podrías darme más información de...
+3/2/2024, 5:29:09 PM - MegaBot: ¡Hola Juan Jose! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+3/2/2024, 5:43:37 PM - Vendedor Megamoto: Hola, soy Nahir de Megamoto.
+Gracias por contactarte con Megamoto. Coméntame, qué moto estabas buscando?</v>
+      </c>
+      <c r="D291" t="str">
+        <v>65e361e21d2ef100081cb709</v>
+      </c>
+      <c r="E291" s="1">
+        <v>45353.60302401621</v>
+      </c>
+    </row>
+    <row r="292" xml:space="preserve">
+      <c r="A292" t="str">
+        <v>🇦🇷</v>
+      </c>
+      <c r="B292" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C292" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 5:42:29 PM - 🇦🇷: ¡Hola! Me gustaría conseguir más información sobre esto.
+3/2/2024, 5:42:30 PM - MegaBot: ¡Hola 🇦🇷! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D292" t="str">
+        <v>65e3650204c55a0008363881</v>
+      </c>
+      <c r="E292" s="1">
+        <v>45353.61228951389</v>
+      </c>
+    </row>
+    <row r="293" xml:space="preserve">
+      <c r="A293" t="str">
+        <v>No Disponible</v>
+      </c>
+      <c r="B293" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C293" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 5:48:00 PM - No Disponible: ¡Hola! Podrías darme más información de...
+3/2/2024, 5:48:00 PM - MegaBot: ¡Hola No Disponible! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+3/2/2024, 6:26:00 PM - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D293" t="str">
+        <v>65e3664d94ff130008e219f3</v>
+      </c>
+      <c r="E293" s="1">
+        <v>45353.61611605324</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>Facu😁⚽</v>
+      </c>
+      <c r="B294" t="str">
+        <v>whatsApp</v>
+      </c>
+      <c r="C294" t="str">
+        <v>3/2/2024, 5:53:38 PM - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D294" t="str">
+        <v>642ef33c92a9560008592139</v>
+      </c>
+      <c r="E294" s="1">
+        <v>45353.620027592595</v>
+      </c>
+    </row>
+    <row r="295" xml:space="preserve">
+      <c r="A295" t="str">
+        <v>Ezequiel Olivera</v>
+      </c>
+      <c r="B295" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C295" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 6:09:55 PM - Ezequiel Olivera: ¡Hola! Podrías darme más información de...
+3/2/2024, 6:09:56 PM - MegaBot: ¡Hola Ezequiel Olivera! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+3/2/2024, 6:25:38 PM - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D295" t="str">
+        <v>65e36b7141375600082d9d95</v>
+      </c>
+      <c r="E295" s="1">
+        <v>45353.63133991898</v>
+      </c>
+    </row>
+    <row r="296" xml:space="preserve">
+      <c r="A296" t="str">
+        <v>🦂</v>
+      </c>
+      <c r="B296" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C296" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 6:13:39 PM - 🦂: ¡Hola! Podrías darme más información de...
+3/2/2024, 6:13:39 PM - MegaBot: ¡Hola 🦂! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+3/2/2024, 6:25:26 PM - Vendedor Megamoto: buen dia, como estas?, en que moto estas interesado?, trabajamos con las marcas motomel, benelli, keeway y Suzuki, que modelo o cilindrada estas buscando?</v>
+      </c>
+      <c r="D296" t="str">
+        <v>65e36c5089ba190008f1af0d</v>
+      </c>
+      <c r="E296" s="1">
+        <v>45353.63392741898</v>
+      </c>
+    </row>
+    <row r="297" xml:space="preserve">
+      <c r="A297" t="str">
+        <v>Rodrigo</v>
+      </c>
+      <c r="B297" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C297" t="str" xml:space="preserve">
+        <v xml:space="preserve">3/2/2024, 6:18:35 PM - Rodrigo: ¡Hola! Podrías darme más información de Financiación de Motomel S2?
+3/2/2024, 6:18:36 PM - MegaBot: ¡Hola Rodrigo! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀</v>
+      </c>
+      <c r="D297" t="str">
+        <v>65e36d79856c8d000827dfaf</v>
+      </c>
+      <c r="E297" s="1">
+        <v>45353.63735754629</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E266"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E297"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/Leads.xlsx
+++ b/excel/Leads.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -873,7 +873,9 @@
         <v xml:space="preserve">03/03/2024 11:03:12 - Gustavo Gomez Villafañe: hola
 03/03/2024 11:03:13 - MegaBot: ¡Hola Gustavo Gomez Villafañe! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
 03/03/2024 11:03:26 - Gustavo Gomez Villafañe: tenes la benelli 600i?
-03/03/2024 11:03:26 - MegaBot: Sí, en Megamoto contamos con la Benelli TNT600i a un precio de $16.900.626. Puedes ver más detalles en el catálogo oficial en el siguiente enlace: [Catálogo Benelli TNT600i](https://www.benelli.com/ar-es/products/tnt600i)</v>
+03/03/2024 11:03:26 - MegaBot: Sí, en Megamoto contamos con la Benelli TNT600i a un precio de $16.900.626. Puedes ver más detalles en el catálogo oficial en el siguiente enlace: [Catálogo Benelli TNT600i](https://www.benelli.com/ar-es/products/tnt600i)
+03/03/2024 12:25:56 - Gustavo Gomez Villafañe: hola
+03/03/2024 12:25:56 - MegaBot: ¡Hola! ¿En qué puedo ayudarte hoy en Megamoto?</v>
       </c>
       <c r="D20" t="str">
         <v>6596d62461f4a300081b28cb</v>
@@ -900,9 +902,78 @@
         <v>45354.46154805556</v>
       </c>
     </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>Gg</v>
+      </c>
+      <c r="B22" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C22" t="str" xml:space="preserve">
+        <v xml:space="preserve">03/03/2024 12:41:26 - Gg: Ahora?
+03/03/2024 12:41:27 - MegaBot: ¡Hola Gg! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+03/03/2024 12:41:30 - Vendedor Megamoto: ¡Hola Gg! 👋 Soy MegaBot, Asistente Virtual de Megamoto. Estoy para ayudarte a comprar tu moto agilizando la atención por parte de nuestros vendedores. A veces me equivoco; por lo que agradezco tu paciencia. ¿Comenzamos por saber que moto estas buscando? 😀
+03/03/2024 13:08:57 - Gg: Hola tiene 150?
+03/03/2024 13:08:57 - MegaBot: ¡Hola! Sí, en Megamoto contamos con varias opciones de motos de 150 cc. Aquí te dejo las opciones disponibles con sus respectivas cilindradas y precios:
+1. RK 150 marca Keeway a $2.002.926. Catálogo: [RK 150](https://www.keeway.com/ar-es/products/rk-150)
+2. CG 150 S2 START marca Motomel a $1.391.562. Catálogo: [CG 150 S2 START](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-s2-150-start.pdf)
+3. CG 150 S2 FULL (aleación / disco) marca Motomel a $1.651.950. Catálogo: [CG 150 S2 FULL](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-s2-150-aleacion.pdf)
+4. SKUA 150 SILVER EDITION marca Motomel a $2.047.596. Catálogo: [SKUA 150 SILVER EDITION](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-skua-150-silver.pdf)
+5. SKUA 150 NEW GENERATION marca Motomel a $1.739.539. Catálogo: [SKUA 150 NEW GENERATION](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-skua-150.pdf)
+6. STRATO 150 EURO marca Motomel a $1.993.082. Catálogo: [STRATO 150 EURO](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-strato-euro-150-led.pdf)
+7. STRATO 150 ALPINO marca Motomel a $2.103.179. Catálogo: [STRATO 150 ALPINO](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-strato-alpino-150.pdf)
+8. TNT 15 marca Benelli a $2.357.988. Catálogo: [TNT 15](https://www.benelli.com/ar-es/products/tnt-15)
+Por favor, revisa las opciones y los catálogos en los enlaces proporcionados para más detalles sobre cada modelo. Si necesitas más información o ayuda para elegir, ¡aquí estoy para asistirte! 😊
+03/03/2024 13:09:00 - Vendedor Megamoto: ¡Hola! Sí, en Megamoto contamos con varias opciones de motos de 150 cc. Aquí te dejo las opciones disponibles con sus respectivas cilindradas y precios:
+1. RK 150 marca Keeway a $2.002.926. Catálogo: [RK 150](https://www.keeway.com/ar-es/products/rk-150)
+2. CG 150 S2 START marca Motomel a $1.391.562. Catálogo: [CG 150 S2 START](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-s2-150-start.pdf)
+3. CG 150 S2 FULL (aleación / disco) marca Motomel a $1.651.950. Catálogo: [CG 150 S2 FULL](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-s2-150-aleacion.pdf)
+4. SKUA 150 SILVER EDITION marca Motomel a $2.047.596. Catálogo: [SKUA 150 SILVER EDITION](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-skua-150-silver.pdf)
+5. SKUA 150 NEW GENERATION marca Motomel a $1.739.539. Catálogo: [SKUA 150 NEW GENERATION](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-skua-150.pdf)
+6. STRATO 150 EURO marca Motomel a $1.993.082. Catálogo: [STRATO 150 EURO](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-strato-euro-150-led.pdf)
+7. STRATO 150 ALPINO marca Motomel a $2.103.179. Catálogo: [STRATO 150 ALPINO](https://motomel.com.ar/fichas-tecnicas/ficha-tecnica-strato-alpino-150.pdf)
+8. TNT 15 marca Benelli a $2.357.988. Catálogo: [TNT 15](https://www.benelli.com/ar-es/products/tnt-15)
+Por favor, revisa las opciones y los catálogos en los enlaces proporcionados para más detalles sobre cada modelo. Si necesitas más información o ayuda para elegir, ¡aquí estoy para asistirte! 😊
+03/03/2024 13:30:20 - Gg: Ahora tienen la 251?
+03/03/2024 13:30:20 - MegaBot: ¡Claro! En Megamoto también contamos con el modelo 251 S de la marca Benelli, con un precio de $5.274.076. Este modelo ofrece prestaciones y características específicas que pueden ser de tu interés. Recuerda que los precios incluyen patentamiento, pero no cubren el sellado de CABA, y es importante confirmarlos con un vendedor de Megamoto.
+Antes de continuar, ¿podrías indicarme si te interesa alguno de los modelos de la lista anterior o si estás considerando la Benelli 251 S? Así podré brindarte información más detallada y personalizada según tus preferencias. ¡Quedo a tu disposición para ayudarte en tu elección! 😊
+03/03/2024 13:30:23 - Vendedor Megamoto: ¡Claro! En Megamoto también contamos con el modelo 251 S de la marca Benelli, con un precio de $5.274.076. Este modelo ofrece prestaciones y características específicas que pueden ser de tu interés. Recuerda que los precios incluyen patentamiento, pero no cubren el sellado de CABA, y es importante confirmarlos con un vendedor de Megamoto.
+Antes de continuar, ¿podrías indicarme si te interesa alguno de los modelos de la lista anterior o si estás considerando la Benelli 251 S? Así podré brindarte información más detallada y personalizada según tus preferencias. ¡Quedo a tu disposición para ayudarte en tu elección! 😊
+03/03/2024 13:32:00 - Gg: Excelente😆 como se puede pagar?
+03/03/2024 13:32:00 - MegaBot: Puedes pagar tu moto en Megamoto de diversas formas. Los métodos de pago disponibles son en efectivo, con tarjetas de crédito, a través de préstamos o también combinando varias formas de pago, según lo prefieras. Si estás interesado en pagar con un préstamo, necesitaríamos saber tu DNI para verificar si calificas para acceder a la financiación.
+¿Tienes alguna preferencia en cuanto al método de pago o te gustaría recibir más información sobre las opciones disponibles? Estoy aquí para ayudarte a encontrar la mejor forma de pago para tu nueva moto. ¡No dudes en consultarme cualquier duda que tengas! 😊
+03/03/2024 13:32:03 - Vendedor Megamoto: Puedes pagar tu moto en Megamoto de diversas formas. Los métodos de pago disponibles son en efectivo, con tarjetas de crédito, a través de préstamos o también combinando varias formas de pago, según lo prefieras. Si estás interesado en pagar con un préstamo, necesitaríamos saber tu DNI para verificar si calificas para acceder a la financiación.
+¿Tienes alguna preferencia en cuanto al método de pago o te gustaría recibir más información sobre las opciones disponibles? Estoy aquí para ayudarte a encontrar la mejor forma de pago para tu nueva moto. ¡No dudes en consultarme cualquier duda que tengas! 😊</v>
+      </c>
+      <c r="D22" t="str">
+        <v>640f3ca9d5b0fcf829d24a3b</v>
+      </c>
+      <c r="E22" s="1">
+        <v>45354.52822710648</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>Ezequiel M.f.</v>
+      </c>
+      <c r="B23" t="str">
+        <v>whatsapp</v>
+      </c>
+      <c r="C23" t="str" xml:space="preserve">
+        <v xml:space="preserve">03/03/2024 13:12:04 - Ezequiel M.f.: ¡Hola! Me gustaría conseguir más información sobre esto.
+Motomel Skua 150
+03/03/2024 13:12:05 - MegaBot: ¡Hola Ezequiel M.f.! 👋 Soy MegaBot, Asistente Virtual de Megamoto, puedo cometer errores. Estoy para agilizar tu atención y luego un vendedor se pondrá en contacto contigo. ¿Qué moto estás buscando? 😀</v>
+      </c>
+      <c r="D23" t="str">
+        <v>65e4a1503aa1aa0008159507</v>
+      </c>
+      <c r="E23" s="1">
+        <v>45354.549499340275</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E23"/>
   </ignoredErrors>
 </worksheet>
 </file>